--- a/data/02_intermediate/cleaned_Dooz_Kawa_songs.xlsx
+++ b/data/02_intermediate/cleaned_Dooz_Kawa_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ni dieu, ni maître Darwiniste, peut-être, accompli Mais j'respecte tous ceux qui prient et m'adresse aux extrémistes Moi, j'ai aucun parti pris, ni d'idéaux Simplement je fais partie du parti des oiseaux Et si les mots que j'argumente sont une attaque envers les cieux Est-il possible pour vous d'entendre que je ne puisse pas croire en Dieu ? Tout bébés on jouait à la guerre au milieu du yard Notre territoire encerclé par des éclats d'verre À défendre un drapeau noir planté sur un tas d'terre Accompagnés d'un tas d'frères, musulmans, chrétiens ou juifs Armés tous d'M16 en plastique Le temps passé, les armes devenues automatiques On les a posées puis changé nos cibles Aucun de nous n'a pris part aux génocides Anti, t'es pas comme moi alors t'as tort puisqu'avec nous Dieu est d'accord Pff... On peut plus parler alors Ah si, au fait j'ai vu ton dieu, j'me suis engueulé avec lui Au nom des jeunes filles qu'on excise, ou qu'on lapide Enfin j'm'en rappelle plus Toi dis-moi c'est dans quel passage de la Bible ou d'la Torah ou du Coran Ah oui c'est vrai, tu sais pas lire T'énerve pas, j'devine, vous êtes tous excusés du fait d'une loi divine Enfin plutôt par la traduction qui va dans le cadre de la cause Et Dieu vous protège... Ou bien est-ce le Kalashnikov ? Quand t'exécutes ceux qui protestent et qui ont pas l'même dieu que le tien T'aimerais bien être un martyr parce qu't'es un déchet en humain Ça fait quoi le sang des enfants sur les mains ? Moralité écoute bien la prochaine strophe Peu importe ta peau et si ça choque... Vous êtes les descendants d'Adolf You might also like Moi j'représente pour tous ceux qui prient un dieu d'amour Celui qui fait qu'on s'aime dans les cages en bas des tours J'représente pour tous ceux qui prient un dieu d'amour Celui qui fait qu'on s'aime dans le monde et les alentours Et celui qui condamne mon texte devra s'poser la question Est-ce que lui-même respecte alors ma liberté d'expression ? Non soi-disant, il est tellement bridé et victime Ça m'rappelle les nazis qui décimaient ceux qui dessinent Si j'me destine à l'enfer en caricaturant Allah C'est moi seul que ça concerne, la foi ne regarde que soi Et sur l'moral, bien souvent la religion n'est qu'une identité sociale Moi j'kiffe la liberté même si l'humanité m'fait mal J'suis d'ces gosses sans avenir C'est intelligent de dire C'est pour les types qui mangent pas d'porc Puis montrer ton gun dans le clip comme si c'était la classe d'avoir une arme Sans parler des amalgames Le jour où ton gamin se prend une balle on en reparle Tu crois être un rebelle avec BM et Lacoste Mais t'es qu'un outil du système avec tes deux gardes du corps Aucun souci pour elle, la religion marchera Tant qu'se sentiront spirituels grâce à elle trop d'types sans personnalité J'crois qu'personne n'a idée Le premier commandement était aimez-vous les uns les autres On est tous frères Pourtant la religion est la cause des plus grands massacres sur Terre C'est indéniable Nique sa mère alors, j'suis l'diable Puisqu'ils parlent tous d'amour Tous les humains du monde pourraient croiser leur religion en un carrefour Et p't-être que là j'croirais en Dieu et la paix au Darfour Mais en attendant que les guerres cessent J'me mettrais pas à genoux pour une hypothèse qu'engendre la haine Vous êtes tous les mêmes, différemment habillés J'ai pas oublié, il est écrit aux USA Je crois en Dieu sur les billets Alors c'est normal que les bombes en Palestine résonnent P't-êt' que c'est moi l'Sheitan Autant qu'Israël est le paradis fiscal de Washington En tout cas moi j'ai tué personne, j'rappe pour que c'refrain résonne J'rappe pour les dieux d'amour génocide au Darfour J'représente un dieu d'amour Hutus et Tutsis au Rwanda J'rappe pour les dieux d'amour catholiques, protestants d'Irlande Tolérance J'rappe pour les dieux d'amour musulmans, chrétiens au Kosovo J'représente un dieu d'amour, qu'est-ce tu veux ? Même si j'crois en rien, ce morceau est dédicacé à mes frères tibétains Qui sont morts pour un dieu d'amour Sans s'défendre... En silence...11</t>
+          <t>Ni dieu, ni maître Darwiniste, peut-être, accompli Mais j'respecte tous ceux qui prient et m'adresse aux extrémistes Moi, j'ai aucun parti pris, ni d'idéaux Simplement je fais partie du parti des oiseaux Et si les mots que j'argumente sont une attaque envers les cieux Est-il possible pour vous d'entendre que je ne puisse pas croire en Dieu ? Tout bébés on jouait à la guerre au milieu du yard Notre territoire encerclé par des éclats d'verre À défendre un drapeau noir planté sur un tas d'terre Accompagnés d'un tas d'frères, musulmans, chrétiens ou juifs Armés tous d'M16 en plastique Le temps passé, les armes devenues automatiques On les a posées puis changé nos cibles Aucun de nous n'a pris part aux génocides Anti, t'es pas comme moi alors t'as tort puisqu'avec nous Dieu est d'accord Pff... On peut plus parler alors Ah si, au fait j'ai vu ton dieu, j'me suis engueulé avec lui Au nom des jeunes filles qu'on excise, ou qu'on lapide Enfin j'm'en rappelle plus Toi dis-moi c'est dans quel passage de la Bible ou d'la Torah ou du Coran Ah oui c'est vrai, tu sais pas lire T'énerve pas, j'devine, vous êtes tous excusés du fait d'une loi divine Enfin plutôt par la traduction qui va dans le cadre de la cause Et Dieu vous protège... Ou bien est-ce le Kalashnikov ? Quand t'exécutes ceux qui protestent et qui ont pas l'même dieu que le tien T'aimerais bien être un martyr parce qu't'es un déchet en humain Ça fait quoi le sang des enfants sur les mains ? Moralité écoute bien la prochaine strophe Peu importe ta peau et si ça choque... Vous êtes les descendants d'Adolf Moi j'représente pour tous ceux qui prient un dieu d'amour Celui qui fait qu'on s'aime dans les cages en bas des tours J'représente pour tous ceux qui prient un dieu d'amour Celui qui fait qu'on s'aime dans le monde et les alentours Et celui qui condamne mon texte devra s'poser la question Est-ce que lui-même respecte alors ma liberté d'expression ? Non soi-disant, il est tellement bridé et victime Ça m'rappelle les nazis qui décimaient ceux qui dessinent Si j'me destine à l'enfer en caricaturant Allah C'est moi seul que ça concerne, la foi ne regarde que soi Et sur l'moral, bien souvent la religion n'est qu'une identité sociale Moi j'kiffe la liberté même si l'humanité m'fait mal J'suis d'ces gosses sans avenir C'est intelligent de dire C'est pour les types qui mangent pas d'porc Puis montrer ton gun dans le clip comme si c'était la classe d'avoir une arme Sans parler des amalgames Le jour où ton gamin se prend une balle on en reparle Tu crois être un rebelle avec BM et Lacoste Mais t'es qu'un outil du système avec tes deux gardes du corps Aucun souci pour elle, la religion marchera Tant qu'se sentiront spirituels grâce à elle trop d'types sans personnalité J'crois qu'personne n'a idée Le premier commandement était aimez-vous les uns les autres On est tous frères Pourtant la religion est la cause des plus grands massacres sur Terre C'est indéniable Nique sa mère alors, j'suis l'diable Puisqu'ils parlent tous d'amour Tous les humains du monde pourraient croiser leur religion en un carrefour Et p't-être que là j'croirais en Dieu et la paix au Darfour Mais en attendant que les guerres cessent J'me mettrais pas à genoux pour une hypothèse qu'engendre la haine Vous êtes tous les mêmes, différemment habillés J'ai pas oublié, il est écrit aux USA Je crois en Dieu sur les billets Alors c'est normal que les bombes en Palestine résonnent P't-êt' que c'est moi l'Sheitan Autant qu'Israël est le paradis fiscal de Washington En tout cas moi j'ai tué personne, j'rappe pour que c'refrain résonne J'rappe pour les dieux d'amour génocide au Darfour J'représente un dieu d'amour Hutus et Tutsis au Rwanda J'rappe pour les dieux d'amour catholiques, protestants d'Irlande Tolérance J'rappe pour les dieux d'amour musulmans, chrétiens au Kosovo J'représente un dieu d'amour, qu'est-ce tu veux ? Même si j'crois en rien, ce morceau est dédicacé à mes frères tibétains Qui sont morts pour un dieu d'amour Sans s'défendre... En silence...11</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dooz Kawa J'aurais aimé me faire la belle J'aurais aimé me faire la belle que la belle ce soit oit Dans une nuit éternelle que l'on baise que l'on boive Que je lèche ton écume dans un cunnilingus Qu'on s'endorme sur les plumes des cumulonimbus J'aurais voulu me faire la belle j'en avais pas le courage Pourtant voleur dealer au HLM de la gare Connu pour sa violence et ses jours en gardav' De ses jours qu'on garde grave de ma présence sur terre Laissons mourir l'ennui du bal qui nous démasque Viens marchons dans la nuit de l'eau lourde du lac Je rêvais de me faire la belle et tant pis que tu sois prises Te kidnapper je m'abaisse comme Hadès aux abysses J'aurais aimé me faire la belle que la belle ce soit oit Dans une nuit éternelle que l'on baise que l'on boive Que je lèche ton écume dans un cunnilingus Qu'on s'endorme sur les plumes des cumulonimbus On venait donc d'Atlantide, de ces cités détruites Les collèges devenus camps de réfugiés politique J'aurais aimé qu'on soit grand t'dessaper toute entière Lorsque qu'on était enfant que j'escaladais ta gouttière On se tenait par les doigts on se mordait par les yeux On savait pas faut faire quoi mais j'aurais voulu le faire à toi Que tu me vois pas grandi sous-aisé toujours ivre Puisque quand t'es parti moi j'ai cessé de vivre Vers l'amour passé à deux doigts de toi Je suis mort plusieurs fois dans le dedans de moi Je suis qu'un pirate en l'usage balafré dans le visage Un albator hardcore naufragé sans rivage x2 J'aurais aimé me faire la belle que la belle ce soit oit Dans une nuit éternelle que l'on baise que l'on boive Que je lèche ton écume dans un cunnilingus Qu'on s'endorme sur les plumes des cumulonimbusYou might also like1</t>
+          <t>Dooz Kawa J'aurais aimé me faire la belle J'aurais aimé me faire la belle que la belle ce soit oit Dans une nuit éternelle que l'on baise que l'on boive Que je lèche ton écume dans un cunnilingus Qu'on s'endorme sur les plumes des cumulonimbus J'aurais voulu me faire la belle j'en avais pas le courage Pourtant voleur dealer au HLM de la gare Connu pour sa violence et ses jours en gardav' De ses jours qu'on garde grave de ma présence sur terre Laissons mourir l'ennui du bal qui nous démasque Viens marchons dans la nuit de l'eau lourde du lac Je rêvais de me faire la belle et tant pis que tu sois prises Te kidnapper je m'abaisse comme Hadès aux abysses J'aurais aimé me faire la belle que la belle ce soit oit Dans une nuit éternelle que l'on baise que l'on boive Que je lèche ton écume dans un cunnilingus Qu'on s'endorme sur les plumes des cumulonimbus On venait donc d'Atlantide, de ces cités détruites Les collèges devenus camps de réfugiés politique J'aurais aimé qu'on soit grand t'dessaper toute entière Lorsque qu'on était enfant que j'escaladais ta gouttière On se tenait par les doigts on se mordait par les yeux On savait pas faut faire quoi mais j'aurais voulu le faire à toi Que tu me vois pas grandi sous-aisé toujours ivre Puisque quand t'es parti moi j'ai cessé de vivre Vers l'amour passé à deux doigts de toi Je suis mort plusieurs fois dans le dedans de moi Je suis qu'un pirate en l'usage balafré dans le visage Un albator hardcore naufragé sans rivage x2 J'aurais aimé me faire la belle que la belle ce soit oit Dans une nuit éternelle que l'on baise que l'on boive Que je lèche ton écume dans un cunnilingus Qu'on s'endorme sur les plumes des cumulonimbus1</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Merci de laisser un message après le bip sonore Ouais Nano, t'sais j'me disais j'aimerai bien écrire un texte sur toutes les lettres que j'ai écrit où j'avais aucun retour, où j'me disais que parfois l'amour, ça semble être qu'un train qui part ou un avion qui décolle, un truc du style quoi, et, j'me dis ça pourrait donner un truc du style, comme ça A ta santé toi l'arrache-cur Fait pour enorpheliner à coup de baisers mitrailleurs Son lit est un champ de bataille, terrain de passions destructrices Où gît une peluche à fracas facial qui agonise des trucs tristes Ils approcheront les curieux et y s'ra trop tard quand tincises Le tire-bouchon à écurer qui les cardiectomise Les muses sont peut-être des déesses attirées par des vains mots Mais comme les poètes elles disparaissent et Verlaine tire sur Rimbaud Le socle qui se lézarde écarte la flore intime Et fait battre le cur de marbre des statues Florentine Ils sèchent les cours pour de la baise, détestent les mathématiques Mais leurs relations amoureuses ne sont que des algorithmes Moi le bagnard de l'Amazone, sa mine est grise et pâle A cause de ce qui rend les hommes plus schizophrènes qu'un bicéphale Je reviendrai de Sibérie armé et bardé de médailles Mais mes baisers jadis arides seront plus froids que du métal Voici le temps des assassins Jouez les angélus Quand l'amour touche a sa fin Vous riez les anges élus You might also likeVoici le temps des assassins On aura bien combattu Et si vous me croisez dans la rue Priez pour mon salut Voici le temps des assassins Jouez les angélus Quand l'amour touche a sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous me croisez dans la rue Priez pour son salut A ta santé toi le vampire Qu'à le baiser clairvoyant mais qui rend les gens pires Et tu survoles le monde comme une baigneuse des hautes sphères Ta beauté illumine d'une ombre dédaigneuse et austère Pour embrasser tes nécrophiles de l'ossuaire d'où tu descends Tes baisés à la chlorophylle possèdent un arrière gout de sang Le vampire est dément, faire l'amour n'est qu'un combat souple Alors moi la nuit je mens, comme Bashung Car chacun veut qu'on l'aime et dans la conquête les mots filent Puis deux trous sous les oreilles et lhémorragie hémophile Parler à un tombeau d'usine puis on attend que ce bruit cesse Car à part de la musique on fait tout de travers dans la tristesse Mon cur pèse un piano, Lili Brik souviens-tu t'en ? A ton doigt léger comme un anneau dépérissent cent vingt titans Je reviendrai, avec un couteau planté dans ton faux air de gitane Et ta tête capillotractée dans mes interdigitales A ta santé toi la beauté du diable Pour qui l'homme traverse l'enfer et qui rend triste comme du sable Si tout ça nous le savons que le Styx mène vers les rapides On vole quand même les avirons d'Charon pour y aller de plus rapide Les armées des milices célestes brulées par les braises diaphanes Tourmentent Méphistophélès quand il souffle sur les femmes Si l'amoureux se sent si seul quand l'ange déchu déchoit C'est que dans le tissu social on n'est fait que de soi Les croisades de la galoche sont une éternelle chevauchée Où les hippocampes sans accroches se fracassent, sur les rochers Dans la tempête de Skéol l'amoureux frappé d'aphonie Attriste l'entourage impuissant de l'voir sombré vers la folie Quand parfois il faisait froid, juste s'asseoir devant elle Son regard est un feu de bois qui réchauffait mes grandes ailes J'reviendrai pas ni toi d'ailleurs de cette cabane J'vais voir ta beauté intérieure parce que chez moi y'a pas dâme Chuut, c'est juste moi j'viens t'embrasser, dans ton dernier bain d'épines Et ça va laisser sur tes lèvres un gout de Benzodiazepine T'es un chef d'orchestre Russe qu'a suscité pas mal d'cris ??? Ou bien t'es juste la roulette Russe qu'a suicidé Mayakovsky Viens on s'embrasse sous les linceuls, j'viens avec toi mon assassin Parce que tu sais l'éternité c'est long tout seul, surtout vers la fin.. sample de Sealed With A Kiss2</t>
+          <t>Merci de laisser un message après le bip sonore Ouais Nano, t'sais j'me disais j'aimerai bien écrire un texte sur toutes les lettres que j'ai écrit où j'avais aucun retour, où j'me disais que parfois l'amour, ça semble être qu'un train qui part ou un avion qui décolle, un truc du style quoi, et, j'me dis ça pourrait donner un truc du style, comme ça A ta santé toi l'arrache-cur Fait pour enorpheliner à coup de baisers mitrailleurs Son lit est un champ de bataille, terrain de passions destructrices Où gît une peluche à fracas facial qui agonise des trucs tristes Ils approcheront les curieux et y s'ra trop tard quand tincises Le tire-bouchon à écurer qui les cardiectomise Les muses sont peut-être des déesses attirées par des vains mots Mais comme les poètes elles disparaissent et Verlaine tire sur Rimbaud Le socle qui se lézarde écarte la flore intime Et fait battre le cur de marbre des statues Florentine Ils sèchent les cours pour de la baise, détestent les mathématiques Mais leurs relations amoureuses ne sont que des algorithmes Moi le bagnard de l'Amazone, sa mine est grise et pâle A cause de ce qui rend les hommes plus schizophrènes qu'un bicéphale Je reviendrai de Sibérie armé et bardé de médailles Mais mes baisers jadis arides seront plus froids que du métal Voici le temps des assassins Jouez les angélus Quand l'amour touche a sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous me croisez dans la rue Priez pour mon salut Voici le temps des assassins Jouez les angélus Quand l'amour touche a sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous me croisez dans la rue Priez pour son salut A ta santé toi le vampire Qu'à le baiser clairvoyant mais qui rend les gens pires Et tu survoles le monde comme une baigneuse des hautes sphères Ta beauté illumine d'une ombre dédaigneuse et austère Pour embrasser tes nécrophiles de l'ossuaire d'où tu descends Tes baisés à la chlorophylle possèdent un arrière gout de sang Le vampire est dément, faire l'amour n'est qu'un combat souple Alors moi la nuit je mens, comme Bashung Car chacun veut qu'on l'aime et dans la conquête les mots filent Puis deux trous sous les oreilles et lhémorragie hémophile Parler à un tombeau d'usine puis on attend que ce bruit cesse Car à part de la musique on fait tout de travers dans la tristesse Mon cur pèse un piano, Lili Brik souviens-tu t'en ? A ton doigt léger comme un anneau dépérissent cent vingt titans Je reviendrai, avec un couteau planté dans ton faux air de gitane Et ta tête capillotractée dans mes interdigitales A ta santé toi la beauté du diable Pour qui l'homme traverse l'enfer et qui rend triste comme du sable Si tout ça nous le savons que le Styx mène vers les rapides On vole quand même les avirons d'Charon pour y aller de plus rapide Les armées des milices célestes brulées par les braises diaphanes Tourmentent Méphistophélès quand il souffle sur les femmes Si l'amoureux se sent si seul quand l'ange déchu déchoit C'est que dans le tissu social on n'est fait que de soi Les croisades de la galoche sont une éternelle chevauchée Où les hippocampes sans accroches se fracassent, sur les rochers Dans la tempête de Skéol l'amoureux frappé d'aphonie Attriste l'entourage impuissant de l'voir sombré vers la folie Quand parfois il faisait froid, juste s'asseoir devant elle Son regard est un feu de bois qui réchauffait mes grandes ailes J'reviendrai pas ni toi d'ailleurs de cette cabane J'vais voir ta beauté intérieure parce que chez moi y'a pas dâme Chuut, c'est juste moi j'viens t'embrasser, dans ton dernier bain d'épines Et ça va laisser sur tes lèvres un gout de Benzodiazepine T'es un chef d'orchestre Russe qu'a suscité pas mal d'cris ??? Ou bien t'es juste la roulette Russe qu'a suicidé Mayakovsky Viens on s'embrasse sous les linceuls, j'viens avec toi mon assassin Parce que tu sais l'éternité c'est long tout seul, surtout vers la fin.. sample de Sealed With A Kiss2</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A ton avis j'ai vraiment l'air d'un monstre ? Qui de nous deux est le monstre ? J'suis cent pour cent jouet musical J'ai le doigté qui t'amuses au calme T'facon on est àl pour s'amuser Parait que je ressens que de la musique Pour toi je suis déshumanisé J'suis l'nord t'es l'sud de la Corée On sait tous les deux bien que ça cloche Approche, à moins que tu craignes dêtre dévorée Comme par une meute de chiens féroces Elle m'envoie des coeurs sur WhatsApp Les photos pourries de sa chatte J'vois que mes relations intimes s'effacent comme une story Snapchat Elles veulent cocher rappeur sur la page du blog Regarde la hum grimpe dans l'hôtel après les concerts Ta famille te conseille prends garde à toi Car j'ai l'appétit de Gargantua Demi-racaille des tranchées j'suis le soldat que tu gardes en toi Entre deux batailles de tranchée Les sales putes hardcores qui minaudent Donnez-moi en encore une autre Mon dieu j'suis pas croyant mais je fais des prières pour Milo Que la Vénus aille se faire enculer Pendant que j'matte sa silhouette couler J'suis un monstre sur son radeau Bah ouais j'sais bien qu'y en aura d'autres Mon radeau s'éloigne comme avant Et j'apercois déjà plus la terre Ca me sert comme quand pleurait maman Pendant que papa se désaltère Mon frère t'es un bonhomme à mes yeux Au milieux de ce monde d'eunuques Si un jour je retombe amoureux Tire-moi une balle dans la nuque C'est pour ca je prends souvent mes proches dans les bras Tout ceux qui m'aiment a chaque instant sans l'afficher sur Insta You might also like X2 Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté de faire des efforts j'suis que le monstre qu'ils sentent en moi Je sais que les démons conspirent, désirent que l'amour soit gâché Que la seule chose qui les attirent c'est les ruines d'une âme saccagée J'efface les traces de mes parents et j'essaie d'être bien dans mon kiffe Mais j'sais que je saigne transparent et que les chiens des démons me suivent Tous les espoirs sont vains, dêtre sauvé par l'extérieur Reposer ma tête sur son sein pour écouter battre son coeur Car le peu qu'Dieu m'autorisa, c'est ce qui dérange les normaux Et ma main sautolysera si j'effleure les anges de Duino? Tu sais je crois bien que je suis la nuit Et que t'existes que dans mes songes baby Jespère qu'tu vas bien dormir bien enveloppée dans du mensonge Il ne faut jamais être sincère, ni dire vraiment ce qu'on ressent Pourtant quand en elle je m'insère j'suis à l'écoute de tous ses sens J'ai pas de notion de bien de mal, j'aime toutes les filles que je séduis Celui qu'est dans le miroir d'leurs âmes et j'aime me voir quand je suis lui T'es le reflet de ma fontaine qui soigne ma blessure de Narcisse Faut que tu m'aimes pour que je m'aime, que tu t'appelles Maude ou Anaïs J'suis le désespoir de Cornélia comme si j'suis tout seul une tournante Et si l'amour est mort déjà alors offre-moi tes tourments J'aimerais que tu brûles de la passion, passion emportée par les flammes Je récolte ses larmes sur mon pinceau pour peindre le portrait de son âme X2 Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté de faire des efforts j'suis que le monstre qu'ils sentent en moi X2 Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi Dooz-Ko4</t>
+          <t>A ton avis j'ai vraiment l'air d'un monstre ? Qui de nous deux est le monstre ? J'suis cent pour cent jouet musical J'ai le doigté qui t'amuses au calme T'facon on est àl pour s'amuser Parait que je ressens que de la musique Pour toi je suis déshumanisé J'suis l'nord t'es l'sud de la Corée On sait tous les deux bien que ça cloche Approche, à moins que tu craignes dêtre dévorée Comme par une meute de chiens féroces Elle m'envoie des coeurs sur WhatsApp Les photos pourries de sa chatte J'vois que mes relations intimes s'effacent comme une story Snapchat Elles veulent cocher rappeur sur la page du blog Regarde la hum grimpe dans l'hôtel après les concerts Ta famille te conseille prends garde à toi Car j'ai l'appétit de Gargantua Demi-racaille des tranchées j'suis le soldat que tu gardes en toi Entre deux batailles de tranchée Les sales putes hardcores qui minaudent Donnez-moi en encore une autre Mon dieu j'suis pas croyant mais je fais des prières pour Milo Que la Vénus aille se faire enculer Pendant que j'matte sa silhouette couler J'suis un monstre sur son radeau Bah ouais j'sais bien qu'y en aura d'autres Mon radeau s'éloigne comme avant Et j'apercois déjà plus la terre Ca me sert comme quand pleurait maman Pendant que papa se désaltère Mon frère t'es un bonhomme à mes yeux Au milieux de ce monde d'eunuques Si un jour je retombe amoureux Tire-moi une balle dans la nuque C'est pour ca je prends souvent mes proches dans les bras Tout ceux qui m'aiment a chaque instant sans l'afficher sur Insta X2 Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté de faire des efforts j'suis que le monstre qu'ils sentent en moi Je sais que les démons conspirent, désirent que l'amour soit gâché Que la seule chose qui les attirent c'est les ruines d'une âme saccagée J'efface les traces de mes parents et j'essaie d'être bien dans mon kiffe Mais j'sais que je saigne transparent et que les chiens des démons me suivent Tous les espoirs sont vains, dêtre sauvé par l'extérieur Reposer ma tête sur son sein pour écouter battre son coeur Car le peu qu'Dieu m'autorisa, c'est ce qui dérange les normaux Et ma main sautolysera si j'effleure les anges de Duino? Tu sais je crois bien que je suis la nuit Et que t'existes que dans mes songes baby Jespère qu'tu vas bien dormir bien enveloppée dans du mensonge Il ne faut jamais être sincère, ni dire vraiment ce qu'on ressent Pourtant quand en elle je m'insère j'suis à l'écoute de tous ses sens J'ai pas de notion de bien de mal, j'aime toutes les filles que je séduis Celui qu'est dans le miroir d'leurs âmes et j'aime me voir quand je suis lui T'es le reflet de ma fontaine qui soigne ma blessure de Narcisse Faut que tu m'aimes pour que je m'aime, que tu t'appelles Maude ou Anaïs J'suis le désespoir de Cornélia comme si j'suis tout seul une tournante Et si l'amour est mort déjà alors offre-moi tes tourments J'aimerais que tu brûles de la passion, passion emportée par les flammes Je récolte ses larmes sur mon pinceau pour peindre le portrait de son âme X2 Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté de faire des efforts j'suis que le monstre qu'ils sentent en moi X2 Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi Dooz-Ko4</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dooz kawa Soirée Noire, première élégie Chaque ange est terrible Soirée Noire, Bohemian Rap story 2016 Stylefree Ma vie est un Tim Burton Sa B.O. un Timber Timbre Sale gosse depuis ti-pe Ya peu de chose qui peuvent matteindre Poète analphabète Je suis quun mâle alpha bête Jai besoin dun nuage rose Et puis dune pluie de paillettes Je suis pas net Erreur 404 sur internet Comme le Petit Prince Je suis si seul sur ma planète Un territoire noir glacé Sur mon cheval racé Je suis le cavalier sans tête Qua jamais su embrasser Je lui mets un doigt sur la bouche Pour quon écoute bien le vent Mais je détruis tout ce que je touche Comme Edward aux mains dargent On se croit des pouvoirs invincibles Mais on se décime dans les défis Je voudrais juste être invisible Pour traîner dans les douches des filles Jentends dici é Ecoute ça cest Dooz kawa, la découverte ! Prends un morceaux de son cur Son âme est une porte ouverte Sur moi encore un article Et cest toujours le froid arctique Je me réchauffe à leau de feu Que je vomis comme du Harpic Mais quest-ce que tu veux que jy fasse Depuis petit je suis anormal Y a des chapitres quil faut que jefface Et puis dire au psy que je dors mal Respirer man ! j Jai toujours lesprit Rayman Car létoile colle à la peau comme Spiderman Je suis un enfant mutant Errant dans lécole des X-men Sentiments de perte de temps Mais les filles qui font du X maiment Je tourne dans la nuit hardcore C'est mon ciné en plein air Je matte avec Donnie Darko Défiler les lampadaires Je me sens comme un comanche Qui dans un ranch passait des nuits Jai toujours contre ma hanche Le métal froid Bastinelli Quand tu vires aux abysses Comment dire aux Alices Qui reviennent des merveilles que les étoiles séteignent elles Les unes après les autres Qu'en ma cervelle De chapelier fou Cest lobscurité éternelle Je mendors derrière elle En cuillère, pourtant je suis louche Faudra le payer le surcoût de ses bisous Mais sa bouche est une fenêtre sur cour Je découvre un nouveau monde Sur mon drakkar dans la douche Comme les cafards dans mes placards Appelle moi Beetlejuice Et à chaque fin annuelle Je vis un étrange noël de monsieur Jack Hugo Daniel Un jour de lan maudit Ya un monstre dans ma chambre Qui pourrait mattraper la jambe Si je descends de mon lit Je dois cacher mon vécu Sinon débute le jugement du petit monde Par ses bandes de faux cul Et ces fils de putes immondes Qui dans les dîners mondains se plaisent à dire Que je suis trop un artiste Pour que ça épate leur potes Ca me traumatise, si jai pas trop à tize Que les bobo manalysent comme un tableau de Matisse Ils connaissent pas trop ma zic , lamentable automatisme Et ça mattriste Je crois pas quils maiment vraiment Ils craignent que je devienne dément Je représente ce trophée que le cirque Barnum dément Et jhabite lusine désafectée de Willy Wonka Où je bois pour désinfecter mon esprit bancale Et tous vos MC qui louvrent pas là Sont tous mes Oompa Loompa Ça crache du sucre en poudre de la bouche de Dooz Kawa Pardonnez-moi tout ce dawa Jai pas eu le temps de ranger mes jouets Un bateau de pirate échoué Un doudou qui tousse pas mal Si je suis une sous culture Des milliers de fous nauraient pas dâme Depuis le temps quon tourne Ya Strasbourg qui pousse Paname Zemmour est complexé, petit moche ridicule, comme ses anal- Lyse, et le pire cest que cest moi qui encule sa femme Lise Je suis pas un Djihadiste, genre qui sniff du butagaz Mais chaque nuit jai des bombes qui inondent mon lupanar Transpire sur mon pelvis comme Elvis après un Gala Les nuages des banlieues malpolies de Paris sont plus magni- Fiques que les ciel bleus de Napoli dans lItalie Quand elle répéte mon prénom comme une litanie Ouais je vis ma vie Comme un dragon de Komodo Je maccommode de ce qui vous dérange Les trous dans mon dos me démangent Ne mappelle pas mon ange Dégage tes mains À part elle On me touche pas moi Je me souviens de quand javais des ailes Dooz KawaYou might also like3</t>
+          <t>Dooz kawa Soirée Noire, première élégie Chaque ange est terrible Soirée Noire, Bohemian Rap story 2016 Stylefree Ma vie est un Tim Burton Sa B.O. un Timber Timbre Sale gosse depuis ti-pe Ya peu de chose qui peuvent matteindre Poète analphabète Je suis quun mâle alpha bête Jai besoin dun nuage rose Et puis dune pluie de paillettes Je suis pas net Erreur 404 sur internet Comme le Petit Prince Je suis si seul sur ma planète Un territoire noir glacé Sur mon cheval racé Je suis le cavalier sans tête Qua jamais su embrasser Je lui mets un doigt sur la bouche Pour quon écoute bien le vent Mais je détruis tout ce que je touche Comme Edward aux mains dargent On se croit des pouvoirs invincibles Mais on se décime dans les défis Je voudrais juste être invisible Pour traîner dans les douches des filles Jentends dici é Ecoute ça cest Dooz kawa, la découverte ! Prends un morceaux de son cur Son âme est une porte ouverte Sur moi encore un article Et cest toujours le froid arctique Je me réchauffe à leau de feu Que je vomis comme du Harpic Mais quest-ce que tu veux que jy fasse Depuis petit je suis anormal Y a des chapitres quil faut que jefface Et puis dire au psy que je dors mal Respirer man ! j Jai toujours lesprit Rayman Car létoile colle à la peau comme Spiderman Je suis un enfant mutant Errant dans lécole des X-men Sentiments de perte de temps Mais les filles qui font du X maiment Je tourne dans la nuit hardcore C'est mon ciné en plein air Je matte avec Donnie Darko Défiler les lampadaires Je me sens comme un comanche Qui dans un ranch passait des nuits Jai toujours contre ma hanche Le métal froid Bastinelli Quand tu vires aux abysses Comment dire aux Alices Qui reviennent des merveilles que les étoiles séteignent elles Les unes après les autres Qu'en ma cervelle De chapelier fou Cest lobscurité éternelle Je mendors derrière elle En cuillère, pourtant je suis louche Faudra le payer le surcoût de ses bisous Mais sa bouche est une fenêtre sur cour Je découvre un nouveau monde Sur mon drakkar dans la douche Comme les cafards dans mes placards Appelle moi Beetlejuice Et à chaque fin annuelle Je vis un étrange noël de monsieur Jack Hugo Daniel Un jour de lan maudit Ya un monstre dans ma chambre Qui pourrait mattraper la jambe Si je descends de mon lit Je dois cacher mon vécu Sinon débute le jugement du petit monde Par ses bandes de faux cul Et ces fils de putes immondes Qui dans les dîners mondains se plaisent à dire Que je suis trop un artiste Pour que ça épate leur potes Ca me traumatise, si jai pas trop à tize Que les bobo manalysent comme un tableau de Matisse Ils connaissent pas trop ma zic , lamentable automatisme Et ça mattriste Je crois pas quils maiment vraiment Ils craignent que je devienne dément Je représente ce trophée que le cirque Barnum dément Et jhabite lusine désafectée de Willy Wonka Où je bois pour désinfecter mon esprit bancale Et tous vos MC qui louvrent pas là Sont tous mes Oompa Loompa Ça crache du sucre en poudre de la bouche de Dooz Kawa Pardonnez-moi tout ce dawa Jai pas eu le temps de ranger mes jouets Un bateau de pirate échoué Un doudou qui tousse pas mal Si je suis une sous culture Des milliers de fous nauraient pas dâme Depuis le temps quon tourne Ya Strasbourg qui pousse Paname Zemmour est complexé, petit moche ridicule, comme ses anal- Lyse, et le pire cest que cest moi qui encule sa femme Lise Je suis pas un Djihadiste, genre qui sniff du butagaz Mais chaque nuit jai des bombes qui inondent mon lupanar Transpire sur mon pelvis comme Elvis après un Gala Les nuages des banlieues malpolies de Paris sont plus magni- Fiques que les ciel bleus de Napoli dans lItalie Quand elle répéte mon prénom comme une litanie Ouais je vis ma vie Comme un dragon de Komodo Je maccommode de ce qui vous dérange Les trous dans mon dos me démangent Ne mappelle pas mon ange Dégage tes mains À part elle On me touche pas moi Je me souviens de quand javais des ailes Dooz Kawa3</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yeah C'est juste une histoire d'eau qui s'aiguille sur le fil des cascades Mais de fil en aiguille ôtez-lui les rêves où elle s'évade Elle deviendra un précipice agressif sur chaque bord Il n'existe pas pire que l'eau qui dort Que l'eau qui dort Fils de la nuit et des rêves, moi je cultivais les chimères Comme un talent, les nymphes m'avaient pour élève qui persévère Dans chaque vers en rêvant Je lisais sur leurs lèvres couramment Les signes du langage des cygnes de l'étang C'est ma force sans alarme, moi je vis dans les eaux calmes S'y mirant le narcissisme des étoiles Elles parlent à mes iris, mettent la lumière dans mes oreilles Filles du pancalisme, les chimères devinrent réelles Uniques beautés du ciel dans un monde de fiel Uniques sucrées du ciel sur la voie lactée de miel Et puisqu'elles aiment les rêveries solitaires du ruisseau Les constellations s'isolent et reflètent les songes dans les cours d'eau et marécages Les reflets de la lune sur le miroir des rivages Mais la pluie vint ternir avec ombre et nuages Les mélodies d'la lyre sur les couleurs des images On vit les cieux se couvrir, avec le temps des orages Venir, les tristes sires matérialistes qui songent A définir pour occire la liberté du songe A l'avenir, le rêve devient étrange Cassandre ne prédit plus dans l'eau, oublie tous les destins Et au descendre du bateau Morphée est clandestin You might also likeC'est juste une histoire d'eau qui s'aiguille sur le fil du ruisseau Mais de fil en aiguille ôtez-lui ses amours ruisselant Se remplissant de colère, elle deviendra océan jusqu'au ras bord Il n'existe pas pire que l'eau qui dort Yo, fils de la nuit et des rêves, moi je cultivais l'amour comme un talent Les nymphes m'avaient pour élève et les naïades pour amant Car j'embrassais leurs lèvres couramment Dessine avec des mots leurs mains au creux des lettres Et leurs corps contre mon être m'intiment Langage des abimes de l'océan Je vis dans les eaux profondes se troublant Les filles de l'érotisme comme Vénus dans le ciel Unique beauté à celle que j'imagine dans ce monde de fiel L'unique sucrée du ciel surplombe des mers salines et des déserts de sel Et puisqu'elles n'aiment pas être seules comme Messaline Les constellations s'alignent et reflètent mes mirages Comme des gouttes de lumière sur le miroir des rivages Mais la pluie vint ternir avec ombre et nuages Les mélodies d'amour mirent des notes un peu plus sages On vit venir avec le temps des orages Les tristes sires moralistes qui savourent Vont définir pour occire la liberté d'amour A l'avenir, les curs deviennent étranges Blessé dans son talent, Cupidon n'imite plus le Comanche Plus de péchés mignons et d'Aphrodite qui s'allonge C'est juste une histoire d'eau qui s'aiguille sur le fil des cascades Mais de fil en aiguille ôtez-lui les rêves où elle s'évade Elle deviendra un précipice agressif sur chaque bord Il n'existe pas pire que l'eau qui dort C'est juste une histoire d'eau C'est juste une histoire d'eau qui s'aiguille sur le fil du ruisseau Mais de fil en aiguille ôtez-lui ses amours ruisselant Se remplissant de colère, elle deviendra océan jusqu'au ras bord Il n'existe pas pire que l'eau qui dort C'est juste une histoire d'eau qui s'aiguille sur le fil des cascades Mais de fil en aiguille ôtez-lui les rêves où elle s'évade Elle deviendra un précipice agressif sur chaque bord Il n'existe pas pire que l'eau qui dort Il n'existe pas pire que l'eau qui dort Que l'eau qui dort C'est juste une histoire d'eau Pour tous mes gars On a qu'le rêve et l'amour, il nous reste ça Yo Yo Il nous reste ça Et on le gard'ra5</t>
+          <t>Yeah C'est juste une histoire d'eau qui s'aiguille sur le fil des cascades Mais de fil en aiguille ôtez-lui les rêves où elle s'évade Elle deviendra un précipice agressif sur chaque bord Il n'existe pas pire que l'eau qui dort Que l'eau qui dort Fils de la nuit et des rêves, moi je cultivais les chimères Comme un talent, les nymphes m'avaient pour élève qui persévère Dans chaque vers en rêvant Je lisais sur leurs lèvres couramment Les signes du langage des cygnes de l'étang C'est ma force sans alarme, moi je vis dans les eaux calmes S'y mirant le narcissisme des étoiles Elles parlent à mes iris, mettent la lumière dans mes oreilles Filles du pancalisme, les chimères devinrent réelles Uniques beautés du ciel dans un monde de fiel Uniques sucrées du ciel sur la voie lactée de miel Et puisqu'elles aiment les rêveries solitaires du ruisseau Les constellations s'isolent et reflètent les songes dans les cours d'eau et marécages Les reflets de la lune sur le miroir des rivages Mais la pluie vint ternir avec ombre et nuages Les mélodies d'la lyre sur les couleurs des images On vit les cieux se couvrir, avec le temps des orages Venir, les tristes sires matérialistes qui songent A définir pour occire la liberté du songe A l'avenir, le rêve devient étrange Cassandre ne prédit plus dans l'eau, oublie tous les destins Et au descendre du bateau Morphée est clandestin C'est juste une histoire d'eau qui s'aiguille sur le fil du ruisseau Mais de fil en aiguille ôtez-lui ses amours ruisselant Se remplissant de colère, elle deviendra océan jusqu'au ras bord Il n'existe pas pire que l'eau qui dort Yo, fils de la nuit et des rêves, moi je cultivais l'amour comme un talent Les nymphes m'avaient pour élève et les naïades pour amant Car j'embrassais leurs lèvres couramment Dessine avec des mots leurs mains au creux des lettres Et leurs corps contre mon être m'intiment Langage des abimes de l'océan Je vis dans les eaux profondes se troublant Les filles de l'érotisme comme Vénus dans le ciel Unique beauté à celle que j'imagine dans ce monde de fiel L'unique sucrée du ciel surplombe des mers salines et des déserts de sel Et puisqu'elles n'aiment pas être seules comme Messaline Les constellations s'alignent et reflètent mes mirages Comme des gouttes de lumière sur le miroir des rivages Mais la pluie vint ternir avec ombre et nuages Les mélodies d'amour mirent des notes un peu plus sages On vit venir avec le temps des orages Les tristes sires moralistes qui savourent Vont définir pour occire la liberté d'amour A l'avenir, les curs deviennent étranges Blessé dans son talent, Cupidon n'imite plus le Comanche Plus de péchés mignons et d'Aphrodite qui s'allonge C'est juste une histoire d'eau qui s'aiguille sur le fil des cascades Mais de fil en aiguille ôtez-lui les rêves où elle s'évade Elle deviendra un précipice agressif sur chaque bord Il n'existe pas pire que l'eau qui dort C'est juste une histoire d'eau C'est juste une histoire d'eau qui s'aiguille sur le fil du ruisseau Mais de fil en aiguille ôtez-lui ses amours ruisselant Se remplissant de colère, elle deviendra océan jusqu'au ras bord Il n'existe pas pire que l'eau qui dort C'est juste une histoire d'eau qui s'aiguille sur le fil des cascades Mais de fil en aiguille ôtez-lui les rêves où elle s'évade Elle deviendra un précipice agressif sur chaque bord Il n'existe pas pire que l'eau qui dort Il n'existe pas pire que l'eau qui dort Que l'eau qui dort C'est juste une histoire d'eau Pour tous mes gars On a qu'le rêve et l'amour, il nous reste ça Yo Yo Il nous reste ça Et on le gard'ra5</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>- Alors ? - On a juste trouvé une lettre - Quoi ? - Une lettre - Aucun être c'est tout ce qu'il reste. Qu'est-ce que ça raconte ? Mon dieu que ce monde qui s'effondre est sombre et sombre en cendres Tant ont péris Qu'ils sentent mon pays C'est avant et après le volcan de Pompéï Depuis les bombes du mois de Décembre Il tombe des cendres Qui se mélangent aux flocons de l'hiver Leur objectif était de descendre Les gens virulents échappés d'un peloton militaire Il plane dans l'air comme une arme de guerre Mais ils nous l'annoncèrent seulement après des mois Quand l'innocula la Terre Le virus était sorti de leurs schémas Après le tremblement de terre à sa rencontre avec les eaux irradiées de Fukushima C'est ce qu'on croit, cette eau qu'on a rejeté dans l'océan Seulement sans précaution d'emploi Dans les gros titres, des morts horribles épidémiques jusqu'à chez moi Bien sur l'Amérique a déclaré que c'était à cause de ces faux-culs de chinois You might also likeLes signes étranges ont commencé Après les faits divers immondes Les types qui mangeaient ceux qui passaient Et les dévorés vivants en très grand nombre Des morts vivants sortis de l'ombre L'aviation bombardait de haut Paris, Bombay, Washington, Londres Et depuis lors, silence radio Si très peu de gens sont toujours en vie Les villes sont remplies de zombies Mais pas les mêmes qu'à notre époque Ces débiles qui écoutaient Skyrock Au crépuscule de l'apocaplyspe Je veux que ta peau brûle contre mes lips Qu'on se tienne la main sous le porche Et bute les zombies qui approchent Je ferais du mieux pour être l'ersatz Qu'effacerait de tes yeux ces remords Avec toi une dernière valse Au milieu des arbres morts Ils sacrifient nos vies au bacille Pour le profit puisque ça rapporte Quoi ? Tu trouves rien dans la pharmacie Pour des zombies qui grattent à la porte ? Attrape la scie check l'acide check, du coton, de l'alcool Et puis on met le feu à des torchons qui sont enroulés sur des casseroles Barricadés mais la porte casse d'oh Avec mon fusil à pompe funèbres Je crâme une ganache qui dépasse Du haut du crâne jusqu'à la lèvre Ma chérie viens, tiens moi la main Si on devait ne pas survivre aux assauts J'ai détaché le chien dans le jardin Et puis ouvert la cage aux oiseaux Qui eut cru que le virus nous décimerait ? Alors que l'Europe est en guerre À cause de lannexion de la Crimée Par les russes à coups de bombes nucléaires Que la Chine a envahi le Japon Et puis la Turquie tue le Grèce Les Etats-Unis ils tuent tout le monde Bien sûr ils disent c'est eux qu'on agresse Israël termine tranquillement son génocide typique Quand soudain ont vit des humains modifiés dans leur génotypes Au crépuscule de l'apocaplyspe Je veux que ta peau brûle contre mes lips Qu'on se tienne la main sous le porche Et bute les zombies qui approchent Je ferais du mieux pour être l'ersatz Qu'effacerait de tes yeux ces remords Avec toi une dernière valse Au milieu des arbres morts Le coucher de flammes du ciel est trop beau Sur les arbres qui crâment en feu de paillettes L'intelligence artificielle, les robots Siri devient Skynet Leurs caméras qui suivent tout nos pas Sarah Connor ne nous sauvera pas Les machines détraquées Se mirent à attaquer les humains Ils savaient tous où nous traquer Leurs chenilles faisaient trembler les chemins Puisqu'ils avaient tous les codes Et ils connaissaient tes potes Même ton jour d'anniversaire Des données qu'on reversait sur Facebook, Twitter Les pseudonymes des vidéos games en RPG Ils se retrouvèrent piégés Les humains se sont fichés tous seuls En références excel et comptes bancaires Ils ont mêmes les numéros De tes préférences sexuelles avec des animaux Il y a pas de soucis pour nous Puisque on va sortir de là Ferme tous les verrous Et on va se cacher sur le toit Je crois que cette fois ci bah c'est l'attaque finale Et je t'ai déjà dis que sans toi j'serais mal Mais le toit craque elle crie plus de bruit quand elle atterrit à la cave Est-ce qu'elle est encore en vie? J'en pleure de rage quand je vois tous les zombies se diriger vers la cave À la porte ça gratte, je dirige le canon de mon fusil Comment ? Une fille ?! Ma chérie, je t'ai crue en grand danger J'pensais même t'avoir perdue Tu dis rien, mais sa paire d'yeux avait changé Comme deux billes Elle se jette sur oim et m'arrache mon arme On tombe sur le sol, j'extirpe mon schlass Et transperce son sternum Et lui brise la nuque sous mes palladiums J'attrape mon remington La crosse contre le mur et le sol Et m'assoie devant le canon dans la bouche Le sang gicle comme une douche je gis avec ma douce Au crépuscule de l'apocaplyspe J'veux qu'ta peau brûle contre mes lips Qu'on se tienne la main sous le porche Et bute qu'les zombies qui approchent Je ferais du mieux pour être l'ersatz Qu'effacerait de tes yeux ces remords Avec toi, une dernière valse Au milieu des arbres morts Danse avec moi jusqu'à la fin, jusqu'à la fin des temps6</t>
+          <t>- Alors ? - On a juste trouvé une lettre - Quoi ? - Une lettre - Aucun être c'est tout ce qu'il reste. Qu'est-ce que ça raconte ? Mon dieu que ce monde qui s'effondre est sombre et sombre en cendres Tant ont péris Qu'ils sentent mon pays C'est avant et après le volcan de Pompéï Depuis les bombes du mois de Décembre Il tombe des cendres Qui se mélangent aux flocons de l'hiver Leur objectif était de descendre Les gens virulents échappés d'un peloton militaire Il plane dans l'air comme une arme de guerre Mais ils nous l'annoncèrent seulement après des mois Quand l'innocula la Terre Le virus était sorti de leurs schémas Après le tremblement de terre à sa rencontre avec les eaux irradiées de Fukushima C'est ce qu'on croit, cette eau qu'on a rejeté dans l'océan Seulement sans précaution d'emploi Dans les gros titres, des morts horribles épidémiques jusqu'à chez moi Bien sur l'Amérique a déclaré que c'était à cause de ces faux-culs de chinois Les signes étranges ont commencé Après les faits divers immondes Les types qui mangeaient ceux qui passaient Et les dévorés vivants en très grand nombre Des morts vivants sortis de l'ombre L'aviation bombardait de haut Paris, Bombay, Washington, Londres Et depuis lors, silence radio Si très peu de gens sont toujours en vie Les villes sont remplies de zombies Mais pas les mêmes qu'à notre époque Ces débiles qui écoutaient Skyrock Au crépuscule de l'apocaplyspe Je veux que ta peau brûle contre mes lips Qu'on se tienne la main sous le porche Et bute les zombies qui approchent Je ferais du mieux pour être l'ersatz Qu'effacerait de tes yeux ces remords Avec toi une dernière valse Au milieu des arbres morts Ils sacrifient nos vies au bacille Pour le profit puisque ça rapporte Quoi ? Tu trouves rien dans la pharmacie Pour des zombies qui grattent à la porte ? Attrape la scie check l'acide check, du coton, de l'alcool Et puis on met le feu à des torchons qui sont enroulés sur des casseroles Barricadés mais la porte casse d'oh Avec mon fusil à pompe funèbres Je crâme une ganache qui dépasse Du haut du crâne jusqu'à la lèvre Ma chérie viens, tiens moi la main Si on devait ne pas survivre aux assauts J'ai détaché le chien dans le jardin Et puis ouvert la cage aux oiseaux Qui eut cru que le virus nous décimerait ? Alors que l'Europe est en guerre À cause de lannexion de la Crimée Par les russes à coups de bombes nucléaires Que la Chine a envahi le Japon Et puis la Turquie tue le Grèce Les Etats-Unis ils tuent tout le monde Bien sûr ils disent c'est eux qu'on agresse Israël termine tranquillement son génocide typique Quand soudain ont vit des humains modifiés dans leur génotypes Au crépuscule de l'apocaplyspe Je veux que ta peau brûle contre mes lips Qu'on se tienne la main sous le porche Et bute les zombies qui approchent Je ferais du mieux pour être l'ersatz Qu'effacerait de tes yeux ces remords Avec toi une dernière valse Au milieu des arbres morts Le coucher de flammes du ciel est trop beau Sur les arbres qui crâment en feu de paillettes L'intelligence artificielle, les robots Siri devient Skynet Leurs caméras qui suivent tout nos pas Sarah Connor ne nous sauvera pas Les machines détraquées Se mirent à attaquer les humains Ils savaient tous où nous traquer Leurs chenilles faisaient trembler les chemins Puisqu'ils avaient tous les codes Et ils connaissaient tes potes Même ton jour d'anniversaire Des données qu'on reversait sur Facebook, Twitter Les pseudonymes des vidéos games en RPG Ils se retrouvèrent piégés Les humains se sont fichés tous seuls En références excel et comptes bancaires Ils ont mêmes les numéros De tes préférences sexuelles avec des animaux Il y a pas de soucis pour nous Puisque on va sortir de là Ferme tous les verrous Et on va se cacher sur le toit Je crois que cette fois ci bah c'est l'attaque finale Et je t'ai déjà dis que sans toi j'serais mal Mais le toit craque elle crie plus de bruit quand elle atterrit à la cave Est-ce qu'elle est encore en vie? J'en pleure de rage quand je vois tous les zombies se diriger vers la cave À la porte ça gratte, je dirige le canon de mon fusil Comment ? Une fille ?! Ma chérie, je t'ai crue en grand danger J'pensais même t'avoir perdue Tu dis rien, mais sa paire d'yeux avait changé Comme deux billes Elle se jette sur oim et m'arrache mon arme On tombe sur le sol, j'extirpe mon schlass Et transperce son sternum Et lui brise la nuque sous mes palladiums J'attrape mon remington La crosse contre le mur et le sol Et m'assoie devant le canon dans la bouche Le sang gicle comme une douche je gis avec ma douce Au crépuscule de l'apocaplyspe J'veux qu'ta peau brûle contre mes lips Qu'on se tienne la main sous le porche Et bute qu'les zombies qui approchent Je ferais du mieux pour être l'ersatz Qu'effacerait de tes yeux ces remords Avec toi, une dernière valse Au milieu des arbres morts Danse avec moi jusqu'à la fin, jusqu'à la fin des temps6</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-Bonjour -Bonjour -Vous êtes le papa de Milo ? -Ouais, jespère qu'il a pas été sage aujourd'hui -J'comprends pas, pourquoi vous dites ca ? -Bin j'sais pas parce qu'il faut un p'tit peu savoir désobéir, réinterroger le cadre c'est une forme d'intelligence non ? J'regard désobéir l'orage aux statistiques du prévaloir Et j'lui souris comme Horace avec une incisive noire Souffle l'enfant du parc de monceau moi Je trouve pas que ce soit dommage Que les coups de foudres n'existe qu'aux urgences Les soirs d'orages au service des grands brûlés Désobéir n'est pas juste un verbe quand t'observe ma peau embrumée De ces figures de Lichtenberg Désobéir aux exactions des salazistes de Lisbonne J'suis protégé par le dragon, le griffon, le phénix et la licorne Les grands esprits ne se rencontrent pas, les grands esprits sont solitaires J'viens de ces latitudes qui ne comptent pas où on est toujours seul sur terre Les graines du mal dans mon sachet s'y enfoncent et puis germent Les ténèbres ne m'ont pas caché mais forment mon unique épiderme Ils viendront me pendre à l'arbre Pendant que je serais en balade La place du bien est en prison Dans un système qui rend malade Ils font passé des gens affables, pour des mafieux de Calabre Car une hirondelle Twitter peut faire le printemps arabe You might also like Moi j'ai l'aube et peine à me débarrasser d'celle que j'aimais le soir Quand j'arrachais la haie daubépine pour embrasser mademoiselle Swann Je me baigne loin dans la nuit et je n'agrippe plus le rivage Si l'esprit est un grand navire, mon Titanic a prit le large Je reviendrais plus mon amour, vas voir le fils de chienne en face Je reviendrais plus mon ami, comme la varicelle et l'enfance Berger, garde ton troupeau perdu de mouton qui ne savent plus bêler Moi mes idéaux éperdus rodent la nuit en voiture bélier J'préfère mourir demain que de vivre vieux une vie sage Prends des méandres au creux des mains et souffle moi dans le visage N'oublies jamais de jamais m'aimer et de désobéir aux trucs trop barges Surtout si c'est moi qui les ai dit, nos nuit de chevauchées sauvages Ils viendront me pendre à l'arbre Pendant que je serais en balade La place du bien est en prison Dans un système qui rend malade Ils font passé des gens affables, pour des mafieux de Calabre Car une hirondelle Twitter peut faire le printemps arabe2</t>
+          <t>-Bonjour -Bonjour -Vous êtes le papa de Milo ? -Ouais, jespère qu'il a pas été sage aujourd'hui -J'comprends pas, pourquoi vous dites ca ? -Bin j'sais pas parce qu'il faut un p'tit peu savoir désobéir, réinterroger le cadre c'est une forme d'intelligence non ? J'regard désobéir l'orage aux statistiques du prévaloir Et j'lui souris comme Horace avec une incisive noire Souffle l'enfant du parc de monceau moi Je trouve pas que ce soit dommage Que les coups de foudres n'existe qu'aux urgences Les soirs d'orages au service des grands brûlés Désobéir n'est pas juste un verbe quand t'observe ma peau embrumée De ces figures de Lichtenberg Désobéir aux exactions des salazistes de Lisbonne J'suis protégé par le dragon, le griffon, le phénix et la licorne Les grands esprits ne se rencontrent pas, les grands esprits sont solitaires J'viens de ces latitudes qui ne comptent pas où on est toujours seul sur terre Les graines du mal dans mon sachet s'y enfoncent et puis germent Les ténèbres ne m'ont pas caché mais forment mon unique épiderme Ils viendront me pendre à l'arbre Pendant que je serais en balade La place du bien est en prison Dans un système qui rend malade Ils font passé des gens affables, pour des mafieux de Calabre Car une hirondelle Twitter peut faire le printemps arabe Moi j'ai l'aube et peine à me débarrasser d'celle que j'aimais le soir Quand j'arrachais la haie daubépine pour embrasser mademoiselle Swann Je me baigne loin dans la nuit et je n'agrippe plus le rivage Si l'esprit est un grand navire, mon Titanic a prit le large Je reviendrais plus mon amour, vas voir le fils de chienne en face Je reviendrais plus mon ami, comme la varicelle et l'enfance Berger, garde ton troupeau perdu de mouton qui ne savent plus bêler Moi mes idéaux éperdus rodent la nuit en voiture bélier J'préfère mourir demain que de vivre vieux une vie sage Prends des méandres au creux des mains et souffle moi dans le visage N'oublies jamais de jamais m'aimer et de désobéir aux trucs trop barges Surtout si c'est moi qui les ai dit, nos nuit de chevauchées sauvages Ils viendront me pendre à l'arbre Pendant que je serais en balade La place du bien est en prison Dans un système qui rend malade Ils font passé des gens affables, pour des mafieux de Calabre Car une hirondelle Twitter peut faire le printemps arabe2</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>On m'demande toujours dans les interviews J'sais pas trop quoi dire... Entretien, avec un vampire C'est comme si j'étais mort parfois à l'intérieur de moi Sur un air de bodéga la drogue a fait de beaux dégats J'me sens trépané de mon âme Quand le légiste me pèsera, j'aurai perdu 21 grammes La médecine légale va charcuter mon corps Le jour où j'aurai fait du légal, ça aura été après ma mort J'aurai toujours eu froid au corps, comme un poète en hiver Dans la vie comme dans la mort, j'aurais été rongé par les vers Je voudrais vous dire Jah bless ! Et n'avouerai pas que j'ai vendu mon âme aux diablesses, qui me tirent par la queue, j'vais rater mon enterrement les on-dit sont du dombi alors pendant les sermons J'serai dans les cuisses d'une p'tite zombie Et on regardera par dessous celles qui n'ont pas d'dessous Quand mes ex sans culottes viendront assister au culte J'dirai à Belzebuth Mon pote, celle-là je la connais de vulve Car le jour de mon trépas, je sais bien que j'monterai pas en pas d'danse Vers ce saint Pierre videur, à qui il faut montrer patte blanche Alors les anges se vengent, non, j'suis pas un cul-bénit Même si j'ai béni beaucoup d'culs à la semence Les souvenirs me harcèlent, sauter à pieds-joints dans des flaques J'espère qu'ma dernière scène devienne mon catafalque Conquérant comme Bonaparte, mais cadavre à Waterloo J'suis mort, car dans mon appart' mon chien me chercha partout Les séraphins se vexent, tant pis tant qu'à faire Si les anges n'ont pas de sexe j'préfère aller en enfer Les chérubins se vexent, tant pis tant qu'à faire Si les anges n'ont pas de sexe, j'veux aller en enfer Et j'en perds mon latin, Es macht mich sehr verrückt J'me marierai au Palatin avec la femme aux neufs perruques Mes noces funèbres que l'on célèbre J'veux que l'on chante et que l'on rit Quand j'serai six pieds sous terre Entre les cuisses d'une p'tite zombie T'as raison de vivre, ne pleure pas mon frère mon cercueil n'est qu'une prison vide Ici on nous suit, sur les talons j'laisserai un sillon dans l'eau depuis la barque de Charon Nous nous égarons j'rappelle la thèse Si Satan n'était qu'un ange et ben Dieu n'est qu'une hypothèse J'veux les chants de Maldoror comme seule oraison funèbre Quand l'horizon sera funeste Que la nuit ne soit pas triste lorsque la mort mamène In nomine Patris, et spiritus sancti, Amen Eh sans déconner mon frère quand ça sentira l'conifère Pas celui qui parfume l'air des véhicules qui amortissent Mais celui dans lequel on t'enterre quand t'es rigor mortis J'serai sur la montagne hors piste J'serai muet comme une carpe, p't'être c'est vrai que j'suis plus en vie Ou bien que j'donne ma langue aux chattes d'une p'tite zombie Lorsque l'orgue jouera la partie Dies iræ de profundis Jserai déjà parti j'peux pas rester car j'ai piscine J'assisterai pas à l'office, j'serai dans son orifice Et j'veux qu'on joue du Yiddish C'est presque la musique de ma race j'suis certainement Plus près des Ashkénazes que ne l'étaient Goldman Sachs Si tu veux boire sur mon tombeau aux larmes d'argent À la souffrance qu'on vit très tôt dans nos chagrins d'enfants Aux filles du vice et d'la paraître, aux ouvriers de manoeuvre Au sacrifice du maître pour pouvoir sauver son oeuvre À notre court passage sur Terre qui tient sur un disque dur Asus Aux prétentieux sans bornes, à Pegasus À la liberté des licornes, à l'éléphanteau qui pleure Sa mère assassinée pour lui arracher ses cornes Si j'ai tellement aimé de femmes, c'est qu'j'ai tant horreur des hommes Et de leur cruauté sans bornesYou might also like8</t>
+          <t>On m'demande toujours dans les interviews J'sais pas trop quoi dire... Entretien, avec un vampire C'est comme si j'étais mort parfois à l'intérieur de moi Sur un air de bodéga la drogue a fait de beaux dégats J'me sens trépané de mon âme Quand le légiste me pèsera, j'aurai perdu 21 grammes La médecine légale va charcuter mon corps Le jour où j'aurai fait du légal, ça aura été après ma mort J'aurai toujours eu froid au corps, comme un poète en hiver Dans la vie comme dans la mort, j'aurais été rongé par les vers Je voudrais vous dire Jah bless ! Et n'avouerai pas que j'ai vendu mon âme aux diablesses, qui me tirent par la queue, j'vais rater mon enterrement les on-dit sont du dombi alors pendant les sermons J'serai dans les cuisses d'une p'tite zombie Et on regardera par dessous celles qui n'ont pas d'dessous Quand mes ex sans culottes viendront assister au culte J'dirai à Belzebuth Mon pote, celle-là je la connais de vulve Car le jour de mon trépas, je sais bien que j'monterai pas en pas d'danse Vers ce saint Pierre videur, à qui il faut montrer patte blanche Alors les anges se vengent, non, j'suis pas un cul-bénit Même si j'ai béni beaucoup d'culs à la semence Les souvenirs me harcèlent, sauter à pieds-joints dans des flaques J'espère qu'ma dernière scène devienne mon catafalque Conquérant comme Bonaparte, mais cadavre à Waterloo J'suis mort, car dans mon appart' mon chien me chercha partout Les séraphins se vexent, tant pis tant qu'à faire Si les anges n'ont pas de sexe j'préfère aller en enfer Les chérubins se vexent, tant pis tant qu'à faire Si les anges n'ont pas de sexe, j'veux aller en enfer Et j'en perds mon latin, Es macht mich sehr verrückt J'me marierai au Palatin avec la femme aux neufs perruques Mes noces funèbres que l'on célèbre J'veux que l'on chante et que l'on rit Quand j'serai six pieds sous terre Entre les cuisses d'une p'tite zombie T'as raison de vivre, ne pleure pas mon frère mon cercueil n'est qu'une prison vide Ici on nous suit, sur les talons j'laisserai un sillon dans l'eau depuis la barque de Charon Nous nous égarons j'rappelle la thèse Si Satan n'était qu'un ange et ben Dieu n'est qu'une hypothèse J'veux les chants de Maldoror comme seule oraison funèbre Quand l'horizon sera funeste Que la nuit ne soit pas triste lorsque la mort mamène In nomine Patris, et spiritus sancti, Amen Eh sans déconner mon frère quand ça sentira l'conifère Pas celui qui parfume l'air des véhicules qui amortissent Mais celui dans lequel on t'enterre quand t'es rigor mortis J'serai sur la montagne hors piste J'serai muet comme une carpe, p't'être c'est vrai que j'suis plus en vie Ou bien que j'donne ma langue aux chattes d'une p'tite zombie Lorsque l'orgue jouera la partie Dies iræ de profundis Jserai déjà parti j'peux pas rester car j'ai piscine J'assisterai pas à l'office, j'serai dans son orifice Et j'veux qu'on joue du Yiddish C'est presque la musique de ma race j'suis certainement Plus près des Ashkénazes que ne l'étaient Goldman Sachs Si tu veux boire sur mon tombeau aux larmes d'argent À la souffrance qu'on vit très tôt dans nos chagrins d'enfants Aux filles du vice et d'la paraître, aux ouvriers de manoeuvre Au sacrifice du maître pour pouvoir sauver son oeuvre À notre court passage sur Terre qui tient sur un disque dur Asus Aux prétentieux sans bornes, à Pegasus À la liberté des licornes, à l'éléphanteau qui pleure Sa mère assassinée pour lui arracher ses cornes Si j'ai tellement aimé de femmes, c'est qu'j'ai tant horreur des hommes Et de leur cruauté sans bornes8</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>J'connais que les amours et l'ego et les gars et les gos Que le love a blessés, construits comme des Lego Mais les fondations ont cédé, emmêlées Dans des conflits qui ont mêlé Les gamins avec les parents à table Elle jette son assiette contre le mur Car son amour n'est pas rentable C'est les prémices d'la situat' Et si trop d'amour tue l'amour J'assassine et j'me casse Toutes mes condoléances à tous ces mecs qui s'appuient Sur le seul love d'une fille et chutent quand se brise leur seul bâton d'appui Et à l'inverse tous ceux qui obturent Des milliers de fesses en feature Pourquoi dire le fond de mon coeur ? Car ces mots mourront comme les vaincus et les vainqueurs Pourquoi t'écrire des lettres Qui retiendraient des larmes ? Et relire un paraître Juste pour retarder un drame Pour moi t'es une tasse-pé, j'peux pas t'appeler Madame Cherche l'amour, mais connais pas Vois autour de moi tout c'qui unit pas You might also like Ah ouais l'amour qui traînait en bas d'chez moi Deux cents francs dans ma tour ou bien trois cents dans la ture-voi Et les gars m'disent C'est comme ça une femme, tu vois Ici les jeunes dragons crachent des flammes sur les lopes-sa Dans ce monde Vouloir chaque Esméralda C'est pleurer comme Aragon À la gloire des yeux d'Elsa Moi j't'ai vu, tu vois là-bas Caché derrière la benne Oh Manu, rentre chez toi Et puis va pas t'tailler les veines, hein Une go de perdue, c'est pas la fin d'la race humaine Et oublie l'retour des potes Ceux qui ont tellement d'problèmes Qu'ils écoutent plus ceux des autres Triste époque pour un coeur en peine Alors rejoins les autres sur le pack de Heineken Passe le salut à Karim, Beness et Raphaël, hein J'ai pas changé d'adresse réelle Parti en expédition chercher l'amour dans les ruelles Mais c'est sans avenir Comme la Belle au bois dormant Endormie devant la mire en attendant le prince charmant Qui visera moins haut qu'le coeur les fesses Moi j'l'ai laissée ce matin de bonne heure Car j'pense pas que l'amour soit la vraie source du bonheur Non, non... Un dernier blues pour relater l'passionnel J'crois pas en l'amour tel un athée relationnel Un dernier blues pour relater l'passionnel Moi j'crois pas en l'amour tel un athée relationnel Le chewing-gum de leurs bisous reste collé sur ma semelle Elle aime les mecs du ghetto mais elle y resterait pas une semaine Au max, elle a pas vu là où c'est sale Et les bulles crevées de mes Air Max Alors c'est ça aimer l'amour avec un masque ? Cet amour qui rend aveugle et qui engendre une cataracte Au mieux, avec des larmes sur les joues et du rouge dans les yeux Au pire, l'passage à l'acte Avec une arme en joue et des taches rouges sur les sapes Les sapes, girl, toi tu les enlèves à ton tour Car t'entends, et ça m'épate, la jolie voix d'l'amour Alors si elle kiffe le rap Qu'elle duote avec moi comme Rim'K et Lil' Dap Dis à l'amour, j'veux son email Pour un duo d'opposition On est différemment pareils Car elle m'aime toute la nuit Et j'm'arrache dès le réveil Parce que l'amour ici C'est juste une étape sexuelle Alors pourquoi compliquer le désir réel ? Moi j't'explique c'est quoi cette bouteille de lait Lui, il veut gicler son Lactel Et elle juste glisser sur la voie lactée... Cherche autour de moi l'amour blessant comme un pushka Vois autour de moi tout c'qui nous unit pas Franchement, pour l'amour j'ai peu d'espoir Histoire de territoire Il porte un bandana rouge et moi un bandana noir Viens pas sur mon trottoir</t>
+          <t>J'connais que les amours et l'ego et les gars et les gos Que le love a blessés, construits comme des Lego Mais les fondations ont cédé, emmêlées Dans des conflits qui ont mêlé Les gamins avec les parents à table Elle jette son assiette contre le mur Car son amour n'est pas rentable C'est les prémices d'la situat' Et si trop d'amour tue l'amour J'assassine et j'me casse Toutes mes condoléances à tous ces mecs qui s'appuient Sur le seul love d'une fille et chutent quand se brise leur seul bâton d'appui Et à l'inverse tous ceux qui obturent Des milliers de fesses en feature Pourquoi dire le fond de mon coeur ? Car ces mots mourront comme les vaincus et les vainqueurs Pourquoi t'écrire des lettres Qui retiendraient des larmes ? Et relire un paraître Juste pour retarder un drame Pour moi t'es une tasse-pé, j'peux pas t'appeler Madame Cherche l'amour, mais connais pas Vois autour de moi tout c'qui unit pas Ah ouais l'amour qui traînait en bas d'chez moi Deux cents francs dans ma tour ou bien trois cents dans la ture-voi Et les gars m'disent C'est comme ça une femme, tu vois Ici les jeunes dragons crachent des flammes sur les lopes-sa Dans ce monde Vouloir chaque Esméralda C'est pleurer comme Aragon À la gloire des yeux d'Elsa Moi j't'ai vu, tu vois là-bas Caché derrière la benne Oh Manu, rentre chez toi Et puis va pas t'tailler les veines, hein Une go de perdue, c'est pas la fin d'la race humaine Et oublie l'retour des potes Ceux qui ont tellement d'problèmes Qu'ils écoutent plus ceux des autres Triste époque pour un coeur en peine Alors rejoins les autres sur le pack de Heineken Passe le salut à Karim, Beness et Raphaël, hein J'ai pas changé d'adresse réelle Parti en expédition chercher l'amour dans les ruelles Mais c'est sans avenir Comme la Belle au bois dormant Endormie devant la mire en attendant le prince charmant Qui visera moins haut qu'le coeur les fesses Moi j'l'ai laissée ce matin de bonne heure Car j'pense pas que l'amour soit la vraie source du bonheur Non, non... Un dernier blues pour relater l'passionnel J'crois pas en l'amour tel un athée relationnel Un dernier blues pour relater l'passionnel Moi j'crois pas en l'amour tel un athée relationnel Le chewing-gum de leurs bisous reste collé sur ma semelle Elle aime les mecs du ghetto mais elle y resterait pas une semaine Au max, elle a pas vu là où c'est sale Et les bulles crevées de mes Air Max Alors c'est ça aimer l'amour avec un masque ? Cet amour qui rend aveugle et qui engendre une cataracte Au mieux, avec des larmes sur les joues et du rouge dans les yeux Au pire, l'passage à l'acte Avec une arme en joue et des taches rouges sur les sapes Les sapes, girl, toi tu les enlèves à ton tour Car t'entends, et ça m'épate, la jolie voix d'l'amour Alors si elle kiffe le rap Qu'elle duote avec moi comme Rim'K et Lil' Dap Dis à l'amour, j'veux son email Pour un duo d'opposition On est différemment pareils Car elle m'aime toute la nuit Et j'm'arrache dès le réveil Parce que l'amour ici C'est juste une étape sexuelle Alors pourquoi compliquer le désir réel ? Moi j't'explique c'est quoi cette bouteille de lait Lui, il veut gicler son Lactel Et elle juste glisser sur la voie lactée... Cherche autour de moi l'amour blessant comme un pushka Vois autour de moi tout c'qui nous unit pas Franchement, pour l'amour j'ai peu d'espoir Histoire de territoire Il porte un bandana rouge et moi un bandana noir Viens pas sur mon trottoir</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Putain mais là j'me suis encore fait contrôler et les mecs ils m'font la morale. ils m'parlent de la loi, on parle de l'Etat, tu sais je leur ai dit quoi ? Vas-y balance un sample j'te raconte... On m'a dit putain Kawa fais pas d'histoire Fais pas ton Dieudo' ! Alors du coup j'cace-dédi ce track aux vrais contre-pouvoirs... merci à la police aux gendarmes...éteind ta télé lis un livre... qui ont bien voulu qu'on débatte... on soutient les esprits libres... Snowden, Assange, Wikileaks, Stéphane Hessel, Charlie Hebdo, Bradley Manning... Rémi Garnier... Anonymous, les prisonniers politiques du monde entier. Depuis l'antiquité tu sais rien n'a vraiment changé, on assassine toujours les messagers... Le savoir est une arme, d'instruction massive Y a pas que les photos d'charme, d'intromission raciste Nettoyez l'argent sale, les p'tits sachets d'lessive Y a le savoir qu'est une arme qu'a son mode d'emploi dans les livres Parlons du fond du coeur de la vérité vraie du monde Depuis toujours c'est les vainqueurs qui violent et qui fécondent Pour dire On a baisé vos femmes on est les leaders génétiques La domination animale, ce vieil instinct archaïque... Tous les assassins d'naguère sont des héros s'ils gagnent la guerre Nagasaki, Hiroshima qu'en disent les manuels scolaires? Et les lance-pierres de Palestine qui sont punis par des missiles Un blessé pour deux cent morts dans l'expédition punitive Le terrorisme est inactif selon le sens des bombes Ils envahissent le Tiers-Monde lorsqu'il y a deux buildings qui tombent Les collabos, les colonies et le Code Noir Souviens toi que c'est les vainqueurs qui rédigent les livres d'histoire You might also like Mais pour qui sont ces serpents qui sifflent sur vos têtes ? Faut-il vraiment choisir un camp entre Youssef et Joseph ? Tout vainqueur insolent à sa perte travaille Prenez garde à être modestes après le gain d'une bataille Car parfois le futur, au passé joue des tours Nos actuelles préfectures sont nos anciennes Kommandantur Honnie soit la guerre et les teubés qui la pratiquent On voit jamais qu'on tue des frères quand on joue à Battlefield 8 On fait la fête on veut redécore pour des causes vites oubliées Mais rappelez-vous que les morts n'apprécient pas le Jubilé Population mondiale, prenez bien garde à vous Sous peine de voir votre liberté le crâne rasé, à genoux Tu crois tes droits acquis parce que t'as servi en kaki Mais t'es toujours à deux doigts d'être oublié comme un harki L'Histoire n'en dit plus rien mais le pont de Paris s'en souvient De la main d'Aussaresse ici on noie les Algériens Y a au moins toujours deux versions à l'Histoire Pour une histoire d'mélanine on excusait la traite des Noirs Mémoire d'humanité pour que tu t'sentes Terrien Alors pourquoi on dit plus rien de l'unité 731 ? On parle de frappe chirurgicale, de guerre éclair pour des carnages Au paysage, obscur et clair comme une peinture de Caravage Il faut décrypter les messages et les garder enfouis en nous Car y a longtemps qu'le rôle de sage est dangereux parmi les fous Attends attends tu veux dire que la bien-pensance que l'Etat nous impose repose sur tous ces mecs impliqués dans des scandales heu... Flosse, Sarko, Eric Woerth, Valls, Tapie, Miterrand, Rachida Dati, Tibéri, DSK, Guérini et Santini, Pasqua, Harlem Désir, Dassault ou Cahuzac ? Et la liste est infinie dans la corruption de l'Etat, tape élus justiciable sur Google ou Wikipédia Ils ont revendu leurs âmes pour des bouts d'gras, j'me sens insulté quand Hollande prend Netanyahu dans ses bras On traite de terroriste celui qui refuse la colonie, et d'anarchiste celui qui refuse la guerre pour l'économie 2</t>
+          <t>Putain mais là j'me suis encore fait contrôler et les mecs ils m'font la morale. ils m'parlent de la loi, on parle de l'Etat, tu sais je leur ai dit quoi ? Vas-y balance un sample j'te raconte... On m'a dit putain Kawa fais pas d'histoire Fais pas ton Dieudo' ! Alors du coup j'cace-dédi ce track aux vrais contre-pouvoirs... merci à la police aux gendarmes...éteind ta télé lis un livre... qui ont bien voulu qu'on débatte... on soutient les esprits libres... Snowden, Assange, Wikileaks, Stéphane Hessel, Charlie Hebdo, Bradley Manning... Rémi Garnier... Anonymous, les prisonniers politiques du monde entier. Depuis l'antiquité tu sais rien n'a vraiment changé, on assassine toujours les messagers... Le savoir est une arme, d'instruction massive Y a pas que les photos d'charme, d'intromission raciste Nettoyez l'argent sale, les p'tits sachets d'lessive Y a le savoir qu'est une arme qu'a son mode d'emploi dans les livres Parlons du fond du coeur de la vérité vraie du monde Depuis toujours c'est les vainqueurs qui violent et qui fécondent Pour dire On a baisé vos femmes on est les leaders génétiques La domination animale, ce vieil instinct archaïque... Tous les assassins d'naguère sont des héros s'ils gagnent la guerre Nagasaki, Hiroshima qu'en disent les manuels scolaires? Et les lance-pierres de Palestine qui sont punis par des missiles Un blessé pour deux cent morts dans l'expédition punitive Le terrorisme est inactif selon le sens des bombes Ils envahissent le Tiers-Monde lorsqu'il y a deux buildings qui tombent Les collabos, les colonies et le Code Noir Souviens toi que c'est les vainqueurs qui rédigent les livres d'histoire Mais pour qui sont ces serpents qui sifflent sur vos têtes ? Faut-il vraiment choisir un camp entre Youssef et Joseph ? Tout vainqueur insolent à sa perte travaille Prenez garde à être modestes après le gain d'une bataille Car parfois le futur, au passé joue des tours Nos actuelles préfectures sont nos anciennes Kommandantur Honnie soit la guerre et les teubés qui la pratiquent On voit jamais qu'on tue des frères quand on joue à Battlefield 8 On fait la fête on veut redécore pour des causes vites oubliées Mais rappelez-vous que les morts n'apprécient pas le Jubilé Population mondiale, prenez bien garde à vous Sous peine de voir votre liberté le crâne rasé, à genoux Tu crois tes droits acquis parce que t'as servi en kaki Mais t'es toujours à deux doigts d'être oublié comme un harki L'Histoire n'en dit plus rien mais le pont de Paris s'en souvient De la main d'Aussaresse ici on noie les Algériens Y a au moins toujours deux versions à l'Histoire Pour une histoire d'mélanine on excusait la traite des Noirs Mémoire d'humanité pour que tu t'sentes Terrien Alors pourquoi on dit plus rien de l'unité 731 ? On parle de frappe chirurgicale, de guerre éclair pour des carnages Au paysage, obscur et clair comme une peinture de Caravage Il faut décrypter les messages et les garder enfouis en nous Car y a longtemps qu'le rôle de sage est dangereux parmi les fous Attends attends tu veux dire que la bien-pensance que l'Etat nous impose repose sur tous ces mecs impliqués dans des scandales heu... Flosse, Sarko, Eric Woerth, Valls, Tapie, Miterrand, Rachida Dati, Tibéri, DSK, Guérini et Santini, Pasqua, Harlem Désir, Dassault ou Cahuzac ? Et la liste est infinie dans la corruption de l'Etat, tape élus justiciable sur Google ou Wikipédia Ils ont revendu leurs âmes pour des bouts d'gras, j'me sens insulté quand Hollande prend Netanyahu dans ses bras On traite de terroriste celui qui refuse la colonie, et d'anarchiste celui qui refuse la guerre pour l'économie 2</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Et si j'avais que deux minutes pour, faire un croquis Peindre les sentiments en clair obscur Un peu de lumière dans l'obscur ça se voit toujours Comme dans la couleur des émotions Contrairement à un petit peu d'obscurité sur de la lumière Sauf peut être sur une radio du poumon Et comme me dirait Aude parfois le jour me nuis Comme me dirait l'aube parfois la nuit m'ajourne Peut être que les sentiments sont une cueillette de fleurs invisibles Qui font des bouquets d'émotions cueillis dans un champ chromatique Personne voudrait avoir juste un bouquet monotone Fait que de Dahlias noirs et d'émotion monochrome Si on aboie c'est qu'on a la rage car on est fait du sang des en chiens Des jardins d'où poussait la révolution dillets, de tulipes et de jasmins Bien qu'on soit fait de ce terreau rare dans les faits pas des terroristes Que des bombes de peintures de ces couleurs qui les terrorisent Rouge, orange, rose, bleu ciel frère, d'où l'archange siège La révolte n'est qu'une flèche tirée d'un arc en ciel On plane au cur d'un orage mais on peindra des merveilles On transpercera les nuages, ces cataractes du ciel ! Yeah, si tu tournes dans ton lit sans trouver le soleil Que ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cache, ces cataractes du ciel Et tu tournes et tu tournes sans trouver le soleil Et ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cachent, ces cataractes du ciel You might also like Le tableau des sentiments est une étoile de maître Mais tu la gâches à trop mettre le noir du ressentiment Dans le son les mots sont une mélodie en panel La couleur des émotions est un arc-en-ciel Mais t'ouvres ton parapluie quand il tombe des gouttes de lumières aussi Pour voir la vie en rose faut savoir passer par ses épines Bah ouais parfois j'ai les idées noires mais ma musique est un bruit blanc C'est comme un voleur d'espoir, la tristesse est un brigand Et réduire tout le spectre des couleurs aux symboles C'est réduire tout l'orchestre symphonique aux cymbales C'est un panel de gouache la couleur émotionnelle Mais des nuages la cache ces cataracte du ciel Et tu tournes et tu tournes sans trouver le soleil Et ta journée s'enfuit dans la chaleur du sommeil C'est un panel de gouache la couleur émotionnelle Mais des nuages la cache, ces cataractes du ciel Tu vois le tableau?</t>
+          <t>Et si j'avais que deux minutes pour, faire un croquis Peindre les sentiments en clair obscur Un peu de lumière dans l'obscur ça se voit toujours Comme dans la couleur des émotions Contrairement à un petit peu d'obscurité sur de la lumière Sauf peut être sur une radio du poumon Et comme me dirait Aude parfois le jour me nuis Comme me dirait l'aube parfois la nuit m'ajourne Peut être que les sentiments sont une cueillette de fleurs invisibles Qui font des bouquets d'émotions cueillis dans un champ chromatique Personne voudrait avoir juste un bouquet monotone Fait que de Dahlias noirs et d'émotion monochrome Si on aboie c'est qu'on a la rage car on est fait du sang des en chiens Des jardins d'où poussait la révolution dillets, de tulipes et de jasmins Bien qu'on soit fait de ce terreau rare dans les faits pas des terroristes Que des bombes de peintures de ces couleurs qui les terrorisent Rouge, orange, rose, bleu ciel frère, d'où l'archange siège La révolte n'est qu'une flèche tirée d'un arc en ciel On plane au cur d'un orage mais on peindra des merveilles On transpercera les nuages, ces cataractes du ciel ! Yeah, si tu tournes dans ton lit sans trouver le soleil Que ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cache, ces cataractes du ciel Et tu tournes et tu tournes sans trouver le soleil Et ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cachent, ces cataractes du ciel Le tableau des sentiments est une étoile de maître Mais tu la gâches à trop mettre le noir du ressentiment Dans le son les mots sont une mélodie en panel La couleur des émotions est un arc-en-ciel Mais t'ouvres ton parapluie quand il tombe des gouttes de lumières aussi Pour voir la vie en rose faut savoir passer par ses épines Bah ouais parfois j'ai les idées noires mais ma musique est un bruit blanc C'est comme un voleur d'espoir, la tristesse est un brigand Et réduire tout le spectre des couleurs aux symboles C'est réduire tout l'orchestre symphonique aux cymbales C'est un panel de gouache la couleur émotionnelle Mais des nuages la cache ces cataracte du ciel Et tu tournes et tu tournes sans trouver le soleil Et ta journée s'enfuit dans la chaleur du sommeil C'est un panel de gouache la couleur émotionnelle Mais des nuages la cache, ces cataractes du ciel Tu vois le tableau?</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Omis depuis le départ comme des otages en Russie Je traîne à l'arrière des bars j'attends que l'orage ne soit plus si Intense et rien qu'pense au gros type saoul qui m'arrime Tant qu'tu restes underground comme une torpille sous marine Tu feras pas de hit mondial, comme Yellow Submarine Car maintenant pour faire des ventes il faut faire des featurings Mais j'ai pas envie d'faire du vent et jouer d'la flûte avec la Fouine Mon vécu qui défile c'est Jacques Brel et Wu Tang Entre le cul des filles puis le cul des bouteilles On m'surveille comme un soliste du Bolchoï J'boycotte le lac des cygnes Plaqué sur le capot par les capos en civil Tu savais pas boy mais la nuit ici c'est not'ville J'm'excuse j'ai lu Playboy mais pas le code civil Et si j'bibine l'eau de feu de l'enfer et quitte le fil des corbeaux C'est pour faire du son excitant frère comme une B.O. d'film porno Depuis l'arrière des bars je débarque avec la vermine C'est là qu'était le départ mais on s'éternise Et c'est là qu'on se termine Par des soda bacardi Pater m'a dit il faut qu'tu sois honnête man Mais j'me défonce et j'm'enfonce comme un soldat au Vietnam J'regrette, c'est bien, y a pas d'alcoolique serein La clope électronique s'éteint dans le cendar j'me sens sans style Pourtant demain matin ce sera Sanda et boxe thai Ça baise et ça boit des 16 à faire baisser la foi La nuit à rapper des 16 j'ai finit par m'baiser la voix Sur les bancs de la voirie, sur les quais Ou sous un Ginkgo biloba J'suis accroché à sa branche j'me repose un peu Comme les mésanges alcool et beuh c'est les mélanges J'ai vu un peu saigner les anges La vie est belle dans la ruelle mais elle est dure Comme un mur sous la peinture de Michel Ange You might also like On fait la trêve noyés dans des rêves d'alcool Le soleil c'est les néons, pour ça qu'pour elles j'parais mignon La nuit les filles sont frivoles avec un arrière goût d'charbon Les étoiles sont au sol, les anges noirs au balcon Ca fait salle comble et j'mate les gars qui s'battent Débat des schlass et des sales cons Le tragique s'évite pas toujours Le patron arrive livide au secours Le tonneau des Danaïdes est vide j'en ai bien bu des litres Si j'défile dans les rues comme un mannequin d'Elite Tellement d'alcool que ça m'colle des haut-le-coeur Alors j'marche de traviole comme Johnnie Walker Comme un marin d'au douce je zone sous la capuche Pourtant je cherche le sun comme un tournesol J'me fixe dans une vitrine j'suis mon ennemi et ma victime A la craie qu'on entoure au sol Pourquoi les petits disent à l'école que papa est malade de l'alcool Mais il veut changer... Il vacille en danger sur le plongeoir Et plouf, il a replongé2</t>
+          <t>Omis depuis le départ comme des otages en Russie Je traîne à l'arrière des bars j'attends que l'orage ne soit plus si Intense et rien qu'pense au gros type saoul qui m'arrime Tant qu'tu restes underground comme une torpille sous marine Tu feras pas de hit mondial, comme Yellow Submarine Car maintenant pour faire des ventes il faut faire des featurings Mais j'ai pas envie d'faire du vent et jouer d'la flûte avec la Fouine Mon vécu qui défile c'est Jacques Brel et Wu Tang Entre le cul des filles puis le cul des bouteilles On m'surveille comme un soliste du Bolchoï J'boycotte le lac des cygnes Plaqué sur le capot par les capos en civil Tu savais pas boy mais la nuit ici c'est not'ville J'm'excuse j'ai lu Playboy mais pas le code civil Et si j'bibine l'eau de feu de l'enfer et quitte le fil des corbeaux C'est pour faire du son excitant frère comme une B.O. d'film porno Depuis l'arrière des bars je débarque avec la vermine C'est là qu'était le départ mais on s'éternise Et c'est là qu'on se termine Par des soda bacardi Pater m'a dit il faut qu'tu sois honnête man Mais j'me défonce et j'm'enfonce comme un soldat au Vietnam J'regrette, c'est bien, y a pas d'alcoolique serein La clope électronique s'éteint dans le cendar j'me sens sans style Pourtant demain matin ce sera Sanda et boxe thai Ça baise et ça boit des 16 à faire baisser la foi La nuit à rapper des 16 j'ai finit par m'baiser la voix Sur les bancs de la voirie, sur les quais Ou sous un Ginkgo biloba J'suis accroché à sa branche j'me repose un peu Comme les mésanges alcool et beuh c'est les mélanges J'ai vu un peu saigner les anges La vie est belle dans la ruelle mais elle est dure Comme un mur sous la peinture de Michel Ange On fait la trêve noyés dans des rêves d'alcool Le soleil c'est les néons, pour ça qu'pour elles j'parais mignon La nuit les filles sont frivoles avec un arrière goût d'charbon Les étoiles sont au sol, les anges noirs au balcon Ca fait salle comble et j'mate les gars qui s'battent Débat des schlass et des sales cons Le tragique s'évite pas toujours Le patron arrive livide au secours Le tonneau des Danaïdes est vide j'en ai bien bu des litres Si j'défile dans les rues comme un mannequin d'Elite Tellement d'alcool que ça m'colle des haut-le-coeur Alors j'marche de traviole comme Johnnie Walker Comme un marin d'au douce je zone sous la capuche Pourtant je cherche le sun comme un tournesol J'me fixe dans une vitrine j'suis mon ennemi et ma victime A la craie qu'on entoure au sol Pourquoi les petits disent à l'école que papa est malade de l'alcool Mais il veut changer... Il vacille en danger sur le plongeoir Et plouf, il a replongé2</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Come sit with me, we can wonder what's to come together Come, be with me, we can come together and wonder Come follow me, let me show you we were made for each other And go on like this for ever and ever and ever and ever And ever Dooz au téléphone -Arrêtes qu'est ce que tu racontes.. Putain mais, c'est pas la question c'est pas le moment de parler de ça Hippo à côté de Dooz-Raccroche, allez -Ouais une seconde ! -Raccroche ! -T'as vu c'est plus possible, c'est juste pas bon -Tu la rappelles après, c'est bon ! Tout à l'heure on sera riche mec -Il faut que je te laisse -Allez, allez -Il faut que je te laisse ! -Go Pas de stress c'est pour un retrait ! Ahaha Je rentre dans la banque un après midi de chien Dévasé par les les shooters Pour tout voler Je suis prêt à tout donner Je fais du grand banditisme toulonais Francky Le Belge qui débarque dans la foule caché sous un masque de clown Tire une rafale en l'air et les gens se retournent Juste une fois Et on quitte le froid pour toujours Je me souviens toujours de ce fameux jour où à noël y avait pas de cadeaux Mon père noël est mort alcoolo Perdu on perd nos repères, mets une paire d'espèces dans le sac à dos j' décampe et fous le camp Dans la voiture devant Hippocampe m'attend J'espère que t'as pas tué des gens que t'as ramené le pactole Dans le fond t'es pas méchant mais tu deviens dément quand tu taffoles Depuis tout petit tu fais des bêtises je t'ai pourtant dit d'éviter l'alcool La voiture ne démarre pas, c'est ton mauvais karma On est dans la merde ne te marres pas ! -Vas-y, on fait quoi maintenant ? Restons planqués concentrés appliquons le plan B On va s'en tirer sans flancher sans flamber mais pas sans blé OK Oh Come sit with me, we can wonder what's to come together Come, be with me, we can come together and wonder Come follow me, let me show you we were made for each other And go on like this for ever and ever and ever and ever And ever On s'écarte du boulevard et les gens passent sur le pare-brise Et claclaclaclaclac a fait la jante sur le trottoir L'agent ne fait que son devoir A grand coups de pieds dans les reins Pose l'argent sans faire d'histoires et mets ta tête devant tes mains ! Hippo t'es loin, le braquage s'est pas bien passé Pourtant c'était parfait sur les pages du calepin de papier Je me souviens de rien, d'où vient cette voiture toute cassée Hippo qui décampe une balle dans la jambe et choisi la course à pied Tu sais que je suis pas pieu Et puis que Dieu m'a pas dit si les bandits qui meurent et qui n'ont pas fait de mal vont au paradis Comme les riches sur Terre vont au paradis fiscal Bien sûr la police est calme quand c'est l'Etat, EDF, les banquiers qui nous rackettent pour eux pas de prison Quand t'es pris en otage à travers ton livret A et qu'on te renvoie sans raison Si il y a plus d'avenir à l'horizon déchire la chemise d'un actionnaire ça fera golri à la maison Cette balle dans le quadriceps Ralentit ma course je souffre et je sens l'ivresse Les crapules tombent dans l'oubli les grands bandits restent Je suis dans la ligne de mire C'est l'interro surprise je n'ai pas d'antisèche Une balle dans le bide c'est indigeste Mon cur tambourine voilà venu l'heure du chant du cygne, j'ai envie de sexe La vie est une fête je vais la quitter frustré comme Cendrillon au réveillon de la St Sylvestre J'ignore où se trouve Dooz Pourvu qu'il les double qu'il les sème tous Et qu'il épouse Celle qu'il aime depuis des millénaires Et qu'en bord de mer, ils remplissent des verres J'ignore où se trouve Dooz Pourvu qu'il les double qu'il les sème tous Et qu'il épouse Celle qu'il aime depuis des millénaires Et qu'en bord de mer, ils les vident ces verres Come sit with me, we can wonder what's to come together Come, be with me, we can come together and wonder Come follow me, let me show you we were made for each other And go on like this for ever and ever and ever and ever And everYou might also like</t>
+          <t>Come sit with me, we can wonder what's to come together Come, be with me, we can come together and wonder Come follow me, let me show you we were made for each other And go on like this for ever and ever and ever and ever And ever Dooz au téléphone -Arrêtes qu'est ce que tu racontes.. Putain mais, c'est pas la question c'est pas le moment de parler de ça Hippo à côté de Dooz-Raccroche, allez -Ouais une seconde ! -Raccroche ! -T'as vu c'est plus possible, c'est juste pas bon -Tu la rappelles après, c'est bon ! Tout à l'heure on sera riche mec -Il faut que je te laisse -Allez, allez -Il faut que je te laisse ! -Go Pas de stress c'est pour un retrait ! Ahaha Je rentre dans la banque un après midi de chien Dévasé par les les shooters Pour tout voler Je suis prêt à tout donner Je fais du grand banditisme toulonais Francky Le Belge qui débarque dans la foule caché sous un masque de clown Tire une rafale en l'air et les gens se retournent Juste une fois Et on quitte le froid pour toujours Je me souviens toujours de ce fameux jour où à noël y avait pas de cadeaux Mon père noël est mort alcoolo Perdu on perd nos repères, mets une paire d'espèces dans le sac à dos j' décampe et fous le camp Dans la voiture devant Hippocampe m'attend J'espère que t'as pas tué des gens que t'as ramené le pactole Dans le fond t'es pas méchant mais tu deviens dément quand tu taffoles Depuis tout petit tu fais des bêtises je t'ai pourtant dit d'éviter l'alcool La voiture ne démarre pas, c'est ton mauvais karma On est dans la merde ne te marres pas ! -Vas-y, on fait quoi maintenant ? Restons planqués concentrés appliquons le plan B On va s'en tirer sans flancher sans flamber mais pas sans blé OK Oh Come sit with me, we can wonder what's to come together Come, be with me, we can come together and wonder Come follow me, let me show you we were made for each other And go on like this for ever and ever and ever and ever And ever On s'écarte du boulevard et les gens passent sur le pare-brise Et claclaclaclaclac a fait la jante sur le trottoir L'agent ne fait que son devoir A grand coups de pieds dans les reins Pose l'argent sans faire d'histoires et mets ta tête devant tes mains ! Hippo t'es loin, le braquage s'est pas bien passé Pourtant c'était parfait sur les pages du calepin de papier Je me souviens de rien, d'où vient cette voiture toute cassée Hippo qui décampe une balle dans la jambe et choisi la course à pied Tu sais que je suis pas pieu Et puis que Dieu m'a pas dit si les bandits qui meurent et qui n'ont pas fait de mal vont au paradis Comme les riches sur Terre vont au paradis fiscal Bien sûr la police est calme quand c'est l'Etat, EDF, les banquiers qui nous rackettent pour eux pas de prison Quand t'es pris en otage à travers ton livret A et qu'on te renvoie sans raison Si il y a plus d'avenir à l'horizon déchire la chemise d'un actionnaire ça fera golri à la maison Cette balle dans le quadriceps Ralentit ma course je souffre et je sens l'ivresse Les crapules tombent dans l'oubli les grands bandits restent Je suis dans la ligne de mire C'est l'interro surprise je n'ai pas d'antisèche Une balle dans le bide c'est indigeste Mon cur tambourine voilà venu l'heure du chant du cygne, j'ai envie de sexe La vie est une fête je vais la quitter frustré comme Cendrillon au réveillon de la St Sylvestre J'ignore où se trouve Dooz Pourvu qu'il les double qu'il les sème tous Et qu'il épouse Celle qu'il aime depuis des millénaires Et qu'en bord de mer, ils remplissent des verres J'ignore où se trouve Dooz Pourvu qu'il les double qu'il les sème tous Et qu'il épouse Celle qu'il aime depuis des millénaires Et qu'en bord de mer, ils les vident ces verres Come sit with me, we can wonder what's to come together Come, be with me, we can come together and wonder Come follow me, let me show you we were made for each other And go on like this for ever and ever and ever and ever And ever</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>En yiddish Shteyt a bokher, un er trakht Trakht un trakht a gantse nakht Vemen zu nemen un nisht farshemen Vemen zu nemen un nisht farshemen Tumbala, tumbala, tumbalalaika Tumbala, tumbala, tumbalalaika Tumbalalaika, shpil balalaika Shpil balalaika, freylekh zol zayn Disons que j'ai mal joué ma carte J'ai la clé d'sol qui ouvre la cage, moi Venu couper des têtes, le mic entre les métacarpes Afin que les mecs m'attrapent Des baltringues au ball-trap armés dans la forêt Veulent qu'on massacre le dernier macaque Étoiles du sol dans mes écrits comme sur l'short d'Apollo Creed J'suis pas venu danser sur le ring Si cette nuit j'm'abats par terre, du LSD dans les artères Toute la ville connaît ma griffe et mon treillis dans les afters Et même mes habits en témoignent Depuis les rives du bagne j'laisse glisser et m'éloigne Comme tous ceux braconnés pour leur style 12 K.O., Kayo, Nano 12 K.O. freestyleYou might also like3</t>
+          <t>En yiddish Shteyt a bokher, un er trakht Trakht un trakht a gantse nakht Vemen zu nemen un nisht farshemen Vemen zu nemen un nisht farshemen Tumbala, tumbala, tumbalalaika Tumbala, tumbala, tumbalalaika Tumbalalaika, shpil balalaika Shpil balalaika, freylekh zol zayn Disons que j'ai mal joué ma carte J'ai la clé d'sol qui ouvre la cage, moi Venu couper des têtes, le mic entre les métacarpes Afin que les mecs m'attrapent Des baltringues au ball-trap armés dans la forêt Veulent qu'on massacre le dernier macaque Étoiles du sol dans mes écrits comme sur l'short d'Apollo Creed J'suis pas venu danser sur le ring Si cette nuit j'm'abats par terre, du LSD dans les artères Toute la ville connaît ma griffe et mon treillis dans les afters Et même mes habits en témoignent Depuis les rives du bagne j'laisse glisser et m'éloigne Comme tous ceux braconnés pour leur style 12 K.O., Kayo, Nano 12 K.O. freestyle3</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>J'retiens ceux qui me l'ont dit Depuis c'est sûr, j'vais de mal en pis L'artiste autiste est l'enfant qui pleure sur la mélodie Hyper sensible comme un ado qui prend que des bâches Comme un radeau sur le creux d'la vague J'suis c'lui qu'écrit sous trop d'hydromel Et dans l'intro l'gars qui crie trop mal À faire des lalalalala freestyle J'en perds mon hydrolat lacrymal Pour porter tous les non-dits Aspergé à la lacrymo Comme si j'introduisais le crime au... Paradis J'observe les Anges parader, paraît-il Que l'amour n'est pas gratuit dans les grandes villes ! Les anges s'épanchent T'as déjà vu saigner leurs manches ? Scintiller l'ambulance Déjà si loin, tournant au coin en silence T'as déjà vu saigner un ange ? L'ange que tu voyais pas cultivant l'amour en soi Cueillant des mydriases un soir Message aux anges noirs Des soleils noirs et des nuits blanches Des regards tristes et dangereux La fin des temps, la mort de Dieu On y arrive les larmes aux yeux Bien dérisoires face à l'histoire Celle qu'on enseigne dans les écoles Des assassins qui font le bien Les fous nous passent la camisole J'ai entendu Révolution ! À l'hallali et blablabla Il paraît qu'on est que des pions Qu'on se fracasse contre des croix Mon monde gronde Sous l'obscurité journalière Celle qui rendit mon esprit sombre J'ai peur quand s'éteint la lumière Notre avenir est compromis Et le foetus meurt dans les gogues Puisque notre monde est promis Aux plus pourris des démagogues Ces candidats sempiternels Pour un naufrage universel C'est pas demain qu'ils nous épatent Placent un fils de pute à l'EPAD Il y avait les requins marteaux Voilà les requins voleurs Ne peuvent s'arrêter de nager Comme des putains juste pour une heure Puisque leur nature est servile Que les anges ont les ailes brisées C'est la démolition des villes Et les convois d'voitures brûlées Pourquoi l'État nous violerait-il ? Puisqu'ils peuvent nous baiser Nous abaisser, ils nous dominent Nous nous penchons, les mains liées Ce soir les espoirs se déchaînent Comme les esclaves en Virginie Même si les CRS se pointent Comme les tétons à Virginie Les déserteurs aux képis blancs Sont les enfants du régiment Et le public de mes concerts Ne salue plus le président Monte à l'assaut contre les troupes Avec nos frères qui brûlent de rage Le drapeau bleu et blanc et rouge Pour que le noir flotte aux nuages C'est pas la juste nécessité Mais c'est la juste évolution D'une bien triste société Qui vit toujours sous perfusion Si les grands soirs sont revenus Les dinosaures d'un monde perdu On les a vus et bien pendus Pour oublier que l'heure est grave Tard, on a libéré Bagdad Les chars paradent dans Stalingrad Exécutons les Ben Laden Mais plus les choses, soi-disant, changent Plus elles restent les mêmes Restent les rêves, dans les poèmes Ne reste rien dans les abîmes Ne reste rien, que des je t'aime Et encore... ces je t'aime on s'les imagine J'suis sur le ring, mes rimes font saigner les enceintes Crochet,crochet, jab, direct feinte J'continuerai si c'est la fin 'cause... THAT's entertainment !!!.... You might also likeI'm just playing France, you know I love you1</t>
+          <t>J'retiens ceux qui me l'ont dit Depuis c'est sûr, j'vais de mal en pis L'artiste autiste est l'enfant qui pleure sur la mélodie Hyper sensible comme un ado qui prend que des bâches Comme un radeau sur le creux d'la vague J'suis c'lui qu'écrit sous trop d'hydromel Et dans l'intro l'gars qui crie trop mal À faire des lalalalala freestyle J'en perds mon hydrolat lacrymal Pour porter tous les non-dits Aspergé à la lacrymo Comme si j'introduisais le crime au... Paradis J'observe les Anges parader, paraît-il Que l'amour n'est pas gratuit dans les grandes villes ! Les anges s'épanchent T'as déjà vu saigner leurs manches ? Scintiller l'ambulance Déjà si loin, tournant au coin en silence T'as déjà vu saigner un ange ? L'ange que tu voyais pas cultivant l'amour en soi Cueillant des mydriases un soir Message aux anges noirs Des soleils noirs et des nuits blanches Des regards tristes et dangereux La fin des temps, la mort de Dieu On y arrive les larmes aux yeux Bien dérisoires face à l'histoire Celle qu'on enseigne dans les écoles Des assassins qui font le bien Les fous nous passent la camisole J'ai entendu Révolution ! À l'hallali et blablabla Il paraît qu'on est que des pions Qu'on se fracasse contre des croix Mon monde gronde Sous l'obscurité journalière Celle qui rendit mon esprit sombre J'ai peur quand s'éteint la lumière Notre avenir est compromis Et le foetus meurt dans les gogues Puisque notre monde est promis Aux plus pourris des démagogues Ces candidats sempiternels Pour un naufrage universel C'est pas demain qu'ils nous épatent Placent un fils de pute à l'EPAD Il y avait les requins marteaux Voilà les requins voleurs Ne peuvent s'arrêter de nager Comme des putains juste pour une heure Puisque leur nature est servile Que les anges ont les ailes brisées C'est la démolition des villes Et les convois d'voitures brûlées Pourquoi l'État nous violerait-il ? Puisqu'ils peuvent nous baiser Nous abaisser, ils nous dominent Nous nous penchons, les mains liées Ce soir les espoirs se déchaînent Comme les esclaves en Virginie Même si les CRS se pointent Comme les tétons à Virginie Les déserteurs aux képis blancs Sont les enfants du régiment Et le public de mes concerts Ne salue plus le président Monte à l'assaut contre les troupes Avec nos frères qui brûlent de rage Le drapeau bleu et blanc et rouge Pour que le noir flotte aux nuages C'est pas la juste nécessité Mais c'est la juste évolution D'une bien triste société Qui vit toujours sous perfusion Si les grands soirs sont revenus Les dinosaures d'un monde perdu On les a vus et bien pendus Pour oublier que l'heure est grave Tard, on a libéré Bagdad Les chars paradent dans Stalingrad Exécutons les Ben Laden Mais plus les choses, soi-disant, changent Plus elles restent les mêmes Restent les rêves, dans les poèmes Ne reste rien dans les abîmes Ne reste rien, que des je t'aime Et encore... ces je t'aime on s'les imagine J'suis sur le ring, mes rimes font saigner les enceintes Crochet,crochet, jab, direct feinte J'continuerai si c'est la fin 'cause... THAT's entertainment !!!.... I'm just playing France, you know I love you1</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Réveille toi Ligeia et puis on va cueillir discret la tulipe de fan-fan En passant tant que le geôlier est distrait Le temps dévore ses enfants J'aurais tout fait pour tes beaux yeuxverlan Même si j'sais bien que t'es amoureuse Du soleil comme Clytie alors que moi j'viens de la nuit Appelle l'aurore a nos ébats et son corps nimbé de lumière Tout nue nous éblouira Je reviendrais des eaux profondes avec le trident de Neptune J'm'en bas les burnes qu'ils plaisent au monde, mets un jean et un pull Je véhicule, le chant de la racaille J'suis née sur un chant de bataille Sortit du ventre d'un cheval Qui m'a gardé protégé dans la chaleur de ses entrailles J'entaille toujours ses blessures anciennes Et puis ces palabres des douanes car j'ai des trous noirs dans mon ciel ouais Des cadavres d'étoiles C'est pas grave et on détallent de toit en toit Pour voir si le ciel est mort parce qu'on est l'aube La jeunesse a un pouvoir qui s'ignore.. X2 Ligeia on est trop jeune pour dormir Eh eh .. Reveille toi Ligeia Sort de ta léthargie J'ai posé sur le toit SOS en lettre d'argile On est trop jeune pour dormir You might also likeMets tes baskets une veste et on part sur la pointe des pieds Qu'on entende plus que ton souffle et le craquement sur le parquet On va débarquer tout au bout du monde La ou on tombe de la planète Peut être par à-coup car ma musique voyage en stop Elle s'réfléchie comme un trajet Moscou-Vladivostok V'la les gants de boxe? J'crois que ce monde m'a maudit pour avoir baiser des zombies Et puis dêtre encore au lit A l'heure ou les gens dinent J'me bat pour ma libertie On veut me pendre p'être comme un Hussard Accusé de rependre la peste noire Les traites? se marrent les évos? morts J'serais sauver par mes amours Et on traversera les méandre Même si j'suis pas un héros et pas non plus un Léandre Tu pourrais être cette somnambule qui m'pourchasse avec un Luger Ou j'pourrais mourir dans tes rêve écorché par Freddy Krueger Viens a la fenêtre voir si l'horizon est beau Puisque notre futur c'est dêtre des éternels horizontaux X2 Ligeia on est trop jeune pour dormir Eh eh .. Reveille toi Ligeia Sort de ta léthargie J'ai posé sur le toit SOS en lettre d'argile On est trop jeune pour dormir T'es belle comme un orgasme Comme une pair de Nike Air max -réédite- Jordan7 J'voudrais te dire des belles phrases mais j'suis un détruit de la tête Pour moi t'es belle comme une machette Comme une poétesse maudite Marceline-Desbordes-Valmore Comme un Glock 9mm doù j'entrevois ma petite mort Belle comme si c'était trop tard Comme les sirènes des gyrophares qui attirent les galériens sur les trottoirs d'Arnaud-Bernard? T'es belle comme des flocons de Coke qui fondent sur le corps de lescorte nue T'es belle comme un beau cul qui cré beaucoup dattraction T'es belle comme l'amoureuse mais sucrée comme la trahison T'en pis si tu me laisses ici, j'ai vécus beaucoup de kiff Comment un orifice vide pourrait combler un vide affectif ? Parait qu'c'est pas très fonctionnel la façon d'on on fait l'amour Parait qu'ca sert pas a grand chose Mais ça bouche toujours un troue Réveille toi, j'resterais la pour toujours X2 Ligeia on est trop jeune pour dormir Eh eh .. Réveille toi Ligeia Sort de ta léthargie J'ai posé sur le toit SOS en lettre d'argile On est trop jeune pour dormir Tellement à rêver qu'on doit être dans le vrai On compte les étoiles dans nos rangs Dans nos armées d'enivrés Réveille toi .. On t'attend comme l'enfer Nique sa mère Réveille toi1</t>
+          <t>Réveille toi Ligeia et puis on va cueillir discret la tulipe de fan-fan En passant tant que le geôlier est distrait Le temps dévore ses enfants J'aurais tout fait pour tes beaux yeuxverlan Même si j'sais bien que t'es amoureuse Du soleil comme Clytie alors que moi j'viens de la nuit Appelle l'aurore a nos ébats et son corps nimbé de lumière Tout nue nous éblouira Je reviendrais des eaux profondes avec le trident de Neptune J'm'en bas les burnes qu'ils plaisent au monde, mets un jean et un pull Je véhicule, le chant de la racaille J'suis née sur un chant de bataille Sortit du ventre d'un cheval Qui m'a gardé protégé dans la chaleur de ses entrailles J'entaille toujours ses blessures anciennes Et puis ces palabres des douanes car j'ai des trous noirs dans mon ciel ouais Des cadavres d'étoiles C'est pas grave et on détallent de toit en toit Pour voir si le ciel est mort parce qu'on est l'aube La jeunesse a un pouvoir qui s'ignore.. X2 Ligeia on est trop jeune pour dormir Eh eh .. Reveille toi Ligeia Sort de ta léthargie J'ai posé sur le toit SOS en lettre d'argile On est trop jeune pour dormir Mets tes baskets une veste et on part sur la pointe des pieds Qu'on entende plus que ton souffle et le craquement sur le parquet On va débarquer tout au bout du monde La ou on tombe de la planète Peut être par à-coup car ma musique voyage en stop Elle s'réfléchie comme un trajet Moscou-Vladivostok V'la les gants de boxe? J'crois que ce monde m'a maudit pour avoir baiser des zombies Et puis dêtre encore au lit A l'heure ou les gens dinent J'me bat pour ma libertie On veut me pendre p'être comme un Hussard Accusé de rependre la peste noire Les traites? se marrent les évos? morts J'serais sauver par mes amours Et on traversera les méandre Même si j'suis pas un héros et pas non plus un Léandre Tu pourrais être cette somnambule qui m'pourchasse avec un Luger Ou j'pourrais mourir dans tes rêve écorché par Freddy Krueger Viens a la fenêtre voir si l'horizon est beau Puisque notre futur c'est dêtre des éternels horizontaux X2 Ligeia on est trop jeune pour dormir Eh eh .. Reveille toi Ligeia Sort de ta léthargie J'ai posé sur le toit SOS en lettre d'argile On est trop jeune pour dormir T'es belle comme un orgasme Comme une pair de Nike Air max -réédite- Jordan7 J'voudrais te dire des belles phrases mais j'suis un détruit de la tête Pour moi t'es belle comme une machette Comme une poétesse maudite Marceline-Desbordes-Valmore Comme un Glock 9mm doù j'entrevois ma petite mort Belle comme si c'était trop tard Comme les sirènes des gyrophares qui attirent les galériens sur les trottoirs d'Arnaud-Bernard? T'es belle comme des flocons de Coke qui fondent sur le corps de lescorte nue T'es belle comme un beau cul qui cré beaucoup dattraction T'es belle comme l'amoureuse mais sucrée comme la trahison T'en pis si tu me laisses ici, j'ai vécus beaucoup de kiff Comment un orifice vide pourrait combler un vide affectif ? Parait qu'c'est pas très fonctionnel la façon d'on on fait l'amour Parait qu'ca sert pas a grand chose Mais ça bouche toujours un troue Réveille toi, j'resterais la pour toujours X2 Ligeia on est trop jeune pour dormir Eh eh .. Réveille toi Ligeia Sort de ta léthargie J'ai posé sur le toit SOS en lettre d'argile On est trop jeune pour dormir Tellement à rêver qu'on doit être dans le vrai On compte les étoiles dans nos rangs Dans nos armées d'enivrés Réveille toi .. On t'attend comme l'enfer Nique sa mère Réveille toi1</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mais qui sont ces MC ? Ecoute ça De chez nous Écoute, on avance tous malgré les coups bas On sait qu'la vie est un round, qu'on n'finira pas l'combat Ecoute, j'envoie les soupapes, envoie la prod et l'boom bap Maîtrise le flow est comme d'hab, boom baba bay J'fais rien sans mon équipe de zouer à mon pote chinois Celle-ci c'est pour ma ZUP dXXX La prod est signée Beep beep, l'amour d'la rime Habibi On s'rassemble, kif kif, et comme Rita c'est bim bim J'arrive ici mains dans les poches, j'sais même pas de quoi j'vais parler Je ne suis pas le cheval sur lequel il fallait parier Pardon si ma bouche crache des Kaméhameha Ce n'est pas ma faute si t'as chaud, ne va pas croire qu't'es sous les palmiers Pas la peine, j'damerai pas ta pilule vivant Je ne me confie qu'à cet ectoplasme assis sur l'divan Disons qu'en tout cas je vous fais déjà mille excuses Si ça kicke dur, je suis venu claquer 8 demi m'sures, suivant On veut donner de l'espoir, on persévère en continuant notre but Sans prendre des ailes, on veut vous faire planer en combinant nos plumes Pas près de me taire, j'ouvre ma gueule quand la plupart se laisse faire J'm'invite dans ton cerveau car quand je pe-ra, j'ai le pouvoir de Messmer Pour ceux qui squattent encore au poste, et qui sont claustrophobes C'est pour vous que je cause trop fort Qu'j'livre des messages plus vite que Chronopost Le but c'est de voir l'avenir, y en a ras-le-bol de perdre du temps C'est ma façon de tenir le choc, de vous écrire des paroles percutantes You might also like Salam Rachid frère, merci pour l'invitation Paré au décollage, en direction d'la planète Rashton Les plus belles pages tombent mais l'bouquin s'écrit encore Pourquoi mes plus grands rêves se réalisent uniquement quand j'dors ? De Belgique jusqu'à Sète, on crie nos rimes sans label Pas d'frontière comme un featuring de Brassens et Jacques Brel J'écris celle-ci pour les miens et les vôtres Car dans le ciel, les plus belles étoiles sont d'abord celles qui font briller les autres Moteur, j'fais face aux moqueurs tous présents au rendez-vous C'est l'arrière-plan bande de jalouses, on va vous mettre hors de vous Ça va pas trop dans nos têtes, arrête de chercher la bête On préfère penser au rappel, toi rien que tu te la pètes Aveuglé par les hebbet pilules sans rien ça joue les patrons Dans le pétrin, devant une patrouille, combien n'hausserait pas le ton ? Pour ces conneries, non, mes potos n'ont pas l'temps 2 Chez Moi, ouai le frérot en charbonne à plein temps Tu déjeunes et tu planes, les jeunes en dégénérescence On leurs demande de générer d'l'or et de digérer d'l'essence Les élites m'ont notifié de gagner peu en bossant trop Génétiquement modifié par le shit et Monsanto On veut rendre nos mères fières, voir tous nos frères pénards On vient mettre à la diète les fans de Robert Ménard On est pas super veinard, faut éclaircir l'tableau Ça veut refaire Neymar, Jay-Z ou Don Pablo Si t'es perdu, qu't'as des questions, avec des coups je te réponds Ici mêmes les sages penseurs arrivent à cours de raison Appelle moi louveteau, si t'es une chienne je te bouffe le téton Appelle moi Ramses, pharaon des tours de béton Béton, ma pyramide c'est p't'être la tour Eiffel Alors j'impose la tyrannie parce que l'amour est faible Faible, la coupe est pleine et on est trop sur les nerfs Je dégaine, je tire, la nasa retrouvera mon flow sur Kepler Quelques taffes de sensi, j'entends le chant des rènes-si J'ressens monter l'inspi', gratte un texte en deuspi M'assurant qui reste digne, je reste près, je surveille le respect, les oreilles auxquelles il se destine J'exprime en un seul jet tout mon spleen Mon esprit démasque le r'flet d'un tas d'skins J'esquive les dégâts d'la faucheuse et ses couperets JP Manova live pour un demi-couplet A travers chaque rime j'invite ma vie en feat Depuis que j'm'applique je passe de ville en ville J'écris jour et nuit pour éviter de partir en vrille Du coup j'en ai banni l'envie, j'me fous de c'que ta clique en dit Pas besoin de m'en sortir, j'suis pas rentré dans le moule Le sang coule et les gens souffrent entre les corps sans pouls Ce monde m'a rossé comme quatre mille cent coups J'arrose la prod en hommage à tous ceux qui m'entoure Combien nous imitent comme des p'tits malades ? Je dépasse des limites et je vis ma life Et dis-toi que, là j'optimise quand j'écris la night Oublie la maille là, y'a le feeling, y'a l'inspi', la vibe La rime j'la taille fut fut artistique magnifique travail On taffe d'ailleurs, y a pas de plage je cherche de la place ailleurs Sale bailleur, j'suis intouchable un peu comme Mac Tyer Punchline, lol, la plupart c'est des jeunes schlagues Gun, schlasse, thug life, combien devant les keufs chialent ? J'suis désolé d'être aussi dark, me parlez plus d'taule et sida Tu crois que l'amour se répare, j'ai grillé l'ampoule à ce qu'il parlent J'ai des idées noires de génie, j'ai mis qu'un oigt-d et la fille gémit J'suis le Racine du mal, qui assassine Iphigénie J'ai la plume qui tue, les mésanges dans un éclair et un grand bruit Juste, parce que l'homme n'est qu'un mélange entre Hitler et Gandhi En live de Garges-sur-Conakry ? où dans l'impasse, les piétons crient Tu sais Rachid, comme Derrida j'suis déconstruit2</t>
+          <t>Mais qui sont ces MC ? Ecoute ça De chez nous Écoute, on avance tous malgré les coups bas On sait qu'la vie est un round, qu'on n'finira pas l'combat Ecoute, j'envoie les soupapes, envoie la prod et l'boom bap Maîtrise le flow est comme d'hab, boom baba bay J'fais rien sans mon équipe de zouer à mon pote chinois Celle-ci c'est pour ma ZUP dXXX La prod est signée Beep beep, l'amour d'la rime Habibi On s'rassemble, kif kif, et comme Rita c'est bim bim J'arrive ici mains dans les poches, j'sais même pas de quoi j'vais parler Je ne suis pas le cheval sur lequel il fallait parier Pardon si ma bouche crache des Kaméhameha Ce n'est pas ma faute si t'as chaud, ne va pas croire qu't'es sous les palmiers Pas la peine, j'damerai pas ta pilule vivant Je ne me confie qu'à cet ectoplasme assis sur l'divan Disons qu'en tout cas je vous fais déjà mille excuses Si ça kicke dur, je suis venu claquer 8 demi m'sures, suivant On veut donner de l'espoir, on persévère en continuant notre but Sans prendre des ailes, on veut vous faire planer en combinant nos plumes Pas près de me taire, j'ouvre ma gueule quand la plupart se laisse faire J'm'invite dans ton cerveau car quand je pe-ra, j'ai le pouvoir de Messmer Pour ceux qui squattent encore au poste, et qui sont claustrophobes C'est pour vous que je cause trop fort Qu'j'livre des messages plus vite que Chronopost Le but c'est de voir l'avenir, y en a ras-le-bol de perdre du temps C'est ma façon de tenir le choc, de vous écrire des paroles percutantes Salam Rachid frère, merci pour l'invitation Paré au décollage, en direction d'la planète Rashton Les plus belles pages tombent mais l'bouquin s'écrit encore Pourquoi mes plus grands rêves se réalisent uniquement quand j'dors ? De Belgique jusqu'à Sète, on crie nos rimes sans label Pas d'frontière comme un featuring de Brassens et Jacques Brel J'écris celle-ci pour les miens et les vôtres Car dans le ciel, les plus belles étoiles sont d'abord celles qui font briller les autres Moteur, j'fais face aux moqueurs tous présents au rendez-vous C'est l'arrière-plan bande de jalouses, on va vous mettre hors de vous Ça va pas trop dans nos têtes, arrête de chercher la bête On préfère penser au rappel, toi rien que tu te la pètes Aveuglé par les hebbet pilules sans rien ça joue les patrons Dans le pétrin, devant une patrouille, combien n'hausserait pas le ton ? Pour ces conneries, non, mes potos n'ont pas l'temps 2 Chez Moi, ouai le frérot en charbonne à plein temps Tu déjeunes et tu planes, les jeunes en dégénérescence On leurs demande de générer d'l'or et de digérer d'l'essence Les élites m'ont notifié de gagner peu en bossant trop Génétiquement modifié par le shit et Monsanto On veut rendre nos mères fières, voir tous nos frères pénards On vient mettre à la diète les fans de Robert Ménard On est pas super veinard, faut éclaircir l'tableau Ça veut refaire Neymar, Jay-Z ou Don Pablo Si t'es perdu, qu't'as des questions, avec des coups je te réponds Ici mêmes les sages penseurs arrivent à cours de raison Appelle moi louveteau, si t'es une chienne je te bouffe le téton Appelle moi Ramses, pharaon des tours de béton Béton, ma pyramide c'est p't'être la tour Eiffel Alors j'impose la tyrannie parce que l'amour est faible Faible, la coupe est pleine et on est trop sur les nerfs Je dégaine, je tire, la nasa retrouvera mon flow sur Kepler Quelques taffes de sensi, j'entends le chant des rènes-si J'ressens monter l'inspi', gratte un texte en deuspi M'assurant qui reste digne, je reste près, je surveille le respect, les oreilles auxquelles il se destine J'exprime en un seul jet tout mon spleen Mon esprit démasque le r'flet d'un tas d'skins J'esquive les dégâts d'la faucheuse et ses couperets JP Manova live pour un demi-couplet A travers chaque rime j'invite ma vie en feat Depuis que j'm'applique je passe de ville en ville J'écris jour et nuit pour éviter de partir en vrille Du coup j'en ai banni l'envie, j'me fous de c'que ta clique en dit Pas besoin de m'en sortir, j'suis pas rentré dans le moule Le sang coule et les gens souffrent entre les corps sans pouls Ce monde m'a rossé comme quatre mille cent coups J'arrose la prod en hommage à tous ceux qui m'entoure Combien nous imitent comme des p'tits malades ? Je dépasse des limites et je vis ma life Et dis-toi que, là j'optimise quand j'écris la night Oublie la maille là, y'a le feeling, y'a l'inspi', la vibe La rime j'la taille fut fut artistique magnifique travail On taffe d'ailleurs, y a pas de plage je cherche de la place ailleurs Sale bailleur, j'suis intouchable un peu comme Mac Tyer Punchline, lol, la plupart c'est des jeunes schlagues Gun, schlasse, thug life, combien devant les keufs chialent ? J'suis désolé d'être aussi dark, me parlez plus d'taule et sida Tu crois que l'amour se répare, j'ai grillé l'ampoule à ce qu'il parlent J'ai des idées noires de génie, j'ai mis qu'un oigt-d et la fille gémit J'suis le Racine du mal, qui assassine Iphigénie J'ai la plume qui tue, les mésanges dans un éclair et un grand bruit Juste, parce que l'homme n'est qu'un mélange entre Hitler et Gandhi En live de Garges-sur-Conakry ? où dans l'impasse, les piétons crient Tu sais Rachid, comme Derrida j'suis déconstruit2</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Que cette fable soit non juste racontée aux enfants Quand tu étais mon rhésus, que je t'avais dans le sang T'étais le monde des russes, qui isolaient mon cap vert Et ton mont de Vénus était mon doux calvaire Des rideaux rouges endiablant, explorateur terre nouvelle Des coussins en drap blanc était des neiges éternelles Moi, je faisais de ton orifice une partie bombée de toi Quand une orchidée trop grise nous est tombée du toit Moi, couché sur ton dos, mon bassin contre tes fesses Et cette fleur en oripeaux nous raconte sa détresse Que les feuilles tombent sur la plaine, arrachées par la brise Comme des assiettes en porcelaine, par le gel elles se brisent Et le soleil est humide, ses rayons gelés sur place Ressemblent goutte à goutte à des stalactites de glace Que l'été est en deuil, porte un voile de corbeaux noirs Et c'est nous dans le cercueil qu'emporte le corbillard Que l'été est en deuil, porte un voile de corbeaux noirs Et c'est nous dans le cercueil qu'emporte le corbillard Quand les grands du pouvoir seront partis, résignés Il continuera de pleuvoir des fleurs de cerisiers Dans le miroir on peut voir la peur des suppliciés Il continuera de pleuvoir des fleurs de cerisiers Quand le printemps se meurt de ce phare rougissant C'est juste le temps qui pleure quelques larmes de sang Dans ces heures un peu noires, petit cur terrifié Il continuera de pleuvoir des fleurs de cerisiers You might also like Ma tenue d'assassin, ma hache à la ceinture En calligraphie, j'ai peint quelques traits de peinture J'ai écrit du tranchant, je briserai la clepsydre J'irai tuer le temps puisqu'il nous assassine Dans leur cadre de nacre les aiguilles ont le tournis Comme des bras qui nous narguent d'un salut infini Je refuse cet avis, que Chronos est mon maître Lui planterai ses aiguilles pour figer le chronomètre Quand soudain ma geisha inquiétée par l'absence De ma tenue ninja et de larborescence Ma geisha japonaise pleure en ombre chinoise D'une éternelle jeunesse, d'une beauté si froide Sanglote sur le perron, ne pars pas si tu m'aimes Chercher des solutions que tu as en toi-même Tu dis nourrir pour moi cette ambition féroce Mais tu regardes les étoiles en piétinant les roses Quand les grands du pouvoir seront partis, résignés Il continuera de pleuvoir des fleurs de cerisiers Dans le miroir on peut voir la peur des suppliciés Il continuera de pleuvoir des fleurs de cerisiers Quand le printemps se meurt de ce phare rougissant C'est juste le temps qui pleure quelques larmes de sang Dans ces heures un peu noires, petit cur terrifié Il continuera de pleuvoir des fleurs de cerisiers La beauté est une fleur est l'amour un fruit Quand de faim l'idiot meurt, le sage se nourrit Je suis revenu de ma mission, l'orchidée était morte Le temps en suspension n'a pas passé la porte J'ai pleuré celle que j'aime au jardin japonais Comme une pluie qui ruisselle sur une fleur déjà fanée J'ai juré sur sa joue que je serai un autre homme Mais des fleurs meurent toujours de froid à chaque automne Y a toujours des tempêtes et des curs effondrés Mais ce qui debout reste pourra tout affronter Je voudrai remonter le temps que je viens d'assassiner Revenir au printemps sous les grands cerisiers Dans le parc de Sceaux, prisonnier de son dédale Me coucher sur le dos arrosé de pétales Quand les grands du pouvoir seront partis, résignés Il continuera de pleuvoir des fleurs de cerisiers Dans le miroir on peut voir la peur des suppliciés Il continuera de pleuvoir des fleurs de cerisiers Quand le printemps se meurt de ce phare rougissant C'est juste le temps qui pleure quelques larmes de sang Dans ces heures un peu noires, petit cur terrifié Il continuera de pleuvoir des fleurs de cerisiers</t>
+          <t>Que cette fable soit non juste racontée aux enfants Quand tu étais mon rhésus, que je t'avais dans le sang T'étais le monde des russes, qui isolaient mon cap vert Et ton mont de Vénus était mon doux calvaire Des rideaux rouges endiablant, explorateur terre nouvelle Des coussins en drap blanc était des neiges éternelles Moi, je faisais de ton orifice une partie bombée de toi Quand une orchidée trop grise nous est tombée du toit Moi, couché sur ton dos, mon bassin contre tes fesses Et cette fleur en oripeaux nous raconte sa détresse Que les feuilles tombent sur la plaine, arrachées par la brise Comme des assiettes en porcelaine, par le gel elles se brisent Et le soleil est humide, ses rayons gelés sur place Ressemblent goutte à goutte à des stalactites de glace Que l'été est en deuil, porte un voile de corbeaux noirs Et c'est nous dans le cercueil qu'emporte le corbillard Que l'été est en deuil, porte un voile de corbeaux noirs Et c'est nous dans le cercueil qu'emporte le corbillard Quand les grands du pouvoir seront partis, résignés Il continuera de pleuvoir des fleurs de cerisiers Dans le miroir on peut voir la peur des suppliciés Il continuera de pleuvoir des fleurs de cerisiers Quand le printemps se meurt de ce phare rougissant C'est juste le temps qui pleure quelques larmes de sang Dans ces heures un peu noires, petit cur terrifié Il continuera de pleuvoir des fleurs de cerisiers Ma tenue d'assassin, ma hache à la ceinture En calligraphie, j'ai peint quelques traits de peinture J'ai écrit du tranchant, je briserai la clepsydre J'irai tuer le temps puisqu'il nous assassine Dans leur cadre de nacre les aiguilles ont le tournis Comme des bras qui nous narguent d'un salut infini Je refuse cet avis, que Chronos est mon maître Lui planterai ses aiguilles pour figer le chronomètre Quand soudain ma geisha inquiétée par l'absence De ma tenue ninja et de larborescence Ma geisha japonaise pleure en ombre chinoise D'une éternelle jeunesse, d'une beauté si froide Sanglote sur le perron, ne pars pas si tu m'aimes Chercher des solutions que tu as en toi-même Tu dis nourrir pour moi cette ambition féroce Mais tu regardes les étoiles en piétinant les roses Quand les grands du pouvoir seront partis, résignés Il continuera de pleuvoir des fleurs de cerisiers Dans le miroir on peut voir la peur des suppliciés Il continuera de pleuvoir des fleurs de cerisiers Quand le printemps se meurt de ce phare rougissant C'est juste le temps qui pleure quelques larmes de sang Dans ces heures un peu noires, petit cur terrifié Il continuera de pleuvoir des fleurs de cerisiers La beauté est une fleur est l'amour un fruit Quand de faim l'idiot meurt, le sage se nourrit Je suis revenu de ma mission, l'orchidée était morte Le temps en suspension n'a pas passé la porte J'ai pleuré celle que j'aime au jardin japonais Comme une pluie qui ruisselle sur une fleur déjà fanée J'ai juré sur sa joue que je serai un autre homme Mais des fleurs meurent toujours de froid à chaque automne Y a toujours des tempêtes et des curs effondrés Mais ce qui debout reste pourra tout affronter Je voudrai remonter le temps que je viens d'assassiner Revenir au printemps sous les grands cerisiers Dans le parc de Sceaux, prisonnier de son dédale Me coucher sur le dos arrosé de pétales Quand les grands du pouvoir seront partis, résignés Il continuera de pleuvoir des fleurs de cerisiers Dans le miroir on peut voir la peur des suppliciés Il continuera de pleuvoir des fleurs de cerisiers Quand le printemps se meurt de ce phare rougissant C'est juste le temps qui pleure quelques larmes de sang Dans ces heures un peu noires, petit cur terrifié Il continuera de pleuvoir des fleurs de cerisiers</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Degiheugi K.O. Freestyle C'est quoi qu'on tise ? Passe-moi ton spliff La pression d'la société a engendré des passions tristes Dans l'anonymat des mégapoles On s'demande pas pourquoi les gars collent des ieuf' Pourquoi picolent les ieuv' C'est parce qu'à jeun c'est pas si drôle Ici les gens qui s'aiment s'ignorent, eh gros c'est mort On n'écoute plus vos conseils mais l'requiem des rossignols Le capitalisme a tout détruit, uniformisé les boutiques On se croit libre et différent, consommant de la pensée unique Des murmures de vies morcelées, pour s'amuser c'est que mort saoul Et j'vois un miroir que dans l'regard des statues du musée d'Orsay Dans nos poumons c'est Tchernobyl et dans nos têtes c'est Fessenheim J'donne pas trop cher de nos vies, t'façon j'ai plus un flech' sur oim Et les regrets? Pour l'humanité ? Pas un atome... Parce que d'après eux l'progrès, c'est du porno sur les smartphones Et il n'y a plus de dialogue, c'est pas l'heure de parler du coeur Moi j'crois qu'y a plus qu'le radiologue qui voit nos beautés intérieures Dans ma tête j'revois la scène que ceux qui s'aiment s'égorgent ! On tourne les Canon d'Avicenne contre les fusils de Tchekhov You might also like Je sais bien c'que les passants disent Lorsqu'ils passent et qu'ils voient qu'on tise Et tu crois qu'parce qu't'as jugé l'autre, ça éloignerait ta hantise ? Les sourires sont faciles mais ça s'fera pas sans spliff La pression d'la société a engendré des passions tristes x2 Des passions tristes... C'est quoi qu'on tise ? Passe-moi ton spliff... La pression d'la société a engendré des passions tristes Nos âmes voudraient un temps pour elles On prend des fuites intemporelles C'est impossible de réussir et pourtant on s'retente la belle Mais de toi, tu peux pas t'enfuir Ni choisir la vie sans contrainte Tu verras que vivre de loisirs va engendrer d'autres problèmes Le temps qui passe est un défi qui nous suicide à petit fil Il met des rides à ceux qu'on aime et fait chuter les seins des filles La famille n'est plus qu'un concept qu'on qualifie du Moyen-Âge Juste pour légitimer le fait des enfants brisés qu'on partage Y'a de l'orage dans le patio comme si passait le Golem de Prague On s'dit adieu comme à des agneaux que l'on emporte le jour de Pâques Tu battras pas tes vieux fantômes, au pire tu les gardes à distance Mais lorsque la fatigue arrive, tu sens s'abaisser tes défenses T'aimerais bien ranger ton épée, t'endormir au bord d'la rive Mais si t'as pas déclaré la paix, l'armée des Mangemorts arrive Sans être moraliste, on meurt aussi près des lagunes La seule façon d'gagner la guerre, ce s'rait d'se dire qu'c'en n'est pas une Je sais bien c'que les passants disent Lorsqu'ils passent et qu'ils voient qu'on tise Et tu crois qu'parce qu't'as jugé l'autre, ça éloignerait ta hantise ? Les sourires sont faciles mais ça s'fera pas sans spliff La pression d'la société a engendré des passions tristes x2 Des passions tristes... C'est quoi qu'on tise ? Passe-moi ton spliff... La pression d'la société a engendré des passions tristes Il n'y a pas d'ambulance qui puisse, où j'suis Venir me prendre là dans mon monde imaginaire Où les p'tites douleurs sont bruyantes Mais les grandes ne savent que s'taire J'vais p't-être y aller maintenant Mais dis-moi mon ami, est-ce que j'habite Shutter Island ? On s'purifiera pas dans l'Gange Quel monde étrange ! Au lieu d'esquiver la noyade, on nous a appris le saut de l'ange Une négation de l'individu, un déni des personnalités La société crée des souffrances indues dont personne n'a idée C'est pas pour la santé publique, moi j'ai compris comment ça marche Ça s'appelle produit illicite lorsque l'État se fait pas d'marge Quel monde de barge ! On vole des veaux à leur maman pour prendre le lait de ces dernières Afin de l'revendre à des gens pour qui ça n'est pas nécessaire La boîte de Pandore mérite-t-elle que lon en referme le couvercle ? On est des êtres spirituels mais on est prisonniers d'un cercle Accepte qui tu es, détache-toi des gens toxiques Car même si le vide les remplace Pour détruire les passions tristes Faut regarder le vide en face Et lorsque ce monde te malmène, t'apprends l'désamour de toi N'oublie jamais qu'on est quand même des très belles poussière d'étoiles</t>
+          <t>Degiheugi K.O. Freestyle C'est quoi qu'on tise ? Passe-moi ton spliff La pression d'la société a engendré des passions tristes Dans l'anonymat des mégapoles On s'demande pas pourquoi les gars collent des ieuf' Pourquoi picolent les ieuv' C'est parce qu'à jeun c'est pas si drôle Ici les gens qui s'aiment s'ignorent, eh gros c'est mort On n'écoute plus vos conseils mais l'requiem des rossignols Le capitalisme a tout détruit, uniformisé les boutiques On se croit libre et différent, consommant de la pensée unique Des murmures de vies morcelées, pour s'amuser c'est que mort saoul Et j'vois un miroir que dans l'regard des statues du musée d'Orsay Dans nos poumons c'est Tchernobyl et dans nos têtes c'est Fessenheim J'donne pas trop cher de nos vies, t'façon j'ai plus un flech' sur oim Et les regrets? Pour l'humanité ? Pas un atome... Parce que d'après eux l'progrès, c'est du porno sur les smartphones Et il n'y a plus de dialogue, c'est pas l'heure de parler du coeur Moi j'crois qu'y a plus qu'le radiologue qui voit nos beautés intérieures Dans ma tête j'revois la scène que ceux qui s'aiment s'égorgent ! On tourne les Canon d'Avicenne contre les fusils de Tchekhov Je sais bien c'que les passants disent Lorsqu'ils passent et qu'ils voient qu'on tise Et tu crois qu'parce qu't'as jugé l'autre, ça éloignerait ta hantise ? Les sourires sont faciles mais ça s'fera pas sans spliff La pression d'la société a engendré des passions tristes x2 Des passions tristes... C'est quoi qu'on tise ? Passe-moi ton spliff... La pression d'la société a engendré des passions tristes Nos âmes voudraient un temps pour elles On prend des fuites intemporelles C'est impossible de réussir et pourtant on s'retente la belle Mais de toi, tu peux pas t'enfuir Ni choisir la vie sans contrainte Tu verras que vivre de loisirs va engendrer d'autres problèmes Le temps qui passe est un défi qui nous suicide à petit fil Il met des rides à ceux qu'on aime et fait chuter les seins des filles La famille n'est plus qu'un concept qu'on qualifie du Moyen-Âge Juste pour légitimer le fait des enfants brisés qu'on partage Y'a de l'orage dans le patio comme si passait le Golem de Prague On s'dit adieu comme à des agneaux que l'on emporte le jour de Pâques Tu battras pas tes vieux fantômes, au pire tu les gardes à distance Mais lorsque la fatigue arrive, tu sens s'abaisser tes défenses T'aimerais bien ranger ton épée, t'endormir au bord d'la rive Mais si t'as pas déclaré la paix, l'armée des Mangemorts arrive Sans être moraliste, on meurt aussi près des lagunes La seule façon d'gagner la guerre, ce s'rait d'se dire qu'c'en n'est pas une Je sais bien c'que les passants disent Lorsqu'ils passent et qu'ils voient qu'on tise Et tu crois qu'parce qu't'as jugé l'autre, ça éloignerait ta hantise ? Les sourires sont faciles mais ça s'fera pas sans spliff La pression d'la société a engendré des passions tristes x2 Des passions tristes... C'est quoi qu'on tise ? Passe-moi ton spliff... La pression d'la société a engendré des passions tristes Il n'y a pas d'ambulance qui puisse, où j'suis Venir me prendre là dans mon monde imaginaire Où les p'tites douleurs sont bruyantes Mais les grandes ne savent que s'taire J'vais p't-être y aller maintenant Mais dis-moi mon ami, est-ce que j'habite Shutter Island ? On s'purifiera pas dans l'Gange Quel monde étrange ! Au lieu d'esquiver la noyade, on nous a appris le saut de l'ange Une négation de l'individu, un déni des personnalités La société crée des souffrances indues dont personne n'a idée C'est pas pour la santé publique, moi j'ai compris comment ça marche Ça s'appelle produit illicite lorsque l'État se fait pas d'marge Quel monde de barge ! On vole des veaux à leur maman pour prendre le lait de ces dernières Afin de l'revendre à des gens pour qui ça n'est pas nécessaire La boîte de Pandore mérite-t-elle que lon en referme le couvercle ? On est des êtres spirituels mais on est prisonniers d'un cercle Accepte qui tu es, détache-toi des gens toxiques Car même si le vide les remplace Pour détruire les passions tristes Faut regarder le vide en face Et lorsque ce monde te malmène, t'apprends l'désamour de toi N'oublie jamais qu'on est quand même des très belles poussière d'étoiles</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Parait qu'on change avec le temps, que parfois la flamme diminue Je dois être un rocher face au vent moi, un observatoire de 10 000 vues A croire que je ressens les choses comme la mémoire de l'eau Dédiés à nos débats de l'aube, aux BA de l'un et aux déboires de l'autre La voix enfermée dans ma tête devient claustro man J'étais un gosse trop mal qui badait d'un post-trauma Juste une table d'orientation mise sur un pic massif Un disque en rotation d'mes souvenirs et d'ma petite magie J'peux pas sourire comme un nouveau né, je sais que la life n'est pas très jolie Un tas de souvenirs bons ou mauvais s'envolent sur du papier jauni Bien trop souvent la poisse est passée me serrer la pince A poil sur l'instru mon petit cur chiale et fait des lap dance Et j'maudis ces matins, quand la nostalgie m'atteint Quand je n'ai plus qu'une boucle de guitare pour déposer ma plainte Et j'crache mon spleen au rythme des battements de l'averse sur la vitre L'espoir est d'or, très précieuse est la pierre si tu la briques Comme je regrette cette époque où tout était moins compliqué Tu te préoccupais juste des potes, de ce que tu mangerais au diner Du nouveau jeu Mario Kart, tu t'amusais en jouant aux cartes La musique c'était quelque chose y'avait Sniper sur les pancartes Et puis le temps s'est écoulé, plus le temps de se la couler douce Les potes sont éloignés mais où sont-ils passés tous ? Tout est éphémère, sauf le temps qui passe Avant que ma santé dégénère, je compte bien laisser une trace You might also like A la place du cur t'as plus qu'un ce-tru qui fait tic-tac Bat la race tu pleures pas t'es pas de ceux qui font des crises d'asthme Rien que t'as l'estomac solide, mais bon t'as trop mal au bide Quand t'ouvres cette putain de boite à chaussures pleine de polaroid Tu passes de nous à je, mais néanmoins moins à genoux Le ciel est nuageux t'es juste quelques épisodes plus vieux Tu joues le jeu, te mords la joue jusqu'à l'hémorragie En voyant la magie des jours s'effacer comme un mirage Trop de souvenirs en pagaille, des coups de vis dans ma life, des fous rires d'grand malade J'ai couru à ma perte histoire que mes jambes s'dégourdissent dans Paname Ce soir j'tise d'vant le canal, ça fait ressortir un peu d'remord Pour voir mes proches je mets mes souvenirs dans la pensine à Dumbledore Papa maman vieillissent et quand j'y repense dur de trouver le sommeil Pour eux je serai brillant mais terre à terre comme un coucher de soleil C'est dur dêtre positif mais j'ai pas le choix avec ma haine j'ferai quoi ? Mieux qu'un album photo je crée des souvenirs en format mp3 Crois moi tu feras pas long feu Bon Nob yeah alors ouvre les yeux Il faut que tu savoures, d'abord il faut goûter il faut de la bravoure Chacun son parcours, je te sers mes couplets je donne de l'amour A nos morts, à nos mères, ah nan merde, faut pas dire On oublie pourtant c'est eux qui nous ont permis de nous bâtir Tout est dans la tête et le cur est pour eux on s'est vu devenir des vieux Je n'ai plus que des souvenirs vaporeux Une vie écrite sur des post-it, collés dans mon home sweet Home comme pour sauver les souvenirs trop vite gommés Paumés, au cas où Alzheimer me guetterait Un bic en guise de eye-liner pour en sublimer les traits Je lutterai contre l'oubli, la lobotomie Poto relis ce rap et regarde cette photo jaunie Cet instant figé dans le temps A moins que nos mémoires vivent sur des feuilles mortes comme emportées par le vent Si me lever du pied gauche est le dénouement d'hier C'est que du pied droit j'ai trop remué, trop foulé la de-mer Je me couche sur papier lorsque se pointe la lune Une sorte de mémorial à toutes mes heures perdues Du superflu pour ceux qui gagnent leur vie Une musique dascenseur pour nos quartiers ler-dea A l'heure où je m'écrie la ville s'est endormie Tout ça on verra demain si on s'en est remis Ouais si je te croise je te dirai que ma mémoire me joue des tours J'ai payé les violons du bal, autour, j'ai rayé les vautours Le temps fait peu d'amis, la déception, les mauvais jours La médisance parle de mon cercle mais n'aura fait que le contour Scar-la je n'avais que des mots pour libérer la magie Et je cherche à mes heures perdues juste une seconde de nostalgie Des nuits blanches aux idées noires à ne voir que des nuances de gris A l'heure bleue je me lève et prie histoire de ne pas perdre l'esprit Et je voudrais dire un truc avant de buter Lautrec Tracasse toi pas mon petit canard Tu sais vieillir casse pas 3 pattes à un zonard A la TV on veut te faire croire le contraire Parce que t'es jeune et con donc on veut t'enfiler Sûr, tu dis moins je t'aime pour les fois que tu t'es fait jeter Sûr que tu crois moins les révolutionnaires vu que t'as rien révolutionné Mais ce qui reste dans le passé c'est pas ce que t'as cessé d'être Seulement ce que t'as jamais été Je me souviens quand je m'en rappelais, mon enfance a disparu J'ai passé mon temps à rapper ou bien à tiser dans la rue Et toi Green hein tu l'imaginais comment ce truc ? Nos enfances disparues tu passes ton temps dans les instrus Un combat, deux millions de rounds, des mois en tension sur une ligne Bien qu'on fasse de l'underground on s'élève comme des moines Shaolin A cause de ce qu'on écrit, on sacrifie nos vies humaines J'ai vécu des vacances au ski zophrène De décès en déception l'imparfait rime avec obsession Combien de fois il a fallu que j'échoue pour comprendre toutes ces choses ? Sous la couche d'ozone je me sens comme une étoile pour la famille Comme un second souffle au cur qui bat tout autant qu'il sabîme Le temps il est comme nous il passe et puis il fait sa vie Parfois laisse des traces sur les traits de caractère et ses contours Je me sens comme partagé entre espoir et nostalgie En souvenir des sentiments qu'on ne voit pas sur les photos Il n'y a rien à comprendre on danse sous la boule à facettes Les abus se contemplent et on se contentait dêtre cool en facette J'atterris quand la foudre s'énerve, un châtiment Que de faire partie du régiment le plus sinistre de la voûte céleste Tu l'as croisé l'alcoolique a démarré cash J'irai froisser, laisser les chroniques dans un marécage Deux larmes pour saler la cuisson, la plume pour froisser les soucis Les rêves acquiescent, les sentiments s'encaissent sans froncer les sourcils J'ai le sang qui bouillonne et la mémoire qui flanche Étrange nan, c'est la vie et j'vais te le dire franchement Jadis on était vif, plein de fougue, ça bouge tout-par Avec des boosters, des bouts de shit et mes têtes toutes pales On savait pas comment les choses se passeraient Et chaque année ça recommence et ça devient très chaud pour gérer Moi je sais plus comment réagir, rire ne serait pas si moche Voir la vie en vrai ici c'est mieux qu'une réduction d'cinoche nan ? Commence the retrospect For every second that I begged for death For every moment I was worth more but plead for less For every time I let my mother and my father down For every time I tried to smile while my brother frowned Well, here's a toast for every moment never gettin' back The bees are swarming in my fitted hat I sit and wither, sipping yak Thinking about the past, all the tit for tat It's probably hindering, but it's a wrap La voix enfermée dans ma tête devient claustro man Bien trop souvent la poisse est passée me serrer la pince Et puis le temps s'est écoulé, plus le temps de se la couler douce A la place du cur t'as plus qu'un ce-tru qui fait tic-tac J'ai couru à ma perte histoire que mes jambes s'dégourdissent dans Paname Chacun son parcours, je te sers mes couplets je donne de l'amour Poto relis ce rap et regarde cette photo jaunie Tout ça on verra demain si on s'en est remis A l'heure bleue je me lève et prie histoire de ne pas perdre l'esprit Mais ce qui reste dans le passé c'est pas ce que t'as cessé d'être Bien qu'on fasse de l'underground on s'élève comme des moines Shaolin Le temps il est comme nous il passe et puis il fait sa vie J'atterris quand la foudre s'énerve Jadis on était vif, plein de fougue, ça bouge tout-par For every moment I was worth more but plead for less Live session, pour tout péter C'est pour toi mon gars et pour tes copains Ladies and gentleman Greenfinch A présent, mec tu sais à qui tu as a faire Live session, pour tout péter C'est pour toi mon gars et pour tes copains The number one Greenfinch A présent, mec tu sais à qui tu as a faire4</t>
+          <t>Parait qu'on change avec le temps, que parfois la flamme diminue Je dois être un rocher face au vent moi, un observatoire de 10 000 vues A croire que je ressens les choses comme la mémoire de l'eau Dédiés à nos débats de l'aube, aux BA de l'un et aux déboires de l'autre La voix enfermée dans ma tête devient claustro man J'étais un gosse trop mal qui badait d'un post-trauma Juste une table d'orientation mise sur un pic massif Un disque en rotation d'mes souvenirs et d'ma petite magie J'peux pas sourire comme un nouveau né, je sais que la life n'est pas très jolie Un tas de souvenirs bons ou mauvais s'envolent sur du papier jauni Bien trop souvent la poisse est passée me serrer la pince A poil sur l'instru mon petit cur chiale et fait des lap dance Et j'maudis ces matins, quand la nostalgie m'atteint Quand je n'ai plus qu'une boucle de guitare pour déposer ma plainte Et j'crache mon spleen au rythme des battements de l'averse sur la vitre L'espoir est d'or, très précieuse est la pierre si tu la briques Comme je regrette cette époque où tout était moins compliqué Tu te préoccupais juste des potes, de ce que tu mangerais au diner Du nouveau jeu Mario Kart, tu t'amusais en jouant aux cartes La musique c'était quelque chose y'avait Sniper sur les pancartes Et puis le temps s'est écoulé, plus le temps de se la couler douce Les potes sont éloignés mais où sont-ils passés tous ? Tout est éphémère, sauf le temps qui passe Avant que ma santé dégénère, je compte bien laisser une trace A la place du cur t'as plus qu'un ce-tru qui fait tic-tac Bat la race tu pleures pas t'es pas de ceux qui font des crises d'asthme Rien que t'as l'estomac solide, mais bon t'as trop mal au bide Quand t'ouvres cette putain de boite à chaussures pleine de polaroid Tu passes de nous à je, mais néanmoins moins à genoux Le ciel est nuageux t'es juste quelques épisodes plus vieux Tu joues le jeu, te mords la joue jusqu'à l'hémorragie En voyant la magie des jours s'effacer comme un mirage Trop de souvenirs en pagaille, des coups de vis dans ma life, des fous rires d'grand malade J'ai couru à ma perte histoire que mes jambes s'dégourdissent dans Paname Ce soir j'tise d'vant le canal, ça fait ressortir un peu d'remord Pour voir mes proches je mets mes souvenirs dans la pensine à Dumbledore Papa maman vieillissent et quand j'y repense dur de trouver le sommeil Pour eux je serai brillant mais terre à terre comme un coucher de soleil C'est dur dêtre positif mais j'ai pas le choix avec ma haine j'ferai quoi ? Mieux qu'un album photo je crée des souvenirs en format mp3 Crois moi tu feras pas long feu Bon Nob yeah alors ouvre les yeux Il faut que tu savoures, d'abord il faut goûter il faut de la bravoure Chacun son parcours, je te sers mes couplets je donne de l'amour A nos morts, à nos mères, ah nan merde, faut pas dire On oublie pourtant c'est eux qui nous ont permis de nous bâtir Tout est dans la tête et le cur est pour eux on s'est vu devenir des vieux Je n'ai plus que des souvenirs vaporeux Une vie écrite sur des post-it, collés dans mon home sweet Home comme pour sauver les souvenirs trop vite gommés Paumés, au cas où Alzheimer me guetterait Un bic en guise de eye-liner pour en sublimer les traits Je lutterai contre l'oubli, la lobotomie Poto relis ce rap et regarde cette photo jaunie Cet instant figé dans le temps A moins que nos mémoires vivent sur des feuilles mortes comme emportées par le vent Si me lever du pied gauche est le dénouement d'hier C'est que du pied droit j'ai trop remué, trop foulé la de-mer Je me couche sur papier lorsque se pointe la lune Une sorte de mémorial à toutes mes heures perdues Du superflu pour ceux qui gagnent leur vie Une musique dascenseur pour nos quartiers ler-dea A l'heure où je m'écrie la ville s'est endormie Tout ça on verra demain si on s'en est remis Ouais si je te croise je te dirai que ma mémoire me joue des tours J'ai payé les violons du bal, autour, j'ai rayé les vautours Le temps fait peu d'amis, la déception, les mauvais jours La médisance parle de mon cercle mais n'aura fait que le contour Scar-la je n'avais que des mots pour libérer la magie Et je cherche à mes heures perdues juste une seconde de nostalgie Des nuits blanches aux idées noires à ne voir que des nuances de gris A l'heure bleue je me lève et prie histoire de ne pas perdre l'esprit Et je voudrais dire un truc avant de buter Lautrec Tracasse toi pas mon petit canard Tu sais vieillir casse pas 3 pattes à un zonard A la TV on veut te faire croire le contraire Parce que t'es jeune et con donc on veut t'enfiler Sûr, tu dis moins je t'aime pour les fois que tu t'es fait jeter Sûr que tu crois moins les révolutionnaires vu que t'as rien révolutionné Mais ce qui reste dans le passé c'est pas ce que t'as cessé d'être Seulement ce que t'as jamais été Je me souviens quand je m'en rappelais, mon enfance a disparu J'ai passé mon temps à rapper ou bien à tiser dans la rue Et toi Green hein tu l'imaginais comment ce truc ? Nos enfances disparues tu passes ton temps dans les instrus Un combat, deux millions de rounds, des mois en tension sur une ligne Bien qu'on fasse de l'underground on s'élève comme des moines Shaolin A cause de ce qu'on écrit, on sacrifie nos vies humaines J'ai vécu des vacances au ski zophrène De décès en déception l'imparfait rime avec obsession Combien de fois il a fallu que j'échoue pour comprendre toutes ces choses ? Sous la couche d'ozone je me sens comme une étoile pour la famille Comme un second souffle au cur qui bat tout autant qu'il sabîme Le temps il est comme nous il passe et puis il fait sa vie Parfois laisse des traces sur les traits de caractère et ses contours Je me sens comme partagé entre espoir et nostalgie En souvenir des sentiments qu'on ne voit pas sur les photos Il n'y a rien à comprendre on danse sous la boule à facettes Les abus se contemplent et on se contentait dêtre cool en facette J'atterris quand la foudre s'énerve, un châtiment Que de faire partie du régiment le plus sinistre de la voûte céleste Tu l'as croisé l'alcoolique a démarré cash J'irai froisser, laisser les chroniques dans un marécage Deux larmes pour saler la cuisson, la plume pour froisser les soucis Les rêves acquiescent, les sentiments s'encaissent sans froncer les sourcils J'ai le sang qui bouillonne et la mémoire qui flanche Étrange nan, c'est la vie et j'vais te le dire franchement Jadis on était vif, plein de fougue, ça bouge tout-par Avec des boosters, des bouts de shit et mes têtes toutes pales On savait pas comment les choses se passeraient Et chaque année ça recommence et ça devient très chaud pour gérer Moi je sais plus comment réagir, rire ne serait pas si moche Voir la vie en vrai ici c'est mieux qu'une réduction d'cinoche nan ? Commence the retrospect For every second that I begged for death For every moment I was worth more but plead for less For every time I let my mother and my father down For every time I tried to smile while my brother frowned Well, here's a toast for every moment never gettin' back The bees are swarming in my fitted hat I sit and wither, sipping yak Thinking about the past, all the tit for tat It's probably hindering, but it's a wrap La voix enfermée dans ma tête devient claustro man Bien trop souvent la poisse est passée me serrer la pince Et puis le temps s'est écoulé, plus le temps de se la couler douce A la place du cur t'as plus qu'un ce-tru qui fait tic-tac J'ai couru à ma perte histoire que mes jambes s'dégourdissent dans Paname Chacun son parcours, je te sers mes couplets je donne de l'amour Poto relis ce rap et regarde cette photo jaunie Tout ça on verra demain si on s'en est remis A l'heure bleue je me lève et prie histoire de ne pas perdre l'esprit Mais ce qui reste dans le passé c'est pas ce que t'as cessé d'être Bien qu'on fasse de l'underground on s'élève comme des moines Shaolin Le temps il est comme nous il passe et puis il fait sa vie J'atterris quand la foudre s'énerve Jadis on était vif, plein de fougue, ça bouge tout-par For every moment I was worth more but plead for less Live session, pour tout péter C'est pour toi mon gars et pour tes copains Ladies and gentleman Greenfinch A présent, mec tu sais à qui tu as a faire Live session, pour tout péter C'est pour toi mon gars et pour tes copains The number one Greenfinch A présent, mec tu sais à qui tu as a faire4</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>J'reste zen comme un moine de shaolin J'm'empare du microphone t'es déjà au lit J'm'empare du microphone pire qu'une ravioli J't'emmerde J'emmerde tous ceux qui me prennent pour un vaurien Et me répètent comme un refrain que j'y arriverai pas parce que je vaux rien J'emmerde la BRG 4001 qui perd tous ses potards J'emmerde la feuille d'impôt qu'j'renvoie toujours trop tard Et puis ces bâtards d'radars J'emmerde tous ceux qui me serrent la main et me jugent qu'en je suis ti-par Bien sûr que je regrette madame la juge d'habiter dans un tié-quar Mais j'emmerde les lois dont ils abusent De parler avec des robots, inflexibles, un balai dans l'anus J'emmerde tous ceux qui ignorent les autres pour avoir ou pas de prépuce J'emmerde même celle qu'avant j'appelais ma puce J'emmerde tous ceux qui captent que la moitié de mes textes Plus profonds qu'une poupée russe Mon rap coupe des têtes comme Bernie avec la perruche Et si mes jeux de mots vous saoulent Je vous en ressers une rasade Car j'ai pissé dans la glycine et vous laisse le doigt dans la chatte J'emmerde ma cité de sauvages Ce type qui tire sur les gamines depuis le huitième étage J'emmerde ce type qui se plaint, qui dit qu'ici c'est la merde Mais qui pisse dans l'ascenseur que prend tous les jours sa mère J'emmerde leur putain de prétention dans la résussite scolaire J'emmerde le bruit des rangers et des Famas et le fourgon militaire Que personne ne voit qu'on est en face d'une démocratie totalitaire J'emmerde la première femme qui t'as baisée quelques années en arrière J'emmerde le premier homme qui jeta un papier à terre J'emmerde les internats pour l'interné qui saute du 5 J'emmerde les cures thermales car moi j'carbure à l'absinthe Et j'emmerde les connasses qui me tournent la tête car je suis meskine et simple J'emmerde les mêmes connasses qui viennent me voir quand j'viens de passer sur les enceintes J'emmerde les mecs qui emmerdent les meufs qui kiffent le sexe à cinq Je te le répète encore une fois, moi J'préfère les salopes à ces putes qui jouent les saintes Relique du T-Kaï J'emmerde tous les labos pharmaceutiques Quand le Sida bouffe l'Afrique Et que tous les actionnaires bloquent les ventes de médicaments génériques Et puis j'emmerde tous ceux qui m'empêchent.. Eh enfoiré rends-moi ma 16 ! J'emmerde ton rap Et dans ma caisse j'écoute du Saez Sur du 2x200 J'passe déjà à la radio Y a des infos me concernants Sur la A16 un accident Mais on m'écoute tellement pas qu'j'pourrais pé-ra en Occitan J'emmerde le poids matériel de l'Occident J'emmerde toutes les promesses et les déceptions m'oxydant You might also likeEt sinon wesh, comment va Anaïs ? Quoi de neuf ? Bah ouais bien sûr que je nique vos meufs, en douce Le produit de l'année c'est mon zboub, déclaré en label rouge 12 K.O. briseur de couples Et dans ma tour ils emmerdent tous le facteur À attendre des lettres d'amour et recevoir que des factures J'emmerde ceux qui se croient innocents parce qu'ils vont à confesse J'emmerde les femmes adultères qui croient redevenir vierges juste parce qu'elles s'lavent les fesses J'emmerde le peu d'amour qui reste, dans mon hall J'emmerde les grands qui m'impressionnaient à l'école Ils nous ont vite refourgué de l'airsec et des sachets de colle J'emmerde toutes les bières sans alcool Et leur faux rap hardcore Moi j'emmerde le boss du dessus S'il suffit d'être en désaccord pour devenir un ange déchu Des rues en décrues devenues perdues ...? Je suis déçu, j'ai plus de verbes Mais de toute façon, nique sa mère Bien sûr j'vous emmerde Couplet 2 J'emmerde les trous dans ma parka et les boulettes de teu-shi Je suis la voie du démon roi comme Urotsukidoji Un soleil noir dans la rétine Mate l'abysse dans mes yeux Eux ils aiment tous le même dieu mais pas assez pour s'aimer entre eux Caché dérrière les finances j'emmerde le pouvoir religieux J'emmerde toutes formes de communautarisme J'emmerde tout le monde Vos conflits passés ou à venir Si, au moins pour me détester, vous pouviez un peu vous unir Pour résumer j'emmerde tous ceux qui croient détenir la vérité En vérité tout le monde vise la Lune mais sans action commune Et vous restez sans réaction alors insultez-moi à fond J'ai besoin d'inspiration Car moi j'emmerde l'humanité depuis sa première respiration Et je regarde la mort du cygne J'emmerde tous les rappeurs à bling-bling Parce qu'ils représentent pas plus qu'un putain de fourgon de la Brinks t'entends J'emmerde le public non-dansant Je représente les gars à genoux dans les chiottes avec 8 grammes dans le sang J'emmerde celui qui fait pas tourner le pet' dans mon sens - quand on est à dix dans le cercle J'emmerde tous ceux qui se disent qu'ils aiment mon son Parce que le soir quand je rentre chez moi c'est la même de toute façon... Couplet 3 Et j'emmerde Dooz Kawa ce rappeur suceur de bites Prostitué, fils de pute dont personne ressent les lyrics J'encule son côté sombre À force d'emmerder tout le monde Il se retrouve forcément seul Alors y a rien d'étonnant qu'il finisse par clasher sa gueule J'emmerde le sexe tout seul J'ai trop de copines à quatre pattes J'veux des baiseuses acariâtres Qui me guident dans la fente Puisque les chiennes de garde deviennent des chiennes savantes Alors baise-moi comme Virginie Despentes Donne moi ta main dans la descente Et j'la met dans mon paletot On emmerde la décence Qu'ils viennent me juger au garrot Moi j'emmerde la Démago-Economico-Polluante On leur doit la chute des neiges du Kilimandjaro La disparition des plantes et des espèces d'animaux J'emmerde ces riches qui font la ronde Voulant mettre tout le monde à plat Ils oublient qu'la planète est ronde et roule vers sa tombe J'emmerde même mon bébé qui n'a pas pu venir au monde Que ce soit clair Allez tous niquer vos mères Moi j'emmerde tout le monde Bien sûr je vous emmerde2</t>
+          <t>J'reste zen comme un moine de shaolin J'm'empare du microphone t'es déjà au lit J'm'empare du microphone pire qu'une ravioli J't'emmerde J'emmerde tous ceux qui me prennent pour un vaurien Et me répètent comme un refrain que j'y arriverai pas parce que je vaux rien J'emmerde la BRG 4001 qui perd tous ses potards J'emmerde la feuille d'impôt qu'j'renvoie toujours trop tard Et puis ces bâtards d'radars J'emmerde tous ceux qui me serrent la main et me jugent qu'en je suis ti-par Bien sûr que je regrette madame la juge d'habiter dans un tié-quar Mais j'emmerde les lois dont ils abusent De parler avec des robots, inflexibles, un balai dans l'anus J'emmerde tous ceux qui ignorent les autres pour avoir ou pas de prépuce J'emmerde même celle qu'avant j'appelais ma puce J'emmerde tous ceux qui captent que la moitié de mes textes Plus profonds qu'une poupée russe Mon rap coupe des têtes comme Bernie avec la perruche Et si mes jeux de mots vous saoulent Je vous en ressers une rasade Car j'ai pissé dans la glycine et vous laisse le doigt dans la chatte J'emmerde ma cité de sauvages Ce type qui tire sur les gamines depuis le huitième étage J'emmerde ce type qui se plaint, qui dit qu'ici c'est la merde Mais qui pisse dans l'ascenseur que prend tous les jours sa mère J'emmerde leur putain de prétention dans la résussite scolaire J'emmerde le bruit des rangers et des Famas et le fourgon militaire Que personne ne voit qu'on est en face d'une démocratie totalitaire J'emmerde la première femme qui t'as baisée quelques années en arrière J'emmerde le premier homme qui jeta un papier à terre J'emmerde les internats pour l'interné qui saute du 5 J'emmerde les cures thermales car moi j'carbure à l'absinthe Et j'emmerde les connasses qui me tournent la tête car je suis meskine et simple J'emmerde les mêmes connasses qui viennent me voir quand j'viens de passer sur les enceintes J'emmerde les mecs qui emmerdent les meufs qui kiffent le sexe à cinq Je te le répète encore une fois, moi J'préfère les salopes à ces putes qui jouent les saintes Relique du T-Kaï J'emmerde tous les labos pharmaceutiques Quand le Sida bouffe l'Afrique Et que tous les actionnaires bloquent les ventes de médicaments génériques Et puis j'emmerde tous ceux qui m'empêchent.. Eh enfoiré rends-moi ma 16 ! J'emmerde ton rap Et dans ma caisse j'écoute du Saez Sur du 2x200 J'passe déjà à la radio Y a des infos me concernants Sur la A16 un accident Mais on m'écoute tellement pas qu'j'pourrais pé-ra en Occitan J'emmerde le poids matériel de l'Occident J'emmerde toutes les promesses et les déceptions m'oxydant Et sinon wesh, comment va Anaïs ? Quoi de neuf ? Bah ouais bien sûr que je nique vos meufs, en douce Le produit de l'année c'est mon zboub, déclaré en label rouge 12 K.O. briseur de couples Et dans ma tour ils emmerdent tous le facteur À attendre des lettres d'amour et recevoir que des factures J'emmerde ceux qui se croient innocents parce qu'ils vont à confesse J'emmerde les femmes adultères qui croient redevenir vierges juste parce qu'elles s'lavent les fesses J'emmerde le peu d'amour qui reste, dans mon hall J'emmerde les grands qui m'impressionnaient à l'école Ils nous ont vite refourgué de l'airsec et des sachets de colle J'emmerde toutes les bières sans alcool Et leur faux rap hardcore Moi j'emmerde le boss du dessus S'il suffit d'être en désaccord pour devenir un ange déchu Des rues en décrues devenues perdues ...? Je suis déçu, j'ai plus de verbes Mais de toute façon, nique sa mère Bien sûr j'vous emmerde Couplet 2 J'emmerde les trous dans ma parka et les boulettes de teu-shi Je suis la voie du démon roi comme Urotsukidoji Un soleil noir dans la rétine Mate l'abysse dans mes yeux Eux ils aiment tous le même dieu mais pas assez pour s'aimer entre eux Caché dérrière les finances j'emmerde le pouvoir religieux J'emmerde toutes formes de communautarisme J'emmerde tout le monde Vos conflits passés ou à venir Si, au moins pour me détester, vous pouviez un peu vous unir Pour résumer j'emmerde tous ceux qui croient détenir la vérité En vérité tout le monde vise la Lune mais sans action commune Et vous restez sans réaction alors insultez-moi à fond J'ai besoin d'inspiration Car moi j'emmerde l'humanité depuis sa première respiration Et je regarde la mort du cygne J'emmerde tous les rappeurs à bling-bling Parce qu'ils représentent pas plus qu'un putain de fourgon de la Brinks t'entends J'emmerde le public non-dansant Je représente les gars à genoux dans les chiottes avec 8 grammes dans le sang J'emmerde celui qui fait pas tourner le pet' dans mon sens - quand on est à dix dans le cercle J'emmerde tous ceux qui se disent qu'ils aiment mon son Parce que le soir quand je rentre chez moi c'est la même de toute façon... Couplet 3 Et j'emmerde Dooz Kawa ce rappeur suceur de bites Prostitué, fils de pute dont personne ressent les lyrics J'encule son côté sombre À force d'emmerder tout le monde Il se retrouve forcément seul Alors y a rien d'étonnant qu'il finisse par clasher sa gueule J'emmerde le sexe tout seul J'ai trop de copines à quatre pattes J'veux des baiseuses acariâtres Qui me guident dans la fente Puisque les chiennes de garde deviennent des chiennes savantes Alors baise-moi comme Virginie Despentes Donne moi ta main dans la descente Et j'la met dans mon paletot On emmerde la décence Qu'ils viennent me juger au garrot Moi j'emmerde la Démago-Economico-Polluante On leur doit la chute des neiges du Kilimandjaro La disparition des plantes et des espèces d'animaux J'emmerde ces riches qui font la ronde Voulant mettre tout le monde à plat Ils oublient qu'la planète est ronde et roule vers sa tombe J'emmerde même mon bébé qui n'a pas pu venir au monde Que ce soit clair Allez tous niquer vos mères Moi j'emmerde tout le monde Bien sûr je vous emmerde2</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>intro Moi ce qui me fait peur cest lavenir puisque chais pas Jai peur de la guerre premièrement, jpense que demain la terre pourrait exploser avec quelques bombes H comme ça et puis du mariage aussi jai un peu peur couplet unique Primo lamour cest la lumière Et sil fait nuit un peu parfois Cest un clignement de paupière comme le phare des yeux dElsa Un sentiment des profondeurs explorant ce que les abysses cache Ou on paye vite cher les erreurs, les accidents de batyscaphe Secondo la nature des choses trouve toujours son chemin Faut se battre jusqu'à lecchymose mais au delà son sens est vain ??? Parfois il en sort des chefs duvre mais Mozart en mourra à Vienne On paye cher le prix de lerreur, à moins que le bou-mara vienne On ira voir au Portugal les vagues géantes de Nazaré Comment les bébés tortues gagnent les rivages des plages azurées Je tapprendrai à lire les souches du collagène qui cicatrise Comment apercevoir du rouge dans le bleu de la danse de Matisse Je texpliquerai Adamkiewicz à travers les livres de Lazorthes Et pourquoi ces deux types ont le nom des artères que tu portes Volé des fruits sucrés dans les jardins qui sont suspendus dans Babylone Tous mes secrets de citadins juste parce que tes mon baby love Tertio affirme toi au delà de ces âmes hantées ??? Parce que parfois tu finiras démuni et désargenté Garde ta philosophie intègre et dans ladversité sois toi Même si tu donnes du sucre au Cérbère tu ne le domestiquera pas You might also likeQuarto laisse de la place au vide que puisse venir lextraordinaire Le plus sage nest pas daccomplir mais de gérer le rien à faire Refléchis avant de rendre pire, ta fatiguer en cataclysme Ou dabsolument vouloir remplir le tonneau des Danaïdes On ira place de la Rotonde choisir un tram qui parcours Stras Je texpliquerai pourquoi la Joconde est lallégorie du temps qui passe Les graffeurs rue Pali-Kao qui partent avant que les milices viennent Et puis les marinaro du carnaval de Villingen Le groupe Old New-york benz, Le krump, le break et le popping La déduction de Sherlock Holmes et les rêves de Mary Poppins Je temmènerai dans une vague pipeline avec des amis surfeurs dHendaye On a tellement de choses à lire de Marc Aurèle à Simone Weil Quinto existe-t-il des erreurs qui ne méritent pas de pardon Celui qui produit la colère boit la plupart de son poison Dfaçon parfois lexistence tu crois ces gens qui aiment trop les drames Mais seul la vie à de limportance comme dirait les Mondo-shawan Sexto le destin cest pas que la chance mais surtout beaucoup de choix Et tu peux prendre de lavance en marchant loin dedans toi Etre indépendant de penser sans rejoindre les groupes militaires Souvent les gens meurent écraser sous la statue dce quils vénèrent On ira nager sous la glace de leau turquoise de lantarctique Sans soccuper du temps qui passe pour revoir tout Miyazaki Les rhumeries de Boucan Canot, les bonbons piments de Sainte-Anne On voguera à bord dun kayak par dessus la fosse des Marianne Et si une nuit tu dormais mal on fera les Inuits en traineau Jusquau trait daurore boréale, tu tendormiras à Tromso Aux iles Kerguelen boire un shot pendant que je te réchauffe dans mes bras Et que tobserves les baleines à bosse qui crachent de lair autour de toi Sept, laisse aboyer ceux qui blessent à travers leur mauvais rôles Les hyènes saccroupissent et se taisent lorsque le lion se tourne vers eux Il y a les uns qui ne font rien à part de mal parler des autres Et ceux qui ne parlent pas des uns mais dans le silence font les choses Octavo laisse ton ego évoluer de façon tendre Parfois les choses sont si simples quon met toute notre vie à le comprendre Soit tolérant avec ce que sont ces conseils à ton image Car tous les non-sages sont insensés mais existent-ils vraiment des sages</t>
+          <t>intro Moi ce qui me fait peur cest lavenir puisque chais pas Jai peur de la guerre premièrement, jpense que demain la terre pourrait exploser avec quelques bombes H comme ça et puis du mariage aussi jai un peu peur couplet unique Primo lamour cest la lumière Et sil fait nuit un peu parfois Cest un clignement de paupière comme le phare des yeux dElsa Un sentiment des profondeurs explorant ce que les abysses cache Ou on paye vite cher les erreurs, les accidents de batyscaphe Secondo la nature des choses trouve toujours son chemin Faut se battre jusqu'à lecchymose mais au delà son sens est vain ??? Parfois il en sort des chefs duvre mais Mozart en mourra à Vienne On paye cher le prix de lerreur, à moins que le bou-mara vienne On ira voir au Portugal les vagues géantes de Nazaré Comment les bébés tortues gagnent les rivages des plages azurées Je tapprendrai à lire les souches du collagène qui cicatrise Comment apercevoir du rouge dans le bleu de la danse de Matisse Je texpliquerai Adamkiewicz à travers les livres de Lazorthes Et pourquoi ces deux types ont le nom des artères que tu portes Volé des fruits sucrés dans les jardins qui sont suspendus dans Babylone Tous mes secrets de citadins juste parce que tes mon baby love Tertio affirme toi au delà de ces âmes hantées ??? Parce que parfois tu finiras démuni et désargenté Garde ta philosophie intègre et dans ladversité sois toi Même si tu donnes du sucre au Cérbère tu ne le domestiquera pas Quarto laisse de la place au vide que puisse venir lextraordinaire Le plus sage nest pas daccomplir mais de gérer le rien à faire Refléchis avant de rendre pire, ta fatiguer en cataclysme Ou dabsolument vouloir remplir le tonneau des Danaïdes On ira place de la Rotonde choisir un tram qui parcours Stras Je texpliquerai pourquoi la Joconde est lallégorie du temps qui passe Les graffeurs rue Pali-Kao qui partent avant que les milices viennent Et puis les marinaro du carnaval de Villingen Le groupe Old New-york benz, Le krump, le break et le popping La déduction de Sherlock Holmes et les rêves de Mary Poppins Je temmènerai dans une vague pipeline avec des amis surfeurs dHendaye On a tellement de choses à lire de Marc Aurèle à Simone Weil Quinto existe-t-il des erreurs qui ne méritent pas de pardon Celui qui produit la colère boit la plupart de son poison Dfaçon parfois lexistence tu crois ces gens qui aiment trop les drames Mais seul la vie à de limportance comme dirait les Mondo-shawan Sexto le destin cest pas que la chance mais surtout beaucoup de choix Et tu peux prendre de lavance en marchant loin dedans toi Etre indépendant de penser sans rejoindre les groupes militaires Souvent les gens meurent écraser sous la statue dce quils vénèrent On ira nager sous la glace de leau turquoise de lantarctique Sans soccuper du temps qui passe pour revoir tout Miyazaki Les rhumeries de Boucan Canot, les bonbons piments de Sainte-Anne On voguera à bord dun kayak par dessus la fosse des Marianne Et si une nuit tu dormais mal on fera les Inuits en traineau Jusquau trait daurore boréale, tu tendormiras à Tromso Aux iles Kerguelen boire un shot pendant que je te réchauffe dans mes bras Et que tobserves les baleines à bosse qui crachent de lair autour de toi Sept, laisse aboyer ceux qui blessent à travers leur mauvais rôles Les hyènes saccroupissent et se taisent lorsque le lion se tourne vers eux Il y a les uns qui ne font rien à part de mal parler des autres Et ceux qui ne parlent pas des uns mais dans le silence font les choses Octavo laisse ton ego évoluer de façon tendre Parfois les choses sont si simples quon met toute notre vie à le comprendre Soit tolérant avec ce que sont ces conseils à ton image Car tous les non-sages sont insensés mais existent-ils vraiment des sages</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Casque stéréo, comme un astronaute, pour qu'il fasse beau quand demain il pleut Musique des astres dans mes notes car c'est le désastre dans nos yeux Et c'est p't-être pour ça qu'j'suis toujours àl, à cause d'Éole et d'son courroux À bord d'une fusée à l'éthanol qui devait décoller d'la base de Kourou Toujours l'amour sur le site Youporn tour de contrôle j'ai plus rien à perdre Car je capte plus c'que dit Houston, j'ai des fractures de l'oreille interne Le propulseur qu'est dans mon calbute fait jouir ta sur qu'est sur ma longue bite T'attaches ta chatte, nous démarrons vite c'qui nourrit ton âme peut faire mal au bide, yo Je prends mon élan sur la rampe de lancement Pour les blessures de l'âme, mon rap, c'est des pansements Sur l'chemin de l'arène, si t'attends que je m'incline Si, parfois, je m'abaisse, c'est pour la cyprine de ma reine Un arôme de mandarine à l'aube de Tout le monde est mort de rire que la fin du monde arrive Yo, demain, il pleuvra, le sang du ciel coulera dans légout du monde Dessinant de belles rigoles le long des rues dans ce dégoût du nombre ? Cicatrisation en cours, le temps suture ma matière noire Sourcils froncés sur l'orbite, suis la courbure de lintervalle J'ai bien raté mon vol, goûté moins de grâce que d'pesanteur Amour en scaphandre préservé, mais nos gestes manquent d'ampleur Mal de l'air et mal torché, ménagères en mal d'orgie Jette une bouteille dans l'espace, sans message, Dieu est à jeun You might also like Piloter un engin, partir du toit et tout c'tintouin J'devais décoller tôt c'matin, j'me suis coincé les doigts dans un vagin J'aurais voulu être un astronaute mais j'crois que j'étais bien naze trop tôt Il paraît que j'suis trop dans la lune, alors appelle-moi Astroboy À c'propos, y aurait-il une banque qui accorde du crédit sommeil ? J'ai tellement de débit que je cours après minuit dans mes rêves C'est fou que l'on se dise que dormir m'épuise Que les autres crient Oh no !, j'ai pas d'pilote dans mon cockpit L'avion est parti en tonneaux, j'ai livré un parachute pour cramer les scélérats Sur le fond décéléré mais qu'ont accéléré les rimes, j'aurais voulu devenir un pilote de chasse Mais j'suis sous-marinier dans l'armée d'Atlantide Je me multiplie en dix, sur quelle partie est-ce qu'ils tomberont ? La joie ou la détresse, merde, forcément nous nous trompons Condamnés au peloton, pour le choix du fusil votons Le bourbon dans mon bourdon, c'est un peu l'ombre dans le photon Autour de divers soleils, pourtant, chérie, j'ai gravité Les brûlures occasionnées constituent des mondes habités Je ne sentais plus mon poids, enfant, la nuit me faisait peur Depuis, je sais qu'elle est remplie d'alcool, de sexe et de fantômes d'auteurs J'aurais voulu être un astronaute ou bien alors un acteur porno Indésirable à la NASA comme du Plantu sur Mahomet Ouais, ça peut 'cher-mar' comme Saint-Lazare, j'tire un plan cul sur la comète J'suis bien planqué sur ma planète, comme Dieu derrière le mur de Planck Avec les mésanges, j'suis en coloc', mais ça dérange les gens trop glauques Qu'j'fasse tant l'amour avec les anges, que j'aurais dû être angiologue Non, en vrai, Lucio, t'sais quoi ? J'aurais voulu être un astronaute</t>
+          <t>Casque stéréo, comme un astronaute, pour qu'il fasse beau quand demain il pleut Musique des astres dans mes notes car c'est le désastre dans nos yeux Et c'est p't-être pour ça qu'j'suis toujours àl, à cause d'Éole et d'son courroux À bord d'une fusée à l'éthanol qui devait décoller d'la base de Kourou Toujours l'amour sur le site Youporn tour de contrôle j'ai plus rien à perdre Car je capte plus c'que dit Houston, j'ai des fractures de l'oreille interne Le propulseur qu'est dans mon calbute fait jouir ta sur qu'est sur ma longue bite T'attaches ta chatte, nous démarrons vite c'qui nourrit ton âme peut faire mal au bide, yo Je prends mon élan sur la rampe de lancement Pour les blessures de l'âme, mon rap, c'est des pansements Sur l'chemin de l'arène, si t'attends que je m'incline Si, parfois, je m'abaisse, c'est pour la cyprine de ma reine Un arôme de mandarine à l'aube de Tout le monde est mort de rire que la fin du monde arrive Yo, demain, il pleuvra, le sang du ciel coulera dans légout du monde Dessinant de belles rigoles le long des rues dans ce dégoût du nombre ? Cicatrisation en cours, le temps suture ma matière noire Sourcils froncés sur l'orbite, suis la courbure de lintervalle J'ai bien raté mon vol, goûté moins de grâce que d'pesanteur Amour en scaphandre préservé, mais nos gestes manquent d'ampleur Mal de l'air et mal torché, ménagères en mal d'orgie Jette une bouteille dans l'espace, sans message, Dieu est à jeun Piloter un engin, partir du toit et tout c'tintouin J'devais décoller tôt c'matin, j'me suis coincé les doigts dans un vagin J'aurais voulu être un astronaute mais j'crois que j'étais bien naze trop tôt Il paraît que j'suis trop dans la lune, alors appelle-moi Astroboy À c'propos, y aurait-il une banque qui accorde du crédit sommeil ? J'ai tellement de débit que je cours après minuit dans mes rêves C'est fou que l'on se dise que dormir m'épuise Que les autres crient Oh no !, j'ai pas d'pilote dans mon cockpit L'avion est parti en tonneaux, j'ai livré un parachute pour cramer les scélérats Sur le fond décéléré mais qu'ont accéléré les rimes, j'aurais voulu devenir un pilote de chasse Mais j'suis sous-marinier dans l'armée d'Atlantide Je me multiplie en dix, sur quelle partie est-ce qu'ils tomberont ? La joie ou la détresse, merde, forcément nous nous trompons Condamnés au peloton, pour le choix du fusil votons Le bourbon dans mon bourdon, c'est un peu l'ombre dans le photon Autour de divers soleils, pourtant, chérie, j'ai gravité Les brûlures occasionnées constituent des mondes habités Je ne sentais plus mon poids, enfant, la nuit me faisait peur Depuis, je sais qu'elle est remplie d'alcool, de sexe et de fantômes d'auteurs J'aurais voulu être un astronaute ou bien alors un acteur porno Indésirable à la NASA comme du Plantu sur Mahomet Ouais, ça peut 'cher-mar' comme Saint-Lazare, j'tire un plan cul sur la comète J'suis bien planqué sur ma planète, comme Dieu derrière le mur de Planck Avec les mésanges, j'suis en coloc', mais ça dérange les gens trop glauques Qu'j'fasse tant l'amour avec les anges, que j'aurais dû être angiologue Non, en vrai, Lucio, t'sais quoi ? J'aurais voulu être un astronaute</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dooz-ko Pour Milo casse-déd Contes cruels Greenfinch à la prod Pour ceux qui luttent dans les rues de ma ville Ils brillent toujours ce soleil noir Comme un clin d'oeil à Namétis Un chien de paille aboie le soir Dans ces coins où mon âme est triste Le ciel est plein de tourbillon De nénuphars d'Alexandrie Le poète peint, nous oublions Qu'il y a le feu à l'incendie Quand les corbeaux perdent leurs écailles Ils le font par cent ans de gloire Les minutes fusent quand l'heure est calme Et les passants tendent les mouchoirs Aux tentacules d'un arbre à cames Vers un pendu au nud qui coule Le vent est suspendu par l'âme Et les aiguilles du temps s'écroulent Les rues d'ma vie HLM, cité ampère, polygone Neuhof Les rue d'ma ville Serruriers Les rues d'ma ville Starsbourg, Saint-Denis Arnaud Bernard, ??? Les rues d'ma vie, rivière des pluies Les rues d'ma vie, quel courage Oh, j'ai fais mieux depuis You might also likeLes astres s'explosent l'un dans l'autre Par force morte de l'inertie La servitude volontaire Des habitants de la Boétie Les planètes parfois impactées Au caractère encore si leste Que je dépose de ma voie lactée Aux cratères de ton corps céleste Jamais mon coeur ne s'envisage Dans l'esprit des contemporains Car les humains sont sans visage Et leur masque est content pour rien La lune parait, parée à tout Son absurde mission cyclique On peut enfin parler d'amour Après la soumission chimique Les rues d'ma vie Hôpital Joseph-Ducuing Ces chemins d'où nous partions L'exil sur l'île d'la réunion Le chaudron, le port Le vieux port aussi Les rues d'ma vie Belsunce, Marseille Rue d'la providence Les mandolines de Vincenzo en résonance J'y ai niqué mes Nike et déchiré tout mes amis Quel courage Pff, j'ai fais mieux depuis Les fantômes se déplacent sans drap Sans quête et sans maître de gorge Je marche mais mes traces de pas Se trouvent quelques mètres devant Ce n'est qu'un lieu que l'on absence Vestige de colonne de Haussmann Où l'peter pan de notre enfance A le syndrôme de Silverman Moi j'attends qu'on serve le thé Mais celle qu'embrassera la ruine Pour que toujours soit délité Ceux qui s'embrassent rue Mazarine Moi j'attends qu'on serve le thé Les rues d'ma vie J'roule à 120 dans une impasse Bour-stra, Toulouse, Paris Place saint-omin Les rues d'ma vie C'est comme un rond-point sans sortie C'est p't'être pour ça que mes lyrics Ont plus de carrefours que de sens unique Les rues d'ma vie Où les seules indications Sont des panneaux toute direction J'me suis permis d'mal me conduire Les rues d'ma vie Sont toujours en sens interdit Et puis tant pis pour ceux qui f'ront plus partis du voyage J'leur garde quand même une place à bord Même ceux qui m'ont pas en estime Et puis aussi toujours une place Pour les jolies clandestines Les rues d'ma vie Dooz-kawa Contes Cruels C'est beau même si parfois c'est triste et dur Car ma vie n'est qu'une déchirure Kawa Contres cruels1</t>
+          <t>Dooz-ko Pour Milo casse-déd Contes cruels Greenfinch à la prod Pour ceux qui luttent dans les rues de ma ville Ils brillent toujours ce soleil noir Comme un clin d'oeil à Namétis Un chien de paille aboie le soir Dans ces coins où mon âme est triste Le ciel est plein de tourbillon De nénuphars d'Alexandrie Le poète peint, nous oublions Qu'il y a le feu à l'incendie Quand les corbeaux perdent leurs écailles Ils le font par cent ans de gloire Les minutes fusent quand l'heure est calme Et les passants tendent les mouchoirs Aux tentacules d'un arbre à cames Vers un pendu au nud qui coule Le vent est suspendu par l'âme Et les aiguilles du temps s'écroulent Les rues d'ma vie HLM, cité ampère, polygone Neuhof Les rue d'ma ville Serruriers Les rues d'ma ville Starsbourg, Saint-Denis Arnaud Bernard, ??? Les rues d'ma vie, rivière des pluies Les rues d'ma vie, quel courage Oh, j'ai fais mieux depuis Les astres s'explosent l'un dans l'autre Par force morte de l'inertie La servitude volontaire Des habitants de la Boétie Les planètes parfois impactées Au caractère encore si leste Que je dépose de ma voie lactée Aux cratères de ton corps céleste Jamais mon coeur ne s'envisage Dans l'esprit des contemporains Car les humains sont sans visage Et leur masque est content pour rien La lune parait, parée à tout Son absurde mission cyclique On peut enfin parler d'amour Après la soumission chimique Les rues d'ma vie Hôpital Joseph-Ducuing Ces chemins d'où nous partions L'exil sur l'île d'la réunion Le chaudron, le port Le vieux port aussi Les rues d'ma vie Belsunce, Marseille Rue d'la providence Les mandolines de Vincenzo en résonance J'y ai niqué mes Nike et déchiré tout mes amis Quel courage Pff, j'ai fais mieux depuis Les fantômes se déplacent sans drap Sans quête et sans maître de gorge Je marche mais mes traces de pas Se trouvent quelques mètres devant Ce n'est qu'un lieu que l'on absence Vestige de colonne de Haussmann Où l'peter pan de notre enfance A le syndrôme de Silverman Moi j'attends qu'on serve le thé Mais celle qu'embrassera la ruine Pour que toujours soit délité Ceux qui s'embrassent rue Mazarine Moi j'attends qu'on serve le thé Les rues d'ma vie J'roule à 120 dans une impasse Bour-stra, Toulouse, Paris Place saint-omin Les rues d'ma vie C'est comme un rond-point sans sortie C'est p't'être pour ça que mes lyrics Ont plus de carrefours que de sens unique Les rues d'ma vie Où les seules indications Sont des panneaux toute direction J'me suis permis d'mal me conduire Les rues d'ma vie Sont toujours en sens interdit Et puis tant pis pour ceux qui f'ront plus partis du voyage J'leur garde quand même une place à bord Même ceux qui m'ont pas en estime Et puis aussi toujours une place Pour les jolies clandestines Les rues d'ma vie Dooz-kawa Contes Cruels C'est beau même si parfois c'est triste et dur Car ma vie n'est qu'une déchirure Kawa Contres cruels1</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Papa ? Oui Milo, mange ton p'tit suisse La titouille ! Tu veux encore la citrouille ? Oui, la méjyon, la titouille ! Est-ce qu'il est bon ton petit suisse? Hum? Non. Non, il est pas bon ? Cé pa bon. Mange ton petit suisse Ma méjyon, la titouille, Papa ! Papa, chante Yeah J'fais des excès de boissons dans un bar sombre en mode zombie Mon hôtel est une prison vide comme dans Shining J'rentrerai tard et t'auras grandi j'imagine Sur ma LONGINES, l'heure tique comme pour me dire qu'on meurt vite Que le temps passe et qu'c'est l'âge qu'des proches Nous quittes nous piquent des fragments de nos curs, c'est pas cool J'suis passé à côté d'ma vie comme un voleur et une patrouille Pense bien que c'trône un peu On s'invente des problèmes, lorsque les choses sont trop simples C'est nul de plus etre ti'peu de plus voir le monde en grand Les adultes sont malheureux de ne plus être des enfants J'parlais cet été d'arrêter le son mais retraité je paressais sombre j'étais lesté d'une veste de plomb Toi t'es céleste et si mignon je t'aime bébé à la déraison Putain c'est trop con parait qu'il neige à la maison et que c'était tes premier flocons J'te fais des bisous mon Bibou c'est papou au téléphone bien que je peux pas te prendre dans mes bras et que ça peut pas ôter les bornes T'es mon petit lapin blanc rampant au pays des merveilles Si papa est pas là, je sais que ta mère veille Pyjama rayé, lit a barreaux, playmo, style prisonnier J'te fait une visite à ton parloir playmobile Sans toi, où est mon horizone j'suis Crusoé Robinson, papa was a rolling stone Mon papa à moi, c'est Dooz Kawa-a Il était pas là pour mes premiers pas Mon papa oh oh, c'est Dooz KO-o Il était pas là pour mes premiers mots Maman fait des siennes, car papa fait des scènes Entre Paris, Lille et Marseille Il est entre Marilyne et Marylène Hey! Je suis qu'un gone, dans une enveloppe velue Vient farfouiller au fond de mon crâne Petit farfadet farfelu, tu trouveras un truc qui cloche Une coquille une farandole de paradoxe une coquillette Au fond d'un paquet de farfales Parfois j'aimerais redevenir mioche Pour ne plus savoir c'que j'sais J'ai hérité de tes cheveux blancs d'un dos poilu dure à faucher de la manie du robinet bien verrouillé même que je gêne d'vant la télé je n'suis pas l'fils d'un vitrier tape du pied, frappe des mains baisse le fûte et claque claque claque, en fait ça f'sait pas super mal, j'oubliais tout quand j'enfilais ma cape bleue mes bottes cirées rouges vif et dans tes bras je chantonnais la zik' de superman J'aime les grenouilles, et les poissons clowns Même si parfois c'était la rouille j'étais le roi de la débrouille Un je ne sais quoi, petit Hagoun Jsais pas pourquoi j'cassais les couilles face à papa au deuxième round Excusez-moi j'te fais des bisous mon papou Ça capte mal j'suis sur la route Le concert c'était d'la balle Tellement crevé qu'j'suis sur la roue Embrasse maman dis lui qu'ses pois gourmands me chatouillent l'estomac Je pense au crew surtout à vous quand je gribouille des S.O.K Qu'est ce t'as touché han han petit mulot dure à mouché mes frères me disaient devant le potage et un duralex d'eau potable, qu'on ma r'trouvé sur Bogota que j'n'étais qu'une pièce rajouté Et puis l'aprem' pour me venger j'pissais dans leur caisse à jouets Mon fiston à moi-a, c'est Anton Serra J'allais le chercher au commissariat Mon fiston oh oh, c'est A.N.T.O., Il prenait une fessée pour un graphito Maman m'mets des baffes Quand papa est au taff Je méritais bien une leçon Faut pas trop les prendre pour des cons..! Eh, mon fils ne pleure pas J'pars en guerre avec les mots faut pas t'en faire Sèche tes larmes et tu verras comme demain sera mieux qu'hier Te laisse pas guider par ces obligations Tu sais qu'à ne plus vouloir suivre le troupeau je suis devenu ce maudit garçon Pour être vendu car seul motivation saigne J'suis le reflet d'la réalité lorsque toutes les nations saignent Et j'enseigne tant bien que mal à chaque scène, yah Que le bonheur doit être le maître mot comme les graines que l'on sème Tu sais au fond du sac au bas motsmaux milles poèmes Mais aucun n'saurait expliquer pourquoi j'ai choisi la vie d'Bohème Mon point de vue est ferme loin d'être nuançable change les méthodes dur en sable comme l'argot des rues en fable avant que le temps décide de dénuer ce corps de vie J'vais garder mon âme de gamin Car ce qui est rare est devenu hors de prix Car ce qui est rare est devenu hors de prix Chante MiloYou might also like1</t>
+          <t>Papa ? Oui Milo, mange ton p'tit suisse La titouille ! Tu veux encore la citrouille ? Oui, la méjyon, la titouille ! Est-ce qu'il est bon ton petit suisse? Hum? Non. Non, il est pas bon ? Cé pa bon. Mange ton petit suisse Ma méjyon, la titouille, Papa ! Papa, chante Yeah J'fais des excès de boissons dans un bar sombre en mode zombie Mon hôtel est une prison vide comme dans Shining J'rentrerai tard et t'auras grandi j'imagine Sur ma LONGINES, l'heure tique comme pour me dire qu'on meurt vite Que le temps passe et qu'c'est l'âge qu'des proches Nous quittes nous piquent des fragments de nos curs, c'est pas cool J'suis passé à côté d'ma vie comme un voleur et une patrouille Pense bien que c'trône un peu On s'invente des problèmes, lorsque les choses sont trop simples C'est nul de plus etre ti'peu de plus voir le monde en grand Les adultes sont malheureux de ne plus être des enfants J'parlais cet été d'arrêter le son mais retraité je paressais sombre j'étais lesté d'une veste de plomb Toi t'es céleste et si mignon je t'aime bébé à la déraison Putain c'est trop con parait qu'il neige à la maison et que c'était tes premier flocons J'te fais des bisous mon Bibou c'est papou au téléphone bien que je peux pas te prendre dans mes bras et que ça peut pas ôter les bornes T'es mon petit lapin blanc rampant au pays des merveilles Si papa est pas là, je sais que ta mère veille Pyjama rayé, lit a barreaux, playmo, style prisonnier J'te fait une visite à ton parloir playmobile Sans toi, où est mon horizone j'suis Crusoé Robinson, papa was a rolling stone Mon papa à moi, c'est Dooz Kawa-a Il était pas là pour mes premiers pas Mon papa oh oh, c'est Dooz KO-o Il était pas là pour mes premiers mots Maman fait des siennes, car papa fait des scènes Entre Paris, Lille et Marseille Il est entre Marilyne et Marylène Hey! Je suis qu'un gone, dans une enveloppe velue Vient farfouiller au fond de mon crâne Petit farfadet farfelu, tu trouveras un truc qui cloche Une coquille une farandole de paradoxe une coquillette Au fond d'un paquet de farfales Parfois j'aimerais redevenir mioche Pour ne plus savoir c'que j'sais J'ai hérité de tes cheveux blancs d'un dos poilu dure à faucher de la manie du robinet bien verrouillé même que je gêne d'vant la télé je n'suis pas l'fils d'un vitrier tape du pied, frappe des mains baisse le fûte et claque claque claque, en fait ça f'sait pas super mal, j'oubliais tout quand j'enfilais ma cape bleue mes bottes cirées rouges vif et dans tes bras je chantonnais la zik' de superman J'aime les grenouilles, et les poissons clowns Même si parfois c'était la rouille j'étais le roi de la débrouille Un je ne sais quoi, petit Hagoun Jsais pas pourquoi j'cassais les couilles face à papa au deuxième round Excusez-moi j'te fais des bisous mon papou Ça capte mal j'suis sur la route Le concert c'était d'la balle Tellement crevé qu'j'suis sur la roue Embrasse maman dis lui qu'ses pois gourmands me chatouillent l'estomac Je pense au crew surtout à vous quand je gribouille des S.O.K Qu'est ce t'as touché han han petit mulot dure à mouché mes frères me disaient devant le potage et un duralex d'eau potable, qu'on ma r'trouvé sur Bogota que j'n'étais qu'une pièce rajouté Et puis l'aprem' pour me venger j'pissais dans leur caisse à jouets Mon fiston à moi-a, c'est Anton Serra J'allais le chercher au commissariat Mon fiston oh oh, c'est A.N.T.O., Il prenait une fessée pour un graphito Maman m'mets des baffes Quand papa est au taff Je méritais bien une leçon Faut pas trop les prendre pour des cons..! Eh, mon fils ne pleure pas J'pars en guerre avec les mots faut pas t'en faire Sèche tes larmes et tu verras comme demain sera mieux qu'hier Te laisse pas guider par ces obligations Tu sais qu'à ne plus vouloir suivre le troupeau je suis devenu ce maudit garçon Pour être vendu car seul motivation saigne J'suis le reflet d'la réalité lorsque toutes les nations saignent Et j'enseigne tant bien que mal à chaque scène, yah Que le bonheur doit être le maître mot comme les graines que l'on sème Tu sais au fond du sac au bas motsmaux milles poèmes Mais aucun n'saurait expliquer pourquoi j'ai choisi la vie d'Bohème Mon point de vue est ferme loin d'être nuançable change les méthodes dur en sable comme l'argot des rues en fable avant que le temps décide de dénuer ce corps de vie J'vais garder mon âme de gamin Car ce qui est rare est devenu hors de prix Car ce qui est rare est devenu hors de prix Chante Milo1</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ma petite maman chérie, mon tout petit frère adoré Mon petit papa aimé, je vais mourir. Et toi ma chérie... Danse, danse, j'serai fusillé demain mais vive la Résistance Danse, danse, j'aurais voulu scier mes liens mais vive la Résistance C'est triste, on l'sait, ils nous brisent comme ces Tribus d'Amazonie dont l'existence n'est Qu'un rebut d'amas jaunis inexistentiel Et après, l'on nous dit qu'il existe un ciel Pour le juste, dociles pour pas qu'on les bousille Avec des ustensiles, prends juste un fil Notre minot qui dort et file et sort du labyrinthe Du minotaure des îles, j'ai mes torts mais il Est tard pour les regrets, je parcours l'idée gaie De t'imaginer libre quand j'pars au cours de l'été Ces larmes qui te maquillent sont comme des armes à blanc Qui coulaient sur mes lèvres dans le maquis Ma jolie camarade, la résistance danse Je voudrais pas qu'ils disent qu'on est triste en France Une méprise d'enfance qui nous rendit rances Aurait-on été heureux dans cette grande errance ? Au pays imaginaire, Wendy Darling Tu peux m'imaginer fier tandis que je m'aligne Bonhomme debout dans l'uniforme de boule Ceux qui me tirent dessus sont des hommes de nous You might also like J'serai fusillé demain mais vive la Résistance J'aurais voulu scier mes liens mais vive la Résistance J'ai vu tomber les étoiles depuis le toit des bâtiments J'pars discrètement, cette lettre te ment À te mettre en témoin, c'est émettre de loin J'écris en hurlement car il y a du chemin Les mers courbes de nos âmes, t'étais ma bougie filante Qui m'a fait garder le cap dans les nuits déferlantes Même si l'Enfer me hante, le silence me cimente C'est des frères qui m'attachent et leurs dagues qui m'éventrent Parfois l'corps s'démotive de nos curs émotifs T'attends le train, on va garder la locomotive T'es comme seul sur le quai, comme si Dieu se moquait De nos petits adieux d'un genre de Guy Môquet C'est triste, on l'sait, ils nous brisent comme ces Tribus d'Amazonie dont l'existence n'est Qu'un rebut d'amas jaunis inexistentiel Et après, l'on nous dit qu'il existe un ciel</t>
+          <t>Ma petite maman chérie, mon tout petit frère adoré Mon petit papa aimé, je vais mourir. Et toi ma chérie... Danse, danse, j'serai fusillé demain mais vive la Résistance Danse, danse, j'aurais voulu scier mes liens mais vive la Résistance C'est triste, on l'sait, ils nous brisent comme ces Tribus d'Amazonie dont l'existence n'est Qu'un rebut d'amas jaunis inexistentiel Et après, l'on nous dit qu'il existe un ciel Pour le juste, dociles pour pas qu'on les bousille Avec des ustensiles, prends juste un fil Notre minot qui dort et file et sort du labyrinthe Du minotaure des îles, j'ai mes torts mais il Est tard pour les regrets, je parcours l'idée gaie De t'imaginer libre quand j'pars au cours de l'été Ces larmes qui te maquillent sont comme des armes à blanc Qui coulaient sur mes lèvres dans le maquis Ma jolie camarade, la résistance danse Je voudrais pas qu'ils disent qu'on est triste en France Une méprise d'enfance qui nous rendit rances Aurait-on été heureux dans cette grande errance ? Au pays imaginaire, Wendy Darling Tu peux m'imaginer fier tandis que je m'aligne Bonhomme debout dans l'uniforme de boule Ceux qui me tirent dessus sont des hommes de nous J'serai fusillé demain mais vive la Résistance J'aurais voulu scier mes liens mais vive la Résistance J'ai vu tomber les étoiles depuis le toit des bâtiments J'pars discrètement, cette lettre te ment À te mettre en témoin, c'est émettre de loin J'écris en hurlement car il y a du chemin Les mers courbes de nos âmes, t'étais ma bougie filante Qui m'a fait garder le cap dans les nuits déferlantes Même si l'Enfer me hante, le silence me cimente C'est des frères qui m'attachent et leurs dagues qui m'éventrent Parfois l'corps s'démotive de nos curs émotifs T'attends le train, on va garder la locomotive T'es comme seul sur le quai, comme si Dieu se moquait De nos petits adieux d'un genre de Guy Môquet C'est triste, on l'sait, ils nous brisent comme ces Tribus d'Amazonie dont l'existence n'est Qu'un rebut d'amas jaunis inexistentiel Et après, l'on nous dit qu'il existe un ciel</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ode à l'État Un jour ils ont condamnés Socrate ces pseudos juges athéniens Parce qu'il les a surpris en train d'faire semblant d'savoir mais ils savaient rien Ode à l'État, ode au plus grand voleur de tous les temps De toutes mémoires, auteur qui oeuvre aux plus grands mensonges de l'histoire De nous faire croire qu'il représente le peuple Mais qui s'taisent puisqu'ils représentent la tristesse Comme un bouquet sur un platane et plus ils gagnent comme Zlatane Leur âme s'appauvrie de richesses Je vous concède la vérité du procédé, plus on possède plus on est possédé Et les politiques détruisent tous ceux qui pourraient s'aider L'État est utile comme un trou dans la tête, il nous suicide depuis la tour de Babel Elle dit briller comme une émeraude juste pour guider les âmes en haut d'elle Essaie d'faire oublier qu'elle n'est que l'trône du roi Nimrod On laisse que des avions en papier contre leur tour de Babel L'État s'appelle Caïn, me dit que j'suis son frère Abel Cache un couteau dans son dos et me souris d'un air cruel Tant de scandales politico-financiers marquent mon siècle Là où finit l'État commence l'arc-en-ciel Ce monde dégoût des demi-dieux qui fait qu'j'les défie comme Ulysse Car les égouts d'la politique évitent les filtres d'la justice Et nique sa mère le maire, le sénateur Vos cours magistraux de langage qui n'ont jamais ému de cur Même en tripotant des filles cupides que l'pouvoir rendait lyriques Ventripotent, moche et stupide, bref des politiciens classiques You might also like La politique c'est lavènement des démagos Ils sont venus dans l'hémicycle juste pour partager le magot Leur démocrasse c'est une censure intellectuelle Une manipulation des masses pour leur carrière personnelle La politique c'est lavènement des démagos Ils sont venus dans l'hémicycle juste pour partager le magot Leur démocrasse c'est une censure intellectuelle Une manipulation des masses pour leur carrière personnelle Tu trouves qu'c'est un cartoon, qu'mes critiques sont des rancurs P't-être bien car c'est un clown qui a du créer Les Restos du cur Dis-moi quelle chaleur d'âme t'espères de son manteau de glace ? Alors écrasons l'infâme, c'est la tirade de Ruy Blas Si t'es honnête, t'es une marionnette au bout de leur ficelle Alors coupons les tentacules d'cette putain d'mafia officielle Et ensuite les testicules des dynasties politiciennes T't'rappelles comment tu m'parlais mal Paris brûle-t-il bientôt ? Et l'on commencera par l'ENA J'suis là pour dégrader l'État qu'envoie sa garde prétorienne Ils présentent la première dame avec la grâce qu'on prête aux reines Si on est masqués dans les manifs c'est à cause des gaz lacrymogènes Un mythe gros, les politicos sont des mythos Guillotinez les tous place publique là où même Dany le Rouge est devenu Cohn-Bendit Il est plus dangereux d'être lanceur d'alerte anti-capitaliste Qu'un prêtre pédophile terroriste islamiste ou qu'un fraudeur ministre Les injustices d'aujourd'hui feront les Mandela de demain Les Martin Luther King, pour faire la violence en paix demandez-moi l'chemin La politique c'est lavènement des démagos Ils sont venus dans l'hémicycle juste pour partager le magot Leur démocrasse c'est une censure intellectuelle Une manipulation des masses pour leur carrière personnelle La politique c'est lavènement des démagos Ils sont venus dans l'hémicycle juste pour partager le magot Leur démocrasse c'est une censure intellectuelle Une manipulation des masses pour leur carrière personnelle</t>
+          <t>Ode à l'État Un jour ils ont condamnés Socrate ces pseudos juges athéniens Parce qu'il les a surpris en train d'faire semblant d'savoir mais ils savaient rien Ode à l'État, ode au plus grand voleur de tous les temps De toutes mémoires, auteur qui oeuvre aux plus grands mensonges de l'histoire De nous faire croire qu'il représente le peuple Mais qui s'taisent puisqu'ils représentent la tristesse Comme un bouquet sur un platane et plus ils gagnent comme Zlatane Leur âme s'appauvrie de richesses Je vous concède la vérité du procédé, plus on possède plus on est possédé Et les politiques détruisent tous ceux qui pourraient s'aider L'État est utile comme un trou dans la tête, il nous suicide depuis la tour de Babel Elle dit briller comme une émeraude juste pour guider les âmes en haut d'elle Essaie d'faire oublier qu'elle n'est que l'trône du roi Nimrod On laisse que des avions en papier contre leur tour de Babel L'État s'appelle Caïn, me dit que j'suis son frère Abel Cache un couteau dans son dos et me souris d'un air cruel Tant de scandales politico-financiers marquent mon siècle Là où finit l'État commence l'arc-en-ciel Ce monde dégoût des demi-dieux qui fait qu'j'les défie comme Ulysse Car les égouts d'la politique évitent les filtres d'la justice Et nique sa mère le maire, le sénateur Vos cours magistraux de langage qui n'ont jamais ému de cur Même en tripotant des filles cupides que l'pouvoir rendait lyriques Ventripotent, moche et stupide, bref des politiciens classiques La politique c'est lavènement des démagos Ils sont venus dans l'hémicycle juste pour partager le magot Leur démocrasse c'est une censure intellectuelle Une manipulation des masses pour leur carrière personnelle La politique c'est lavènement des démagos Ils sont venus dans l'hémicycle juste pour partager le magot Leur démocrasse c'est une censure intellectuelle Une manipulation des masses pour leur carrière personnelle Tu trouves qu'c'est un cartoon, qu'mes critiques sont des rancurs P't-être bien car c'est un clown qui a du créer Les Restos du cur Dis-moi quelle chaleur d'âme t'espères de son manteau de glace ? Alors écrasons l'infâme, c'est la tirade de Ruy Blas Si t'es honnête, t'es une marionnette au bout de leur ficelle Alors coupons les tentacules d'cette putain d'mafia officielle Et ensuite les testicules des dynasties politiciennes T't'rappelles comment tu m'parlais mal Paris brûle-t-il bientôt ? Et l'on commencera par l'ENA J'suis là pour dégrader l'État qu'envoie sa garde prétorienne Ils présentent la première dame avec la grâce qu'on prête aux reines Si on est masqués dans les manifs c'est à cause des gaz lacrymogènes Un mythe gros, les politicos sont des mythos Guillotinez les tous place publique là où même Dany le Rouge est devenu Cohn-Bendit Il est plus dangereux d'être lanceur d'alerte anti-capitaliste Qu'un prêtre pédophile terroriste islamiste ou qu'un fraudeur ministre Les injustices d'aujourd'hui feront les Mandela de demain Les Martin Luther King, pour faire la violence en paix demandez-moi l'chemin La politique c'est lavènement des démagos Ils sont venus dans l'hémicycle juste pour partager le magot Leur démocrasse c'est une censure intellectuelle Une manipulation des masses pour leur carrière personnelle La politique c'est lavènement des démagos Ils sont venus dans l'hémicycle juste pour partager le magot Leur démocrasse c'est une censure intellectuelle Une manipulation des masses pour leur carrière personnelle</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Eh avec des glaçons pour moi aussi stp... Oh avec des glaçons pour moi aussi stp... Cimer Ma vie a débuté, bouton lecture sur un CD Obsédé par la lecture d'un livre d'histoire sans passé Le chemin passait par le QG, j'allais en cours pour la cantine En regardant les jeux d'argent, défoncé à la paraffine Trois-cent jours à sécher, jusqu'au conseil de discipline J'ai fait partie de toutes les bandes De tous les crews, de tous les teams, de tous les gangs Car sans racine, comme une fleur pour être aimé Je me distribuais à l'arrache comme le muguet du premier mai À haut débit, je suis qu'un bâtard comme ODB Et dès le début je les ai vexés en DB Je sais pas si ça signifie décibel ou dragibus J'ai pas fais l'école du rap mais je squatte leur abribus J'ai volé mon premier mic' pendant le marché aux puces Et rencontré DAX dans une cave avec Yannick Où on faisait tourner les gow qui manquaient d'amour physique Parait que j'ai pas de sentiment, que je ressens que de la musique Mélodie langoureuse ... Mélodie langoureuse, mélancolie d'amoureuse Auquel cas, si t'en abuses ou si la misère t'amuse J'viendrai violer ta muse, qu'est-ce qu'il y a ? Qu'est-ce t'as ? Vas-y qu'est-ce qu'il y a ? Qu'est-ce t'as ? Qu'est-ce t'as ? Mélodie langoureuse, mélancolie d'amoureuse Auquel cas, si t'en abuses ou si la misère t'amuse J'viendrai violer ta muse, qu'est-ce qu'il y a ? Qu'est-ce t'as ? Qu'est-ce t'as ? Vas-y qu'est-ce qu'il y a ? Qu'est-ce t'as ? Qu'est-ce t'as ? Qu'est-ce t'as ? You might also like Une enfance faite de c'que la misère donne Une adolescence à pécho des gow hyper bonnes Ok, c'est vrai, des fois, j'ai sonné à l'interphone Deux p'tits cons qu'on nique sans rien dire à personne Même distrait, j'vois déjà que ma rime plaît J'gratte vite fait, lunatique, j'sens qu'le crime paie Tout c'temps, j'reste dans le noir et me fait discret L'mouvement s'fait sans voir que j'existais Gynéco m'propose de kicker sur un pari Et j'refuse d'être en maison d'skeud et compagnie Animal noctambule au cur dévoué Le jeune Djeep traîne avec le jeune Ekoué Le jeune Supa, le jeune Tefa Et nous soumettre à un format déjà, bah je n'peux pas là Je cherche ma formule, mon livre de recettes Celui qu'un soir je brûle à 19h07 Et merde il est déjà la trentaine et quart Ça fait bien mal au corps J'mesure l'écart entre c'que je suis et l'destin dont j'rêverais encore Sans le regard des mioches Il m'parle déjà moins qu'celui des morts Mais remarque Ça m'a jamais quitté si j'avais su la vivre ma vie J'la gâcherais pas à la rapper ducon Du coup J'voudrais brûler mes livres c'est une arnaque Ils m'ont pourri la tête avec des idées pas à vendre Ils racontent pas c'qu'il y a à prendre Non tout c'qui m'ont appris, c'est l'art d'attendre Comme les bancs du quartier Avoue qu'on s'est beaucoup fait chier non, quand même En attendant d'passer à côté de c'qu'on aime J'échangerais ma jeunesse contre une place de ciné Puis non t'sais quoi j'attendrai l'DVD J'me souviens de l'envie d'être un roi J'me souviens bien des toits Et puis tout le reste bah Faut être honnête je m'en souviens pas</t>
+          <t>Eh avec des glaçons pour moi aussi stp... Oh avec des glaçons pour moi aussi stp... Cimer Ma vie a débuté, bouton lecture sur un CD Obsédé par la lecture d'un livre d'histoire sans passé Le chemin passait par le QG, j'allais en cours pour la cantine En regardant les jeux d'argent, défoncé à la paraffine Trois-cent jours à sécher, jusqu'au conseil de discipline J'ai fait partie de toutes les bandes De tous les crews, de tous les teams, de tous les gangs Car sans racine, comme une fleur pour être aimé Je me distribuais à l'arrache comme le muguet du premier mai À haut débit, je suis qu'un bâtard comme ODB Et dès le début je les ai vexés en DB Je sais pas si ça signifie décibel ou dragibus J'ai pas fais l'école du rap mais je squatte leur abribus J'ai volé mon premier mic' pendant le marché aux puces Et rencontré DAX dans une cave avec Yannick Où on faisait tourner les gow qui manquaient d'amour physique Parait que j'ai pas de sentiment, que je ressens que de la musique Mélodie langoureuse ... Mélodie langoureuse, mélancolie d'amoureuse Auquel cas, si t'en abuses ou si la misère t'amuse J'viendrai violer ta muse, qu'est-ce qu'il y a ? Qu'est-ce t'as ? Vas-y qu'est-ce qu'il y a ? Qu'est-ce t'as ? Qu'est-ce t'as ? Mélodie langoureuse, mélancolie d'amoureuse Auquel cas, si t'en abuses ou si la misère t'amuse J'viendrai violer ta muse, qu'est-ce qu'il y a ? Qu'est-ce t'as ? Qu'est-ce t'as ? Vas-y qu'est-ce qu'il y a ? Qu'est-ce t'as ? Qu'est-ce t'as ? Qu'est-ce t'as ? Une enfance faite de c'que la misère donne Une adolescence à pécho des gow hyper bonnes Ok, c'est vrai, des fois, j'ai sonné à l'interphone Deux p'tits cons qu'on nique sans rien dire à personne Même distrait, j'vois déjà que ma rime plaît J'gratte vite fait, lunatique, j'sens qu'le crime paie Tout c'temps, j'reste dans le noir et me fait discret L'mouvement s'fait sans voir que j'existais Gynéco m'propose de kicker sur un pari Et j'refuse d'être en maison d'skeud et compagnie Animal noctambule au cur dévoué Le jeune Djeep traîne avec le jeune Ekoué Le jeune Supa, le jeune Tefa Et nous soumettre à un format déjà, bah je n'peux pas là Je cherche ma formule, mon livre de recettes Celui qu'un soir je brûle à 19h07 Et merde il est déjà la trentaine et quart Ça fait bien mal au corps J'mesure l'écart entre c'que je suis et l'destin dont j'rêverais encore Sans le regard des mioches Il m'parle déjà moins qu'celui des morts Mais remarque Ça m'a jamais quitté si j'avais su la vivre ma vie J'la gâcherais pas à la rapper ducon Du coup J'voudrais brûler mes livres c'est une arnaque Ils m'ont pourri la tête avec des idées pas à vendre Ils racontent pas c'qu'il y a à prendre Non tout c'qui m'ont appris, c'est l'art d'attendre Comme les bancs du quartier Avoue qu'on s'est beaucoup fait chier non, quand même En attendant d'passer à côté de c'qu'on aime J'échangerais ma jeunesse contre une place de ciné Puis non t'sais quoi j'attendrai l'DVD J'me souviens de l'envie d'être un roi J'me souviens bien des toits Et puis tout le reste bah Faut être honnête je m'en souviens pas</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>... Trist' Klan dans la place Passe le mic pour un devil Jekill Sans Mister Hyde. The world is mine J'ai la trique jusqu'à la région paca J'improvise vers mic test 1,2 J'rappe vénère et j'ppfr... Et chacun de mes vers se transforme en adieu Nique sa mère, j'écrirai pas Do ré mi deux Même si mon bic m'y pousse et coupe tous mes freestyles Que mon inspiration aille Se faire foutre. J'fais un effort comme en stud' Pour la chaine. Ce fils de pute m'a dit Tu débutes sur MCM alors pose au moins un seize Sans insulte et sans choquer la censure Mais j'ai pas d'idée pour le début Je veux placer du haut débit. Ça, c'est sûr Mais c'est débile je pense qu'à ma puce Quand je fais le bad ça fait mytho Frère et on n'y croit plus trop Même si j'ai les cernes du gars qu'a dormi trop pas Malgré les apparences, j'ai le flow 500 KW Au micro timal, watch ta go car Quand je rappe les mini jupes se portent au dessus des abdos Malgré mon nom sur l'écriteau, mon style est plus underground Qu'un piercing au clito. Hé, Mc quitte ma piste aux étoiles T Kaï Cee gang infâme, c'est nous les amis de ta femme On a pas besoin d'eau, laisse les fils de pute en flamme You might also like Sanglots pour uniques armes Combattre pour que nos larmes Ne soient pas perdues Faudrait que je fasse au moins un track pour rire Que j'arrête mes histoires personelles j'entends trop dire Putain c'est pourri depuis qu'elle est partie Tous ses refrains sont les mêmes Alors je dois écrire des lyrics parce que y'a mon nom dans le métro Alors que j'avance en rétrogradant sur de la nitro Mais qu'est-ce que vous voulez que je vous dise En regardant dans le rétro? Que ma puce est partie Parcequ'ici elle galérait trop? Mais Dodo je lacherai tout aussitôt Si jamais pour t'endormir tu réclamais ton doudou Faisant semblant de bouder en t'accrochant à mon cou ton loup doux Devenu un Mc redouté qu'on signale même aux avions de la Guardia Qu'un élément à problèmes se déchaine comme les cyclones de la Guada Quand je rappe, je vois les Mc's qui crânent Je t'ai laissé juste 30 secondes pour que tu vois les mêmes qui crament Inutile que les pompiers sonnent l'alarme On a pas besoin d'eau, laisse les fils de putes en flamme Sanglots pour uniques armes Combattre pour que nos larmes Ne soient pas perdues Et l'Espoir n'est pas l'Eternel Mon Dieu que la nuit est belle Sur notre plaine perdue Hallelujah InchAllah On a pas besoin d'eau laisse les fils de pute en flamme J'écrirai pas Do Ré Mi Deux même si le spleen s'acharne Je suis arrivé au bout de la gamme mon thème tarde à venir Comme quand tu me croyais venir dire J'arrête la musique parce que je t'aime Ou que t'espérais que je te courerais après dans la ruelle Et si je t'ai laissé faire les valises au réveil C'est juste parce que je suis faignant Je pensais que tu ferais aussi les miennes Putain pourquoi je traine encore sur cette musique J'ai choisi d'être signé en tant qu'artiste alors pourquoi j'ai mal au mic? Et je trouve pas de titre. À quoi bon ce public? À quoi bon être roi quand on est riche et triste? À quoi bon tous ces fans si j'ai mis la rose du petit prince sous un bocal? Il est temps de l'enlever si je veux pas qu'elle fane Ma puce tu peux retenir tes larmes On a pas besoin d'eau laisse les fils de pute en flamme We don't need no water Let the motherfuckers burn1</t>
+          <t>... Trist' Klan dans la place Passe le mic pour un devil Jekill Sans Mister Hyde. The world is mine J'ai la trique jusqu'à la région paca J'improvise vers mic test 1,2 J'rappe vénère et j'ppfr... Et chacun de mes vers se transforme en adieu Nique sa mère, j'écrirai pas Do ré mi deux Même si mon bic m'y pousse et coupe tous mes freestyles Que mon inspiration aille Se faire foutre. J'fais un effort comme en stud' Pour la chaine. Ce fils de pute m'a dit Tu débutes sur MCM alors pose au moins un seize Sans insulte et sans choquer la censure Mais j'ai pas d'idée pour le début Je veux placer du haut débit. Ça, c'est sûr Mais c'est débile je pense qu'à ma puce Quand je fais le bad ça fait mytho Frère et on n'y croit plus trop Même si j'ai les cernes du gars qu'a dormi trop pas Malgré les apparences, j'ai le flow 500 KW Au micro timal, watch ta go car Quand je rappe les mini jupes se portent au dessus des abdos Malgré mon nom sur l'écriteau, mon style est plus underground Qu'un piercing au clito. Hé, Mc quitte ma piste aux étoiles T Kaï Cee gang infâme, c'est nous les amis de ta femme On a pas besoin d'eau, laisse les fils de pute en flamme Sanglots pour uniques armes Combattre pour que nos larmes Ne soient pas perdues Faudrait que je fasse au moins un track pour rire Que j'arrête mes histoires personelles j'entends trop dire Putain c'est pourri depuis qu'elle est partie Tous ses refrains sont les mêmes Alors je dois écrire des lyrics parce que y'a mon nom dans le métro Alors que j'avance en rétrogradant sur de la nitro Mais qu'est-ce que vous voulez que je vous dise En regardant dans le rétro? Que ma puce est partie Parcequ'ici elle galérait trop? Mais Dodo je lacherai tout aussitôt Si jamais pour t'endormir tu réclamais ton doudou Faisant semblant de bouder en t'accrochant à mon cou ton loup doux Devenu un Mc redouté qu'on signale même aux avions de la Guardia Qu'un élément à problèmes se déchaine comme les cyclones de la Guada Quand je rappe, je vois les Mc's qui crânent Je t'ai laissé juste 30 secondes pour que tu vois les mêmes qui crament Inutile que les pompiers sonnent l'alarme On a pas besoin d'eau, laisse les fils de putes en flamme Sanglots pour uniques armes Combattre pour que nos larmes Ne soient pas perdues Et l'Espoir n'est pas l'Eternel Mon Dieu que la nuit est belle Sur notre plaine perdue Hallelujah InchAllah On a pas besoin d'eau laisse les fils de pute en flamme J'écrirai pas Do Ré Mi Deux même si le spleen s'acharne Je suis arrivé au bout de la gamme mon thème tarde à venir Comme quand tu me croyais venir dire J'arrête la musique parce que je t'aime Ou que t'espérais que je te courerais après dans la ruelle Et si je t'ai laissé faire les valises au réveil C'est juste parce que je suis faignant Je pensais que tu ferais aussi les miennes Putain pourquoi je traine encore sur cette musique J'ai choisi d'être signé en tant qu'artiste alors pourquoi j'ai mal au mic? Et je trouve pas de titre. À quoi bon ce public? À quoi bon être roi quand on est riche et triste? À quoi bon tous ces fans si j'ai mis la rose du petit prince sous un bocal? Il est temps de l'enlever si je veux pas qu'elle fane Ma puce tu peux retenir tes larmes On a pas besoin d'eau laisse les fils de pute en flamme We don't need no water Let the motherfuckers burn1</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>J'ai poussé dans des marécages t'sais que pourtant les filles m'embrassent Nique ta race de bégonia, j'ai toujours pas trouvé ma place J'ai des racines qu'ont des kalashs, c'est du suicide si je m'arrache Je fais du rap en décalage, j'ai toujours pas trouvé ma place J'ai poussé comme un Aristophane et puis épousé un artiste femme Ensemble on a fait un bébé-lune repoussé par les aristocrates. Cinquième as en tête d'affiche, comme Kadaz, on m'traite d'artiste Quand y'a pas d'ronds a la maison on m'dit Pourquoi ton art est triste ? A fleur de peau En peau de fleur Urticant quand sa peau j'effleure Je meurs si je m'arrache J'ai toujours pas trouvé ma place A fleur de peau En peau de fleur Urticant quand sa peau j'effleure On rêvait d's'évader des vases J'ai toujours pas trouvé ma place Sortie des orties de produits toxiques sur l'visage Les engrais chimiques nous efface j'ai toujours pas trouvé ma place Mauvaise graine depuis le départ on pousse dans la haine qui vous dépasse Fleur de lys ou cannabis, j'ai toujours pas trouvé ma place Arrosé par des marées de pisse, ils s'sont marrés lors de mon tour de piste, parce c'que j'suis sorti de travers, un peu comme la tour de Pise C'est que ta copine avale j'ai mis mon pistil sous son nez, depuis j'suis dans la ville en cavale et t'es armé d'un pistolet. Caralho ! J'sors du terreau des racailles, prends racine dans ta copine, dans son feuillage d'intimité Ma valeur préférée chez l'homme c'est l'humilité, et chez la femme l'humidité Les fleurs qui fanent veulent m'imiter ! You might also like A fleur de peau En peau de fleur Urticant quand sa peau j'effleure Je meurs si je m'arraches J'ai toujours pas trouvé ma place A fleur de peau En peau de fleur Urticant quand sa peau j'effleure On rêvait d's'évader des vases J'ai toujours pas trouvé ma place Mauvaise graine depuis le départ, les mots qui germent du coup sont des bases toxiques caustiques au stylo, j'ai toujours pas trouvé ma place Mauvaise graine depuis le départ, mon herbe a chat sentait le guépard, fleur sauvage dans le bocage, j'ai toujours pas trouvé ma place J'ouvre les fleurs nyctinastiques, p'tet que j'ai perdu les pédales J'effeuille la marguerite, la dénude de ses pétales J'oublie ma peine et mes problèmes, pas la peine d'faire des poèmes, quand j'embrasse son bouton d'or, j'ai les moustaches pleines de pollen J'ai vu la couleur d'sa corolle quand elle s'est penchée en avant Polliniser c'est notre rôle et rester tout nu dans le vent Y'a comme un parfum d'nénuphar, on est nus car mon but inné c'est de lui lécher son nectar, et toute la nuit la butiner A fleur de peau En peau de fleur Urticant quand sa peau j'effleure Je meurs si je m'arraches J'ai toujours pas trouvé ma place A fleur de peau En peau de fleur Urticant quand sa peau j'effleure On rêvait d's'évader des vases J'ai toujours pas trouvé ma place Le Troisième lab, Nan et , n'a toujours pas trouvé sa place Camélia, myosotis, n'a toujours pas trouvé sa place Dah Conectah, mec de Stras', n'a toujours pas trouvé sa place Au concert celui qu'est en r'tard, n'a toujours pas trouvé sa place L'orchidée rouge et adonis, n'a toujours pas trouvé sa place Petit Milo et fleur d'iris, n'a toujours pas trouvé sa place Vincenzo, Loko, n'a toujours pas trouvé sa place Et Dooz K.O. n'a toujours pas trouvé sa place Hostile la mauvaise graine pousse sur des barils La vie est ainsi faite Hostile la mauvaise graine pousse sur des barils</t>
+          <t>J'ai poussé dans des marécages t'sais que pourtant les filles m'embrassent Nique ta race de bégonia, j'ai toujours pas trouvé ma place J'ai des racines qu'ont des kalashs, c'est du suicide si je m'arrache Je fais du rap en décalage, j'ai toujours pas trouvé ma place J'ai poussé comme un Aristophane et puis épousé un artiste femme Ensemble on a fait un bébé-lune repoussé par les aristocrates. Cinquième as en tête d'affiche, comme Kadaz, on m'traite d'artiste Quand y'a pas d'ronds a la maison on m'dit Pourquoi ton art est triste ? A fleur de peau En peau de fleur Urticant quand sa peau j'effleure Je meurs si je m'arrache J'ai toujours pas trouvé ma place A fleur de peau En peau de fleur Urticant quand sa peau j'effleure On rêvait d's'évader des vases J'ai toujours pas trouvé ma place Sortie des orties de produits toxiques sur l'visage Les engrais chimiques nous efface j'ai toujours pas trouvé ma place Mauvaise graine depuis le départ on pousse dans la haine qui vous dépasse Fleur de lys ou cannabis, j'ai toujours pas trouvé ma place Arrosé par des marées de pisse, ils s'sont marrés lors de mon tour de piste, parce c'que j'suis sorti de travers, un peu comme la tour de Pise C'est que ta copine avale j'ai mis mon pistil sous son nez, depuis j'suis dans la ville en cavale et t'es armé d'un pistolet. Caralho ! J'sors du terreau des racailles, prends racine dans ta copine, dans son feuillage d'intimité Ma valeur préférée chez l'homme c'est l'humilité, et chez la femme l'humidité Les fleurs qui fanent veulent m'imiter ! A fleur de peau En peau de fleur Urticant quand sa peau j'effleure Je meurs si je m'arraches J'ai toujours pas trouvé ma place A fleur de peau En peau de fleur Urticant quand sa peau j'effleure On rêvait d's'évader des vases J'ai toujours pas trouvé ma place Mauvaise graine depuis le départ, les mots qui germent du coup sont des bases toxiques caustiques au stylo, j'ai toujours pas trouvé ma place Mauvaise graine depuis le départ, mon herbe a chat sentait le guépard, fleur sauvage dans le bocage, j'ai toujours pas trouvé ma place J'ouvre les fleurs nyctinastiques, p'tet que j'ai perdu les pédales J'effeuille la marguerite, la dénude de ses pétales J'oublie ma peine et mes problèmes, pas la peine d'faire des poèmes, quand j'embrasse son bouton d'or, j'ai les moustaches pleines de pollen J'ai vu la couleur d'sa corolle quand elle s'est penchée en avant Polliniser c'est notre rôle et rester tout nu dans le vent Y'a comme un parfum d'nénuphar, on est nus car mon but inné c'est de lui lécher son nectar, et toute la nuit la butiner A fleur de peau En peau de fleur Urticant quand sa peau j'effleure Je meurs si je m'arraches J'ai toujours pas trouvé ma place A fleur de peau En peau de fleur Urticant quand sa peau j'effleure On rêvait d's'évader des vases J'ai toujours pas trouvé ma place Le Troisième lab, Nan et , n'a toujours pas trouvé sa place Camélia, myosotis, n'a toujours pas trouvé sa place Dah Conectah, mec de Stras', n'a toujours pas trouvé sa place Au concert celui qu'est en r'tard, n'a toujours pas trouvé sa place L'orchidée rouge et adonis, n'a toujours pas trouvé sa place Petit Milo et fleur d'iris, n'a toujours pas trouvé sa place Vincenzo, Loko, n'a toujours pas trouvé sa place Et Dooz K.O. n'a toujours pas trouvé sa place Hostile la mauvaise graine pousse sur des barils La vie est ainsi faite Hostile la mauvaise graine pousse sur des barils</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MC, c'que j'dessine en décibels C'est ma jolie mélodie, elle est si belle Quelque part j'me sens coupable quand elle part Ça m'rend dingue de tout-par, j'suis prêt à tout pour qu'elle me parle J'écris des millions d'textes qui lui font p't-êt' peine à voir La réveille à 4 du mat', du sommeil plein la voix Mais c'est juste pour l'entendre D'façon quand elle est pas là j'passe mon temps à l'attendre Sans elle, j'suis qu'un a capella, un incapable Jaloux et violent Mon amour c'est toute ma peine comme une bouteille au volant J'suis tellement accro à elle qu'si on m'l'enlève J'en sortirai pas vivant x2 C'que j'dessine en décibels Subtil, trop fragile, une esquisse à l'aquarelle Une illusion, le point d'chute de l'arc-en-ciel Le point d'chute de l'arc-en-ciel Elle, chienne, putain d'mélodie Même si parfois j'l'enchaîne y a qu'de l'amour dans sa voix On a fui la soledad quand mon père était soldat Avec elle j'écoutais l'Walkman sous les draps Malgré le mal que j'lui ai fait c'est la seule qui m'absoudra Quand tout son entourage dira Çui-là c'est un connard... sournois J'ai beau élever la voix, j'adore quand elle est sur moi En équilibre, moi en elle, quand elle vibre elle m'emmène Au point d'chute de l'arc-en-ciel En plus j'me fais du mal quand j'sais pas où elle traîne J'suis malheureux tellement que j'l'aime J'suis malheureux tellement que j'l'aime Et pourtant, tous les mecs désirent la même... 'fin j'crois You might also like Biréli, Kawa, XXX Guitare, micro et cithare Whisky-Coca et deux-trois accessoires J'rentrerai tard ce soir</t>
+          <t>MC, c'que j'dessine en décibels C'est ma jolie mélodie, elle est si belle Quelque part j'me sens coupable quand elle part Ça m'rend dingue de tout-par, j'suis prêt à tout pour qu'elle me parle J'écris des millions d'textes qui lui font p't-êt' peine à voir La réveille à 4 du mat', du sommeil plein la voix Mais c'est juste pour l'entendre D'façon quand elle est pas là j'passe mon temps à l'attendre Sans elle, j'suis qu'un a capella, un incapable Jaloux et violent Mon amour c'est toute ma peine comme une bouteille au volant J'suis tellement accro à elle qu'si on m'l'enlève J'en sortirai pas vivant x2 C'que j'dessine en décibels Subtil, trop fragile, une esquisse à l'aquarelle Une illusion, le point d'chute de l'arc-en-ciel Le point d'chute de l'arc-en-ciel Elle, chienne, putain d'mélodie Même si parfois j'l'enchaîne y a qu'de l'amour dans sa voix On a fui la soledad quand mon père était soldat Avec elle j'écoutais l'Walkman sous les draps Malgré le mal que j'lui ai fait c'est la seule qui m'absoudra Quand tout son entourage dira Çui-là c'est un connard... sournois J'ai beau élever la voix, j'adore quand elle est sur moi En équilibre, moi en elle, quand elle vibre elle m'emmène Au point d'chute de l'arc-en-ciel En plus j'me fais du mal quand j'sais pas où elle traîne J'suis malheureux tellement que j'l'aime J'suis malheureux tellement que j'l'aime Et pourtant, tous les mecs désirent la même... 'fin j'crois Biréli, Kawa, XXX Guitare, micro et cithare Whisky-Coca et deux-trois accessoires J'rentrerai tard ce soir</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>La prime pour la capture de cet homme est de 5000 dollars, un certain Judas a trouvé que 30 dollars c'était tout à fait suffisant Il y avait pas de dollars à cette époque la, mais des fils de pute ça il y en avait... Hommage aux sombres héros, anonymes sous le sombrero Victimes de la folie des hommes qu'on nomme dommages collatéraux Dommage le village de Peaux-Rouges lance des nuages de signaux J'dis familles qu'ils terrorisent Ils disent dommages collatéraux Duel au soleil, mes boots font des clic-tics Gros plan sur mon seul il comme dans un western spaghetti Je terrorise les peón lorsque j'arrive au saloon Sers moi un litre d'alcool Quand j'avance écarte la foule On m'dit qu'ici un homme quitte la réserve s'évada Va bientôt giser au sol de la Sierra Nevada Accoudé au comptoir, j'raconte l'histoire de la tribu qu'on chassa J'entends venir tes pas Hé l'ami, les apparences on s'en bat Car la nuit tout les shits sont gras Et les anges déchus sont là Crache ton truc à chiquer, c'est moi que tu trouves crado ? Dépêche toi pour m'affronter Chico, j'descends toujours les despe- -rados, avant mon p'tit déjeuner T'sens déjà les gouttes s'écouler sur tes tempes Pendant que prend tes mesures, le croque-mort qui referma le couvercle Au dessus-de ta tête les vautours tournent déjà en cercle You might also like x2 C'est l'histoire d'un peuple en paix sur des terres où étaient plantés Des tipis et moi tout p'tit je jouais avec des peintures teintées C'est le Wild wild West qui nous a élevé comme une mère solitaire J'ai retiré ma veste dans un nuage de poussière Mais j'ai beau la tapoter, j'enlève pas les tâches de ma vie J'ai grandi dans un saloon de bas-étage Où j'prenais pour une auberge, la maison close d'en face Répétant à la taulière, que j'suis en manque d'amour Alors ressert moi une tass' Même si j'ai toujours sur les traces Des chasseur de gars lâches comme Lee Van Cleef Pourtant ça m'fait plus rien de voir ma face sur les affiches Recherché mort ou vif cause 'I shot the sheriff' Pour emporter Brigitte sur mon cheval blanc A l'ouest rien de nouveau Les ballots de pailles, tournoient toujours avec le vent Et je traverse toujours l'ouest sauvage, avec le bandana du clan Hé, sers-moi encore un whisky Qu'est-ce que j'te raconte... Mon histoire est tellement triste, que plus rien se passe dans ma tête Depuis qu'on nous a volé les terrains de chasse de nos ancêtres Près des lacs dArizona où la cavalerie arriva Un soir d'orage sous les nuages, ces armes à feu, ces soldats Impérialistes et si fallait pas que ça suffise La variole, la syphilis, pas de pause pour les damnés Les Papous détalaient, les skwals, les mères violées Mais il en venait toujours plus, sous leur bannière étoilée Ils assassinaient nos bisons, on brûlait leurs maisons Personne n'était heureux de l'escalade des exécutions Expédition punitive fleurissait dans les deux camps Mais quand tu tiens la hache de guerre, c'est que la colombe a foutu le camp Tellement de mort à assumer, qu'on pouvait plus faire la paix Pour un des leurs assassiné, 100 des nôtres furent massacrés Dans notre campement incandescent, le soleil noir descendant Caché derrière les nuages, nous regardait en pleurant Hé, barman je vais te laisser Le soleil va bientôt se lever, c'est l'heure de mon duel On s'reverra en enfer</t>
+          <t>La prime pour la capture de cet homme est de 5000 dollars, un certain Judas a trouvé que 30 dollars c'était tout à fait suffisant Il y avait pas de dollars à cette époque la, mais des fils de pute ça il y en avait... Hommage aux sombres héros, anonymes sous le sombrero Victimes de la folie des hommes qu'on nomme dommages collatéraux Dommage le village de Peaux-Rouges lance des nuages de signaux J'dis familles qu'ils terrorisent Ils disent dommages collatéraux Duel au soleil, mes boots font des clic-tics Gros plan sur mon seul il comme dans un western spaghetti Je terrorise les peón lorsque j'arrive au saloon Sers moi un litre d'alcool Quand j'avance écarte la foule On m'dit qu'ici un homme quitte la réserve s'évada Va bientôt giser au sol de la Sierra Nevada Accoudé au comptoir, j'raconte l'histoire de la tribu qu'on chassa J'entends venir tes pas Hé l'ami, les apparences on s'en bat Car la nuit tout les shits sont gras Et les anges déchus sont là Crache ton truc à chiquer, c'est moi que tu trouves crado ? Dépêche toi pour m'affronter Chico, j'descends toujours les despe- -rados, avant mon p'tit déjeuner T'sens déjà les gouttes s'écouler sur tes tempes Pendant que prend tes mesures, le croque-mort qui referma le couvercle Au dessus-de ta tête les vautours tournent déjà en cercle x2 C'est l'histoire d'un peuple en paix sur des terres où étaient plantés Des tipis et moi tout p'tit je jouais avec des peintures teintées C'est le Wild wild West qui nous a élevé comme une mère solitaire J'ai retiré ma veste dans un nuage de poussière Mais j'ai beau la tapoter, j'enlève pas les tâches de ma vie J'ai grandi dans un saloon de bas-étage Où j'prenais pour une auberge, la maison close d'en face Répétant à la taulière, que j'suis en manque d'amour Alors ressert moi une tass' Même si j'ai toujours sur les traces Des chasseur de gars lâches comme Lee Van Cleef Pourtant ça m'fait plus rien de voir ma face sur les affiches Recherché mort ou vif cause 'I shot the sheriff' Pour emporter Brigitte sur mon cheval blanc A l'ouest rien de nouveau Les ballots de pailles, tournoient toujours avec le vent Et je traverse toujours l'ouest sauvage, avec le bandana du clan Hé, sers-moi encore un whisky Qu'est-ce que j'te raconte... Mon histoire est tellement triste, que plus rien se passe dans ma tête Depuis qu'on nous a volé les terrains de chasse de nos ancêtres Près des lacs dArizona où la cavalerie arriva Un soir d'orage sous les nuages, ces armes à feu, ces soldats Impérialistes et si fallait pas que ça suffise La variole, la syphilis, pas de pause pour les damnés Les Papous détalaient, les skwals, les mères violées Mais il en venait toujours plus, sous leur bannière étoilée Ils assassinaient nos bisons, on brûlait leurs maisons Personne n'était heureux de l'escalade des exécutions Expédition punitive fleurissait dans les deux camps Mais quand tu tiens la hache de guerre, c'est que la colombe a foutu le camp Tellement de mort à assumer, qu'on pouvait plus faire la paix Pour un des leurs assassiné, 100 des nôtres furent massacrés Dans notre campement incandescent, le soleil noir descendant Caché derrière les nuages, nous regardait en pleurant Hé, barman je vais te laisser Le soleil va bientôt se lever, c'est l'heure de mon duel On s'reverra en enfer</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>On est juste deux gros caves dans une bagnole quoi Hé, hé tu dors ? Je te fais un p'tit freestyle, écoute ça Yeah, cette pluie qui pleure dans l'automne qui perd ses faunes C'est Démeter qui se meurt de l'exil de Perséphone En somme, nous sommes des fleurs perce-neige, ultime arme de la détresse Des gouttes qui coulent comme les larmes de la déesse Car nos valeurs n'sont plus aux francs mais aux grands coeurs qui se pourfendent Puisque la loi n'est qu'une prostituée qu'est vendue aux plus offrants J'me suis senti touché mais eux sont repartis couchés j'frappe Sans remords et sans haine frère comme l'apprenti boucher Yeah yeah yeah Dooz Kawa sur les mi-c, reste la weed, opération perce-neige Yeah, moi c'est toute l'année ma fête J'ai noyé tant d'passions dans le sang des glaçons J'peux rendre un violon violent quand j'm'en sers en strangulation J'validerai pas l'audit des meilleurs rappeurs français Puisque j'ai cassé leurs rimes avec un marteau anti-cliché Génération maudite comme les Atrides du désespoir qu'on hérite Je cherche des pommes en or dans le jardin des Hespérides D'la voûte céleste, j'ai fait le saut d'l'ange Avec des chevilles lestées j'ai fait le geste mais le funeste est resté Comme le fantôme d'ma p'tite voisine qui s'était défenestrée C'était le premier trône du monde mon HLM détesté Où j'ai baisé des tonnes de blondes remplies de MST J'ai bâti un domaine en rêvant Evry avec du sable Des rabz, des mahoraises, frère des serbes avec des sabres On m'a dit putain qu'c'est nul t'es cé-coin dans ta bulle Mais ça m'a fait l'effet inverse d'être pulvérisé vers la Lune Sur l'autoroute j'posais des cônes Quand sur la route passaient des connes Qui m'dégradaient des yeux j'porte en icône Un gilet jaune d'la DDE C'est pas du rap mes palabres c'est du vécu Quoi ? T'as cru la vie c'est un film de cul ? J'passe pas sur l'câble ! La vérité j'suis pas vendable Chez moi c'est inné, mais pas branlable J'ai kidnappé ton hip hop et pendu à un grand arbre You might also likeSous un soleil levant et maintenant Est-ce que ton bling bling te sauvera du bandit ? Ou est l'argent que t'as brandi ? J'en ai pas. Pourquoi tu mens ? j'suis dans la branche Hip hop depuis qu'suis qu'une brindille Mais le petit poussin grandit même entouré de bâtiments Malgré les chaines que l'on porte t'es concurrencé par des glands Qui s'font bouffer par des porcs nous pour devenir des grands, il fallait défoncer des portes Que les miss sortent ! J'suis pas artiste mais galaxiste comme mister Spok J'rap pour les blancs les transparents, les bronzés et les chintoks Anti-communautariste comme le rap français de l'époque Les MCs j'vous promet bien ils s'comportent comme des comédiens Ils sont la comédia dell'Arte du football italien Mon rap est un acte pathologique Pour ça qu'on jacte pas trop logique Et si ta copine s'agite c'est juste qu'j'ai ma main sous sa jupe j'essuie sa cyprine J'suis, au fond du bar et traine tout seul J'ai pas envie qu'on m'parle, mets du bon rap et ferme ta gueule Mauvaise nouvelle frère j'suis comme un pince-oreille Ou comme DSK à l'hôtel j'fais flipper tout l'personnel qui perd l'sommeil Dooz Kawa underground comme une mine anti-personnel Car j'ai les beats explosifs pour trouer vos paires d'semelles J'suis froid comme un Playmobil, sans fil comme un forfait mobile J'ai pas d'cordon ombilical j'suis venu au monde sans nombril Ils pensaient qu'mon rap serait qu'une phase Que j'jacterai qu'une phrase J'pourrais être un flic, un leader d'parti politique Un de ces grands rappeurs de France qui vend son cul dans la musique Mais... Cette pluie qui pleure dans l'automne qui perd ses faunes C'est Démeter qui se meurt de l'exil de Perséphone En somme, nous sommes des fleurs perce-neige, ultime arme de la détresse Des gouttes qui coulent comme les larmes de la déesse x3 J'me suis senti touché mais eux sont repartis couchés j'frappe Sans remords et sans haine frère comme l'apprenti boucher</t>
+          <t>On est juste deux gros caves dans une bagnole quoi Hé, hé tu dors ? Je te fais un p'tit freestyle, écoute ça Yeah, cette pluie qui pleure dans l'automne qui perd ses faunes C'est Démeter qui se meurt de l'exil de Perséphone En somme, nous sommes des fleurs perce-neige, ultime arme de la détresse Des gouttes qui coulent comme les larmes de la déesse Car nos valeurs n'sont plus aux francs mais aux grands coeurs qui se pourfendent Puisque la loi n'est qu'une prostituée qu'est vendue aux plus offrants J'me suis senti touché mais eux sont repartis couchés j'frappe Sans remords et sans haine frère comme l'apprenti boucher Yeah yeah yeah Dooz Kawa sur les mi-c, reste la weed, opération perce-neige Yeah, moi c'est toute l'année ma fête J'ai noyé tant d'passions dans le sang des glaçons J'peux rendre un violon violent quand j'm'en sers en strangulation J'validerai pas l'audit des meilleurs rappeurs français Puisque j'ai cassé leurs rimes avec un marteau anti-cliché Génération maudite comme les Atrides du désespoir qu'on hérite Je cherche des pommes en or dans le jardin des Hespérides D'la voûte céleste, j'ai fait le saut d'l'ange Avec des chevilles lestées j'ai fait le geste mais le funeste est resté Comme le fantôme d'ma p'tite voisine qui s'était défenestrée C'était le premier trône du monde mon HLM détesté Où j'ai baisé des tonnes de blondes remplies de MST J'ai bâti un domaine en rêvant Evry avec du sable Des rabz, des mahoraises, frère des serbes avec des sabres On m'a dit putain qu'c'est nul t'es cé-coin dans ta bulle Mais ça m'a fait l'effet inverse d'être pulvérisé vers la Lune Sur l'autoroute j'posais des cônes Quand sur la route passaient des connes Qui m'dégradaient des yeux j'porte en icône Un gilet jaune d'la DDE C'est pas du rap mes palabres c'est du vécu Quoi ? T'as cru la vie c'est un film de cul ? J'passe pas sur l'câble ! La vérité j'suis pas vendable Chez moi c'est inné, mais pas branlable J'ai kidnappé ton hip hop et pendu à un grand arbre Sous un soleil levant et maintenant Est-ce que ton bling bling te sauvera du bandit ? Ou est l'argent que t'as brandi ? J'en ai pas. Pourquoi tu mens ? j'suis dans la branche Hip hop depuis qu'suis qu'une brindille Mais le petit poussin grandit même entouré de bâtiments Malgré les chaines que l'on porte t'es concurrencé par des glands Qui s'font bouffer par des porcs nous pour devenir des grands, il fallait défoncer des portes Que les miss sortent ! J'suis pas artiste mais galaxiste comme mister Spok J'rap pour les blancs les transparents, les bronzés et les chintoks Anti-communautariste comme le rap français de l'époque Les MCs j'vous promet bien ils s'comportent comme des comédiens Ils sont la comédia dell'Arte du football italien Mon rap est un acte pathologique Pour ça qu'on jacte pas trop logique Et si ta copine s'agite c'est juste qu'j'ai ma main sous sa jupe j'essuie sa cyprine J'suis, au fond du bar et traine tout seul J'ai pas envie qu'on m'parle, mets du bon rap et ferme ta gueule Mauvaise nouvelle frère j'suis comme un pince-oreille Ou comme DSK à l'hôtel j'fais flipper tout l'personnel qui perd l'sommeil Dooz Kawa underground comme une mine anti-personnel Car j'ai les beats explosifs pour trouer vos paires d'semelles J'suis froid comme un Playmobil, sans fil comme un forfait mobile J'ai pas d'cordon ombilical j'suis venu au monde sans nombril Ils pensaient qu'mon rap serait qu'une phase Que j'jacterai qu'une phrase J'pourrais être un flic, un leader d'parti politique Un de ces grands rappeurs de France qui vend son cul dans la musique Mais... Cette pluie qui pleure dans l'automne qui perd ses faunes C'est Démeter qui se meurt de l'exil de Perséphone En somme, nous sommes des fleurs perce-neige, ultime arme de la détresse Des gouttes qui coulent comme les larmes de la déesse x3 J'me suis senti touché mais eux sont repartis couchés j'frappe Sans remords et sans haine frère comme l'apprenti boucher</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Jai lamour dans ma lunette et un ange à chaque épaule Si jappuie sur la gâchette celui de gauche Prétend qujperdrai lsommeil Celui de droite me rappelle des blessures Souvenirs qui arrivent comme un ordre à mon oreille Japerçois un nuage rouge et sa tête bascule en arrière Dans la scène plus rien ne bouge sauf une petite larme sur ma joue Est-ce triste ? Alors pleure-moi une rivière Lesprit plus miné quune rizière Fragment des restes dhier, ma tristesse reste en touriste Pendant qules flics se nourrissent jminfiltre aux soins intensifs Sur une table un corps nu samende à gros risque Booba à lautopsie lamour est mort demande à Ox. Vous laissez tous des traces de sang sur un sentier enneigé Personne na remis la rançon quand lamour était en danger Jai mal au cur, je navigue seul sur les Îles Saintes Apprends-moi à aimer si cest si simple Faut trois bouteilles pour calmer moi Pour plus avoir aucun émoi quand je tombe dans un trou dmémoire Malgré le cambriolage les éclats drire sont encore là Dans mes brownies des éclats de chocolat You might also likePersonne nest mort sauf la petite flamme qui vacillait en moi SDF dans lâme à lintérieur je meurs de froid Croire aux autres, j'ai des doutes et je sais bien à quoi mattendre Pourtant jy remets une goutte despoir, mais à chaque fois elle tombe</t>
+          <t>Jai lamour dans ma lunette et un ange à chaque épaule Si jappuie sur la gâchette celui de gauche Prétend qujperdrai lsommeil Celui de droite me rappelle des blessures Souvenirs qui arrivent comme un ordre à mon oreille Japerçois un nuage rouge et sa tête bascule en arrière Dans la scène plus rien ne bouge sauf une petite larme sur ma joue Est-ce triste ? Alors pleure-moi une rivière Lesprit plus miné quune rizière Fragment des restes dhier, ma tristesse reste en touriste Pendant qules flics se nourrissent jminfiltre aux soins intensifs Sur une table un corps nu samende à gros risque Booba à lautopsie lamour est mort demande à Ox. Vous laissez tous des traces de sang sur un sentier enneigé Personne na remis la rançon quand lamour était en danger Jai mal au cur, je navigue seul sur les Îles Saintes Apprends-moi à aimer si cest si simple Faut trois bouteilles pour calmer moi Pour plus avoir aucun émoi quand je tombe dans un trou dmémoire Malgré le cambriolage les éclats drire sont encore là Dans mes brownies des éclats de chocolat Personne nest mort sauf la petite flamme qui vacillait en moi SDF dans lâme à lintérieur je meurs de froid Croire aux autres, j'ai des doutes et je sais bien à quoi mattendre Pourtant jy remets une goutte despoir, mais à chaque fois elle tombe</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>J'suis l'peintre assis d'vant sa toile, qui n'a jamais peint ce qu'il voit Le voile s'envole et puis me dévoile ce soir mes sombres étoiles C'était l'hiver quand nous fument proches de notre amour posthume L'écume blanche comme s'il neigeait des plumes... Elle avait la beauté de l'ange déchu de son piédestal Des atrophies des deux membres des rectrices dorsales Que parfois Dieu semble ôter, sanglotait, elle qui m'parlait plus M'dis d'aller cueillir des plumes... Il fait si froid sur Neptune moi craignant tant qu'elle s'enrhume J'ai construit un funiculaire ridicule l'air de rien J'détachais les enclumes m'envolais à travers la brume Pour aller lui cueillir des plumes... Mais j'avais tellement le vertige, j'm'encourageais l'air naïf Que de l'autre côté de la dune s'élevaient des rangées de bulles Quand bien même je tombais je pourrais m'accrocher à la lune Pour aller lui cueillir des plumes... Attaqué par des harpies, qui pourchassent les impies A croire qu'ma présence les importune, elles hurlent D'oublier mon aimée qui n'est plus qu'un ange damné Et me voler dans les plumes... Jatterris sur la surface d'une prairie de nuages Des jardins suspendus par aucune ficelle Les anges gardiens partis des portes du paradis Alors j'en escalade une... You might also like--- Je m'sens pris de court je saute et je cours Je vois dans la cour jouer deux amours Attrape une brune lui arrache les plumes Les enfouis dans mon sac et m'enfuis vers le parc Les éclairs qui fusent sont des tasers divins J'entends derrière moi il est là, haut les mains ! Appelle Gabriel, Pierre et Séraphin, il a tourné au coin ! Sur de voir, impénétrable, viens on va le péta La misère mon pote et la miséricorde Que les anges oublient que le diable m'emporte Celui-là jamais là quand on a besoin de lui Y a que Cupidon qu'a un arc et des flèches Les autres ont des haches et puis des arbalètes Je le vois, il est là, dans l'arbre, arrête ! Un ange passe du créateur - créature La branche casse et l'on me capture à terre Pourquoi tu voles à nos mômes les duvets de leur ailes ? J'explique en deux mots pour une demoiselle Et tu crois qu'c'est pour ça qu'elle t'aime ? Les humains d'où tu viens sont de vrais phénomènes Vous êtes téléguidés que par des phéromones Me donne un oreiller qu'est rempli de plumages Et me dit guérie est la rancur du dommage Que mon amour est dead et propose qu'on se mette une race honorable Mais si ça peut te rasséréner Viens dans les bars on va boire des 3 Monts Comme au festin de Bal' embrassaient les démons Et j'allais payer les Whiskys Chivas au patron borgne qui s'était assis là A côté du ventilateur En un clin dil de ce Cyclope J'comprends qu'dans lil de ce cyclone Il compte déverser ma fortune Et c'est depuis ces temps de ces anges sans rancune Que sur Terre il neige des plumes</t>
+          <t>J'suis l'peintre assis d'vant sa toile, qui n'a jamais peint ce qu'il voit Le voile s'envole et puis me dévoile ce soir mes sombres étoiles C'était l'hiver quand nous fument proches de notre amour posthume L'écume blanche comme s'il neigeait des plumes... Elle avait la beauté de l'ange déchu de son piédestal Des atrophies des deux membres des rectrices dorsales Que parfois Dieu semble ôter, sanglotait, elle qui m'parlait plus M'dis d'aller cueillir des plumes... Il fait si froid sur Neptune moi craignant tant qu'elle s'enrhume J'ai construit un funiculaire ridicule l'air de rien J'détachais les enclumes m'envolais à travers la brume Pour aller lui cueillir des plumes... Mais j'avais tellement le vertige, j'm'encourageais l'air naïf Que de l'autre côté de la dune s'élevaient des rangées de bulles Quand bien même je tombais je pourrais m'accrocher à la lune Pour aller lui cueillir des plumes... Attaqué par des harpies, qui pourchassent les impies A croire qu'ma présence les importune, elles hurlent D'oublier mon aimée qui n'est plus qu'un ange damné Et me voler dans les plumes... Jatterris sur la surface d'une prairie de nuages Des jardins suspendus par aucune ficelle Les anges gardiens partis des portes du paradis Alors j'en escalade une... --- Je m'sens pris de court je saute et je cours Je vois dans la cour jouer deux amours Attrape une brune lui arrache les plumes Les enfouis dans mon sac et m'enfuis vers le parc Les éclairs qui fusent sont des tasers divins J'entends derrière moi il est là, haut les mains ! Appelle Gabriel, Pierre et Séraphin, il a tourné au coin ! Sur de voir, impénétrable, viens on va le péta La misère mon pote et la miséricorde Que les anges oublient que le diable m'emporte Celui-là jamais là quand on a besoin de lui Y a que Cupidon qu'a un arc et des flèches Les autres ont des haches et puis des arbalètes Je le vois, il est là, dans l'arbre, arrête ! Un ange passe du créateur - créature La branche casse et l'on me capture à terre Pourquoi tu voles à nos mômes les duvets de leur ailes ? J'explique en deux mots pour une demoiselle Et tu crois qu'c'est pour ça qu'elle t'aime ? Les humains d'où tu viens sont de vrais phénomènes Vous êtes téléguidés que par des phéromones Me donne un oreiller qu'est rempli de plumages Et me dit guérie est la rancur du dommage Que mon amour est dead et propose qu'on se mette une race honorable Mais si ça peut te rasséréner Viens dans les bars on va boire des 3 Monts Comme au festin de Bal' embrassaient les démons Et j'allais payer les Whiskys Chivas au patron borgne qui s'était assis là A côté du ventilateur En un clin dil de ce Cyclope J'comprends qu'dans lil de ce cyclone Il compte déverser ma fortune Et c'est depuis ces temps de ces anges sans rancune Que sur Terre il neige des plumes</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ma seule flèche suit la trajectoire d'un jet d'eau Harmonisant ma vie comme un solfège J'ai le dodo de la fatigue et pour armure le dos au mur J'atteindrai jamais l'âge mûr Un futur sans avenir Alors elle fait son sac à dos et je la regarde partir Dorénavant je croiserai sa silhouette dans l'ombre chinoise d'un paravent Résignés, on n'a toujours pas signé J'ai sacrifié ma vie, résisté Quand la mélodie fait saigner ce qu'en nous on a de plus beau Voilà ma maladie honteuse et aussi mon placebo Je te ferai jamais d'excuses alors je te demande par do Je te demande par do ré mi fa sol Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Fa sol la si do Je te demande par do ré mi fa sol Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Do You might also like J'suis à mi-parcours comme mis en évidence Comme le diable qui danse au clair de la demi-lune Une planète salutaire opposée à la Terre Et ses ensembles fragmentaires Ses foules de solitaires Parmi les stéréotypes j'suis un Perrault atypique déféré au monde onirique S'il fallait le silence moi j'balance des lyrics Pas cile-fa d'ouvrir mon coeur sauf sur un beat mathématique J'suis adoré mifa Tu notes si t'as suivi ma thématique La prochaine note prend son envol pour le sol Missile sol-solaire ! Regarde l'étoile filante planer dans l'Ososphère Sans jamais quitter le sol, ailes brisées Détonation de flash-ball Les agents Smith sont là Lavés de tout péché Protégés par la loi La matrice est attaquée Et tu sais que ça m'attriste de plus t'avoir à mes côtés Écouter le silence en stéréo Do ré mi fa sol la si do Je te demande par do Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Fa sol la si do Je te demande par do, ré mi fa sol Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Do Ici, il existe toujours un espoir Ici, pour quitter la nuit j'enlevais mes lunettes noires Et si les sentiments se bousculent du crépuscule à l'aurore Et si le chant du cygne remplacent les Chants de Maldoror Tout repartirait à zéro Do si la sol fa mi ré do Observe tes rêves où on discerne si mal l'amour de la haine Si je t'offre un solfège c'est parce que j'ai jamais su dire... Je t'aime Si je savais les belles phrases j'en emploierais tous les termes La haine l'emporte cette fois Juste quand l'amour frappe à la porte sept fois Avec des notes de mélodie Le ciel gris me l'a dit Peu importe que les nuages fassent comme un voile Est-ce que toi, depuis le paradis, tu vois les mêmes étoiles ? Chhhhht Ré mi fa sol Redorer l'étoile du sol Fa sol la si OK, just play when you're ready Étoile du sol Ange déchu sans auréole 67 bourg-stras Dooz Kawa C'est pour mes gosses C'est bon on peut enregistrer frère, hein S'il nous reste du temps S'il nous reste du temps1</t>
+          <t>Ma seule flèche suit la trajectoire d'un jet d'eau Harmonisant ma vie comme un solfège J'ai le dodo de la fatigue et pour armure le dos au mur J'atteindrai jamais l'âge mûr Un futur sans avenir Alors elle fait son sac à dos et je la regarde partir Dorénavant je croiserai sa silhouette dans l'ombre chinoise d'un paravent Résignés, on n'a toujours pas signé J'ai sacrifié ma vie, résisté Quand la mélodie fait saigner ce qu'en nous on a de plus beau Voilà ma maladie honteuse et aussi mon placebo Je te ferai jamais d'excuses alors je te demande par do Je te demande par do ré mi fa sol Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Fa sol la si do Je te demande par do ré mi fa sol Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Do J'suis à mi-parcours comme mis en évidence Comme le diable qui danse au clair de la demi-lune Une planète salutaire opposée à la Terre Et ses ensembles fragmentaires Ses foules de solitaires Parmi les stéréotypes j'suis un Perrault atypique déféré au monde onirique S'il fallait le silence moi j'balance des lyrics Pas cile-fa d'ouvrir mon coeur sauf sur un beat mathématique J'suis adoré mifa Tu notes si t'as suivi ma thématique La prochaine note prend son envol pour le sol Missile sol-solaire ! Regarde l'étoile filante planer dans l'Ososphère Sans jamais quitter le sol, ailes brisées Détonation de flash-ball Les agents Smith sont là Lavés de tout péché Protégés par la loi La matrice est attaquée Et tu sais que ça m'attriste de plus t'avoir à mes côtés Écouter le silence en stéréo Do ré mi fa sol la si do Je te demande par do Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Fa sol la si do Je te demande par do, ré mi fa sol Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Do Ici, il existe toujours un espoir Ici, pour quitter la nuit j'enlevais mes lunettes noires Et si les sentiments se bousculent du crépuscule à l'aurore Et si le chant du cygne remplacent les Chants de Maldoror Tout repartirait à zéro Do si la sol fa mi ré do Observe tes rêves où on discerne si mal l'amour de la haine Si je t'offre un solfège c'est parce que j'ai jamais su dire... Je t'aime Si je savais les belles phrases j'en emploierais tous les termes La haine l'emporte cette fois Juste quand l'amour frappe à la porte sept fois Avec des notes de mélodie Le ciel gris me l'a dit Peu importe que les nuages fassent comme un voile Est-ce que toi, depuis le paradis, tu vois les mêmes étoiles ? Chhhhht Ré mi fa sol Redorer l'étoile du sol Fa sol la si OK, just play when you're ready Étoile du sol Ange déchu sans auréole 67 bourg-stras Dooz Kawa C'est pour mes gosses C'est bon on peut enregistrer frère, hein S'il nous reste du temps S'il nous reste du temps1</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ouais, j'étais encore en train d'me promener là sur Paris Impossible d'éviter les affiches, d'tous les rappeurs qui sortent Mais pourquoi ils sont tous tout nu sur leur pochette ? Vas-y t'as vu les muscles, zarma T'as remarqué dans le rap gay leurs affiches sont toujours plus sex' Et on mate tous dans leur partouze comme le fiston, d'une ex Qui laissait pioncer son môme de deux-trois ans sur lit connexe Pendant qu'elle s'faisait léser dans deux trois sens C'est à tes textes qu'il faut des hormones de croissance Mais ton cortex, de blaireau rampant est bien déjà au bout T'es qu'un ado de quarante ans qui s'nique les reins comme Jonah Lomu T'as la plume de l'auteur qui sort d'une box de chicken wings Chez nous le rap prend d'la hauteur, toi tu pilotes chez Germanwings Z'ont tellement plus rien à dire qu'ils organisent des faux clashs hein Ça fait du cash un peu de plagia sur ton machin Tu veux un texte ? Ouvre la bouche, j't'en crache un Ça nous la joue culture quinquin , mais ça traduit plus d'lyrics ricain Qu'un livre d'Olivier Cachin S'laver l'penis à l'eau bénite c'est stupide quand on transporte un vagin Dooz, écoute! Je cherche la clé d'la cave comme Saké-Zaka Les p'tits veulent plus qu'tu réfléchisses J'ai bien capté qu'les sales messages les appâtent C'est Montpellier, Tolosa, check, on s'ramène avec ma meute Les gens m'répondent Excuse moi mais t'es rappeur pas thérapeute J'suis un mec ouvert mais sur mon art avoue que trop de types chient Dooz kawa et Kila-Te c'est pas Havoc et Prodigy J'les vois de loin ils se disent regarde le il fait tout ce pauvre type Pour ressembler aux deux bad boys d'Infamous, Mobb Deep Mais j'ai tué personne que j'sache, à part peut-être deux ou trois prods Pas d'ceux qui quand on jette le bâton agitent la queue ou le rapportent On sort deux skeuds et s'casse à Cadaqués Dans c'bail mon s'rab on s'attaque à la peste Non j'fais pas zarma l'gars dla tess Car oui l'peura moi ça m'apaise Tu changes des mensonges en or et les meufs en tassepés Tu bourres le crâne des jeunes sur ta vie ils aiment fantasmer Dangereux comme le savon au cacao pour les gosses de dix piges Fais pas du son pour parler de bagarres au poste de litige x2 C'est le son d'la révolution qui sort des bouches de nos collabs Toi t'es dangereux pour les tipeus comme un gel douche au chocolat T'es pas un boss, un youvoi, un ouf ou un soldat T'es juste dangereux pour les gosses comme un gel douche au chocolat Des millions de caves qui suivent le char des propagandes médiatiquement J'crois mieux comprendre comment Hitler fut élu démocratiquement Moi pour sortir la tête de l'eau j'me balade en tuba et en palmes Toi ton peura, pour des euros rend malade comme de l'huile de palme J'veux pas t'donner de name ça redorerait leur récital Parce que j'fais pas partie du game du club Dorothée musical J'ferai jamais de grand rap, j'suis pas celui-là qui les amuse MC t'as cru qu't'étais Gandalf mais t'es que l'seigneur des anus Les cours de récrés en bas âge, tu fais sûrement les seuls concerts Où le public n'est pas en âge de boire des bières Vous êtes tous des putains de clowns juste bons pour la playlist de la Boum De la Star Ac' ou de The Voice ou pour les partouzes à Cancún T'as pas d'talent, mais t'as un gang ? on t'paye le label pour ton single Normal les corbeaux volent en bande, mais l'aigle s'élève seul J'suis prêt à tout quitter tout sec j'suis pas qu'un Facebook et des clics J'm'en bats les couilles de qui t'es mec et avec uiq Moi j'fais juste de la musique... Eh, ça paraît fou comme du télé achat Y a beaucoup trop de biscoteaux, de broliques pour des pédés à chatte La valise de biffetons passe et tous ces scélérats à basses C'est des rapaces rien de plus j'invite ces fêlés à table Viens goûter ton repas et gave toi de barquettes réchauffées J'ai goûté m'en veux pas mais ton plat c'est l'impossible épopée Fallait pas, elle est bien loin la belle époque quand on y pense Et va savoir c'qu'on a branlé pour mériter cette récompense Un héritage sous forme de dettes, un dû à la musique Eh les mecs, soyez lucides, Jul n'est pas un homme de lettres Pour tout te dire je pense pas qu'il soit sur le point de l'être Et que ses sons font monter en moi la rage jusqu'au coin des lèvres Si tu me vois au loin j'm'élève je m'laisserai pas embarqué Que le roi se casse les chicots sur la fève Ça m'fait ni chaud ni froid je m'étais promis tôt d'y croire État de folie chronique quand le cro-mi ponctue mon histoire blesse x2 MC t'es tellement pas fini t'as du placenta sur l'visage Le genre qui picole dès le permis qui tue trois gosses dans un virage J'entends de loin, d'jà tes copains verts de colère Maintenant tue le ! Car je sers la main des humains chaînons d'un cercle vertueux Tu peux toujours saisir ta paire de génitoires sur Canalsat Mais tu seras toujours de la merde et nous les mâles alphas C'est clair que ça médi frère lorsque je traîne autre part Mais ça change de mélodie la bouche ouverte sur le trottoir Ceux qui m'disent qu'on est dans l'ombre finissent par mordre la poussière Frère, embrassent le macadam un peu comme des amoureux d'la terre J'crois qu'au fond, y a méprise frère t'es pas un cas grave T'es juste une âme chétive qui transporte son cadavre Un gars lâche comme tous ceux qui ont un KalashYou might also like1</t>
+          <t>Ouais, j'étais encore en train d'me promener là sur Paris Impossible d'éviter les affiches, d'tous les rappeurs qui sortent Mais pourquoi ils sont tous tout nu sur leur pochette ? Vas-y t'as vu les muscles, zarma T'as remarqué dans le rap gay leurs affiches sont toujours plus sex' Et on mate tous dans leur partouze comme le fiston, d'une ex Qui laissait pioncer son môme de deux-trois ans sur lit connexe Pendant qu'elle s'faisait léser dans deux trois sens C'est à tes textes qu'il faut des hormones de croissance Mais ton cortex, de blaireau rampant est bien déjà au bout T'es qu'un ado de quarante ans qui s'nique les reins comme Jonah Lomu T'as la plume de l'auteur qui sort d'une box de chicken wings Chez nous le rap prend d'la hauteur, toi tu pilotes chez Germanwings Z'ont tellement plus rien à dire qu'ils organisent des faux clashs hein Ça fait du cash un peu de plagia sur ton machin Tu veux un texte ? Ouvre la bouche, j't'en crache un Ça nous la joue culture quinquin , mais ça traduit plus d'lyrics ricain Qu'un livre d'Olivier Cachin S'laver l'penis à l'eau bénite c'est stupide quand on transporte un vagin Dooz, écoute! Je cherche la clé d'la cave comme Saké-Zaka Les p'tits veulent plus qu'tu réfléchisses J'ai bien capté qu'les sales messages les appâtent C'est Montpellier, Tolosa, check, on s'ramène avec ma meute Les gens m'répondent Excuse moi mais t'es rappeur pas thérapeute J'suis un mec ouvert mais sur mon art avoue que trop de types chient Dooz kawa et Kila-Te c'est pas Havoc et Prodigy J'les vois de loin ils se disent regarde le il fait tout ce pauvre type Pour ressembler aux deux bad boys d'Infamous, Mobb Deep Mais j'ai tué personne que j'sache, à part peut-être deux ou trois prods Pas d'ceux qui quand on jette le bâton agitent la queue ou le rapportent On sort deux skeuds et s'casse à Cadaqués Dans c'bail mon s'rab on s'attaque à la peste Non j'fais pas zarma l'gars dla tess Car oui l'peura moi ça m'apaise Tu changes des mensonges en or et les meufs en tassepés Tu bourres le crâne des jeunes sur ta vie ils aiment fantasmer Dangereux comme le savon au cacao pour les gosses de dix piges Fais pas du son pour parler de bagarres au poste de litige x2 C'est le son d'la révolution qui sort des bouches de nos collabs Toi t'es dangereux pour les tipeus comme un gel douche au chocolat T'es pas un boss, un youvoi, un ouf ou un soldat T'es juste dangereux pour les gosses comme un gel douche au chocolat Des millions de caves qui suivent le char des propagandes médiatiquement J'crois mieux comprendre comment Hitler fut élu démocratiquement Moi pour sortir la tête de l'eau j'me balade en tuba et en palmes Toi ton peura, pour des euros rend malade comme de l'huile de palme J'veux pas t'donner de name ça redorerait leur récital Parce que j'fais pas partie du game du club Dorothée musical J'ferai jamais de grand rap, j'suis pas celui-là qui les amuse MC t'as cru qu't'étais Gandalf mais t'es que l'seigneur des anus Les cours de récrés en bas âge, tu fais sûrement les seuls concerts Où le public n'est pas en âge de boire des bières Vous êtes tous des putains de clowns juste bons pour la playlist de la Boum De la Star Ac' ou de The Voice ou pour les partouzes à Cancún T'as pas d'talent, mais t'as un gang ? on t'paye le label pour ton single Normal les corbeaux volent en bande, mais l'aigle s'élève seul J'suis prêt à tout quitter tout sec j'suis pas qu'un Facebook et des clics J'm'en bats les couilles de qui t'es mec et avec uiq Moi j'fais juste de la musique... Eh, ça paraît fou comme du télé achat Y a beaucoup trop de biscoteaux, de broliques pour des pédés à chatte La valise de biffetons passe et tous ces scélérats à basses C'est des rapaces rien de plus j'invite ces fêlés à table Viens goûter ton repas et gave toi de barquettes réchauffées J'ai goûté m'en veux pas mais ton plat c'est l'impossible épopée Fallait pas, elle est bien loin la belle époque quand on y pense Et va savoir c'qu'on a branlé pour mériter cette récompense Un héritage sous forme de dettes, un dû à la musique Eh les mecs, soyez lucides, Jul n'est pas un homme de lettres Pour tout te dire je pense pas qu'il soit sur le point de l'être Et que ses sons font monter en moi la rage jusqu'au coin des lèvres Si tu me vois au loin j'm'élève je m'laisserai pas embarqué Que le roi se casse les chicots sur la fève Ça m'fait ni chaud ni froid je m'étais promis tôt d'y croire État de folie chronique quand le cro-mi ponctue mon histoire blesse x2 MC t'es tellement pas fini t'as du placenta sur l'visage Le genre qui picole dès le permis qui tue trois gosses dans un virage J'entends de loin, d'jà tes copains verts de colère Maintenant tue le ! Car je sers la main des humains chaînons d'un cercle vertueux Tu peux toujours saisir ta paire de génitoires sur Canalsat Mais tu seras toujours de la merde et nous les mâles alphas C'est clair que ça médi frère lorsque je traîne autre part Mais ça change de mélodie la bouche ouverte sur le trottoir Ceux qui m'disent qu'on est dans l'ombre finissent par mordre la poussière Frère, embrassent le macadam un peu comme des amoureux d'la terre J'crois qu'au fond, y a méprise frère t'es pas un cas grave T'es juste une âme chétive qui transporte son cadavre Un gars lâche comme tous ceux qui ont un Kalash1</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Scratchs La nuit je fume de la weed Dans une clairière de la forêt distancée M'allonger drapé par la nuit Puis remettre au clair mes pensées Mais nyctalope j'suis défoncé Ces temps-ci dans la drogue j'suis dépensier Des opiacés par ci par là parsèment L'étale du verger Je matte les troupeaux de nuages Autour de l'étoile du berger Je me sens toujours aussi seul au monde Avec ces pensées qui m'infestent Est-ce qu'une fausse blonde est un palimpseste ? Scratchs Je me dis que tous les feux dans les yeux Ceux des amants en prière Portent les mensonges au pieu Des brasiers sans lumière Que les rêves sont fait de gouache Et se tâchent des larmes des hommes Puisque l'amour en général n'est qu'une fièvre sans symptômes Pourquoi cet enfer asynchrone? Quand je suis parti sans te dire adieu Dans un taxi qui m'engloutit Puis dévore la nuit de Paris Y'a deux vaguelettes dans tes yeux Qui inondent toute ma planète Est-ce qu'une fausse blonde est un palimpseste ? Scratchs Je me dis que j'ai plus peur de la mort J'ai vu les corps jusqu'aux entrailles Gravés au profond de la rétine Avec l'aplomb des samouraïs L'herbe me fait mal au verbe J'en oubli les vers de Malherbe Et je n'espère plus de rêves Qui viennent des promesses et du monde Car sa lumière n'est qu'un vers Et sa faveur une onde Mais la seule question qui incombe Si je me souviens pas du reste Est-ce qu'une fausse blonde est un palimpseste ? Scratchs Big brother est sur les ondes Infiltré dans le rap français Alors j'attends qu'on me dénonce À la police de la pensée L'exécution sera public On nous accuse de tous ces crimes J'entends jurer la République Sur la tombe de Malik Oussekine Dites au barbouze aux voltigeurs Que les mensonges n'ont qu'un temps Et qu'ils auront beau couper les fleurs Ça n'empêche pas le printemps Et même si notre monde s'effondre On retournera pas nos vestes Est-ce qu'une fausse blonde est un palimpseste ? Scratch J'ai plus peur que de moi même Car toute une vie on se connait ap La nuit les Vosges sont tibétaines Et à bourg-stra je suis au Népal On revient de loin si tu savais Comme le sommeil, le vent est une île en itinérance Dans les nuits lentes on a tué le lapin blanc Ce rêve ou se mêlent le soleil et le vent J'aurai voulu ne pas être moi, normal Les rappeurs veulent jouer les oufs Moi j'aimerais tant être normal Car les anges divino ? me font mal Quand leur beauté me terrorise Et leur bonté me blesse Est-ce qu'une fausse blonde est un palimpseste ? Ces fausses notes pour cacher ma faiblesse Est-ce vraiment possible que tu m'aimes ? Est-ce qu'il aurait pas fallu que je reste ?You might also like</t>
+          <t>Scratchs La nuit je fume de la weed Dans une clairière de la forêt distancée M'allonger drapé par la nuit Puis remettre au clair mes pensées Mais nyctalope j'suis défoncé Ces temps-ci dans la drogue j'suis dépensier Des opiacés par ci par là parsèment L'étale du verger Je matte les troupeaux de nuages Autour de l'étoile du berger Je me sens toujours aussi seul au monde Avec ces pensées qui m'infestent Est-ce qu'une fausse blonde est un palimpseste ? Scratchs Je me dis que tous les feux dans les yeux Ceux des amants en prière Portent les mensonges au pieu Des brasiers sans lumière Que les rêves sont fait de gouache Et se tâchent des larmes des hommes Puisque l'amour en général n'est qu'une fièvre sans symptômes Pourquoi cet enfer asynchrone? Quand je suis parti sans te dire adieu Dans un taxi qui m'engloutit Puis dévore la nuit de Paris Y'a deux vaguelettes dans tes yeux Qui inondent toute ma planète Est-ce qu'une fausse blonde est un palimpseste ? Scratchs Je me dis que j'ai plus peur de la mort J'ai vu les corps jusqu'aux entrailles Gravés au profond de la rétine Avec l'aplomb des samouraïs L'herbe me fait mal au verbe J'en oubli les vers de Malherbe Et je n'espère plus de rêves Qui viennent des promesses et du monde Car sa lumière n'est qu'un vers Et sa faveur une onde Mais la seule question qui incombe Si je me souviens pas du reste Est-ce qu'une fausse blonde est un palimpseste ? Scratchs Big brother est sur les ondes Infiltré dans le rap français Alors j'attends qu'on me dénonce À la police de la pensée L'exécution sera public On nous accuse de tous ces crimes J'entends jurer la République Sur la tombe de Malik Oussekine Dites au barbouze aux voltigeurs Que les mensonges n'ont qu'un temps Et qu'ils auront beau couper les fleurs Ça n'empêche pas le printemps Et même si notre monde s'effondre On retournera pas nos vestes Est-ce qu'une fausse blonde est un palimpseste ? Scratch J'ai plus peur que de moi même Car toute une vie on se connait ap La nuit les Vosges sont tibétaines Et à bourg-stra je suis au Népal On revient de loin si tu savais Comme le sommeil, le vent est une île en itinérance Dans les nuits lentes on a tué le lapin blanc Ce rêve ou se mêlent le soleil et le vent J'aurai voulu ne pas être moi, normal Les rappeurs veulent jouer les oufs Moi j'aimerais tant être normal Car les anges divino ? me font mal Quand leur beauté me terrorise Et leur bonté me blesse Est-ce qu'une fausse blonde est un palimpseste ? Ces fausses notes pour cacher ma faiblesse Est-ce vraiment possible que tu m'aimes ? Est-ce qu'il aurait pas fallu que je reste ?</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nos histoires parlent de merveilles mais nos fables cachent que des sanglots Et leurs couleurs dans vos oreilles font passer nos larmes pour de l'eau Les oiseaux noirs sortis du lot, trop peu intégrés aux îlots Devenus mercenaires sans terre, volent en nuée loin des drapeaux Car je crois bien qu'on n'a pas de patrie, partis emportés sous un oued Et puisqu'on migre d'Atlantide, nous on n'ira jamais au bled On plaide que la Compagnie des Indes veut nous enfermer dans des cages On ressurgit toujours des limbes pour retrouver nos marécages Les cris dégagés de nos collerettes sont comme des tas de poèmes Contrebandiers anachorètes perdus dans les Alpes italiennes Des oies sauvages hurlant de rage parcourent le ciel en un convoi Mais tu vois que des oiseaux de gavage Est-ce que rapper fait changer ma voix ? Tu vois des beaux oiseaux de passage mais c'est pas ça Je vole avec les oies sauvages Nos secrets partout qu'on expose sont comme des oiseaux déguisés Aux plumes embellissant les choses et recouvrant nos ailes brisées Mais peu importent l'apanage, les couleurs sombres de nos plumages Puisque la boue qui nous recouvre est venue des plus beaux rivages Sais-tu d'où on vient ainsi ailés ou bien où nos amis sont allés ? Mais t'étais où, t'étais où quand nos blessures cicatrisaient ? J'aurais pactisé avec les démons les plus sombres et les forces les plus obscures Si juste le temps d'une seconde s'était présentée une ouverture Et si la basse-cour nous condamne, que pour qu'on m'attriste on coupe mon arbre J'ai des mélodies bien plus sombres, plonge dans la noirceur de mon âme You might also like Des oies sauvages hurlant de rage parcourent le ciel en un convoi Mais tu vois que des oiseaux de gavage Est-ce que rapper fait changer ma voix ? Tu vois des beaux oiseaux de passage mais c'est pas ça Je vole avec les oies sauvages</t>
+          <t>Nos histoires parlent de merveilles mais nos fables cachent que des sanglots Et leurs couleurs dans vos oreilles font passer nos larmes pour de l'eau Les oiseaux noirs sortis du lot, trop peu intégrés aux îlots Devenus mercenaires sans terre, volent en nuée loin des drapeaux Car je crois bien qu'on n'a pas de patrie, partis emportés sous un oued Et puisqu'on migre d'Atlantide, nous on n'ira jamais au bled On plaide que la Compagnie des Indes veut nous enfermer dans des cages On ressurgit toujours des limbes pour retrouver nos marécages Les cris dégagés de nos collerettes sont comme des tas de poèmes Contrebandiers anachorètes perdus dans les Alpes italiennes Des oies sauvages hurlant de rage parcourent le ciel en un convoi Mais tu vois que des oiseaux de gavage Est-ce que rapper fait changer ma voix ? Tu vois des beaux oiseaux de passage mais c'est pas ça Je vole avec les oies sauvages Nos secrets partout qu'on expose sont comme des oiseaux déguisés Aux plumes embellissant les choses et recouvrant nos ailes brisées Mais peu importent l'apanage, les couleurs sombres de nos plumages Puisque la boue qui nous recouvre est venue des plus beaux rivages Sais-tu d'où on vient ainsi ailés ou bien où nos amis sont allés ? Mais t'étais où, t'étais où quand nos blessures cicatrisaient ? J'aurais pactisé avec les démons les plus sombres et les forces les plus obscures Si juste le temps d'une seconde s'était présentée une ouverture Et si la basse-cour nous condamne, que pour qu'on m'attriste on coupe mon arbre J'ai des mélodies bien plus sombres, plonge dans la noirceur de mon âme Des oies sauvages hurlant de rage parcourent le ciel en un convoi Mais tu vois que des oiseaux de gavage Est-ce que rapper fait changer ma voix ? Tu vois des beaux oiseaux de passage mais c'est pas ça Je vole avec les oies sauvages</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yes, Orly, 12 Avril Mon rap est plus en chien que ne le sont bien des plats chinois Mais tellement qu'elle est chaleureuse je me balade à poil chez moi C'est peut-être pour ça que Cupidon s'apprête à s'emporter Parce que je traîne toujours tout nu que l'amour est dans le prêt-à-porter Société de consommable, c'est aux objets que l'on s'attache Ça fait peut-être con sommaire ,moi je voudrai juste lécher ta chatte Bah ouais , moi je suis dans le rap, allez écarte, masse ton clito J'fais pas de la trap music ni même de l'attrape-nigaud Tous ces MC qui s'imitent finissent noyé comme des chatons Moi je suis celui qui se délivre dans le mythe de la Caverne de Platon Leur zik est plate, on dirait le dos d'une raie manta Nous on joue en soldat, t'as un niveau que t'as vraiment pas 2x Je suis chasseur de rime mais jusquà ce que la mélodie canne Appelle moi Charles Bozon dit l'homme à l'harmonie calme Sur scène à Paris j'ai le permis de tuer la prose Pendant mes safari j'braconne des éléphants roses Un sortilège a pris vos cur, ta copine montre ses seins en douce Appelle moi Harry tripoteur ou bien magicien dooz Au HLM j'rappais à l'appart et un souvenir maintenant me reviens Quand j'espérais rentrer en boite comme réussir un entretien J'suis d'ceux qui partirent de rien pour arriver à .. Pas grand chose Mais rester un artiste galérien c'est tout un art dont les grands causent Pas d'piston et trop d'honneur? Parce que sinon un beau matin t'es bodybuildé et tu rappes sur un Vocodeur Ces MC sont des virus la radio le vecteur dont ils usent Y a plus de germes opportunistes que de migrants aux port d'Tunis J'dois être extensible comme Dhalsim pour m'ouvrir l'esprit à si perdre Car j'ai la tête dans la lune mais que j'ai quand même les pieds sur Terre C'est vrai je vis dans le péché, le poirier, les camélias Ce qui veulent mempêcher de kiffer ont déployé des caméras man Tu peux pas baiser dans la rue sinon tu finis sur Youjizz Et dans les caves c'est la cohue qui satisfait 9 personnes sur 10 Ils disent parfois qu'j'suis géniaux car on est plusieurs dans ma tête Hein, qui parle ? J'ai eu ma période bipolaire mais maintenant nous allons mieux -j'crois- J'ai fait emprisonner les mois, y a quelques mois Assassiné mes pensées putschiste J'suis presque de nouveau le chef de moi Quoi ? Tu trouves que je fais de la merde ouais ton mec fait du best hip-hop Mais tout les deux on sait en scred que jhumecte ta culotte Si mon son ne rentre pas dans ton antre c'est qu'mon beat n'était pas ce qui t'fallait T'as les yeux plus gros que le bas ventre comme Pasiphaé Allez faut pas qu'on s'acharne sur ta chatte déjà dépasse l'adolescence Le problème d'l'a prochaine étape t'es directe l'obsolescence J'suis de Valmont le Vicomte, toi la volage fille qui s'ennuie Mon rap éclate ton abricot comme un producteur de fruit confits 3 Tellement ma zic est douce appelle moi Mickey MousseYou might also like</t>
+          <t>Yes, Orly, 12 Avril Mon rap est plus en chien que ne le sont bien des plats chinois Mais tellement qu'elle est chaleureuse je me balade à poil chez moi C'est peut-être pour ça que Cupidon s'apprête à s'emporter Parce que je traîne toujours tout nu que l'amour est dans le prêt-à-porter Société de consommable, c'est aux objets que l'on s'attache Ça fait peut-être con sommaire ,moi je voudrai juste lécher ta chatte Bah ouais , moi je suis dans le rap, allez écarte, masse ton clito J'fais pas de la trap music ni même de l'attrape-nigaud Tous ces MC qui s'imitent finissent noyé comme des chatons Moi je suis celui qui se délivre dans le mythe de la Caverne de Platon Leur zik est plate, on dirait le dos d'une raie manta Nous on joue en soldat, t'as un niveau que t'as vraiment pas 2x Je suis chasseur de rime mais jusquà ce que la mélodie canne Appelle moi Charles Bozon dit l'homme à l'harmonie calme Sur scène à Paris j'ai le permis de tuer la prose Pendant mes safari j'braconne des éléphants roses Un sortilège a pris vos cur, ta copine montre ses seins en douce Appelle moi Harry tripoteur ou bien magicien dooz Au HLM j'rappais à l'appart et un souvenir maintenant me reviens Quand j'espérais rentrer en boite comme réussir un entretien J'suis d'ceux qui partirent de rien pour arriver à .. Pas grand chose Mais rester un artiste galérien c'est tout un art dont les grands causent Pas d'piston et trop d'honneur? Parce que sinon un beau matin t'es bodybuildé et tu rappes sur un Vocodeur Ces MC sont des virus la radio le vecteur dont ils usent Y a plus de germes opportunistes que de migrants aux port d'Tunis J'dois être extensible comme Dhalsim pour m'ouvrir l'esprit à si perdre Car j'ai la tête dans la lune mais que j'ai quand même les pieds sur Terre C'est vrai je vis dans le péché, le poirier, les camélias Ce qui veulent mempêcher de kiffer ont déployé des caméras man Tu peux pas baiser dans la rue sinon tu finis sur Youjizz Et dans les caves c'est la cohue qui satisfait 9 personnes sur 10 Ils disent parfois qu'j'suis géniaux car on est plusieurs dans ma tête Hein, qui parle ? J'ai eu ma période bipolaire mais maintenant nous allons mieux -j'crois- J'ai fait emprisonner les mois, y a quelques mois Assassiné mes pensées putschiste J'suis presque de nouveau le chef de moi Quoi ? Tu trouves que je fais de la merde ouais ton mec fait du best hip-hop Mais tout les deux on sait en scred que jhumecte ta culotte Si mon son ne rentre pas dans ton antre c'est qu'mon beat n'était pas ce qui t'fallait T'as les yeux plus gros que le bas ventre comme Pasiphaé Allez faut pas qu'on s'acharne sur ta chatte déjà dépasse l'adolescence Le problème d'l'a prochaine étape t'es directe l'obsolescence J'suis de Valmont le Vicomte, toi la volage fille qui s'ennuie Mon rap éclate ton abricot comme un producteur de fruit confits 3 Tellement ma zic est douce appelle moi Mickey Mousse</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>P't-êt' que la planète tourne trop vite et que toi Tu marches sur des nénuphars comme une danseuse étoile OK tant qu't'évites la chute Mais compte pas sur ces fils de... Ni sur ces... qui m'font la bise Si tu chutes On va seul dans ces mondes qu'on improvise Et personne te tient la main si tu t'écorches les genoux C'est le côté froid du rêve qui fait de la neige en nous Qui rend tous ces cons d'supporters, ces militaires, ces gens terre à terre, jaloux Parce qu'les étoiles du sol, ben... C'est nous C'est pour les héros dans la Lune tombés sur Terre Les Pierrot pé-sa en Redskins blazer ou bien en survêt' Tachini Qui dorment ici la tête sur l'satellite de la Terre À cause de Newton et l'imbécile d'apesanteur C'est ceux qui ont le passeport d'un pays imaginaire Merde J'étais ce gosse qu'on a mis en marge Sous prétexte que j'émergeais d'une casquette, d'un T-shirt large C'est pour les mômes qui planent au-dessus Qu'on nomme les dessous de la France Les délinquants pour qui l'école fut toujours une souffrance Juste parce que j'suis pas de ce monde Et au poste, sur mandat ou même à la pause les profs me demandaient You might also like P't-êt' que la planète tourne trop vite et que toi Tu marches sur des nénuphars comme une danseuse étoile P't-êt' que la planète tourne trop vite et que toi Tu marches sur des nénuphars comme une danseuse étoile On va seul dans ces mondes qu'on improvise Et personne te prend la main quand tu t'écorches les genoux C'est le côté froid du rêve qui fait de la neige en nous C'est le côté froid du rêve qui fait de la neige en nous Évasif J'écris ces mots comme une ode aux évadés Les mains dans l'dos avec un bandeau sur les yeux Attaché au poteau face aux archers Et si j'étais si merveilleux, pourquoi t'es pas revenu m'chercher ? La vie est pleine d'alinéas, de promesses vaines alignées là J'ai rêvé d'unir les systèmes Jusqu'à la peine d'Amin Dada Depuis les astres brille l'éclat solitaire et disparate Nébuleuse dans le ghetto que le système veut disparaître Et si y a plein d'lumière dans ta rétine Et chez le doc', ça paraît clean Étoiles du sol Ou alors p't-êt' que... P't-êt' que la planète tourne trop vite et que toi Tu marches sur des nénuphars comme une danseuse étoile P't-êt' que la planète tourne trop vite et que toi Tu marches sur des nénuphars comme une danseuse étoile On va seul dans ces mondes qu'on improvise Et personne te prend la main quand tu t'écorches les genoux C'est le côté froid du rêve qui fait de la neige en nous C'est le côté froid du rêve qui fait de la neige en nous P't-êt' que la planète tourne trop vite et que toi Tu marches sur des nénuphars comme une danseuse étoile</t>
+          <t>P't-êt' que la planète tourne trop vite et que toi Tu marches sur des nénuphars comme une danseuse étoile OK tant qu't'évites la chute Mais compte pas sur ces fils de... Ni sur ces... qui m'font la bise Si tu chutes On va seul dans ces mondes qu'on improvise Et personne te tient la main si tu t'écorches les genoux C'est le côté froid du rêve qui fait de la neige en nous Qui rend tous ces cons d'supporters, ces militaires, ces gens terre à terre, jaloux Parce qu'les étoiles du sol, ben... C'est nous C'est pour les héros dans la Lune tombés sur Terre Les Pierrot pé-sa en Redskins blazer ou bien en survêt' Tachini Qui dorment ici la tête sur l'satellite de la Terre À cause de Newton et l'imbécile d'apesanteur C'est ceux qui ont le passeport d'un pays imaginaire Merde J'étais ce gosse qu'on a mis en marge Sous prétexte que j'émergeais d'une casquette, d'un T-shirt large C'est pour les mômes qui planent au-dessus Qu'on nomme les dessous de la France Les délinquants pour qui l'école fut toujours une souffrance Juste parce que j'suis pas de ce monde Et au poste, sur mandat ou même à la pause les profs me demandaient P't-êt' que la planète tourne trop vite et que toi Tu marches sur des nénuphars comme une danseuse étoile P't-êt' que la planète tourne trop vite et que toi Tu marches sur des nénuphars comme une danseuse étoile On va seul dans ces mondes qu'on improvise Et personne te prend la main quand tu t'écorches les genoux C'est le côté froid du rêve qui fait de la neige en nous C'est le côté froid du rêve qui fait de la neige en nous Évasif J'écris ces mots comme une ode aux évadés Les mains dans l'dos avec un bandeau sur les yeux Attaché au poteau face aux archers Et si j'étais si merveilleux, pourquoi t'es pas revenu m'chercher ? La vie est pleine d'alinéas, de promesses vaines alignées là J'ai rêvé d'unir les systèmes Jusqu'à la peine d'Amin Dada Depuis les astres brille l'éclat solitaire et disparate Nébuleuse dans le ghetto que le système veut disparaître Et si y a plein d'lumière dans ta rétine Et chez le doc', ça paraît clean Étoiles du sol Ou alors p't-êt' que... P't-êt' que la planète tourne trop vite et que toi Tu marches sur des nénuphars comme une danseuse étoile P't-êt' que la planète tourne trop vite et que toi Tu marches sur des nénuphars comme une danseuse étoile On va seul dans ces mondes qu'on improvise Et personne te prend la main quand tu t'écorches les genoux C'est le côté froid du rêve qui fait de la neige en nous C'est le côté froid du rêve qui fait de la neige en nous P't-êt' que la planète tourne trop vite et que toi Tu marches sur des nénuphars comme une danseuse étoile</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Il porte une arme qui en dit long, puisqu'elle y délie les langues, à travers les continents du monde, le délit de l'homme, délivre l'âme, mais rend les yeux incontinents, inonde, yo, des puits, de pluie, depuis, j'ai pris, mon parapluie assis, pour éviter les rafales, de ceux qui s'défoulent dans la foule, les batiman ou votre para, gilet pare-balle, car en bas des bâtiments y'a pas, justice au tribunal, à chaque bataille, tu payes un lourd tribut timal, des hérités tribals, portent le colt qui les isolent, en des unités rivales, déshéritage design, du genre ak-47, façonnée pour être facile, d'utilité, car elle fascine les, gosses de quatre à sept, et même si papa garde l'assiette, ces fils de triste sire en transportent en cas d'racket, juste pour envoyer les balles, car les débiles, pendant les débats, n'ont rien à dire, alors ils, laissent parler les armes, les hommes et les armes histoire d'amour, histoire... Levez les bras, c'est pour un braquage Les ficelles ça s'arrache Alors cassez les chaînes du système qui vous attache Levez les bras, levez les bras, c'est pour un braquage Avec plus d'six milliards d'otages Levez les bras, c'est pour un braquage Les ficelles ça s'arrache Allons casser les chaînes du système qui nous attache Levez les bras, levez les bras, c'est pour un braquage Avec plus d'six milliards d'otages Mais moi ça m'gène, d'avoir les gènes, d'la race humaine, que j'voyais plutôt lézard, ils construisent des usines zarb ou moi j'voyais plutôt des arbres, quand on laisse parler les armes, les droits de toi de moi des moines, en témoignent n'ont pas de poids, les diplomates s'emboitent le pas, s'emploient à passer la paumade, pour que les grenades soit venduent et justifie d'être malhonnête par une pirouette de Balanchine, sans état d'âme, l'état major, vend des tas d'armes, l'académie palatine, nous baratine, j'écris une lettre pas latine, ou là la dime, sous les bla-bla à la latine, mon monde meurt, une balle dans le cur, et eux, ils taillent des grosse pipes à la chine, les hommes et les armes histoire d'amour... Levez les bras, c'est pour un braquage Les ficelles ça s'arrache Alors cassez les chaînes du système qui vous attache Levez les bras, levez les bras, c'est pour un braquage Avec plus d'six milliards d'otages Levez les bras, c'est pour un braquage Les ficelles ça s'arrache Allons casser les chaînes du système qui nous attache Levez les bras, levez les bras, c'est pour un braquage Avec plus d'six milliards d'otages You might also like On lève les bras, pour l'avenue, du parvenu, rebienvenue, dooz kawa, de l'avenue des rêves brisés, même si les médisants disaient, que j'ai fini puni par dieu, honte à ce ptit blanc non croyant, de ceux qui vous divisent par deux, et si houdini part de, rien, pour faire apparaître une colombe, nous on crée la visée laser, pour l'assassiner au nom de, sarkozy, poutine, kadhafi ou jean paul 2, ben laden, pour le dollar américain lorsque le pib se traîne, au nom de l'ordre, et de la loi, et d'la, sécurité urbaine, pour les barbus du coran ou défendent les frontières d'israel, pour les petits dealers de france ou pour les fou qui vouent rael, pour les schtroumpf aussi du coup qui veulent s'protéger d'azraël, et, les actionnaires de nestlé, protégeant leur investissements, investissant les terres d'afrique, tirent en l'air pour l'avertissement... Levez les bras, c'est pour un braquage Les ficelles ça s'arrache Alors cassez les chaînes du système qui vous attache Levez les bras, levez les bras, c'est pour un braquage Avec plus d'six milliards d'otages Levez les bras, c'est pour un braquage Les ficelles ça s'arrache Allons casser les chaînes du système qui nous attache Levez les bras, levez les bras, c'est pour un braquage Avec plus d'six milliards d'otages L'homme rêve d'un Magnum qui le protège de l'homme qui rêve d'un Remington2</t>
+          <t>Il porte une arme qui en dit long, puisqu'elle y délie les langues, à travers les continents du monde, le délit de l'homme, délivre l'âme, mais rend les yeux incontinents, inonde, yo, des puits, de pluie, depuis, j'ai pris, mon parapluie assis, pour éviter les rafales, de ceux qui s'défoulent dans la foule, les batiman ou votre para, gilet pare-balle, car en bas des bâtiments y'a pas, justice au tribunal, à chaque bataille, tu payes un lourd tribut timal, des hérités tribals, portent le colt qui les isolent, en des unités rivales, déshéritage design, du genre ak-47, façonnée pour être facile, d'utilité, car elle fascine les, gosses de quatre à sept, et même si papa garde l'assiette, ces fils de triste sire en transportent en cas d'racket, juste pour envoyer les balles, car les débiles, pendant les débats, n'ont rien à dire, alors ils, laissent parler les armes, les hommes et les armes histoire d'amour, histoire... Levez les bras, c'est pour un braquage Les ficelles ça s'arrache Alors cassez les chaînes du système qui vous attache Levez les bras, levez les bras, c'est pour un braquage Avec plus d'six milliards d'otages Levez les bras, c'est pour un braquage Les ficelles ça s'arrache Allons casser les chaînes du système qui nous attache Levez les bras, levez les bras, c'est pour un braquage Avec plus d'six milliards d'otages Mais moi ça m'gène, d'avoir les gènes, d'la race humaine, que j'voyais plutôt lézard, ils construisent des usines zarb ou moi j'voyais plutôt des arbres, quand on laisse parler les armes, les droits de toi de moi des moines, en témoignent n'ont pas de poids, les diplomates s'emboitent le pas, s'emploient à passer la paumade, pour que les grenades soit venduent et justifie d'être malhonnête par une pirouette de Balanchine, sans état d'âme, l'état major, vend des tas d'armes, l'académie palatine, nous baratine, j'écris une lettre pas latine, ou là la dime, sous les bla-bla à la latine, mon monde meurt, une balle dans le cur, et eux, ils taillent des grosse pipes à la chine, les hommes et les armes histoire d'amour... Levez les bras, c'est pour un braquage Les ficelles ça s'arrache Alors cassez les chaînes du système qui vous attache Levez les bras, levez les bras, c'est pour un braquage Avec plus d'six milliards d'otages Levez les bras, c'est pour un braquage Les ficelles ça s'arrache Allons casser les chaînes du système qui nous attache Levez les bras, levez les bras, c'est pour un braquage Avec plus d'six milliards d'otages On lève les bras, pour l'avenue, du parvenu, rebienvenue, dooz kawa, de l'avenue des rêves brisés, même si les médisants disaient, que j'ai fini puni par dieu, honte à ce ptit blanc non croyant, de ceux qui vous divisent par deux, et si houdini part de, rien, pour faire apparaître une colombe, nous on crée la visée laser, pour l'assassiner au nom de, sarkozy, poutine, kadhafi ou jean paul 2, ben laden, pour le dollar américain lorsque le pib se traîne, au nom de l'ordre, et de la loi, et d'la, sécurité urbaine, pour les barbus du coran ou défendent les frontières d'israel, pour les petits dealers de france ou pour les fou qui vouent rael, pour les schtroumpf aussi du coup qui veulent s'protéger d'azraël, et, les actionnaires de nestlé, protégeant leur investissements, investissant les terres d'afrique, tirent en l'air pour l'avertissement... Levez les bras, c'est pour un braquage Les ficelles ça s'arrache Alors cassez les chaînes du système qui vous attache Levez les bras, levez les bras, c'est pour un braquage Avec plus d'six milliards d'otages Levez les bras, c'est pour un braquage Les ficelles ça s'arrache Allons casser les chaînes du système qui nous attache Levez les bras, levez les bras, c'est pour un braquage Avec plus d'six milliards d'otages L'homme rêve d'un Magnum qui le protège de l'homme qui rêve d'un Remington2</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen, please welcome The Black Rhino, introducing... Dooz Kawa And his opponent accross the ring on my right fighting out of the red corner, really needing no introduction the world over, entering the ring wearing his traditionnal black chunks... Lucio Bukowski Yo, j'transforme les anti-pops en sacs de frappe, et les wacks en sacs de femme Crache le feu et des rimes d'enfer, 'fonce-dé' au pack de flammes Sirote tranquillement une boisson fraîche dans le brasier T'envoie six pieds sous terre comme un overcut de Joe Frazier Odeur de sang et sueur à la Dempsey Un bon vieux haymaker dont on reste le visage tuméfié J'te mate de haut comme Sonny Liston, un poids welter Danse au-dessus d'ton corps à la manière de Mayweather Je pratique l'absorption donc tes phases ne me touchent pas Désolé mais, comme Bernard Hopkins, yo, je me couche pas Toujours riposter, les bons contres font les bons ennemis Lucio Marciano, L'Animalerie est mon écurie Appelle-moi Michael Spinks en amateur, je suis l'meilleur J'rappe et cogne ensemble RoyJonesJunior Chaque mot précis comme le poing gauche de Marvin Hagler Ce beat de taré fera un excellent sparring-partner Yo, et, comme Jones, j'suis un tiger La ligne la plus rapide, c'est d'un poing A vers ta gueule Puis t'envole vers le Saint-Père d'un Uber appelé cimetière J'abaisse ta garde et te baise en superman comme St-Pierre Il paraît que j'rappe sale, mais j'nettoie comme un Dyson T'as un beau mic' en cristal, moi un Iron Mike Tyson Comme ces jeux que font les gosses dans leurs tortures ouija T'as dû confondre la boxe avec les Tortues Ninjas Si tu combats, brah brah, on dira Il est mort ici Dévoré par le grizzli, Davide barba Morini Ton équilibre est précaire, tes jambes jouent des castagnettes Comme Hurricane Carter, devant l'jury, j'te casse la tête T'es qu'un matelot qui cabane dans la tempête des atolls Au ralenti, tu tombes à plat comme si un matelas sur le sol Tu vois trente-six étoiles comme sur le short d'Apollo Creed Lucio et Dooz K.O. sont pas venus danser sur le ring His weight two hundred twenty-five and three quarter pounds his fearsome records forty-nine wins, four losses, two no-contests, with forty-three big wins coming by way up knockout having already established himself in the record books... J'casse la distance et disparais comme Graziano Change de catégorie quand j'veux Pacquiao Comme La Hoya, j'viens prendre une ceinture de chaque Aucune logique dans mon punch, mec, appelle-moi la fausse patte Le mic' sauvage et lil du fauve comme Tiger Dick Basse, kick et snare accompagnent mon aéro-kick Éternel retour, c'est mon côté Roberto Durán J'serai toujours dans la course à cinquante piges comme George Foreman J'viens faire le nettoyage, logique que tu jettes l'éponge L'auditeur compte les points pendant que je pète les tronches Enfile tes gants, c'est Lulu et Dooz Kawa Bientôt en première partie d'Ali à Kinshasa T'es dans les cordes et tout livide On repart avec un morceau d'toi EvanderHolyfield Avant d'appuyer Play, enfile un protège-dents Tu risques de tomber de haut façon Marcel Cerdan J'me bats contre mes fantômes, l'esprit plus hanté qu'un château Car, la seule danse que j'pratique, c'est le shadow Dès le début du round, j'te mets knockdown comme le street wear de Modibo Diarra J'tourne autour de ma proie et désaxe comme Mohammed Ali Le public tourne la tête car les gens sentent qu'c'est le massacre T'es comme dipe dans la mythologie grecque Aveuglé par l'sang d'tes arcades Et, si j'me bats pas, c'est qu'j'ai peur qu'on m'emprisonne J'ai rêvé que j'te tuais comme Sugar Ray Robinson He renews his quest to dominate television, introducing the number four rank heavyweight contender, here is the former undisputed heavyweight champion of the world, ladies and gentlemen, please welcome the one and only... DJ Widsid Faut qu'j'frappe sec d'entrée Je serre les poings, les coudes et les dents Dooz K.O., Lucio Marciano, L'Animalerie C'est l'son qui tape au plexus Patate comme cette basse sur kick et caisse claire sur la veste You wanna fight? Step in the ring Deadly style You fucking with the wrong one A true master I'm a masterYou might also like</t>
+          <t>Ladies and gentlemen, please welcome The Black Rhino, introducing... Dooz Kawa And his opponent accross the ring on my right fighting out of the red corner, really needing no introduction the world over, entering the ring wearing his traditionnal black chunks... Lucio Bukowski Yo, j'transforme les anti-pops en sacs de frappe, et les wacks en sacs de femme Crache le feu et des rimes d'enfer, 'fonce-dé' au pack de flammes Sirote tranquillement une boisson fraîche dans le brasier T'envoie six pieds sous terre comme un overcut de Joe Frazier Odeur de sang et sueur à la Dempsey Un bon vieux haymaker dont on reste le visage tuméfié J'te mate de haut comme Sonny Liston, un poids welter Danse au-dessus d'ton corps à la manière de Mayweather Je pratique l'absorption donc tes phases ne me touchent pas Désolé mais, comme Bernard Hopkins, yo, je me couche pas Toujours riposter, les bons contres font les bons ennemis Lucio Marciano, L'Animalerie est mon écurie Appelle-moi Michael Spinks en amateur, je suis l'meilleur J'rappe et cogne ensemble RoyJonesJunior Chaque mot précis comme le poing gauche de Marvin Hagler Ce beat de taré fera un excellent sparring-partner Yo, et, comme Jones, j'suis un tiger La ligne la plus rapide, c'est d'un poing A vers ta gueule Puis t'envole vers le Saint-Père d'un Uber appelé cimetière J'abaisse ta garde et te baise en superman comme St-Pierre Il paraît que j'rappe sale, mais j'nettoie comme un Dyson T'as un beau mic' en cristal, moi un Iron Mike Tyson Comme ces jeux que font les gosses dans leurs tortures ouija T'as dû confondre la boxe avec les Tortues Ninjas Si tu combats, brah brah, on dira Il est mort ici Dévoré par le grizzli, Davide barba Morini Ton équilibre est précaire, tes jambes jouent des castagnettes Comme Hurricane Carter, devant l'jury, j'te casse la tête T'es qu'un matelot qui cabane dans la tempête des atolls Au ralenti, tu tombes à plat comme si un matelas sur le sol Tu vois trente-six étoiles comme sur le short d'Apollo Creed Lucio et Dooz K.O. sont pas venus danser sur le ring His weight two hundred twenty-five and three quarter pounds his fearsome records forty-nine wins, four losses, two no-contests, with forty-three big wins coming by way up knockout having already established himself in the record books... J'casse la distance et disparais comme Graziano Change de catégorie quand j'veux Pacquiao Comme La Hoya, j'viens prendre une ceinture de chaque Aucune logique dans mon punch, mec, appelle-moi la fausse patte Le mic' sauvage et lil du fauve comme Tiger Dick Basse, kick et snare accompagnent mon aéro-kick Éternel retour, c'est mon côté Roberto Durán J'serai toujours dans la course à cinquante piges comme George Foreman J'viens faire le nettoyage, logique que tu jettes l'éponge L'auditeur compte les points pendant que je pète les tronches Enfile tes gants, c'est Lulu et Dooz Kawa Bientôt en première partie d'Ali à Kinshasa T'es dans les cordes et tout livide On repart avec un morceau d'toi EvanderHolyfield Avant d'appuyer Play, enfile un protège-dents Tu risques de tomber de haut façon Marcel Cerdan J'me bats contre mes fantômes, l'esprit plus hanté qu'un château Car, la seule danse que j'pratique, c'est le shadow Dès le début du round, j'te mets knockdown comme le street wear de Modibo Diarra J'tourne autour de ma proie et désaxe comme Mohammed Ali Le public tourne la tête car les gens sentent qu'c'est le massacre T'es comme dipe dans la mythologie grecque Aveuglé par l'sang d'tes arcades Et, si j'me bats pas, c'est qu'j'ai peur qu'on m'emprisonne J'ai rêvé que j'te tuais comme Sugar Ray Robinson He renews his quest to dominate television, introducing the number four rank heavyweight contender, here is the former undisputed heavyweight champion of the world, ladies and gentlemen, please welcome the one and only... DJ Widsid Faut qu'j'frappe sec d'entrée Je serre les poings, les coudes et les dents Dooz K.O., Lucio Marciano, L'Animalerie C'est l'son qui tape au plexus Patate comme cette basse sur kick et caisse claire sur la veste You wanna fight? Step in the ring Deadly style You fucking with the wrong one A true master I'm a master</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>J'suis la grenouille qu'attend son baiser depuis tout petit têtard Mais, jamais y a de princesse dans mon tout petit étang J'ai été tant conquistador qu'en conquérant Ottoman Et fait trembler le monde Perse mais les démons me transpercent L'amour m'a eu au tourment J'ai vu tomber les étoiles depuis le toit des batiments Evangeline dans le noir n'est qu'une étoile qui brillait Tu sais j'écris mes dé-boire pour oublier Y a pas de piston pour qu'on rentre dans le corps des filles en missionnaire Les papillons dans mon ventre ont du éclore de chenilles processionnaires Si j'fais un procès sommaire pour moi l'amour c'est rater, réessayer puis rater et muer J'viens du milieu des rats du mud, pas de filles biens chez les voyous, que des émeutes J'suis un amphibien du bayou et quand elle m'parle d'amour elle m'dit Wesh, tu bailles ou ? Oui j'crois à l'intérieur j'suis die-ou-ou-ou-ou, ou bien j'ai un trou noir à la place du coeur La police me dit que j'suis fou-fou-fou, et à leurs mères qu'elles méritent un mec meilleur Au coeur d'l'ouragan Katrina j'termine ma bière à la paille Toujours en salopette dans la place beyond the pines T'as cru j'étais la haine, habillé dans un strange look Mais j'ai écrit je t'aime sur les murs avant Facebook Nouvelle-Orléans trop bas, des Chaktahs sont en guerre Même si tu crois t'battre pour ton bag, viens pas dans mes Hunger Games Sir Edouard a quitté le trône par amour, moi j'm'arracherai même gratuit D'après le reup qui tisait , c'est moi qui déconne J'avais des rêves ils disaient, maintenant tout c'que j'ai c'est des mômes Bah ouais, j'ai bronzé de travers Le soleil m'a pris par le col mais je crame dessous ma peau car il parait que j'ai trop d'vices S'écoulent des flammes dans mes tuyaux depuis mon crâne à ma chaude pisse J'pourrai jouer les Bryan Gosling ou Jude essentiel et sensible Mais si j'l'emmène au Mississipi, c'est juste pour lui faire glisser son slip Tu sais, se dire Je t'aime c'est un jeu bête que les amoureux avalent En ping-pong ils se répètent jusqu'à qu'un des deux perde la balleYou might also like2</t>
+          <t>J'suis la grenouille qu'attend son baiser depuis tout petit têtard Mais, jamais y a de princesse dans mon tout petit étang J'ai été tant conquistador qu'en conquérant Ottoman Et fait trembler le monde Perse mais les démons me transpercent L'amour m'a eu au tourment J'ai vu tomber les étoiles depuis le toit des batiments Evangeline dans le noir n'est qu'une étoile qui brillait Tu sais j'écris mes dé-boire pour oublier Y a pas de piston pour qu'on rentre dans le corps des filles en missionnaire Les papillons dans mon ventre ont du éclore de chenilles processionnaires Si j'fais un procès sommaire pour moi l'amour c'est rater, réessayer puis rater et muer J'viens du milieu des rats du mud, pas de filles biens chez les voyous, que des émeutes J'suis un amphibien du bayou et quand elle m'parle d'amour elle m'dit Wesh, tu bailles ou ? Oui j'crois à l'intérieur j'suis die-ou-ou-ou-ou, ou bien j'ai un trou noir à la place du coeur La police me dit que j'suis fou-fou-fou, et à leurs mères qu'elles méritent un mec meilleur Au coeur d'l'ouragan Katrina j'termine ma bière à la paille Toujours en salopette dans la place beyond the pines T'as cru j'étais la haine, habillé dans un strange look Mais j'ai écrit je t'aime sur les murs avant Facebook Nouvelle-Orléans trop bas, des Chaktahs sont en guerre Même si tu crois t'battre pour ton bag, viens pas dans mes Hunger Games Sir Edouard a quitté le trône par amour, moi j'm'arracherai même gratuit D'après le reup qui tisait , c'est moi qui déconne J'avais des rêves ils disaient, maintenant tout c'que j'ai c'est des mômes Bah ouais, j'ai bronzé de travers Le soleil m'a pris par le col mais je crame dessous ma peau car il parait que j'ai trop d'vices S'écoulent des flammes dans mes tuyaux depuis mon crâne à ma chaude pisse J'pourrai jouer les Bryan Gosling ou Jude essentiel et sensible Mais si j'l'emmène au Mississipi, c'est juste pour lui faire glisser son slip Tu sais, se dire Je t'aime c'est un jeu bête que les amoureux avalent En ping-pong ils se répètent jusqu'à qu'un des deux perde la balle2</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>À ceux qui brûlent, qui n'ont plus peur de l'incendie Qui ont le plafond de l'abus crucifié d'étoiles de la nuit Comme dans la chambre d'un enfant de déménagement trop fréquent Remplis d'étoiles phosphorescentes mais trop récentes J'élève des arcs-en-ciel que je nourris au Lexomil Quand ils seront sevrés de vos ciels, je les relâcherais dans vos villes Z'exauceront vos prièrs remplacerons les musiqus sombres Il pleut des rayons de lumière et il neige des balles de ping-pong À ceux qui brûlent de m'imiter, qui me sente pire en technique Qui sentent leur amour limité de sentiments pyrotechniques Le rêve est en mauvais état et vous rampez donc ? Jusqu'aux fournaises de l'Etna comme Empédocle Ceux qui ont les yeux tout rouge, que l'eau de javel délave Ceux qui ont des brûlures sur les joues à cause des larmes de lave Des voyelles et des consonnes qui écrivent une lettre a Élise Ceux que la flamme consume dans l'énergie de l'autolyse À ceux qui brûlent, qui brûlent et qui rebrûlent encore Hardcore à ceux qui brûlent du cur et du corps Encore et encore, a ceux qui brûlent, brûlent, brûlent, brûlent You might also likeÀ ceux qui brûlent, qui brûlent et qui rebrûlent encore Hardcore à ceux qui brûlent du cur et du corps Encore et encore, a ceux qui brûlent, brûlent, brûlent, brûlent, brûlent Au prince héritier puissant de l'empire du traumatisme À ceux qui ont tellement d'idées que les autres renoncent à les suivre À ceux qui brûlent et dans leur corps incandescent Qui n'ont pas pris de produits bruts, mais qui sont encore en descentes Ceux qui à force de ruminer sur un tout petit soucis Deviens un monstre de pensées qui prend toute la place de l'esprit À ceux qui brûlent de crépitement de bois mort À ceux qui hurlent comme des aboiements à l'intérieur Ceux qui n'arrivent pas à dire ça y est, je crois qu'j'ai plus besoin d'apprendre Ceux qui ont cessé d'essayer d'se faire comprendre Ceux qui d'une petite étincelle peuvent engendrer des incendies D'une petite pierre dans la rivière peuvent déclencher un tsunami Qui voudrait appeler Uber eats pour se faire livrer des médocs Qui dépense toute leur énergie afin de supporter les médiocres À ceux qui voient ce soleil noir quand il y a des aurores sublimes À tous les prétentieux comme moi qui sont des grands égos fragiles À ceux qui brûlent, qui brûlent et qui rebrûlent encore Hardcore à ceux qui brûlent du cur et du corps Encore et encore, a ceux qui brûlent, brûlent, brûlent, brûlent À ceux qui brûlent, qui brûlent et qui rebrûlent encore Hardcore à ceux qui brûlent du cur et du corps Encore et encore, a ceux qui brûlent, brûlent, brûlent, brûlent, brûlent Sarbacane, dooz kawa, soleil noir, noir, noir</t>
+          <t>À ceux qui brûlent, qui n'ont plus peur de l'incendie Qui ont le plafond de l'abus crucifié d'étoiles de la nuit Comme dans la chambre d'un enfant de déménagement trop fréquent Remplis d'étoiles phosphorescentes mais trop récentes J'élève des arcs-en-ciel que je nourris au Lexomil Quand ils seront sevrés de vos ciels, je les relâcherais dans vos villes Z'exauceront vos prièrs remplacerons les musiqus sombres Il pleut des rayons de lumière et il neige des balles de ping-pong À ceux qui brûlent de m'imiter, qui me sente pire en technique Qui sentent leur amour limité de sentiments pyrotechniques Le rêve est en mauvais état et vous rampez donc ? Jusqu'aux fournaises de l'Etna comme Empédocle Ceux qui ont les yeux tout rouge, que l'eau de javel délave Ceux qui ont des brûlures sur les joues à cause des larmes de lave Des voyelles et des consonnes qui écrivent une lettre a Élise Ceux que la flamme consume dans l'énergie de l'autolyse À ceux qui brûlent, qui brûlent et qui rebrûlent encore Hardcore à ceux qui brûlent du cur et du corps Encore et encore, a ceux qui brûlent, brûlent, brûlent, brûlent À ceux qui brûlent, qui brûlent et qui rebrûlent encore Hardcore à ceux qui brûlent du cur et du corps Encore et encore, a ceux qui brûlent, brûlent, brûlent, brûlent, brûlent Au prince héritier puissant de l'empire du traumatisme À ceux qui ont tellement d'idées que les autres renoncent à les suivre À ceux qui brûlent et dans leur corps incandescent Qui n'ont pas pris de produits bruts, mais qui sont encore en descentes Ceux qui à force de ruminer sur un tout petit soucis Deviens un monstre de pensées qui prend toute la place de l'esprit À ceux qui brûlent de crépitement de bois mort À ceux qui hurlent comme des aboiements à l'intérieur Ceux qui n'arrivent pas à dire ça y est, je crois qu'j'ai plus besoin d'apprendre Ceux qui ont cessé d'essayer d'se faire comprendre Ceux qui d'une petite étincelle peuvent engendrer des incendies D'une petite pierre dans la rivière peuvent déclencher un tsunami Qui voudrait appeler Uber eats pour se faire livrer des médocs Qui dépense toute leur énergie afin de supporter les médiocres À ceux qui voient ce soleil noir quand il y a des aurores sublimes À tous les prétentieux comme moi qui sont des grands égos fragiles À ceux qui brûlent, qui brûlent et qui rebrûlent encore Hardcore à ceux qui brûlent du cur et du corps Encore et encore, a ceux qui brûlent, brûlent, brûlent, brûlent À ceux qui brûlent, qui brûlent et qui rebrûlent encore Hardcore à ceux qui brûlent du cur et du corps Encore et encore, a ceux qui brûlent, brûlent, brûlent, brûlent, brûlent Sarbacane, dooz kawa, soleil noir, noir, noir</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>He would always win the fight, bang bang A force d'être déçu par les autres, tu finiras pas croire en toi Peu importe s'il faut saigner comme les règles d'ta p'tite amie Que nos rapports sont plus raides que les crise de tétanie Puisque on est deux soldats sans être amis Deux gars laxistes utilisant la même étoile pour traverser la galaxie Si tu veux vraiment m'voir j'te jure que j'te paye le taxi Et même le pourboire en prime Choppe moi juste une bière à la station d'essence voisine Pourquoi quand tu me reçois j'te rotte-ca une bouteille des îles Mais c'est pas ce qui nous sépare, toi et moi on en connaît l'origine Tout Bourg-stra veut ma peau Je suis toujours plus exposé qu'un mexicain sans chapeau. Hay. Caramba ! A force d'être déçu par les autres, je finirai bien par croire en moi Cicatrisant sans pommade, j'me sens plus seul qu'un nomade A vendre mon coeur, un no man's land Pour ça qu'j'ai plus de pitié, et qu'ma musique assassine Pourtant celle-ci passera pas par la SACEM Tant c'que j'aime m'éloigne de c'que le contrat souligne Et dans ces rimes on a un point commun plus vital qu'une injection d'insuline A force d'être déçu par les autres, vous finirez par vous unir Puis aussi tant pis si personne tient à moi Cherche l'amour mais connaît pas le fond de la vérité Alors j'fais jouir les salopes dans les soirées V.I.P Enfermés dans les chiottes quand les miss disent à leur mec qu'elles font pipi J'finirai comme Jeff Buckley noyé dans le Mississipi On meurt tout seul, tout seul sans doute mais debout sur mes pieds Pour voir le bout d'la route de plus près You might also likeSi Narcozik est si courte, c'est parce qu'il manque ton couplet... Qu'on leur montre qui nous sommes, ils en ont rien à foutre Mais qu'on se plante comme Homer Simpson, c'est c'qu'ils attendent sans doutes Pour ça on fait gaffe où poser l'pied sans pour autant goûter l'sol Evite de parler au futur, ça porte la poisse c'est pas drôle Qu'on leur montre qui nous sommes, ils en ont rien à foutre Mais qu'on se plante comme Homer Simpson, c'est c'qu'ils attendent sans doutes Pour ça on fait gaffe où poser l'pied sans pour autant goûter l'sol Evite de parler au futur, ça porte la poisse c'est pas drôle Bang bang, that awful sound Bang bang, my baby shot me down</t>
+          <t>He would always win the fight, bang bang A force d'être déçu par les autres, tu finiras pas croire en toi Peu importe s'il faut saigner comme les règles d'ta p'tite amie Que nos rapports sont plus raides que les crise de tétanie Puisque on est deux soldats sans être amis Deux gars laxistes utilisant la même étoile pour traverser la galaxie Si tu veux vraiment m'voir j'te jure que j'te paye le taxi Et même le pourboire en prime Choppe moi juste une bière à la station d'essence voisine Pourquoi quand tu me reçois j'te rotte-ca une bouteille des îles Mais c'est pas ce qui nous sépare, toi et moi on en connaît l'origine Tout Bourg-stra veut ma peau Je suis toujours plus exposé qu'un mexicain sans chapeau. Hay. Caramba ! A force d'être déçu par les autres, je finirai bien par croire en moi Cicatrisant sans pommade, j'me sens plus seul qu'un nomade A vendre mon coeur, un no man's land Pour ça qu'j'ai plus de pitié, et qu'ma musique assassine Pourtant celle-ci passera pas par la SACEM Tant c'que j'aime m'éloigne de c'que le contrat souligne Et dans ces rimes on a un point commun plus vital qu'une injection d'insuline A force d'être déçu par les autres, vous finirez par vous unir Puis aussi tant pis si personne tient à moi Cherche l'amour mais connaît pas le fond de la vérité Alors j'fais jouir les salopes dans les soirées V.I.P Enfermés dans les chiottes quand les miss disent à leur mec qu'elles font pipi J'finirai comme Jeff Buckley noyé dans le Mississipi On meurt tout seul, tout seul sans doute mais debout sur mes pieds Pour voir le bout d'la route de plus près Si Narcozik est si courte, c'est parce qu'il manque ton couplet... Qu'on leur montre qui nous sommes, ils en ont rien à foutre Mais qu'on se plante comme Homer Simpson, c'est c'qu'ils attendent sans doutes Pour ça on fait gaffe où poser l'pied sans pour autant goûter l'sol Evite de parler au futur, ça porte la poisse c'est pas drôle Qu'on leur montre qui nous sommes, ils en ont rien à foutre Mais qu'on se plante comme Homer Simpson, c'est c'qu'ils attendent sans doutes Pour ça on fait gaffe où poser l'pied sans pour autant goûter l'sol Evite de parler au futur, ça porte la poisse c'est pas drôle Bang bang, that awful sound Bang bang, my baby shot me down</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yeah Comment ça a-v ? On est comme dhab, violence normale Du cross-fit et du grave, du yoga, des piercings Consommations toxiques, les plus ubuesques Du street cam et du burlesque On nique sa mère la thune, et lamertume que lfutur laisse Défile trash sur les vitrages des visages Des filles trash et pas aussi sages que Tu croirais quon fête ici un carnaval en douce Des confettis sur les chveux et au coin de la bouch Jsuis un bad boy de Marseille, Strasbourg, Genève et Toulouse Comment ça a-v ? On est comme dhab, violence normale On respecte pas les règles on vit comme des animals Quand on exprime nos désirs comme de vouloir vivre après On nous explique que nos souhaits sont que des idées ratées Oh, cest pas bientôt fini oui, tous ces desiderata Il a été décidé quon aurait pas Un seau pour écoper leau qui sinfiltre dans la barque Qui fait que lnavire chavire, est-ce que la vie cest de larnaque ? Comme les ouvertures faciles, jai lhabitude quand ça va mal Mais pas les riches dans la savane, ce sont des biches, moi le serval Et quand y aura plus de pétrole, là croyez-moi que ça va savate Suffit pas dvouloir pas voir, lavenir des collapso-logues Suffit pas dcasser les miroirs pour devenir beau Ôte-moi dun doute Est-ce que je vois sombre comme la couleur de mes yeux ? Est-ce que tous les mots sont mieux lorsque les yeux sont bleus ? Comment savoir comme lorgasme entre femelle et mâle Est-ce que cest le même ou as-p ? Comment ça a-v ? On est comme dhab, violence normale On respecte pas les règles on vit comme des animals Jsuis pas en paix, mais laisse jvoulais juste tremper mes lèvres Un peu de Kawa, le rap est en PLS You might also like Comment ça va ? Comment savoir ?</t>
+          <t>Yeah Comment ça a-v ? On est comme dhab, violence normale Du cross-fit et du grave, du yoga, des piercings Consommations toxiques, les plus ubuesques Du street cam et du burlesque On nique sa mère la thune, et lamertume que lfutur laisse Défile trash sur les vitrages des visages Des filles trash et pas aussi sages que Tu croirais quon fête ici un carnaval en douce Des confettis sur les chveux et au coin de la bouch Jsuis un bad boy de Marseille, Strasbourg, Genève et Toulouse Comment ça a-v ? On est comme dhab, violence normale On respecte pas les règles on vit comme des animals Quand on exprime nos désirs comme de vouloir vivre après On nous explique que nos souhaits sont que des idées ratées Oh, cest pas bientôt fini oui, tous ces desiderata Il a été décidé quon aurait pas Un seau pour écoper leau qui sinfiltre dans la barque Qui fait que lnavire chavire, est-ce que la vie cest de larnaque ? Comme les ouvertures faciles, jai lhabitude quand ça va mal Mais pas les riches dans la savane, ce sont des biches, moi le serval Et quand y aura plus de pétrole, là croyez-moi que ça va savate Suffit pas dvouloir pas voir, lavenir des collapso-logues Suffit pas dcasser les miroirs pour devenir beau Ôte-moi dun doute Est-ce que je vois sombre comme la couleur de mes yeux ? Est-ce que tous les mots sont mieux lorsque les yeux sont bleus ? Comment savoir comme lorgasme entre femelle et mâle Est-ce que cest le même ou as-p ? Comment ça a-v ? On est comme dhab, violence normale On respecte pas les règles on vit comme des animals Jsuis pas en paix, mais laisse jvoulais juste tremper mes lèvres Un peu de Kawa, le rap est en PLS Comment ça va ? Comment savoir ?</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>All the beauties, knocking at my window All the beauties want to stay with me All the beauties, spending all my money All the beauties, they're driving me insane All the beauties, screaming in my kitchen All the beauties throwing cups on me All the beauties wearing fancy dresses Falling angels, that put a spell on me Dooz K.O Mon cur est un horrible ami Comme un brouillon trop raturé Je froisse et jette l'origami D'cet organe qui m'aura tué Tout connement nus comme des amants Elle est si belle mais c'est pas toi J'te jure j'en ai connu tellement Mais j'préférerai être avec toi Ouais t'es bien une meurtrière D'où tu m'embrasses à l'arbalète Ton dessin te marie de la mer Avec mon sang sur ta palette Je te surine de sérénades Tu m'observes d'un il assassin L'enfer est pavé de grenades Que j'ai posées sur ton chemin J't'attends depuis tellement d'années Que l'espoir du but est ténu Alors j'me sens tellement damné Que même Belzébuth est ému Pétrole et nuit où j'ouïs Véhiculant un lac des sens Que sont tes paroles à ma bougie Moi je vogue sur une flaque d'essence Parfum dénué d'ivresse D'où je veux pas finir clean Je viendrai hanter ton adresse Même si tu pars aux Philippines Que tout est noir Le deuil du soleil se cachant You might also likeOù est passé Arcueil-Cachan ? Où est passé Arcueil-Cachan ? Où est passé Arcueil-Cachan ? Les nuages décalent le cachant Où est passé Arcueil-Cachan ? All the beauties wearing fancy dresses Falling angels, that put a spell on me Et les humains veulent qu'on menferme J'suis comme un chien loup aux abois Avec nos courtes nuits éternelles putain On s'est mis dans de beaux draps J'avais écrit un vrai poème Mais il ne s'aimait pas très Car pas celui qu'était pas très bang Et si t'effacer d'un trait Et t'es toujours dans mes rêves Moi sûrement dans tes cauchemars J'voudrais mourir parce que j'suis triste encore d'hier Fou comme Tristan Corbière J'te dévore sur la Cordillère J'croyais que c'était moi le sauvage Mais j'suis l'étranger qui meurt sot Hurlant en silence dans le naufrage Vox clamans in deserto Comme l'horizon des hlm Ce coussin quaccueille le couchant D'un clin dil te cachant Où est passé Arcueil-Cachan ? Où est passé Arcueil-Cachan ? Go down Go down I say Go down Way go down Go down Go down I say Go down Way go down Go down Go down I say Go down Way go down Go down Go down I say Go down Way go down</t>
+          <t>All the beauties, knocking at my window All the beauties want to stay with me All the beauties, spending all my money All the beauties, they're driving me insane All the beauties, screaming in my kitchen All the beauties throwing cups on me All the beauties wearing fancy dresses Falling angels, that put a spell on me Dooz K.O Mon cur est un horrible ami Comme un brouillon trop raturé Je froisse et jette l'origami D'cet organe qui m'aura tué Tout connement nus comme des amants Elle est si belle mais c'est pas toi J'te jure j'en ai connu tellement Mais j'préférerai être avec toi Ouais t'es bien une meurtrière D'où tu m'embrasses à l'arbalète Ton dessin te marie de la mer Avec mon sang sur ta palette Je te surine de sérénades Tu m'observes d'un il assassin L'enfer est pavé de grenades Que j'ai posées sur ton chemin J't'attends depuis tellement d'années Que l'espoir du but est ténu Alors j'me sens tellement damné Que même Belzébuth est ému Pétrole et nuit où j'ouïs Véhiculant un lac des sens Que sont tes paroles à ma bougie Moi je vogue sur une flaque d'essence Parfum dénué d'ivresse D'où je veux pas finir clean Je viendrai hanter ton adresse Même si tu pars aux Philippines Que tout est noir Le deuil du soleil se cachant Où est passé Arcueil-Cachan ? Où est passé Arcueil-Cachan ? Où est passé Arcueil-Cachan ? Les nuages décalent le cachant Où est passé Arcueil-Cachan ? All the beauties wearing fancy dresses Falling angels, that put a spell on me Et les humains veulent qu'on menferme J'suis comme un chien loup aux abois Avec nos courtes nuits éternelles putain On s'est mis dans de beaux draps J'avais écrit un vrai poème Mais il ne s'aimait pas très Car pas celui qu'était pas très bang Et si t'effacer d'un trait Et t'es toujours dans mes rêves Moi sûrement dans tes cauchemars J'voudrais mourir parce que j'suis triste encore d'hier Fou comme Tristan Corbière J'te dévore sur la Cordillère J'croyais que c'était moi le sauvage Mais j'suis l'étranger qui meurt sot Hurlant en silence dans le naufrage Vox clamans in deserto Comme l'horizon des hlm Ce coussin quaccueille le couchant D'un clin dil te cachant Où est passé Arcueil-Cachan ? Où est passé Arcueil-Cachan ? Go down Go down I say Go down Way go down Go down Go down I say Go down Way go down Go down Go down I say Go down Way go down Go down Go down I say Go down Way go down</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ouais... J'ai connu tellement de bitches où quand t'es artiste les strings s'abaissent J'crois qu'ces filles méritent des gifles, sur les joues de leurs fesses C'est comme si leurs sous-vêtements avaient la domotique Somfy J'ai parfois le sentiment d'être une télécommande sans-fil J'ai soigné mon relationnel avec du beurre de karité Mais le tissu cicatriciel est de bien piètre qualité Je marche avec le ventre ouvert, j'ressens le froid de Vancouver Jusqu'à Marseille sous les capuches c'est pour rester du vent couvert Et plus j'vois le temps passer et moins j'comprends qui j'peux être Je crois qu'à force de se chercher on finit toujours par se perdre J'aimerais qu'on m'excuse par avance, pour me prendre pour Romain Gary On reste un enfant quand on pense être enfin humain aguerri Parfois j'crois qu'j'suis triste des erreurs de choix professionnels Moi j'voulais simplement dev'nir un genre de nageur dans l'ciel Je prête aux sons, aux mesures et à la sélection du public Des prétentions si démesurées que j'aurais pu être juif Toute l'éloquence, pour moi n'est qu'un moyen de séduction Pour acheter une vie d'otage, tout c'que j'peux offrir c'est du son On cherche toujours des solutions sans vraiment connaître le problème Etre artiste mission suicide détruire l'ennemi c'est toi-même You might also likeParaît qu'on t'aime, des followers, des gens qui dansent Je crois lorsqu' j'rédige des poèmes, écrire c'est hurler en silence Garde tes amis près de toi, tes ennemis plus près toujours Depuis que j'ai conscience de ça c'est c'que j'me dis quand j'fais l'amour Je ne sens que le sens des proses dans mes narines Je cherche l'essence des choses comme un Derrick Et j'entends, j'entends, dirait l'artiste... J'entends dire, j'entends dire, eh l'artiste... eh Etre artiste c'est pas très sain c'est même pas un métier très sûr Ma chérie j'ai pas très faim p't'être j'ai trop léché mes blessures Paraît qu'c'est des scénars d'autiste et qu'c'est pour ça qu'mon art est triste Parfois quand j'retourne au quartier même mes proches me traitent d'artiste Etre artiste, c'est pas très sain c'est même pas un métier très sûr Ma chérie j'ai pas très faim, paraît qu'j'fais un truc pas sécure Paraît qu'c'est des scénars d'autiste et qu'c'est pour ça qu'mon art est triste Quand j'retourne au quartier même mes proches me traitent d'artiste Yah J'm'en bats qu'les pros du son en parlent ou si les projets sont bancals J'désire pas posséder grand chose à part des projections mentales J'pourrais dépasser tous vos raps juste en plaçant l'mot vestibule C'est trop facile d'être à part, car j'vois bien que l'reste est nul Et j'suis séduit par le hip-hop, j'lui glisse la main sous le pull Même si l'rap est une salope, qui du reste simule Et me demande ouvertement à quoi tu sers si tu veux pas faire de l'argent J'lui dis ici faut des artistes tant que c'est dark dans les récits Qu'on interroge des journalistes au quatrième sous-sol des locaux d'la DGSI Un guerrier assassine mais dans ce crime c'est moi le mort Je donne de mon âme à chaque rime, comme les horcruxes de Voldemort Les mots d'amour se disent si peu et les désastres sont dans les rues En attendant qu'la nuit s'dissipe j'ai mis des astres dans les nues Naufragé qui affabule, dans la nuit déferlante Tous mes seuls phares fabuleux n'étaient que des étoiles filantes Art Aknid à la prod Et moi-même paraît qu'j'suis resté un sale gosse Même si l'enfance est partie vite comme l'éjaculation précoce Freestyle... Dooz Kawa A tous ceux qui médisent par jalousie C'que vos meufs vous disent pas au lit C'est qu'avant qu'on s'connaisse Elles savaient pas, qu'elles faisaient de la dyspareunie T'arrives j'disparais dans la nuit Mais la solitude fait qu'j'reviens Un jour la musique me dira Kawa j'ai retrouvé les tiens En attendant portez-vous bien Pays d'nomade Pays d'nomade</t>
+          <t>Ouais... J'ai connu tellement de bitches où quand t'es artiste les strings s'abaissent J'crois qu'ces filles méritent des gifles, sur les joues de leurs fesses C'est comme si leurs sous-vêtements avaient la domotique Somfy J'ai parfois le sentiment d'être une télécommande sans-fil J'ai soigné mon relationnel avec du beurre de karité Mais le tissu cicatriciel est de bien piètre qualité Je marche avec le ventre ouvert, j'ressens le froid de Vancouver Jusqu'à Marseille sous les capuches c'est pour rester du vent couvert Et plus j'vois le temps passer et moins j'comprends qui j'peux être Je crois qu'à force de se chercher on finit toujours par se perdre J'aimerais qu'on m'excuse par avance, pour me prendre pour Romain Gary On reste un enfant quand on pense être enfin humain aguerri Parfois j'crois qu'j'suis triste des erreurs de choix professionnels Moi j'voulais simplement dev'nir un genre de nageur dans l'ciel Je prête aux sons, aux mesures et à la sélection du public Des prétentions si démesurées que j'aurais pu être juif Toute l'éloquence, pour moi n'est qu'un moyen de séduction Pour acheter une vie d'otage, tout c'que j'peux offrir c'est du son On cherche toujours des solutions sans vraiment connaître le problème Etre artiste mission suicide détruire l'ennemi c'est toi-même Paraît qu'on t'aime, des followers, des gens qui dansent Je crois lorsqu' j'rédige des poèmes, écrire c'est hurler en silence Garde tes amis près de toi, tes ennemis plus près toujours Depuis que j'ai conscience de ça c'est c'que j'me dis quand j'fais l'amour Je ne sens que le sens des proses dans mes narines Je cherche l'essence des choses comme un Derrick Et j'entends, j'entends, dirait l'artiste... J'entends dire, j'entends dire, eh l'artiste... eh Etre artiste c'est pas très sain c'est même pas un métier très sûr Ma chérie j'ai pas très faim p't'être j'ai trop léché mes blessures Paraît qu'c'est des scénars d'autiste et qu'c'est pour ça qu'mon art est triste Parfois quand j'retourne au quartier même mes proches me traitent d'artiste Etre artiste, c'est pas très sain c'est même pas un métier très sûr Ma chérie j'ai pas très faim, paraît qu'j'fais un truc pas sécure Paraît qu'c'est des scénars d'autiste et qu'c'est pour ça qu'mon art est triste Quand j'retourne au quartier même mes proches me traitent d'artiste Yah J'm'en bats qu'les pros du son en parlent ou si les projets sont bancals J'désire pas posséder grand chose à part des projections mentales J'pourrais dépasser tous vos raps juste en plaçant l'mot vestibule C'est trop facile d'être à part, car j'vois bien que l'reste est nul Et j'suis séduit par le hip-hop, j'lui glisse la main sous le pull Même si l'rap est une salope, qui du reste simule Et me demande ouvertement à quoi tu sers si tu veux pas faire de l'argent J'lui dis ici faut des artistes tant que c'est dark dans les récits Qu'on interroge des journalistes au quatrième sous-sol des locaux d'la DGSI Un guerrier assassine mais dans ce crime c'est moi le mort Je donne de mon âme à chaque rime, comme les horcruxes de Voldemort Les mots d'amour se disent si peu et les désastres sont dans les rues En attendant qu'la nuit s'dissipe j'ai mis des astres dans les nues Naufragé qui affabule, dans la nuit déferlante Tous mes seuls phares fabuleux n'étaient que des étoiles filantes Art Aknid à la prod Et moi-même paraît qu'j'suis resté un sale gosse Même si l'enfance est partie vite comme l'éjaculation précoce Freestyle... Dooz Kawa A tous ceux qui médisent par jalousie C'que vos meufs vous disent pas au lit C'est qu'avant qu'on s'connaisse Elles savaient pas, qu'elles faisaient de la dyspareunie T'arrives j'disparais dans la nuit Mais la solitude fait qu'j'reviens Un jour la musique me dira Kawa j'ai retrouvé les tiens En attendant portez-vous bien Pays d'nomade Pays d'nomade</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Jcraque une cigarette, jécris ma lettre, la tête entre les seins dÉlise La nuit fait danser nos mal-être au rythme dun bassin qui sbrise Des soleils noirs jen ai trop vu pousser Cest pas lavenir mais laube quon a voulu repousser Jen ai trop plein la tête, jsuis comme tout ceux qui agonisent Qui disent viens faire la fête alors quen fait on salcoolise Tu sais jme méfie des grands curs, cest souvent ds menteurs Jcrois en cux qui sfont tout petit, mais qui agissent avec grandeur La nuit jécoute les monstres sous mon lit pas les dealers de rêve Jécris aux anges de loubli sans qui parfois le jour se lève La nuit les chattes sont grises, jen ai vu près des gouttières Qui servaient de friandises et rinçaient lil des lampadaires Dis-moi à quoi servent les rimes, à rendre lair plus respirable ? Ou bien à rendre labîme encore plus infranchissable ? Jme dis qula vie nest quun cycle, que rien ne dure ici bas La nuit est ainsi et así es la vida Car ainsi va la vie, ainsi va la vie parfois Comme Alexeï Navalny, on est pas ici par choix On croit la nuit quon oublie, quon oublie les évènements Car ainsi va la nuit, on sanesthésie vainement Car ainsi va la vie, ainsi va la vie parfois Comme Alexeï Navalny, on est pas ici par choix On croit la nuit quon oublie, quon oublie les évènements Car ainsi va la nuit, on sanesthésie vainement You might also like La nuit de ce soir est bestial, les flics se prennent pour des vestales À rejouer le maintien de lordre, à moitié nu sur ta Vespa Il y a des soucis qui restent pas, quand je touche ton corps et tes nichons File, à fond la teille de Sky faire des plongeons dla Corniche On vit sans et sans sembarrasser des sous Je me glisse le joint à la main afin de tembrasser le cou Les nuits de ouf on fait des ploufs, on regarde la police passer On oublie tout cquon éprouve, on se sent comme des vices cachés On rentre dans lagitation, là où il y a des vitres cassées Les gyrophares sagitent à fond, jentends les sirènes vite passer Viens sur ltoit du bâtiment, ces sacs nous ferons des coussins On se couche sans le froid du vent, les étoiles nous recouvrent bien En bas les voitures ralentissent et lon se dit quça cloche Trouve ça curieux ce trafic, puis la police enfonce la porte Les coussins sont des sacs de coke, comment leur dire quon savait pas On sfait une dernière bise car así es la vida Car ainsi va la vie, ainsi va la vie parfois Comme Alexeï Navalny, on est pas ici par choix On croit la nuit quon oublie, quon oublie les évènements Car ainsi va la nuit, on sanesthésie vainement Car ainsi va la vie, ainsi va la vie parfois Comme Alexeï Navalny, on est pas ici par choix On croit la nuit quon oublie, quon oublie les évènements Car ainsi va la nuit, on sanesthésie vainement Ainsi va la vie et sur la pente y a du savon Et quand on mdemande si ça va, mon camas y a pas plus bavon Et pour toutes ces putes , bientôt ce sera la mutation La frappe de Roberto Carlos moins forte que la claque du daron Ça cest pour tous mes culs-terreux, est-ce que la France est clitoridienne ? Faut apprendre à sucer mieux si tu veux meilleure vie quotidienne Parce que moi jsuis mi-homme, mi-hyène, parce que moi jai le stylo qui saigne Mytho qui traîne, mycose, migraine, micro-système, niveau sixième Ainsi va la vie, les marques du temps sestompent Ma barbe de salafiste, cest moi lplus grand des cons Et dans lplus grand des calme, jme fonce-dé sans raison Cest comme le Vendée Globe, cest comme une pendaison La nuit je tombe, je dors et juste après je ronfle fort Et si tu bombes le torse une balle te perçe contre le Toujours à contre-cur, on fait face à des sombres porcs Moi jsuis une ombre morte qui trouve jamais le nombre dor Car ainsi va la vie, ainsi va la vie parfois Comme Alexeï Navalny, on est pas ici par choix On croit la nuit quon oublie, quon oublie les évènements Car ainsi va la nuit, on sanesthésie vainement Car ainsi va la vie, ainsi va la vie parfois Comme Alexeï Navalny, on est pas ici par choix On croit la nuit quon oublie, quon oublie les évènements Car ainsi va la nuit, on sanesthésie vainement</t>
+          <t>Jcraque une cigarette, jécris ma lettre, la tête entre les seins dÉlise La nuit fait danser nos mal-être au rythme dun bassin qui sbrise Des soleils noirs jen ai trop vu pousser Cest pas lavenir mais laube quon a voulu repousser Jen ai trop plein la tête, jsuis comme tout ceux qui agonisent Qui disent viens faire la fête alors quen fait on salcoolise Tu sais jme méfie des grands curs, cest souvent ds menteurs Jcrois en cux qui sfont tout petit, mais qui agissent avec grandeur La nuit jécoute les monstres sous mon lit pas les dealers de rêve Jécris aux anges de loubli sans qui parfois le jour se lève La nuit les chattes sont grises, jen ai vu près des gouttières Qui servaient de friandises et rinçaient lil des lampadaires Dis-moi à quoi servent les rimes, à rendre lair plus respirable ? Ou bien à rendre labîme encore plus infranchissable ? Jme dis qula vie nest quun cycle, que rien ne dure ici bas La nuit est ainsi et así es la vida Car ainsi va la vie, ainsi va la vie parfois Comme Alexeï Navalny, on est pas ici par choix On croit la nuit quon oublie, quon oublie les évènements Car ainsi va la nuit, on sanesthésie vainement Car ainsi va la vie, ainsi va la vie parfois Comme Alexeï Navalny, on est pas ici par choix On croit la nuit quon oublie, quon oublie les évènements Car ainsi va la nuit, on sanesthésie vainement La nuit de ce soir est bestial, les flics se prennent pour des vestales À rejouer le maintien de lordre, à moitié nu sur ta Vespa Il y a des soucis qui restent pas, quand je touche ton corps et tes nichons File, à fond la teille de Sky faire des plongeons dla Corniche On vit sans et sans sembarrasser des sous Je me glisse le joint à la main afin de tembrasser le cou Les nuits de ouf on fait des ploufs, on regarde la police passer On oublie tout cquon éprouve, on se sent comme des vices cachés On rentre dans lagitation, là où il y a des vitres cassées Les gyrophares sagitent à fond, jentends les sirènes vite passer Viens sur ltoit du bâtiment, ces sacs nous ferons des coussins On se couche sans le froid du vent, les étoiles nous recouvrent bien En bas les voitures ralentissent et lon se dit quça cloche Trouve ça curieux ce trafic, puis la police enfonce la porte Les coussins sont des sacs de coke, comment leur dire quon savait pas On sfait une dernière bise car así es la vida Car ainsi va la vie, ainsi va la vie parfois Comme Alexeï Navalny, on est pas ici par choix On croit la nuit quon oublie, quon oublie les évènements Car ainsi va la nuit, on sanesthésie vainement Car ainsi va la vie, ainsi va la vie parfois Comme Alexeï Navalny, on est pas ici par choix On croit la nuit quon oublie, quon oublie les évènements Car ainsi va la nuit, on sanesthésie vainement Ainsi va la vie et sur la pente y a du savon Et quand on mdemande si ça va, mon camas y a pas plus bavon Et pour toutes ces putes , bientôt ce sera la mutation La frappe de Roberto Carlos moins forte que la claque du daron Ça cest pour tous mes culs-terreux, est-ce que la France est clitoridienne ? Faut apprendre à sucer mieux si tu veux meilleure vie quotidienne Parce que moi jsuis mi-homme, mi-hyène, parce que moi jai le stylo qui saigne Mytho qui traîne, mycose, migraine, micro-système, niveau sixième Ainsi va la vie, les marques du temps sestompent Ma barbe de salafiste, cest moi lplus grand des cons Et dans lplus grand des calme, jme fonce-dé sans raison Cest comme le Vendée Globe, cest comme une pendaison La nuit je tombe, je dors et juste après je ronfle fort Et si tu bombes le torse une balle te perçe contre le Toujours à contre-cur, on fait face à des sombres porcs Moi jsuis une ombre morte qui trouve jamais le nombre dor Car ainsi va la vie, ainsi va la vie parfois Comme Alexeï Navalny, on est pas ici par choix On croit la nuit quon oublie, quon oublie les évènements Car ainsi va la nuit, on sanesthésie vainement Car ainsi va la vie, ainsi va la vie parfois Comme Alexeï Navalny, on est pas ici par choix On croit la nuit quon oublie, quon oublie les évènements Car ainsi va la nuit, on sanesthésie vainement</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Moi j'viens d'en bas Mais j'esquive la pollution Car j'ai appris à per-ra Dans une cave sans aération Poésie des cours de récréation S'apparentant à un quatre-heures Partagé de bon cur A coups de molaires Avec mes sos' les enfants de chur Sortis des quartiers populaires Où l'accès à l'éducation C'est le grand frère Qui vend de l'herbe en compression Et comme les exemples se sont barrés On nous conduit aux maisons d'arrêts Les pieds menottés aux conduits d'eau Mais on s'évade avec des mots Et j'utiliserai mon stylo Pour en crocheter la serrure Ou la clé de sol Que me prêta la mesure Pour quitter la détention En classe plus d'attention La tension transpire Dans les yeux de mes potes Y a plus d'apôtres Et nécessité fait loi Alors nique sa mère la vôtre Ici celui qui tend l'autre Joue risque sa peau Tu sais je suis pas un crapaud D'bénitier, on saluera pas le drapeau Malgré les policiers armés Strasbourg voitures cramées Dooz Kawo Gérard Junior sur l'MIC Et à la régie, dans l'ombre DAX Jeunesse du monde gosses à risque Gosses à problèmes Parce qu'on combat ce système Reste peace et Laisse parcourir les ondes D'une liberté profonde Respire c'est Pour la jeunesse du monde Respect You might also like Vois sur ton chemin Gamins oubliés égarés Donne leur la main Pour les mener Vers d'autres lendemains Sens au cur de la nuit L'onde d'espoir Ardeur de la vie Sentier de gloire Bonheurs enfantins Trop vite oubliés effacés Une lumière dorée brille sans fin Tout au bout du chemin Sens au cur de la nuit L'onde d'espoir Ardeur de la vie Sentier de gloire L'homme a cru dans sa vanité Que l'humanité serait éternelle Pour l'amour en peine je plaide Et la planète appelle à l'aide L'amour a péri Petit prince de l'MIC J'suis perdu dans les étoiles Comme Antoine De Saint Exupéry Il paraît qu'E Égal mc Ça me fait pas oublié que Derrière une formule mathématique Einstein inventa la bombe atomique Mais on fou mes gars en taule pour avoir dealé du shit Tu ferais quoi toi Aux assédic A 300 euros par mois J'ai tatoué mon physique Engrène la révolution A coup de fusils sur les schmits Car moi j'fais partie d'l'entité humanité plus d'estime Car même le peuple juif Sorti d'Auschwitz A envahi la Palestine C'est chacun pour les siens Et même les politiciens Sont dans le crime Et nous dans le haine J'vois tellement peu d'amour Que j'ignore comment on aime On a survécu quand même Dans les moments difficiles J'ai 18 ans déjà Responsabilité civile Ou bien trafic de drogue Un message à passer aux synagogues Aux mosquées aux églises Sache que les peuples qui eux-mêmes s'élisent Marchent vers la guerre promise Mon frère un seul système solaire Pourquoi la religion devrait être un programme scolaire Jeux de guerre pour des enfants militaires Qui devraient mourir pour les idées à leurs pères Pas besoin de traverser la mer Car même dans le ghetto français La paix on sait pas vraiment c'que c'est</t>
+          <t>Moi j'viens d'en bas Mais j'esquive la pollution Car j'ai appris à per-ra Dans une cave sans aération Poésie des cours de récréation S'apparentant à un quatre-heures Partagé de bon cur A coups de molaires Avec mes sos' les enfants de chur Sortis des quartiers populaires Où l'accès à l'éducation C'est le grand frère Qui vend de l'herbe en compression Et comme les exemples se sont barrés On nous conduit aux maisons d'arrêts Les pieds menottés aux conduits d'eau Mais on s'évade avec des mots Et j'utiliserai mon stylo Pour en crocheter la serrure Ou la clé de sol Que me prêta la mesure Pour quitter la détention En classe plus d'attention La tension transpire Dans les yeux de mes potes Y a plus d'apôtres Et nécessité fait loi Alors nique sa mère la vôtre Ici celui qui tend l'autre Joue risque sa peau Tu sais je suis pas un crapaud D'bénitier, on saluera pas le drapeau Malgré les policiers armés Strasbourg voitures cramées Dooz Kawo Gérard Junior sur l'MIC Et à la régie, dans l'ombre DAX Jeunesse du monde gosses à risque Gosses à problèmes Parce qu'on combat ce système Reste peace et Laisse parcourir les ondes D'une liberté profonde Respire c'est Pour la jeunesse du monde Respect Vois sur ton chemin Gamins oubliés égarés Donne leur la main Pour les mener Vers d'autres lendemains Sens au cur de la nuit L'onde d'espoir Ardeur de la vie Sentier de gloire Bonheurs enfantins Trop vite oubliés effacés Une lumière dorée brille sans fin Tout au bout du chemin Sens au cur de la nuit L'onde d'espoir Ardeur de la vie Sentier de gloire L'homme a cru dans sa vanité Que l'humanité serait éternelle Pour l'amour en peine je plaide Et la planète appelle à l'aide L'amour a péri Petit prince de l'MIC J'suis perdu dans les étoiles Comme Antoine De Saint Exupéry Il paraît qu'E Égal mc Ça me fait pas oublié que Derrière une formule mathématique Einstein inventa la bombe atomique Mais on fou mes gars en taule pour avoir dealé du shit Tu ferais quoi toi Aux assédic A 300 euros par mois J'ai tatoué mon physique Engrène la révolution A coup de fusils sur les schmits Car moi j'fais partie d'l'entité humanité plus d'estime Car même le peuple juif Sorti d'Auschwitz A envahi la Palestine C'est chacun pour les siens Et même les politiciens Sont dans le crime Et nous dans le haine J'vois tellement peu d'amour Que j'ignore comment on aime On a survécu quand même Dans les moments difficiles J'ai 18 ans déjà Responsabilité civile Ou bien trafic de drogue Un message à passer aux synagogues Aux mosquées aux églises Sache que les peuples qui eux-mêmes s'élisent Marchent vers la guerre promise Mon frère un seul système solaire Pourquoi la religion devrait être un programme scolaire Jeux de guerre pour des enfants militaires Qui devraient mourir pour les idées à leurs pères Pas besoin de traverser la mer Car même dans le ghetto français La paix on sait pas vraiment c'que c'est</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ma seule flèche suit la trajectoire d'un jet d'eau Harmonisant ma vie comme un solfège J'ai le dodo de la fatigue et pour armure le dos au mur J'atteindrai jamais l'âge mûr Un futur sans avenir Alors elle fait son sac à dos et je la regarde partir Dorénavant je croiserai sa silhouette dans l'ombre chinoise d'un paravent Résignés, on n'a toujours pas signé J'ai sacrifié ma vie, résisté Quand la mélodie fait saigner ce qu'en nous on a de plus beau Voilà ma maladie honteuse et aussi mon placebo Je te ferai jamais d'excuses alors je te demande par do Je te demande par do ré mi fa sol Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Fa sol la si do Je te demande par do ré mi fa sol Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Do You might also like J'suis à mi-parcours comme mis en évidence Comme le diable qui danse au clair de la demi-lune Une planète salutaire opposée à la Terre Et ses ensembles fragmentaires Ses foules de solitaires Parmi les stéréotypes j'suis un Perrault atypique déféré au monde onirique S'il fallait le silence moi j'balance des lyrics Pas cile-fa d'ouvrir mon coeur sauf sur un beat mathématique J'suis adoré mifa Tu notes si t'as suivi ma thématique La prochaine note prend son envol pour le sol Missile sol-solaire ! Regarde l'étoile filante planer dans l'Ososphère Sans jamais quitter le sol, ailes brisées Détonation de flash-ball Les agents Smith sont là Lavés de tout péché Protégés par la loi La matrice est attaquée Et tu sais que ça m'attriste de plus t'avoir à mes côtés Écouter le silence en stéréo Do ré mi fa sol la si do Je te demande par do Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Fa sol la si do Je te demande par do, ré mi fa sol Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Do Ici, il existe toujours un espoir Ici, pour quitter la nuit j'enlevais mes lunettes noires Et si les sentiments se bousculent du crépuscule à l'aurore Et si le chant du cygne remplacent les Chants de Maldoror Tout repartirait à zéro Do si la sol fa mi ré do Observe tes rêves où on discerne si mal l'amour de la haine Si je t'offre un solfège c'est parce que j'ai jamais su dire... Je t'aime Si je savais les belles phrases j'en emploierais tous les termes La haine l'emporte cette fois Juste quand l'amour frappe à la porte sept fois Avec des notes de mélodie Le ciel gris me l'a dit Peu importe que les nuages fassent comme un voile Est-ce que toi, depuis le paradis, tu vois les mêmes étoiles ? Chhhhht Ré mi fa sol Redorer l'étoile du sol Fa sol la si OK, just play when you're ready Étoile du sol Ange déchu sans auréole 67 bourg-stras Dooz Kawa C'est pour mes gosses C'est bon on peut enregistrer frère, hein S'il nous reste du temps S'il nous reste du temps1</t>
+          <t>Ma seule flèche suit la trajectoire d'un jet d'eau Harmonisant ma vie comme un solfège J'ai le dodo de la fatigue et pour armure le dos au mur J'atteindrai jamais l'âge mûr Un futur sans avenir Alors elle fait son sac à dos et je la regarde partir Dorénavant je croiserai sa silhouette dans l'ombre chinoise d'un paravent Résignés, on n'a toujours pas signé J'ai sacrifié ma vie, résisté Quand la mélodie fait saigner ce qu'en nous on a de plus beau Voilà ma maladie honteuse et aussi mon placebo Je te ferai jamais d'excuses alors je te demande par do Je te demande par do ré mi fa sol Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Fa sol la si do Je te demande par do ré mi fa sol Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Do J'suis à mi-parcours comme mis en évidence Comme le diable qui danse au clair de la demi-lune Une planète salutaire opposée à la Terre Et ses ensembles fragmentaires Ses foules de solitaires Parmi les stéréotypes j'suis un Perrault atypique déféré au monde onirique S'il fallait le silence moi j'balance des lyrics Pas cile-fa d'ouvrir mon coeur sauf sur un beat mathématique J'suis adoré mifa Tu notes si t'as suivi ma thématique La prochaine note prend son envol pour le sol Missile sol-solaire ! Regarde l'étoile filante planer dans l'Ososphère Sans jamais quitter le sol, ailes brisées Détonation de flash-ball Les agents Smith sont là Lavés de tout péché Protégés par la loi La matrice est attaquée Et tu sais que ça m'attriste de plus t'avoir à mes côtés Écouter le silence en stéréo Do ré mi fa sol la si do Je te demande par do Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Fa sol la si do Je te demande par do, ré mi fa sol Redorer l'étoile du sol Par do ré mi fa sol la si do Lascive, ma zique un placebo Do Ici, il existe toujours un espoir Ici, pour quitter la nuit j'enlevais mes lunettes noires Et si les sentiments se bousculent du crépuscule à l'aurore Et si le chant du cygne remplacent les Chants de Maldoror Tout repartirait à zéro Do si la sol fa mi ré do Observe tes rêves où on discerne si mal l'amour de la haine Si je t'offre un solfège c'est parce que j'ai jamais su dire... Je t'aime Si je savais les belles phrases j'en emploierais tous les termes La haine l'emporte cette fois Juste quand l'amour frappe à la porte sept fois Avec des notes de mélodie Le ciel gris me l'a dit Peu importe que les nuages fassent comme un voile Est-ce que toi, depuis le paradis, tu vois les mêmes étoiles ? Chhhhht Ré mi fa sol Redorer l'étoile du sol Fa sol la si OK, just play when you're ready Étoile du sol Ange déchu sans auréole 67 bourg-stras Dooz Kawa C'est pour mes gosses C'est bon on peut enregistrer frère, hein S'il nous reste du temps S'il nous reste du temps1</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>J'ai rêvé d'être un bandit, poursuivi par le héros Après un braquage au fusil, pour refaire ma vie à zéro Pardonnez-moi d'être mal chez vous Et si ta copine me trouve chelou Mais ma norme c'est pas la tienne Parler d'amour c'est pas la peine Quand t'as grandi dans la nuit Les yeux qui pleurent sont des lanternes Alors j'écris Plus rien J'fais du dessin Moi je colorie les gens ternes Consommateurs qu'on enferme De l'horizon c'est la raison de l'oraison Funèbre qui règne dans les prisons Dans mon bloc et le métro A force de plus voir le soleil ils rêvent tous de miss météo Lui péter la chatte à quatre patte Enfin je parle pour les mâles hétéros Car les femelles elles rêvent de faire bander les dandy Tandis qu'entre deux réalités moi j'ai rêvé Moi j'ai rêvé d'être un bandit You might also like Appellez la police If you don't know what is On est la hantise de la ville Les banditos sous un bandana qui tissent C'est à cause de moi que les gens disent Que la délinquance augmente Ouais autant que les amendes Et au parking HLM On rêve de faire sauter la banque La France planque Quelques millions de Dalton en puissance Parce qu'il rêvent qu'on s'ouvre les veines Nous on rêve que l'huissier vienne Bouffer ses lettres de relance Avec ma p'tite sauce fine Ils comprennent pas qu'on galère Et qu'on Drakar même, comme des vikings Parce qu'ils souhaitent une vie clean Mes potes éclatent les vitrines C'est de la logique hélas Puisque l'état mets la Pression, gentil garçon vire au crime J'ai rêver d'être un bandit Chapeau melon et veste en cuir Qui tire quand tu veux t'enfuir Ce type qui pèse et baise ta fille J'ai rêver d'être un bandit comme Giuliani Comme Sarko Raq-chichi ou W.B J'ai rêver d'être un gangster Crier Youuupii ! Quand c'est une ennemi qu'on enterre Et faire la guerre à ceux qui sont dans la détresse Logement, pétrole, SDF Eh ! Ils nous envoient les flics Peut importe puisqu'ils contrôlent Les gros titres et la presse Et même la peste nous évite J'ordonne la charge des CRS Ouais sur les pauvres qui manifestent Contre le sommet du G8 Ce qui va enchaîner la suite On sacrifie les poulets comme on sacrifiait les jésuites En l'an 8 et des poussières Frère la chasse est ouverte et les fusils sont en vente libre Maintenant je rêve plus car j'ai grandi Et pourtant dans mon pays Maintenant j'suis vraiment un bandit You're all a bunch of fucking asshole You know why ? You don't have the guts to be who you wanna be You need people like me So you can point your fucking fingers And say That's the bad guy.</t>
+          <t>J'ai rêvé d'être un bandit, poursuivi par le héros Après un braquage au fusil, pour refaire ma vie à zéro Pardonnez-moi d'être mal chez vous Et si ta copine me trouve chelou Mais ma norme c'est pas la tienne Parler d'amour c'est pas la peine Quand t'as grandi dans la nuit Les yeux qui pleurent sont des lanternes Alors j'écris Plus rien J'fais du dessin Moi je colorie les gens ternes Consommateurs qu'on enferme De l'horizon c'est la raison de l'oraison Funèbre qui règne dans les prisons Dans mon bloc et le métro A force de plus voir le soleil ils rêvent tous de miss météo Lui péter la chatte à quatre patte Enfin je parle pour les mâles hétéros Car les femelles elles rêvent de faire bander les dandy Tandis qu'entre deux réalités moi j'ai rêvé Moi j'ai rêvé d'être un bandit Appellez la police If you don't know what is On est la hantise de la ville Les banditos sous un bandana qui tissent C'est à cause de moi que les gens disent Que la délinquance augmente Ouais autant que les amendes Et au parking HLM On rêve de faire sauter la banque La France planque Quelques millions de Dalton en puissance Parce qu'il rêvent qu'on s'ouvre les veines Nous on rêve que l'huissier vienne Bouffer ses lettres de relance Avec ma p'tite sauce fine Ils comprennent pas qu'on galère Et qu'on Drakar même, comme des vikings Parce qu'ils souhaitent une vie clean Mes potes éclatent les vitrines C'est de la logique hélas Puisque l'état mets la Pression, gentil garçon vire au crime J'ai rêver d'être un bandit Chapeau melon et veste en cuir Qui tire quand tu veux t'enfuir Ce type qui pèse et baise ta fille J'ai rêver d'être un bandit comme Giuliani Comme Sarko Raq-chichi ou W.B J'ai rêver d'être un gangster Crier Youuupii ! Quand c'est une ennemi qu'on enterre Et faire la guerre à ceux qui sont dans la détresse Logement, pétrole, SDF Eh ! Ils nous envoient les flics Peut importe puisqu'ils contrôlent Les gros titres et la presse Et même la peste nous évite J'ordonne la charge des CRS Ouais sur les pauvres qui manifestent Contre le sommet du G8 Ce qui va enchaîner la suite On sacrifie les poulets comme on sacrifiait les jésuites En l'an 8 et des poussières Frère la chasse est ouverte et les fusils sont en vente libre Maintenant je rêve plus car j'ai grandi Et pourtant dans mon pays Maintenant j'suis vraiment un bandit You're all a bunch of fucking asshole You know why ? You don't have the guts to be who you wanna be You need people like me So you can point your fucking fingers And say That's the bad guy.</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Fait des berceuses pour insomniaques... Tu dors pas ? Tatatam... J'fais le sprint pour être premier sur la série Si la deuxième place est vide C'est que t'as pas réagi assez vite J'ai commencé dans ma bulle Comme un pitbull qui profane Fais pipi sur les MC qui prennent de l'ibuprofène Lorsque mes rimes prenaient formes Les amis m'assassinaient S'ils savaient comme j'les enculent J'crois qu'ils boiraient de la vaseline Et maintenant que ça ramasse Ils saccrochent au train qui trace J'ai un harpon dans la nasse Et j'butte les requins qui m'chassent Tatatam J'ai la trompette et le piano Oh, quand j'me trompe dans les mots J'laisse interpréter les fans Oh, j'suis aimé par ta femme Maintenant que j'monte tellement haut C'est comme si j'pétais des flammes Interpréter des drames Contre qui on s'ligue à tort Qu'on tronçonnait à terre Et qu'à trop saigner des larmes D'alligator Du Darfour au ? Ils me voyaient au carrefour Juste pour laver la verrière J'casse-dédi au vrai ya-kho Qu'étaient la quand il y avait rien Dans la savane et.. Comme si on était une armée d'lions, affamée You might also like ? pour le blocus Comme des meneuses à Tolbiac Et mes comptines? me racontent-ils Sont des berceuses pour insomniaques Quand à la somme de mes albums Napparaît pas un seul sans drame Et mes comptines? me racontent-ils Sont des berceuses pour insomniaques Je vous somme d'levez les paumes Le mic à terre sans faire d'arnaques Et mes comptines? me racontent-ils Sont des berceuses pour insomniaques Sans oublier que depuis bébé Y'a une perceuse sur le berceau Si mes comptines? me racontent-ils Sont des berceuses pour insomniaques J'arrive sur un podium vide D'où j'sais plus qui j'affronte Trop d'ombre pour ma blonde Qu'a trouvé la galère trop longue Seul sur le toit du monde Parce qu'on rappait pas pour le nombre J'accompagne que les musiques sombres Et les frères à la tombe Soigner cette maladie rare Ecoute ils me l'ont dit Mais il coule sur mes joues de rat Des gouttes de mélodie Il pleuvait toute la nuit En fa sol ou do ré mi Alors c'est l'rap hardcore, qui faisait parapluie J'ai rêvé d'arc-en-ciel mais d'où j'part tout parait gris Comment pourrait Marc Dorcel, plaire aux anges du paradis Qui mettaient pas d'pyjamas J'ai volé des t'as d'gama? Jescaladais la gouttière pour dormir chez Tatiana Maintenant dans mon lupanar j'les saute comme un impala J'suis l'mec avec ta go' qu'est tout nu quand t'es pas la Et j'vois déjà la fin des hommes Malgré c'que les mayas prédisent J'rentre dans l'nouveau millénium Avec un pied d'biche J'ai perdu l'reste du sommeil Dans les magouilles, et putain Que c'est dur d'être exceptionnel Là d'où j'viens Car ça exploite toutes les chances Malgré l'poids sur l'toit qui penche Même sans essence Fallait bien que la voiture avance Sur le mic j'casse-dédi Faire l'effort pour les faibles Comme Jedi et Cassidy, j'ai d'la force pour les frères Même si l'de-mon est sous l'sol Qui me tient par le col Me tire jusqu'en enfer J'ai d'la force pour les frères Et même si c'est pas vrai Que j'suis qu'un MC dépravé En concert il parait J'ai d'la force pour les frères Alors barricadez Paris Puis entravez nos poignets Car on passera au-travers J'ai d'la force pour les frères J'fais cette musique urbaine qui draine toute la violence En 2,3 pas de danse J'ai d'la force j'ai d'la f...</t>
+          <t>Fait des berceuses pour insomniaques... Tu dors pas ? Tatatam... J'fais le sprint pour être premier sur la série Si la deuxième place est vide C'est que t'as pas réagi assez vite J'ai commencé dans ma bulle Comme un pitbull qui profane Fais pipi sur les MC qui prennent de l'ibuprofène Lorsque mes rimes prenaient formes Les amis m'assassinaient S'ils savaient comme j'les enculent J'crois qu'ils boiraient de la vaseline Et maintenant que ça ramasse Ils saccrochent au train qui trace J'ai un harpon dans la nasse Et j'butte les requins qui m'chassent Tatatam J'ai la trompette et le piano Oh, quand j'me trompe dans les mots J'laisse interpréter les fans Oh, j'suis aimé par ta femme Maintenant que j'monte tellement haut C'est comme si j'pétais des flammes Interpréter des drames Contre qui on s'ligue à tort Qu'on tronçonnait à terre Et qu'à trop saigner des larmes D'alligator Du Darfour au ? Ils me voyaient au carrefour Juste pour laver la verrière J'casse-dédi au vrai ya-kho Qu'étaient la quand il y avait rien Dans la savane et.. Comme si on était une armée d'lions, affamée ? pour le blocus Comme des meneuses à Tolbiac Et mes comptines? me racontent-ils Sont des berceuses pour insomniaques Quand à la somme de mes albums Napparaît pas un seul sans drame Et mes comptines? me racontent-ils Sont des berceuses pour insomniaques Je vous somme d'levez les paumes Le mic à terre sans faire d'arnaques Et mes comptines? me racontent-ils Sont des berceuses pour insomniaques Sans oublier que depuis bébé Y'a une perceuse sur le berceau Si mes comptines? me racontent-ils Sont des berceuses pour insomniaques J'arrive sur un podium vide D'où j'sais plus qui j'affronte Trop d'ombre pour ma blonde Qu'a trouvé la galère trop longue Seul sur le toit du monde Parce qu'on rappait pas pour le nombre J'accompagne que les musiques sombres Et les frères à la tombe Soigner cette maladie rare Ecoute ils me l'ont dit Mais il coule sur mes joues de rat Des gouttes de mélodie Il pleuvait toute la nuit En fa sol ou do ré mi Alors c'est l'rap hardcore, qui faisait parapluie J'ai rêvé d'arc-en-ciel mais d'où j'part tout parait gris Comment pourrait Marc Dorcel, plaire aux anges du paradis Qui mettaient pas d'pyjamas J'ai volé des t'as d'gama? Jescaladais la gouttière pour dormir chez Tatiana Maintenant dans mon lupanar j'les saute comme un impala J'suis l'mec avec ta go' qu'est tout nu quand t'es pas la Et j'vois déjà la fin des hommes Malgré c'que les mayas prédisent J'rentre dans l'nouveau millénium Avec un pied d'biche J'ai perdu l'reste du sommeil Dans les magouilles, et putain Que c'est dur d'être exceptionnel Là d'où j'viens Car ça exploite toutes les chances Malgré l'poids sur l'toit qui penche Même sans essence Fallait bien que la voiture avance Sur le mic j'casse-dédi Faire l'effort pour les faibles Comme Jedi et Cassidy, j'ai d'la force pour les frères Même si l'de-mon est sous l'sol Qui me tient par le col Me tire jusqu'en enfer J'ai d'la force pour les frères Et même si c'est pas vrai Que j'suis qu'un MC dépravé En concert il parait J'ai d'la force pour les frères Alors barricadez Paris Puis entravez nos poignets Car on passera au-travers J'ai d'la force pour les frères J'fais cette musique urbaine qui draine toute la violence En 2,3 pas de danse J'ai d'la force j'ai d'la f...</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Baby, you understand me now J'te protège un peu d'la pluie. Quand même. If sometimes you see that I'm mad Don't you know that no one alive can always be an angel? Pourquoi tu pleures ? When everything goes wrong, you see some bad Boma Yeh C'est un cri d'guerre, la colère du monde en deux mots Comme un poison hors de l'eau Moi j'rappe la rage en première page même si c'était déjà fait par tous Parce que quand j'parle d'amour, que j'connais mal Mes feuilles et mes stylos partouzent Tandis qu'ils partent tous Me décharge comme une cartouche, à bout portant J'avance mon dernier atout dans un casino Partouche En criant partout, quand ils s'demandent de quoi ça parle couz' ? Boma Yeh, ah bon ? Bah c'est d'la bombe Moi j'vis dans c'monde, MC La délation, tandis qu'la malaria tue un enfant chaque 30 secondes Alors j'brûle les fanions de vos nations J'me sens comme Cassius Clay, qui descend de l'avion Et puis tant mieux s'ils sont émeut, si en concert ça créer l'émeute Mais chacune de mes notes est neutre La musique nadoucit pas les meurtres You might also like Quel est l'avenir ? D'une illusion qu'on cumule juste en matériel Si j'suis trop dans les nuages, les cumulus effleurent le ciel Et pourtant c'est pas l'Eden J'compte plus m'en sortir indemne.nan,nan Boma Yeh, c'est quand les larmes sur les joues n'sont pas les tiennes Mais celles de celle que t'aime Et au pluriel faut réussir Mais plus on est déchiré et plus les chiens nous déchirent Pendant qu'les médias nous caressent avec des guerres pour la paix par les soldats d'la liberté Et pour occuper la jeunesse, y'a leur théorèmes de Thalès de Thalès Juste pour faire courir Forest Les apparences ne sont pas ce qu'elles paraissent Mais moi, moi j'sais c'que j'fais, fait moi confiance Saute avec moi de la falaise Mes vestiges d'amour en ruine, j'vous les laisse J'vous les laisse ! J'entends Boma Yeh dès qu'j'm'éveille Quand Elisa tombe de sommeil Pourvu que l'amour la surveille Moi j'ai du tomber du soleil Car j'ai des flammes dans les yeux, frère Et du feu dans les veines Rappeur damnée, pour pardonner, faudrait un million d'poètes travaillant un million d'année Autant d'armées marchant pour moi à leurs pertes Sponsorisée par l'OPEP Buveurs de pétrole cul sec En uniforme dans la poussette, et Boma Yeh J'suis né sur une base militaire avec tellement de rêves brisés De douleurs dures à maitriser Mais pleure pas j'arrangerais l'coup si tu m'soutiens Puis j'ai plus rien, pour finir j'voudrais dire p'tete j'suis fou Mais parfois la vie est cruelle et c'est tout You know sometimes, baby, I'm so carefree Alors pleure pas. With a joy that's hard to hide Don't you know that no one alive can always be an angel? When everything goes wrong, you see some bad1</t>
+          <t>Baby, you understand me now J'te protège un peu d'la pluie. Quand même. If sometimes you see that I'm mad Don't you know that no one alive can always be an angel? Pourquoi tu pleures ? When everything goes wrong, you see some bad Boma Yeh C'est un cri d'guerre, la colère du monde en deux mots Comme un poison hors de l'eau Moi j'rappe la rage en première page même si c'était déjà fait par tous Parce que quand j'parle d'amour, que j'connais mal Mes feuilles et mes stylos partouzent Tandis qu'ils partent tous Me décharge comme une cartouche, à bout portant J'avance mon dernier atout dans un casino Partouche En criant partout, quand ils s'demandent de quoi ça parle couz' ? Boma Yeh, ah bon ? Bah c'est d'la bombe Moi j'vis dans c'monde, MC La délation, tandis qu'la malaria tue un enfant chaque 30 secondes Alors j'brûle les fanions de vos nations J'me sens comme Cassius Clay, qui descend de l'avion Et puis tant mieux s'ils sont émeut, si en concert ça créer l'émeute Mais chacune de mes notes est neutre La musique nadoucit pas les meurtres Quel est l'avenir ? D'une illusion qu'on cumule juste en matériel Si j'suis trop dans les nuages, les cumulus effleurent le ciel Et pourtant c'est pas l'Eden J'compte plus m'en sortir indemne.nan,nan Boma Yeh, c'est quand les larmes sur les joues n'sont pas les tiennes Mais celles de celle que t'aime Et au pluriel faut réussir Mais plus on est déchiré et plus les chiens nous déchirent Pendant qu'les médias nous caressent avec des guerres pour la paix par les soldats d'la liberté Et pour occuper la jeunesse, y'a leur théorèmes de Thalès de Thalès Juste pour faire courir Forest Les apparences ne sont pas ce qu'elles paraissent Mais moi, moi j'sais c'que j'fais, fait moi confiance Saute avec moi de la falaise Mes vestiges d'amour en ruine, j'vous les laisse J'vous les laisse ! J'entends Boma Yeh dès qu'j'm'éveille Quand Elisa tombe de sommeil Pourvu que l'amour la surveille Moi j'ai du tomber du soleil Car j'ai des flammes dans les yeux, frère Et du feu dans les veines Rappeur damnée, pour pardonner, faudrait un million d'poètes travaillant un million d'année Autant d'armées marchant pour moi à leurs pertes Sponsorisée par l'OPEP Buveurs de pétrole cul sec En uniforme dans la poussette, et Boma Yeh J'suis né sur une base militaire avec tellement de rêves brisés De douleurs dures à maitriser Mais pleure pas j'arrangerais l'coup si tu m'soutiens Puis j'ai plus rien, pour finir j'voudrais dire p'tete j'suis fou Mais parfois la vie est cruelle et c'est tout You know sometimes, baby, I'm so carefree Alors pleure pas. With a joy that's hard to hide Don't you know that no one alive can always be an angel? When everything goes wrong, you see some bad1</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mais la haine, euh... La haine d'la différence elle est terrible, hein C'est incroyable cette colère de ceux qui... Qui en fait sont effrayés par tout c'qu'ils comprennent pas Moi j'ai l'sol sous mes pieds et l'ciel au-dessus d'ma tête et c'est ma seule communauté J'ai pas besoin d'avoir cinquante têtes autour de moi pour m'conforter dans mes putains d'choix À tous les gens qui comprennent pas Et c'est pas ça qui fera mode d'emploi Noir est le drapeau qu'on déploie l'soir Sur la place dans les feux d'camp Et si l'amour doit foutre le camp Mon dieu, mon dieu Que j'sois son dernier amant Généralement dans les barr- -icades et la nuit même la Lune attaque C'pour les résidents des Luna Park J'prie pas Dieu que les mers s'écartent car c'est déjà l'cas dans chacune des vagues J'vous laisse dégoupiller vos grenades Abriter vos idéaux dans leurs châteaux d'fables J'ai les avantages de mes inconvénients Comme un effet Big Bang , comme les couleurs du gang Rouge et noir le mélange bing bang Naissance des hommes en sexe ping-pong Mais parlez pas d'amour Vivez dans vos rêves jusqu'au ding dong Le réveil sera plus violent que l'appel d'air du bang You might also like Vivent tous les jours Cette haine de la différence S'ils font tous des choses sottes, nous faisons c'qu'ils font Moi j'veux bien être le diable Y a combien d'têtes qui voudraient nous tuer ? Mais vraiment nous tuer ? C'est c'qu'ils font, c'est ça ? Alors notre musique c'est l'diable Nos blazes, tu veux savoir ? Raid'n Project, Kawa Et Nano au médiateur Calmez-vous bordel, mais ça va Arrêtez, on n'est pas à la maternelle ici, hein C'est moi l'seul vrai pro ici ? Merde, vous deux mais vous êtes pires que des putains d'nègres les mecs Vous avez du sang nègre C'est à partir d'là C'est la colère, les guerres tribales La haine de partout dans tous les sens La montée du Front National Du racisme, du terrorisme, du fascisme C'est que d'l'intolérance Bon Dieu</t>
+          <t>Mais la haine, euh... La haine d'la différence elle est terrible, hein C'est incroyable cette colère de ceux qui... Qui en fait sont effrayés par tout c'qu'ils comprennent pas Moi j'ai l'sol sous mes pieds et l'ciel au-dessus d'ma tête et c'est ma seule communauté J'ai pas besoin d'avoir cinquante têtes autour de moi pour m'conforter dans mes putains d'choix À tous les gens qui comprennent pas Et c'est pas ça qui fera mode d'emploi Noir est le drapeau qu'on déploie l'soir Sur la place dans les feux d'camp Et si l'amour doit foutre le camp Mon dieu, mon dieu Que j'sois son dernier amant Généralement dans les barr- -icades et la nuit même la Lune attaque C'pour les résidents des Luna Park J'prie pas Dieu que les mers s'écartent car c'est déjà l'cas dans chacune des vagues J'vous laisse dégoupiller vos grenades Abriter vos idéaux dans leurs châteaux d'fables J'ai les avantages de mes inconvénients Comme un effet Big Bang , comme les couleurs du gang Rouge et noir le mélange bing bang Naissance des hommes en sexe ping-pong Mais parlez pas d'amour Vivez dans vos rêves jusqu'au ding dong Le réveil sera plus violent que l'appel d'air du bang Vivent tous les jours Cette haine de la différence S'ils font tous des choses sottes, nous faisons c'qu'ils font Moi j'veux bien être le diable Y a combien d'têtes qui voudraient nous tuer ? Mais vraiment nous tuer ? C'est c'qu'ils font, c'est ça ? Alors notre musique c'est l'diable Nos blazes, tu veux savoir ? Raid'n Project, Kawa Et Nano au médiateur Calmez-vous bordel, mais ça va Arrêtez, on n'est pas à la maternelle ici, hein C'est moi l'seul vrai pro ici ? Merde, vous deux mais vous êtes pires que des putains d'nègres les mecs Vous avez du sang nègre C'est à partir d'là C'est la colère, les guerres tribales La haine de partout dans tous les sens La montée du Front National Du racisme, du terrorisme, du fascisme C'est que d'l'intolérance Bon Dieu</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>J'apporte des bouquets de proses, j'te l'avoue Parce que les lilas sont morts, frère, demande à Aznavour J'suis venu porter ma plainte comme la charpente Maintenant que ma voix au microphone défile à chaque pente À l'instar d'Avalon j'oublierai jamais les nuits blanches Les injections au Valium Et Dooz Kawa aux urgences La solitude du jour de l'an dans l'appart à bloquer sur un refrain Et de jamais avoir connnu le jour de la Saint-Valentin Et cette année encore une fois le Père Noël a dû tomber du toit Dis-toi qu'ici on dérape même sur gros sel Toujours à retourner de grosses pelles J'ai tellement porté la croix que c'est du gospel Combien ont vu ce gosse perdre ? Quand les p'tits budgets sur grands rêves engendraient de grosses peines Garder la foi, parfois enfin lécher une chatte En somme, vivre comme une bonne soeur Cracher du sang comme un boxeur Clandestin sur l'Amazone L'eau a coulé sur les songes J'viserai au coeur comme Ramón À ceux qu'ont pas capté qu'y faut du temps J'ajoute juste que moi, j'dépasse les cons en sifflotant Je suis d'la mauvaise herbe locale Poussant en liberté dans le jardin mal fréquenté hexagonal Le gars qui tombe dans les bars avec un panier de proses Nerveux de l'hypothalamus, passant de la chatte à l'anus Pense qu'à taniquer les muses, ça les amuse Toujours à deux doigts de sa culotte Tam-Tam Et moi non plus j't'aime T'aimerais de mes nouvelles si ma douleur est inhumaine ? Toujours au bas du HLM sur un canap' avec Raid'n Kawa fidèle à lui-même, déchiré comme un hymen Et dans mes purs moments de haine, de délire à la Eminem Sordide, par ex. comme kidnapper mon ex, celui qu'elle aime Qu'elle soit c'type couché, livide, qui mate la scène Une balle dans l'bide Et moi j'suis Michael Madsen coupant l'oreille du flic Laissez-moi vous offrir ces quelques douces proses noires Comme les Béru' Comme un mineur libéré de l'éboulement d'une galerie Comme l'uniforme du maton Ou bien comme après le flash du photomaton Noires comme la chute du Faucon Mon point sera plus final que ne l'était la solution Car j'peux vous mettre plus mal à l'aise qu'la fille qui s'caresse parce qu'à la dèche Devant deux ou trois types chauves S'imaginant qu'c'est une p'tite chaude, reality show Demande à Yasser pendant qu'il deale ses p'tits cubes Qu'est-ce qui fait tourner la Terre à part l'argent et les p'tits culs ? J'offrirai plus d'pédoncules car j'suis comme une piqûre dans l'... De celles qui m'ont plus dit Je t'aime après l'annonce de mon pécule Et j'injecte la première dose Un bouquet d'proses You might also like Acceptez ce bouquet d'proses en gage de ma bonne volonté au long terme Passez-moi à l'antenne et c'est Halloween tous les soirs Une citrouille à ma lanterne Des lyrics trempés au curare Car les bons rappeurs sont plus rares que les critiques objectives dans les magazines de rap Paraît qu'la profession m'écarte Les MC's critiquent mon rap et suggèrent à mon label qu'il a joué une mauvaise carte Alors si vos copines s'agitent, c'est juste qu'j'ai ma main sous leur jupe C'est ça Et si ça jute, c'est moi Car faut qu'elles jouissent ce soir J'emmerde la censure, y a pas de hasard et j'... biiip C'est quoi ça ? De quoi ? Le truc bizarre Mais j'crois bien qu't'as mis le bip un peu trop tard Ta 'tasse, heureusement, n'est pas comme toi, une mauvaise langue Elle serre les dents car j'embrasse ses mauvaises lèvres Et ses hormones contrôlent mon métronome Suis-je un rappeur à mettre aux normes ? Que l'public se manifeste Et vous, vous kiffez ou quoi ? Alors enfoiré, maintenant qui dirige l'orchestre ? Choisit ses instrus new-yorkaises</t>
+          <t>J'apporte des bouquets de proses, j'te l'avoue Parce que les lilas sont morts, frère, demande à Aznavour J'suis venu porter ma plainte comme la charpente Maintenant que ma voix au microphone défile à chaque pente À l'instar d'Avalon j'oublierai jamais les nuits blanches Les injections au Valium Et Dooz Kawa aux urgences La solitude du jour de l'an dans l'appart à bloquer sur un refrain Et de jamais avoir connnu le jour de la Saint-Valentin Et cette année encore une fois le Père Noël a dû tomber du toit Dis-toi qu'ici on dérape même sur gros sel Toujours à retourner de grosses pelles J'ai tellement porté la croix que c'est du gospel Combien ont vu ce gosse perdre ? Quand les p'tits budgets sur grands rêves engendraient de grosses peines Garder la foi, parfois enfin lécher une chatte En somme, vivre comme une bonne soeur Cracher du sang comme un boxeur Clandestin sur l'Amazone L'eau a coulé sur les songes J'viserai au coeur comme Ramón À ceux qu'ont pas capté qu'y faut du temps J'ajoute juste que moi, j'dépasse les cons en sifflotant Je suis d'la mauvaise herbe locale Poussant en liberté dans le jardin mal fréquenté hexagonal Le gars qui tombe dans les bars avec un panier de proses Nerveux de l'hypothalamus, passant de la chatte à l'anus Pense qu'à taniquer les muses, ça les amuse Toujours à deux doigts de sa culotte Tam-Tam Et moi non plus j't'aime T'aimerais de mes nouvelles si ma douleur est inhumaine ? Toujours au bas du HLM sur un canap' avec Raid'n Kawa fidèle à lui-même, déchiré comme un hymen Et dans mes purs moments de haine, de délire à la Eminem Sordide, par ex. comme kidnapper mon ex, celui qu'elle aime Qu'elle soit c'type couché, livide, qui mate la scène Une balle dans l'bide Et moi j'suis Michael Madsen coupant l'oreille du flic Laissez-moi vous offrir ces quelques douces proses noires Comme les Béru' Comme un mineur libéré de l'éboulement d'une galerie Comme l'uniforme du maton Ou bien comme après le flash du photomaton Noires comme la chute du Faucon Mon point sera plus final que ne l'était la solution Car j'peux vous mettre plus mal à l'aise qu'la fille qui s'caresse parce qu'à la dèche Devant deux ou trois types chauves S'imaginant qu'c'est une p'tite chaude, reality show Demande à Yasser pendant qu'il deale ses p'tits cubes Qu'est-ce qui fait tourner la Terre à part l'argent et les p'tits culs ? J'offrirai plus d'pédoncules car j'suis comme une piqûre dans l'... De celles qui m'ont plus dit Je t'aime après l'annonce de mon pécule Et j'injecte la première dose Un bouquet d'proses Acceptez ce bouquet d'proses en gage de ma bonne volonté au long terme Passez-moi à l'antenne et c'est Halloween tous les soirs Une citrouille à ma lanterne Des lyrics trempés au curare Car les bons rappeurs sont plus rares que les critiques objectives dans les magazines de rap Paraît qu'la profession m'écarte Les MC's critiquent mon rap et suggèrent à mon label qu'il a joué une mauvaise carte Alors si vos copines s'agitent, c'est juste qu'j'ai ma main sous leur jupe C'est ça Et si ça jute, c'est moi Car faut qu'elles jouissent ce soir J'emmerde la censure, y a pas de hasard et j'... biiip C'est quoi ça ? De quoi ? Le truc bizarre Mais j'crois bien qu't'as mis le bip un peu trop tard Ta 'tasse, heureusement, n'est pas comme toi, une mauvaise langue Elle serre les dents car j'embrasse ses mauvaises lèvres Et ses hormones contrôlent mon métronome Suis-je un rappeur à mettre aux normes ? Que l'public se manifeste Et vous, vous kiffez ou quoi ? Alors enfoiré, maintenant qui dirige l'orchestre ? Choisit ses instrus new-yorkaises</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>J'ai mordu l'or du lauréat, d'une brillance temporaire telle celle d'une aurore boréale Ils courent après le monde réel à 88 miles à l'heure à bord de leur DeLorean Retour vers mon passé décomposé qui le valait bien comme la pub de l'Oreal Leur présent n'est qu'un désir Moi ? Les bateaux ont des ailes, mes souvenirs sentent la Nivea Si leurs histoires de rêve se terminent par Un jour l'hiver arriva c'est qu'ils n'osent pas tourner la page Depuis que les bateaux ont des ailes... tous les cons fixent le rivage On brûle leurs illusions J'aurais pu devenir pompier, sauver des vies armé seul d'un canon à eau Ou bien militaire méritant, guider les canons de chars d'assaut et puis les missiles air-sol Mais la musique avait l'air seule Je serai pas muté à Dachau Être un gangster en porte-à-faux J'aurais pu vendre mon âme au Diable Comme il est vieux, porter sa faux Pour plus entendre C'est par ta faute J'aurais pu traverser les mers sous la bannière du Calypso J'aurais pu demander leur main, en dépit d'aimer les témoins J'eus pu, mais c'eût juste pas été moi Tu vois ? Comme le guitariste homonyme, moi je dis Aime et brûle la haine comme l'hérétique par l'aumônier J'ai vu l'amour se monnayer quelque part Les gens d'en bas tomber de haut et ceux d'en haut tomber bien bas Les danseurs de limba le savent, on est parfois à ras du sol Observés par la balustrade Mais de cette façon implacable on remonte toujours après la barre Aucune erreur irréparable Si leurs histoires de rêves se terminent par Un jour l'hiver arriva c'est qu'ils n'osent pas tourner la page Depuis que les bateaux ont des ailes... tous les cons les fixent au rivage On brûle leurs illusions You might also like J'aurais pu suivre Babylone en craignant le géant de Rhodes Prendre l'autoroute qui mène à Rome Mais comme les amants de Vérone j'ai pris un chemin de chimère Avec ma guitare à la main, que je frotte comme la lampe d'Aladdin À quoi bon toutes ces illusions quand on n'est rien qu'un baladin ? Si j'avais trois voeux ce serait d'en avoir plus qu'un D'être plus cruel pour vivre dans ce monde qu'est le mien</t>
+          <t>J'ai mordu l'or du lauréat, d'une brillance temporaire telle celle d'une aurore boréale Ils courent après le monde réel à 88 miles à l'heure à bord de leur DeLorean Retour vers mon passé décomposé qui le valait bien comme la pub de l'Oreal Leur présent n'est qu'un désir Moi ? Les bateaux ont des ailes, mes souvenirs sentent la Nivea Si leurs histoires de rêve se terminent par Un jour l'hiver arriva c'est qu'ils n'osent pas tourner la page Depuis que les bateaux ont des ailes... tous les cons fixent le rivage On brûle leurs illusions J'aurais pu devenir pompier, sauver des vies armé seul d'un canon à eau Ou bien militaire méritant, guider les canons de chars d'assaut et puis les missiles air-sol Mais la musique avait l'air seule Je serai pas muté à Dachau Être un gangster en porte-à-faux J'aurais pu vendre mon âme au Diable Comme il est vieux, porter sa faux Pour plus entendre C'est par ta faute J'aurais pu traverser les mers sous la bannière du Calypso J'aurais pu demander leur main, en dépit d'aimer les témoins J'eus pu, mais c'eût juste pas été moi Tu vois ? Comme le guitariste homonyme, moi je dis Aime et brûle la haine comme l'hérétique par l'aumônier J'ai vu l'amour se monnayer quelque part Les gens d'en bas tomber de haut et ceux d'en haut tomber bien bas Les danseurs de limba le savent, on est parfois à ras du sol Observés par la balustrade Mais de cette façon implacable on remonte toujours après la barre Aucune erreur irréparable Si leurs histoires de rêves se terminent par Un jour l'hiver arriva c'est qu'ils n'osent pas tourner la page Depuis que les bateaux ont des ailes... tous les cons les fixent au rivage On brûle leurs illusions J'aurais pu suivre Babylone en craignant le géant de Rhodes Prendre l'autoroute qui mène à Rome Mais comme les amants de Vérone j'ai pris un chemin de chimère Avec ma guitare à la main, que je frotte comme la lampe d'Aladdin À quoi bon toutes ces illusions quand on n'est rien qu'un baladin ? Si j'avais trois voeux ce serait d'en avoir plus qu'un D'être plus cruel pour vivre dans ce monde qu'est le mien</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Et c'est à mon tour de briller, comme Zoxea le disait Dans son premier Mic Test. Putain mais qu'est-ce qu'il fait froid, mec Roule moi un gramme en vitesse, à quatre du mat', sur les quais de Brest Mazette gros, tu trembles comme un alcolo En plus toi t'es en chemisette et puis tu as les pieds dans l'eau Tu croyais franchement que mes gars te laisseraient t'enfuir en bateau J'ai jamais été trop fort pour dire adieu et j'aurais préféré que tu restes Tu sais c'est juste le business Y'a rien de personnel, je te dis juste Man, à plus et sans tristesse Tu sais, c'est juste le business Dans la tess' où on a grandi, tu m'as pris dans ta famille Et je t'aurais bien pris dans mes bras mais ton sang risque de tacher mes habits Mon ami, pour toi une place dans mon coeur Un peu comme quand je laisse des traces dans ton lit Faut survivre ici, c'est Koh Lanta Au fait ta femme attend un fils et je crois qu'on l'appellera comme toi Passe le salut aux poissons, fais gaffe aux barracudas Il parait qu'ils bouffent d'abord les doigts T'étais proche comme un père pour moi, tu m'as appris l'humilité Et dans ta poche, je récupère mes cigares, ils supportent mal l'humidité On expliquera que t'es tombé pendant que le bateau tangue Et y'a rien de personnel, c'est juste les affaires courantes Moi j'étais d'accord quand t'argumentes Que c'est mal dans les écoles, d'avoir remis la drogue en vente You might also likeMais ici, avoir raison c'est pas une raison suffisante Surtout quand l'argent rentre. Au fond, t'as un bon fond, celui du fleuve descend en pente Mais trêve de discussions Passe le salut aux poissons Une fois au ciel Quand vous battrez des ailes Consolez ma tristesse Tu sais, c'est juste le business Pardonnez mes péchés Sincèrement je vous appréciait La rancune, c'est qu'une faiblesse Tu sais, c'est juste le business A la messe du Dimanche Souvent, à vous je repense Entre nous y'a pas de stress Tu sais, c'est juste le business Si vous voyez Dieu Dites lui bien que je suis pieu Je veux ma place, à sa droite, en guest Tu sais, c'est juste le business Tu sais Pooky, moi aussi je dois te faire une confidence Ton imprudence, je la met sur le compte de l'adolescence Tu parais speed, ta mif' t'as dit de rentrer plus tôt ? Je veux pas te mentir, tu risques de rater le dernier métro Sois réaliste, combien de types t'as déjà vu Porte de la Chapelle Avec la tête dans un étau ? T'es, pfff, dans un état J'ai déjà vu des ratatouilles qui étaient bien moins douillets que toi J'espère que t'as bien baisé des meufs parce que ce soir, ça s'arrêtera D'un seul schnip, comment, moi, un sale type ? Un humaniste, je ne voudrais juste pas que des rats comme toi pullulent Avec leurs testicules d'indics Au fait parait que t'as fait un disque, comment vous appelez ça ? Ha ouai Ca t'embête pas si je déjeune ? Du Hip Hop ? Ha ouai c'est de la musique de jeunes. Ben c'est classe tu sais En plus je crois bien que les rapeurs morts ont encore plus de succès Dis pas merci. Hey Johny, détache lui juste sa main, de grâce Avant que ta tête ne s'écrase, tu me signes un autographe ? Haha, c'est toujours dégueu quand ça craque Prochaine étape, ma chatte, je crois Que la police se sert d'elle J'en ai plein les semelles Qui aurait pu croire que Pooky possédait une cervelle ? Une fois au ciel Quand vous battrez des ailes Consolez ma tristesse Tu sais, c'est juste le business Pardonnez mes péchés Sincèrement je vous appréciait La rancune, c'est qu'une faiblesse Tu sais, c'est juste le business A la messe du Dimanche Souvent, à vous je repense Entre nous y'a pas de stress Tu sais, c'est juste le business Si vous voyez Dieu Dites lui bien que je suis pieu Je veux ma place, à sa droite, en guest Tu sais, c'est juste le business Salut mon papillon, t'envole pas Ce sera pas long, permets que j'enlève mon pantalon Pendant que je t'explique, papi a fait son grand plongeon Mais tu sais je crois qu'il nage mal avec du plomb Et Pooky le MC donneuse, je crois qu'on peut dire qu'il a craqué Face à l'MC sauteuse, pleure pas car Moi aussi je l'aimais trop mais si tu veux mon avis Ce garçon aimait trop les micros Mais bon, de ton temps j'abuse, t'es au boulot, je voudrais pas me faire des ennemis russes Je vais être sympa et je vais te parler pendant que tu me suces Comment ça tu refuses ? Je t'intimide Tout à coup tu parais prude, tu vas voir ça rend bien moins timide Avec un gun derrière la nuque. Y'a deux trucs qui me chiffonnent D'abord qui peut bien mettre des capotes aussi grandes Et deuxièmement, qui tu fréquentes ? Des policiers de l'anti-gang ? Dis moi que c'est juste des mecs que tu branles Bon, ma journée, je crois qu'elle était déjà sanglante Je t'embrasse ma grande et remercie tes fesses Déesse, je te laisse Demain j'emmène mes enfants à la messe Une fois au ciel Quand vous battrez des ailes Consolez ma tristesse Tu sais, c'est juste le business Pardonnez mes péchés Sincèrement je vous appréciait La rancune, c'est qu'une faiblesse Tu sais, c'est juste le business A la messe du Dimanche Souvent, à vous je repense Entre nous y'a pas de stress Tu sais, c'est juste le business Si vous voyez Dieu Dites lui bien que je suis pieu Je veux ma place, à sa droite, en guest Tu sais, c'est juste le business2</t>
+          <t>Et c'est à mon tour de briller, comme Zoxea le disait Dans son premier Mic Test. Putain mais qu'est-ce qu'il fait froid, mec Roule moi un gramme en vitesse, à quatre du mat', sur les quais de Brest Mazette gros, tu trembles comme un alcolo En plus toi t'es en chemisette et puis tu as les pieds dans l'eau Tu croyais franchement que mes gars te laisseraient t'enfuir en bateau J'ai jamais été trop fort pour dire adieu et j'aurais préféré que tu restes Tu sais c'est juste le business Y'a rien de personnel, je te dis juste Man, à plus et sans tristesse Tu sais, c'est juste le business Dans la tess' où on a grandi, tu m'as pris dans ta famille Et je t'aurais bien pris dans mes bras mais ton sang risque de tacher mes habits Mon ami, pour toi une place dans mon coeur Un peu comme quand je laisse des traces dans ton lit Faut survivre ici, c'est Koh Lanta Au fait ta femme attend un fils et je crois qu'on l'appellera comme toi Passe le salut aux poissons, fais gaffe aux barracudas Il parait qu'ils bouffent d'abord les doigts T'étais proche comme un père pour moi, tu m'as appris l'humilité Et dans ta poche, je récupère mes cigares, ils supportent mal l'humidité On expliquera que t'es tombé pendant que le bateau tangue Et y'a rien de personnel, c'est juste les affaires courantes Moi j'étais d'accord quand t'argumentes Que c'est mal dans les écoles, d'avoir remis la drogue en vente Mais ici, avoir raison c'est pas une raison suffisante Surtout quand l'argent rentre. Au fond, t'as un bon fond, celui du fleuve descend en pente Mais trêve de discussions Passe le salut aux poissons Une fois au ciel Quand vous battrez des ailes Consolez ma tristesse Tu sais, c'est juste le business Pardonnez mes péchés Sincèrement je vous appréciait La rancune, c'est qu'une faiblesse Tu sais, c'est juste le business A la messe du Dimanche Souvent, à vous je repense Entre nous y'a pas de stress Tu sais, c'est juste le business Si vous voyez Dieu Dites lui bien que je suis pieu Je veux ma place, à sa droite, en guest Tu sais, c'est juste le business Tu sais Pooky, moi aussi je dois te faire une confidence Ton imprudence, je la met sur le compte de l'adolescence Tu parais speed, ta mif' t'as dit de rentrer plus tôt ? Je veux pas te mentir, tu risques de rater le dernier métro Sois réaliste, combien de types t'as déjà vu Porte de la Chapelle Avec la tête dans un étau ? T'es, pfff, dans un état J'ai déjà vu des ratatouilles qui étaient bien moins douillets que toi J'espère que t'as bien baisé des meufs parce que ce soir, ça s'arrêtera D'un seul schnip, comment, moi, un sale type ? Un humaniste, je ne voudrais juste pas que des rats comme toi pullulent Avec leurs testicules d'indics Au fait parait que t'as fait un disque, comment vous appelez ça ? Ha ouai Ca t'embête pas si je déjeune ? Du Hip Hop ? Ha ouai c'est de la musique de jeunes. Ben c'est classe tu sais En plus je crois bien que les rapeurs morts ont encore plus de succès Dis pas merci. Hey Johny, détache lui juste sa main, de grâce Avant que ta tête ne s'écrase, tu me signes un autographe ? Haha, c'est toujours dégueu quand ça craque Prochaine étape, ma chatte, je crois Que la police se sert d'elle J'en ai plein les semelles Qui aurait pu croire que Pooky possédait une cervelle ? Une fois au ciel Quand vous battrez des ailes Consolez ma tristesse Tu sais, c'est juste le business Pardonnez mes péchés Sincèrement je vous appréciait La rancune, c'est qu'une faiblesse Tu sais, c'est juste le business A la messe du Dimanche Souvent, à vous je repense Entre nous y'a pas de stress Tu sais, c'est juste le business Si vous voyez Dieu Dites lui bien que je suis pieu Je veux ma place, à sa droite, en guest Tu sais, c'est juste le business Salut mon papillon, t'envole pas Ce sera pas long, permets que j'enlève mon pantalon Pendant que je t'explique, papi a fait son grand plongeon Mais tu sais je crois qu'il nage mal avec du plomb Et Pooky le MC donneuse, je crois qu'on peut dire qu'il a craqué Face à l'MC sauteuse, pleure pas car Moi aussi je l'aimais trop mais si tu veux mon avis Ce garçon aimait trop les micros Mais bon, de ton temps j'abuse, t'es au boulot, je voudrais pas me faire des ennemis russes Je vais être sympa et je vais te parler pendant que tu me suces Comment ça tu refuses ? Je t'intimide Tout à coup tu parais prude, tu vas voir ça rend bien moins timide Avec un gun derrière la nuque. Y'a deux trucs qui me chiffonnent D'abord qui peut bien mettre des capotes aussi grandes Et deuxièmement, qui tu fréquentes ? Des policiers de l'anti-gang ? Dis moi que c'est juste des mecs que tu branles Bon, ma journée, je crois qu'elle était déjà sanglante Je t'embrasse ma grande et remercie tes fesses Déesse, je te laisse Demain j'emmène mes enfants à la messe Une fois au ciel Quand vous battrez des ailes Consolez ma tristesse Tu sais, c'est juste le business Pardonnez mes péchés Sincèrement je vous appréciait La rancune, c'est qu'une faiblesse Tu sais, c'est juste le business A la messe du Dimanche Souvent, à vous je repense Entre nous y'a pas de stress Tu sais, c'est juste le business Si vous voyez Dieu Dites lui bien que je suis pieu Je veux ma place, à sa droite, en guest Tu sais, c'est juste le business2</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Dooz Kawa, Swift Guad, DVK Yeah A.k.a Michel Perché, Patrick Savachier, Chill Morrison DJ Widsid, le manouche enchanté Hun Tu vas finir en sang si tu l'ouvres comme pour montrer ta chatte La rue c'est louche comme un enfant avec une fracture de Monteggia Elle m'a dit assez flirté, allez, maintenant baisse ma culotte Car depuis sa puberté, j'ai un doigt dans la 'sique hip-hop Pour ça que ta copine gigote, Lily Miss à la prod' On fait du lourd comme ZZ Top, toi tu pèses le poids d'Iggy Pop Mon p'tit pote, tu vas finir célib' si tu viens m'checker dans la street Frère, sois sans meuf parce qu'j'suis un fin linguiste Mais j'viens pas du 69, elle m'a dit mets-la moi, t'abuses Mais j'la délaisse excitée comme le terminus du bus Qu'allait pas jusqu'à ma cité, frère, je l'ai juste capacité J'gratte des rimes comme un prurit, pour faire s'envoler l'public Comme mon taux d'gamma-GT, sous mon manteau d'gamin J'étais le schlass sous le chandail, comme les triades de Shanghai Car dans la vie les méchants gagnent, tellement que l'amour tarde Les schlags boivent du champagne servi dans des verres à moutarde Tellement tranchants, quand on chante tu fais caca dans ton caleçon Si ton rap fait des tatouages, moi j'fais des scarifications You might also like Du crépuscule on freestyle Jusqu'au morning sun Dooz KO sur le mic A.k.a Chill Morrison Pas d'solution pour faire la paix On fait du son pour savater Davodka sur le track A.k.a Michel Perché Du crépuscule on freestyle Jusqu'au morning sun Dooz KO sur le mic A.k.a Chill Morrison Pas d'solution pour faire la paix On fait du son pour savater Swift Guad sur le track A.k.a Patrick Savachier On tombe dans l'vide quand tu crois qu'on lévite On débat sur le beat, on fait craquer les vitres On débarque quand c'est dark, sur les poteaux du parc Venus briser des pattes à coups de batte Concerto pour détraqués, rap dans les backyards On s'est pas concertés, comment veux-tu qu'on s'accorde ? Au lever vers la lune, comme relever des morts C'est l'offrande de wheelings des gangs de Baltimore Dérapage de voyous, on rap vers le bayou Les rapaces sont comme des colombes en haillons Les croco' sont die, on nage dans la boue On freestyle sous l'emprise du vaudou Mon son voyage comme un virus, c'est incurable si cette maladie t'prend J'écris mes textes dans une mer noire, j'connais pas leur paradis blanc Lorsque mon flow s'écoule en tes oreilles, dans ton sang j'laisse des grains Moi c'est Michel Perché, tellement perché que la foule lève les bras Moi j'ai un pied dans le rap, un pied sur le , du sang sur mes groles A trop me creuser la tête, mon stylo fait jaillir du pétrole J'décris des scènes, médite et saigne, j'défis mes peines quand j'enquille Mon esprit décède car j'ai pas d'idée saine, mais j'écris des 16 quand j'en tise Tant de hantise, depuis que l'amour s'est fait la malle Lorsque j'me r'trouve sans son, j'gratte le papier comme si j'avais la galle La chance mordille l'hameçon, depuis que j'arpente de grandes collines Mes textes sont comme une Ventoline pour ceux qui manquent d'inspiration Ça fait 5 piges que je monte, que des rageux jouent l'rôle de panneaux stop Pendant qu'ils font des flops, ma 'sique témoigne d'une percée J'aurais pu faire un cassoulet vu l'nombre de fayots qu'j'chope La tête en vrac chaque soir, j'me laisse guider par l'Etoile du Perché Du crépuscule on freestyle Jusqu'au morning sun Dooz KO sur le mic A.k.a Chill Morrison Pas d'solution pour faire la paix On fait du son pour savater Davodka sur le track A.k.a Michel Perché Du crépuscule on freestyle Jusqu'au morning sun Dooz KO sur le mic A.k.a Chill Morrison Pas d'solution pour faire la paix On fait du son pour savater Swift Guad sur le track A.k.a Patrick Savachier Moi c'est Patrick Ça-va-chier, et dans ma vie j'en ai chié des bulles Comme si faire du pe-ra s'apparentait aux 12 travaux d'Hercule Et puis depuis l'début j'me dis qu'plus tard j'finirai pété d'thunes Et puis si ça marche pas j'ferai d'la guitare comme les BB Brunes Carrière en dents d'scie, sur scène, c'est Dirty Dancing J'fais pas les affaires de Banksy ni celles d'un ler-dea dans l'deal Le cur qui s'remplit d'colère, j'leur mets des birdies dans l'mille Maman disait c'est pas la peine, trouve-toi une jeune fille tranquille Ma vie dans l'rap est exemplaire, c'est pour ça qu'j'suis un mec sans gloire Et tant qu'je peux rendre les gens fiers, moi j'avancerai même dans l'noir En rêvant l'soir que j'm'envolerais, j'ferais coucou aux mecs d'en bas Un méchant chien qu'on laisse dans l'square qui n'encaisse que des chèques en bois Pas prévu d'arrêter, pas prévu d'faire une rétrospective J'n'ai fait qu'des grosses bêtises avec des putes et des frérots festifs J'ai mis les deux mains dans l'sang, au-d'ssus j'ai mis le nappage Dans le pe-ra j'suis un bien-pensant mais dans la vie j'suis que d'passage Du crépuscule on freestyle Jusqu'au morning sun Dooz KO sur le mic A.k.a Chill Morrison Pas d'solution pour faire la paix On fait du son pour savater Davodka sur le track A.k.a Michel Perché Du crépuscule on freestyle Jusqu'au morning sun Dooz KO sur le mic A.k.a Chill Morrison Pas d'solution pour faire la paix On fait du son pour savater Swift Guad sur le track A.k.a Patrick Savachier</t>
+          <t>Dooz Kawa, Swift Guad, DVK Yeah A.k.a Michel Perché, Patrick Savachier, Chill Morrison DJ Widsid, le manouche enchanté Hun Tu vas finir en sang si tu l'ouvres comme pour montrer ta chatte La rue c'est louche comme un enfant avec une fracture de Monteggia Elle m'a dit assez flirté, allez, maintenant baisse ma culotte Car depuis sa puberté, j'ai un doigt dans la 'sique hip-hop Pour ça que ta copine gigote, Lily Miss à la prod' On fait du lourd comme ZZ Top, toi tu pèses le poids d'Iggy Pop Mon p'tit pote, tu vas finir célib' si tu viens m'checker dans la street Frère, sois sans meuf parce qu'j'suis un fin linguiste Mais j'viens pas du 69, elle m'a dit mets-la moi, t'abuses Mais j'la délaisse excitée comme le terminus du bus Qu'allait pas jusqu'à ma cité, frère, je l'ai juste capacité J'gratte des rimes comme un prurit, pour faire s'envoler l'public Comme mon taux d'gamma-GT, sous mon manteau d'gamin J'étais le schlass sous le chandail, comme les triades de Shanghai Car dans la vie les méchants gagnent, tellement que l'amour tarde Les schlags boivent du champagne servi dans des verres à moutarde Tellement tranchants, quand on chante tu fais caca dans ton caleçon Si ton rap fait des tatouages, moi j'fais des scarifications Du crépuscule on freestyle Jusqu'au morning sun Dooz KO sur le mic A.k.a Chill Morrison Pas d'solution pour faire la paix On fait du son pour savater Davodka sur le track A.k.a Michel Perché Du crépuscule on freestyle Jusqu'au morning sun Dooz KO sur le mic A.k.a Chill Morrison Pas d'solution pour faire la paix On fait du son pour savater Swift Guad sur le track A.k.a Patrick Savachier On tombe dans l'vide quand tu crois qu'on lévite On débat sur le beat, on fait craquer les vitres On débarque quand c'est dark, sur les poteaux du parc Venus briser des pattes à coups de batte Concerto pour détraqués, rap dans les backyards On s'est pas concertés, comment veux-tu qu'on s'accorde ? Au lever vers la lune, comme relever des morts C'est l'offrande de wheelings des gangs de Baltimore Dérapage de voyous, on rap vers le bayou Les rapaces sont comme des colombes en haillons Les croco' sont die, on nage dans la boue On freestyle sous l'emprise du vaudou Mon son voyage comme un virus, c'est incurable si cette maladie t'prend J'écris mes textes dans une mer noire, j'connais pas leur paradis blanc Lorsque mon flow s'écoule en tes oreilles, dans ton sang j'laisse des grains Moi c'est Michel Perché, tellement perché que la foule lève les bras Moi j'ai un pied dans le rap, un pied sur le , du sang sur mes groles A trop me creuser la tête, mon stylo fait jaillir du pétrole J'décris des scènes, médite et saigne, j'défis mes peines quand j'enquille Mon esprit décède car j'ai pas d'idée saine, mais j'écris des 16 quand j'en tise Tant de hantise, depuis que l'amour s'est fait la malle Lorsque j'me r'trouve sans son, j'gratte le papier comme si j'avais la galle La chance mordille l'hameçon, depuis que j'arpente de grandes collines Mes textes sont comme une Ventoline pour ceux qui manquent d'inspiration Ça fait 5 piges que je monte, que des rageux jouent l'rôle de panneaux stop Pendant qu'ils font des flops, ma 'sique témoigne d'une percée J'aurais pu faire un cassoulet vu l'nombre de fayots qu'j'chope La tête en vrac chaque soir, j'me laisse guider par l'Etoile du Perché Du crépuscule on freestyle Jusqu'au morning sun Dooz KO sur le mic A.k.a Chill Morrison Pas d'solution pour faire la paix On fait du son pour savater Davodka sur le track A.k.a Michel Perché Du crépuscule on freestyle Jusqu'au morning sun Dooz KO sur le mic A.k.a Chill Morrison Pas d'solution pour faire la paix On fait du son pour savater Swift Guad sur le track A.k.a Patrick Savachier Moi c'est Patrick Ça-va-chier, et dans ma vie j'en ai chié des bulles Comme si faire du pe-ra s'apparentait aux 12 travaux d'Hercule Et puis depuis l'début j'me dis qu'plus tard j'finirai pété d'thunes Et puis si ça marche pas j'ferai d'la guitare comme les BB Brunes Carrière en dents d'scie, sur scène, c'est Dirty Dancing J'fais pas les affaires de Banksy ni celles d'un ler-dea dans l'deal Le cur qui s'remplit d'colère, j'leur mets des birdies dans l'mille Maman disait c'est pas la peine, trouve-toi une jeune fille tranquille Ma vie dans l'rap est exemplaire, c'est pour ça qu'j'suis un mec sans gloire Et tant qu'je peux rendre les gens fiers, moi j'avancerai même dans l'noir En rêvant l'soir que j'm'envolerais, j'ferais coucou aux mecs d'en bas Un méchant chien qu'on laisse dans l'square qui n'encaisse que des chèques en bois Pas prévu d'arrêter, pas prévu d'faire une rétrospective J'n'ai fait qu'des grosses bêtises avec des putes et des frérots festifs J'ai mis les deux mains dans l'sang, au-d'ssus j'ai mis le nappage Dans le pe-ra j'suis un bien-pensant mais dans la vie j'suis que d'passage Du crépuscule on freestyle Jusqu'au morning sun Dooz KO sur le mic A.k.a Chill Morrison Pas d'solution pour faire la paix On fait du son pour savater Davodka sur le track A.k.a Michel Perché Du crépuscule on freestyle Jusqu'au morning sun Dooz KO sur le mic A.k.a Chill Morrison Pas d'solution pour faire la paix On fait du son pour savater Swift Guad sur le track A.k.a Patrick Savachier</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Yeah, Le Bon Nob Yeah, Dooz Kawa Sous ma tête il pleut mais jfais cqui mplaît Panser tes bleus, nettoyer tes plaies Yeah, yeah, sous un ciel sauvage Jcrache des orages Écoute le bruit de ma pierre dans létang, je vais le faire dans les temps Jai croqué le fruit de ton coeur et depuis jai des bouts de verre dans les dents Écoute le bruit du vent, je fuis si tu veux que le banc Cest ta bande qui ta mis à terre et tas fini tout seul en te relevant Tu vas cracher des orages On gratte un éclair en canalisant nos rages Des trous dans la tête, je visais leuphorie en démarrant le forage Cétait marrant, mais maintenant jai les dents marrons Jte crache du feu, tu pourras pas finir gelé dans ma rue Regarde le ciel sauvage, la pluie secoue le passage La mère a gâté le docile, le père secoue le pas sage Regarde moi dans les yeux quand je te parle, on ny trouve pas que le tonnerre Jai pris le temps dapaiser mes rivières You might also likeJai compris le prix de la vie sur une civière Je suis de ceux qui pensent à demain quand ils décrivent hier On peut aimer staire et respirer ctair Regarde le ciel sauvage, comprend ses mystères Ouais, sauvage Jai les idées claires KO Viens, jvais te raconter mes coups déclair Sous le ciel sauvage, je crache des orages Sous le ciel sauvage, je crache des orages Sous le ciel sauvage, je crache des orages Sous le ciel sauvage, je crache des orages Cest déjà grave et ça va être pire mais si ça tinspire pas faut mcuter, tes Un rebelle mais de lempire à travers de lotage que tes, tu Crois comprendre ce que je pense mais mes lettres restent toutes cachetées, tes Au milieu des moutons de France, jsuis la présence du loup tacheté, tsé Beaucoup débattent à coup de batte, moi jai le profil inarrêtable Et je kidnappe vos jolies amies et même si vos pièges me coupent les pattes Je fais des carnages à létable, les MCs mécoutent comme en stage Quand jécris ça traverse la feuille et laisse des marques sur la table Ils ne mont pas cru sur lrisque accru dhabiter trop proche de la rive Vaison-la-Romaine sous la crue, jsuis ton symptôme sur Doctolib Cavalier de lhip hop calibre, je monte à cru sur la musique Malgré le brouillard, on avance, jour, clair de lune au diable danse Et nos phares font des lampadaires, mon cheval sait faire toutes les cadences À part les rythmes militaires Ça fait même plus pé-fli ta mère qutu menvoies toutes tes pics de baise Même si, la vérité, moi jai plus ltemps alors je lis même plus mes mails, MC Va un peu mieux tailler ta chatte, à force de bouillav à 4 pattes Tas des hématomes au pubis, on contrôle pas un ciel sauvage Et ton parapluie prend la foudre pendant quta copine prend du f Une timidité dun autre âge, jsuis une femme fontaine en naufrage Tu mdemandes de te faire des trucs que soit-disant tas pas lhabitude Les HLM, un ciel sauvage, là où le climat tparais rude Dooz Kawa Le Bon Nob, à coté lporno parait prude Sous un ciel sauvage Jai les idées claires Viens, jvais te raconter mes coups déclair Sous le ciel sauvage, je crache des orages Sous le ciel sauvage, je crache des orages Sous le ciel sauvage, je crache des orages Sous le ciel sauvage, je crache des orages</t>
+          <t>Yeah, Le Bon Nob Yeah, Dooz Kawa Sous ma tête il pleut mais jfais cqui mplaît Panser tes bleus, nettoyer tes plaies Yeah, yeah, sous un ciel sauvage Jcrache des orages Écoute le bruit de ma pierre dans létang, je vais le faire dans les temps Jai croqué le fruit de ton coeur et depuis jai des bouts de verre dans les dents Écoute le bruit du vent, je fuis si tu veux que le banc Cest ta bande qui ta mis à terre et tas fini tout seul en te relevant Tu vas cracher des orages On gratte un éclair en canalisant nos rages Des trous dans la tête, je visais leuphorie en démarrant le forage Cétait marrant, mais maintenant jai les dents marrons Jte crache du feu, tu pourras pas finir gelé dans ma rue Regarde le ciel sauvage, la pluie secoue le passage La mère a gâté le docile, le père secoue le pas sage Regarde moi dans les yeux quand je te parle, on ny trouve pas que le tonnerre Jai pris le temps dapaiser mes rivières Jai compris le prix de la vie sur une civière Je suis de ceux qui pensent à demain quand ils décrivent hier On peut aimer staire et respirer ctair Regarde le ciel sauvage, comprend ses mystères Ouais, sauvage Jai les idées claires KO Viens, jvais te raconter mes coups déclair Sous le ciel sauvage, je crache des orages Sous le ciel sauvage, je crache des orages Sous le ciel sauvage, je crache des orages Sous le ciel sauvage, je crache des orages Cest déjà grave et ça va être pire mais si ça tinspire pas faut mcuter, tes Un rebelle mais de lempire à travers de lotage que tes, tu Crois comprendre ce que je pense mais mes lettres restent toutes cachetées, tes Au milieu des moutons de France, jsuis la présence du loup tacheté, tsé Beaucoup débattent à coup de batte, moi jai le profil inarrêtable Et je kidnappe vos jolies amies et même si vos pièges me coupent les pattes Je fais des carnages à létable, les MCs mécoutent comme en stage Quand jécris ça traverse la feuille et laisse des marques sur la table Ils ne mont pas cru sur lrisque accru dhabiter trop proche de la rive Vaison-la-Romaine sous la crue, jsuis ton symptôme sur Doctolib Cavalier de lhip hop calibre, je monte à cru sur la musique Malgré le brouillard, on avance, jour, clair de lune au diable danse Et nos phares font des lampadaires, mon cheval sait faire toutes les cadences À part les rythmes militaires Ça fait même plus pé-fli ta mère qutu menvoies toutes tes pics de baise Même si, la vérité, moi jai plus ltemps alors je lis même plus mes mails, MC Va un peu mieux tailler ta chatte, à force de bouillav à 4 pattes Tas des hématomes au pubis, on contrôle pas un ciel sauvage Et ton parapluie prend la foudre pendant quta copine prend du f Une timidité dun autre âge, jsuis une femme fontaine en naufrage Tu mdemandes de te faire des trucs que soit-disant tas pas lhabitude Les HLM, un ciel sauvage, là où le climat tparais rude Dooz Kawa Le Bon Nob, à coté lporno parait prude Sous un ciel sauvage Jai les idées claires Viens, jvais te raconter mes coups déclair Sous le ciel sauvage, je crache des orages Sous le ciel sauvage, je crache des orages Sous le ciel sauvage, je crache des orages Sous le ciel sauvage, je crache des orages</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Enfoiré, première scène... lumière... Ouais, c'est ça hein Ferme les yeux, pour m'envoler un moment ----- Lever d'rideau, j'ai les fesses collées au béton J'voyage en fermant les yeux, mesdames messieurs Pour des raisons d'sécurité, restez derrière J'vous présente dans l'obscurité mon clan qui à l'air Moi même sous ma capuche à cause des lampadaires La rue en avant première, et moi J'ai l'trac comme les acteurs du T-Kaï soundtrack Sometimes I feel like a motherless child Movie titrée en 3 syllabes signée Triste Klan Célèbre Sur une affiche en berne Pendant qu'le rideau se lève Lentement mes yeux se ferment Dans mon film Le diable infâme n'a pas d'corps Le spectateur a faim mais mange rarement du pop-corn C'est moins érotique qu'M6, plus porno que Canal Ici le monde du disque sous l'égo? kiffe le doggy style Pour s'évader du banal sont même prêts au ? Aucune histoire d'amour et malgré les scènes de cul Tu t'endors avant la mire? car le scénar' c'est du vécu La bobine du PQ, pour s'projeter c'est la merde L'héroïne en est, et le héros en herbe You might also like La vie si un film silencieux Plus souvent noir que blanc Des acteurs, que personne n'entend Sur une bobine jaunie par le temps Et comme Charlie Chaplin On s'épuise contre le vent C'est mon cinéma d'quartier On s'épuise contre le vent C'est mon ciné cité Une coupure publicitaire, buvez huit-six de Bavière Moi, j'fais les trous dans mon linge avec H3? Pour une voiture brûlée la deuxième offerte à l'achat Et si ta meuf a grossi envoie-la moins en Thalasso Avec un frigo vide sur les poulets on monte à l'assaut Puis on visite le quartier dans l'panier à salade Y a pas qu'Thalassa pour voyager T'as vu ici c'est sale, E.T. phone-tel-maison Ici c'est pas les Sims, mais bon, yoh J'te raconte une scène de racim-se Fourgonnette et 306, les fliquettes descendent à 6 Emportent un pote, menotté, et claquent la porte Scène classique yoh, pour les Jurassic Porks Tu croyais rester assis, non moi j'tagge sur l'dos d'l'agent Saïd baise la police, ahaha Oh mais mec, tu t'appelles pas Saïd hein? Vas-y ferme ta gueule, yoh Ferme bien ta gueule Tu peux pas comprendre c'est de l'art Shht, c'est du lard tu veux dire ? Ah on dit comme ça ? Shht ! Bah ouais... Shht... on parle pas au cinéma ! Qu'est-ce qui ya ? Hein? C'est un attentat que tout l'monde lève les bras Bien haut, ou j'évacue la salle en vous passant par les ventilos Yo, on vous avait prévenu, on s'fait des films dans la tête Oh, DAX passe dans les rangs, foutez vot'fric dans la casquette Et fouillez les femmes évanouies, vous savez On veut pas faire d'ennuis c'est aussi notre cinéma d'quartier Merci d'coopérer, wesh.. c'est bon ? Le film peut continuer On s'épuise... T-Kaï Cee, contre le vent... Contre le vent... Bourg-Stra... 67100... C'est mon cinéma d'quartier...</t>
+          <t>Enfoiré, première scène... lumière... Ouais, c'est ça hein Ferme les yeux, pour m'envoler un moment ----- Lever d'rideau, j'ai les fesses collées au béton J'voyage en fermant les yeux, mesdames messieurs Pour des raisons d'sécurité, restez derrière J'vous présente dans l'obscurité mon clan qui à l'air Moi même sous ma capuche à cause des lampadaires La rue en avant première, et moi J'ai l'trac comme les acteurs du T-Kaï soundtrack Sometimes I feel like a motherless child Movie titrée en 3 syllabes signée Triste Klan Célèbre Sur une affiche en berne Pendant qu'le rideau se lève Lentement mes yeux se ferment Dans mon film Le diable infâme n'a pas d'corps Le spectateur a faim mais mange rarement du pop-corn C'est moins érotique qu'M6, plus porno que Canal Ici le monde du disque sous l'égo? kiffe le doggy style Pour s'évader du banal sont même prêts au ? Aucune histoire d'amour et malgré les scènes de cul Tu t'endors avant la mire? car le scénar' c'est du vécu La bobine du PQ, pour s'projeter c'est la merde L'héroïne en est, et le héros en herbe La vie si un film silencieux Plus souvent noir que blanc Des acteurs, que personne n'entend Sur une bobine jaunie par le temps Et comme Charlie Chaplin On s'épuise contre le vent C'est mon cinéma d'quartier On s'épuise contre le vent C'est mon ciné cité Une coupure publicitaire, buvez huit-six de Bavière Moi, j'fais les trous dans mon linge avec H3? Pour une voiture brûlée la deuxième offerte à l'achat Et si ta meuf a grossi envoie-la moins en Thalasso Avec un frigo vide sur les poulets on monte à l'assaut Puis on visite le quartier dans l'panier à salade Y a pas qu'Thalassa pour voyager T'as vu ici c'est sale, E.T. phone-tel-maison Ici c'est pas les Sims, mais bon, yoh J'te raconte une scène de racim-se Fourgonnette et 306, les fliquettes descendent à 6 Emportent un pote, menotté, et claquent la porte Scène classique yoh, pour les Jurassic Porks Tu croyais rester assis, non moi j'tagge sur l'dos d'l'agent Saïd baise la police, ahaha Oh mais mec, tu t'appelles pas Saïd hein? Vas-y ferme ta gueule, yoh Ferme bien ta gueule Tu peux pas comprendre c'est de l'art Shht, c'est du lard tu veux dire ? Ah on dit comme ça ? Shht ! Bah ouais... Shht... on parle pas au cinéma ! Qu'est-ce qui ya ? Hein? C'est un attentat que tout l'monde lève les bras Bien haut, ou j'évacue la salle en vous passant par les ventilos Yo, on vous avait prévenu, on s'fait des films dans la tête Oh, DAX passe dans les rangs, foutez vot'fric dans la casquette Et fouillez les femmes évanouies, vous savez On veut pas faire d'ennuis c'est aussi notre cinéma d'quartier Merci d'coopérer, wesh.. c'est bon ? Le film peut continuer On s'épuise... T-Kaï Cee, contre le vent... Contre le vent... Bourg-Stra... 67100... C'est mon cinéma d'quartier...</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bien. Welcome dans le demi-monde éclairé des feux de l'ombre Bizarre, ici sont tombées toutes les feuilles des arbres Et désormais régissent les armes là où les logis se lézardent Le loup est sorti des bois, la brebis boit des larmes d'alcool Afin de pleurer sur un monde sans âme Où on danse à pas de loup autour d'un feu de camp tzigane Où les caravanes sont cachées par le système Où fanent les roses noires que personne n'aime comme le bossu de Notre-Dame Eh, Madame ! Embrasse-moi si tu m'aimes Et même pour que ça devienne beau on fera de l'amour un drame Du charme avec un gramme pour traverser l'tunnel qui mène Du paradis perdu au paradis artificiel Je joue d'la guitare à string ficelle Au milieu d'l'apocalypse comme dans un film à Vin Diesel Des milliers d'lieues sous la mer, le Nautilus est pris d'assaut C'est quoi ton plan B ? Où est-ce que t'es tombé ? Bienvenue dans le demi-monde, hey ! Bienvenue. Bienvenue dans le demi-monde où des millions d'anges déchus tombent En sautant du zeppelin où fut écrit C'est votre monde Un no man's land pour les media Bienvenue sur une planète inconnue par Wikipédia Là où les équipes péda' donnent plus d'leçon et parlent de son Car mon peu-ra leur met une baffe, immédiate comme la parution Danger en voie d'apparition et partisan D'une espèce menaçante cachée derrière des partitions Je vous présente Quoi ? la symphonie qui représente La partie sombre d'un autre monde à l'instar d'Amélie Nothomb Où une demi-lune ronde brille comme les étoiles disparues Bienvenue dans le demi-monde You might also like Bienvenue dans le demi-monde, tanière des loup-garous de Londres Où l'hiver éteint la lumière, frère Le solstice se rallonge pour les soldats en baie d'Ha Long La violence est aveugle et la nuit sera longue Avec du sel sur la langue et du citron sur les dents Ici personne ne prétend posséder l'idée salvatrice J'laisse l'illusion aux émeutiers, aux policiers, aux journalistes Politiciens et autres actrices amatrices vivant sur un autre hémisphère Petit frère, sois pas triste On n'aurait pas été heureux dans le mensonge de la matrice Car dans les songes... leur âme est triste Ici les loups qui dansent en ronde Et les soldats du côté sombre Les naufragés de l'autre monde Sont venus chanter le demi-monde1</t>
+          <t>Bien. Welcome dans le demi-monde éclairé des feux de l'ombre Bizarre, ici sont tombées toutes les feuilles des arbres Et désormais régissent les armes là où les logis se lézardent Le loup est sorti des bois, la brebis boit des larmes d'alcool Afin de pleurer sur un monde sans âme Où on danse à pas de loup autour d'un feu de camp tzigane Où les caravanes sont cachées par le système Où fanent les roses noires que personne n'aime comme le bossu de Notre-Dame Eh, Madame ! Embrasse-moi si tu m'aimes Et même pour que ça devienne beau on fera de l'amour un drame Du charme avec un gramme pour traverser l'tunnel qui mène Du paradis perdu au paradis artificiel Je joue d'la guitare à string ficelle Au milieu d'l'apocalypse comme dans un film à Vin Diesel Des milliers d'lieues sous la mer, le Nautilus est pris d'assaut C'est quoi ton plan B ? Où est-ce que t'es tombé ? Bienvenue dans le demi-monde, hey ! Bienvenue. Bienvenue dans le demi-monde où des millions d'anges déchus tombent En sautant du zeppelin où fut écrit C'est votre monde Un no man's land pour les media Bienvenue sur une planète inconnue par Wikipédia Là où les équipes péda' donnent plus d'leçon et parlent de son Car mon peu-ra leur met une baffe, immédiate comme la parution Danger en voie d'apparition et partisan D'une espèce menaçante cachée derrière des partitions Je vous présente Quoi ? la symphonie qui représente La partie sombre d'un autre monde à l'instar d'Amélie Nothomb Où une demi-lune ronde brille comme les étoiles disparues Bienvenue dans le demi-monde Bienvenue dans le demi-monde, tanière des loup-garous de Londres Où l'hiver éteint la lumière, frère Le solstice se rallonge pour les soldats en baie d'Ha Long La violence est aveugle et la nuit sera longue Avec du sel sur la langue et du citron sur les dents Ici personne ne prétend posséder l'idée salvatrice J'laisse l'illusion aux émeutiers, aux policiers, aux journalistes Politiciens et autres actrices amatrices vivant sur un autre hémisphère Petit frère, sois pas triste On n'aurait pas été heureux dans le mensonge de la matrice Car dans les songes... leur âme est triste Ici les loups qui dansent en ronde Et les soldats du côté sombre Les naufragés de l'autre monde Sont venus chanter le demi-monde1</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>J'cas-dédi ces tracs pour tous les MC T'en pis si les autres comprennent pas Comment est le ciel derrière les bâtiments Les plages en sable des océans Rêver d'y aller puis même l'armée nous y appelle Toujours armée dans la mégapole Parce qu'on tire, et on tire les matières brillantes Pour les dilettantes que même deal elle tente ? Si les nuages se retirent Juste dire un vux aux étoiles filantes Mais nique sa mère faudrait quelles entendent Au milieu de tout ça Dans les boites de thon Imaginer les bons des bélougas Et puis wesh mec t'chuck? bien ou quoi Ironie du voyage Quand l'esprit voit large Et que le corps reste collé au carrelage Le cur s'lache Rêver l'océan Rêver de pure son You might also like Une bulle de rêve dans le creux t'chaque mains Croquer la mesure comme un crevé la faim Rêver du loin mais écrire sur place En passe d'être skyzo De plus en plus conscient des facéties du stylos Oublie la personne d'avant Quand la muse a repérer l'amant Si perd mentalement L'MC n'est qu'un asocial permanent Tenant dans ses bras une l'étoile filante A haletante respiration a niquer dans linstant présent Avant la perte de l'inspiration En levrette comme une branlette intellectuelle Combien de lyric sassouvissent ainsi entre deux ruelles ? Rêver l'océan Rêver de pure son On est dans le dur Cette vie c'est sur Et après Et après Qui sait ? Des cicatrices sur les deux épaules J'me suis coupé sur ma belle étoile A peine effleurer de mes doigts Elle devint une étoile fuyante Malgré la nuit dans la tempête J'm'accroche a la queue d'une commette Armée d'un filet a papillon C'est la hélas ma consolation J'pourchasse las désormais a travers les constellations Ma lumineuse sucrette traverse les rivières et les mers Et même leurs cristaux de sel Ce monde a genoux on m'isole Un Monté-Cristo tout sale J'veux juste mon étoile du sol Rêver l'océan J'veux juste mon étoile du sol J'veux juste mon étoile du sol Rêver de pure son Personne comprends ça.. Pourquoi j'trouve pas le chemin Rien Puisque tout tiens dans la main</t>
+          <t>J'cas-dédi ces tracs pour tous les MC T'en pis si les autres comprennent pas Comment est le ciel derrière les bâtiments Les plages en sable des océans Rêver d'y aller puis même l'armée nous y appelle Toujours armée dans la mégapole Parce qu'on tire, et on tire les matières brillantes Pour les dilettantes que même deal elle tente ? Si les nuages se retirent Juste dire un vux aux étoiles filantes Mais nique sa mère faudrait quelles entendent Au milieu de tout ça Dans les boites de thon Imaginer les bons des bélougas Et puis wesh mec t'chuck? bien ou quoi Ironie du voyage Quand l'esprit voit large Et que le corps reste collé au carrelage Le cur s'lache Rêver l'océan Rêver de pure son Une bulle de rêve dans le creux t'chaque mains Croquer la mesure comme un crevé la faim Rêver du loin mais écrire sur place En passe d'être skyzo De plus en plus conscient des facéties du stylos Oublie la personne d'avant Quand la muse a repérer l'amant Si perd mentalement L'MC n'est qu'un asocial permanent Tenant dans ses bras une l'étoile filante A haletante respiration a niquer dans linstant présent Avant la perte de l'inspiration En levrette comme une branlette intellectuelle Combien de lyric sassouvissent ainsi entre deux ruelles ? Rêver l'océan Rêver de pure son On est dans le dur Cette vie c'est sur Et après Et après Qui sait ? Des cicatrices sur les deux épaules J'me suis coupé sur ma belle étoile A peine effleurer de mes doigts Elle devint une étoile fuyante Malgré la nuit dans la tempête J'm'accroche a la queue d'une commette Armée d'un filet a papillon C'est la hélas ma consolation J'pourchasse las désormais a travers les constellations Ma lumineuse sucrette traverse les rivières et les mers Et même leurs cristaux de sel Ce monde a genoux on m'isole Un Monté-Cristo tout sale J'veux juste mon étoile du sol Rêver l'océan J'veux juste mon étoile du sol J'veux juste mon étoile du sol Rêver de pure son Personne comprends ça.. Pourquoi j'trouve pas le chemin Rien Puisque tout tiens dans la main</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>C'est une goutte d'eau la destinée Ouais ! J'suis pas fait pour être là Ky-Mani Marley, 12 K.O C'est ça la destinée un gosse de rue au micro J'essaie d'rattraper ma destinée Ouais, yo J'essaie d'rattraper ma destinée, on m'estimait peu Mais si tous les boeufs voyaient le monde monde ! avec leur coeur Au-lieu d'me juger avec leurs yeux Voyant l'essieu dans ma caisse à terre J'voyais les cieux sans aucun horizon derrière Quand j'rappais à perte mon frère, j'porte le poids d'Babylone comme une altère J'ai pas connu d'alter-égo, toujours seul dans la galère J'représente avec Ky-Mani pour les anges déchus de la Terre enitère La d'Jamaïq' a ses ghettos et la France a ses quartiers pauvres J'perds l'sommeil quand les voitures crament à ma f'nêtre J'serre le mic' comme un pince-oreille, avant d'voir pousser les arbres centenaires Ecoute tomber les larmes du soleil dans la gouttière d'la cité, elles rejoignent les mers des Caraïbes c'est ... You might also like Une goutte d'eau la destinée C'est une goutte d'eau la destinée</t>
+          <t>C'est une goutte d'eau la destinée Ouais ! J'suis pas fait pour être là Ky-Mani Marley, 12 K.O C'est ça la destinée un gosse de rue au micro J'essaie d'rattraper ma destinée Ouais, yo J'essaie d'rattraper ma destinée, on m'estimait peu Mais si tous les boeufs voyaient le monde monde ! avec leur coeur Au-lieu d'me juger avec leurs yeux Voyant l'essieu dans ma caisse à terre J'voyais les cieux sans aucun horizon derrière Quand j'rappais à perte mon frère, j'porte le poids d'Babylone comme une altère J'ai pas connu d'alter-égo, toujours seul dans la galère J'représente avec Ky-Mani pour les anges déchus de la Terre enitère La d'Jamaïq' a ses ghettos et la France a ses quartiers pauvres J'perds l'sommeil quand les voitures crament à ma f'nêtre J'serre le mic' comme un pince-oreille, avant d'voir pousser les arbres centenaires Ecoute tomber les larmes du soleil dans la gouttière d'la cité, elles rejoignent les mers des Caraïbes c'est ... Une goutte d'eau la destinée C'est une goutte d'eau la destinée</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Intro Dooz Kawa Bonjour... Bonjour tout le monde. Un peu de silence. Toi, tu peux enlever les stylo de ta bouche ? Tu crois qu'tu vas valider ton année comme ça ? Tu passeras m'voir après le cours. Toi, tu poses ton joint. Voilà l'thème. Swift ? Il est où ? Swift ? Le texte ! Refrain Swift Guad Ex, ça veut dire que notre époque est révolue Ex, comme quand j'arrache tes photos collées au mur Ex, pourquoi montrer nos faiblesses on joue les gros durs Ex, dans l'mauvais sens notre relation évolue Ex, j't'exaspère, j'pète les plombs, j'suis excité Ex, souviens-toi quand le sexe était débridé Ex, que des peines de coeur qu'on a trop exhibées Pour une meilleure existence il faudrait t'exiler Disparition totale, y a plus d'soleil pendant l'éclipse Tu vois la vie c'est pas comme les meufs qui sont dans les clips Un jour tu comprends tout et puis ça fait comme un déclic On avance mieux tout seul la vie c'est pas un sport d'équipe Pont Dooz Kawa Bienvenue dans ce cours, on va essayer de voir ce que regroupe le terme ex, qui semble être un terme qu'on utilise envers un être afin de l'déshumaniser, ça permet de le mettre dans un groupe homogène, pour plus remettre en question... Couplet 1 Dooz Kawa Ce qui parfois pourrait gêner, parce que c'est l'terme qui définit La mort d'un être qui est vivant, un peu comme un deuil infini Ce qui signifie aussi qu'ici on les figure comme du cubisme Et si chacun a fait son taf on reverra plus son pubis On s'retrouve sur un tableau d'chasse Désormais nos placements d'argent Sont diamétralement opposées, on néglige ce qui est arrangeant Et pour l'humain déshumanisé ex signifie qui n'est plus Qui engendrait bien des bonheurs Et qui un beau jour nous a déplu Ex, c'est le nom générique qu'on donne de manière négligeable A nos plus intimes cicatrices Ex, blaze, doit on se toise, pour sembler plus fort que nos drames Que si un beau jour on se croise on s'appelle Monsieur ou Madame You might also likeRefrain Swift Guad Ex, ça veut dire que notre époque est révolue Ex, comme quand j'arrache tes photos collées au mur Ex, pourquoi montrer nos faiblesses on joue les gros durs Ex, dans l'mauvais sens notre relation évolue Ex, j't'exaspère, j'pète les plombs, j'suis excité Ex, souviens-toi quand le sexe était débridé Ex, que des peines de coeur qu'on a trop exhibées Pour une meilleure existence il faudrait t'exiler Disparition totale, y a plus d'soleil pendant l'éclipse Tu vois la vie c'est pas comme les meufs qui sont dans les clips Un jour tu comprends tout et puis ça fait comme un déclic On avance mieux tout seul la vie c'est pas un sport d'équipe Couplet 2 Dooz Kawa Et on perd des réseaux artériels sur nos coeurs Et les conséquences sont que le tissu cicatriciel Devient de piètre consistance C'est un téléphone sur écoute Ex, un mot magique d'entourloupe Qui nous rend tous remplaçables Plane comme un danger sur nos couples Ex, ça sent le grill du pain d'mie Qu'on a vécu en plein de nuits Qu'on oublie de signifier qu'on a perdu un point de vie Encore une blessure narcissique Où finalement on ressort plus grand Tirant un trait sur nos principes Et surtout un peu moins enfants On est tout seul un village fou empoisonné à l'ergot de seigle On se sent tout seul dans la foule et tout au fond lego le sait Car l'ex n'a aucune qualité, c'est une grenouille pour l'expérience On oublie qui on a été, dans l'groupe on joue l'expert immense Mais notre inconscient a rêvé Fait que quand parfois il débarque C'est comme si on l'avait rangé Sans mettre de couvercle sur la boîte Au final nous n'sommes que des corps Où les souvenirs sont des menottes Car personne n'a raison ou tort On est toujours l'ex d'un autre Est-ce que ça signifie anciennement ou bien doté d'un enseignement ? D'avoir écrit des pages de vie d'un stylo bic, tout en saignant Car on est tous comme on nous classe On nous classe, un temps plaisant L'ex toujours issu d'une sous-race Irrationnel incompétent Ex Quand sont tombés des bancs de moi Quand un jour passé s'est ouverte la boîte en verre de Pandora Ex Quand la nuit eut autant d'aura Que dans les nuits orphelines Et quand ce corps qu'on adora Jamais il y eut autant de rage, autant d'orage Pour qu'on oublie autant de joie Et qu'on néglige autant d'orgasmes Outro Dooz Kawa Voilà c'est tout, j'libère la classe, j'veux les copies sur mon bureau, à 8h04 le cours s'achève, allez... Next Refrain Swift Guad Ex, ça veut dire que notre époque est révolue Ex, comme quand j'arrache tes photos collées au mur Ex, pourquoi montrer nos faiblesses on joue les gros durs Ex, dans l'mauvais sens notre relation évolue Ex, j't'exaspère, j'pète les plombs j'suis excité Ex, souviens-toi quand le sexe était débridé Ex, que des peines de coeur qu'on a trop exhibées Pour une meilleure existence il faudrait t'exiler Disparition totale, y a plus d'soleil pendant l'éclipse Tu vois la vie c'est pas comme les meufs qui sont dans les clips Un jour tu comprends tout et puis ça fait comme un déclic On avance mieux tout seul la vie c'est pas un sport d'équipe</t>
+          <t>Intro Dooz Kawa Bonjour... Bonjour tout le monde. Un peu de silence. Toi, tu peux enlever les stylo de ta bouche ? Tu crois qu'tu vas valider ton année comme ça ? Tu passeras m'voir après le cours. Toi, tu poses ton joint. Voilà l'thème. Swift ? Il est où ? Swift ? Le texte ! Refrain Swift Guad Ex, ça veut dire que notre époque est révolue Ex, comme quand j'arrache tes photos collées au mur Ex, pourquoi montrer nos faiblesses on joue les gros durs Ex, dans l'mauvais sens notre relation évolue Ex, j't'exaspère, j'pète les plombs, j'suis excité Ex, souviens-toi quand le sexe était débridé Ex, que des peines de coeur qu'on a trop exhibées Pour une meilleure existence il faudrait t'exiler Disparition totale, y a plus d'soleil pendant l'éclipse Tu vois la vie c'est pas comme les meufs qui sont dans les clips Un jour tu comprends tout et puis ça fait comme un déclic On avance mieux tout seul la vie c'est pas un sport d'équipe Pont Dooz Kawa Bienvenue dans ce cours, on va essayer de voir ce que regroupe le terme ex, qui semble être un terme qu'on utilise envers un être afin de l'déshumaniser, ça permet de le mettre dans un groupe homogène, pour plus remettre en question... Couplet 1 Dooz Kawa Ce qui parfois pourrait gêner, parce que c'est l'terme qui définit La mort d'un être qui est vivant, un peu comme un deuil infini Ce qui signifie aussi qu'ici on les figure comme du cubisme Et si chacun a fait son taf on reverra plus son pubis On s'retrouve sur un tableau d'chasse Désormais nos placements d'argent Sont diamétralement opposées, on néglige ce qui est arrangeant Et pour l'humain déshumanisé ex signifie qui n'est plus Qui engendrait bien des bonheurs Et qui un beau jour nous a déplu Ex, c'est le nom générique qu'on donne de manière négligeable A nos plus intimes cicatrices Ex, blaze, doit on se toise, pour sembler plus fort que nos drames Que si un beau jour on se croise on s'appelle Monsieur ou Madame Refrain Swift Guad Ex, ça veut dire que notre époque est révolue Ex, comme quand j'arrache tes photos collées au mur Ex, pourquoi montrer nos faiblesses on joue les gros durs Ex, dans l'mauvais sens notre relation évolue Ex, j't'exaspère, j'pète les plombs, j'suis excité Ex, souviens-toi quand le sexe était débridé Ex, que des peines de coeur qu'on a trop exhibées Pour une meilleure existence il faudrait t'exiler Disparition totale, y a plus d'soleil pendant l'éclipse Tu vois la vie c'est pas comme les meufs qui sont dans les clips Un jour tu comprends tout et puis ça fait comme un déclic On avance mieux tout seul la vie c'est pas un sport d'équipe Couplet 2 Dooz Kawa Et on perd des réseaux artériels sur nos coeurs Et les conséquences sont que le tissu cicatriciel Devient de piètre consistance C'est un téléphone sur écoute Ex, un mot magique d'entourloupe Qui nous rend tous remplaçables Plane comme un danger sur nos couples Ex, ça sent le grill du pain d'mie Qu'on a vécu en plein de nuits Qu'on oublie de signifier qu'on a perdu un point de vie Encore une blessure narcissique Où finalement on ressort plus grand Tirant un trait sur nos principes Et surtout un peu moins enfants On est tout seul un village fou empoisonné à l'ergot de seigle On se sent tout seul dans la foule et tout au fond lego le sait Car l'ex n'a aucune qualité, c'est une grenouille pour l'expérience On oublie qui on a été, dans l'groupe on joue l'expert immense Mais notre inconscient a rêvé Fait que quand parfois il débarque C'est comme si on l'avait rangé Sans mettre de couvercle sur la boîte Au final nous n'sommes que des corps Où les souvenirs sont des menottes Car personne n'a raison ou tort On est toujours l'ex d'un autre Est-ce que ça signifie anciennement ou bien doté d'un enseignement ? D'avoir écrit des pages de vie d'un stylo bic, tout en saignant Car on est tous comme on nous classe On nous classe, un temps plaisant L'ex toujours issu d'une sous-race Irrationnel incompétent Ex Quand sont tombés des bancs de moi Quand un jour passé s'est ouverte la boîte en verre de Pandora Ex Quand la nuit eut autant d'aura Que dans les nuits orphelines Et quand ce corps qu'on adora Jamais il y eut autant de rage, autant d'orage Pour qu'on oublie autant de joie Et qu'on néglige autant d'orgasmes Outro Dooz Kawa Voilà c'est tout, j'libère la classe, j'veux les copies sur mon bureau, à 8h04 le cours s'achève, allez... Next Refrain Swift Guad Ex, ça veut dire que notre époque est révolue Ex, comme quand j'arrache tes photos collées au mur Ex, pourquoi montrer nos faiblesses on joue les gros durs Ex, dans l'mauvais sens notre relation évolue Ex, j't'exaspère, j'pète les plombs j'suis excité Ex, souviens-toi quand le sexe était débridé Ex, que des peines de coeur qu'on a trop exhibées Pour une meilleure existence il faudrait t'exiler Disparition totale, y a plus d'soleil pendant l'éclipse Tu vois la vie c'est pas comme les meufs qui sont dans les clips Un jour tu comprends tout et puis ça fait comme un déclic On avance mieux tout seul la vie c'est pas un sport d'équipe</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Yeah Quand parfois tarrives pas à trouver ta place Ce soir, cette semaine ou cette life Tu finis par tdire Yeah Jsuis dune espèce à part, mais quon dépècera pas, ouais La même haine quAlbator mais des HLM, bâtard Yo, nourri à lalbacore, élevé au rap hardcore Hein, je cherche plus dsolution, je men bas les couilles, dacc-ord Dabord jveux pas de diagnostic, ça sauvera plus mon enfance Ouh, cest trop tard pour la pluie, jsuis fané depuis lexistenc Yeah, lenfant qui bicravait, à dormir dans des cavs Et à quinze ans, chez des prostituées camées, ah mais ah ok Jai pas connu DBZ, à part cquen disait 2-3 têtes Jsuis pas scandalisé, niet, jai jamais eu ma place ici Jme sens comme un satellite soviet, yeah, jai pu constater qumes congénères Sont des cons dégénérés, qumon constat cest quils sont bêtes Jsuis dune espèce à part, mais quon dépècera pas, ouais La même haine quAlbator mais des HLM, bâtard Yo, nourri à lalbacore, élevé au rap hardcore Hein, je cherche plus dsolution, je men bas les couilles, dacc-ord You might also like Jsuis dune espèce à part, mais quon dépècera pas, ouais La même haine quAlbator mais des HLM, bâtard Yo, nourri à lalbacore, élevé au rap hardcore Hein, je cherche plus dsolution, je men bas les couilles, dacc-ord Ouais Taurais fais quoi si tétais moi, plutôt quassistant-témoin hein Ouais jtraînais lhiver, cest cheum la police tape aussi les jeunes Ça sert à rien dappeler à laide, la nuit ça craint sa mère la chienne Ouh, la course contre à la honte, les carambolages méclaboussent Cambriolage et cagoule, voiture cramée jai pas lblues Mon enfance est anormale, on mtabassait, jcrois cest normal On a lhabitude de souffrir, pas de sourire depuis le baby qui gémit Puisque la douleur enseigne, on est devenus des petits génies Et quand entre nous on saigne, on sregarde sans savoir quoi dire Jviens dun monde débile, si on croit tes débile, on coupe pas qula parole Jai grandi dans des villes où les murs qui mabritent étaient remplis de paraboles Tellement de rage à lintérieur que jsuis un orage effrayant Jsuis un virage en frein à main, jbois ma teille tout en tournant Si jtourne à 180 degrés jpourrais peut-être revenir en arrière Je me revois déjà bébé, que jvoudrais sauver des galères Jsuis dune espèce à part, mais quon dépècera pas, ouais La même haine quAlbator mais des HLM, bâtard Yo, nourri à lalbacore, élevé au rap hardcore Hein, je cherche plus dsolution, je men bas les couilles, dacc-ord Jsuis dune espèce à part, mais quon dépècera pas, ouais La même haine quAlbator mais des HLM, bâtard Yo, nourri à lalbacore, élevé au rap hardcore Hein, je cherche plus dsolution, je men bas les couilles, dacc-ord</t>
+          <t>Yeah Quand parfois tarrives pas à trouver ta place Ce soir, cette semaine ou cette life Tu finis par tdire Yeah Jsuis dune espèce à part, mais quon dépècera pas, ouais La même haine quAlbator mais des HLM, bâtard Yo, nourri à lalbacore, élevé au rap hardcore Hein, je cherche plus dsolution, je men bas les couilles, dacc-ord Dabord jveux pas de diagnostic, ça sauvera plus mon enfance Ouh, cest trop tard pour la pluie, jsuis fané depuis lexistenc Yeah, lenfant qui bicravait, à dormir dans des cavs Et à quinze ans, chez des prostituées camées, ah mais ah ok Jai pas connu DBZ, à part cquen disait 2-3 têtes Jsuis pas scandalisé, niet, jai jamais eu ma place ici Jme sens comme un satellite soviet, yeah, jai pu constater qumes congénères Sont des cons dégénérés, qumon constat cest quils sont bêtes Jsuis dune espèce à part, mais quon dépècera pas, ouais La même haine quAlbator mais des HLM, bâtard Yo, nourri à lalbacore, élevé au rap hardcore Hein, je cherche plus dsolution, je men bas les couilles, dacc-ord Jsuis dune espèce à part, mais quon dépècera pas, ouais La même haine quAlbator mais des HLM, bâtard Yo, nourri à lalbacore, élevé au rap hardcore Hein, je cherche plus dsolution, je men bas les couilles, dacc-ord Ouais Taurais fais quoi si tétais moi, plutôt quassistant-témoin hein Ouais jtraînais lhiver, cest cheum la police tape aussi les jeunes Ça sert à rien dappeler à laide, la nuit ça craint sa mère la chienne Ouh, la course contre à la honte, les carambolages méclaboussent Cambriolage et cagoule, voiture cramée jai pas lblues Mon enfance est anormale, on mtabassait, jcrois cest normal On a lhabitude de souffrir, pas de sourire depuis le baby qui gémit Puisque la douleur enseigne, on est devenus des petits génies Et quand entre nous on saigne, on sregarde sans savoir quoi dire Jviens dun monde débile, si on croit tes débile, on coupe pas qula parole Jai grandi dans des villes où les murs qui mabritent étaient remplis de paraboles Tellement de rage à lintérieur que jsuis un orage effrayant Jsuis un virage en frein à main, jbois ma teille tout en tournant Si jtourne à 180 degrés jpourrais peut-être revenir en arrière Je me revois déjà bébé, que jvoudrais sauver des galères Jsuis dune espèce à part, mais quon dépècera pas, ouais La même haine quAlbator mais des HLM, bâtard Yo, nourri à lalbacore, élevé au rap hardcore Hein, je cherche plus dsolution, je men bas les couilles, dacc-ord Jsuis dune espèce à part, mais quon dépècera pas, ouais La même haine quAlbator mais des HLM, bâtard Yo, nourri à lalbacore, élevé au rap hardcore Hein, je cherche plus dsolution, je men bas les couilles, dacc-ord</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Intro K-O T-kai cee , il est minuit J'te raconte en 4 minutes , vite fait C'est juste l'histoire de l'humanité yo , check , check ... Que celui qui n'a jamais pécho leur jette le premier sort Amère cet époque , ils ont besoin d'amours , à mort Peut être que c'est nul , peut être que dans la vie c'est le top , peu importe Puisqu'ils s'adorent . Il lui prête ses pulls et elle lui montre ses petites cullotes Ils ne parviennent plus à vivre l'un sans l'autre , ça réchauffe quand on se croyait esseulé Sentir tant de complicité , le courant passe si bien au bout des mains l'électricité On vie sans voir demain , quand ensemble on s'endort , le coup de foudre rend aveugle la preuve, ou mieux, le score Et dans leurs yeux traine encore un filet de lumière ,un filet de lumière Et pour les deux c'est pareil , séparé ils se sentent tout nu , ensemble ils se sentent tout nul Quand ils se retrouvent tout nu , ils se sentent tenue par l'engueulade du matin Tout les deux regrettes mais recommences le lendemain Chacun passe son tour , quand tout les deux on triche , leurs parties d'amour suit la politique de l'autruche Comment tu veux qu'ils s'expliquent sur un graphique y'aurait que des pics , pour relater leurs moyenne Tant de sentiment ont toujours été extrême , mais bien sûre qu'ils s'aiment , encore Chacun voudraient tuer l'autre , mais après pour vouloir le sauver seraient prét à sacrifier son corp Le tout est si tendrement hardcore qu'en coulent ces larmes que transperce encore un filet de lumière , un filet de Lumière You might also like Cette décision , si ils l'ont prisent en coeur et se séparent en un accord Pourquoi tout les deux ont mals au coeur ? Se disent que l'autre ne manque pas d'air Ils èrent dans un appartement vide , éclairé au lampadaire Chacun se sent inutile sans amours , retour à la case départ avec 18 tours de retard On rentre dans un , quand on en sort , celui qui n'a jamais pécho a du leurs jeter un sort Ils restent assis dans un nuage de poussière que traverse encore , un filet de lumière Aimez vous à mort Aimez vous l'un l'autre Mais aimez vous à mort Sans limite dans la folie tout nu , aimez vous à corp perdu</t>
+          <t>Intro K-O T-kai cee , il est minuit J'te raconte en 4 minutes , vite fait C'est juste l'histoire de l'humanité yo , check , check ... Que celui qui n'a jamais pécho leur jette le premier sort Amère cet époque , ils ont besoin d'amours , à mort Peut être que c'est nul , peut être que dans la vie c'est le top , peu importe Puisqu'ils s'adorent . Il lui prête ses pulls et elle lui montre ses petites cullotes Ils ne parviennent plus à vivre l'un sans l'autre , ça réchauffe quand on se croyait esseulé Sentir tant de complicité , le courant passe si bien au bout des mains l'électricité On vie sans voir demain , quand ensemble on s'endort , le coup de foudre rend aveugle la preuve, ou mieux, le score Et dans leurs yeux traine encore un filet de lumière ,un filet de lumière Et pour les deux c'est pareil , séparé ils se sentent tout nu , ensemble ils se sentent tout nul Quand ils se retrouvent tout nu , ils se sentent tenue par l'engueulade du matin Tout les deux regrettes mais recommences le lendemain Chacun passe son tour , quand tout les deux on triche , leurs parties d'amour suit la politique de l'autruche Comment tu veux qu'ils s'expliquent sur un graphique y'aurait que des pics , pour relater leurs moyenne Tant de sentiment ont toujours été extrême , mais bien sûre qu'ils s'aiment , encore Chacun voudraient tuer l'autre , mais après pour vouloir le sauver seraient prét à sacrifier son corp Le tout est si tendrement hardcore qu'en coulent ces larmes que transperce encore un filet de lumière , un filet de Lumière Cette décision , si ils l'ont prisent en coeur et se séparent en un accord Pourquoi tout les deux ont mals au coeur ? Se disent que l'autre ne manque pas d'air Ils èrent dans un appartement vide , éclairé au lampadaire Chacun se sent inutile sans amours , retour à la case départ avec 18 tours de retard On rentre dans un , quand on en sort , celui qui n'a jamais pécho a du leurs jeter un sort Ils restent assis dans un nuage de poussière que traverse encore , un filet de lumière Aimez vous à mort Aimez vous l'un l'autre Mais aimez vous à mort Sans limite dans la folie tout nu , aimez vous à corp perdu</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sur le mic j'élimine les minables J'ai laminé les domaines XXX de mes ennemis XXX Nous nous munissons de munitions et misons sur l'issue fatale Madame, Messieurs, XXX je vous salue sur cette émission émise L'MC est sur une mission car mes rimes sont des lignes sombres faites de buissons Délimité comme un harki car cattaqué au taquet comme Anakin Je kick des temps, détrône des trucs Détraqués sont mes neurones Je quitte les lignes ennemies éliminées, laisse des milliers d'humiliés Je signe un hymne inimité à l'unanimité T'attires l'animosité Je rappe l'animalité sur la page à l'arrache, casse la cage à la hache, passe Kawa qu'a la rage Et que les lâches XXX Kalash sachent je m'en sortirai XXX je t'embrasse Le temps passe et j'ai toujours pas d'amour pour ceux d'en face J'ai beau me chouffer dans une glace, faire partie du groupe de conciliation Et je regarde passer vos faces de Bastille à Nation Mais non, j'ai toujours pas l'amour pour ceux d'en face Ain't got no love for the other rhymes Got no love for the other side Sur l'acoustique ta copine me dit costaud Caustique comme l'acide au stylo Bic Oxyde tous les MC de boîte Je rappe que des lyrics atypiques qui piquent et les coccyx déboîtent Je débite, je débarque et mes démos sont des battes Agite tellement les nuques qu'on les décapite Capisce ? Si toxique et puis nique au mic l'MC comique qui débute Ma solitude est ma seule étude, je saccage le stud' et m'accapare le mic XXX MC t'as plus de refuge sauf un baggy jean hydrofuge Dooz Kawa dans le stud' Élémentaire mon cher Oster Je vais faire un tuto pour les nuls, ou plutôt un truc genre fascicule Hein ? Y a le feu dans le studio, je continue ? You might also like Got no love for the other side Alors mon pote, tu croyais que j'étais un gros poisson dans une mare ? Je me marre car t'es qu'un poisson-clown déguisé en requin On est tout le panier de crabes et ses piranhas Toi t'es la pire arnaque J'ai largué ta petite nana C'est pour ça que mon rap sent la moule, le tien pue de la raie T'arrêtes de te doigter, toi t'es juste un poisson de ligne Et si on te mettait en Inde tu serais un plat sans riz Dooz Caviar est dans la flaque Tout baigne On harponne en symphonie Oster Lapwassonnerie Got no love for the other side2</t>
+          <t>Sur le mic j'élimine les minables J'ai laminé les domaines XXX de mes ennemis XXX Nous nous munissons de munitions et misons sur l'issue fatale Madame, Messieurs, XXX je vous salue sur cette émission émise L'MC est sur une mission car mes rimes sont des lignes sombres faites de buissons Délimité comme un harki car cattaqué au taquet comme Anakin Je kick des temps, détrône des trucs Détraqués sont mes neurones Je quitte les lignes ennemies éliminées, laisse des milliers d'humiliés Je signe un hymne inimité à l'unanimité T'attires l'animosité Je rappe l'animalité sur la page à l'arrache, casse la cage à la hache, passe Kawa qu'a la rage Et que les lâches XXX Kalash sachent je m'en sortirai XXX je t'embrasse Le temps passe et j'ai toujours pas d'amour pour ceux d'en face J'ai beau me chouffer dans une glace, faire partie du groupe de conciliation Et je regarde passer vos faces de Bastille à Nation Mais non, j'ai toujours pas l'amour pour ceux d'en face Ain't got no love for the other rhymes Got no love for the other side Sur l'acoustique ta copine me dit costaud Caustique comme l'acide au stylo Bic Oxyde tous les MC de boîte Je rappe que des lyrics atypiques qui piquent et les coccyx déboîtent Je débite, je débarque et mes démos sont des battes Agite tellement les nuques qu'on les décapite Capisce ? Si toxique et puis nique au mic l'MC comique qui débute Ma solitude est ma seule étude, je saccage le stud' et m'accapare le mic XXX MC t'as plus de refuge sauf un baggy jean hydrofuge Dooz Kawa dans le stud' Élémentaire mon cher Oster Je vais faire un tuto pour les nuls, ou plutôt un truc genre fascicule Hein ? Y a le feu dans le studio, je continue ? Got no love for the other side Alors mon pote, tu croyais que j'étais un gros poisson dans une mare ? Je me marre car t'es qu'un poisson-clown déguisé en requin On est tout le panier de crabes et ses piranhas Toi t'es la pire arnaque J'ai largué ta petite nana C'est pour ça que mon rap sent la moule, le tien pue de la raie T'arrêtes de te doigter, toi t'es juste un poisson de ligne Et si on te mettait en Inde tu serais un plat sans riz Dooz Caviar est dans la flaque Tout baigne On harponne en symphonie Oster Lapwassonnerie Got no love for the other side2</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>T'arrives en bling-bling et il paraît que tu fais du rap XXX moi je fais du blâme Click, click, blam ! En plein milieu du front sur ton rap à deux balles Je suis venu tailler des MC DJ, fais tourner la DMC Kayo du T-Kaï Cee et Junior sur l'M-I-C Pour tous ceux qui sont pas là ou pas d'ici Arrête de mater mes gens sinon tu vas compter tes dents ... enfin si tu sais compter ! Bah ! Ça t'a fait mal ? Il paraît que t'as pris le micro juste pour avoir ta photo dans Radical T'es déguisé en survêt' avec ton pull de racaille Mais moi je sais qui t'es mec T'es le petit gars à lunettes dans les petites annonces d'Elie Cherche blonde à gros poitrail Le genre qui boit du 'sky au goulot comme les cow-boys Et après deux heures de bordel, qui vomit dans mon hall Arrache-toi de mes ruelles Ici c'est la nouvelle école mais c'est pas la maternelle Je crois que ta mater t'appelle Et rends-moi ma bouteille, hataï En me marchant sur les orteils tu voulais me dépasser par la taille Mais moi je dépasse tes textes à thème juste avec un freestyle Je te rotte-ca l'M-I-C avec ton sachet de thaï Et enlève tes Air Max, j'ai l'impression que c'est ma taille Depuis que t'as vu 8 Mile, illuminé, tu rappes à mort Tu crois que c'est pour ça que t'es né, mais bientôt c'est pour ça que t'es mort Tu crois faire du hip-hop mais c'est de la pollution sonore T'aurais dû faire arts plats avec ton style amorphe J'espère que tu rappes pas comme tu baises ta meufYou might also like</t>
+          <t>T'arrives en bling-bling et il paraît que tu fais du rap XXX moi je fais du blâme Click, click, blam ! En plein milieu du front sur ton rap à deux balles Je suis venu tailler des MC DJ, fais tourner la DMC Kayo du T-Kaï Cee et Junior sur l'M-I-C Pour tous ceux qui sont pas là ou pas d'ici Arrête de mater mes gens sinon tu vas compter tes dents ... enfin si tu sais compter ! Bah ! Ça t'a fait mal ? Il paraît que t'as pris le micro juste pour avoir ta photo dans Radical T'es déguisé en survêt' avec ton pull de racaille Mais moi je sais qui t'es mec T'es le petit gars à lunettes dans les petites annonces d'Elie Cherche blonde à gros poitrail Le genre qui boit du 'sky au goulot comme les cow-boys Et après deux heures de bordel, qui vomit dans mon hall Arrache-toi de mes ruelles Ici c'est la nouvelle école mais c'est pas la maternelle Je crois que ta mater t'appelle Et rends-moi ma bouteille, hataï En me marchant sur les orteils tu voulais me dépasser par la taille Mais moi je dépasse tes textes à thème juste avec un freestyle Je te rotte-ca l'M-I-C avec ton sachet de thaï Et enlève tes Air Max, j'ai l'impression que c'est ma taille Depuis que t'as vu 8 Mile, illuminé, tu rappes à mort Tu crois que c'est pour ça que t'es né, mais bientôt c'est pour ça que t'es mort Tu crois faire du hip-hop mais c'est de la pollution sonore T'aurais dû faire arts plats avec ton style amorphe J'espère que tu rappes pas comme tu baises ta meuf</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Si les enfants veulent tous devenir astronaute c'est pour se barrer de cette terre où ils devront vivre toute leur vie. Ensuite ils grandissent oublient la NASA à cause d'un 5.5 en math. Se haïssent eux-mêmes sans trop savoir pourquoi. Le lycée leur apprend les modalités de l'échec, de l'humiliation. Ceux qui auront leur bac se ruineront en malibu coca. Puis le soleil éclaire un peu plus leur chemin, ils voient un peu mieux l'avenir parce qu'il n'y en a pas. Ce n'est peut-être pas seulement de leur faute. Alors on se met a faire de la politique, un autre monde est possible, le changer serait tellement cool. Ils achètent des t-shirts avec des étoiles rouges et trouvent le mot révolution très beau. S'arrêtent de manger, du MacDo, refusent d'être français, ne regardent plus la météo. De toute façon, demain, il pleuvraYou might also like</t>
+          <t>Si les enfants veulent tous devenir astronaute c'est pour se barrer de cette terre où ils devront vivre toute leur vie. Ensuite ils grandissent oublient la NASA à cause d'un 5.5 en math. Se haïssent eux-mêmes sans trop savoir pourquoi. Le lycée leur apprend les modalités de l'échec, de l'humiliation. Ceux qui auront leur bac se ruineront en malibu coca. Puis le soleil éclaire un peu plus leur chemin, ils voient un peu mieux l'avenir parce qu'il n'y en a pas. Ce n'est peut-être pas seulement de leur faute. Alors on se met a faire de la politique, un autre monde est possible, le changer serait tellement cool. Ils achètent des t-shirts avec des étoiles rouges et trouvent le mot révolution très beau. S'arrêtent de manger, du MacDo, refusent d'être français, ne regardent plus la météo. De toute façon, demain, il pleuvra</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>J'suis juste un journaliste qui liste les vices au microphone Kidnappant Coca-Cola et Sam Barton Contre une liberté d'expression bâillonnée au chatterton Le gamin qui pige vite progresse à chaque heure qui sonne J'ai commencé comme pigiste indépendant, comme Orson Welles Et demandé qu'on me console, est-ce improbable comme un braqueur qui sonne Trop compliqué pour l'école car au lieu d'dire SOS j'dirai consonne-voyelle-consonne Alors girl, qu'est-ce que ça donne ? Heu SEX ! Ok, j'accepte et lèche, me laisse tous mes sentiments retournés C'est pas l'tout de noircir les pages, il faut savoir les tourner J'suis juste un photographe de la tour B, sur les clichés Tout est triste, là où les architectes ont un peu trop joué à Tétris Moi j'étais là sans l'but du jeu, c'est toute la CUS mon GTA Le fond sonore ambiance Claque ça où les lascars Brûlent leur propre voiture pour toucher l'assurance AXA Si à chaque fois j'utilise des images parlantes, des flashs Agfa - qui en disent long Surtout pas de p'tit son puisque la vie est injuste comme Schumacher sur Battiston Comme la fille que j'aimais et son bébé que j'appellerai jamais fiston Mais d'toute façon, c'est c'qu'y avait d'mieux si elle heureuse -ouais mec- Moi j'entendrai l'explosion si mon encre est de l'essence et que j'écris dans l'feu d'l'action Sans carte de presse, comme quand ils étaient 5 sur moi dans c'putain d'car de CRS Répétant à coup d'trique, qu'il me trouve un peu antipa-thique C'que tu penses ça s'dit pas p'tite, mais surtout joue pas l'artiste ou la victime Car un MC exigeant à chaque rime -frère- c'est juste un journaliste rédigeant son journal intime Et si j'trace des lignes Schengen entre mon quartier et la ville J'suis juste un reporter de guerre mobile J'vois l'état nous contenir par la fatigue de l'usine Le sommeil est une arme et j'm'endors en chien de fusil Comme un rebelle parmi les soldats harassés laissant les pigeons ingérer l'pain rassis Si tu crois pas c'que j'rapporte, j'suis qu'un paparazzi Poursuivant Diane, essouflé, sans argent, rêvant d'océan Si on part on est sauvé, j'ai du déposer l'amour au SAV Bonjour, qu'est-ce qui fonctionne pas ? Le mal au coeur si tu savais.. You might also like Je sais oui, mais c'est ça la vie, c'est ça et rien d'autre, c'est la vie Seulement faut être lucide, c'est tout ce qu'on a s'offrir</t>
+          <t>J'suis juste un journaliste qui liste les vices au microphone Kidnappant Coca-Cola et Sam Barton Contre une liberté d'expression bâillonnée au chatterton Le gamin qui pige vite progresse à chaque heure qui sonne J'ai commencé comme pigiste indépendant, comme Orson Welles Et demandé qu'on me console, est-ce improbable comme un braqueur qui sonne Trop compliqué pour l'école car au lieu d'dire SOS j'dirai consonne-voyelle-consonne Alors girl, qu'est-ce que ça donne ? Heu SEX ! Ok, j'accepte et lèche, me laisse tous mes sentiments retournés C'est pas l'tout de noircir les pages, il faut savoir les tourner J'suis juste un photographe de la tour B, sur les clichés Tout est triste, là où les architectes ont un peu trop joué à Tétris Moi j'étais là sans l'but du jeu, c'est toute la CUS mon GTA Le fond sonore ambiance Claque ça où les lascars Brûlent leur propre voiture pour toucher l'assurance AXA Si à chaque fois j'utilise des images parlantes, des flashs Agfa - qui en disent long Surtout pas de p'tit son puisque la vie est injuste comme Schumacher sur Battiston Comme la fille que j'aimais et son bébé que j'appellerai jamais fiston Mais d'toute façon, c'est c'qu'y avait d'mieux si elle heureuse -ouais mec- Moi j'entendrai l'explosion si mon encre est de l'essence et que j'écris dans l'feu d'l'action Sans carte de presse, comme quand ils étaient 5 sur moi dans c'putain d'car de CRS Répétant à coup d'trique, qu'il me trouve un peu antipa-thique C'que tu penses ça s'dit pas p'tite, mais surtout joue pas l'artiste ou la victime Car un MC exigeant à chaque rime -frère- c'est juste un journaliste rédigeant son journal intime Et si j'trace des lignes Schengen entre mon quartier et la ville J'suis juste un reporter de guerre mobile J'vois l'état nous contenir par la fatigue de l'usine Le sommeil est une arme et j'm'endors en chien de fusil Comme un rebelle parmi les soldats harassés laissant les pigeons ingérer l'pain rassis Si tu crois pas c'que j'rapporte, j'suis qu'un paparazzi Poursuivant Diane, essouflé, sans argent, rêvant d'océan Si on part on est sauvé, j'ai du déposer l'amour au SAV Bonjour, qu'est-ce qui fonctionne pas ? Le mal au coeur si tu savais.. Je sais oui, mais c'est ça la vie, c'est ça et rien d'autre, c'est la vie Seulement faut être lucide, c'est tout ce qu'on a s'offrir</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>J'suis juste un journaliste qui liste les vices au microphone Kidnappant Coca-Cola et Sam Barton Contre une liberté d'expression bâillonnée au chatterton Le gamin qui pige vite progresse à chaque heure qui sonne J'ai commencé comme pigiste indépendant, comme Orson Welles Et demandé qu'on me console, est-ce improbable comme un braqueur qui sonne Trop compliqué pour l'école car au lieu d'dire SOS j'dirai consonne-voyelle-consonne Alors girl, qu'est-ce que ça donne ? Heu SEX ! Ok, j'accepte et lèche, me laisse tous mes sentiments retournés C'est pas l'tout de noircir les pages, il faut savoir les tourner J'suis juste un photographe de la tour B, sur les clichés Tout est triste, là où les architectes ont un peu trop joué à Tétris Moi j'étais là sans l'but du jeu, c'est toute la CUS mon GTA Le fond sonore ambiance Claque ça où les lascars Brûlent leur propre voiture pour toucher l'assurance AXA Si à chaque fois j'utilise des images parlantes, des flashs Agfa - qui en disent long Surtout pas de p'tit son puisque la vie est injuste comme Schumacher sur Battiston Comme la fille que j'aimais et son bébé que j'appellerai jamais fiston Mais d'toute façon, c'est c'qu'y avait d'mieux si elle heureuse -ouais mec- Moi j'entendrai l'explosion si mon encre est de l'essence et que j'écris dans l'feu d'l'action Sans carte de presse, comme quand ils étaient 5 sur moi dans c'putain d'car de CRS Répétant à coup d'trique, qu'il me trouve un peu antipa-thique C'que tu penses ça s'dit pas p'tite, mais surtout joue pas l'artiste ou la victime Car un MC exigeant à chaque rime -frère- c'est juste un journaliste rédigeant son journal intime Et si j'trace des lignes Schengen entre mon quartier et la ville J'suis juste un reporter de guerre mobile J'vois l'état nous contenir par la fatigue de l'usine Le sommeil est une arme et j'm'endors en chien de fusil Comme un rebelle parmi les soldats harassés laissant les pigeons ingérer l'pain rassis Si tu crois pas c'que j'rapporte, j'suis qu'un paparazzi Poursuivant Diane, essouflé, sans argent, rêvant d'océan Si on part on est sauvé, j'ai du déposer l'amour au SAV Bonjour, qu'est-ce qui fonctionne pas ? Le mal au coeur si tu savais.. You might also like Je sais oui, mais c'est ça la vie, c'est ça et rien d'autre, c'est la vie Seulement faut être lucide, c'est tout ce qu'on a s'offrir1</t>
+          <t>J'suis juste un journaliste qui liste les vices au microphone Kidnappant Coca-Cola et Sam Barton Contre une liberté d'expression bâillonnée au chatterton Le gamin qui pige vite progresse à chaque heure qui sonne J'ai commencé comme pigiste indépendant, comme Orson Welles Et demandé qu'on me console, est-ce improbable comme un braqueur qui sonne Trop compliqué pour l'école car au lieu d'dire SOS j'dirai consonne-voyelle-consonne Alors girl, qu'est-ce que ça donne ? Heu SEX ! Ok, j'accepte et lèche, me laisse tous mes sentiments retournés C'est pas l'tout de noircir les pages, il faut savoir les tourner J'suis juste un photographe de la tour B, sur les clichés Tout est triste, là où les architectes ont un peu trop joué à Tétris Moi j'étais là sans l'but du jeu, c'est toute la CUS mon GTA Le fond sonore ambiance Claque ça où les lascars Brûlent leur propre voiture pour toucher l'assurance AXA Si à chaque fois j'utilise des images parlantes, des flashs Agfa - qui en disent long Surtout pas de p'tit son puisque la vie est injuste comme Schumacher sur Battiston Comme la fille que j'aimais et son bébé que j'appellerai jamais fiston Mais d'toute façon, c'est c'qu'y avait d'mieux si elle heureuse -ouais mec- Moi j'entendrai l'explosion si mon encre est de l'essence et que j'écris dans l'feu d'l'action Sans carte de presse, comme quand ils étaient 5 sur moi dans c'putain d'car de CRS Répétant à coup d'trique, qu'il me trouve un peu antipa-thique C'que tu penses ça s'dit pas p'tite, mais surtout joue pas l'artiste ou la victime Car un MC exigeant à chaque rime -frère- c'est juste un journaliste rédigeant son journal intime Et si j'trace des lignes Schengen entre mon quartier et la ville J'suis juste un reporter de guerre mobile J'vois l'état nous contenir par la fatigue de l'usine Le sommeil est une arme et j'm'endors en chien de fusil Comme un rebelle parmi les soldats harassés laissant les pigeons ingérer l'pain rassis Si tu crois pas c'que j'rapporte, j'suis qu'un paparazzi Poursuivant Diane, essouflé, sans argent, rêvant d'océan Si on part on est sauvé, j'ai du déposer l'amour au SAV Bonjour, qu'est-ce qui fonctionne pas ? Le mal au coeur si tu savais.. Je sais oui, mais c'est ça la vie, c'est ça et rien d'autre, c'est la vie Seulement faut être lucide, c'est tout ce qu'on a s'offrir1</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Pourtant chaque feuille de texte en boule ou déchirée était sincère Puisqu'on survit déchiré j'ai les yeux rouges devant ma mère Tu vois bien que j'écris de la merde Aspire du shit au pic A défaut d'avoir de l'herbe J'ferme les yeux, et linspiration émane J'écris tellement de textes que je suis sponso par Waterman En fait c'que tu détestes j'amène la tess' dans ton Walkman Eh man ! Vas-y juste 30 secondes que je lui parle Fous-moi un truc un peu plus calme Arrête ! Tu m'répliques tu t'impliques j'l'aurai parié Ca te rend triste de me voir triste Alors on arrête de se parler Pour tous ces moments idiots Mais tu sais que j'ai du boulot Mais nan j'ai pas le temps de manger Et y'a pas de si jamais J'ai toujours moins que rien et si j'avais Ce serai pas mieux Car ici ne rien avoir fait des envieux Faut que j'envoie l'M.I.C dan les cieux J'tuerai le mic pour toi Faut que j'envoie l'M.I.C dan les cieux Moi j'tuerai le mic pour toi You might also likeMoi je rappe pour les étoiles du sol Pas celles en or des shérifs Ah shit je l'ai déjà posé sur d'autres lyrics Alors je dis quoi moi En appelle au tableau noir Là le gars qui fume le mic Comme un joint de marijuana Aspiré par le stylo Consumé par le peu-ra Car j'enfume tout l'opéra Baah ! Explosif comme du C4 Soprano comme les Psy 4 Illicite, Narcozik Propagande en rhétorique Et si le beat te frite comme au MacDo J'apporte un rap de pute pour me mettre le mac à dos Car je travaille tellement mes textes que j'en ai mal aux abdos Ah dommage, vas-y fait tourner déjà ce qu'on a Pourtant chaque feuille de texte en boule ou déchirée était sincère Puisqu'on survit déchiré j'ai les yeux rouges devant ma mère Faut que j'envoie l'M.I.C dans les cieux Moi j'tuerai le mic pour toi Moi j'tuerai le mic pour toi Moi j'tuerai le mic... Faut que j'envoie l'M.I.C dans les cieux</t>
+          <t>Pourtant chaque feuille de texte en boule ou déchirée était sincère Puisqu'on survit déchiré j'ai les yeux rouges devant ma mère Tu vois bien que j'écris de la merde Aspire du shit au pic A défaut d'avoir de l'herbe J'ferme les yeux, et linspiration émane J'écris tellement de textes que je suis sponso par Waterman En fait c'que tu détestes j'amène la tess' dans ton Walkman Eh man ! Vas-y juste 30 secondes que je lui parle Fous-moi un truc un peu plus calme Arrête ! Tu m'répliques tu t'impliques j'l'aurai parié Ca te rend triste de me voir triste Alors on arrête de se parler Pour tous ces moments idiots Mais tu sais que j'ai du boulot Mais nan j'ai pas le temps de manger Et y'a pas de si jamais J'ai toujours moins que rien et si j'avais Ce serai pas mieux Car ici ne rien avoir fait des envieux Faut que j'envoie l'M.I.C dan les cieux J'tuerai le mic pour toi Faut que j'envoie l'M.I.C dan les cieux Moi j'tuerai le mic pour toi Moi je rappe pour les étoiles du sol Pas celles en or des shérifs Ah shit je l'ai déjà posé sur d'autres lyrics Alors je dis quoi moi En appelle au tableau noir Là le gars qui fume le mic Comme un joint de marijuana Aspiré par le stylo Consumé par le peu-ra Car j'enfume tout l'opéra Baah ! Explosif comme du C4 Soprano comme les Psy 4 Illicite, Narcozik Propagande en rhétorique Et si le beat te frite comme au MacDo J'apporte un rap de pute pour me mettre le mac à dos Car je travaille tellement mes textes que j'en ai mal aux abdos Ah dommage, vas-y fait tourner déjà ce qu'on a Pourtant chaque feuille de texte en boule ou déchirée était sincère Puisqu'on survit déchiré j'ai les yeux rouges devant ma mère Faut que j'envoie l'M.I.C dans les cieux Moi j'tuerai le mic pour toi Moi j'tuerai le mic pour toi Moi j'tuerai le mic... Faut que j'envoie l'M.I.C dans les cieux</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ouais Paraît qu't'es partie amoureuse Et qu'tu l'sais pas Commencer par quand on est deux C'est parc' que c'est un monde de flou Et qu't'es dans la neige bulleuse Avalanche malheureuse de sentiments Tu sens qu'j'ai mal Quand j'donne autant d'amour Que si t'avais de senti-mal Ma puce t'es plus Que tes rivales Deuxième au plus juste Avant l'do-ré-mi-fa Premier tome dernir automne J'suis en trans pire Qu'ct avion qui transporte Et mes yeux qui transpirent Car même les feuilles mortes Rappellent à mon souvenir Dooz Kawa chanson d'amour ? Pff tu veux rire J'ai perdu l'sens de l'humour Sans dessus-dessous Sont tes sens sans cesse C'est les miens sont les mêmes En sens inverse You might also likeRegarde j'te montre en main Plus qu'à synchroniser nos montres Plus que 5 secondes Pour te souvenir que tu plais Tous les jours j'y panse Tes plaies Allo Allo A-A- Allo Allo</t>
+          <t>Ouais Paraît qu't'es partie amoureuse Et qu'tu l'sais pas Commencer par quand on est deux C'est parc' que c'est un monde de flou Et qu't'es dans la neige bulleuse Avalanche malheureuse de sentiments Tu sens qu'j'ai mal Quand j'donne autant d'amour Que si t'avais de senti-mal Ma puce t'es plus Que tes rivales Deuxième au plus juste Avant l'do-ré-mi-fa Premier tome dernir automne J'suis en trans pire Qu'ct avion qui transporte Et mes yeux qui transpirent Car même les feuilles mortes Rappellent à mon souvenir Dooz Kawa chanson d'amour ? Pff tu veux rire J'ai perdu l'sens de l'humour Sans dessus-dessous Sont tes sens sans cesse C'est les miens sont les mêmes En sens inverse Regarde j'te montre en main Plus qu'à synchroniser nos montres Plus que 5 secondes Pour te souvenir que tu plais Tous les jours j'y panse Tes plaies Allo Allo A-A- Allo Allo</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Parait que t'es partie amoureuse et que tu l'sais pas Comment on s'sépare Quand on est deux Parce que c'est un monde flou Et que t'es dans la neige-buleuse Avalanche malheureuse de sentiments Tu sens que j'ai mal quand je donne autant d'amour Que si t'avais de sang timal Ma puce t'es plus que tes rivales, deuxième opus Juste avant le do ré mi fa Premier tome dernier automne J'suis en transe pire que cet avion qui transporte Et mes yeux qui transpirent Car même les feuilles mortes Te rappellent à mon souvenir Dooz K.O chanson d'amour pfff tu veux rire J'ai perdu le sens de l'humour Sans dessus dessous sont tes sens sans cesse Et les miens sont les même en sens inverse Regarde j'te montre en main Plus qu'à synchroniser nos montres Plus que cinq secondes Pour te souvenir que tu plaîts Tous les jours j'y pense ... tes plaiesYou might also like1</t>
+          <t>Parait que t'es partie amoureuse et que tu l'sais pas Comment on s'sépare Quand on est deux Parce que c'est un monde flou Et que t'es dans la neige-buleuse Avalanche malheureuse de sentiments Tu sens que j'ai mal quand je donne autant d'amour Que si t'avais de sang timal Ma puce t'es plus que tes rivales, deuxième opus Juste avant le do ré mi fa Premier tome dernier automne J'suis en transe pire que cet avion qui transporte Et mes yeux qui transpirent Car même les feuilles mortes Te rappellent à mon souvenir Dooz K.O chanson d'amour pfff tu veux rire J'ai perdu le sens de l'humour Sans dessus dessous sont tes sens sans cesse Et les miens sont les même en sens inverse Regarde j'te montre en main Plus qu'à synchroniser nos montres Plus que cinq secondes Pour te souvenir que tu plaîts Tous les jours j'y pense ... tes plaies1</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Encore un texte subtil pour faire passer la pilule Subutex, Dans un univers en ruines J'définis le climat social d'un hiver en rimes Là où y'a plus d'héros mais des flocons d'héroïne Ici, y'a pas de Néo qui s'enfuit par la cabine Pour des p'tites sommes Là-bas dans les villes Plus j'connais les hommes J'aime mon chien et ses canines Mais bon, c'est vrai qu'ici dans ma rue, ils s'battent aussi pour des ronds Que l'artiste meurt avec moi si on m'brûle tout comme Néron Et combien d'entre nous se disent au fond Eh! eh! W, j'encule ta mère C'est vrai que si son père, avait choisi le bon trou Ça serait un peu moins la merde J'ai vu des flics avec Dutroux J'ai voulu rester neutre, à visage découvert, pendant l'émeute Puisque pendant la guerre, on n'accuse personne de meurtre En tout cas, pas l'État Car leurs papiers gèrent, les ghettos, les booba et les sheitans Les lascars en lacoste et puis même les trafics d'organes Et ces bouffons tous seuls dans leurs voitures Gueulant dans les bouchons que l'on pollue la nature Qu'il faudrait changer tout ça, à coup de Front National C'est logique pour le mal, le sang contaminé condamne le business illégal Mais reste assis et baille Et fais marcher tes piles plutôt que marcher à pied Là-bàs dans les villes ils se battent pour du papier... You might also likeLà-bas dans les villes ils s'battent pour du papier, ouais pourquoi pas, non mais c'est un bouchtim en vérité, les rappeurs, les rappeurs d'leur mère quoi, qu'est-ce qu'ils racontent, pfff ouais mec euh,c'est la galère euh, putain, les mecs tous les jours à midi ils mangent, tu t'dis ouais... Tu crois qu'c'est plus simple de rapper ? -Non j'dis pas qu'c'est plus simple de rapper, j'dis juste c'est plus simple... les mecs qui ont à dire quelque chose en vrai, c'est les mecs qu'on entend pas, c'est ça le truc, mais tu veux qu' j'te dise franchement, ton micro il tue... Là-bas dans les villes, ils se battent pour du papier hygiénique Car ma cité est construite à côté d'une usine chimique Car l'argent donne la santé et rend mignon Si j'ai j'ai les dents cassées, moi, j'suis pas né dans du coton Moi, j'survis par mes fonctions primaires, et analyste de mon état J'suis pas un fonctionnaire, ces ptites putes maquées par l'état Cachées derrière du verre, pour éviter que je les pé-ta En chaque humain y'a le potentiel, pour être un enfoiré modèle Pour te le prouver, descends dans la rue, crie enfoiré Tu verras tout le monde s'retourner Messages aux députés d'mes fesses À cause de vous ma planète est plus pourrie qu'un crs La tondeuse à gazon gronde dans les jardins du monde J'emmerde les blancs, les noirs, les bleus, les jaunes et les fausses blondes Les fox terriers à poils durs et les sâles gueules et les concombres Et les enfoirés qui m'en veulent J'tavoue, si les connards brillaient dans le noir, ça fait longtemps que j'serais aveugle Et vous, comment vous voyez la planète A vous croire différents et faire l'amour sur internet Avant j'serrais des culs, et maintenant tout le monde serre les fesses C'est la dech mais on s'taira, puisque là-bas dans les villes... etc Ouais enfin bref voilà quoi, on veut du flouze, j'ai une voiture toute pourrie, j'habite dans un appart' pourri, mais c'est bien...j'ai un appart', j'ai une voiture...y'en a même pas ils ont un toit au-dessus de la tête...mais laisse, laisse tourner, qu'est-ce t'en as à foutre putain ? on est des bourges, on est des nantis dans nos hlm, on croit qu'on est des pauvres... on est des riches qu'est-ce qu'y a ? mais en vrai à l'échelle de l'humanité on est des boeufs, on est des, on est des riches qu'est-ce qu'y a ? où t'as vu qu'on était pauvre ? pourquoi ? parce qu'on a pas de sapes, parce que merde, on 'a pas les dernières Nike ? j'sais pas moi à part les gars du T-Kaï y'a personne qui m'casse les couilles moi, y'a, y'a que ce petit putain de kawa... il fait des trucs de ouf, dis-moi, tu connais quelqu'un qui habite dans un quartier qui a jamais vu des trucs comme ça... c'est du classique...</t>
+          <t>Encore un texte subtil pour faire passer la pilule Subutex, Dans un univers en ruines J'définis le climat social d'un hiver en rimes Là où y'a plus d'héros mais des flocons d'héroïne Ici, y'a pas de Néo qui s'enfuit par la cabine Pour des p'tites sommes Là-bas dans les villes Plus j'connais les hommes J'aime mon chien et ses canines Mais bon, c'est vrai qu'ici dans ma rue, ils s'battent aussi pour des ronds Que l'artiste meurt avec moi si on m'brûle tout comme Néron Et combien d'entre nous se disent au fond Eh! eh! W, j'encule ta mère C'est vrai que si son père, avait choisi le bon trou Ça serait un peu moins la merde J'ai vu des flics avec Dutroux J'ai voulu rester neutre, à visage découvert, pendant l'émeute Puisque pendant la guerre, on n'accuse personne de meurtre En tout cas, pas l'État Car leurs papiers gèrent, les ghettos, les booba et les sheitans Les lascars en lacoste et puis même les trafics d'organes Et ces bouffons tous seuls dans leurs voitures Gueulant dans les bouchons que l'on pollue la nature Qu'il faudrait changer tout ça, à coup de Front National C'est logique pour le mal, le sang contaminé condamne le business illégal Mais reste assis et baille Et fais marcher tes piles plutôt que marcher à pied Là-bàs dans les villes ils se battent pour du papier... Là-bas dans les villes ils s'battent pour du papier, ouais pourquoi pas, non mais c'est un bouchtim en vérité, les rappeurs, les rappeurs d'leur mère quoi, qu'est-ce qu'ils racontent, pfff ouais mec euh,c'est la galère euh, putain, les mecs tous les jours à midi ils mangent, tu t'dis ouais... Tu crois qu'c'est plus simple de rapper ? -Non j'dis pas qu'c'est plus simple de rapper, j'dis juste c'est plus simple... les mecs qui ont à dire quelque chose en vrai, c'est les mecs qu'on entend pas, c'est ça le truc, mais tu veux qu' j'te dise franchement, ton micro il tue... Là-bas dans les villes, ils se battent pour du papier hygiénique Car ma cité est construite à côté d'une usine chimique Car l'argent donne la santé et rend mignon Si j'ai j'ai les dents cassées, moi, j'suis pas né dans du coton Moi, j'survis par mes fonctions primaires, et analyste de mon état J'suis pas un fonctionnaire, ces ptites putes maquées par l'état Cachées derrière du verre, pour éviter que je les pé-ta En chaque humain y'a le potentiel, pour être un enfoiré modèle Pour te le prouver, descends dans la rue, crie enfoiré Tu verras tout le monde s'retourner Messages aux députés d'mes fesses À cause de vous ma planète est plus pourrie qu'un crs La tondeuse à gazon gronde dans les jardins du monde J'emmerde les blancs, les noirs, les bleus, les jaunes et les fausses blondes Les fox terriers à poils durs et les sâles gueules et les concombres Et les enfoirés qui m'en veulent J'tavoue, si les connards brillaient dans le noir, ça fait longtemps que j'serais aveugle Et vous, comment vous voyez la planète A vous croire différents et faire l'amour sur internet Avant j'serrais des culs, et maintenant tout le monde serre les fesses C'est la dech mais on s'taira, puisque là-bas dans les villes... etc Ouais enfin bref voilà quoi, on veut du flouze, j'ai une voiture toute pourrie, j'habite dans un appart' pourri, mais c'est bien...j'ai un appart', j'ai une voiture...y'en a même pas ils ont un toit au-dessus de la tête...mais laisse, laisse tourner, qu'est-ce t'en as à foutre putain ? on est des bourges, on est des nantis dans nos hlm, on croit qu'on est des pauvres... on est des riches qu'est-ce qu'y a ? mais en vrai à l'échelle de l'humanité on est des boeufs, on est des, on est des riches qu'est-ce qu'y a ? où t'as vu qu'on était pauvre ? pourquoi ? parce qu'on a pas de sapes, parce que merde, on 'a pas les dernières Nike ? j'sais pas moi à part les gars du T-Kaï y'a personne qui m'casse les couilles moi, y'a, y'a que ce petit putain de kawa... il fait des trucs de ouf, dis-moi, tu connais quelqu'un qui habite dans un quartier qui a jamais vu des trucs comme ça... c'est du classique...</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Couplet 1 Et si j'avais que deux minutes pour faire un croquis? Peindre les sentiments, en clair obscur Un peu d'lumière dans l'obscur ça se voit toujours Comme dans la couleur des émotions Contrairement à un peu d'obscurité sur de la lumière Sauf peut-être sur une radio du poumon Et comme me dirait Aude parfois le jour me nuit Comme me dirait l'aube, parfois la nuit m'ajourne Peut être que les sentiments sont une cueillette de fleurs invisibles Qui font des bouquets d'émotions cueillis dans un champ chromatique Personne voudrait avoir juste un bouquet monotone Fait que de dahlias noires et d'émotions monochromes Si on aboie c'est qu'on a la rage car on est fait du sang des en chiens Des jardins d'où poussait la révolution dillets, de tulipes et de jasmins Bien qu'on soit fait de ce terreau rare dans les faits pas des terroristes Que des bombes de peintures de ces couleurs qui les terrorisent Rouge, orange, rose, bleu ciel frère! d'où l'archange siège La révolte n'est qu'une flèche tirée d'un arc en ciel On plane au cur d'un orage mais on peindra des merveilles On transpercera les nuages, ces cataractes du ciel ! You might also like Yeah, si tu tournes dans ton lit sans trouver le soleil Que ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cache, ces cataractes du ciel Et tu tournes et tu tournes sans trouver le soleil Et ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cachent, ces cataractes du ciel Le tableau des sentiments est une étoile de maître Mais tu la gâches à trop mettre le noir du ressentiment Dans le son les mots sont une mélodie en panel La couleur des émotions est un arc en ciel Mais t'ouvres ton parapluie quand il tombe des gouttes de lumières aussi Pour voir la vie en rose faut savoir passer par ses épines Bah ouais parfois j'ai les idées noires mais ma musique est un bruit blanc C'est comme un voleur d'espoir, la tristesse est un brigand Et réduire tout le spectre des couleurs aux symboles C'est réduire tout l'orchestre symphonique aux cymbales C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cachent, ces cataractes du ciel Et tu tournes et tu tournes sans trouver le soleil Et ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cache, ces cataractes du ciel Tu vois l'tableau?2</t>
+          <t>Couplet 1 Et si j'avais que deux minutes pour faire un croquis? Peindre les sentiments, en clair obscur Un peu d'lumière dans l'obscur ça se voit toujours Comme dans la couleur des émotions Contrairement à un peu d'obscurité sur de la lumière Sauf peut-être sur une radio du poumon Et comme me dirait Aude parfois le jour me nuit Comme me dirait l'aube, parfois la nuit m'ajourne Peut être que les sentiments sont une cueillette de fleurs invisibles Qui font des bouquets d'émotions cueillis dans un champ chromatique Personne voudrait avoir juste un bouquet monotone Fait que de dahlias noires et d'émotions monochromes Si on aboie c'est qu'on a la rage car on est fait du sang des en chiens Des jardins d'où poussait la révolution dillets, de tulipes et de jasmins Bien qu'on soit fait de ce terreau rare dans les faits pas des terroristes Que des bombes de peintures de ces couleurs qui les terrorisent Rouge, orange, rose, bleu ciel frère! d'où l'archange siège La révolte n'est qu'une flèche tirée d'un arc en ciel On plane au cur d'un orage mais on peindra des merveilles On transpercera les nuages, ces cataractes du ciel ! Yeah, si tu tournes dans ton lit sans trouver le soleil Que ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cache, ces cataractes du ciel Et tu tournes et tu tournes sans trouver le soleil Et ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cachent, ces cataractes du ciel Le tableau des sentiments est une étoile de maître Mais tu la gâches à trop mettre le noir du ressentiment Dans le son les mots sont une mélodie en panel La couleur des émotions est un arc en ciel Mais t'ouvres ton parapluie quand il tombe des gouttes de lumières aussi Pour voir la vie en rose faut savoir passer par ses épines Bah ouais parfois j'ai les idées noires mais ma musique est un bruit blanc C'est comme un voleur d'espoir, la tristesse est un brigand Et réduire tout le spectre des couleurs aux symboles C'est réduire tout l'orchestre symphonique aux cymbales C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cachent, ces cataractes du ciel Et tu tournes et tu tournes sans trouver le soleil Et ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cache, ces cataractes du ciel Tu vois l'tableau?2</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jai pas su tuer lenfance, tu vis dans James et la grosse perche Évite Willy Wonkcrack les soirs où cest la grosse dech Les lumières de la ville deviennent le tombeau des lucioles Si jtombe au début de laube cest que Lucifer me la mise, Boy ! Fumée, atmosphère grise. Conte urbain des Frères Grimm Lumières allogènes, tise et son quotidin sesquisse Excès et sévics parce que trop de rêves restèrent ternes Direction la maison des vices comme Hansel et Gretel Parfois j'suis mauvais je lai dans le sang, ce slarvi Toi tes José Bové face aux enfants du maïs On saluera la nuit comme les Croquemitaines, les Vampires Ta fausse vie termine en pire, donc fuck systèmes et empires ! Penser au suicide quand Sheitan te sourit la nuit Puis à la mif, ses larmes, linstant daprès donc toublies ça vite Chat Botté sans sa frime, chaque soir ta beauté sen abime À tendre la main aux anges tu finis par sauter dans labîme Et on dévore des lucioles pendant que laube révèle son règne Paraît que cest ce quon aime, qules troubles deviennent obsessionnels Jai vu ma vie défiler les étoiles scintiller briller, puis épuisé Jai fui les pluies et vu le temps scier les peupliers You might also likeEt cest reparti pour un tour on fera lamour, trinque à la mort Même lâme amère on se marre dans le bar cest le Salvador Jai côtoyé la folie quand les tocs minfectent le soir Les aller-retours aux chiottes pour gerber des insectes noirs alors Petit Poucet trace ton chemin devra épouser son destin Sent la douleur dans lintestin Et cest rare ici-bas que les loups finissent en zonpri Demande à Karaba, y a pas de sorcière y a qudes femmes incomprises Faire le mal dans lerrance, y a que sous drogue que je peux m'pardonner Toi tu prends ma défense que si tes braconnier Jai exploré les astres pour caresser lécrin des songes Je tai retrouvé enfin mon cur est ouvert comme La Fin des Contes C'est dur de vivre accompagné Et de me dire ta nana t'aime Jme demande pourquoi on m'aimerait Je me sens toujours en anathème Toujours en retard, à la peine Je suis parti déchecs, à la traîne Mais je continue la partie, même sils crient On a ta reine ! Dans ma tête les combats font rage À deux doigts de sauter du pont ! Je suis curieux de comment ça nage un intrépide soldat de plomb En fin de compte On fait les comptes Lorsqu'on est trop arraché Enfin je raconte La Fin des Contes Au fond des contrées ravagées !! Un peu de rhum et cest parti Je renie les hommes et leur carnages Je deviens Niels Holgersson Lorsque je suis parfois trop naze Je menvole sur des oies sauvages Cest quoi ton blase ? Dooz kawa, un inconnuJe serai reconnu quen cadavre Mais c'est pas graveJe sors des caves J'attendais rien, et je l'ai atteint Comme une ataraxie du sage Lorsque jai froid j'attends demain Comme au crépuscule de lété Et je garde toujours dans ma mainLa main de l'enfant que jai été Les causes perdues sont mes espoirs Car j'ai toujours le don qui choque Les moulins me jettent dans les étoilesComme Hidalgo de Don Quichotte ! Je suis le prince de Kay Nielsen Et comme un conteur j'affabule À l'est du soleil Ou bien à l'ouest de la lune Et si j'enchaîne les insomnies Cest que Le réveil est brutal Comme la police de NYC ! Les rêves matériels dépérissent Petit prince de l'mic Je suisPerdu dans les étoiles Tout comme AntoineDe Saint-Exupéry Il parait quE mc2 Ça me fait pas oublier que Derrière une formule mathématique Einstein inventa la bombe atomique Mais on fout mes gars en taule Pour avoir dealé du shit ! Peu importe ce quon raconte En fin de compte Voici la dernière berceuse La Fin des Contes</t>
+          <t>Jai pas su tuer lenfance, tu vis dans James et la grosse perche Évite Willy Wonkcrack les soirs où cest la grosse dech Les lumières de la ville deviennent le tombeau des lucioles Si jtombe au début de laube cest que Lucifer me la mise, Boy ! Fumée, atmosphère grise. Conte urbain des Frères Grimm Lumières allogènes, tise et son quotidin sesquisse Excès et sévics parce que trop de rêves restèrent ternes Direction la maison des vices comme Hansel et Gretel Parfois j'suis mauvais je lai dans le sang, ce slarvi Toi tes José Bové face aux enfants du maïs On saluera la nuit comme les Croquemitaines, les Vampires Ta fausse vie termine en pire, donc fuck systèmes et empires ! Penser au suicide quand Sheitan te sourit la nuit Puis à la mif, ses larmes, linstant daprès donc toublies ça vite Chat Botté sans sa frime, chaque soir ta beauté sen abime À tendre la main aux anges tu finis par sauter dans labîme Et on dévore des lucioles pendant que laube révèle son règne Paraît que cest ce quon aime, qules troubles deviennent obsessionnels Jai vu ma vie défiler les étoiles scintiller briller, puis épuisé Jai fui les pluies et vu le temps scier les peupliers Et cest reparti pour un tour on fera lamour, trinque à la mort Même lâme amère on se marre dans le bar cest le Salvador Jai côtoyé la folie quand les tocs minfectent le soir Les aller-retours aux chiottes pour gerber des insectes noirs alors Petit Poucet trace ton chemin devra épouser son destin Sent la douleur dans lintestin Et cest rare ici-bas que les loups finissent en zonpri Demande à Karaba, y a pas de sorcière y a qudes femmes incomprises Faire le mal dans lerrance, y a que sous drogue que je peux m'pardonner Toi tu prends ma défense que si tes braconnier Jai exploré les astres pour caresser lécrin des songes Je tai retrouvé enfin mon cur est ouvert comme La Fin des Contes C'est dur de vivre accompagné Et de me dire ta nana t'aime Jme demande pourquoi on m'aimerait Je me sens toujours en anathème Toujours en retard, à la peine Je suis parti déchecs, à la traîne Mais je continue la partie, même sils crient On a ta reine ! Dans ma tête les combats font rage À deux doigts de sauter du pont ! Je suis curieux de comment ça nage un intrépide soldat de plomb En fin de compte On fait les comptes Lorsqu'on est trop arraché Enfin je raconte La Fin des Contes Au fond des contrées ravagées !! Un peu de rhum et cest parti Je renie les hommes et leur carnages Je deviens Niels Holgersson Lorsque je suis parfois trop naze Je menvole sur des oies sauvages Cest quoi ton blase ? Dooz kawa, un inconnuJe serai reconnu quen cadavre Mais c'est pas graveJe sors des caves J'attendais rien, et je l'ai atteint Comme une ataraxie du sage Lorsque jai froid j'attends demain Comme au crépuscule de lété Et je garde toujours dans ma mainLa main de l'enfant que jai été Les causes perdues sont mes espoirs Car j'ai toujours le don qui choque Les moulins me jettent dans les étoilesComme Hidalgo de Don Quichotte ! Je suis le prince de Kay Nielsen Et comme un conteur j'affabule À l'est du soleil Ou bien à l'ouest de la lune Et si j'enchaîne les insomnies Cest que Le réveil est brutal Comme la police de NYC ! Les rêves matériels dépérissent Petit prince de l'mic Je suisPerdu dans les étoiles Tout comme AntoineDe Saint-Exupéry Il parait quE mc2 Ça me fait pas oublier que Derrière une formule mathématique Einstein inventa la bombe atomique Mais on fout mes gars en taule Pour avoir dealé du shit ! Peu importe ce quon raconte En fin de compte Voici la dernière berceuse La Fin des Contes</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>À force de faire du rap, tétonnes pas de finir en morceaux Ma vie est inutile comme casser les cailloux des Dalton Il voudrait vous porter locéan, pour vous loffrir au creux des mains Mais leau senfuit dentre ses doigts sans quil sen aperçoive, il vient Il est rempli de projets grandioses qui sont surtout biens impossibles Mais il reste étonné, déçu de vous présenter des mains vides Moi jcrois quil est juste incompris, car il voit trop ce qui arrive Et puis un peu trop à lavance, Zarathoustra lavait prédit Il porte une lanterne en plein jour avec portraits de peinture Croit que le présent vous rend sourd, sans savoir quil parle du futur On croit quil dort amer, hostile sur le lit de la délinquance Pourtant pour lui, sa mère aussi, a du pleurer à sa naissance Sa musique, place publique de feu de joie ou de bûcher Dépèce les mots au stylo bic, car ses syllabes sont des bouchées Il rap des seize malgré son rhume, vit de photosynthèse nocturne Et porte une casquette en pleine nuit parce quil y a trop de rayons de lune Il restera pas sur terre très vieux, doffrir merveilleux Car vit dimpossibles illusions quon peut pas mettre devant les yeux À force de faire du rap, tétonnes pas de finir en morceaux Dans un film, les fédéraux le rtrouvent dans un hôtel mort saoul Savoure ces freestyles, on oublie tout quand son heure sonne Ma vie est inutile comme casser les cailloux des Dalton À force de faire du rap, tétonnes pas de finir en morceaux Dans un film, les fédéraux le rtrouvent dans un hôtel mort saoul Savoure ces freestyles, on oublie tout quand son heure sonne Ma vie est inutile comme casser les cailloux des Dalton You might also like Il marche aux allures de grand druide en traînant son nud de pendu Mais sa corde qui traîne derrière lui, qui le veut peut tirer dessus Il croit nous parler, il récite, victime dune prison de concepts Tout contre lui-même, il résiste jusquà sanesthésier la tête Apporte une poésie des pauvres, armure éclatante de lumière Qui sont les haillons de la cause, il se pavane comme le plus fier Pathologique, métamorphose, quand il sgratte cest le plus des rois Mais porte un terrible secret dalcôve, cest quil nest quun sale petit Il pourrait se nourrir dune fleur, mais découper les fleurs l'écoeure Les arrache jamais de leur tige, pour pas leur arracher le coeur Quand il est là, il est absent et voit tout autrement les songes Quà travers ses larmes de sang et sendort sur des rêves de mensonges Il ne part jamais en vacances, dtoutes façons il nest jamais là Et même quand son sourire savance, son regard reste froid Quand lentourage sfait des soucis, quil parle de lhumain condamné Il répond cque disent tous les fous si, la différence cest qumoi je sais Dooz Kawa pour vous servir Nouvel album Jespère quon continuera de vous faire plaisir dans Merci dêtre présent et bonne James Digger, voici Saligo, voici Vincent Beer-Demander, voici Voici À force de faire du rap, tétonnes pas de finir en morceaux Dans un film, les fédéraux le rtrouvent dans un hôtel mort saoul Savoure ces freestyles, on oublie tout quand son heure sonne Ma vie est inutile comme casser les cailloux des Dalton Ladies and gentlemens On trouve tous quil a lair dun pote et sur vos oreilles des airpods Vous trouvez sa musique carrée parce quil nest plus quun QR code Au fond, comprenez pas ses mots parce que certains sont si profonds Quon lappelle Capitaine, Nemo et cest parti on plonge Lui, finira sa course à pied en bondissant dun pas à lautre Sur des petits bouts de papiers comme un de post-it Un prince qui dans vos rêves vous pince Ça aurait pu tenir le bonheur mais il eût fallut que je le tinsse Il nest pas lesclave mais la fronde dans la réalité des ombres Pour lui les hommes les plus puissants ne gouvernent que les arrières-mondes LÉtat pourra pas le punir car il vit dimagerie mental Où le réel ne rentre pas Son clin doeil est pour vous, mais caché derrière ses Ray-Ban Et il nous offre à tous un grand bouquet de fleurs du mal</t>
+          <t>À force de faire du rap, tétonnes pas de finir en morceaux Ma vie est inutile comme casser les cailloux des Dalton Il voudrait vous porter locéan, pour vous loffrir au creux des mains Mais leau senfuit dentre ses doigts sans quil sen aperçoive, il vient Il est rempli de projets grandioses qui sont surtout biens impossibles Mais il reste étonné, déçu de vous présenter des mains vides Moi jcrois quil est juste incompris, car il voit trop ce qui arrive Et puis un peu trop à lavance, Zarathoustra lavait prédit Il porte une lanterne en plein jour avec portraits de peinture Croit que le présent vous rend sourd, sans savoir quil parle du futur On croit quil dort amer, hostile sur le lit de la délinquance Pourtant pour lui, sa mère aussi, a du pleurer à sa naissance Sa musique, place publique de feu de joie ou de bûcher Dépèce les mots au stylo bic, car ses syllabes sont des bouchées Il rap des seize malgré son rhume, vit de photosynthèse nocturne Et porte une casquette en pleine nuit parce quil y a trop de rayons de lune Il restera pas sur terre très vieux, doffrir merveilleux Car vit dimpossibles illusions quon peut pas mettre devant les yeux À force de faire du rap, tétonnes pas de finir en morceaux Dans un film, les fédéraux le rtrouvent dans un hôtel mort saoul Savoure ces freestyles, on oublie tout quand son heure sonne Ma vie est inutile comme casser les cailloux des Dalton À force de faire du rap, tétonnes pas de finir en morceaux Dans un film, les fédéraux le rtrouvent dans un hôtel mort saoul Savoure ces freestyles, on oublie tout quand son heure sonne Ma vie est inutile comme casser les cailloux des Dalton Il marche aux allures de grand druide en traînant son nud de pendu Mais sa corde qui traîne derrière lui, qui le veut peut tirer dessus Il croit nous parler, il récite, victime dune prison de concepts Tout contre lui-même, il résiste jusquà sanesthésier la tête Apporte une poésie des pauvres, armure éclatante de lumière Qui sont les haillons de la cause, il se pavane comme le plus fier Pathologique, métamorphose, quand il sgratte cest le plus des rois Mais porte un terrible secret dalcôve, cest quil nest quun sale petit Il pourrait se nourrir dune fleur, mais découper les fleurs l'écoeure Les arrache jamais de leur tige, pour pas leur arracher le coeur Quand il est là, il est absent et voit tout autrement les songes Quà travers ses larmes de sang et sendort sur des rêves de mensonges Il ne part jamais en vacances, dtoutes façons il nest jamais là Et même quand son sourire savance, son regard reste froid Quand lentourage sfait des soucis, quil parle de lhumain condamné Il répond cque disent tous les fous si, la différence cest qumoi je sais Dooz Kawa pour vous servir Nouvel album Jespère quon continuera de vous faire plaisir dans Merci dêtre présent et bonne James Digger, voici Saligo, voici Vincent Beer-Demander, voici Voici À force de faire du rap, tétonnes pas de finir en morceaux Dans un film, les fédéraux le rtrouvent dans un hôtel mort saoul Savoure ces freestyles, on oublie tout quand son heure sonne Ma vie est inutile comme casser les cailloux des Dalton Ladies and gentlemens On trouve tous quil a lair dun pote et sur vos oreilles des airpods Vous trouvez sa musique carrée parce quil nest plus quun QR code Au fond, comprenez pas ses mots parce que certains sont si profonds Quon lappelle Capitaine, Nemo et cest parti on plonge Lui, finira sa course à pied en bondissant dun pas à lautre Sur des petits bouts de papiers comme un de post-it Un prince qui dans vos rêves vous pince Ça aurait pu tenir le bonheur mais il eût fallut que je le tinsse Il nest pas lesclave mais la fronde dans la réalité des ombres Pour lui les hommes les plus puissants ne gouvernent que les arrières-mondes LÉtat pourra pas le punir car il vit dimagerie mental Où le réel ne rentre pas Son clin doeil est pour vous, mais caché derrière ses Ray-Ban Et il nous offre à tous un grand bouquet de fleurs du mal</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Bonjour tout le monde Aujourdhui je dois vous parler D'anatomie de lil, physiologie des larmes Yo, ouais, ouais Les larmes naissent, au fond du cur, apparaissent Des nuits, même dénuées de stock Elles glissent, ploc, comme des nuées d'oiseaux d'Hitchcock Il y a comme des amoureux qui se moquent Et partagent des bulles salivaires Quand sous ton barda c'est toujours le froid d'hiver Faudra t'y faire Et c'est de là que reniflent les narines Aphasique, que nous on cri le mot de l'appart Les pipeline qui sont greffées a nos canaux lacrymaux Un triste état de ruine, ralentit la cicatrice Comme l'héparine En quelques gouttes salines Les naïades sont balayées par les baïnes Essuies une larme Plus facile que dassécher sa source Prends une arme, dis lui rends toi Avant d'arrêter sa course Moi j'ai une bouteille de rhum âgé Pour y noyer mon chagrin Mais j'ai oublié qu'depuis le temps Il a appris a nager DAH CONECTAH Les larmes naissent d'un contexte infâme Suffit d'une étincelle Et puis les vapeurs s'enflamment Une âme est percée par ces shooteurs à deux balles La mélodie ma compagnie Quand on rame en fond de cale, et fonskar Je ressens même pas le besoin de blâmer toutes celles Qui ont fait que dans ma bouche il y avait ce goût de sel Ecoute ça, les gouttes sèches Quand la colère est à l'horizon Je suis pas étonné De céder au vice que nous nourrissions La douleur d'une écharde Qu'on a cru oter est ravivée par le destin et sa cruauté A certains la chance à sourit d'un air mesquin Les a laissés sur le côté crier J'aurais dû oser La gorge est nouée Quand remontent les sentiments C'est un avis de tempête dans l'océan Ouais Moi j'ai une bouteille de rhum âgé Pour y noyer mon chagrin Mais j'ai oublié qu'depuis le temps Il a appris a nager Yo, dis moi timal Où tombent les pétales de notre âme? Fânent, se détachent et planent Où on embrasse les femmes Ça fait un bail que j'attise la tristesse Qui la crame, qu'Atys a blessé Cybèle Mais elle est toujours aussi belle Amoureux de son ennemi car Je l'aimais mal quand je croyais l'aimais mieux Elle me regarde la nuit Alors moi j'ouvre jamais les yeux Des tâches d'encre et du sang Se mélangent sur mon armure Si mon corps est un temple Je choisi de taguer les murs Plutôt que d'entailler les veines, racaille et peine Chercher lintrus, et on a eu Les ennemis les plus puissants La distance et le temps Ils deviendront nos alliés A l'heure de cicatriser Il y a quoi à tiser Pour noyer un chagrin ? Musicien, rejoue la ritournelle qui Muselait les chiens le jour des hirondelles Qu'un refré pleurait pour l'une d'elle Qui s'est envolée à tir d'ailes J'lui disait Moi j'ai une bouteille de rhum âgé Pour y noyer mon chagrin Mais c'te enfoiré Il a appris a nagerYou might also like2</t>
+          <t>Bonjour tout le monde Aujourdhui je dois vous parler D'anatomie de lil, physiologie des larmes Yo, ouais, ouais Les larmes naissent, au fond du cur, apparaissent Des nuits, même dénuées de stock Elles glissent, ploc, comme des nuées d'oiseaux d'Hitchcock Il y a comme des amoureux qui se moquent Et partagent des bulles salivaires Quand sous ton barda c'est toujours le froid d'hiver Faudra t'y faire Et c'est de là que reniflent les narines Aphasique, que nous on cri le mot de l'appart Les pipeline qui sont greffées a nos canaux lacrymaux Un triste état de ruine, ralentit la cicatrice Comme l'héparine En quelques gouttes salines Les naïades sont balayées par les baïnes Essuies une larme Plus facile que dassécher sa source Prends une arme, dis lui rends toi Avant d'arrêter sa course Moi j'ai une bouteille de rhum âgé Pour y noyer mon chagrin Mais j'ai oublié qu'depuis le temps Il a appris a nager DAH CONECTAH Les larmes naissent d'un contexte infâme Suffit d'une étincelle Et puis les vapeurs s'enflamment Une âme est percée par ces shooteurs à deux balles La mélodie ma compagnie Quand on rame en fond de cale, et fonskar Je ressens même pas le besoin de blâmer toutes celles Qui ont fait que dans ma bouche il y avait ce goût de sel Ecoute ça, les gouttes sèches Quand la colère est à l'horizon Je suis pas étonné De céder au vice que nous nourrissions La douleur d'une écharde Qu'on a cru oter est ravivée par le destin et sa cruauté A certains la chance à sourit d'un air mesquin Les a laissés sur le côté crier J'aurais dû oser La gorge est nouée Quand remontent les sentiments C'est un avis de tempête dans l'océan Ouais Moi j'ai une bouteille de rhum âgé Pour y noyer mon chagrin Mais j'ai oublié qu'depuis le temps Il a appris a nager Yo, dis moi timal Où tombent les pétales de notre âme? Fânent, se détachent et planent Où on embrasse les femmes Ça fait un bail que j'attise la tristesse Qui la crame, qu'Atys a blessé Cybèle Mais elle est toujours aussi belle Amoureux de son ennemi car Je l'aimais mal quand je croyais l'aimais mieux Elle me regarde la nuit Alors moi j'ouvre jamais les yeux Des tâches d'encre et du sang Se mélangent sur mon armure Si mon corps est un temple Je choisi de taguer les murs Plutôt que d'entailler les veines, racaille et peine Chercher lintrus, et on a eu Les ennemis les plus puissants La distance et le temps Ils deviendront nos alliés A l'heure de cicatriser Il y a quoi à tiser Pour noyer un chagrin ? Musicien, rejoue la ritournelle qui Muselait les chiens le jour des hirondelles Qu'un refré pleurait pour l'une d'elle Qui s'est envolée à tir d'ailes J'lui disait Moi j'ai une bouteille de rhum âgé Pour y noyer mon chagrin Mais c'te enfoiré Il a appris a nager2</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>J'habite une grande maison qui brille la nuit à l'horizon Et où pourtant tout est triste et assuré tous risques Mon site c'est là où ne passent pas les bus de touristes Et y a pas de Superman dans ces blocs en kryptonite Les sciences anatomiques des types se résument au clitoris là où j'habite Une maison hantée par des surnoms à la bombe et des fantômes sous lithium la nuit tombée J'habite une opiumerie à Bombay depuis tant d'années que je suis barré J'habite une maison abandonnée derrière la palissade Un squat d'où partent les basses J'habite alone in the dark J'habite là où on dit qu'on n'est pas net car chacun a sa planète On dirait que sous ma fenêtre parfois les caravanes s'arrêtent J'habite où on paye ses dettes sans travail Là où les vautours s'entaillent Ma maison, ben, c'est la tour centrale J'habite dans un local sponso par l'hôpital Où c'est l'extase à petite dose Ma maison ce sont ces appart' au butane qui explosent La maison c'est toujours ce qui appartient aux autres du voisinage Où on s'introduit la nuit en soulevant la porte du garage Ma maison c'est un mirage et c'est pour ça que j'existe pas Moi... je suis qu'un nuage Je suis qu'un nuage ! You might also like Je reviens de loin, un joint à la main J'aimerais bien rentrer chez moi mais y a plus de chemin Je me sens comme marqué par une étoile de David Et j'habite ces blocs qui appartiennent à la ville Là où la nuit se réveillent nos vieux rêves de Vénus Là où on est avide de lumière J'habite là où un jour se révèlent les putes de luxe aux habits de lumière J'habite là où les flics dansent le sirtaki lorsque ça part en lattes avec les tanges J'habite sous le chapiteau d'un cirque étrange d'où viennent des phénomènes de mode Des maisons où les anges tombent Le toit du monde</t>
+          <t>J'habite une grande maison qui brille la nuit à l'horizon Et où pourtant tout est triste et assuré tous risques Mon site c'est là où ne passent pas les bus de touristes Et y a pas de Superman dans ces blocs en kryptonite Les sciences anatomiques des types se résument au clitoris là où j'habite Une maison hantée par des surnoms à la bombe et des fantômes sous lithium la nuit tombée J'habite une opiumerie à Bombay depuis tant d'années que je suis barré J'habite une maison abandonnée derrière la palissade Un squat d'où partent les basses J'habite alone in the dark J'habite là où on dit qu'on n'est pas net car chacun a sa planète On dirait que sous ma fenêtre parfois les caravanes s'arrêtent J'habite où on paye ses dettes sans travail Là où les vautours s'entaillent Ma maison, ben, c'est la tour centrale J'habite dans un local sponso par l'hôpital Où c'est l'extase à petite dose Ma maison ce sont ces appart' au butane qui explosent La maison c'est toujours ce qui appartient aux autres du voisinage Où on s'introduit la nuit en soulevant la porte du garage Ma maison c'est un mirage et c'est pour ça que j'existe pas Moi... je suis qu'un nuage Je suis qu'un nuage ! Je reviens de loin, un joint à la main J'aimerais bien rentrer chez moi mais y a plus de chemin Je me sens comme marqué par une étoile de David Et j'habite ces blocs qui appartiennent à la ville Là où la nuit se réveillent nos vieux rêves de Vénus Là où on est avide de lumière J'habite là où un jour se révèlent les putes de luxe aux habits de lumière J'habite là où les flics dansent le sirtaki lorsque ça part en lattes avec les tanges J'habite sous le chapiteau d'un cirque étrange d'où viennent des phénomènes de mode Des maisons où les anges tombent Le toit du monde</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Couplet 1 Euphonik Noir Soleil pleure, il pleut sous mon anorak Quand j'pense avec le coeur, ça m'rend un peu paranoïaque Chérie, j'suis qu'un roi démon, pas le p'tit Prince d'Exupéry La nuit je dessine des gloutons qui me mangeront si mon âme dépérit Demain c'est loin, j'suis dans la nuit avec ma horde Pour me perdre en chemin, j'ai pas besoin d'une escort girl A quoi tu penses ? J'suis l'genre de loup qui avance seul J'fais ms projets en silenc quand ils ouvrent bien trop leur gueule Mon armature dans un bain d'sang tant ce rap est un fusil d'assaut Nos textes ont plus de sens que les peintures de Picasso Nos émotions sont des toiles que seuls les mots pourraient peindre Nos émotions sont des toiles que même le ciel ne peut éteindre La nuit j'ai des idées lâches, remplis des pages qui m'assombrissent J'me dis qu'vaut mieux errer en marche que d'être en cage comme un zombie J'ai cette voix, dans ma tête, j'ai quelque chanson d'amour J'suis qu'un vampire en fait, j'disparais quand vient le jour Refrain Dooz Kawa Davodka Plus jamais rien ne me réveille, car j'suis un dort-vivant La nuit ma copine prend le pouls, si j'suis encore vivant Je vois dans toute la ville des dort-vivants Achète un fusil pour la nuit des dort-vivants X2 You might also likeCouplet 2 Davodka Mes voisins ne pensent qu'à m'espionner Ma tête les pousse à s'questionner Ai-je l'apparence d'une coquille vide parce que mon cerveau ne cesse pas d'raisonner ? J'ai l'impression d'émerger de sous terre, j'aperçois la surface quand mon gosse sourit Pour trouver le sommeil faut que je mette le crâne à l'envers tout comme une chauve-souris Plus possible, il faut que je détourne mon regard de tous mes détracteurs Chaque souci aspire un peu plus mon âme tel des Détraqueurs J'ai l'air d'un mec trop bon Socialement un peu fermé Qui avance dans le noir les yeux cernés Pris en otage par un réveil profond Oiseau de nuit, qui tombe de haut Mais qui veut amortir le coup Mais mon mal-être c'est que même mon histoire est à dormir debout Ancien morveux, qui a bien morflé Coincé dans un corps vide, là où certains morts vivent On cherche les bras d'Morphée Avec un brin d'Morphine Refrain Dooz Kawa Davodka Plus jamais rien ne me réveille, car j'suis un dort-vivant La nuit ma copine prend le pouls, si j'suis encore vivant Je vois dans toute la ville des dort-vivants Achète un fusil pour la nuit des dort-vivants X2 Couplet 3 Swift Guad J'me vois changer comme Dorian Gray J'écris pendant qu'le corps maigrit Des fois j'suis bouillant comme la braise Qui rougit sous un beau ciel gris J'suis tellement insomniaque que j'pourrais travailler dans l'hôtellerie J'fais des incantations nocturnes qui ressemblent à de la sorcellerie J'me sirote un Bloody Mary car ici bas l'Homme est mourant J'me perds dans mes maudites rêveries, j'me réveille au soleil couchant En vrai j'crois qu'on est tous à bout habillés de guenilles crasseuses Et j'me transforme en loup-garou pour compter les brebis galeuses On nous dit souvent qu'l'heure est grave J'ai des douleurs sous forme aigüe Le quotidien est trop décevant Vaut mieux avoir une mauvaise vue C'est comme la nuit des morts-vivants donc c'est pour ça qu'je n'dors même plus Parce que j'veux changer l'ordinaire, il faut qu'j'y plonge à corps perdu On sait pas comment s'en tirer, on aime voir les gens s'diviser Situation va empirer parce qu'on nous a vampirisé On aime électriser la foule, la nuit on est des vers luisants Quand on m'prend par les sentiments j'connais que des échecs cuisants C'est la confrérie des ombres x2 Refrain Dooz Kawa Davodka Plus jamais rien ne me réveille, car j'suis un dort-vivant La nuit ma copine prend le pouls, si j'suis encore vivant Je vois dans toute la ville des dort-vivants Achète un fusil pour la nuit des dort-vivants Plus jamais rien ne me réveille... Couplet 4 Dooz Kawa Pour moi la partie commence à peine après l'échec et mat Quand sont détruites nos dernières chances, et qu'on m'a dit que c'était oit Qui as voulu ma vie détruite et que j'pourrais pas m'en sortir J'suis au bout de la ligne de fuite avec DVK, Eupho, Swift Dans les jugements que l'on reçoit ça nous déçoit Sans l'prononcer, il faut être fier de soi des fois car faire des choix c'est renoncer Parfois je crois dormir ma vie et j'avance sans que mes pieds bougent J'suis habillé comme un zombie, le voisin m'tirerait une cartouche Sans jamais s'alarmer des signes, il sait juste que j'fais du pe-ra Mais pas que j'fais de la médecine, ou un master, un doctorat Lui il sait juste que j'suis tatoué, j'suis un mec louche des HLM J'suis tout l'temps fatigué, bah ouais, moi j'ai pas eu d'parents riches et j'saigne J'suis fatigué tous les matins, j'refuse de m'taper des tapins Alors les filles restent toute la nuit et j'bosse sur elles comme à temps plein Elles croient que sucer un rappeur ça représente comme un tremplin Demain j'la garde, mon porte-bonheur, et j'm'endors vaguement dans le train</t>
+          <t>Couplet 1 Euphonik Noir Soleil pleure, il pleut sous mon anorak Quand j'pense avec le coeur, ça m'rend un peu paranoïaque Chérie, j'suis qu'un roi démon, pas le p'tit Prince d'Exupéry La nuit je dessine des gloutons qui me mangeront si mon âme dépérit Demain c'est loin, j'suis dans la nuit avec ma horde Pour me perdre en chemin, j'ai pas besoin d'une escort girl A quoi tu penses ? J'suis l'genre de loup qui avance seul J'fais ms projets en silenc quand ils ouvrent bien trop leur gueule Mon armature dans un bain d'sang tant ce rap est un fusil d'assaut Nos textes ont plus de sens que les peintures de Picasso Nos émotions sont des toiles que seuls les mots pourraient peindre Nos émotions sont des toiles que même le ciel ne peut éteindre La nuit j'ai des idées lâches, remplis des pages qui m'assombrissent J'me dis qu'vaut mieux errer en marche que d'être en cage comme un zombie J'ai cette voix, dans ma tête, j'ai quelque chanson d'amour J'suis qu'un vampire en fait, j'disparais quand vient le jour Refrain Dooz Kawa Davodka Plus jamais rien ne me réveille, car j'suis un dort-vivant La nuit ma copine prend le pouls, si j'suis encore vivant Je vois dans toute la ville des dort-vivants Achète un fusil pour la nuit des dort-vivants X2 Couplet 2 Davodka Mes voisins ne pensent qu'à m'espionner Ma tête les pousse à s'questionner Ai-je l'apparence d'une coquille vide parce que mon cerveau ne cesse pas d'raisonner ? J'ai l'impression d'émerger de sous terre, j'aperçois la surface quand mon gosse sourit Pour trouver le sommeil faut que je mette le crâne à l'envers tout comme une chauve-souris Plus possible, il faut que je détourne mon regard de tous mes détracteurs Chaque souci aspire un peu plus mon âme tel des Détraqueurs J'ai l'air d'un mec trop bon Socialement un peu fermé Qui avance dans le noir les yeux cernés Pris en otage par un réveil profond Oiseau de nuit, qui tombe de haut Mais qui veut amortir le coup Mais mon mal-être c'est que même mon histoire est à dormir debout Ancien morveux, qui a bien morflé Coincé dans un corps vide, là où certains morts vivent On cherche les bras d'Morphée Avec un brin d'Morphine Refrain Dooz Kawa Davodka Plus jamais rien ne me réveille, car j'suis un dort-vivant La nuit ma copine prend le pouls, si j'suis encore vivant Je vois dans toute la ville des dort-vivants Achète un fusil pour la nuit des dort-vivants X2 Couplet 3 Swift Guad J'me vois changer comme Dorian Gray J'écris pendant qu'le corps maigrit Des fois j'suis bouillant comme la braise Qui rougit sous un beau ciel gris J'suis tellement insomniaque que j'pourrais travailler dans l'hôtellerie J'fais des incantations nocturnes qui ressemblent à de la sorcellerie J'me sirote un Bloody Mary car ici bas l'Homme est mourant J'me perds dans mes maudites rêveries, j'me réveille au soleil couchant En vrai j'crois qu'on est tous à bout habillés de guenilles crasseuses Et j'me transforme en loup-garou pour compter les brebis galeuses On nous dit souvent qu'l'heure est grave J'ai des douleurs sous forme aigüe Le quotidien est trop décevant Vaut mieux avoir une mauvaise vue C'est comme la nuit des morts-vivants donc c'est pour ça qu'je n'dors même plus Parce que j'veux changer l'ordinaire, il faut qu'j'y plonge à corps perdu On sait pas comment s'en tirer, on aime voir les gens s'diviser Situation va empirer parce qu'on nous a vampirisé On aime électriser la foule, la nuit on est des vers luisants Quand on m'prend par les sentiments j'connais que des échecs cuisants C'est la confrérie des ombres x2 Refrain Dooz Kawa Davodka Plus jamais rien ne me réveille, car j'suis un dort-vivant La nuit ma copine prend le pouls, si j'suis encore vivant Je vois dans toute la ville des dort-vivants Achète un fusil pour la nuit des dort-vivants Plus jamais rien ne me réveille... Couplet 4 Dooz Kawa Pour moi la partie commence à peine après l'échec et mat Quand sont détruites nos dernières chances, et qu'on m'a dit que c'était oit Qui as voulu ma vie détruite et que j'pourrais pas m'en sortir J'suis au bout de la ligne de fuite avec DVK, Eupho, Swift Dans les jugements que l'on reçoit ça nous déçoit Sans l'prononcer, il faut être fier de soi des fois car faire des choix c'est renoncer Parfois je crois dormir ma vie et j'avance sans que mes pieds bougent J'suis habillé comme un zombie, le voisin m'tirerait une cartouche Sans jamais s'alarmer des signes, il sait juste que j'fais du pe-ra Mais pas que j'fais de la médecine, ou un master, un doctorat Lui il sait juste que j'suis tatoué, j'suis un mec louche des HLM J'suis tout l'temps fatigué, bah ouais, moi j'ai pas eu d'parents riches et j'saigne J'suis fatigué tous les matins, j'refuse de m'taper des tapins Alors les filles restent toute la nuit et j'bosse sur elles comme à temps plein Elles croient que sucer un rappeur ça représente comme un tremplin Demain j'la garde, mon porte-bonheur, et j'm'endors vaguement dans le train</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Wesh la police Parait qu't'as une matraque Si j'fais l'profil psychologique de fond C'est un pénis de subtitution Parce que t'as une petite... Ecoute mon beat... Contrôle de faf', hé t'as vu ils bossent fort Si tu cherches du taf' et qu'ça phosphore dans ta tête Pourquoi pas faire partie des assassins analphabètes ? Test à faire afin d'porter une arme Si t'es con comme un âne, ils t'offrent un revolver Dans la police nationale, au taux suicidaire Envié par le temple solaire, saoulard et médiocre en milieu scolaire Ils ont raté leur vie pour mieux n'pas rater mes frères Qu'ils enferment, après un procès théatral, au tribunal de correction Objection votre horreur, que l'pro-récurreur se taise J'suis l'avocat à mayonnaise, crevette d'Afrique Traiter un flic de con n'est pas un outrage mais... un diagnostique Tous des frustrés dans leur slip de pas connaître de meufs mignonnes Jusqu'à violer leurs collègues à l'aide de la drogue du viol C'est c'qu'on nomme du poulet aux hormones Fiers de porter l'uniforme qui les venge de pas vraiment être des hommes Hé frère, la police enrole... Maintenant, tu sais quoi faire si tu travailles mal à l'école Hé frère, la police recrute... Et la sélection débute, analphabète et préférence des fils de chuut Hé frère la police enrole... Maintenant, tu sais quoi faire si tu travailles mal à l'école Hé frère, la police recrute... Et la sélection débute, analphabète et préférence des fils de chuutYou might also like</t>
+          <t>Wesh la police Parait qu't'as une matraque Si j'fais l'profil psychologique de fond C'est un pénis de subtitution Parce que t'as une petite... Ecoute mon beat... Contrôle de faf', hé t'as vu ils bossent fort Si tu cherches du taf' et qu'ça phosphore dans ta tête Pourquoi pas faire partie des assassins analphabètes ? Test à faire afin d'porter une arme Si t'es con comme un âne, ils t'offrent un revolver Dans la police nationale, au taux suicidaire Envié par le temple solaire, saoulard et médiocre en milieu scolaire Ils ont raté leur vie pour mieux n'pas rater mes frères Qu'ils enferment, après un procès théatral, au tribunal de correction Objection votre horreur, que l'pro-récurreur se taise J'suis l'avocat à mayonnaise, crevette d'Afrique Traiter un flic de con n'est pas un outrage mais... un diagnostique Tous des frustrés dans leur slip de pas connaître de meufs mignonnes Jusqu'à violer leurs collègues à l'aide de la drogue du viol C'est c'qu'on nomme du poulet aux hormones Fiers de porter l'uniforme qui les venge de pas vraiment être des hommes Hé frère, la police enrole... Maintenant, tu sais quoi faire si tu travailles mal à l'école Hé frère, la police recrute... Et la sélection débute, analphabète et préférence des fils de chuut Hé frère la police enrole... Maintenant, tu sais quoi faire si tu travailles mal à l'école Hé frère, la police recrute... Et la sélection débute, analphabète et préférence des fils de chuut</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Refrain Oh Lord I made it through I'm gonna lay down my load One more mile or two Can't escape from my fate no Long is the way La route est longue hein et encore faut trouver la bonne C'est pour ça que souvent au bout y'a plus personne La route est longue sur le chemin de l'album, étoile du sol Refrain Et..! La route est longue Vers Avalon la bonne c'est souvent celle qui slame Venez on avance en slalom Des pics de délinquances dansent Ça y'est j'ai enfin sorti l'album Et je remercie personne à la fois Et aussi... C'est tout j'crois Mais pour toi, j'fais la bise aux bitchs Qui s'abritent de mes douches froides Habitant de lAtlantide emporté aux limites de la vie par le courant des baïnes Qui nous arrachât en plus de l'espoir, le masque et le tuba Échoués sur une île, style Cuba, où les gars collés au bar jouent aux cartes Ici les Iron, Lion se déroule des cohibas Qu'ils mélangent à la zion sous le cadre d'Escobar Hey Tiro, on est ti-par! You might also likeMarche ou crève comme la française de Kill Bill Ici le soleil te liquide quand t'as les piles vides Faut se nourrir d'espoir qui remplit le bide La motiv' du coyote pour choper le bip bip Parce que la route est longue et parsemée de ronces J'ai, au bord, laissé se reposer des amis, que je revois la nuit Comme un reflet rapide qui s'efface De la buée de la glace, de la salle de bain J'serai seul demain Toujours à suivre le chemin de mes prod' Voyageant dans leurs ipods Le visage sous le châle Nomade dans le hip hop Afin de quitter la faune, dans le désert on fonce Pour pas devenir ces fauves qui rodent Sur les pistes de cirque Je carotte une jeep chez six ...? Tu veux savoir pourquoi le départ on imagine En moi j'ai les rues de ces villes Autour d'un feu sur un baril Les capuches cachées Les traits de mélanine les drapent mais les drames aussi À tousser du toxique et tizzer des toxines Tu sais vu d'ici dans le ciel Se dessinent les traits de fumée Des avions de grandes lignes</t>
+          <t>Refrain Oh Lord I made it through I'm gonna lay down my load One more mile or two Can't escape from my fate no Long is the way La route est longue hein et encore faut trouver la bonne C'est pour ça que souvent au bout y'a plus personne La route est longue sur le chemin de l'album, étoile du sol Refrain Et..! La route est longue Vers Avalon la bonne c'est souvent celle qui slame Venez on avance en slalom Des pics de délinquances dansent Ça y'est j'ai enfin sorti l'album Et je remercie personne à la fois Et aussi... C'est tout j'crois Mais pour toi, j'fais la bise aux bitchs Qui s'abritent de mes douches froides Habitant de lAtlantide emporté aux limites de la vie par le courant des baïnes Qui nous arrachât en plus de l'espoir, le masque et le tuba Échoués sur une île, style Cuba, où les gars collés au bar jouent aux cartes Ici les Iron, Lion se déroule des cohibas Qu'ils mélangent à la zion sous le cadre d'Escobar Hey Tiro, on est ti-par! Marche ou crève comme la française de Kill Bill Ici le soleil te liquide quand t'as les piles vides Faut se nourrir d'espoir qui remplit le bide La motiv' du coyote pour choper le bip bip Parce que la route est longue et parsemée de ronces J'ai, au bord, laissé se reposer des amis, que je revois la nuit Comme un reflet rapide qui s'efface De la buée de la glace, de la salle de bain J'serai seul demain Toujours à suivre le chemin de mes prod' Voyageant dans leurs ipods Le visage sous le châle Nomade dans le hip hop Afin de quitter la faune, dans le désert on fonce Pour pas devenir ces fauves qui rodent Sur les pistes de cirque Je carotte une jeep chez six ...? Tu veux savoir pourquoi le départ on imagine En moi j'ai les rues de ces villes Autour d'un feu sur un baril Les capuches cachées Les traits de mélanine les drapent mais les drames aussi À tousser du toxique et tizzer des toxines Tu sais vu d'ici dans le ciel Se dessinent les traits de fumée Des avions de grandes lignes</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Donc on avait parlé une fois des vagues. L'idée que, si t'apprends pas à nager, tu t'prends les vagues dans la gueule. quelques fois t'es emporté, quelques fois t'as la tête sous l'eau. Tu bois la tasse, tu vas t'noyer, vraiment en crever. Dire que l'instant ça suffit pas, parce que l'instant, c'est la vague dans la gueule. En revanche, composer avec la vague, apprendre à nager, ou à surfer. Ça, ça demande une durée J'attends qu'j'm'arrache en m'harnachant Sur l'dos d'une beauté monstrueuse J'attends la vague comme Kardashian Attend la première page de vogue Des flocons d'écume de silence, avalanche d'un mont enneigé Qui replonge dans le silence et rend ce monde plus léger J'attends d'arracher de la vague Un peu d'sa chaire au creux des mains Afin d'rafraîchir mon pelage brûlant, de taureau d'airain J'plonge un couteau entre les dents Dans la vague graver mes initiales Et affronter dans l'ouragan Tout mon traumatisme initial J'rap pour toutes les petites bottes Que le juge plonge dans la trempette On reconnait les bons pilotes que lorsqu'ils affrontent la tempête Et j'ignore encore si la vague s'ra renaissance ou bien suicide Quand elle me crachera sur la plage de par ses ténèbres liquides J'lève pas le pouce, mais le majeur En dédicace aux douanes volantes You might also likeCar je suis devenu nageur Qu'au milieu de ses eaux violentes Ne viens pas si t'es trop âgé Pour affronter la médusa On pèche des enfants naufragés Sur les plages de Lampedusa De Mayotte ou de Djerba Du Pas-De-Calais ou de Turquie Chaque jour ma souffrance est sans fin Pour le petit Alan Kurdi Je veux vous fuir, vous ma douleur Vous les humains qui m'écorchez J'essaie d'retrouver des couleurs Au fond d'une machine à laver J'attends la vague J'attends la vague J'attends la vague J'attends la vague J'attends la vague Qu'elle m'emporte au large Loin à la dérive Loin à la dérive Au delà des marges Qu'elle me déporte sur un nuage de coton Loin des champs de cana, de Paname et du béton Je flotterai sous l'écume Dans ces rouleaux d'océan Ni ancre, ni enclume Je serai homme de plein vent Sous l'effet de la lune Ballotté par les marées Elle m'emmènera loin comme des fumées envolées Mais, fond d'un abysse, j'ai vu leur monde Ce qu'ils battissent sur nos décombres Cap d'un navire, nos vieux démons Mon coeur s'épuise et coule au fond Peuple sans nom, cimetière de l'ombre Un désert vide peuple et déco Mais je remonte, je me déploie Cherche la lumière, puis la reçoit Grise est la vie, rose est le rêve Briser la vitre, bosser le verbe Gifler l'abîme, oser le faire Risque la lutte, croiser le fer Chemin de vie, j'arpente Les nerfs à vif, à cran Quand c'est la merde, j'apprends Où est la vague, j'attends Profiter du présent, bien sûr Mais l'idée c'est quand même d'avoir une affirmation ou une volonté Une recherche de sens, pur Parce que si tu veux comprendre le sens de la série des accidents Et si tu veux être préparé, essayer de, ouais, de se composer avec les accidents Parce que la volonté ou le désire, la voilà la lutte Ça se trouve on compose avec les accidents Tu prends part? Sinon à chaque seconde tu prends dans la gueule tu comprends pas T'y arrives pas On est du continu dans tous ces trucs discontinus qui nous arrivent dans la gueule Et c'est ça l'identité, elle est pas donnée au départ l'identité</t>
+          <t>Donc on avait parlé une fois des vagues. L'idée que, si t'apprends pas à nager, tu t'prends les vagues dans la gueule. quelques fois t'es emporté, quelques fois t'as la tête sous l'eau. Tu bois la tasse, tu vas t'noyer, vraiment en crever. Dire que l'instant ça suffit pas, parce que l'instant, c'est la vague dans la gueule. En revanche, composer avec la vague, apprendre à nager, ou à surfer. Ça, ça demande une durée J'attends qu'j'm'arrache en m'harnachant Sur l'dos d'une beauté monstrueuse J'attends la vague comme Kardashian Attend la première page de vogue Des flocons d'écume de silence, avalanche d'un mont enneigé Qui replonge dans le silence et rend ce monde plus léger J'attends d'arracher de la vague Un peu d'sa chaire au creux des mains Afin d'rafraîchir mon pelage brûlant, de taureau d'airain J'plonge un couteau entre les dents Dans la vague graver mes initiales Et affronter dans l'ouragan Tout mon traumatisme initial J'rap pour toutes les petites bottes Que le juge plonge dans la trempette On reconnait les bons pilotes que lorsqu'ils affrontent la tempête Et j'ignore encore si la vague s'ra renaissance ou bien suicide Quand elle me crachera sur la plage de par ses ténèbres liquides J'lève pas le pouce, mais le majeur En dédicace aux douanes volantes Car je suis devenu nageur Qu'au milieu de ses eaux violentes Ne viens pas si t'es trop âgé Pour affronter la médusa On pèche des enfants naufragés Sur les plages de Lampedusa De Mayotte ou de Djerba Du Pas-De-Calais ou de Turquie Chaque jour ma souffrance est sans fin Pour le petit Alan Kurdi Je veux vous fuir, vous ma douleur Vous les humains qui m'écorchez J'essaie d'retrouver des couleurs Au fond d'une machine à laver J'attends la vague J'attends la vague J'attends la vague J'attends la vague J'attends la vague Qu'elle m'emporte au large Loin à la dérive Loin à la dérive Au delà des marges Qu'elle me déporte sur un nuage de coton Loin des champs de cana, de Paname et du béton Je flotterai sous l'écume Dans ces rouleaux d'océan Ni ancre, ni enclume Je serai homme de plein vent Sous l'effet de la lune Ballotté par les marées Elle m'emmènera loin comme des fumées envolées Mais, fond d'un abysse, j'ai vu leur monde Ce qu'ils battissent sur nos décombres Cap d'un navire, nos vieux démons Mon coeur s'épuise et coule au fond Peuple sans nom, cimetière de l'ombre Un désert vide peuple et déco Mais je remonte, je me déploie Cherche la lumière, puis la reçoit Grise est la vie, rose est le rêve Briser la vitre, bosser le verbe Gifler l'abîme, oser le faire Risque la lutte, croiser le fer Chemin de vie, j'arpente Les nerfs à vif, à cran Quand c'est la merde, j'apprends Où est la vague, j'attends Profiter du présent, bien sûr Mais l'idée c'est quand même d'avoir une affirmation ou une volonté Une recherche de sens, pur Parce que si tu veux comprendre le sens de la série des accidents Et si tu veux être préparé, essayer de, ouais, de se composer avec les accidents Parce que la volonté ou le désire, la voilà la lutte Ça se trouve on compose avec les accidents Tu prends part? Sinon à chaque seconde tu prends dans la gueule tu comprends pas T'y arrives pas On est du continu dans tous ces trucs discontinus qui nous arrivent dans la gueule Et c'est ça l'identité, elle est pas donnée au départ l'identité</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Leur pas bestial secoue les stalles Simule à la nature le crépuscule de l'estival Partout aux alentours s'étalent de sous les sabots du troupeau Toutes ces fleurs qui pleurent leurs pétales D'après la taille de leur appât ils imaginent être des géants Mais sont que des brouteurs de paille L'humain vestal peint par Vésale Renvoie le mouton de Panurge à l'académie nationale J'ai mon chandail, bonnet de racaille Et je reste assis toute la nuit à regarder passer le bétail Le cri des cailles, les gants de maille pourraient les prévenir du pire Mais ils n'observent pas les détails Avant l'entaille de la cisaille personne ne doute Poursuit la route qui les mène à leurs funérailles Suivant les rails jusqu'au portail de l'abattoir où l'on suppute Sur l'occiput s'abat le maillet La nuit baille par le vitrail Laissant deviner ce que devient celui derrière le soupirail Si je tressaille, c'est la grisaille, celle de Hanoi Comme un cow-boy moi je regarde passer le bétail Ils se mitraillent pour des médailles À résumer leur société, c'est l'abattoir ou la bataille La pub assaille de ces trouvailles, d'objets-gadgets à consommer Faut posséder l'attirail Jeter ces cailles et deux canailles serait un acte terroriste Ou pire anti-commercial C'est des cobayes que l'on empaille Pourtant il est bien reptilien leur cerveau qui perd les écailles Épouvantail dans les broussailles Depuis la ligne de la colline moi je regarde passer le bétail You might also like Ils bouchent les failles dans les murailles Car ils sont fiers de leurs oeillères qui leur cachent si bien les étoiles Ces tours d'émail comme à Dubaï Là où ils vont, végétation signifie désert du Sinaï L'air qu'ils inhalent les rend plus pâles Avec la poussière volcanique, le dioxyde et le méthane Depuis marmaille ça va au Drive Déposer l'arthérosclérose autour de l'artère vertébrale Comme un Jedi assis en tailleur Durant des heures, comme un prieur moi je regarde passer le bétail</t>
+          <t>Leur pas bestial secoue les stalles Simule à la nature le crépuscule de l'estival Partout aux alentours s'étalent de sous les sabots du troupeau Toutes ces fleurs qui pleurent leurs pétales D'après la taille de leur appât ils imaginent être des géants Mais sont que des brouteurs de paille L'humain vestal peint par Vésale Renvoie le mouton de Panurge à l'académie nationale J'ai mon chandail, bonnet de racaille Et je reste assis toute la nuit à regarder passer le bétail Le cri des cailles, les gants de maille pourraient les prévenir du pire Mais ils n'observent pas les détails Avant l'entaille de la cisaille personne ne doute Poursuit la route qui les mène à leurs funérailles Suivant les rails jusqu'au portail de l'abattoir où l'on suppute Sur l'occiput s'abat le maillet La nuit baille par le vitrail Laissant deviner ce que devient celui derrière le soupirail Si je tressaille, c'est la grisaille, celle de Hanoi Comme un cow-boy moi je regarde passer le bétail Ils se mitraillent pour des médailles À résumer leur société, c'est l'abattoir ou la bataille La pub assaille de ces trouvailles, d'objets-gadgets à consommer Faut posséder l'attirail Jeter ces cailles et deux canailles serait un acte terroriste Ou pire anti-commercial C'est des cobayes que l'on empaille Pourtant il est bien reptilien leur cerveau qui perd les écailles Épouvantail dans les broussailles Depuis la ligne de la colline moi je regarde passer le bétail Ils bouchent les failles dans les murailles Car ils sont fiers de leurs oeillères qui leur cachent si bien les étoiles Ces tours d'émail comme à Dubaï Là où ils vont, végétation signifie désert du Sinaï L'air qu'ils inhalent les rend plus pâles Avec la poussière volcanique, le dioxyde et le méthane Depuis marmaille ça va au Drive Déposer l'arthérosclérose autour de l'artère vertébrale Comme un Jedi assis en tailleur Durant des heures, comme un prieur moi je regarde passer le bétail</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>À-t-on avis j'ai vraiment l'air d'un monstre ? Qui de nous deux est le monstre ? J'suis cent pour cent jouet musical J'ai le doigté qui t'amuse au calme T'façon on est àl pour s'amuser Parait je ressens que de la musique Pour toi je suis déshumanisé J'suis l'Nord, t'es l'Sud de la Corée On sait tous les deux bien qu'ça cloche Approches, à moins que tu craignes dêtre dévorée Comme par une meute de chiens féroces Elle m'envoie des coeurs sur Whatsapp Les photos pourries d'sa chatte J'vois que mes relations intimes s'effacent comme une story Snapchat Elles veulent cocher rappeur sur la page du blog ??? dans les hôtels après les concerts Ta famille te conseille, prends garde a toi Car j'ai l'appétit de Gargantua Demi-racaille des tranchées J'suis le soldat que tu gardes en toi Entre deux batailles, deux tranchées Sale pute hardcore qui minaude Emmenez-moi en encore milles autres Mon Dieu, j'suis pas croyant mais j'fais des prières pour Milo Que la vénus aille s'faire enculer Pendant qu'j'matte sa silhouette couler J'suis un monstre sur son radeau Bah ouai j'sais bien qu'il y en aura d'autres Mon radeau s'éloigne comme avant Et j'aperçoit d'jà plus la terre Ça m'serre comme quand pleurait maman Pendant que papa se désaltère Mon frère qu'un bonhomme à mes yeux Au milieu de ce monde de luxe Si un jour j'retombe amoureux Tires-moi une balle dans la nuque C'est pour ça j'prends souvent mes proches dans les bras Tout ceux qui m'aiment à chaque instant sans l'afficher sur Insta You might also like Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je cherche plus les monstre sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je sais que les démons conspirent Désirent que l'amour soit gâché Que la seule chose qui les attire C'est les ruines d'une âme saccagée J'efface les traces de mes parents Et j'essaie d'être bien dans mon kiff Mais je sais que j'saigne transparent Et qu'les chiens des démons me suivent Tout les espoirs sont vains D'être sauvé par l'extérieur Reposer ma tête sur son sein Pour écouter battre son coeur Car le peu qu'Dieu m'autorisa C'est ce qui dérange les normaux Et ma main s'autolisera Si j'effleure les anges de Duino Tu sais j'crois bien que j'suis la nuit Et que t'existes que dans mes songes Baby j'espère qu'tu vas bien dormir Bien enveloppée dans du mensonge Il ne faut jamais être sincère Ni dire vraiment ce qu'on ressent Pourtant quand en elle je m'insère J'suis à l'écoute de tout ses sens J'ai pas d'notion de bien, de mal J'aime toutes les filles que je séduis Celui qui est dans l'miroir d'leurs âmes Et j'aime me voir quand je suis lui T'es le reflet de ma fontaine Qui soigne ma blessure de Narcisse Faut qu'tu m'aimes pour que je m'aime Qu'tu t'appelles Maude ou Anaïs J'suis l'désespoir de Cornélia Comme si j'suis tout seul une tournante Et si l'amour est mort déjà Alors offres-moi tes tourments J'aimerai qu'tu brûles de la passion ??? emporté par les flammes J'récolte ses larmes sur mon pinceau Pour peindre le portrait de son âme Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je cherche plus les monstre sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi x2 Dooz Kawa1</t>
+          <t>À-t-on avis j'ai vraiment l'air d'un monstre ? Qui de nous deux est le monstre ? J'suis cent pour cent jouet musical J'ai le doigté qui t'amuse au calme T'façon on est àl pour s'amuser Parait je ressens que de la musique Pour toi je suis déshumanisé J'suis l'Nord, t'es l'Sud de la Corée On sait tous les deux bien qu'ça cloche Approches, à moins que tu craignes dêtre dévorée Comme par une meute de chiens féroces Elle m'envoie des coeurs sur Whatsapp Les photos pourries d'sa chatte J'vois que mes relations intimes s'effacent comme une story Snapchat Elles veulent cocher rappeur sur la page du blog ??? dans les hôtels après les concerts Ta famille te conseille, prends garde a toi Car j'ai l'appétit de Gargantua Demi-racaille des tranchées J'suis le soldat que tu gardes en toi Entre deux batailles, deux tranchées Sale pute hardcore qui minaude Emmenez-moi en encore milles autres Mon Dieu, j'suis pas croyant mais j'fais des prières pour Milo Que la vénus aille s'faire enculer Pendant qu'j'matte sa silhouette couler J'suis un monstre sur son radeau Bah ouai j'sais bien qu'il y en aura d'autres Mon radeau s'éloigne comme avant Et j'aperçoit d'jà plus la terre Ça m'serre comme quand pleurait maman Pendant que papa se désaltère Mon frère qu'un bonhomme à mes yeux Au milieu de ce monde de luxe Si un jour j'retombe amoureux Tires-moi une balle dans la nuque C'est pour ça j'prends souvent mes proches dans les bras Tout ceux qui m'aiment à chaque instant sans l'afficher sur Insta Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je cherche plus les monstre sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je sais que les démons conspirent Désirent que l'amour soit gâché Que la seule chose qui les attire C'est les ruines d'une âme saccagée J'efface les traces de mes parents Et j'essaie d'être bien dans mon kiff Mais je sais que j'saigne transparent Et qu'les chiens des démons me suivent Tout les espoirs sont vains D'être sauvé par l'extérieur Reposer ma tête sur son sein Pour écouter battre son coeur Car le peu qu'Dieu m'autorisa C'est ce qui dérange les normaux Et ma main s'autolisera Si j'effleure les anges de Duino Tu sais j'crois bien que j'suis la nuit Et que t'existes que dans mes songes Baby j'espère qu'tu vas bien dormir Bien enveloppée dans du mensonge Il ne faut jamais être sincère Ni dire vraiment ce qu'on ressent Pourtant quand en elle je m'insère J'suis à l'écoute de tout ses sens J'ai pas d'notion de bien, de mal J'aime toutes les filles que je séduis Celui qui est dans l'miroir d'leurs âmes Et j'aime me voir quand je suis lui T'es le reflet de ma fontaine Qui soigne ma blessure de Narcisse Faut qu'tu m'aimes pour que je m'aime Qu'tu t'appelles Maude ou Anaïs J'suis l'désespoir de Cornélia Comme si j'suis tout seul une tournante Et si l'amour est mort déjà Alors offres-moi tes tourments J'aimerai qu'tu brûles de la passion ??? emporté par les flammes J'récolte ses larmes sur mon pinceau Pour peindre le portrait de son âme Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je cherche plus les monstre sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi x2 Dooz Kawa1</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Tu m'entends là ? On essaie sur celle là ? Ça va être un bordel hein Yo Beggars Yo K.O, TKaï, Foreign, Beggars Triste clan, T-Kai cee 2005 représente Le pire est avenir autant que dans l'vol à l'arrache Au démarrage j'ai vu les mecs se marrer cash Et dire putain c'est nul Mais quand ils mirent le casque sur leur cage à miel Se jetèrent eux mêmes en cellule Mon pe-ra sort des marécages comme l'envol d'une libellule Avec des lyrics plus rares que l'emploi du verbe surseoir Mon frère si t'affabule ferme ta gueule et va tasseoir J'rappe pour les funambules sur le fil du rasoir Tous prêts à tomber, noctambules comme les rondiers Afin de délivrer la puissance que vous attendiez Tant d'yeux à m'attiser que ma rage est mécanique Pousse mes pookies à tiser un ? Narcozik les saloperies de la rue et puis les sales pires de la zup Ici pour rien on me butte butte Alors j'représente même pour les fils de putes C'est comme si j'rappais mes textes avec un gun derrière la nuque Enfoiré ! You might also like Le pire est avenir et puis l'avenir est dépassé Préviens moi quand t'arrives car mes chiens sont détachés Avec eux j'ai passé le jour de l'an avec une bouteille de vodka Tout seul dans l'appartement mais moi j'sors un album Et toi t'es encore en pampers avec ton crew de lèche-culs Dilatté au popers, tu peux bien m'faire les poches pendant l'concert Ca touche pas mes cordes vocales mes textes sont dans mon bocal Et le pire est avenir sur la planète locale Comme le non à l'assistance comme mon nom chez l'assistante sociale Mais même si les sociologues l'ignorent encore sur leurs graphiques J'ai la formule au micro comme le formole géographique Qui nous conserve dans l'ghetto qu'on nous cerne de policiers J'continuerai l'concerto atteint d'métromanie J'ai la maladie du rappeur et le cancer des mots Ma pochette tient peut être sur un pèse-lettre mais c'est loin d'être une démo Et si ma langue avait une valeur marchande j'paierai cher le poids des mots Ah excuse, c'est ton couplet ben tiens prends l'micro Mais j'vois qu't'as rien à dire frère et pourtant c'est qu'une intro Le pire est avenir Narcozik yo Et yo n'ais pas peur des rappeurs censurés si on cirait les pompes du CSA Ca ça s'saurait rien à cirer de ta musique, j'viendrai violer ta muse si Nos tracas t'amuse mais le pire est avenir nostradamus le prédisait De façon déguisée comme le rap télévisé, Nous, nous On vient détourner le son avec des micros aiguisés Quitte à paraitre peut être paria par apparaitre Mais notre seul lien avec l'Etat C'est les restes de l'Elysée et les CRS qui défoncent des Eglises Les refrés en maison d'arrêt ou de correction, foyer de réinsertion trop d'mandats d'arrêts Demande à Darwin les solutions de survie quand y'a plus d'évolution dans ma ville L'urgence passe après la consommation au point que même les ambulances sont coincées dans les bouchons Yo, et le pire est avenir comme une tempête à l'horizon</t>
+          <t>Tu m'entends là ? On essaie sur celle là ? Ça va être un bordel hein Yo Beggars Yo K.O, TKaï, Foreign, Beggars Triste clan, T-Kai cee 2005 représente Le pire est avenir autant que dans l'vol à l'arrache Au démarrage j'ai vu les mecs se marrer cash Et dire putain c'est nul Mais quand ils mirent le casque sur leur cage à miel Se jetèrent eux mêmes en cellule Mon pe-ra sort des marécages comme l'envol d'une libellule Avec des lyrics plus rares que l'emploi du verbe surseoir Mon frère si t'affabule ferme ta gueule et va tasseoir J'rappe pour les funambules sur le fil du rasoir Tous prêts à tomber, noctambules comme les rondiers Afin de délivrer la puissance que vous attendiez Tant d'yeux à m'attiser que ma rage est mécanique Pousse mes pookies à tiser un ? Narcozik les saloperies de la rue et puis les sales pires de la zup Ici pour rien on me butte butte Alors j'représente même pour les fils de putes C'est comme si j'rappais mes textes avec un gun derrière la nuque Enfoiré ! Le pire est avenir et puis l'avenir est dépassé Préviens moi quand t'arrives car mes chiens sont détachés Avec eux j'ai passé le jour de l'an avec une bouteille de vodka Tout seul dans l'appartement mais moi j'sors un album Et toi t'es encore en pampers avec ton crew de lèche-culs Dilatté au popers, tu peux bien m'faire les poches pendant l'concert Ca touche pas mes cordes vocales mes textes sont dans mon bocal Et le pire est avenir sur la planète locale Comme le non à l'assistance comme mon nom chez l'assistante sociale Mais même si les sociologues l'ignorent encore sur leurs graphiques J'ai la formule au micro comme le formole géographique Qui nous conserve dans l'ghetto qu'on nous cerne de policiers J'continuerai l'concerto atteint d'métromanie J'ai la maladie du rappeur et le cancer des mots Ma pochette tient peut être sur un pèse-lettre mais c'est loin d'être une démo Et si ma langue avait une valeur marchande j'paierai cher le poids des mots Ah excuse, c'est ton couplet ben tiens prends l'micro Mais j'vois qu't'as rien à dire frère et pourtant c'est qu'une intro Le pire est avenir Narcozik yo Et yo n'ais pas peur des rappeurs censurés si on cirait les pompes du CSA Ca ça s'saurait rien à cirer de ta musique, j'viendrai violer ta muse si Nos tracas t'amuse mais le pire est avenir nostradamus le prédisait De façon déguisée comme le rap télévisé, Nous, nous On vient détourner le son avec des micros aiguisés Quitte à paraitre peut être paria par apparaitre Mais notre seul lien avec l'Etat C'est les restes de l'Elysée et les CRS qui défoncent des Eglises Les refrés en maison d'arrêt ou de correction, foyer de réinsertion trop d'mandats d'arrêts Demande à Darwin les solutions de survie quand y'a plus d'évolution dans ma ville L'urgence passe après la consommation au point que même les ambulances sont coincées dans les bouchons Yo, et le pire est avenir comme une tempête à l'horizon</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>T'aurais pas oublié ton prince Qu'étincelle et grand boum Résident comme le devil à Rangoon A l'achtung qui fait tchack-pa A chaque pas, regard tout froid sous la chapka Et qui foudroie l'oiseau qui passe brr Souvent souviens, de la toundra Souverain d'un univers de glace Putain de garce, de sort T'aurais pas oublié ton prince En passant trop près des Açores? Là d'où ça sors Les trompettes du hardcore Interprètent mes accords C'est comme une serpette sous la gorge Ou un serre-tête qui sert de torche Qaund j'ai la force d'mes métaphores T'aurais pas oublié celui Pour qui la nuit brille déjà fort T'as pleins de marques au corps Encore atteint du Maldoror En matador qu'on marque à tort Seigneur de guerre comme Dark Vador Sur le terre-plein, où les hauts pins S'enfonce en forêt sans fin You might also likeT'aurais pas oublié ton prince Rencontré lors d'un ancien Voyage dans les abîmes Quand tu détachais tes habits Chuchotait que l'amour ça tabîme? Alors ensemble on l'enterre à Nîmes La flamme qu'il y a jamais eu en moi, le 'haïm T'aurais pas oublié ton prince Dans le disque dur d'un terra? Où semblent résonner leurs corps D'fantômes dans l'opéra Scène de pera De la rue morgue crime Sur l'pas d'la porte Kim Fais pas la morte et réveille toi dans un sursaut Voir ces nuages qui sortent l'soir Comme des paras qui vont au saut Wouaw... Et leurs toiles qui sont ouvertes Pour que les étoiles soient recouvertes au chaud T'aurais pas oublié ton prince atcho Celui qui vit dans une ville déserte Et puis qui est épié par l'ennui Qui sans jamais bouger les pieds Traverse les couloirs de la nuit Et dans la pluie et le royaume Et puis et puis.. Et puis le King qui picole Du tonneau de l'eau du mort-au-king Comme le Comme le Le roi sans couronne assis en travers du trône Et dans les ombres se confondent Au fond de, la salle la plus profonde Du manoir le plus sombre Où les hyènes rôdent Celui qui sombre dans l'alcool de reine claude Des émeraudes, au bout des chaînes J'ai des vautours dans les yeux Un gang de lion dans les veines Et quelques tâches de toi sur mon ganglion sentinelle J'suis l'prince noir viens m'voir En traversant l'grand tunnel Aux traces de doigt qui crissent rrrrr ? Où la peau des murs cicatrisent T'aurais pas oublié ton prince Celui qu'a des loups qui salivent Lorsqu'il y a des fous qui arrivent Où atterrissent les papillons Qui redeviendront chrysalide ..? T'aurais pas oublié ton prince Solitaire comme un lynx Dans le zoo de Port-Saïd Et qui s'souviens de sa capture dans les fourrées On se demande ce qu'est devenu Sa portée de lynxounet Réchauffement planétaire Prisonnier par les terres Puisque les neiges deviennent arides Et lAntarctique napparaît guère T'aurais pas oublié ton prince Qui ce matin part à la guerre Embrasse le une dernière fois Et dis-lui comment t'es fière T'aurais vraiment pas oublié Tout en étant enfin heureuse Que de l'autre coté de l'étang Se dresse le prince de la nébuleuse Et dans la brume Là où la lune, joue le soleil Celui qui même quand on le voit Reste trouble à tous vos regards Celui qui vient troubler vos sommeils, par des cauchemars Depuis mille ans Qui tout les jours surveille un horizon brisé Pour ton retour sur les remparts en bas des tours T'aurais pas oublié ce prince, qui ne mérite pas d'amour..</t>
+          <t>T'aurais pas oublié ton prince Qu'étincelle et grand boum Résident comme le devil à Rangoon A l'achtung qui fait tchack-pa A chaque pas, regard tout froid sous la chapka Et qui foudroie l'oiseau qui passe brr Souvent souviens, de la toundra Souverain d'un univers de glace Putain de garce, de sort T'aurais pas oublié ton prince En passant trop près des Açores? Là d'où ça sors Les trompettes du hardcore Interprètent mes accords C'est comme une serpette sous la gorge Ou un serre-tête qui sert de torche Qaund j'ai la force d'mes métaphores T'aurais pas oublié celui Pour qui la nuit brille déjà fort T'as pleins de marques au corps Encore atteint du Maldoror En matador qu'on marque à tort Seigneur de guerre comme Dark Vador Sur le terre-plein, où les hauts pins S'enfonce en forêt sans fin T'aurais pas oublié ton prince Rencontré lors d'un ancien Voyage dans les abîmes Quand tu détachais tes habits Chuchotait que l'amour ça tabîme? Alors ensemble on l'enterre à Nîmes La flamme qu'il y a jamais eu en moi, le 'haïm T'aurais pas oublié ton prince Dans le disque dur d'un terra? Où semblent résonner leurs corps D'fantômes dans l'opéra Scène de pera De la rue morgue crime Sur l'pas d'la porte Kim Fais pas la morte et réveille toi dans un sursaut Voir ces nuages qui sortent l'soir Comme des paras qui vont au saut Wouaw... Et leurs toiles qui sont ouvertes Pour que les étoiles soient recouvertes au chaud T'aurais pas oublié ton prince atcho Celui qui vit dans une ville déserte Et puis qui est épié par l'ennui Qui sans jamais bouger les pieds Traverse les couloirs de la nuit Et dans la pluie et le royaume Et puis et puis.. Et puis le King qui picole Du tonneau de l'eau du mort-au-king Comme le Comme le Le roi sans couronne assis en travers du trône Et dans les ombres se confondent Au fond de, la salle la plus profonde Du manoir le plus sombre Où les hyènes rôdent Celui qui sombre dans l'alcool de reine claude Des émeraudes, au bout des chaînes J'ai des vautours dans les yeux Un gang de lion dans les veines Et quelques tâches de toi sur mon ganglion sentinelle J'suis l'prince noir viens m'voir En traversant l'grand tunnel Aux traces de doigt qui crissent rrrrr ? Où la peau des murs cicatrisent T'aurais pas oublié ton prince Celui qu'a des loups qui salivent Lorsqu'il y a des fous qui arrivent Où atterrissent les papillons Qui redeviendront chrysalide ..? T'aurais pas oublié ton prince Solitaire comme un lynx Dans le zoo de Port-Saïd Et qui s'souviens de sa capture dans les fourrées On se demande ce qu'est devenu Sa portée de lynxounet Réchauffement planétaire Prisonnier par les terres Puisque les neiges deviennent arides Et lAntarctique napparaît guère T'aurais pas oublié ton prince Qui ce matin part à la guerre Embrasse le une dernière fois Et dis-lui comment t'es fière T'aurais vraiment pas oublié Tout en étant enfin heureuse Que de l'autre coté de l'étang Se dresse le prince de la nébuleuse Et dans la brume Là où la lune, joue le soleil Celui qui même quand on le voit Reste trouble à tous vos regards Celui qui vient troubler vos sommeils, par des cauchemars Depuis mille ans Qui tout les jours surveille un horizon brisé Pour ton retour sur les remparts en bas des tours T'aurais pas oublié ce prince, qui ne mérite pas d'amour..</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Yeah Dooz kawa Sofiane Art Aknid Dooz kawa Il reste d'la weed ? Yo, Yo J'fume et j'bois A cause de ceux qui veulent qu'j'arrete Parfois j'crois qu'jporte la croix de Jésus de Nazareth Et un gramme de kétama vivisection de la garette Et mon frère passe le coca pour mélanger au rhum charrette Mon frère m'a dis t'es naze arrêtes t'as pas compris t'es malheurep t'es malheureux La montagne de soucis, eh ouais j'l'escalade à tort s'teuplait kawa reste ici J'le connait bien l'escalator qui conduit a lanesthésie Du centre ville aux HLM t'sais que d'ici c'est pas facile de voir le ciel J'suis pas parti d'la ville d'Paris, si tu peux encore voir mes ailes On est tous les anges d'un paradis artificiel J'roule le népallais en ficelle et découpe les hoffman en 4 Avec de l'air sec dans le zen on s'croit dans super mario kart Il m'reste 2 vies si on se crashe, ma chérie prends moi la main et guide moi si on s'écarte You might also likeMon cur est vide mon corps est froid petit liquide Endors ma douleur encore une fois Mon cur est vide mon corps est froid petit joint d'weed Endors ma douleur encore une fois Ici les fleurs poussent en décembre, elles poussent en décembre Planquées dans les grands ensembles sur un territoire en cendre Ici les fleurs poussent décembre, elles poussent en décembre Dans les armoires des chambres, les fleurs poussent de décembre Rez de chaussée des 12 étages, j'me sens un peu white trash Ma terrasse sur lautoroute et le bruit traverse le vitrage En fait c'est comme si on voulaient nous écarter on dirait qu'y'a comme un dôme qui est posé sur le quartier J'suis seul dans cet appart en périphérie d'Marseille J'regarde passer les rats dans la capitale culturelle Je cherche pas l'mélodrame pour mécarter de mes délits Et faut pas déconner 100 grammes c'est pas l'cartel de Medellín Sortez la tête de la terre Les filles je cultive, pour mes artères, des fruits C'est plus les flics qui font flipper, mais les kalash En bas les types sont excités alors que chez moi c'est relâche Rendormez vous mes petites papa dors sur l'rocking chair en vous lisant un livre, qui reste sur ses genoux, ouvert Et puis son arrosoir casto, son terreau minéralisé Et son fusil d'assaut, à deux coups superposés Mon cur est vide mon corps est froid petit liquide Endors ma douleur encore une fois Mon cur est vide mon corps est froid petit joint d'weed Endors ma douleur encore une fois Ici les fleurs poussent en décembre, elles poussent en décembre Planquées dans les grands ensembles sur un territoire en cendre Ici les fleurs poussent décembre, elles poussent en décembre Dans les armoires des chambres, les fleurs poussent de décembre J'suis amer comme la plupart couz' Qui parleraient d'amour en partouze Bourgstra mon internat Mais j'crois que c'est la même partout J'ai tout fais pour m'casser d'al Même prendre des produits classés drogue J'traverse la France du Hip-Hop Parfois j'pense a la cathédrale C'est vrai que j'l'aimais bien Mais j'étais sur sa liste noire On est foncdés a 6 du mat' Alors vas-y Aziz démarre On fait des go fast En direction d'Maastricht J'aurais su faire un podcast Pour expliquer ou s'cachent les flics Ici, les fleurs poussent en décembre Les nains de jardin sont des ombres Qui sortent de l'antre, de mon imagination Et lorsque le soleil rentre dans son écrin d'hélium Lélectricité prends l'relais avec des lampes à sodium Société de con lestés qui me jalouse dêtre trop haut On m'dis qu'j'suis déconnecté mais c'est vous qui lêtes de trop Mon karma sombrait dans la nuit quand j'avais trop la mauvaise vibe J'crois c'qui m'a sauvé la vie c'est de lire Claude Olievenstein</t>
+          <t>Yeah Dooz kawa Sofiane Art Aknid Dooz kawa Il reste d'la weed ? Yo, Yo J'fume et j'bois A cause de ceux qui veulent qu'j'arrete Parfois j'crois qu'jporte la croix de Jésus de Nazareth Et un gramme de kétama vivisection de la garette Et mon frère passe le coca pour mélanger au rhum charrette Mon frère m'a dis t'es naze arrêtes t'as pas compris t'es malheurep t'es malheureux La montagne de soucis, eh ouais j'l'escalade à tort s'teuplait kawa reste ici J'le connait bien l'escalator qui conduit a lanesthésie Du centre ville aux HLM t'sais que d'ici c'est pas facile de voir le ciel J'suis pas parti d'la ville d'Paris, si tu peux encore voir mes ailes On est tous les anges d'un paradis artificiel J'roule le népallais en ficelle et découpe les hoffman en 4 Avec de l'air sec dans le zen on s'croit dans super mario kart Il m'reste 2 vies si on se crashe, ma chérie prends moi la main et guide moi si on s'écarte Mon cur est vide mon corps est froid petit liquide Endors ma douleur encore une fois Mon cur est vide mon corps est froid petit joint d'weed Endors ma douleur encore une fois Ici les fleurs poussent en décembre, elles poussent en décembre Planquées dans les grands ensembles sur un territoire en cendre Ici les fleurs poussent décembre, elles poussent en décembre Dans les armoires des chambres, les fleurs poussent de décembre Rez de chaussée des 12 étages, j'me sens un peu white trash Ma terrasse sur lautoroute et le bruit traverse le vitrage En fait c'est comme si on voulaient nous écarter on dirait qu'y'a comme un dôme qui est posé sur le quartier J'suis seul dans cet appart en périphérie d'Marseille J'regarde passer les rats dans la capitale culturelle Je cherche pas l'mélodrame pour mécarter de mes délits Et faut pas déconner 100 grammes c'est pas l'cartel de Medellín Sortez la tête de la terre Les filles je cultive, pour mes artères, des fruits C'est plus les flics qui font flipper, mais les kalash En bas les types sont excités alors que chez moi c'est relâche Rendormez vous mes petites papa dors sur l'rocking chair en vous lisant un livre, qui reste sur ses genoux, ouvert Et puis son arrosoir casto, son terreau minéralisé Et son fusil d'assaut, à deux coups superposés Mon cur est vide mon corps est froid petit liquide Endors ma douleur encore une fois Mon cur est vide mon corps est froid petit joint d'weed Endors ma douleur encore une fois Ici les fleurs poussent en décembre, elles poussent en décembre Planquées dans les grands ensembles sur un territoire en cendre Ici les fleurs poussent décembre, elles poussent en décembre Dans les armoires des chambres, les fleurs poussent de décembre J'suis amer comme la plupart couz' Qui parleraient d'amour en partouze Bourgstra mon internat Mais j'crois que c'est la même partout J'ai tout fais pour m'casser d'al Même prendre des produits classés drogue J'traverse la France du Hip-Hop Parfois j'pense a la cathédrale C'est vrai que j'l'aimais bien Mais j'étais sur sa liste noire On est foncdés a 6 du mat' Alors vas-y Aziz démarre On fait des go fast En direction d'Maastricht J'aurais su faire un podcast Pour expliquer ou s'cachent les flics Ici, les fleurs poussent en décembre Les nains de jardin sont des ombres Qui sortent de l'antre, de mon imagination Et lorsque le soleil rentre dans son écrin d'hélium Lélectricité prends l'relais avec des lampes à sodium Société de con lestés qui me jalouse dêtre trop haut On m'dis qu'j'suis déconnecté mais c'est vous qui lêtes de trop Mon karma sombrait dans la nuit quand j'avais trop la mauvaise vibe J'crois c'qui m'a sauvé la vie c'est de lire Claude Olievenstein</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CECI EST UNE ÉBAUCHE À COMPLÉTER ! Intro Merci de laisser un message après le bip sonore Ouais Nano, tu sais j'me disais j'aimerais bien écrire un texte pour toutes les lettres que j'ai écrit et que j'avais aucun retour J'me disais que parfois l'amour ça semble être qu'un train qui part ou un avion qui décolle, un truc du style quoi... J'me dis ça pourrait donner un truc du style, hum comme ça À ta santé, toi l'arrache-coeur Fait pour en orpheliner À coup de baisers mitrailleurs Son lit est un champ de bataille Terrain de passions destructrices Où gît une p'luche à fracas facial Qui agonise des trucs tristes Ils approcheront les curieux Il sera trop tard quand t'insises Le tire bouchon à écoeurer Qui les caractomise Les Muses sont peut-être des déesses Attirées par des amours Mais comme les poètes elles disparaissent Et Verlaine tire sur Rimbaud Le socle qui se lézarde Écarte la flore intime Et fait battre le coeur de marbre Des statues florentines Ils sèchent les cours pour de la baise Détestent les mathématiques Mais leurs relations amoureuses Ne sont que des algorithmes You might also likeMoi le bagnard de l'Amazone Sa mine est grise et pâle À cause de ceux qui rendent les hommes Plus schizophrènes qu'un bicéphale Je reviendrai de Sibérie Armé, bardé de médailles Mais mes baisers jadis arides Seront plus froids que du métal Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... Voici le temps des assassins À ta santé, toi le vampire Qu'a le baiser clairvoyant Mais qui rend les gens pires Et tu survoles le monde Comme une baigneuse des hautes sphères Ta beauté illumine du nombre Dédaigneux et austères Pour embrasser des nécrophiles De l'eau s'faire depuis descentes Tes baisers à la chlorophylle Possèdent un arrière goût de sang Le vampire est dément Faire l'amour n'est qu'un combat souple Alors moi la nuit je mens Comme Bashung Car chacun veut qu'on l'aime Et dans la conquête les mots filent Puis deux trous sous les oreilles Et l'hémorragie hémophile Parler à un tombeau d'usine Puis on attend que ce bruit cesse Car à part de la musique On fait tout d'travers dans la tristesse... Mon coeur pèse un piano Les souviens-tu-t'en ? À ton doigt léger comme un anneau Où dépérissent 120 titans Je reviendrai avec un couteau planté Dans ton faux air de gitane État capilo-tracté dans mes âmes vertiginales Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... À ta santé, toi la beauté du Diable Pour qui l'homme traverse l'Enfer Et qui rend triste comme du sable Si tout ça nous l'savons Que l'Styx mène vers les rapides On vole quand même les avirons D'Charon pour y aller de plus rapide Les armées des milices s'élèvent Brûlés par les braises diaphanes Tourmentent Mephisto fait laisse Quand ils soufflent sur les femmes Si l'amoureux se sent si seul Quand l'ange déchu dechoît C'est que dans l'tissu social On est fait que de soi... Les croisades de la galoche Sont une éternelle chevauchée Où les hippocampes sans accroches Se fracassent sur les rochers Dans la tempête de Scheol L'amoureux frappé d'aphonie Attriste l'entourage impuissant De le voir sombrer vers la folie Quand parfois, il faisait froid Juste s'asseoir devant elle Son regard est un feu de bois Qui réchauffait mes grandes ailes J'reviendrai pas ni toi d'ailleurs de cette cabane J'vais voir ta beauté intérieure Parce que chez moi y'a pas dâme Voici le temps des assassins Jouez les angélus Quand l'amour touche a sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous me croisez dans la rue... Priez pour son salut Chuut, c'est juste moi j'viens t'embrasser Dans ton dernier bain d'épines Et ça va laisser sur tes lèvres un gout de Benzodiazepine T'es un chef d'orchestre Russe qu'a suscité pas mal d'cris Ou bien t'es juste la roulette Russe qu'a suicidé Mayakovsky Viens on s'embrasse sous le linceul J'viens avec toi mon assassin Parce que tu sais l'éternité c'est long tout seul Surtout vers la fin...</t>
+          <t>CECI EST UNE ÉBAUCHE À COMPLÉTER ! Intro Merci de laisser un message après le bip sonore Ouais Nano, tu sais j'me disais j'aimerais bien écrire un texte pour toutes les lettres que j'ai écrit et que j'avais aucun retour J'me disais que parfois l'amour ça semble être qu'un train qui part ou un avion qui décolle, un truc du style quoi... J'me dis ça pourrait donner un truc du style, hum comme ça À ta santé, toi l'arrache-coeur Fait pour en orpheliner À coup de baisers mitrailleurs Son lit est un champ de bataille Terrain de passions destructrices Où gît une p'luche à fracas facial Qui agonise des trucs tristes Ils approcheront les curieux Il sera trop tard quand t'insises Le tire bouchon à écoeurer Qui les caractomise Les Muses sont peut-être des déesses Attirées par des amours Mais comme les poètes elles disparaissent Et Verlaine tire sur Rimbaud Le socle qui se lézarde Écarte la flore intime Et fait battre le coeur de marbre Des statues florentines Ils sèchent les cours pour de la baise Détestent les mathématiques Mais leurs relations amoureuses Ne sont que des algorithmes Moi le bagnard de l'Amazone Sa mine est grise et pâle À cause de ceux qui rendent les hommes Plus schizophrènes qu'un bicéphale Je reviendrai de Sibérie Armé, bardé de médailles Mais mes baisers jadis arides Seront plus froids que du métal Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... Voici le temps des assassins À ta santé, toi le vampire Qu'a le baiser clairvoyant Mais qui rend les gens pires Et tu survoles le monde Comme une baigneuse des hautes sphères Ta beauté illumine du nombre Dédaigneux et austères Pour embrasser des nécrophiles De l'eau s'faire depuis descentes Tes baisers à la chlorophylle Possèdent un arrière goût de sang Le vampire est dément Faire l'amour n'est qu'un combat souple Alors moi la nuit je mens Comme Bashung Car chacun veut qu'on l'aime Et dans la conquête les mots filent Puis deux trous sous les oreilles Et l'hémorragie hémophile Parler à un tombeau d'usine Puis on attend que ce bruit cesse Car à part de la musique On fait tout d'travers dans la tristesse... Mon coeur pèse un piano Les souviens-tu-t'en ? À ton doigt léger comme un anneau Où dépérissent 120 titans Je reviendrai avec un couteau planté Dans ton faux air de gitane État capilo-tracté dans mes âmes vertiginales Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... À ta santé, toi la beauté du Diable Pour qui l'homme traverse l'Enfer Et qui rend triste comme du sable Si tout ça nous l'savons Que l'Styx mène vers les rapides On vole quand même les avirons D'Charon pour y aller de plus rapide Les armées des milices s'élèvent Brûlés par les braises diaphanes Tourmentent Mephisto fait laisse Quand ils soufflent sur les femmes Si l'amoureux se sent si seul Quand l'ange déchu dechoît C'est que dans l'tissu social On est fait que de soi... Les croisades de la galoche Sont une éternelle chevauchée Où les hippocampes sans accroches Se fracassent sur les rochers Dans la tempête de Scheol L'amoureux frappé d'aphonie Attriste l'entourage impuissant De le voir sombrer vers la folie Quand parfois, il faisait froid Juste s'asseoir devant elle Son regard est un feu de bois Qui réchauffait mes grandes ailes J'reviendrai pas ni toi d'ailleurs de cette cabane J'vais voir ta beauté intérieure Parce que chez moi y'a pas dâme Voici le temps des assassins Jouez les angélus Quand l'amour touche a sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous me croisez dans la rue... Priez pour son salut Chuut, c'est juste moi j'viens t'embrasser Dans ton dernier bain d'épines Et ça va laisser sur tes lèvres un gout de Benzodiazepine T'es un chef d'orchestre Russe qu'a suscité pas mal d'cris Ou bien t'es juste la roulette Russe qu'a suicidé Mayakovsky Viens on s'embrasse sous le linceul J'viens avec toi mon assassin Parce que tu sais l'éternité c'est long tout seul Surtout vers la fin...</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>- Le balancement du rocking-chair nous convie au plaisir d'la chair... - Et cette chanson ? - Ça commence à être au point - Oui, c'est vrai, hein, Albert ? On y va ? Ma vie, c'tait souvent l'ouragan qu'avait un prénom féminin Qui t'arrache, toi, de la maison, tu sais quel signe j'te fais d'la main J'ai pas dit femme fontaine, jamais, lorsque la peine guidait mes paroles On laisse tous une femme qu'on aimait pour une trentaine qu'on n'aimait pas Et puis nique sa mère, t'sais quoi, c'est quand même pas la faute de c'monde Si ta copine n'est qu'une tente Quechua qui se déplie en deux secondes Tu cours toujours après les chieuses, ça veut bien dire qu'elles courent aussi Puisque la poursuite amoureuse n'est qu'un marathon affectif J'ai pas peur que les féministes au concert m'égorgent pour mes paroles Parc'qu'déjà, pour v'nir, bah faudrait qu'elles apprennent à garer les bagnoles J'suis pas vicieux, c'est le hip-hop qu'a fait un autre moi de moi J'sers qu'à faire glisser les culottes car j'cherche à m'humecter les doigts Ça pourrait trop briser tes rêves à trop t'approcher des vauriens Mais si tu sais que t'as tes règles, bah nage pas avec les requins Soi-disant ton amant t'aime, j'regarde saigner ton âme en peine En tous cas, moi, j'sais qu'j'écoute plus les fables des femmes fontaines Des fois, j'me dis qu'le temps nous est compté C'est dans ce tourbillon que j'vais tomber Mais si le feu qui m'éclaire est celui qui me brûle J'avance tout seul en enfer pendant qu'l'horizon recule Ces moments partagés, qu'est-c'que c'était bon Je crois qu'le soleil a perdu ses rayons La vie, c'est un manège qui nous mène tous au naufrage Mon ange dans mon ménage, y'a de la neige et d'l'orage You might also like Jessaie décrire entre les lignes, un cur entre elle et lui Sachant quà trop les lire, on connaîtra lennui, quà nos montres Il est lheure, oui, je crains dêtre allé loin, jai rencontré la nuit Pour te montrer la lune et mes lettres lallument La rue ma dit Naie pas le seum, quon se déteste ou que lon saime Car on ne récolte jamais que les sentiments que lon sème Mais lamour tue, mec, on le sait, mon amertume est colossale Les te quiero, mi corazón et le poids des regrets me collent au sol Le thème est un je taime éteint, y'a longtemps Qui revient comme un vieux refrain, je lentends Le temps passé te manque et si tu mens Tu diras quavant cétait mieux, je sais, tas mal et cest humain Mais bien des gars des cités mentent, où sont tes meufs ? Reprends tes centimes et tes centimètres, essuie tes mains La rue men soit témoin si taimes, ici, tes mort as-tu le sentiment Quon sest aimé ? Nos vies, cest pas du septième art Des fois, j'me dis qu'le temps nous est compté C'est dans ce tourbillon que j'vais tomber Mais si le feu qui m'éclaire est celui qui me brûle J'avance tout seul en enfer pendant qu'l'horizon recule Ces moments partagés, qu'est-c'que c'était bon Je crois qu'le soleil a perdu ses rayons La vie, c'est un manège qui nous mène tous au naufrage Mon ange dans mon ménage, y'a de la neige et d'l'orage J'croyais qu'c'était la fin, c'était juste l'épitaphe Emporté par la foule comme dans une chanson d'Edith Piaf Aujourd'hui je pars, demain j'reviens si tu l'veux L'amour quelque part est un chemin sinueux T'as vu qu'mon cur était fermé alors t'as forcé la porte Elle m'en a fait baver salement, elle m'a fait morfler, la conne Après avoir touché le fond, j'reprends du poids, j'ai la forme J'ai arrêté d'jouer le con, la prochaine fois, c'est la bonne J'suis emporté par mes souvenirs, c'est ça dès qu'j'pense à elle Elle était pure alors j'l'ai dans la peau, j'l'ai dans la veine Qu'on finirait par s'éviter, mais qu'est-c'que j'en savais ? On s'fait du mal, on s'fait pitié, j'me l'répète sans arrêt La rue m'a vu vaciller, il faut qu't'écoutes ma peine La belle n'est plus maquillée, il faut qu'je coupe la scène J'ai b'soin d'un café chaud, j'attends qu'elle r'pousse la zeb J'mélange les phases, les mots, j'suis avec Dooz Kacem On s'est connu, on s'est reconnu On s'est perdu d'vue, on s'est r'perdu d'vue On s'est retrouvé, on s'est réchauffé Puis on s'est séparé Des fois, j'me dis qu'le temps nous est compté C'est dans ce tourbillon que j'vais tomber Mais si le feu qui m'éclaire est celui qui me brûle J'avance tout seul en enfer pendant qu'l'horizon recule Ces moments partagés, qu'est-c'que c'était bon Je crois qu'le soleil a perdu ses rayons La vie, c'est un manège qui nous mène tous au naufrage Mon ange dans mon ménage, y'a de la neige et d'l'orage</t>
+          <t>- Le balancement du rocking-chair nous convie au plaisir d'la chair... - Et cette chanson ? - Ça commence à être au point - Oui, c'est vrai, hein, Albert ? On y va ? Ma vie, c'tait souvent l'ouragan qu'avait un prénom féminin Qui t'arrache, toi, de la maison, tu sais quel signe j'te fais d'la main J'ai pas dit femme fontaine, jamais, lorsque la peine guidait mes paroles On laisse tous une femme qu'on aimait pour une trentaine qu'on n'aimait pas Et puis nique sa mère, t'sais quoi, c'est quand même pas la faute de c'monde Si ta copine n'est qu'une tente Quechua qui se déplie en deux secondes Tu cours toujours après les chieuses, ça veut bien dire qu'elles courent aussi Puisque la poursuite amoureuse n'est qu'un marathon affectif J'ai pas peur que les féministes au concert m'égorgent pour mes paroles Parc'qu'déjà, pour v'nir, bah faudrait qu'elles apprennent à garer les bagnoles J'suis pas vicieux, c'est le hip-hop qu'a fait un autre moi de moi J'sers qu'à faire glisser les culottes car j'cherche à m'humecter les doigts Ça pourrait trop briser tes rêves à trop t'approcher des vauriens Mais si tu sais que t'as tes règles, bah nage pas avec les requins Soi-disant ton amant t'aime, j'regarde saigner ton âme en peine En tous cas, moi, j'sais qu'j'écoute plus les fables des femmes fontaines Des fois, j'me dis qu'le temps nous est compté C'est dans ce tourbillon que j'vais tomber Mais si le feu qui m'éclaire est celui qui me brûle J'avance tout seul en enfer pendant qu'l'horizon recule Ces moments partagés, qu'est-c'que c'était bon Je crois qu'le soleil a perdu ses rayons La vie, c'est un manège qui nous mène tous au naufrage Mon ange dans mon ménage, y'a de la neige et d'l'orage Jessaie décrire entre les lignes, un cur entre elle et lui Sachant quà trop les lire, on connaîtra lennui, quà nos montres Il est lheure, oui, je crains dêtre allé loin, jai rencontré la nuit Pour te montrer la lune et mes lettres lallument La rue ma dit Naie pas le seum, quon se déteste ou que lon saime Car on ne récolte jamais que les sentiments que lon sème Mais lamour tue, mec, on le sait, mon amertume est colossale Les te quiero, mi corazón et le poids des regrets me collent au sol Le thème est un je taime éteint, y'a longtemps Qui revient comme un vieux refrain, je lentends Le temps passé te manque et si tu mens Tu diras quavant cétait mieux, je sais, tas mal et cest humain Mais bien des gars des cités mentent, où sont tes meufs ? Reprends tes centimes et tes centimètres, essuie tes mains La rue men soit témoin si taimes, ici, tes mort as-tu le sentiment Quon sest aimé ? Nos vies, cest pas du septième art Des fois, j'me dis qu'le temps nous est compté C'est dans ce tourbillon que j'vais tomber Mais si le feu qui m'éclaire est celui qui me brûle J'avance tout seul en enfer pendant qu'l'horizon recule Ces moments partagés, qu'est-c'que c'était bon Je crois qu'le soleil a perdu ses rayons La vie, c'est un manège qui nous mène tous au naufrage Mon ange dans mon ménage, y'a de la neige et d'l'orage J'croyais qu'c'était la fin, c'était juste l'épitaphe Emporté par la foule comme dans une chanson d'Edith Piaf Aujourd'hui je pars, demain j'reviens si tu l'veux L'amour quelque part est un chemin sinueux T'as vu qu'mon cur était fermé alors t'as forcé la porte Elle m'en a fait baver salement, elle m'a fait morfler, la conne Après avoir touché le fond, j'reprends du poids, j'ai la forme J'ai arrêté d'jouer le con, la prochaine fois, c'est la bonne J'suis emporté par mes souvenirs, c'est ça dès qu'j'pense à elle Elle était pure alors j'l'ai dans la peau, j'l'ai dans la veine Qu'on finirait par s'éviter, mais qu'est-c'que j'en savais ? On s'fait du mal, on s'fait pitié, j'me l'répète sans arrêt La rue m'a vu vaciller, il faut qu't'écoutes ma peine La belle n'est plus maquillée, il faut qu'je coupe la scène J'ai b'soin d'un café chaud, j'attends qu'elle r'pousse la zeb J'mélange les phases, les mots, j'suis avec Dooz Kacem On s'est connu, on s'est reconnu On s'est perdu d'vue, on s'est r'perdu d'vue On s'est retrouvé, on s'est réchauffé Puis on s'est séparé Des fois, j'me dis qu'le temps nous est compté C'est dans ce tourbillon que j'vais tomber Mais si le feu qui m'éclaire est celui qui me brûle J'avance tout seul en enfer pendant qu'l'horizon recule Ces moments partagés, qu'est-c'que c'était bon Je crois qu'le soleil a perdu ses rayons La vie, c'est un manège qui nous mène tous au naufrage Mon ange dans mon ménage, y'a de la neige et d'l'orage</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J'porte un oiseau mort en moi qui chantait comme des marines, marre Découvert à marée basse par les pêcheurs d'la marina mon radeau de naufragé Resté amarré au vice alors qu'elle elle reposait sur deux trois fleurs d'amaryllis Depuis que j'ai trahi vos lois en l'abattant comme une volaille, il plane au dessus de moi l'ombre d'un dragon Hokusai, mes yeux vomissent des gouttes car mon regard est saoulé L'avenir est flou puisque j'ouvre les yeux sous l'eau Il parait que je deviens austère à l'aurore et rose et pâle Que j'ai pris la grosse tête comme un bébé hydrocéphale L'histoire serait trop longue alors bon je vous l'annonce ainsi J'ai tué une colombe rue de l'Annonciation J'porte un oiseau mort en moi dans la brouette de mon vécu A qui j'ai coupé la tête pour qu'il ne me quitte jamais plus Mais c'est mes plumes arrachées quand j'nourris mon faucon j'suis le cormoran attaché Au gibet de mon faucon, un corbeau danse sur ma porte c'est mon corps que j'ai broyé Le cadavre que je transporte n'est pas celui que je croyais Tu sais, depuis tout p'tit poussin, qu'on me dise que je vaux rien J'ai fini par le croire, j'fais du rap pour les vauriens Je vise pas le bonheur seulement le niveau rien J'ai arrêté de réfléchir et puis après on verra bien Mais faut pas faire de peine aux fleurs car à peine on les effleure elles meurent et renaissent ailleurs Sur son piaillement de métronome c'est le rythme du métro nord J'ai tué une hirondelle parce que je l'aimais trop fort J'porte un oiseau mort en moi, parfois j'oublie, j'crois qu'il dort Mais il s'agit que du vent qui agite son duvet d'or Qui m'a rendu si heureux mais tellement destructeur Tellement drogué de ses yeux que mon moi se déstructure Bonjour le vide et le néant et des amis toujours aimant Je reviens enfin prendre ma place et plane au milieu des méandres Des averses, des orages, je retraverse les nuages et retourne en bas des tours, le berceau de la rage Les a-pocalypses d'Ezechiel dans mon coeur de nomade Pour protéger ses ailes j'étais chasseur de tornade De son nid perché sur les cimes elle m'a pas trop fait de place Le mépris des phrases assassines j'étais qu'un trophée de chasse Car à force d'ouvrir mon coeur j'avais peur qu'il n'revienne plus J'ai étranglé l'oiseau moqueur et balayé ses plumesYou might also like</t>
+          <t>J'porte un oiseau mort en moi qui chantait comme des marines, marre Découvert à marée basse par les pêcheurs d'la marina mon radeau de naufragé Resté amarré au vice alors qu'elle elle reposait sur deux trois fleurs d'amaryllis Depuis que j'ai trahi vos lois en l'abattant comme une volaille, il plane au dessus de moi l'ombre d'un dragon Hokusai, mes yeux vomissent des gouttes car mon regard est saoulé L'avenir est flou puisque j'ouvre les yeux sous l'eau Il parait que je deviens austère à l'aurore et rose et pâle Que j'ai pris la grosse tête comme un bébé hydrocéphale L'histoire serait trop longue alors bon je vous l'annonce ainsi J'ai tué une colombe rue de l'Annonciation J'porte un oiseau mort en moi dans la brouette de mon vécu A qui j'ai coupé la tête pour qu'il ne me quitte jamais plus Mais c'est mes plumes arrachées quand j'nourris mon faucon j'suis le cormoran attaché Au gibet de mon faucon, un corbeau danse sur ma porte c'est mon corps que j'ai broyé Le cadavre que je transporte n'est pas celui que je croyais Tu sais, depuis tout p'tit poussin, qu'on me dise que je vaux rien J'ai fini par le croire, j'fais du rap pour les vauriens Je vise pas le bonheur seulement le niveau rien J'ai arrêté de réfléchir et puis après on verra bien Mais faut pas faire de peine aux fleurs car à peine on les effleure elles meurent et renaissent ailleurs Sur son piaillement de métronome c'est le rythme du métro nord J'ai tué une hirondelle parce que je l'aimais trop fort J'porte un oiseau mort en moi, parfois j'oublie, j'crois qu'il dort Mais il s'agit que du vent qui agite son duvet d'or Qui m'a rendu si heureux mais tellement destructeur Tellement drogué de ses yeux que mon moi se déstructure Bonjour le vide et le néant et des amis toujours aimant Je reviens enfin prendre ma place et plane au milieu des méandres Des averses, des orages, je retraverse les nuages et retourne en bas des tours, le berceau de la rage Les a-pocalypses d'Ezechiel dans mon coeur de nomade Pour protéger ses ailes j'étais chasseur de tornade De son nid perché sur les cimes elle m'a pas trop fait de place Le mépris des phrases assassines j'étais qu'un trophée de chasse Car à force d'ouvrir mon coeur j'avais peur qu'il n'revienne plus J'ai étranglé l'oiseau moqueur et balayé ses plumes</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Bonjour t'a dit la nuit, t'es le dernier qui reste Pourquoi ce regard funeste ? Relève la tête et reparle à tes étoiles comme avant Il reviendra le beau temps J'te vois toujours seul sur c'banc Nuit après nuit, et les nuits se succédant Tu dois aimer ces baskets pour les regarder autant Allez, relève le tête, il reviendra le beau temps On a toujours une joie quelque part qui sommeille à célébrer Un genre de soleil finira bien par se lever Tu mangeras des baisers jusqu'à l'indigestion Retrouve ta direction, ferme les yeux, pars où souffle le vent Colère et haine ne mènent qu'à l'auto-destruction Éclaire les trucs sombres, c'est à toi d'décider Un genre de soleil finira bien par se lever Faudra qu'tu sois prêt Bonjour t'a dit la nuit, t'es le dernier qui reste Eh, pourquoi ce regard funeste ? Parfois moi aussi j'lui parle ainsi Rien de bon quand j'arrive, nan Rien de bon quand j'arrive dans le parc de la petite France J'tiens de bout mais en substance - Illicite et je crois ' j'suis lucide sur la balançoire Et le bateau pirate, j'lui parle sans copyright À la nuit pourquoi ?, lune est ma seule amie, j'crois You might also like Parce qu'on est les loups des steppes, que les élus nous détestent Parce qu'on hurle à la lune jusqu'au bout de l'hallali Parce qu'on est les loups des steppes, nous on est les loups des steppes Nous on est ... des steppes Le petit prince ne régna pas Je réponds à la nuit, dis-lui que tu meurs d'un désespoir incurable Que t'as perdu un truc, du fric ou un livre Tes clés de voiture ou bien l'envie de vivre J'veux plus faire de concert, j'ai une dispense J'suis atteint par le mal de la distance J'veux que faire du vélo avec Milo à la petite France Blessé dans l'action par la vie, par la mort et les séparations La misère affective pour un loup, combien de brebis seront égorgées ? Tu crois que ça mabîme tous ces moments où tu m'vois en bad ? Si tu peux voir l'abîme c'est qu'l'abîme voit aussi en oit Quand la vie me traite de sale con je dois rapper devant une sale comble Putain de contes cruels Parce qu'on est les loups des steppes, que les élus nous détestent Parce qu'on hurle à la lune jusqu'au bout de l'hallali Parce qu'on est les loups des steppes, nous on est les loups des steppes Nous on est ... des steppes Le petit prince ne régna pas Dans tes yeux j'vois des miroirs Rayé par la vie tu traverses un brouillard de mémoire dans la buée de tes larmes Y a toujours des anges pris au piège dans cette cage Quand tu pleures ça les arrange, ils s'évaporent dans les nuages Il y a du chagrin pour être honnête, des affaires et des cartons Ce qui glisse sur ta pommette Ces larmes que tu pleures, tes yeux qui me disent prends-moi le bras J'suis ton garde du cur Tu as les yeux d'ceux qui ont une âme qui vibre juste un peu plus fort que les autres Bonjour m'a dit la nuit, t'es le dernier qui reste Pourquoi ce regard funeste ? Parce qu'on est les loups des steppes, que les élus nous détestent Parce qu'on hurle à la lune jusqu'au bout de l'hallali Parce qu'on est les loups des steppes, nous on est les loups des steppes Nous on est ... des steppes Dooz Kawa, Milo Désolé d'pas avoir bossé l'intro Dédicace à mon petit louveteau Et chef des pompiers, héhé2</t>
+          <t>Bonjour t'a dit la nuit, t'es le dernier qui reste Pourquoi ce regard funeste ? Relève la tête et reparle à tes étoiles comme avant Il reviendra le beau temps J'te vois toujours seul sur c'banc Nuit après nuit, et les nuits se succédant Tu dois aimer ces baskets pour les regarder autant Allez, relève le tête, il reviendra le beau temps On a toujours une joie quelque part qui sommeille à célébrer Un genre de soleil finira bien par se lever Tu mangeras des baisers jusqu'à l'indigestion Retrouve ta direction, ferme les yeux, pars où souffle le vent Colère et haine ne mènent qu'à l'auto-destruction Éclaire les trucs sombres, c'est à toi d'décider Un genre de soleil finira bien par se lever Faudra qu'tu sois prêt Bonjour t'a dit la nuit, t'es le dernier qui reste Eh, pourquoi ce regard funeste ? Parfois moi aussi j'lui parle ainsi Rien de bon quand j'arrive, nan Rien de bon quand j'arrive dans le parc de la petite France J'tiens de bout mais en substance - Illicite et je crois ' j'suis lucide sur la balançoire Et le bateau pirate, j'lui parle sans copyright À la nuit pourquoi ?, lune est ma seule amie, j'crois Parce qu'on est les loups des steppes, que les élus nous détestent Parce qu'on hurle à la lune jusqu'au bout de l'hallali Parce qu'on est les loups des steppes, nous on est les loups des steppes Nous on est ... des steppes Le petit prince ne régna pas Je réponds à la nuit, dis-lui que tu meurs d'un désespoir incurable Que t'as perdu un truc, du fric ou un livre Tes clés de voiture ou bien l'envie de vivre J'veux plus faire de concert, j'ai une dispense J'suis atteint par le mal de la distance J'veux que faire du vélo avec Milo à la petite France Blessé dans l'action par la vie, par la mort et les séparations La misère affective pour un loup, combien de brebis seront égorgées ? Tu crois que ça mabîme tous ces moments où tu m'vois en bad ? Si tu peux voir l'abîme c'est qu'l'abîme voit aussi en oit Quand la vie me traite de sale con je dois rapper devant une sale comble Putain de contes cruels Parce qu'on est les loups des steppes, que les élus nous détestent Parce qu'on hurle à la lune jusqu'au bout de l'hallali Parce qu'on est les loups des steppes, nous on est les loups des steppes Nous on est ... des steppes Le petit prince ne régna pas Dans tes yeux j'vois des miroirs Rayé par la vie tu traverses un brouillard de mémoire dans la buée de tes larmes Y a toujours des anges pris au piège dans cette cage Quand tu pleures ça les arrange, ils s'évaporent dans les nuages Il y a du chagrin pour être honnête, des affaires et des cartons Ce qui glisse sur ta pommette Ces larmes que tu pleures, tes yeux qui me disent prends-moi le bras J'suis ton garde du cur Tu as les yeux d'ceux qui ont une âme qui vibre juste un peu plus fort que les autres Bonjour m'a dit la nuit, t'es le dernier qui reste Pourquoi ce regard funeste ? Parce qu'on est les loups des steppes, que les élus nous détestent Parce qu'on hurle à la lune jusqu'au bout de l'hallali Parce qu'on est les loups des steppes, nous on est les loups des steppes Nous on est ... des steppes Dooz Kawa, Milo Désolé d'pas avoir bossé l'intro Dédicace à mon petit louveteau Et chef des pompiers, héhé2</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>J'étais quoi ? Haut comme trois pommes Golden Un bad boy en marmelade saupoudré à la cannelle Quand Marianne m'annonça à la sortie d'la maternelle Tout est fini... J'lui ai répondu qu'elle s'rassure Car moi non plus j'raffole pas d'elle en plus tu sais, un buste, moi ça va cinq minutes Les filles, j'les préfère avec un corps et encore Même là souvent y a des problèmes Mais j't'aime encore... Moi j'embrasserai plus tes emblèmes Accroché à la queue d'une comète Les basses traversent la nuit comme une balle de 9 mm Même si l'école me délaisse, même s'il est balaise ce Thalès J'étais toujours plus attiré par les papillons à la fenêtre Sans nous la musique sera pareille Mais est-ce qu'on enlève aux Schtroumpfs la recette de la salsepareille ? J'cherche sans fin la phrase qui accroche Mon meilleur texte j'l'écris demain, un stylo pointé sous la gorge J'étais quoi ? Haut comme trois pommes Granny J'voulais soulever la peau d'l'océan comme Salvador Dalí Sans avoir la soif des grands hommes Les MC s'nourrissent de mots par alimentation fantôme Et d'façon j'aimais pas leurs écoles d'apparaître Et les instit' fonctionnaires que les enfants doivent appeler Maître Leur vocation mutation, vacances, paye J'aimais qu'la p'tite prof' de dessin et ses deux seins en body paint C'est un peu l'enfant autiste qu'on quitte pas d'l'oeil La vie d'artiste, combien de nuits blanches passées pour un single ? Derrière la console de voix comme Kid Paddle Afin que tous les humains, voire même les flics, kiffent tous pareil J'ai les secondes qui tuent le temps Lorsque tu vois c'que j'imagine, frère, est-ce que tu l'entends ? Soleil nocturne Quand on m'disait comme Galilée Ta 'zique est plate, et pourtant elle tourne... You might also like They're all about the money, the Good, the Bad, the Ugly like Eastwood Hop on any random just to eat good Hope you don't see the proof, the truth is that we could See that cash rules everything, the rhythm ain't shallow Tryin' to stand taller than he stood Fightin' just to make it, won't give up 'til their feet would Call 'em a check and now they're everywhere we look I leave her alone just like every MC should Elle était quoi ? Haute comme trois pommes d'amour J'étais en perte d'inspiration quand j'ai vu ses yeux dans la cour J'explique pour les sots du vocabulaire Ça signifie pas qu'j'ai vu au sol rouler ses deux globes oculaires, non... J'm'adresse aux blairs qui diront que j'suis mon thème Mais ces regards sont des cicatrices qui rarement se referment Comme des paupières abaissées Amour tragique pour ABC car personne n'écrit de texte qui soit bien plus fort qu'un baiser Pour ça qu'j'pourrais tous vous biaiser Faire le poète, papier à lettre barré en mode sentimental Avec la force de créer en main Mais j'suis qu'un MC asocial qui n'a jamais cru en rien J'suis qu'un MC asocial qui n'a jamais cru en rien J'suis qu'un MC asocial avec la force de créer en main J'suis qu'un MC asocial Comme tous les autres en fait C'est tout ça, MC</t>
+          <t>J'étais quoi ? Haut comme trois pommes Golden Un bad boy en marmelade saupoudré à la cannelle Quand Marianne m'annonça à la sortie d'la maternelle Tout est fini... J'lui ai répondu qu'elle s'rassure Car moi non plus j'raffole pas d'elle en plus tu sais, un buste, moi ça va cinq minutes Les filles, j'les préfère avec un corps et encore Même là souvent y a des problèmes Mais j't'aime encore... Moi j'embrasserai plus tes emblèmes Accroché à la queue d'une comète Les basses traversent la nuit comme une balle de 9 mm Même si l'école me délaisse, même s'il est balaise ce Thalès J'étais toujours plus attiré par les papillons à la fenêtre Sans nous la musique sera pareille Mais est-ce qu'on enlève aux Schtroumpfs la recette de la salsepareille ? J'cherche sans fin la phrase qui accroche Mon meilleur texte j'l'écris demain, un stylo pointé sous la gorge J'étais quoi ? Haut comme trois pommes Granny J'voulais soulever la peau d'l'océan comme Salvador Dalí Sans avoir la soif des grands hommes Les MC s'nourrissent de mots par alimentation fantôme Et d'façon j'aimais pas leurs écoles d'apparaître Et les instit' fonctionnaires que les enfants doivent appeler Maître Leur vocation mutation, vacances, paye J'aimais qu'la p'tite prof' de dessin et ses deux seins en body paint C'est un peu l'enfant autiste qu'on quitte pas d'l'oeil La vie d'artiste, combien de nuits blanches passées pour un single ? Derrière la console de voix comme Kid Paddle Afin que tous les humains, voire même les flics, kiffent tous pareil J'ai les secondes qui tuent le temps Lorsque tu vois c'que j'imagine, frère, est-ce que tu l'entends ? Soleil nocturne Quand on m'disait comme Galilée Ta 'zique est plate, et pourtant elle tourne... They're all about the money, the Good, the Bad, the Ugly like Eastwood Hop on any random just to eat good Hope you don't see the proof, the truth is that we could See that cash rules everything, the rhythm ain't shallow Tryin' to stand taller than he stood Fightin' just to make it, won't give up 'til their feet would Call 'em a check and now they're everywhere we look I leave her alone just like every MC should Elle était quoi ? Haute comme trois pommes d'amour J'étais en perte d'inspiration quand j'ai vu ses yeux dans la cour J'explique pour les sots du vocabulaire Ça signifie pas qu'j'ai vu au sol rouler ses deux globes oculaires, non... J'm'adresse aux blairs qui diront que j'suis mon thème Mais ces regards sont des cicatrices qui rarement se referment Comme des paupières abaissées Amour tragique pour ABC car personne n'écrit de texte qui soit bien plus fort qu'un baiser Pour ça qu'j'pourrais tous vous biaiser Faire le poète, papier à lettre barré en mode sentimental Avec la force de créer en main Mais j'suis qu'un MC asocial qui n'a jamais cru en rien J'suis qu'un MC asocial qui n'a jamais cru en rien J'suis qu'un MC asocial avec la force de créer en main J'suis qu'un MC asocial Comme tous les autres en fait C'est tout ça, MC</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Yaa Celle là je la dédicace Pour mes petites amoureuses Mes petites amoureuses Un hydrolat lacrymal lave Les cieux vert-chou Sous l'arbre tendronnier qui bave Vos caoutchoucs Blancs de lunes particulières Aux pialats ronds Entrechoquez vos genouillères Mes laiderons ! Tu peux commencer à flipper Entrechoquez vos genouillères Mes laiderons Tu peux commencer à flipper Entrechoquez vos genouillères Mes laiderons Nous nous aimions à cette époque Bleu laideron ! On mangeait des oeufs à la coque Et du mouron ! You might also likeUn soir, tu me sacras poète Blond laideron Descends ici, que je te fouette En mon giron J'ai dégueulé ta bandoline Noir laideron Tu couperais ma mandoline Au fil du front Pouah ! mes salives desséchées Roux laideron Infectent encor les tranchées De ton sein rond ! Ô mes petites amoureuses Que je vous hais ! Plaquez de fouffes douloureuses Vos tétons laids ! Piétinez mes vieilles terrines De sentiments Hop donc ! Soyez-moi ballerines Pour un moment ! Vos omoplates se déboîtent Ô mes amours ! Une étoile à vos reins qui boitent Tournez vos tours ! Et c'est pourtant pour ces éclanches Que j'ai rimé ! Je voudrais vous casser les hanches D'avoir aimé ! Fade amas d'étoiles ratées Comblez les coins ! Vous crèverez en Dieu, bâtées D'ignobles soins ! Sous les lunes particulières Aux pialats ronds Entrechoquez vos genouillères Mes laiderons Tu peux commencer à flipper Tu peux commencer à flipper</t>
+          <t>Yaa Celle là je la dédicace Pour mes petites amoureuses Mes petites amoureuses Un hydrolat lacrymal lave Les cieux vert-chou Sous l'arbre tendronnier qui bave Vos caoutchoucs Blancs de lunes particulières Aux pialats ronds Entrechoquez vos genouillères Mes laiderons ! Tu peux commencer à flipper Entrechoquez vos genouillères Mes laiderons Tu peux commencer à flipper Entrechoquez vos genouillères Mes laiderons Nous nous aimions à cette époque Bleu laideron ! On mangeait des oeufs à la coque Et du mouron ! Un soir, tu me sacras poète Blond laideron Descends ici, que je te fouette En mon giron J'ai dégueulé ta bandoline Noir laideron Tu couperais ma mandoline Au fil du front Pouah ! mes salives desséchées Roux laideron Infectent encor les tranchées De ton sein rond ! Ô mes petites amoureuses Que je vous hais ! Plaquez de fouffes douloureuses Vos tétons laids ! Piétinez mes vieilles terrines De sentiments Hop donc ! Soyez-moi ballerines Pour un moment ! Vos omoplates se déboîtent Ô mes amours ! Une étoile à vos reins qui boitent Tournez vos tours ! Et c'est pourtant pour ces éclanches Que j'ai rimé ! Je voudrais vous casser les hanches D'avoir aimé ! Fade amas d'étoiles ratées Comblez les coins ! Vous crèverez en Dieu, bâtées D'ignobles soins ! Sous les lunes particulières Aux pialats ronds Entrechoquez vos genouillères Mes laiderons Tu peux commencer à flipper Tu peux commencer à flipper</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Yeah J'ai tant de trucs à raconter yeah hey J'ai tant de trucs à raconter yeah J'ai hey tant de trucs à raconter hey yeah Yeah J'implore votre pardon D'être un tigre des montagnes Yo! J'ai pas connu l'amour mais que des filles histrioniques Qui avaient une plastique bionique Comme disait le duc de Nemour à la princesse de Clèves Alors vas-y baby on nique elle se brisait même les rêves Comme des biches d'où elle s'échappait mais se coince Se trouvant jamais assez riche se trouvant jamais assez mince Mes petites duchesses de Windsor Et j'ai eu bien de la tristesse en regrettant le joli corps de chacune depuis en rêvassant à l'autre ou l'une Moi j'attends qu'les nuits s'allument les yeux rivés sur les étoiles En espérant y voir sa lune La bataille a sonné sur des chevaux caparaçonnés On est venus tuer des amours qui sont toutes nues sous les armures pas sonné tu vois mon cur n'a pas sombré Malgré maintenant j'attaque et j'incendie Politique de la terre brulée j'ai tout détruit J'te laisse jouer le prochain coup Et j'te souhaite bien de la pluie sur les joues You might also like Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Tellement de déceptions de souvenirs à la machette De monuments de statues qui tournent la tête Et qui nous disent que les bagages s'alourdissent Ces moments où les mots nous mentent Pour peindre joliment notre âme Je crois c'est pour ça que j'en invente Mais je me sens perdu parfois d'être précurseur à chaque fois À force de pas suivre le chemin on doit le fabriquer à chaque pas Et pour tous ceux qui séchappent pas Je suis l'évasion d'une évasion Héritier du hip-hop dont je suis l'usufruit de la passion J'sais pas si on peut lire sur ses lèvres Que j'suis beau riche et célèbre mon trésor mais Désormais Moi j'fais parti des grands noms Qui auront tagué le mur du son pour toujours Depuis que je suis né un jour d'hiver, j'ai grandi un jour de pluie Dans la rubrique des faits divers tu verra ma biographie Après le beau temps vient la pluie j'espère Il aura pas suffit d'aimer il fallait savoir quoi en faire Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc en ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Je suis toujours en fuite pour des délits de la mineur Des arcs-en-ciel de nuit traversent la pluie laminaire Sortis des douches des lampadaires Pudiquement les ténèbres mettent une robe de chambre de lumière Ici si il pleut tous les jours ça signifie que les Sibyllines sont sous la douche La pluie sur la peau douce doucement fait glisser la mousse de camouflage Avant pour les comprendre on peinait grave maintenant les Sibyllines deviennent plus claires et pénétrables J'observe leurs Dooz Kawa on t'aime Si ma musique les touche je préfère voir ça entre elles Qui font voyager sans ailes S'épile le delta d'une île et pense Ticket de métro en île de France Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie J'ai yeah tant de choses à raconter yeah J'ai tant de choses à raconter J'implore votre pardon Tant de choses à raconter yeah D'être un tigre des montagnes</t>
+          <t>Yeah J'ai tant de trucs à raconter yeah hey J'ai tant de trucs à raconter yeah J'ai hey tant de trucs à raconter hey yeah Yeah J'implore votre pardon D'être un tigre des montagnes Yo! J'ai pas connu l'amour mais que des filles histrioniques Qui avaient une plastique bionique Comme disait le duc de Nemour à la princesse de Clèves Alors vas-y baby on nique elle se brisait même les rêves Comme des biches d'où elle s'échappait mais se coince Se trouvant jamais assez riche se trouvant jamais assez mince Mes petites duchesses de Windsor Et j'ai eu bien de la tristesse en regrettant le joli corps de chacune depuis en rêvassant à l'autre ou l'une Moi j'attends qu'les nuits s'allument les yeux rivés sur les étoiles En espérant y voir sa lune La bataille a sonné sur des chevaux caparaçonnés On est venus tuer des amours qui sont toutes nues sous les armures pas sonné tu vois mon cur n'a pas sombré Malgré maintenant j'attaque et j'incendie Politique de la terre brulée j'ai tout détruit J'te laisse jouer le prochain coup Et j'te souhaite bien de la pluie sur les joues Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Tellement de déceptions de souvenirs à la machette De monuments de statues qui tournent la tête Et qui nous disent que les bagages s'alourdissent Ces moments où les mots nous mentent Pour peindre joliment notre âme Je crois c'est pour ça que j'en invente Mais je me sens perdu parfois d'être précurseur à chaque fois À force de pas suivre le chemin on doit le fabriquer à chaque pas Et pour tous ceux qui séchappent pas Je suis l'évasion d'une évasion Héritier du hip-hop dont je suis l'usufruit de la passion J'sais pas si on peut lire sur ses lèvres Que j'suis beau riche et célèbre mon trésor mais Désormais Moi j'fais parti des grands noms Qui auront tagué le mur du son pour toujours Depuis que je suis né un jour d'hiver, j'ai grandi un jour de pluie Dans la rubrique des faits divers tu verra ma biographie Après le beau temps vient la pluie j'espère Il aura pas suffit d'aimer il fallait savoir quoi en faire Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc en ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Je suis toujours en fuite pour des délits de la mineur Des arcs-en-ciel de nuit traversent la pluie laminaire Sortis des douches des lampadaires Pudiquement les ténèbres mettent une robe de chambre de lumière Ici si il pleut tous les jours ça signifie que les Sibyllines sont sous la douche La pluie sur la peau douce doucement fait glisser la mousse de camouflage Avant pour les comprendre on peinait grave maintenant les Sibyllines deviennent plus claires et pénétrables J'observe leurs Dooz Kawa on t'aime Si ma musique les touche je préfère voir ça entre elles Qui font voyager sans ailes S'épile le delta d'une île et pense Ticket de métro en île de France Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie J'ai yeah tant de choses à raconter yeah J'ai tant de choses à raconter J'implore votre pardon Tant de choses à raconter yeah D'être un tigre des montagnes</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>On me dit ch'ui passé juste un jour Juste j'passais là, j'faisais un tour Dooz KO, en radio, Dooz KO Si je passe en radio Si je passe en radio c'est que je suis fade et pas beau C'est que la gow qui s'occupe de ma pub fait la pute sous le bureau Du dirlo de la prod puis qui daigne m'écouter Fait glisser sa culotte ou met son string sur le côté Si je passe en radio c'est parce que j'ai rien à dire Car pour parler aux idiots il faut l'être aussi, jte le fait pas dire Moi j'connais bien la rue, sa musique omerta Quand ton rap il détale, on démolit les tass Si t'as pas lu les tags, jte passe les détails Je vois depuis la montagne brouter l'bétail Rebelle et moi sur le mic, moi ch'ui venu pour voler la vibe Des musiques commerciales car Quand le son vient des caves on le pousse à l'écart Au fond de l'hectare comme un épouvantail La radio nous limite trop dans les mots qui partent d'habitudes et des mots qui partent si t'as peur de mes dérapages Quand j'ai le micro dans les métacarpes Soit gentil gros, j'conseille que tu t'écartes Tu t'écartes, putain allez ! tu t'écartes REFRAIN You might also likeReste là-bas jolie, ya plus de rap, les mêmes plans démoniaques Ont détruits l'Amazonie. Dans ma cave l'ammoniac À détruit nos cellules grises J'pisse sur les si des roux simule gise Le social nous rabaisse et on glisse aux abysses Et se baise pour du biz Car ici les MC sont devenus capitalistes Capitule et suce, représente pour les banques Suisse Eh les gars vous êtes vraiment des ânes C'est comme si moi dans le rap je me surnommai Farhagan Mais c'est bien vous êtes des gangsters, c'est ce qui compte, faut pas vous étonner après coup de passer pour des cons Parce que vous portez aux nues les instituts qui vous oppriment Les bagnoles, les flingues, la came et le bling-bling REFRAIN</t>
+          <t>On me dit ch'ui passé juste un jour Juste j'passais là, j'faisais un tour Dooz KO, en radio, Dooz KO Si je passe en radio Si je passe en radio c'est que je suis fade et pas beau C'est que la gow qui s'occupe de ma pub fait la pute sous le bureau Du dirlo de la prod puis qui daigne m'écouter Fait glisser sa culotte ou met son string sur le côté Si je passe en radio c'est parce que j'ai rien à dire Car pour parler aux idiots il faut l'être aussi, jte le fait pas dire Moi j'connais bien la rue, sa musique omerta Quand ton rap il détale, on démolit les tass Si t'as pas lu les tags, jte passe les détails Je vois depuis la montagne brouter l'bétail Rebelle et moi sur le mic, moi ch'ui venu pour voler la vibe Des musiques commerciales car Quand le son vient des caves on le pousse à l'écart Au fond de l'hectare comme un épouvantail La radio nous limite trop dans les mots qui partent d'habitudes et des mots qui partent si t'as peur de mes dérapages Quand j'ai le micro dans les métacarpes Soit gentil gros, j'conseille que tu t'écartes Tu t'écartes, putain allez ! tu t'écartes REFRAIN Reste là-bas jolie, ya plus de rap, les mêmes plans démoniaques Ont détruits l'Amazonie. Dans ma cave l'ammoniac À détruit nos cellules grises J'pisse sur les si des roux simule gise Le social nous rabaisse et on glisse aux abysses Et se baise pour du biz Car ici les MC sont devenus capitalistes Capitule et suce, représente pour les banques Suisse Eh les gars vous êtes vraiment des ânes C'est comme si moi dans le rap je me surnommai Farhagan Mais c'est bien vous êtes des gangsters, c'est ce qui compte, faut pas vous étonner après coup de passer pour des cons Parce que vous portez aux nues les instituts qui vous oppriment Les bagnoles, les flingues, la came et le bling-bling REFRAIN</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Yeah, DOOZ KO, Freestyle, l'incruste , Studio Et je fais un petit freestyle les potos J'ai dans le cur une tarentule que l'eau salée a du noyer Les naufragés se parlent en bulles, tombés du radeau en noyer Dans la mélancolie, bercés sans perdre le bord un instant Où les Danaïdes vont verser tout autour de toi l'océan Le vent violent nous crie dessus et l'océan nous broie la peau Quand on croit voir le poil hirsut d'un drapeau au mât d'un bateau Les naufragés sont sans rivags, à moins de le voir en mirage Et l'injustice de ce monde a créé un monstre sans visage Je crois que chaque pute a son prix et que leur éthique est louable Je me quitte de moi incompris comme un solitaire incroyable Tu vois que l'espoir est mort né, mais on est borné, et morné, il reste à regarder nos vies de manifestants éborgnés Les naufragés sont trop chargés chacun d'un collier de remords Se laissent enfoncer sans nager, espérant en faire un heureux mort Mais les piégés sont en chemin Et déjà à peine elle partait que j'étais déjà orphelin Radeau de la Méduse en papier L'âme de ma princesse sanglote, une armée militaire sans bottes Flotte comme portée par le courant, recherche fusée de détresse Ce qui ressemble aux survivants, je sais pas si elle est trop zen ou si elle m'attriste Cette satire ça fait comme la première Gnossienne sur le piano d'Erik Satie Je sens qu'on m'attrape sous les aisselles et qu'on me tire hors de la flaque Si les secouristes me réveillent, il serait peut-être temps que je me rattrape You might also like Des récits fantastiques décrivent dans la mer de l'Oural des hélicoptères Des navires qui se transforment en corail , des barils toxiques à la dérive où vivent nos relations sociales Flottent les chantages affectifs des sirènes dans une chorale, guident les vaisseaux vers les récifs Ceux qui sont saufs, s'en servent d'otages, je reçois comme une lessive Cérémonique sacerdotale Des scaphandres sans gens qui gênent, on combat le froid, boit de l'antigel Les nuages, la drogue indigène s'infiltre dans le conduit d'oxygène Peut-être la marée basse arrive, la ci-git d'objets célestes que l'on écrive pas ici En plus des eaux mortes et les restes, d'un pseudo poète amoral Il flotte, sa casquette d'amiral Son mémorial sera l'azur qu'on le marque dans l'armorial C'était DOOZ KAWA d'la Moria T'es encore là ? Je regarde en l'air et je vois la lumière qui me dit tu es sûr que c'est bien fini ? Sous mes pieds, l'obscurité senfoncer vers l'infini C'est juste un rêve Tu respires plus, mais t'es pas encore un cas grave, où des sirènes à moitié nues viendraient emporter ton cadavre Tu ne vois pas leurs seins ni leurs fesses qui sont de plus cachées d'écailles Alors reviens à la surface et je me mets à cracher des cailloux d'sang J'entends les balles au son du rotor de l'aérospatiale qui gronde Je suis écrasé au plancher pendant que l'hélicoptère monte Et cependant que je vous raconte ce qui est un conte ou bien une fable, je me dis que mon imagination coûterait bien cher aux contribuables Je relève la tête à 4h du mat', comme un réveil par un impact existentiel, conscience du silence qui règne et tout à coup je me sens bien seul dans mon appart Bordel, si j'avais un hélicoptère j'irai vite aller voir ce que j'aime Bref, allez, je replonge dans mon rêve J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. C'est faux J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. Arrête un peu Maintenant que j'le sais, j'en ferai quoi ? J'en ferai quoi ? On fait pas toujours ce qu'il faut, être un exemple que j'ai pas Mais en tout cas on fait c'qu'on peut J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. C'est faux J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. Arrête un peu Maintenant que j'le sais, j'en ferai quoi ? J'en ferai quoi ? On fait pas toujours ce qu'il faut, être un exemple que j'ai pas Mais en tout cas on fait c'qu'on peut</t>
+          <t>Yeah, DOOZ KO, Freestyle, l'incruste , Studio Et je fais un petit freestyle les potos J'ai dans le cur une tarentule que l'eau salée a du noyer Les naufragés se parlent en bulles, tombés du radeau en noyer Dans la mélancolie, bercés sans perdre le bord un instant Où les Danaïdes vont verser tout autour de toi l'océan Le vent violent nous crie dessus et l'océan nous broie la peau Quand on croit voir le poil hirsut d'un drapeau au mât d'un bateau Les naufragés sont sans rivags, à moins de le voir en mirage Et l'injustice de ce monde a créé un monstre sans visage Je crois que chaque pute a son prix et que leur éthique est louable Je me quitte de moi incompris comme un solitaire incroyable Tu vois que l'espoir est mort né, mais on est borné, et morné, il reste à regarder nos vies de manifestants éborgnés Les naufragés sont trop chargés chacun d'un collier de remords Se laissent enfoncer sans nager, espérant en faire un heureux mort Mais les piégés sont en chemin Et déjà à peine elle partait que j'étais déjà orphelin Radeau de la Méduse en papier L'âme de ma princesse sanglote, une armée militaire sans bottes Flotte comme portée par le courant, recherche fusée de détresse Ce qui ressemble aux survivants, je sais pas si elle est trop zen ou si elle m'attriste Cette satire ça fait comme la première Gnossienne sur le piano d'Erik Satie Je sens qu'on m'attrape sous les aisselles et qu'on me tire hors de la flaque Si les secouristes me réveillent, il serait peut-être temps que je me rattrape Des récits fantastiques décrivent dans la mer de l'Oural des hélicoptères Des navires qui se transforment en corail , des barils toxiques à la dérive où vivent nos relations sociales Flottent les chantages affectifs des sirènes dans une chorale, guident les vaisseaux vers les récifs Ceux qui sont saufs, s'en servent d'otages, je reçois comme une lessive Cérémonique sacerdotale Des scaphandres sans gens qui gênent, on combat le froid, boit de l'antigel Les nuages, la drogue indigène s'infiltre dans le conduit d'oxygène Peut-être la marée basse arrive, la ci-git d'objets célestes que l'on écrive pas ici En plus des eaux mortes et les restes, d'un pseudo poète amoral Il flotte, sa casquette d'amiral Son mémorial sera l'azur qu'on le marque dans l'armorial C'était DOOZ KAWA d'la Moria T'es encore là ? Je regarde en l'air et je vois la lumière qui me dit tu es sûr que c'est bien fini ? Sous mes pieds, l'obscurité senfoncer vers l'infini C'est juste un rêve Tu respires plus, mais t'es pas encore un cas grave, où des sirènes à moitié nues viendraient emporter ton cadavre Tu ne vois pas leurs seins ni leurs fesses qui sont de plus cachées d'écailles Alors reviens à la surface et je me mets à cracher des cailloux d'sang J'entends les balles au son du rotor de l'aérospatiale qui gronde Je suis écrasé au plancher pendant que l'hélicoptère monte Et cependant que je vous raconte ce qui est un conte ou bien une fable, je me dis que mon imagination coûterait bien cher aux contribuables Je relève la tête à 4h du mat', comme un réveil par un impact existentiel, conscience du silence qui règne et tout à coup je me sens bien seul dans mon appart Bordel, si j'avais un hélicoptère j'irai vite aller voir ce que j'aime Bref, allez, je replonge dans mon rêve J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. C'est faux J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. Arrête un peu Maintenant que j'le sais, j'en ferai quoi ? J'en ferai quoi ? On fait pas toujours ce qu'il faut, être un exemple que j'ai pas Mais en tout cas on fait c'qu'on peut J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. C'est faux J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. Arrête un peu Maintenant que j'le sais, j'en ferai quoi ? J'en ferai quoi ? On fait pas toujours ce qu'il faut, être un exemple que j'ai pas Mais en tout cas on fait c'qu'on peut</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ben ouais Dooz Kawa dans la place Monte le son dans le casque Un petit freestyle, j'suis capturé par Oster Lapwass Cassded l'Animalerie, T kaï cee, 3rd Lab Check bourg-stra Sur le mic j'élimine les minables J'ai laminé les domaines de mines J'ai les mails de mes ennemis émis Nous nous munissons de munitions Et misons sur l'issue fatale madame messieurs ? j'vous salue sur cette émission émise L'mc est sur une mission Car mes rimes sont des lignes sombres faites de buissons Délimité comme un Harki car attaqué au taquet comme Anakin j'kick des temps des trônes? des trucs Détraqués sont mes neurones Je quitte, des lignes d'ennemis éliminés Laisse des milliers d'humiliés J'signe un hymne inimité a l'unanimité T'attire l'animosité j'rap l'animalité Sur la page à l'arrache casse la cage à la hache passe Kawa qu'a la rage et que les lâches sages aux kalach's sachent Je m'en sortirai juste En face j't'embrasse Le temps passe Et j'ai toujours pas d'amour pour ceux d'en face J'ai beau m'choufer dans une glace Faire partie du groupe de conciliation Et j'regarde passer vos phases de Bastille a Nation Mais non j'ai toujours pas d'amour pour ceux d'en face You might also like Ain't got no love for the other rhymes x4 Got no love for the other side x8 Sur lacoustique ta copine me dit costaud T'es caustique comme l'acide Oxyde au bic occis tous les mc's de boite Je rap que des lyrics atypiques qui piquent et les coccyx s'déboitent J'débite j'débarque et mes démos sont des battes Agite tellement les nuques qu'on les décapite, capiche ? C'est toxique et puis nique au mic l'mc comique qui débute Ma solitude est ma seule étude j'saccage le stud Le mic à part..? Blow MC t'as plus de refuge Sauf un baggy jean hydrofuge Dooz Kawa dans le stud' Élémentaire mon cher Oster J'vais faire un tuto pour les nuls Ou plutôt un truc genre fascicule Y'a le feu dans le studio, j'continul ? Alors mon pote, tu croyais que t'étais un gros poisson dans une mare J'me marre car t'es qu'un poisson clown déguisé en requin Nous on est tout l'panier d'crabe et ses piranhas Toi t'es la pire arnaque largué ta p'tite nana C'est pour ça mon rap sent la moule, le tien pue de la raie T'arrête de t'doigter toi t'es Juste un poisson de ligne Et si on était en Inde tu serais un plat sans riz Dooz Caviar est dans la flaque, tout baigne, on harponne, en symphonie Oster la poissonerie1</t>
+          <t>Ben ouais Dooz Kawa dans la place Monte le son dans le casque Un petit freestyle, j'suis capturé par Oster Lapwass Cassded l'Animalerie, T kaï cee, 3rd Lab Check bourg-stra Sur le mic j'élimine les minables J'ai laminé les domaines de mines J'ai les mails de mes ennemis émis Nous nous munissons de munitions Et misons sur l'issue fatale madame messieurs ? j'vous salue sur cette émission émise L'mc est sur une mission Car mes rimes sont des lignes sombres faites de buissons Délimité comme un Harki car attaqué au taquet comme Anakin j'kick des temps des trônes? des trucs Détraqués sont mes neurones Je quitte, des lignes d'ennemis éliminés Laisse des milliers d'humiliés J'signe un hymne inimité a l'unanimité T'attire l'animosité j'rap l'animalité Sur la page à l'arrache casse la cage à la hache passe Kawa qu'a la rage et que les lâches sages aux kalach's sachent Je m'en sortirai juste En face j't'embrasse Le temps passe Et j'ai toujours pas d'amour pour ceux d'en face J'ai beau m'choufer dans une glace Faire partie du groupe de conciliation Et j'regarde passer vos phases de Bastille a Nation Mais non j'ai toujours pas d'amour pour ceux d'en face Ain't got no love for the other rhymes x4 Got no love for the other side x8 Sur lacoustique ta copine me dit costaud T'es caustique comme l'acide Oxyde au bic occis tous les mc's de boite Je rap que des lyrics atypiques qui piquent et les coccyx s'déboitent J'débite j'débarque et mes démos sont des battes Agite tellement les nuques qu'on les décapite, capiche ? C'est toxique et puis nique au mic l'mc comique qui débute Ma solitude est ma seule étude j'saccage le stud Le mic à part..? Blow MC t'as plus de refuge Sauf un baggy jean hydrofuge Dooz Kawa dans le stud' Élémentaire mon cher Oster J'vais faire un tuto pour les nuls Ou plutôt un truc genre fascicule Y'a le feu dans le studio, j'continul ? Alors mon pote, tu croyais que t'étais un gros poisson dans une mare J'me marre car t'es qu'un poisson clown déguisé en requin Nous on est tout l'panier d'crabe et ses piranhas Toi t'es la pire arnaque largué ta p'tite nana C'est pour ça mon rap sent la moule, le tien pue de la raie T'arrête de t'doigter toi t'es Juste un poisson de ligne Et si on était en Inde tu serais un plat sans riz Dooz Caviar est dans la flaque, tout baigne, on harponne, en symphonie Oster la poissonerie1</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Chacun leur tour, disent Je t'aime pour toujours enlacés au fond des draps Pourquoi parfois l'amour n'a qu'un goût de gueule de bois ? Ou bien d'un secret lourd enterré au fond des bois ? Morfondez-moi !, c'est ce que parfois pleure la 'zique que l'on joue Quand il n'y a plus de soleil même dans les yeux de l'Andalous Je t'offrirai les fleurs du ciel, celles qui rendent les anges jaloux Si seulement t'étais réelle... Mais en ces fables nous on s'étale, on s'est fait mal peut-être dans la chute J'aimerais repérer l'amour, l'expulser du mésencéphale, mais chut Quoi ? J'vois pas d'amoureuse endormie Et pour moi aucun avion n'arrive à 4h à Orly Le jazz est la solution Vient me souffler Parker Charlie Son amoureuse part au Pérou et lui accroche un bisou aux lèvres Mais y aura toujours un caillou caché dans une boule de neige Est-ce que c'est pire que l'amour en rêve ces souvenirs qui nous hantent ? Est-il possible que quelqu'un qui n'existe pas nous manque ? J'observe les flammes des voitures danser au plafond de ma chambre Comme une scène hallucinante de cinéma En caleçon sur mon lit, la solitude s'assied sur moi Le bien, le mal dérivent, même en prison me délivrent Et plus rien n'a d'importance, un démon s'endort sur la Bible Un coeur vide c'est monotone Malgré que passent les saisons parfois c'est toujours l'automne Dans les maisons L'amour secret je l'ai vu chouïa comme un chewing-gum dénaturé que le temps se mâchouilla Pourtant j'y crois, pratiquant plus que pour l'Seigneur Je rentre dans l'arène comme Maximus, avec force et honneur Mais parfois le soir j'ai peur Quand plus aucune mélodie n'atteint le fond de mon coeur tari Le jazz est la solution Vient me souffler Parker Charlie You might also like Parker Charlie ne perd jamais... son souffle Pour ça, dis-toi, je ferais bien de l'écouter si j'veux rester dans la course Si t'as la tristesse à tes trousses et la tête sur un contrat Sous clause de close combat Le seul à qui dans la trousse on interdisait le compas Quand personne ne te tient la main de la Saint-Valentin à décembre Regardez les humains, vous ne trouvez point que je leur ressemble ? Au moins un peu Je tâcherai d'avoir des idéaux et de parler un petit peu mieux Prendre à crédit une Peugeot et puis d'être content pour rien Il faut soigner les apparences pour être un bon contemporain Quel temps pourri J'aimerais qu'ils entendent tous ta voix pour comprendre mon ennui quand t'es pas là Ma mélodie, mon éternel, mon coeur Ma symphonie Ma féminine Parker Charlie</t>
+          <t>Chacun leur tour, disent Je t'aime pour toujours enlacés au fond des draps Pourquoi parfois l'amour n'a qu'un goût de gueule de bois ? Ou bien d'un secret lourd enterré au fond des bois ? Morfondez-moi !, c'est ce que parfois pleure la 'zique que l'on joue Quand il n'y a plus de soleil même dans les yeux de l'Andalous Je t'offrirai les fleurs du ciel, celles qui rendent les anges jaloux Si seulement t'étais réelle... Mais en ces fables nous on s'étale, on s'est fait mal peut-être dans la chute J'aimerais repérer l'amour, l'expulser du mésencéphale, mais chut Quoi ? J'vois pas d'amoureuse endormie Et pour moi aucun avion n'arrive à 4h à Orly Le jazz est la solution Vient me souffler Parker Charlie Son amoureuse part au Pérou et lui accroche un bisou aux lèvres Mais y aura toujours un caillou caché dans une boule de neige Est-ce que c'est pire que l'amour en rêve ces souvenirs qui nous hantent ? Est-il possible que quelqu'un qui n'existe pas nous manque ? J'observe les flammes des voitures danser au plafond de ma chambre Comme une scène hallucinante de cinéma En caleçon sur mon lit, la solitude s'assied sur moi Le bien, le mal dérivent, même en prison me délivrent Et plus rien n'a d'importance, un démon s'endort sur la Bible Un coeur vide c'est monotone Malgré que passent les saisons parfois c'est toujours l'automne Dans les maisons L'amour secret je l'ai vu chouïa comme un chewing-gum dénaturé que le temps se mâchouilla Pourtant j'y crois, pratiquant plus que pour l'Seigneur Je rentre dans l'arène comme Maximus, avec force et honneur Mais parfois le soir j'ai peur Quand plus aucune mélodie n'atteint le fond de mon coeur tari Le jazz est la solution Vient me souffler Parker Charlie Parker Charlie ne perd jamais... son souffle Pour ça, dis-toi, je ferais bien de l'écouter si j'veux rester dans la course Si t'as la tristesse à tes trousses et la tête sur un contrat Sous clause de close combat Le seul à qui dans la trousse on interdisait le compas Quand personne ne te tient la main de la Saint-Valentin à décembre Regardez les humains, vous ne trouvez point que je leur ressemble ? Au moins un peu Je tâcherai d'avoir des idéaux et de parler un petit peu mieux Prendre à crédit une Peugeot et puis d'être content pour rien Il faut soigner les apparences pour être un bon contemporain Quel temps pourri J'aimerais qu'ils entendent tous ta voix pour comprendre mon ennui quand t'es pas là Ma mélodie, mon éternel, mon coeur Ma symphonie Ma féminine Parker Charlie</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Quand t'es pas là mon âme est triste et quand t'es là je la maîtrise Jamais de drogue ou bien d'alcool ni de produits qui la meurtrissent J'suis les Air Max qui t'amortissent si tu chutes, au coin de l'immeuble Pendant ta sieste je vais dire chut, aux lascars qui beuglent Et quand t'as appris à marcher j'collais d'la mousse aux coins des meubles Faudrait pas que le mec de ta mère te touche car ça éviterait bien des meurtres On a tous fait des erreurs et des belles choses depuis l'enfance Ils mettront le poids qui les arrange du coté qu'ils veulent que la balance penche Quand ils te parleront de moi, je t'ai pas vu depuis décembre J'crois que ça fait tout rond deux mois Je sais qu'parfois papa te manque et j'voudrais pas qu'maman te mente Quand sur mon absence tu demandes pourquoi j'reviens plus jamais T'es comme ta mère t'as les yeux bleus couleurs bonbon Vicks délavé Mes plus grands vux étaient si pieux juste t'apprendre à faire tes lacets J'me demande si tu fais du cirque ou de la natation, si taimes autant la course à pied Est-ce que tu veux toujours devenir astronaute ou chef des pompiers ? Perdre parfois cest chouette, quand on a sa conscience pour soi Et des victoires qui sont amères, demande ta mère comment elle vit largent quelle perçoit Quand jétais un bébé fleur j'crois quon ma coupé mes lacets Mais même pieds nus, ton papa rappeur traverse la France pour tembrasser Je pourrai traverser ton enfance avec les yeux chargés de nuits Et jusquà ce que ta fièvre descende je resterai au bord de ton lit Les gens tont dit qu'ton papa est un gros con Que si tu le vois pas que cest pas à cause dun glaucome Mais les bâtards que nous évoquons ne vivent que des rêves clos, Je fais de notre appart un cocon, doù va éclore plein de battements de papillons De schmetterling et butterfly, je serai toujours fier de qui tu es Que tu sois dans un char AMX, ou sur un char de la gay pride You might also like Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferai tout pour pouvoir tabriter Tes mon petit miroir tu n'seras pas le reflet de mes erreurs Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferai tout pour pouvoir tabriter Tes mon petit miroir tu n'seras pas le reflet de mes erreurs Fini lépoque où j'cogite ivre en blablatant des promesses trop fictives Ma vie a basculé face à un test de grossesse positif J'pensais quaucun événement réanimerai ma joie d'base Cest fou, ce qui me pousse à être à la hauteur est arrivé par voie basse Neuf mois dattente, j'peux tassurer que les soirs sont très longs Pendant ce temps-là, ta mère et moi, on s'tâte pour le choix d'ton prénom Prépare les cartons, on déménage de ce taudis tout moche On se met plus de pression quil y en a sur un body pour gosse Javance vers linconnu j'me dis cest beau la vie Ta mère se marre, jai confondu ta tête avec ton cul lors de léchographie Jtattends comme le messie, la route sera longue mais pas sans dur labeur Jespère quon sera soudé, du berceau au déambulateur Décembre 2015 avec ma tête ridée Jai vu ta mère crier après des heures dattentes à la maternité Jserai là pour que tu restes droit dans tes pompes si le malheur t'déchausse Fiston, jai rien dautre à toffrir que la valeur des choses Petit miroir, plus j'te regarde et plus je vois mon reflet Javais peur de ce rôle de père mais désormais j'te vois Je me croyais mort mais je vois en toi cette impression que j'renais Jtéviterai toutes mes erreurs pour que tu sois fier de moi Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferais tout pour pouvoir tabriter Tes mon petit miroir tu seras pas le reflet de mes erreurs Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferais tout pour pouvoir tabriter Tes mon petit miroir tu seras pas le reflet de mes erreurs1</t>
+          <t>Quand t'es pas là mon âme est triste et quand t'es là je la maîtrise Jamais de drogue ou bien d'alcool ni de produits qui la meurtrissent J'suis les Air Max qui t'amortissent si tu chutes, au coin de l'immeuble Pendant ta sieste je vais dire chut, aux lascars qui beuglent Et quand t'as appris à marcher j'collais d'la mousse aux coins des meubles Faudrait pas que le mec de ta mère te touche car ça éviterait bien des meurtres On a tous fait des erreurs et des belles choses depuis l'enfance Ils mettront le poids qui les arrange du coté qu'ils veulent que la balance penche Quand ils te parleront de moi, je t'ai pas vu depuis décembre J'crois que ça fait tout rond deux mois Je sais qu'parfois papa te manque et j'voudrais pas qu'maman te mente Quand sur mon absence tu demandes pourquoi j'reviens plus jamais T'es comme ta mère t'as les yeux bleus couleurs bonbon Vicks délavé Mes plus grands vux étaient si pieux juste t'apprendre à faire tes lacets J'me demande si tu fais du cirque ou de la natation, si taimes autant la course à pied Est-ce que tu veux toujours devenir astronaute ou chef des pompiers ? Perdre parfois cest chouette, quand on a sa conscience pour soi Et des victoires qui sont amères, demande ta mère comment elle vit largent quelle perçoit Quand jétais un bébé fleur j'crois quon ma coupé mes lacets Mais même pieds nus, ton papa rappeur traverse la France pour tembrasser Je pourrai traverser ton enfance avec les yeux chargés de nuits Et jusquà ce que ta fièvre descende je resterai au bord de ton lit Les gens tont dit qu'ton papa est un gros con Que si tu le vois pas que cest pas à cause dun glaucome Mais les bâtards que nous évoquons ne vivent que des rêves clos, Je fais de notre appart un cocon, doù va éclore plein de battements de papillons De schmetterling et butterfly, je serai toujours fier de qui tu es Que tu sois dans un char AMX, ou sur un char de la gay pride Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferai tout pour pouvoir tabriter Tes mon petit miroir tu n'seras pas le reflet de mes erreurs Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferai tout pour pouvoir tabriter Tes mon petit miroir tu n'seras pas le reflet de mes erreurs Fini lépoque où j'cogite ivre en blablatant des promesses trop fictives Ma vie a basculé face à un test de grossesse positif J'pensais quaucun événement réanimerai ma joie d'base Cest fou, ce qui me pousse à être à la hauteur est arrivé par voie basse Neuf mois dattente, j'peux tassurer que les soirs sont très longs Pendant ce temps-là, ta mère et moi, on s'tâte pour le choix d'ton prénom Prépare les cartons, on déménage de ce taudis tout moche On se met plus de pression quil y en a sur un body pour gosse Javance vers linconnu j'me dis cest beau la vie Ta mère se marre, jai confondu ta tête avec ton cul lors de léchographie Jtattends comme le messie, la route sera longue mais pas sans dur labeur Jespère quon sera soudé, du berceau au déambulateur Décembre 2015 avec ma tête ridée Jai vu ta mère crier après des heures dattentes à la maternité Jserai là pour que tu restes droit dans tes pompes si le malheur t'déchausse Fiston, jai rien dautre à toffrir que la valeur des choses Petit miroir, plus j'te regarde et plus je vois mon reflet Javais peur de ce rôle de père mais désormais j'te vois Je me croyais mort mais je vois en toi cette impression que j'renais Jtéviterai toutes mes erreurs pour que tu sois fier de moi Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferais tout pour pouvoir tabriter Tes mon petit miroir tu seras pas le reflet de mes erreurs Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferais tout pour pouvoir tabriter Tes mon petit miroir tu seras pas le reflet de mes erreurs1</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>K.O Sur le MIC Pièges à loups c'est pour la meute Yeah Ne crois pas que c'est qu'un jeu car j'ai un peu des potes au ciel Un potentiel trop dangereux pour qu'on me laisse trop faire Ne crois pas que c'est pour rire quand je sors juste d'un mois pourri C'est écrit dans le Léviathan l'homme est un moi pour lui Tu sais que je suis un loup des steppes et des Appalaches Les coyotes girls en jean pas larges voudraient que leur lèchent la ch... Je tourne autour des lupanars ma présence les turlupine Quand ils observent les traces de mon empreinte lupine Les fables des femmes fontaines je boirais plus de leur oboles C'est de la que vient l'histoire du loup et de la gnole Des bergers et des chiens il faudra bien que je me venge Pour ça quand un agneau vient je l'emporte et le mange Le chasseur qui m'aura pas ouais. J'aurais aimé faire l'amour à toi Mais ma chérie t'es plus droguée qu'un lapin de laboratoire Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute You might also like J'ai jeté les armes d'assauts et ne suis presque plus voleur Je suis concentré sur les oiseaux qui pourraient chanter dans mon cur Je m'interroge sur ces panneaux qui disent que la chasse est ouverte En regardant mon louveteau. Mais quel avenir on lui réserve ? Il parait qu'on est des nuisible mais je regarde leurs usines Quand à force de confort ils ont construit leur suicide Les moutons ont tellement peur des vieilles histoires de loup Qu'ils sont castrés par des bergers sans jamais réfléchir du tout Là où mon image émerge ils craignent un risque imaginaire Et par une soumission réelle ils sont prisonniers volontaires Parfois la peine m'émeut mais c'est pas la peine de les mordre Parce qu'il se punissent tout seuls, l'espèce humaine est presque morte Les membres d'une même meute il arrive parfois qu'ils se mordent mais malgré les conflits jamais ils ne entre-dévorent Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Je porte mon louveteau dans la gueule et le dépose tout endormi Même si ça me brise le cur je sais mon petit à l'abri Je repars vers le bruit pour les éloigner du louveteau Un papa parfois est absent car il doit faire tout ce qu'il faut Même si ta truffe me fait défaut je lutterai jusqu'à l'échafaud J'ai du sang plein la gueule si je m'en sors ce soir c'est chaud Je me demanderai si j'ai bien fait aux premiers rayons de l'aube Car parfois j'évite un danger en me projetant dans l'autre Parfois je me sens aussi pourrir du manque que la famille m'a fait vivre Un loup peut aussi mourir de famine affective Je suis devenu éco-anxieux parce que des grand orages s'abattent On croit la nuit du black Sabbat ici les gangs de rage se battent Ceux qui uvrent dans l'obscurité atteignent aussi leur objectif Il faut savoir rester secret si la triche peut te rendre riche La pauvreté est une nymphomane que tout le monde peut posséder La richesse est une fille prude mais elle exige un procédé C'est toujours ceux qui ont triché pour avoir les bonnes cartes en mains Qui nous demandent de les respecter Ces règles du jeu quand ils sont bien. Bah ouais J'attendrais pas couz les prières, des piquouse et les cuillères Ou quon me secourt sur une civière Alors ne crois pas que ma musique soit neutre Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Alors ne crois pas que ma musique soit neutre Tout ceux qui usent mon énergie Que ma musique soit neutre Les médiocres et les jaloux Ni qu'on est peaceful dans la meute Les pièges à loups Yeah ! On est tous un peu balafrés quand on rap c'est l'émeute James Digger C'est pour l'émeute Dooz Kawa K.O Sur le MIC Pièges à loups c'est pour la meute Yeah Ne crois pas que c'est qu'un jeu car j'ai un peu des potes au ciel Un potentiel trop dangereux pour qu'on me laisse trop faire Ne crois pas que c'est pour rire quand je sors juste d'un mois pourri C'est écrit dans le Léviathan l'homme est un moi pour lui Tu sais que je suis un loup des steppes et des Appalaches Les coyotes girls en jean pas larges voudraient que leur lèchent la ch... Je tourne autour des lupanars ma présence les turlupine Quand ils observent les traces de mon empreinte lupine Les fables des femmes fontaines je boirais plus de leur obole C'est de la que vient l'histoire du loup et de la gnôle Des bergers et des chiens il faudra bien que je me venge Pour ça quand un agneau vient je l'emporte et le mange Le chasseur qui m'aura pas ouais. J'aurais aimé faire l'amour à toi Mais ma chérie t'es plus droguée qu'un lapin de laboratoire Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute J'ai jeté les armes d'assauts et ne suis presque plus voleur Je suis concentré sur les oiseaux qui pourraient chanter dans mon cur Je m'interroge sur ces panneaux qui disent que la chasse est ouverte En regardant mon louveteau. Mais quel avenir on lui réserve ? Il parait qu'on est des nuisible mais je regarde leurs usines Quand à force de confort ils ont construit leur suicide Les moutons ont tellement peur des vieilles histoires de loup Qu'ils sont castrés par des bergers sans jamais réfléchir du tout Là où mon image émerge ils craignent un risque imaginaire Et par une soumission réelle ils sont prisonniers volontaires Parfois la peine m'émeut mais c'est pas la peine de les mordre Parce qu'il se punissent tout seuls, l'espèce humaine est presque morte Les membres d'une même meute il arrive parfois qu'ils se mordent mais malgré les conflits jamais ils ne entre-dévorent Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Je porte mon louveteau dans la gueule et le dépose tout endormi Même si ça me brise le cur je sais mon petit à l'abri Je repars vers le bruit pour les éloigner du louveteau Un papa parfois est absent car il doit faire tout ce qu'il faut Même si ta truffe me fait défaut je lutterai jusqu'à l'échafaud J'ai du sang plein la gueule si je m'en sors ce soir c'est chaud Je me demanderai si j'ai bien fait aux premiers rayons de l'aube Car parfois j'évite un danger en me projetant dans l'autre Parfois je me sens aussi pourrir du manque que la famille m'a fait vivre Un loup peut aussi mourir de famine affective Je suis devenu éco-anxieux parce que des grand orages s'abattent On croit la nuit du black Sabbat ici les gangs de rage se battent Ceux qui uvrent dans l'obscurité atteignent aussi leur objectif Il faut savoir rester secret si la triche peut te rendre riche La pauvreté est une nymphomane que tout le monde peut posséder La richesse est une fille prude mais elle exige un procédé C'est toujours ceux qui ont triché pour avoir les bonnes cartes en mains Qui nous demandent de les respecter Ces règles du jeu quand ils sont bien. Bah ouais J'attendrais pas Les prières, des piquouse et les cuillères sur une civière Alors ne crois pas que ma musique soit neutre Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Alors ne crois pas que ma musique soit neutre Tout ceux qui usent mon énergie Que ma musique soit neutre Les médiocres et les jaloux Ni qu'on est peaceful dans la meute Les pièges à loups Yeah ! On est tous un peu balafrés quand on rap c'est l'émeute James Digger C'est pour l'émeute Dooz Kawa</t>
+          <t>K.O Sur le MIC Pièges à loups c'est pour la meute Yeah Ne crois pas que c'est qu'un jeu car j'ai un peu des potes au ciel Un potentiel trop dangereux pour qu'on me laisse trop faire Ne crois pas que c'est pour rire quand je sors juste d'un mois pourri C'est écrit dans le Léviathan l'homme est un moi pour lui Tu sais que je suis un loup des steppes et des Appalaches Les coyotes girls en jean pas larges voudraient que leur lèchent la ch... Je tourne autour des lupanars ma présence les turlupine Quand ils observent les traces de mon empreinte lupine Les fables des femmes fontaines je boirais plus de leur oboles C'est de la que vient l'histoire du loup et de la gnole Des bergers et des chiens il faudra bien que je me venge Pour ça quand un agneau vient je l'emporte et le mange Le chasseur qui m'aura pas ouais. J'aurais aimé faire l'amour à toi Mais ma chérie t'es plus droguée qu'un lapin de laboratoire Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute J'ai jeté les armes d'assauts et ne suis presque plus voleur Je suis concentré sur les oiseaux qui pourraient chanter dans mon cur Je m'interroge sur ces panneaux qui disent que la chasse est ouverte En regardant mon louveteau. Mais quel avenir on lui réserve ? Il parait qu'on est des nuisible mais je regarde leurs usines Quand à force de confort ils ont construit leur suicide Les moutons ont tellement peur des vieilles histoires de loup Qu'ils sont castrés par des bergers sans jamais réfléchir du tout Là où mon image émerge ils craignent un risque imaginaire Et par une soumission réelle ils sont prisonniers volontaires Parfois la peine m'émeut mais c'est pas la peine de les mordre Parce qu'il se punissent tout seuls, l'espèce humaine est presque morte Les membres d'une même meute il arrive parfois qu'ils se mordent mais malgré les conflits jamais ils ne entre-dévorent Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Je porte mon louveteau dans la gueule et le dépose tout endormi Même si ça me brise le cur je sais mon petit à l'abri Je repars vers le bruit pour les éloigner du louveteau Un papa parfois est absent car il doit faire tout ce qu'il faut Même si ta truffe me fait défaut je lutterai jusqu'à l'échafaud J'ai du sang plein la gueule si je m'en sors ce soir c'est chaud Je me demanderai si j'ai bien fait aux premiers rayons de l'aube Car parfois j'évite un danger en me projetant dans l'autre Parfois je me sens aussi pourrir du manque que la famille m'a fait vivre Un loup peut aussi mourir de famine affective Je suis devenu éco-anxieux parce que des grand orages s'abattent On croit la nuit du black Sabbat ici les gangs de rage se battent Ceux qui uvrent dans l'obscurité atteignent aussi leur objectif Il faut savoir rester secret si la triche peut te rendre riche La pauvreté est une nymphomane que tout le monde peut posséder La richesse est une fille prude mais elle exige un procédé C'est toujours ceux qui ont triché pour avoir les bonnes cartes en mains Qui nous demandent de les respecter Ces règles du jeu quand ils sont bien. Bah ouais J'attendrais pas couz les prières, des piquouse et les cuillères Ou quon me secourt sur une civière Alors ne crois pas que ma musique soit neutre Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Alors ne crois pas que ma musique soit neutre Tout ceux qui usent mon énergie Que ma musique soit neutre Les médiocres et les jaloux Ni qu'on est peaceful dans la meute Les pièges à loups Yeah ! On est tous un peu balafrés quand on rap c'est l'émeute James Digger C'est pour l'émeute Dooz Kawa K.O Sur le MIC Pièges à loups c'est pour la meute Yeah Ne crois pas que c'est qu'un jeu car j'ai un peu des potes au ciel Un potentiel trop dangereux pour qu'on me laisse trop faire Ne crois pas que c'est pour rire quand je sors juste d'un mois pourri C'est écrit dans le Léviathan l'homme est un moi pour lui Tu sais que je suis un loup des steppes et des Appalaches Les coyotes girls en jean pas larges voudraient que leur lèchent la ch... Je tourne autour des lupanars ma présence les turlupine Quand ils observent les traces de mon empreinte lupine Les fables des femmes fontaines je boirais plus de leur obole C'est de la que vient l'histoire du loup et de la gnôle Des bergers et des chiens il faudra bien que je me venge Pour ça quand un agneau vient je l'emporte et le mange Le chasseur qui m'aura pas ouais. J'aurais aimé faire l'amour à toi Mais ma chérie t'es plus droguée qu'un lapin de laboratoire Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute J'ai jeté les armes d'assauts et ne suis presque plus voleur Je suis concentré sur les oiseaux qui pourraient chanter dans mon cur Je m'interroge sur ces panneaux qui disent que la chasse est ouverte En regardant mon louveteau. Mais quel avenir on lui réserve ? Il parait qu'on est des nuisible mais je regarde leurs usines Quand à force de confort ils ont construit leur suicide Les moutons ont tellement peur des vieilles histoires de loup Qu'ils sont castrés par des bergers sans jamais réfléchir du tout Là où mon image émerge ils craignent un risque imaginaire Et par une soumission réelle ils sont prisonniers volontaires Parfois la peine m'émeut mais c'est pas la peine de les mordre Parce qu'il se punissent tout seuls, l'espèce humaine est presque morte Les membres d'une même meute il arrive parfois qu'ils se mordent mais malgré les conflits jamais ils ne entre-dévorent Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Je porte mon louveteau dans la gueule et le dépose tout endormi Même si ça me brise le cur je sais mon petit à l'abri Je repars vers le bruit pour les éloigner du louveteau Un papa parfois est absent car il doit faire tout ce qu'il faut Même si ta truffe me fait défaut je lutterai jusqu'à l'échafaud J'ai du sang plein la gueule si je m'en sors ce soir c'est chaud Je me demanderai si j'ai bien fait aux premiers rayons de l'aube Car parfois j'évite un danger en me projetant dans l'autre Parfois je me sens aussi pourrir du manque que la famille m'a fait vivre Un loup peut aussi mourir de famine affective Je suis devenu éco-anxieux parce que des grand orages s'abattent On croit la nuit du black Sabbat ici les gangs de rage se battent Ceux qui uvrent dans l'obscurité atteignent aussi leur objectif Il faut savoir rester secret si la triche peut te rendre riche La pauvreté est une nymphomane que tout le monde peut posséder La richesse est une fille prude mais elle exige un procédé C'est toujours ceux qui ont triché pour avoir les bonnes cartes en mains Qui nous demandent de les respecter Ces règles du jeu quand ils sont bien. Bah ouais J'attendrais pas Les prières, des piquouse et les cuillères sur une civière Alors ne crois pas que ma musique soit neutre Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Alors ne crois pas que ma musique soit neutre Tout ceux qui usent mon énergie Que ma musique soit neutre Les médiocres et les jaloux Ni qu'on est peaceful dans la meute Les pièges à loups Yeah ! On est tous un peu balafrés quand on rap c'est l'émeute James Digger C'est pour l'émeute Dooz Kawa</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Qu'est-ce que c'est ? Qu'est-ce que c'est ? Ils sont venus me tuer ! Ils vont nous prendre nos femmes ! Des pommes pourries... Au nom des nôtres et que les autres goûtent à la poudre La main au coeur pour les pirates pendus aux poutres Des pommes pourries... Sur mon épaule un primate En nous coule le sang des pirates Parole de ce jour, soit celui... Où Jack Sparrow quitta son île déserte au coeur d'un archipel inconnu Sans nourriture avec mon sabre, un pistolet et une seule balle Qu'ils espéraient se voir tourner contre moi-même, sur mon lobe temporal Formentée par Mendosa, ancien pirate et gouverneur de Port-Royal La mutinerie de l'équipage perdant le nord me fit perdre mon navire la Perle Noire Et le peu d'espoir Pour m'échapper d'une mort certaine, stagnant trois jours dans les hauts-fonds Pour habituer à ma présence toute la faune sous-marine Attachant deux tortues marines puis emporté par les baïnes Rien n'est pire que les promesses de vengeance d'un pirate des Caraïbes Dérivant sur Sainte-Annesville Ce pirate que le rhum a rendu vil Méprisé par tous les hommes de la ville Reconstitue un équipage de flibustiers en mal de vivre Récupérant le Black Pearl au prix de quelques âmes maudites You might also like Où Jack Sparrow joua sa peine en un concert Mais le côté pirate est si vrai, pourri jusqu'à sous mon ciré Né sous le signe du Cancer M'ouvrant ton corset quand serre ton coeur Tu croyais vraiment être aimée par un corsaire ? Histoires de voyages vers les azurs de Singapour Les eaux turquoise de la Guadeloupe sont tous mes faux prétextes d'amour Jusqu'à ce qu'on hisse derrière moi le pavillon noir à tête de mort Sous ses sourcils des larmes se forment T'étais juste un point local sur mon escale Ou bien l'esclave qu'on porte à bord, pour que mes écumiers s'esclaffent Qu'importe la tâche, t'es qu'une putain de port d'attache Parce que la coque de mon vaisseau était prisonnère dans la vase D'ou l'accostage intempestif Si j'ai lâché l'ancre au large pour éviter les récifs Si tu mouilles à marée basse, passionnée par mes récits Ne sois pas triste et passe le rhum, le sabre et mon tricorne Ma puce, tu fais partie de ces petites putes que j'affectionne Le chant des pirates résonne Provoque l'effroi et sonne l'heure de ma vengeance Même si je dois manger froid Vois comme mes voiles partent en haillons C'est l'orage mon bataillon Des pommes pourries... Où Jack Sparrow terrorisa les océans Ma horde sauvage des boucs puants Un équipage de boucaniers maudits servant un capitaine au coeur avide Menace pirates des Caraïbes Brûlant, saccageant chaque navire marchand Dévalisant leur cale, violant leurs femmes Avant d'accoster enfin la ville côtière de Port-Royal Deux amoureux qui parlent en marchant La nuit est belle, ma chérie Je prie pour l'enfant que nous éduquons Tiens c'est bizarre J'entends comme siffler un boulet de ca... Sans compassion... J'observe brûler toutes les maisons Indifférent aux cris des femmes et des déflagrations La garde royale entre en action Les cannoniers à l'aveuglette tirent sans espoir Le clair de lune camouflant la Perle Noire sous un costard de brume J'avise la tour la plus haute où doit se trouver Mendosa Plonge dans l'écume Le crépuscule étreint la nuit Éteint les poutres mises à feu Tout n'est que cendres sur ce port militaire rocheux Frappé en plein coeur par ma horde Les citadins sont mis à mort Je défonce la porte du gouverneur Les domestiques se souillent de peur quand je plante mon sabre dans une gorge Et même mon regard les écorche Écoute sonner les cloches mais les renforts viendront trop tard En haut des marches, voici le tsar, Mendosa, qui trône, épée en main Dehors les miens chantonnent déjà leur victoire en ce refrain Des pommes pourries... Où Jack Sparrow devait finir, dans un pur combat à l'épée, son épopée Les duellistes se mettent en garde, et Mendosa ricane Je déploie mon arme, lui tire mon unique balle dans le crâne Et l'homme s'écroule dans un vacarme Ouais... Je suis qu'un pirate, j'me fous du combat loyal Pour oit ça</t>
+          <t>Qu'est-ce que c'est ? Qu'est-ce que c'est ? Ils sont venus me tuer ! Ils vont nous prendre nos femmes ! Des pommes pourries... Au nom des nôtres et que les autres goûtent à la poudre La main au coeur pour les pirates pendus aux poutres Des pommes pourries... Sur mon épaule un primate En nous coule le sang des pirates Parole de ce jour, soit celui... Où Jack Sparrow quitta son île déserte au coeur d'un archipel inconnu Sans nourriture avec mon sabre, un pistolet et une seule balle Qu'ils espéraient se voir tourner contre moi-même, sur mon lobe temporal Formentée par Mendosa, ancien pirate et gouverneur de Port-Royal La mutinerie de l'équipage perdant le nord me fit perdre mon navire la Perle Noire Et le peu d'espoir Pour m'échapper d'une mort certaine, stagnant trois jours dans les hauts-fonds Pour habituer à ma présence toute la faune sous-marine Attachant deux tortues marines puis emporté par les baïnes Rien n'est pire que les promesses de vengeance d'un pirate des Caraïbes Dérivant sur Sainte-Annesville Ce pirate que le rhum a rendu vil Méprisé par tous les hommes de la ville Reconstitue un équipage de flibustiers en mal de vivre Récupérant le Black Pearl au prix de quelques âmes maudites Où Jack Sparrow joua sa peine en un concert Mais le côté pirate est si vrai, pourri jusqu'à sous mon ciré Né sous le signe du Cancer M'ouvrant ton corset quand serre ton coeur Tu croyais vraiment être aimée par un corsaire ? Histoires de voyages vers les azurs de Singapour Les eaux turquoise de la Guadeloupe sont tous mes faux prétextes d'amour Jusqu'à ce qu'on hisse derrière moi le pavillon noir à tête de mort Sous ses sourcils des larmes se forment T'étais juste un point local sur mon escale Ou bien l'esclave qu'on porte à bord, pour que mes écumiers s'esclaffent Qu'importe la tâche, t'es qu'une putain de port d'attache Parce que la coque de mon vaisseau était prisonnère dans la vase D'ou l'accostage intempestif Si j'ai lâché l'ancre au large pour éviter les récifs Si tu mouilles à marée basse, passionnée par mes récits Ne sois pas triste et passe le rhum, le sabre et mon tricorne Ma puce, tu fais partie de ces petites putes que j'affectionne Le chant des pirates résonne Provoque l'effroi et sonne l'heure de ma vengeance Même si je dois manger froid Vois comme mes voiles partent en haillons C'est l'orage mon bataillon Des pommes pourries... Où Jack Sparrow terrorisa les océans Ma horde sauvage des boucs puants Un équipage de boucaniers maudits servant un capitaine au coeur avide Menace pirates des Caraïbes Brûlant, saccageant chaque navire marchand Dévalisant leur cale, violant leurs femmes Avant d'accoster enfin la ville côtière de Port-Royal Deux amoureux qui parlent en marchant La nuit est belle, ma chérie Je prie pour l'enfant que nous éduquons Tiens c'est bizarre J'entends comme siffler un boulet de ca... Sans compassion... J'observe brûler toutes les maisons Indifférent aux cris des femmes et des déflagrations La garde royale entre en action Les cannoniers à l'aveuglette tirent sans espoir Le clair de lune camouflant la Perle Noire sous un costard de brume J'avise la tour la plus haute où doit se trouver Mendosa Plonge dans l'écume Le crépuscule étreint la nuit Éteint les poutres mises à feu Tout n'est que cendres sur ce port militaire rocheux Frappé en plein coeur par ma horde Les citadins sont mis à mort Je défonce la porte du gouverneur Les domestiques se souillent de peur quand je plante mon sabre dans une gorge Et même mon regard les écorche Écoute sonner les cloches mais les renforts viendront trop tard En haut des marches, voici le tsar, Mendosa, qui trône, épée en main Dehors les miens chantonnent déjà leur victoire en ce refrain Des pommes pourries... Où Jack Sparrow devait finir, dans un pur combat à l'épée, son épopée Les duellistes se mettent en garde, et Mendosa ricane Je déploie mon arme, lui tire mon unique balle dans le crâne Et l'homme s'écroule dans un vacarme Ouais... Je suis qu'un pirate, j'me fous du combat loyal Pour oit ça</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Le bout de mes pas d'peloche se brûle sur l'amour au lasso J'bouge la tête comme la peluche de Mr. Oizo 12 K.O. T-Kaï ! Peut-être une marionnette animée par cinq ou six câbles Reliés à une boîte musicale Juste une poupée qui parle d'façon sincère Avec l'énorme clé qui s'insère dans ma colonne vertébrale Remonte le papier à musique et quand dans ma vie tout va mal Figurine, marquis de Sade, figurant des bacs à sable Cousu à ma capuche et sur mes épaules un cartable Rempli de pensées d'apocalypse Un nounours qui peu câline Depuis qu'elle préfère le robot avec ses piles alcalines L'ancien doudou qui perd ses fils est laissé à l'abandon Regard en boutons, immobile J'suis back dans les bacs, dans les bacs à jouets poupée de son J'suis back dans les bacs, dans les bacs, dans les bacs, dans les bacs à jouets J'ai préparé mon baluchon Juste un savon, un fil, une aiguille en cas d'accrochage J'manquerai à personne si j'm'évade Adorable nounours causaque Elle regarde même plus mes cascades en freelance Pour s'endormir au téléphone et parfois elle pleure en silence J'ai beau faire des galipettes, elle soupire aux étoiles filantes Pendant qu'j'l'observe la tête en bas Soldats de plomb, stoppez le combat car on a perdu son sommeil Depuis qu'elle met des boucles d'oreille Pourquoi tu dors plus avec moi ? Des millions d'bisous au réveil, si tu savais J'suis naufragé sur un récif avec ma meilleure amie amère Que même Donald est dépressif J'embrasse tous les jouets par centaines Avant d'sauter par la fenêtre dans le linge sale en bas qui traîne You might also like Quand tu liras ces quelques lignes J'serai déjà loin dans le bac à linge Mais j'ai oublié, pendentif à ton cou, cette clé qui sert à m'remonter Moi j'voulais vivre sans toi mais c'est raté Et si la mélodie cesse c'est que de battre mon coeur s'est arrêté C'est le come back de l'abeille en ruche J'suis rattrapé et ce malgré ma ruse Et sous ma capuche j'suis Steve McQueen mais en sac à puces Quand évadé de ma boîte à jouets j'atteins bien l'orée du jardin Mais j'suis reperé, ramassé dans la boue sur le chemin Prisonnier, Soupline, Viêt Minh, 6-7000 12 K.O. enfermé dans une machine Tourne en rond contre le carreau Tourne en rond, tourne en rond Tourne en rond, tourne en rond... Laissez-moi sortir1</t>
+          <t>Le bout de mes pas d'peloche se brûle sur l'amour au lasso J'bouge la tête comme la peluche de Mr. Oizo 12 K.O. T-Kaï ! Peut-être une marionnette animée par cinq ou six câbles Reliés à une boîte musicale Juste une poupée qui parle d'façon sincère Avec l'énorme clé qui s'insère dans ma colonne vertébrale Remonte le papier à musique et quand dans ma vie tout va mal Figurine, marquis de Sade, figurant des bacs à sable Cousu à ma capuche et sur mes épaules un cartable Rempli de pensées d'apocalypse Un nounours qui peu câline Depuis qu'elle préfère le robot avec ses piles alcalines L'ancien doudou qui perd ses fils est laissé à l'abandon Regard en boutons, immobile J'suis back dans les bacs, dans les bacs à jouets poupée de son J'suis back dans les bacs, dans les bacs, dans les bacs, dans les bacs à jouets J'ai préparé mon baluchon Juste un savon, un fil, une aiguille en cas d'accrochage J'manquerai à personne si j'm'évade Adorable nounours causaque Elle regarde même plus mes cascades en freelance Pour s'endormir au téléphone et parfois elle pleure en silence J'ai beau faire des galipettes, elle soupire aux étoiles filantes Pendant qu'j'l'observe la tête en bas Soldats de plomb, stoppez le combat car on a perdu son sommeil Depuis qu'elle met des boucles d'oreille Pourquoi tu dors plus avec moi ? Des millions d'bisous au réveil, si tu savais J'suis naufragé sur un récif avec ma meilleure amie amère Que même Donald est dépressif J'embrasse tous les jouets par centaines Avant d'sauter par la fenêtre dans le linge sale en bas qui traîne Quand tu liras ces quelques lignes J'serai déjà loin dans le bac à linge Mais j'ai oublié, pendentif à ton cou, cette clé qui sert à m'remonter Moi j'voulais vivre sans toi mais c'est raté Et si la mélodie cesse c'est que de battre mon coeur s'est arrêté C'est le come back de l'abeille en ruche J'suis rattrapé et ce malgré ma ruse Et sous ma capuche j'suis Steve McQueen mais en sac à puces Quand évadé de ma boîte à jouets j'atteins bien l'orée du jardin Mais j'suis reperé, ramassé dans la boue sur le chemin Prisonnier, Soupline, Viêt Minh, 6-7000 12 K.O. enfermé dans une machine Tourne en rond contre le carreau Tourne en rond, tourne en rond Tourne en rond, tourne en rond... Laissez-moi sortir1</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>C'est pour ces moments où t'as l'impression que tu gères plus ta vie, où t'es qu'une marionnette en faite, même moi j'suis juste une poupée, une poupée de son Le bout de mes pas d'peloche se brûle sur l'amour au lasso J'bouge ma tête comme la peluche de Mr. Oizo 12 K.O Peut-être une marionnette animée par cinq ou six câbles Reliés à une boîte musicale Juste une poupée qui parle d'façon sincère Avec l'énorme clé qui s'insère dans ma colonne vertébrale Remonte le papier à musique et quand dans ma vie tout va mal Figurine, marquis de Sade, figurant des bacs à sable Cousu à ma capuche et sur mes épaules un cartable Rempli de pensées d'apocalypse Un nounours qui peu câline Depuis qu'elle préfère le robot avec ses piles alcalines L'ancien doudou qui perd ses fils est laissé à l'abandon Regard en boutons, immobile J'suis back dans les bacs à jouets poupée de son J'suis back dans les bacs à jouets poupée de son Pousse ton ?, c'est le come back du sac à puces Du nounours cousu avec sa capuche Une peluche aux tatouages brodés Qu'on croirait mes bras tachés J'suis en concert dans une boite à jouets Le teddy dont ils s'souviennent Quand y a des peines à partager Celui qui s'endort près d'celle qui s'sent mal protégée 12 K.O., poupée de son, comme mes ? soldats de plomb Comme les X figurants vendus dans la même collection Et j'aime la première Barbie black amie de deux trois poupées russes Bardée d'une mini tunique, maquée d'un Ken sous barbituriques Tous les pions d'un libre arbitre qu'y a ses limites dans le reproduction sociale Et tous ces gens se croient libres mais les fils du marionnettiste anime cette scène théatrale Que peut faire une poupée de son, reliée à une boite musicale You might also like Ce moment où t'as l'impression qu'tu gères plus ta vie, où t'es qu'une marionnette frère, où même moi j'suis juste une poupée, une poupée de son</t>
+          <t>C'est pour ces moments où t'as l'impression que tu gères plus ta vie, où t'es qu'une marionnette en faite, même moi j'suis juste une poupée, une poupée de son Le bout de mes pas d'peloche se brûle sur l'amour au lasso J'bouge ma tête comme la peluche de Mr. Oizo 12 K.O Peut-être une marionnette animée par cinq ou six câbles Reliés à une boîte musicale Juste une poupée qui parle d'façon sincère Avec l'énorme clé qui s'insère dans ma colonne vertébrale Remonte le papier à musique et quand dans ma vie tout va mal Figurine, marquis de Sade, figurant des bacs à sable Cousu à ma capuche et sur mes épaules un cartable Rempli de pensées d'apocalypse Un nounours qui peu câline Depuis qu'elle préfère le robot avec ses piles alcalines L'ancien doudou qui perd ses fils est laissé à l'abandon Regard en boutons, immobile J'suis back dans les bacs à jouets poupée de son J'suis back dans les bacs à jouets poupée de son Pousse ton ?, c'est le come back du sac à puces Du nounours cousu avec sa capuche Une peluche aux tatouages brodés Qu'on croirait mes bras tachés J'suis en concert dans une boite à jouets Le teddy dont ils s'souviennent Quand y a des peines à partager Celui qui s'endort près d'celle qui s'sent mal protégée 12 K.O., poupée de son, comme mes ? soldats de plomb Comme les X figurants vendus dans la même collection Et j'aime la première Barbie black amie de deux trois poupées russes Bardée d'une mini tunique, maquée d'un Ken sous barbituriques Tous les pions d'un libre arbitre qu'y a ses limites dans le reproduction sociale Et tous ces gens se croient libres mais les fils du marionnettiste anime cette scène théatrale Que peut faire une poupée de son, reliée à une boite musicale Ce moment où t'as l'impression qu'tu gères plus ta vie, où t'es qu'une marionnette frère, où même moi j'suis juste une poupée, une poupée de son</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ouais salut, j'viens.. j'viens pour le casting Ben, j'fais des freestyles, j'rap un petit peu Ouais ouais, si tu veux je t'en fais un, pas d'soucis C'est un truc que j'ai écrit tout à l'heure, en attendant... La censure est en flammes, et il est affiché Lascenseur social est en panne, prenez les escaliers En cas d'épais écran d'ciné, évitez lascenseur social Prenez les escaliers J'arrêterais de rapper, navré si mon album est un navet Si un jour j'deviens mauvais comme un film à Guillaume Canet Si au contraire il est assez doux j'en ferais d'autres trop bon Sans casting comme Léa Seydoux, héritière de l'empire Gaumont J'espère que mes textes percutent, car ça joue sur le moral Sinon je m'exécute, comme 47 Samouraïs J'attends la scène finale où l'on coupe la tête à tous 120 jours d'anal, car le cinéma partouze Qu'on m'enferme pour du zetla moi j'suis pas bien pour Et j'ai rien fait pour être là un peu comme Charlotte Gainsbourg Il y a le fric et les débats, Nique la police je le dis pas Pas comme tout ces anciens rappeurs qui font des flics au cinéma Pour Joey Starr faut que j'dise pour rendre à césar, ben je... L'ai bien aimé dans Polisse mais pas quand il tape son singe Qui pousse des cris au 7ème ciel Au milieu de tout c'bordel Pourvu qu'il réveille Luis Buñuel You might also like x2 J'ai peut-être tort j'avoue, car tout le monde me tombe dessus J'me sens comme Victor Lanoux, dans les démons de Jésus Veuillez absoudre, mes arguments absurdes C'est comme dire, qu'un concours proposé par Canal Au jury composé par la famille Bohringer avait été remporté par le projet ... Bohringer Putain de lune Est-ce un acte qui se mul- -tiplie c'est comme demander si dans le porno les actrices simulent, tu piges ? L'enjeu financier si immense Réservé quand on y pense Par les gosses du népotisme Pistonnés sur les planches C'est plus Ils m'accusent d'en faire trop Comme leurs affiches qui polluent, les bus et les métro L'inégalité des chances a toujours engendré La Haine Demande à Saïd Taghmaoui ou Hubert Koundé Mais chut, pas à Vincent Cassel... x2 Foutez-moi ces cons à l'usine Comme ceux qui triment à Florange L'émotion en sera plus digne Quand ils la joueront au Cours Florent T'entend ? La révolte qui sonne T'auras le nez dans le ruisseau, comme Sonny Corleone Pète les plomb sur Carlo Rizzi Le jour où l'ciné se réveillera, il sera à feu et à sang Mais tu peux dormir tranquille vu les bourgeois du premier rang Tu penses que c'est bon comme ça ? Putain mais t'es débile pétasse C'est la France de Bokassa? Et des Nobilitas Fils à papa du cinéma Heureusement que ton père est né avant toi Pour que tu gargarises Mais tu es dénué de talent, de compétence et de charisme Le pays du népotisme et de petits arrangements On est, comme on est naît, le piston prime sur le talent Mais faut que vous vous rassuriez, entre autres J'aime beaucoup Alexandre Astier c'est un des vôtres ? x2 Alors..? Quoi j'suis pas pris ? Et c'est qui qui va jour le rôle alors, Casimir ? Pff, mais c'est même pas un humain Il a du réseau ouais...</t>
+          <t>Ouais salut, j'viens.. j'viens pour le casting Ben, j'fais des freestyles, j'rap un petit peu Ouais ouais, si tu veux je t'en fais un, pas d'soucis C'est un truc que j'ai écrit tout à l'heure, en attendant... La censure est en flammes, et il est affiché Lascenseur social est en panne, prenez les escaliers En cas d'épais écran d'ciné, évitez lascenseur social Prenez les escaliers J'arrêterais de rapper, navré si mon album est un navet Si un jour j'deviens mauvais comme un film à Guillaume Canet Si au contraire il est assez doux j'en ferais d'autres trop bon Sans casting comme Léa Seydoux, héritière de l'empire Gaumont J'espère que mes textes percutent, car ça joue sur le moral Sinon je m'exécute, comme 47 Samouraïs J'attends la scène finale où l'on coupe la tête à tous 120 jours d'anal, car le cinéma partouze Qu'on m'enferme pour du zetla moi j'suis pas bien pour Et j'ai rien fait pour être là un peu comme Charlotte Gainsbourg Il y a le fric et les débats, Nique la police je le dis pas Pas comme tout ces anciens rappeurs qui font des flics au cinéma Pour Joey Starr faut que j'dise pour rendre à césar, ben je... L'ai bien aimé dans Polisse mais pas quand il tape son singe Qui pousse des cris au 7ème ciel Au milieu de tout c'bordel Pourvu qu'il réveille Luis Buñuel x2 J'ai peut-être tort j'avoue, car tout le monde me tombe dessus J'me sens comme Victor Lanoux, dans les démons de Jésus Veuillez absoudre, mes arguments absurdes C'est comme dire, qu'un concours proposé par Canal Au jury composé par la famille Bohringer avait été remporté par le projet ... Bohringer Putain de lune Est-ce un acte qui se mul- -tiplie c'est comme demander si dans le porno les actrices simulent, tu piges ? L'enjeu financier si immense Réservé quand on y pense Par les gosses du népotisme Pistonnés sur les planches C'est plus Ils m'accusent d'en faire trop Comme leurs affiches qui polluent, les bus et les métro L'inégalité des chances a toujours engendré La Haine Demande à Saïd Taghmaoui ou Hubert Koundé Mais chut, pas à Vincent Cassel... x2 Foutez-moi ces cons à l'usine Comme ceux qui triment à Florange L'émotion en sera plus digne Quand ils la joueront au Cours Florent T'entend ? La révolte qui sonne T'auras le nez dans le ruisseau, comme Sonny Corleone Pète les plomb sur Carlo Rizzi Le jour où l'ciné se réveillera, il sera à feu et à sang Mais tu peux dormir tranquille vu les bourgeois du premier rang Tu penses que c'est bon comme ça ? Putain mais t'es débile pétasse C'est la France de Bokassa? Et des Nobilitas Fils à papa du cinéma Heureusement que ton père est né avant toi Pour que tu gargarises Mais tu es dénué de talent, de compétence et de charisme Le pays du népotisme et de petits arrangements On est, comme on est naît, le piston prime sur le talent Mais faut que vous vous rassuriez, entre autres J'aime beaucoup Alexandre Astier c'est un des vôtres ? x2 Alors..? Quoi j'suis pas pris ? Et c'est qui qui va jour le rôle alors, Casimir ? Pff, mais c'est même pas un humain Il a du réseau ouais...</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Je suis mon propre subalterne Quand je me sens terne et vidé J'accroche mes circuits neuronaux aux idées Et les allume comme des lanternes D'où je me balance comme un singe La vie est moins dure que le sommeil L'hyper vigilance me réveille Et tout est plein de silence et Tout st peint par l'obscurité T'as l'impression quand tu t'ennuis Que toute ta vie est restée al Dans la présence de la nuit Et des insomnies vespérales Un alien sociabilisé qu'est toujours seul comme un zébra Avec une souffrance si profonde que personne peut le prendre dans ses bras Je suis un voyageur sur place Et ça rend fou mon entourage De jamais partir en vacances L'imagination m'entourage Me sens tout le temps en voyage Il suffit juste que j'y pense Et j'ai le goût de la goyave gwayav L'accent créole de Fort-de-France Qui je suis qui je suis Celui qui s'ennuie Qui connaît déjà la fin des phrases Avant qu'elles ne soient finies You might also likeOn me dit quand on me parle Que je m'absente apparemment Et d'un coup l'espace paraît vaste Je suis comme au bout de l'appartement Des êtres libres font ce qu'ils sont Et moi j'ai dû choisir fantôme Nous n'enfantons pas des enfants Je crois que nous enfantons des atomes Dans ma tête Quand il fait gris Je sais faire se lever le soleil C'est mon super pouvoir Faut dire A force de partir J'ai dû créer des repères-sonnels Qui je suis qui je suis Un paradoxe indéfini Je suis un dedans sans dehors D'intériorités infinies Nos connaissances sont que des doutes Je calcule tout sans euphorie Sans apprécier quand il le faut Car trouver par hasard le vrai C'est encore être dans le faux Puis Je vois comme des billes translucides Microscopiques qui sont l'espace autour de moi Et que chacune d'elles créent ce monde Selon leur position Par rapport à, comment nous voyons la vie Qu'à travers ces gouttelettes Et ce n'est qu'elle Que je perçois Je me sens conscient des choses Et puis je suis dans le blizzard Je suis perdu parfois Je sais qu'on dit que je suis bizarre Je suis victime d'une prise d'otage D'un cerveau qui ne s'arrête jamais Je ne sais pas vraiment qui je suis Quand je m'absente de moi la nuit J'ai l'impression pendant des mois Pendant que je dors Et au réveil Je me réincarne en moi Lorsque mon hyper vigilance Détourne un peu son attention Et me laisse enfin dormir Je suis une entité Qui, rejette toutes les religions Qui, imagine un genre de Dieu immanent Qui, vit au milieu de notre ventre Qui, est la chaleur et l'énergie Qui, fait lorsqu'on ferme les yeux On brille tous dans la nuit Et quand un jour je disparaîtrai en tant que moi Cette lumière ira ailleurs comme un feu follet sans émoi Je ne suis que le souvenir d'ailleurs que je laisse Dans l'esprit de ceux que j'ai aimé Je ne suis que l'éducation que j'ai eue Et les amis que j'ai croisés Les HLM où j'ai vécu Je suis des afférents sensitives Associé à votre mémoire Je suis le petit enfant sensible Qui jouait seul pendant des heures dans la baignoire Et je me vois comme éternel D'éléments qui me constituent Car si un jour la vie me tue Mon carbone trouvera une symbiose Et se formera une autre chose Ils ne comprennent pas ma position Et comment je suis neutre à leur cause On s'entend comme des positrons Et des antineutrinos Je ne possède de liberté Que la conscience d'être prisonnier Mais au moins Comme je le sais Je suis un peu plus libre Que ceux qui préfèrent l'ignorer Je suis calme et réservé Pourtant je fais beaucoup de bruit Comme plus de dix êtres Parce que j'ai peur de l'assumer et disparaître Je suis qu'un amas de cellules Qui fonctionnent dans une vague homéostasie Je suis un vaste monde complexe Et qui possède plus de neurones Qu'il n'y d'étoiles dans la galaxie Pourtant parfois j'ai pas les mots Pour ce qui est gravé dans mon sang Je suis tout à la fois Un chameau, un lion et un enfant Je suis tellement tout en même temps Pourtant je représente l'absence Et il n'y a qu'une chance que j'oublie tout C'est un concert en votre présence Et là Et là je me tiens debout devant vous</t>
+          <t>Je suis mon propre subalterne Quand je me sens terne et vidé J'accroche mes circuits neuronaux aux idées Et les allume comme des lanternes D'où je me balance comme un singe La vie est moins dure que le sommeil L'hyper vigilance me réveille Et tout est plein de silence et Tout st peint par l'obscurité T'as l'impression quand tu t'ennuis Que toute ta vie est restée al Dans la présence de la nuit Et des insomnies vespérales Un alien sociabilisé qu'est toujours seul comme un zébra Avec une souffrance si profonde que personne peut le prendre dans ses bras Je suis un voyageur sur place Et ça rend fou mon entourage De jamais partir en vacances L'imagination m'entourage Me sens tout le temps en voyage Il suffit juste que j'y pense Et j'ai le goût de la goyave gwayav L'accent créole de Fort-de-France Qui je suis qui je suis Celui qui s'ennuie Qui connaît déjà la fin des phrases Avant qu'elles ne soient finies On me dit quand on me parle Que je m'absente apparemment Et d'un coup l'espace paraît vaste Je suis comme au bout de l'appartement Des êtres libres font ce qu'ils sont Et moi j'ai dû choisir fantôme Nous n'enfantons pas des enfants Je crois que nous enfantons des atomes Dans ma tête Quand il fait gris Je sais faire se lever le soleil C'est mon super pouvoir Faut dire A force de partir J'ai dû créer des repères-sonnels Qui je suis qui je suis Un paradoxe indéfini Je suis un dedans sans dehors D'intériorités infinies Nos connaissances sont que des doutes Je calcule tout sans euphorie Sans apprécier quand il le faut Car trouver par hasard le vrai C'est encore être dans le faux Puis Je vois comme des billes translucides Microscopiques qui sont l'espace autour de moi Et que chacune d'elles créent ce monde Selon leur position Par rapport à, comment nous voyons la vie Qu'à travers ces gouttelettes Et ce n'est qu'elle Que je perçois Je me sens conscient des choses Et puis je suis dans le blizzard Je suis perdu parfois Je sais qu'on dit que je suis bizarre Je suis victime d'une prise d'otage D'un cerveau qui ne s'arrête jamais Je ne sais pas vraiment qui je suis Quand je m'absente de moi la nuit J'ai l'impression pendant des mois Pendant que je dors Et au réveil Je me réincarne en moi Lorsque mon hyper vigilance Détourne un peu son attention Et me laisse enfin dormir Je suis une entité Qui, rejette toutes les religions Qui, imagine un genre de Dieu immanent Qui, vit au milieu de notre ventre Qui, est la chaleur et l'énergie Qui, fait lorsqu'on ferme les yeux On brille tous dans la nuit Et quand un jour je disparaîtrai en tant que moi Cette lumière ira ailleurs comme un feu follet sans émoi Je ne suis que le souvenir d'ailleurs que je laisse Dans l'esprit de ceux que j'ai aimé Je ne suis que l'éducation que j'ai eue Et les amis que j'ai croisés Les HLM où j'ai vécu Je suis des afférents sensitives Associé à votre mémoire Je suis le petit enfant sensible Qui jouait seul pendant des heures dans la baignoire Et je me vois comme éternel D'éléments qui me constituent Car si un jour la vie me tue Mon carbone trouvera une symbiose Et se formera une autre chose Ils ne comprennent pas ma position Et comment je suis neutre à leur cause On s'entend comme des positrons Et des antineutrinos Je ne possède de liberté Que la conscience d'être prisonnier Mais au moins Comme je le sais Je suis un peu plus libre Que ceux qui préfèrent l'ignorer Je suis calme et réservé Pourtant je fais beaucoup de bruit Comme plus de dix êtres Parce que j'ai peur de l'assumer et disparaître Je suis qu'un amas de cellules Qui fonctionnent dans une vague homéostasie Je suis un vaste monde complexe Et qui possède plus de neurones Qu'il n'y d'étoiles dans la galaxie Pourtant parfois j'ai pas les mots Pour ce qui est gravé dans mon sang Je suis tout à la fois Un chameau, un lion et un enfant Je suis tellement tout en même temps Pourtant je représente l'absence Et il n'y a qu'une chance que j'oublie tout C'est un concert en votre présence Et là Et là je me tiens debout devant vous</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>À tort depuis kid j'absorbe les liquides, l'absinthe elle est vide Absente et livide est ta tchaï Eh l'ami, tu peux m'passer la weed, le quet-br' et la pipe Elle tord, mal au bide Al'Tarba le beat et Kawa sur le mic Mafia sélénite, parfois c'est limite Et la vie les élimine pour des trucs si minables Si les mecs s'éliminent c'est qu'ils sont similaires Un gun sous doudoune et le look militaire Des crânes qui se rasent, des regards qui se croisent Et souvent des grandes gueules, une fois seules qui s'écrasent Finiront body bags allongés dans la cour comme 2Pac ou Shakur Des cris déchirent le coeur quand les maters accourent J'ai fait payer des dettes Traîné en bas des tours même si j'connais les têtes J'y vais, plus de détour Al'Tarba c'est ton tour Tu fais du radio rap d'eunuque à l'anus hémorragique On est venus briser ta nuque et laisser le peu-ra-plégique Dooz Kawa Quoi ?, t'as trop l'insulte flatteuse Al'Tarba Hein ?, repose la sulfateuse Au clair de la lune, un briquet, de l'alu Quand la lumière s'allume les démons me saluent C'est le monde insalubre Kawa est célèbre dans l'école de la rue 'vec des mauvais élèves Tout le monde se lève et l'on lit sur les lèvres Tous les rêves de la dune, que des fleurs de bitume Au clair de la lune, tu peux m'prêter ta plume Jerrican incendie, une chicane à 110 Bref, ricane on te gifle Snif ! Carrément triste puisqu'ici gisent L'hip-hopoposthume en complet costume Un couplet secoss et sa cause Ce gosse tue Tu causes... mais après ça qu'oses-tu ? J'pose et après ça cause plus Radio rap, MC C'pas grave si nous on passe en scred C'paragraphe c'est ton épitaphe en skeud Et même au lit on fait du bruit puisque toute la nuit on buzze On refait l'monde avec des scies... sauteuses You might also like</t>
+          <t>À tort depuis kid j'absorbe les liquides, l'absinthe elle est vide Absente et livide est ta tchaï Eh l'ami, tu peux m'passer la weed, le quet-br' et la pipe Elle tord, mal au bide Al'Tarba le beat et Kawa sur le mic Mafia sélénite, parfois c'est limite Et la vie les élimine pour des trucs si minables Si les mecs s'éliminent c'est qu'ils sont similaires Un gun sous doudoune et le look militaire Des crânes qui se rasent, des regards qui se croisent Et souvent des grandes gueules, une fois seules qui s'écrasent Finiront body bags allongés dans la cour comme 2Pac ou Shakur Des cris déchirent le coeur quand les maters accourent J'ai fait payer des dettes Traîné en bas des tours même si j'connais les têtes J'y vais, plus de détour Al'Tarba c'est ton tour Tu fais du radio rap d'eunuque à l'anus hémorragique On est venus briser ta nuque et laisser le peu-ra-plégique Dooz Kawa Quoi ?, t'as trop l'insulte flatteuse Al'Tarba Hein ?, repose la sulfateuse Au clair de la lune, un briquet, de l'alu Quand la lumière s'allume les démons me saluent C'est le monde insalubre Kawa est célèbre dans l'école de la rue 'vec des mauvais élèves Tout le monde se lève et l'on lit sur les lèvres Tous les rêves de la dune, que des fleurs de bitume Au clair de la lune, tu peux m'prêter ta plume Jerrican incendie, une chicane à 110 Bref, ricane on te gifle Snif ! Carrément triste puisqu'ici gisent L'hip-hopoposthume en complet costume Un couplet secoss et sa cause Ce gosse tue Tu causes... mais après ça qu'oses-tu ? J'pose et après ça cause plus Radio rap, MC C'pas grave si nous on passe en scred C'paragraphe c'est ton épitaphe en skeud Et même au lit on fait du bruit puisque toute la nuit on buzze On refait l'monde avec des scies... sauteuses</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Pour les branleuses, les branleurs, j'fais d'la 'zique qui rapproche Tout l'monde les bras en l'air pendant que j'vous vide les poches Comme Pink, les punks, les pit', j'suis un produit d'époque Que tout l'monde lève les bras pendant que j'vous brasse les poches Le monde du rap me dit Thank you Et pour les autres fils de pute, j'ai une grosse batte à cinq clous J'ai mal au mic comme un MC paraphrasé pas rassasié J'suis venu croquer Marianne même si sa chatte n'est pas rasée Débarrasser ma libido de tous mes désirs les plus bas J'ai fait picoler Carla et j'la sodomise dans l'plumard de ses parents Et c'est navrant comme c'est marrant l'insulte dans l'écriture Me disait ce fils de pute de directeur artistique de... Attends, j'te l'resitue Sortir ce hit qui tue, cet MC qui titube J'sais pas t'es qui mais tu sais quoi ? Vas-y remballe ton truc Car moi mon seul tube c'est la thune Sais-tu que sur YouTube j'connais des putes qui se prostituent juste pour payer leurs études ? Et elles ont plus de visites que oit avec leurs oid En tournant des films de uc à oilp à la webcam Et en plus leur seul salaire c'est un string Victoria Beckham You might also like Assis au bord de la falaise, tu sens bien j'suis trop balaise J'rappe celles qui s'en battent les fesses du théorème de Thalès Eh, baby, prends mon adresse, c'est au 38 que j'habite Là où les avions atterrissent et où les basses fracassent les vitres Et t'es barré mais faut qu'ça serve de faire le rappeur en soirée Et m'enflammer pour une méga chiée d'enfoirés qui dansent Moi l'assigné à résidence Dès ma naissance j'aurais aimé quitter la route Là où ça shoote dans tous les sens Le nombre de fils de pute augmente comme le prix de l'essence Réminiscence de mes concerts à vélo pour me faire piquer la selle Et sur scène c'est la merde, y a plus d'herbe même dans les chiottes La loi Évin a fait du bien au biz de coke Modernisé l'hip-hop Depuis, la racaille vous mitraille mais ne fout plus d'calottes Faire d'la maille frère, on sait faire pas quoi d'autre Mais ma 'zique et ses cuisses s'écartent Dooz Kawa, vodka russe, fait tomber les poils de chatte de vos capuches Et comment ça, t'es pas content de ton CD gravé gratuit ? T'as fait un clic avec ton oid et moi j'attrape froid sous la pluie Tu m'bassines, t'as pas d'style Des bad bitches, peut-être t'en baises quatre mille, mais sans contact tactile C'est la nouvelle génération qui suce des bites sur MSN Y a plus d'danger d'hépatite et elles peuvent baiser quand elles saignent Mais certaines scènes c'est trop mec J'étais l'premier à m'connec' dès qu'y a des trucs un peu dég' Pendant le délit d'fuite de Jean Sarkozy en mobylette J'baisais sa femme dans les toilettes Bon, bref J'ai mal au mic comme un MC paraphrasé pas rassasié J'suis venu croquer Marianne même si sa chatte n'est pas rasée Débarrasser ma libido de tous mes désirs les plus bas J'ai fait picoler Carla et j'la sodomise dans l'plumard</t>
+          <t>Pour les branleuses, les branleurs, j'fais d'la 'zique qui rapproche Tout l'monde les bras en l'air pendant que j'vous vide les poches Comme Pink, les punks, les pit', j'suis un produit d'époque Que tout l'monde lève les bras pendant que j'vous brasse les poches Le monde du rap me dit Thank you Et pour les autres fils de pute, j'ai une grosse batte à cinq clous J'ai mal au mic comme un MC paraphrasé pas rassasié J'suis venu croquer Marianne même si sa chatte n'est pas rasée Débarrasser ma libido de tous mes désirs les plus bas J'ai fait picoler Carla et j'la sodomise dans l'plumard de ses parents Et c'est navrant comme c'est marrant l'insulte dans l'écriture Me disait ce fils de pute de directeur artistique de... Attends, j'te l'resitue Sortir ce hit qui tue, cet MC qui titube J'sais pas t'es qui mais tu sais quoi ? Vas-y remballe ton truc Car moi mon seul tube c'est la thune Sais-tu que sur YouTube j'connais des putes qui se prostituent juste pour payer leurs études ? Et elles ont plus de visites que oit avec leurs oid En tournant des films de uc à oilp à la webcam Et en plus leur seul salaire c'est un string Victoria Beckham Assis au bord de la falaise, tu sens bien j'suis trop balaise J'rappe celles qui s'en battent les fesses du théorème de Thalès Eh, baby, prends mon adresse, c'est au 38 que j'habite Là où les avions atterrissent et où les basses fracassent les vitres Et t'es barré mais faut qu'ça serve de faire le rappeur en soirée Et m'enflammer pour une méga chiée d'enfoirés qui dansent Moi l'assigné à résidence Dès ma naissance j'aurais aimé quitter la route Là où ça shoote dans tous les sens Le nombre de fils de pute augmente comme le prix de l'essence Réminiscence de mes concerts à vélo pour me faire piquer la selle Et sur scène c'est la merde, y a plus d'herbe même dans les chiottes La loi Évin a fait du bien au biz de coke Modernisé l'hip-hop Depuis, la racaille vous mitraille mais ne fout plus d'calottes Faire d'la maille frère, on sait faire pas quoi d'autre Mais ma 'zique et ses cuisses s'écartent Dooz Kawa, vodka russe, fait tomber les poils de chatte de vos capuches Et comment ça, t'es pas content de ton CD gravé gratuit ? T'as fait un clic avec ton oid et moi j'attrape froid sous la pluie Tu m'bassines, t'as pas d'style Des bad bitches, peut-être t'en baises quatre mille, mais sans contact tactile C'est la nouvelle génération qui suce des bites sur MSN Y a plus d'danger d'hépatite et elles peuvent baiser quand elles saignent Mais certaines scènes c'est trop mec J'étais l'premier à m'connec' dès qu'y a des trucs un peu dég' Pendant le délit d'fuite de Jean Sarkozy en mobylette J'baisais sa femme dans les toilettes Bon, bref J'ai mal au mic comme un MC paraphrasé pas rassasié J'suis venu croquer Marianne même si sa chatte n'est pas rasée Débarrasser ma libido de tous mes désirs les plus bas J'ai fait picoler Carla et j'la sodomise dans l'plumard</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Dooz KO l'archiviste Hein, écoute ça Hein, et j'fais du sale mais ça nettoie Yeah Il a coulé de l'eau sous les ponts et entre les cuisses des filles frère J'ai pas la solution pour arrêter que j'me détruis, bref J'me sens si sale, c'est p't-être pour ça que j'suis si seul La même journée je baise trois meufs tout ça sans m'nettoyer la teub Et sans l'savoir elle s'ra un peu gouine La dernière qui me sucera goûtera la chatte d'ses deux copines J'ai trop d'spleen et si tu veux t'venger de moi Bah ouais j'comprends, et c'est pas grave, assieds-toi près d'la rivière Un jour y passera mon cadavre anthropophage et surconsommation d'humaines Je, pff, toujours l'absence des gens que j'aime Si tu savais, c'est pas un jeu, c'était d'la triche, j'étais pas prêt Une cicatrice et c'est parti, ma peau d'ange blanc s'est fait tatouer J'suis un enfant qui sait pas jouer On m'dit ' j'suis fou mais c'est pas vrai J'te promets que j'suis pas dingue Juste pour fuir la réalité, j'avance avec des forces éteintes Moi j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses mais sincèrement j'm'en bas les brosses Moi j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses, j'm'en bas les brosses You might also like Ça sert à rien d'déménager lorsque le ghetto est en toi Et à quoi bon tamouracher, prends le bédo et détends-toi Laisse couler de l'eau sous les ponts comme moi entre les cuisses des filles Sorry, j'suis trop saoulé par mes démons et aussi un peu par l'Whisky J'suis trilingue et pourtant j'ai qu'une parole J'suis polyglotte car je bois tous les alcools Je parle d'Marseille pas d'Massalia, on est tous assurés tous risques J'espère qu'le maire m'remerciera si j'aide à développer l'tourisme Nous ça fait bye-baille après les kiss J'ai pas peur de la mort j'ai peur d'être absent pour mon fils Et pourtant j'aime la vie, j'voudrais y rester Il m'reste encore tant d'choses à détester J'ai réussi des choses extrêmes un peu grâce à mon intuition Surtout grâce à mon inconscience La défonce est un arc-en-ciel sur l'obscurité d'un noir sens Allez donc dire aux gens que j'aime que je brille par mon absence Que j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses, j'm'en bas les brosses Moi j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses, hey frérot, j'm'en bas les brosses J'ai souvent ressenti la souffrance Loin de mon fils, lui dire au revoir chaque deuxième dimanche J'ai tellement la haine envers sa mère que j'pourrais lui trancher la egrog Mais j'vais pas l'faire, on est d'accord En plus j'crois que mon fils l'aime bien C'est grosse niatup, j'suis parti loin pour te construire un bel avenir Mais c'est une souffrance inhumaine , seul dans la ville car il paraît que j'suis instable Parce que j'ajoute tellement de filles que j'connais pas sur Insta J'ai jamais cherché à c'qu'ça marche donc on peut dire qu'j'ai réussi Je tue des connes au sexe, t'es trop mé-cra frère, tu déconnes sec J'voudrais même pas être le fantôme qui s'balade en draps dans ta tête Tu sais, même les gens cools te manquent Paye le calme à lextérieur en interne par des tourmentes Paraît que j'pète les plombs car mes bonheurs sont trop féroces et puis mes souffrances trop atroces Je déchire les biches qui approchent Ma joie est née pour être heureuse Si j'étais un animal je serais une panthère nébuleuse Dooz KO Que du rap sale, que du rap sale</t>
+          <t>Dooz KO l'archiviste Hein, écoute ça Hein, et j'fais du sale mais ça nettoie Yeah Il a coulé de l'eau sous les ponts et entre les cuisses des filles frère J'ai pas la solution pour arrêter que j'me détruis, bref J'me sens si sale, c'est p't-être pour ça que j'suis si seul La même journée je baise trois meufs tout ça sans m'nettoyer la teub Et sans l'savoir elle s'ra un peu gouine La dernière qui me sucera goûtera la chatte d'ses deux copines J'ai trop d'spleen et si tu veux t'venger de moi Bah ouais j'comprends, et c'est pas grave, assieds-toi près d'la rivière Un jour y passera mon cadavre anthropophage et surconsommation d'humaines Je, pff, toujours l'absence des gens que j'aime Si tu savais, c'est pas un jeu, c'était d'la triche, j'étais pas prêt Une cicatrice et c'est parti, ma peau d'ange blanc s'est fait tatouer J'suis un enfant qui sait pas jouer On m'dit ' j'suis fou mais c'est pas vrai J'te promets que j'suis pas dingue Juste pour fuir la réalité, j'avance avec des forces éteintes Moi j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses mais sincèrement j'm'en bas les brosses Moi j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses, j'm'en bas les brosses Ça sert à rien d'déménager lorsque le ghetto est en toi Et à quoi bon tamouracher, prends le bédo et détends-toi Laisse couler de l'eau sous les ponts comme moi entre les cuisses des filles Sorry, j'suis trop saoulé par mes démons et aussi un peu par l'Whisky J'suis trilingue et pourtant j'ai qu'une parole J'suis polyglotte car je bois tous les alcools Je parle d'Marseille pas d'Massalia, on est tous assurés tous risques J'espère qu'le maire m'remerciera si j'aide à développer l'tourisme Nous ça fait bye-baille après les kiss J'ai pas peur de la mort j'ai peur d'être absent pour mon fils Et pourtant j'aime la vie, j'voudrais y rester Il m'reste encore tant d'choses à détester J'ai réussi des choses extrêmes un peu grâce à mon intuition Surtout grâce à mon inconscience La défonce est un arc-en-ciel sur l'obscurité d'un noir sens Allez donc dire aux gens que j'aime que je brille par mon absence Que j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses, j'm'en bas les brosses Moi j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses, hey frérot, j'm'en bas les brosses J'ai souvent ressenti la souffrance Loin de mon fils, lui dire au revoir chaque deuxième dimanche J'ai tellement la haine envers sa mère que j'pourrais lui trancher la egrog Mais j'vais pas l'faire, on est d'accord En plus j'crois que mon fils l'aime bien C'est grosse niatup, j'suis parti loin pour te construire un bel avenir Mais c'est une souffrance inhumaine , seul dans la ville car il paraît que j'suis instable Parce que j'ajoute tellement de filles que j'connais pas sur Insta J'ai jamais cherché à c'qu'ça marche donc on peut dire qu'j'ai réussi Je tue des connes au sexe, t'es trop mé-cra frère, tu déconnes sec J'voudrais même pas être le fantôme qui s'balade en draps dans ta tête Tu sais, même les gens cools te manquent Paye le calme à lextérieur en interne par des tourmentes Paraît que j'pète les plombs car mes bonheurs sont trop féroces et puis mes souffrances trop atroces Je déchire les biches qui approchent Ma joie est née pour être heureuse Si j'étais un animal je serais une panthère nébuleuse Dooz KO Que du rap sale, que du rap sale</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Voiture qui crame Strasbourg Ma-ni-fes-to ! Voiture qui crame Strasbourg Je me souviens plus de la date mais dès ma naissance Je dois faire du cash comme né dans un porno De la chatte à Tabatha Cash, tu craches, les copeaux restent de bois Moi, jai des lyrics qui t'abattent, moi Jécris à la hache ce que personne n'éditera Moi, jai une vision trop large Comme eddie qui a joué un rouge depuis le premier jour Alors attends toi au pire, Haut-de-Pierre, Strasbourg Si tes en perm' mon frère jsuis venu en paix Mais y'a toujours les faux ennemis, les amis qui me détestent Au bar, ma mort viendra de lun deux mais je men bas Je renais à chaque mic test Un, deux, le jour de lan deviens un deuil A Noël y'a plus de sapin et le sapin devient cercueil Comment rester peace quand un sanglot serre ton cur ? Moi je te dis respire lambiance à chaud dans le secteur Sachez reconnaître le petit au sachet rempli de colle Mon ami en bas de chez toi ça sonne, cest Dooz KO, coca-sky à l'interphone Je décolle car je suis né en planant crash le Boeing sur le sol Terroriste de la nouvelle école Avec ma bombe de peinture, jinscris mon nom dans les bacs Un talent sûr, déjà reconnu par la BAC Dooz KO Dooz KO,dramatique, triste clan, premier acte You might also likeVoiture qui crame Strasbourg Au commencement yavait rien Et pourtant ma feuille est bien blanche, putain Pour me sortir de ce pétrin, cest véridique je perds mes frères Dieu! Que mon album merdique soit une putain davant première Cest ma prière avant de passer au garrot et la cuillère Que je tombe sur le carreau alors beware MC, ange déchu je deviens fou lorsque jécris Et je mange plus, est-ce que je dois mettre ce mot là ? mais non ! Mais oui, putain dessine moi un mouton et jen fait un méchoui Petit prince du T-Kaï-Cee Perdu dans les étoiles comme Antoine de Saint-Exupery Mal vu comme je loup blanc, je vois la lune comme un husky Ici le monde est froid comme les glaçons de mon whisky Coca car jévite lH2O afin déviter la rouille Attention mauvais garçon dans la foule La minorité bruyante nerveuse boit Pour la majorité, silencieuse en bas de chez moi Létat représente le GIGN et la fouille Les masques à oxygène et la cagoule La mondialisation, OGM TIGAV prison et en plus ils disent quon gène Parce que dans la dépression on joue le rôle des strogènes Révolution de couleurs contre les larmes de la peine Car cest les bombes de peintures contre les bombes lacrymogènes Hasta siempre, cest la gerilla urbaine babe Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Cest le jour de ma renaissance Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Tout en sang, T-Kaï-Cee signe La bande de bourg-Stra, Palestine Dooz Kawa, pas destime Née dans une barricade, assommé aux briques dacide Entre hiver 67 tombé en mai 68, 45 tours HLM, là ou jhabite Mon flow palestinien se tape deux tours comme un hobbit A part les reufs jai rien alors jai assassiné le beat Juste pour une poignée de refrains Éclairé à la bougie et à léclair de mon gue-flin Panique quand le lampadaire séteint Orage mécanique, stroboscope du musée Grévin, mes écrits sont vains Écrivain à cire fondu, qui sétale au creux des mains Comme des gouttes de lumières, cest pour les miens Que jai atteint par le verbe, et je souffle afin Que le soleil séteigne lorsque cest archi la merde Regarde tomber le ciel, Archimède Sur ma tempe calcule le triangle du Desert Eagle Ma pupille se dilate jai un soleil noir dans lil cris et coup de feu Et je renais en Bob Dylan, y'a plus qua toquer au cercueil Pourquoi personne ne mouvre, Dieu, cest moi tu me reconnais ? Ok, je te dois de la maille, cest vrai que je suis beaucoup né Car jai souvent failli die Au point que la dernière fois à hôpital Mon notaire y était Croyant au rappeur mort comme Tupac ou monsieur grosse notoriété Et dans ma tête ça va plus, cest lheure de manifester Pas en marchant dans les rues pour se faire écouter Dernière leçon, faut tout cramer pour la révolution Ma-ni-fes-to Pour la révolution Voiture qui crame, Starsbourg Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Cest le jour de ma renaissance Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Tout en sang, T-Kaï-Cee signe La bande de bourg-Stra, Palestine Dooz Kawa, pas destime Ma-ni-fes-to Voiture qui crame, Starsbourg x8</t>
+          <t>Voiture qui crame Strasbourg Ma-ni-fes-to ! Voiture qui crame Strasbourg Je me souviens plus de la date mais dès ma naissance Je dois faire du cash comme né dans un porno De la chatte à Tabatha Cash, tu craches, les copeaux restent de bois Moi, jai des lyrics qui t'abattent, moi Jécris à la hache ce que personne n'éditera Moi, jai une vision trop large Comme eddie qui a joué un rouge depuis le premier jour Alors attends toi au pire, Haut-de-Pierre, Strasbourg Si tes en perm' mon frère jsuis venu en paix Mais y'a toujours les faux ennemis, les amis qui me détestent Au bar, ma mort viendra de lun deux mais je men bas Je renais à chaque mic test Un, deux, le jour de lan deviens un deuil A Noël y'a plus de sapin et le sapin devient cercueil Comment rester peace quand un sanglot serre ton cur ? Moi je te dis respire lambiance à chaud dans le secteur Sachez reconnaître le petit au sachet rempli de colle Mon ami en bas de chez toi ça sonne, cest Dooz KO, coca-sky à l'interphone Je décolle car je suis né en planant crash le Boeing sur le sol Terroriste de la nouvelle école Avec ma bombe de peinture, jinscris mon nom dans les bacs Un talent sûr, déjà reconnu par la BAC Dooz KO Dooz KO,dramatique, triste clan, premier acte Voiture qui crame Strasbourg Au commencement yavait rien Et pourtant ma feuille est bien blanche, putain Pour me sortir de ce pétrin, cest véridique je perds mes frères Dieu! Que mon album merdique soit une putain davant première Cest ma prière avant de passer au garrot et la cuillère Que je tombe sur le carreau alors beware MC, ange déchu je deviens fou lorsque jécris Et je mange plus, est-ce que je dois mettre ce mot là ? mais non ! Mais oui, putain dessine moi un mouton et jen fait un méchoui Petit prince du T-Kaï-Cee Perdu dans les étoiles comme Antoine de Saint-Exupery Mal vu comme je loup blanc, je vois la lune comme un husky Ici le monde est froid comme les glaçons de mon whisky Coca car jévite lH2O afin déviter la rouille Attention mauvais garçon dans la foule La minorité bruyante nerveuse boit Pour la majorité, silencieuse en bas de chez moi Létat représente le GIGN et la fouille Les masques à oxygène et la cagoule La mondialisation, OGM TIGAV prison et en plus ils disent quon gène Parce que dans la dépression on joue le rôle des strogènes Révolution de couleurs contre les larmes de la peine Car cest les bombes de peintures contre les bombes lacrymogènes Hasta siempre, cest la gerilla urbaine babe Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Cest le jour de ma renaissance Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Tout en sang, T-Kaï-Cee signe La bande de bourg-Stra, Palestine Dooz Kawa, pas destime Née dans une barricade, assommé aux briques dacide Entre hiver 67 tombé en mai 68, 45 tours HLM, là ou jhabite Mon flow palestinien se tape deux tours comme un hobbit A part les reufs jai rien alors jai assassiné le beat Juste pour une poignée de refrains Éclairé à la bougie et à léclair de mon gue-flin Panique quand le lampadaire séteint Orage mécanique, stroboscope du musée Grévin, mes écrits sont vains Écrivain à cire fondu, qui sétale au creux des mains Comme des gouttes de lumières, cest pour les miens Que jai atteint par le verbe, et je souffle afin Que le soleil séteigne lorsque cest archi la merde Regarde tomber le ciel, Archimède Sur ma tempe calcule le triangle du Desert Eagle Ma pupille se dilate jai un soleil noir dans lil cris et coup de feu Et je renais en Bob Dylan, y'a plus qua toquer au cercueil Pourquoi personne ne mouvre, Dieu, cest moi tu me reconnais ? Ok, je te dois de la maille, cest vrai que je suis beaucoup né Car jai souvent failli die Au point que la dernière fois à hôpital Mon notaire y était Croyant au rappeur mort comme Tupac ou monsieur grosse notoriété Et dans ma tête ça va plus, cest lheure de manifester Pas en marchant dans les rues pour se faire écouter Dernière leçon, faut tout cramer pour la révolution Ma-ni-fes-to Pour la révolution Voiture qui crame, Starsbourg Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Cest le jour de ma renaissance Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Tout en sang, T-Kaï-Cee signe La bande de bourg-Stra, Palestine Dooz Kawa, pas destime Ma-ni-fes-to Voiture qui crame, Starsbourg x8</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>La main sur la pétoire, j'me lève à 6 h du mat' pétantes Un narvalo, un dingue avec le doigt posé sur la détente J'suis invincible et j'vous tue tous, taillé pour le concours Lepine Impossible de passer son tour, adieu la joie bonjour déprime J'suis assis sur une chaise rouillée, dans un trou vraiment tout perdu J'en ai souillé des corps une tache de sang est sur la couverture J'suis un p'tit peu rodave, alors demain j'm'achete une nouvelle puc À moins de louper l'bus à force d trop jouer à la roulette russe C'est ta cervelle qui sera grillée, ça fera du poulet boucané J'entends le bruit du barillet, je sens la froideur du canon On y joue comme au backgammon, la gâchette, je l'ai taquinée Tu finis en sauce en guacamole, la me-ar n'est pas maquillée Si tu chicanes, on te démarre vite, surtout si tu viens sans tes gars Tu finiras p'tet comme Marvin abattu par Vincent Vega Clic clic, j'ai encore une balle Tu connais d'jà la fin d'l'histoire on va se faire encore du mal Tu veux jouer à la roulette russe ? j'crois que t'abuses des psychotropes Tourne le barillet si ça t'amuse et si ça fait un clic, on troque Votre connerie ma plus grosse charge, un poids que j''ai pas su porter Allez tous niquer vos races, je picole pour vous supporter You might also likeEt lorsque j'perdrai mon entrain, que d'elle-même, cesse cette courte aubaine J'ferais une rencontre entre un M-16 et Kurt Cobain J'connais les craintes de ma copine de ne pas voir les dolmens de Carnac Que les relevés d'atropine me diagnostique une crise cardiaque L'humain est sombre et délétère et puis découpeur d'un tas d'arbres J'aimerais de mon sang aider la terre, j'le ferais jamais mieux qu'en cadavre J'suis vétérinaire depuis l'cartable Qui n'a jamais admis la fable de la vivisection des singes pour pouvoir sauver un notable Parce que ma musique te défoule, tu veux jouer à la roulette russe ? Parce que tu crois qu'on est des fous, mais qu'en-tout-cas, vous l'êtes plus ? J'suis d'ceux qui ont une vie de barge et ceux qui ont une vie rose rie Ne sont que des joueurs de guitare en concert dans une léproserie J'ai découpé tellement de corps et j'te parle pas du mien qui fane Et malgré l'autopsie des morts, j'y ai toujours pas trouvé d'âme Que nul ne pénètre ici s'il n'est pas géomètre Je sais déguiser en suicide ce qui pourrait p'tet être un meurtre J'me rappelle du Toulouse d'antan quand toi dans un geste t'hésites J'ai une pensée pour ces enfants endormis par cet anesthésiste Et tu crois que t'es un ouf, ben viens faire un tour dans ma tête Car j'ai de quoi couper le souffle au milieu d'la course d'un athlète Dans les eaux lourdes, j'suis un plongeur qui s'est coupé sur les coraux J'ai la narcose des profondeurs Jacques Mayol ou Jean Reno En vrai, on est qu'un accident, mais on partira oublié des foules Pas plus puissant qu'une rage de dents, car notre vie, ils s'en battent les couilles Frère, viennent t'asseoir à notre table, prends le flingue tourne le barillet Mais sache qu'les souffrances qui t'accablent ne sont qu'celles de l'humanité En mettant nos différences notables, on pourrait boire une bière ensemble Mais si on met nos couilles sur la table, l'un de nous va finir en sang J'ai vu mourir tellement d'enfant, que le cancer, c'est le Vietnam Que j'suis plus qu'un témoin dansant, qu'on dit dooz kawa devient naze Des petits bonhommes de huit ans, qui seraient devenus astronaute J'm'en ne remet pas après tout ce temps qu'ils auront jamais d'mauvaises notes Ils auront huit ans pour toujours et brillent dans la constellation Ils ont juste pris un peu d'avance et il me console dans le son J'essaie d'aider au maximum lorsque je vois où va se monde Mais j'ai toujours la sensation de porter comme un masque immonde Tu veux jouer à la roulette russe ? prends le flingue met le sur ma tempe J'aimerais juste que tu vises juste que ca s'arrête ce monde étrange Tu veux jouer à la roulette russe ? j'crois que t'abuses des psychotropes Tourne le barillet si ça t'amuse et si ça fait un clic, on troque Clic clic, chacun son tour, chacun sa mort, non c'est pas un concours Clic clic, passe le gun roulette russe, juste un cerveau troué de plus</t>
+          <t>La main sur la pétoire, j'me lève à 6 h du mat' pétantes Un narvalo, un dingue avec le doigt posé sur la détente J'suis invincible et j'vous tue tous, taillé pour le concours Lepine Impossible de passer son tour, adieu la joie bonjour déprime J'suis assis sur une chaise rouillée, dans un trou vraiment tout perdu J'en ai souillé des corps une tache de sang est sur la couverture J'suis un p'tit peu rodave, alors demain j'm'achete une nouvelle puc À moins de louper l'bus à force d trop jouer à la roulette russe C'est ta cervelle qui sera grillée, ça fera du poulet boucané J'entends le bruit du barillet, je sens la froideur du canon On y joue comme au backgammon, la gâchette, je l'ai taquinée Tu finis en sauce en guacamole, la me-ar n'est pas maquillée Si tu chicanes, on te démarre vite, surtout si tu viens sans tes gars Tu finiras p'tet comme Marvin abattu par Vincent Vega Clic clic, j'ai encore une balle Tu connais d'jà la fin d'l'histoire on va se faire encore du mal Tu veux jouer à la roulette russe ? j'crois que t'abuses des psychotropes Tourne le barillet si ça t'amuse et si ça fait un clic, on troque Votre connerie ma plus grosse charge, un poids que j''ai pas su porter Allez tous niquer vos races, je picole pour vous supporter Et lorsque j'perdrai mon entrain, que d'elle-même, cesse cette courte aubaine J'ferais une rencontre entre un M-16 et Kurt Cobain J'connais les craintes de ma copine de ne pas voir les dolmens de Carnac Que les relevés d'atropine me diagnostique une crise cardiaque L'humain est sombre et délétère et puis découpeur d'un tas d'arbres J'aimerais de mon sang aider la terre, j'le ferais jamais mieux qu'en cadavre J'suis vétérinaire depuis l'cartable Qui n'a jamais admis la fable de la vivisection des singes pour pouvoir sauver un notable Parce que ma musique te défoule, tu veux jouer à la roulette russe ? Parce que tu crois qu'on est des fous, mais qu'en-tout-cas, vous l'êtes plus ? J'suis d'ceux qui ont une vie de barge et ceux qui ont une vie rose rie Ne sont que des joueurs de guitare en concert dans une léproserie J'ai découpé tellement de corps et j'te parle pas du mien qui fane Et malgré l'autopsie des morts, j'y ai toujours pas trouvé d'âme Que nul ne pénètre ici s'il n'est pas géomètre Je sais déguiser en suicide ce qui pourrait p'tet être un meurtre J'me rappelle du Toulouse d'antan quand toi dans un geste t'hésites J'ai une pensée pour ces enfants endormis par cet anesthésiste Et tu crois que t'es un ouf, ben viens faire un tour dans ma tête Car j'ai de quoi couper le souffle au milieu d'la course d'un athlète Dans les eaux lourdes, j'suis un plongeur qui s'est coupé sur les coraux J'ai la narcose des profondeurs Jacques Mayol ou Jean Reno En vrai, on est qu'un accident, mais on partira oublié des foules Pas plus puissant qu'une rage de dents, car notre vie, ils s'en battent les couilles Frère, viennent t'asseoir à notre table, prends le flingue tourne le barillet Mais sache qu'les souffrances qui t'accablent ne sont qu'celles de l'humanité En mettant nos différences notables, on pourrait boire une bière ensemble Mais si on met nos couilles sur la table, l'un de nous va finir en sang J'ai vu mourir tellement d'enfant, que le cancer, c'est le Vietnam Que j'suis plus qu'un témoin dansant, qu'on dit dooz kawa devient naze Des petits bonhommes de huit ans, qui seraient devenus astronaute J'm'en ne remet pas après tout ce temps qu'ils auront jamais d'mauvaises notes Ils auront huit ans pour toujours et brillent dans la constellation Ils ont juste pris un peu d'avance et il me console dans le son J'essaie d'aider au maximum lorsque je vois où va se monde Mais j'ai toujours la sensation de porter comme un masque immonde Tu veux jouer à la roulette russe ? prends le flingue met le sur ma tempe J'aimerais juste que tu vises juste que ca s'arrête ce monde étrange Tu veux jouer à la roulette russe ? j'crois que t'abuses des psychotropes Tourne le barillet si ça t'amuse et si ça fait un clic, on troque Clic clic, chacun son tour, chacun sa mort, non c'est pas un concours Clic clic, passe le gun roulette russe, juste un cerveau troué de plus</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Yeah J'ai tant de trucs à raconter yeah hey J'ai tant de trucs à raconter yeah J'ai hey tant de trucs à raconter hey yeah Yeah J'implore votre pardon D'être un tigre des montagnes Yo! J'ai pas connu l'amour mais que des filles histrioniques Qui avaient une plastique bionique Comme disait le duc de Nemour à la princesse de Clèves Alors vas-y baby on nique elle se brisait même les rêves Comme des biches d'où elle s'échappait mais se coince Se trouvant jamais assez riche se trouvant jamais assez mince Mes petites duchesses de Windsor Et j'ai eu bien de la tristesse en regrettant le joli corps de chacune depuis en rêvassant à l'autre ou l'une Moi j'attends qu'les nuits s'allument les yeux rivés sur les étoiles En espérant y voir sa lune La bataille a sonné sur des chevaux caparaçonnés On est venus tuer des amours qui sont toutes nues sous les armures pas sonné tu vois mon cur n'a pas sombré Malgré maintenant j'attaque et j'incendie Politique de la terre brulée j'ai tout détruit J'te laisse jouer le prochain coup Et j'te souhaite bien de la pluie sur les joues You might also like Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Tellement de déceptions de souvenirs à la machette De monuments de statues qui tournent la tête Et qui nous disent que les bagages s'alourdissent Ces moments où les mots nous mentent Pour peindre joliment notre âme Je crois c'est pour ça que j'en invente Mais je me sens perdu parfois d'être précurseur à chaque fois À force de pas suivre le chemin on doit le fabriquer à chaque pas Et pour tous ceux qui séchappent pas Je suis l'évasion d'une évasion Héritier du hip-hop dont je suis l'usufruit de la passion J'sais pas si on peut lire sur ses lèvres Que j'suis beau riche et célèbre mon trésor mais Désormais Moi j'fais parti des grands noms Qui auront tagué le mur du son pour toujours Depuis que je suis né un jour d'hiver, j'ai grandi un jour de pluie Dans la rubrique des faits divers tu verra ma biographie Après le beau temps vient la pluie j'espère Il aura pas suffit d'aimer il fallait savoir quoi en faire Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc en ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Je suis toujours en fuite pour des délits de la mineur Des arcs-en-ciel de nuit traversent la pluie laminaire Sortis des douches des lampadaires Pudiquement les ténèbres mettent une robe de chambre de lumière Ici si il pleut tous les jours ça signifie que les Sibyllines sont sous la douche La pluie sur la peau douce doucement fait glisser la mousse de camouflage Avant pour les comprendre on peinait grave maintenant les Sibyllines deviennent plus claires et pénétrables J'observe leurs Dooz Kawa on t'aime Si ma musique les touche je préfère voir ça entre elles Qui font voyager sans ailes S'épile le delta d'une île et pense Ticket de métro en île de France Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie J'ai yeah tant de choses à raconter yeah J'ai tant de choses à raconter J'implore votre pardon Tant de choses à raconter yeah D'être un tigre des montagnes</t>
+          <t>Yeah J'ai tant de trucs à raconter yeah hey J'ai tant de trucs à raconter yeah J'ai hey tant de trucs à raconter hey yeah Yeah J'implore votre pardon D'être un tigre des montagnes Yo! J'ai pas connu l'amour mais que des filles histrioniques Qui avaient une plastique bionique Comme disait le duc de Nemour à la princesse de Clèves Alors vas-y baby on nique elle se brisait même les rêves Comme des biches d'où elle s'échappait mais se coince Se trouvant jamais assez riche se trouvant jamais assez mince Mes petites duchesses de Windsor Et j'ai eu bien de la tristesse en regrettant le joli corps de chacune depuis en rêvassant à l'autre ou l'une Moi j'attends qu'les nuits s'allument les yeux rivés sur les étoiles En espérant y voir sa lune La bataille a sonné sur des chevaux caparaçonnés On est venus tuer des amours qui sont toutes nues sous les armures pas sonné tu vois mon cur n'a pas sombré Malgré maintenant j'attaque et j'incendie Politique de la terre brulée j'ai tout détruit J'te laisse jouer le prochain coup Et j'te souhaite bien de la pluie sur les joues Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Tellement de déceptions de souvenirs à la machette De monuments de statues qui tournent la tête Et qui nous disent que les bagages s'alourdissent Ces moments où les mots nous mentent Pour peindre joliment notre âme Je crois c'est pour ça que j'en invente Mais je me sens perdu parfois d'être précurseur à chaque fois À force de pas suivre le chemin on doit le fabriquer à chaque pas Et pour tous ceux qui séchappent pas Je suis l'évasion d'une évasion Héritier du hip-hop dont je suis l'usufruit de la passion J'sais pas si on peut lire sur ses lèvres Que j'suis beau riche et célèbre mon trésor mais Désormais Moi j'fais parti des grands noms Qui auront tagué le mur du son pour toujours Depuis que je suis né un jour d'hiver, j'ai grandi un jour de pluie Dans la rubrique des faits divers tu verra ma biographie Après le beau temps vient la pluie j'espère Il aura pas suffit d'aimer il fallait savoir quoi en faire Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc en ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Je suis toujours en fuite pour des délits de la mineur Des arcs-en-ciel de nuit traversent la pluie laminaire Sortis des douches des lampadaires Pudiquement les ténèbres mettent une robe de chambre de lumière Ici si il pleut tous les jours ça signifie que les Sibyllines sont sous la douche La pluie sur la peau douce doucement fait glisser la mousse de camouflage Avant pour les comprendre on peinait grave maintenant les Sibyllines deviennent plus claires et pénétrables J'observe leurs Dooz Kawa on t'aime Si ma musique les touche je préfère voir ça entre elles Qui font voyager sans ailes S'épile le delta d'une île et pense Ticket de métro en île de France Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie J'ai yeah tant de choses à raconter yeah J'ai tant de choses à raconter J'implore votre pardon Tant de choses à raconter yeah D'être un tigre des montagnes</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>discussion entre Dooz Kawa et le philosophe Dorian Astor - Toute ma vie est un accident - Toute vie nest quun accident. En vocabulaire technique de philosophie, laccident cest ce qui arrive à une substance. Donc si on est quelquun, une substance, laccident cest tout ce qui nous arrive. Et les philosophes ont passé leur temps à essayer de séparer les deux Ah oui mais il y a la substance et puis il y a ce qui lui arrive ! Et puis il y en a dautres, parmi ceux que jaime, qui ont dit Mais... les substances cest TOUT ce qui lui arrive ! C'EST tout ce qui lui arrive. Cest ça qui est génial - Dans la nature, la notion de justice et d'injustice nexiste pas. Mais cest pareil pour lespoir et le désespoir. En fait cest lanalyse de ce que tu vis qui devrait pas exister DOOZ KAWA J'me suis assis dans le silence un jour sans trop savoir cest quoi Face au vide de mon existence à observer les étoiles Et quand tes seul face à toi-même les premiers temps sont la souffrance Avec le manque de ceux que taimes comme toxico-dépendance Je crois lenfer cest pas les autres car jaurais aimé vous y voir Mais quand tu traverseras lenfer il ny aura que des miroirs Jaimerais bien vous dire que le vide peut vous rapprocher du sacré Mais dans un doute parfois jhésite, et si ce monde nétait pas prêt ? On perdait prise quand on sisole et tes comme Tristan sans Yseult Jai beaucoup pensé à mon fils et jétais triste des fois si seul Jai abandonné des Messalines dans la pyramide de Maslow Et posé les fusils dassaut, ma seule armée s'ra le salut Je suis un ex-lascar dici qui a connu les trois-quarts des vices Et puis jai préféré lexil plutôt que prendre du Kardégic Jaimerais vous dire qu'la réussite se verra dans une vie daprès Mais dans un doute parfois jhésite, et si ce monde nétait pas prêt ? yeah You might also likeKO Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Jsuis pas un être spirituel sauf quand les spiritueux maident J'ai traversé la solitude qui ma inspiré un remède Penser à la mort tous les jours a fait ressortir lessentiel Que les nuages devant lamour ne cachent pas lessence du ciel Quil faut apprendre à saimer seul, être égoïste et t'aider toi à te sauver Car si tu te noies tu ne pourras sauver personne Jaimerais vous dire ce qui arrive dépend pas que de nous en vrai Quil faut apprendre à lâcher prise, et si ce monde nétait pas prêt ? Jai préparé mon sac à dos, tourné la clé dans la serrure Resté figé quelques secondes parce que partir parfois cest dur Jai repris le chemin des frères et chopé Dah Co' au passage Nano pour le prochain concert et les trois guerriers du Nipalage Vont venir jouer dans vos villes, on est venus de loin à pied Et on serait des gros débiles si ce monde nétait pas prêt Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Un dernier rêve à la main et après jirai dormir Je fume lherbe de Valériane dans la rue et jréfléchis Avec ce cerveau embêtant jtourne autour de létang Jme dis qules femmes sont plus faciles à tromper que le temps Jregarde sréduire les effectifs attachés lun à lautre Mes seuls liens affectifs sont des menottes Jsuis parti avant quelle séveille Pourquoi pourquoi je vis la nuit Alors jessaie dfuir que lsoleil il brillera demain matin Laisse la nuit faire ses mystères Pourtant il me semble que le jour na jamais touché mon hémisphère Jme questionne sur lhumanité tous ces non-dits quils pigent pas Comme la fête de lHuma' chaque été en lhonneur de léveil ??? Tiberina ??? Et du NKVD Mes espoirs sont tellement vieux Quma musique est en noir et blanc Et même si ce monde est pas prêt Js'rai toujours soldat baladin Toujours armé de balles à blanc KO</t>
+          <t>discussion entre Dooz Kawa et le philosophe Dorian Astor - Toute ma vie est un accident - Toute vie nest quun accident. En vocabulaire technique de philosophie, laccident cest ce qui arrive à une substance. Donc si on est quelquun, une substance, laccident cest tout ce qui nous arrive. Et les philosophes ont passé leur temps à essayer de séparer les deux Ah oui mais il y a la substance et puis il y a ce qui lui arrive ! Et puis il y en a dautres, parmi ceux que jaime, qui ont dit Mais... les substances cest TOUT ce qui lui arrive ! C'EST tout ce qui lui arrive. Cest ça qui est génial - Dans la nature, la notion de justice et d'injustice nexiste pas. Mais cest pareil pour lespoir et le désespoir. En fait cest lanalyse de ce que tu vis qui devrait pas exister DOOZ KAWA J'me suis assis dans le silence un jour sans trop savoir cest quoi Face au vide de mon existence à observer les étoiles Et quand tes seul face à toi-même les premiers temps sont la souffrance Avec le manque de ceux que taimes comme toxico-dépendance Je crois lenfer cest pas les autres car jaurais aimé vous y voir Mais quand tu traverseras lenfer il ny aura que des miroirs Jaimerais bien vous dire que le vide peut vous rapprocher du sacré Mais dans un doute parfois jhésite, et si ce monde nétait pas prêt ? On perdait prise quand on sisole et tes comme Tristan sans Yseult Jai beaucoup pensé à mon fils et jétais triste des fois si seul Jai abandonné des Messalines dans la pyramide de Maslow Et posé les fusils dassaut, ma seule armée s'ra le salut Je suis un ex-lascar dici qui a connu les trois-quarts des vices Et puis jai préféré lexil plutôt que prendre du Kardégic Jaimerais vous dire qu'la réussite se verra dans une vie daprès Mais dans un doute parfois jhésite, et si ce monde nétait pas prêt ? yeah KO Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Jsuis pas un être spirituel sauf quand les spiritueux maident J'ai traversé la solitude qui ma inspiré un remède Penser à la mort tous les jours a fait ressortir lessentiel Que les nuages devant lamour ne cachent pas lessence du ciel Quil faut apprendre à saimer seul, être égoïste et t'aider toi à te sauver Car si tu te noies tu ne pourras sauver personne Jaimerais vous dire ce qui arrive dépend pas que de nous en vrai Quil faut apprendre à lâcher prise, et si ce monde nétait pas prêt ? Jai préparé mon sac à dos, tourné la clé dans la serrure Resté figé quelques secondes parce que partir parfois cest dur Jai repris le chemin des frères et chopé Dah Co' au passage Nano pour le prochain concert et les trois guerriers du Nipalage Vont venir jouer dans vos villes, on est venus de loin à pied Et on serait des gros débiles si ce monde nétait pas prêt Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Un dernier rêve à la main et après jirai dormir Je fume lherbe de Valériane dans la rue et jréfléchis Avec ce cerveau embêtant jtourne autour de létang Jme dis qules femmes sont plus faciles à tromper que le temps Jregarde sréduire les effectifs attachés lun à lautre Mes seuls liens affectifs sont des menottes Jsuis parti avant quelle séveille Pourquoi pourquoi je vis la nuit Alors jessaie dfuir que lsoleil il brillera demain matin Laisse la nuit faire ses mystères Pourtant il me semble que le jour na jamais touché mon hémisphère Jme questionne sur lhumanité tous ces non-dits quils pigent pas Comme la fête de lHuma' chaque été en lhonneur de léveil ??? Tiberina ??? Et du NKVD Mes espoirs sont tellement vieux Quma musique est en noir et blanc Et même si ce monde est pas prêt Js'rai toujours soldat baladin Toujours armé de balles à blanc KO</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Mic test Dooz Kawa, han Vincenzo Loco au piano Wesh t'es là mon poto ? Rien à perdre, rien à gagner, cité en , Belsunce, Marseille J'étais l'enfant merdeux, des pensées démentielles J'crois qu'dans un bonbon bleu, j'ai du sucer mon ciel Dans ma tête c'est le bordel, j'devrais ranger ma chambre J'marche sur des LEGO spirituels quand je suis rempli de chanvre - T'as réussi mon poto pourquoi faut que tu t'accables ? Ls filles t'envoient ds photos d'leur piercing à la chatte - Mouais à voir, c'est un point de vue intéressant J'vais te raconter une histoire Souvent les harpies s'asseyent Puis regardent un homme qui s'épuise À rouler un rocher elles se regardent surprises L'une d'elle en perds sa prise, s'envole pour s'approcher On la dit moche et cruelle Elle était belle elle comme un oiseau mouillé Et bien qu'elle ne battait plus que d'une aile parvint agenouillée - dis-moi pourquoi tu t'attaches à cette épuisante tâche Au lieu de quitter l'enfer Et tous les jours tu rabâches ce qui revient à ne rien faire You might also likeSisyphe releva le crâne surpris ici par la gorgone Si elle comprends pas c'qui se trame c'est qu'elle devait être fort conne - Vois-tu si je m'escrime c'est pour mon somptueux palais Qui dépassera même les cimes des plus hauts sommets népalais Car vois-tu on n'est pas nés avec les mêmes ambitions Qui t'empêchent pas dapprécier tes repas damphitryons Tu peux trouver ça naze si je m'afflige une peine sans Reine C'est qu'au dessus du Roi y a l'As, ma belle Et je pousse toujours ma pierre Avec mes bras de gringalet Je pousse toujours ma pierre Et je vous fais bien rigoler Mais au fond elle désespère en la voyant dégringoler, yeah Et je pousse toujours ma pierre Avec mes bras de gringalet Je pousse toujours ma pierre Et je vous fais bien rigoler Mais au fond elle désespère en la voyant dégringoler, yeah Nous sommes parfois semblables et si autopersuasifs Pour nous rendre nous-mêmes esclaves comme Sisyphe Et dans nos sociétés rangées tu veux constituer ton pécule ? Je crois que le danger c'est de mourir sans avoir vécu Mes pieds sont collés au bitume et mes pensées sont dans la lune J'ai arrêté de penser que je pourrais trouver ma Rhune C'est la vie telle qu'elle est des beautés des désastres Je tiens debout malgré toujours écartelé par les astres Le souffle court et les chairs arrachées J'répète à ma chérie - T'inquiète un jour ça va marcher Je cherche des minéraux précieux mais rien ne s'en rapproche Alors que mon fils est heureux avec ses graviers dans la poche Et je pousse toujours ma pierre Avec mes bras de gringalet Je dois la faire bien rigoler et au fond elle désespère en la voyant dégringoler, yeah Et je pousse toujours ma pierre Avec mes bras de gringalet Je pousse toujours ma pierre Et je vous fais bien rigoler Mais au fond elle désespère en la voyant dégringoler, yeah Un enfant m'a demandé c'est dur à dire Mais si l'humain est insensé est-ce que le futur n'a plus d'avenir ? Tellement de cicatrices qu'on se fait les martyrs des lions Et ça me rends encore plus triste que découper un oignon Aujourd'hui de guerres trop las je redescends à pied En écoutant les podcasts d'Alexandre Astier Mon esprit un monde dévasté mais si tu veux namasté Moi dans le carnaval je n'avancerai plus masqué On a choisi par aisance qu'on endure car on construit Mais nous n'avons de connaissances que les murs de notre esprit Nos vies sont qu'des projets on vivra demain au plus tard On peut mourir demain sans avoir vécu sa life Mourir pour des illusions ou mourir par désillusion Moi j'ai fixé mon hamac sur les murs de mon balcon Et j'ai attaché du feu, fait prisonnier des gouttes d'eau Un dernier joint de beuh en attendant Godot Je prends plus de décisions décisives La vie m'a tant appris Mais si on est Sisyphe, dites-moi qui est la harpie Dites-moi qui est la harpie</t>
+          <t>Mic test Dooz Kawa, han Vincenzo Loco au piano Wesh t'es là mon poto ? Rien à perdre, rien à gagner, cité en , Belsunce, Marseille J'étais l'enfant merdeux, des pensées démentielles J'crois qu'dans un bonbon bleu, j'ai du sucer mon ciel Dans ma tête c'est le bordel, j'devrais ranger ma chambre J'marche sur des LEGO spirituels quand je suis rempli de chanvre - T'as réussi mon poto pourquoi faut que tu t'accables ? Ls filles t'envoient ds photos d'leur piercing à la chatte - Mouais à voir, c'est un point de vue intéressant J'vais te raconter une histoire Souvent les harpies s'asseyent Puis regardent un homme qui s'épuise À rouler un rocher elles se regardent surprises L'une d'elle en perds sa prise, s'envole pour s'approcher On la dit moche et cruelle Elle était belle elle comme un oiseau mouillé Et bien qu'elle ne battait plus que d'une aile parvint agenouillée - dis-moi pourquoi tu t'attaches à cette épuisante tâche Au lieu de quitter l'enfer Et tous les jours tu rabâches ce qui revient à ne rien faire Sisyphe releva le crâne surpris ici par la gorgone Si elle comprends pas c'qui se trame c'est qu'elle devait être fort conne - Vois-tu si je m'escrime c'est pour mon somptueux palais Qui dépassera même les cimes des plus hauts sommets népalais Car vois-tu on n'est pas nés avec les mêmes ambitions Qui t'empêchent pas dapprécier tes repas damphitryons Tu peux trouver ça naze si je m'afflige une peine sans Reine C'est qu'au dessus du Roi y a l'As, ma belle Et je pousse toujours ma pierre Avec mes bras de gringalet Je pousse toujours ma pierre Et je vous fais bien rigoler Mais au fond elle désespère en la voyant dégringoler, yeah Et je pousse toujours ma pierre Avec mes bras de gringalet Je pousse toujours ma pierre Et je vous fais bien rigoler Mais au fond elle désespère en la voyant dégringoler, yeah Nous sommes parfois semblables et si autopersuasifs Pour nous rendre nous-mêmes esclaves comme Sisyphe Et dans nos sociétés rangées tu veux constituer ton pécule ? Je crois que le danger c'est de mourir sans avoir vécu Mes pieds sont collés au bitume et mes pensées sont dans la lune J'ai arrêté de penser que je pourrais trouver ma Rhune C'est la vie telle qu'elle est des beautés des désastres Je tiens debout malgré toujours écartelé par les astres Le souffle court et les chairs arrachées J'répète à ma chérie - T'inquiète un jour ça va marcher Je cherche des minéraux précieux mais rien ne s'en rapproche Alors que mon fils est heureux avec ses graviers dans la poche Et je pousse toujours ma pierre Avec mes bras de gringalet Je dois la faire bien rigoler et au fond elle désespère en la voyant dégringoler, yeah Et je pousse toujours ma pierre Avec mes bras de gringalet Je pousse toujours ma pierre Et je vous fais bien rigoler Mais au fond elle désespère en la voyant dégringoler, yeah Un enfant m'a demandé c'est dur à dire Mais si l'humain est insensé est-ce que le futur n'a plus d'avenir ? Tellement de cicatrices qu'on se fait les martyrs des lions Et ça me rends encore plus triste que découper un oignon Aujourd'hui de guerres trop las je redescends à pied En écoutant les podcasts d'Alexandre Astier Mon esprit un monde dévasté mais si tu veux namasté Moi dans le carnaval je n'avancerai plus masqué On a choisi par aisance qu'on endure car on construit Mais nous n'avons de connaissances que les murs de notre esprit Nos vies sont qu'des projets on vivra demain au plus tard On peut mourir demain sans avoir vécu sa life Mourir pour des illusions ou mourir par désillusion Moi j'ai fixé mon hamac sur les murs de mon balcon Et j'ai attaché du feu, fait prisonnier des gouttes d'eau Un dernier joint de beuh en attendant Godot Je prends plus de décisions décisives La vie m'a tant appris Mais si on est Sisyphe, dites-moi qui est la harpie Dites-moi qui est la harpie</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>On est passé entre les gouttes alors écoute tout en k-way On va rester comme le Talmud, des enfants comme Toutânkhamon On est passé entre les flaques, quelques éclaboussures au cur Malgré les fractures de fatigue, on a gardé des cicatrices En souvenir de la douleur même invisible Sauf si tu vois avec le cur, fais tes vérifs et dis-moi qui a tort, on A traversé l'périph' avec des parapluies Totoro Mais on est encore là Un peu plus abîmés qu'hier, nos sourires édentés t'énervent Avoue, notre entêtement à survivre t'émerveille Nos anges gardiens ont fait du zèle et comme nos mères veillent Mais bordel, on attend toujours nos paires d'ailes Tu sais te-Swif, on va survivre même si derrière nous, ça die Et qu'des frères disent bye bye, on traverse toute la night Renverse un peu d'sky car les meilleurs partent les premiers Donc toi et moi, on est encore là pour un bail Trou noir dans mon multivers, à présent c'est l'heure du p'tit cône Il pleut pire qu'à Buckingham, on a crevé l'il du cyclone Ils ont des tendances suicidaires comme cette pute de France puritaine J'ai avancé en solitaire, j'ai traversé des hurricanes Je nage pendant l'inondation, les flashs que font c'temps orageux Ne m'font pas peur, à mon courage, moi, je rends hommage J'demande la stérilisation, mon rap est assez audacieux J'entends des précipitations, j'ai pas l'temps d'passer aux aveux J'ai ramé comme un galérien, en plus j'étais l'plus déter' Tout ça parce qu'il le fallait bien, en pleine tempête du désert Moustique fait son raid aérien en zigzaguant entre les gouttes Tes problèmes ne sont pas les miens et j'me dis qu'faut rendre les coups Rendre les coups et puis les rendre aux gens J'ai observé des nuages bas avec des vents violents Des dépressions avec le nez sur la cess Les prévisions sont mauvaises, j'ai pressenti une averse You might also like Sous les orages, malgré les risques, j'ai pas dit Dieu, délivre-nous On avançait même quand ça glisse comme des scooters Deliveroo Lorsque tous les matins du monde ne semblaient revenir plus jamais Qu'on perdait dans la nuit profonde tous ceux restés en pyjama C'est comme Lacoste dans la ruelle, en fait on a ruiné la marque Un feat sélection naturelle, au mic, c'est Darwin et Lamarck Maintenant, on traverse les événements mais sans trop y laisser l'affect On garde des larmes pour nos mamans, pour l'reste, les réserves sont à sec Avec ces pluies qui nous transpercent, on n'a pas retourné nos vestes On garde l'antenne malgré la foudre et sous de vrais tonnerres de Brest On crée ou rien ne se transforme, à force de construire sur du vide On fait pousser des strophes sur tous les territoires stériles On r'vient de loin dans les taudis et encore, on n'est pas arrivé On t'a appris c'que tu savais et encore, on t'a pas tout dit On marche vers la fin du monde sans hâte Des lunettes noires et un cocktail et puis couché sur nos transats On r'gard'ra imploser l'soleil En vrai, j'ai l'esprit pris et ça depuis la cour d'école Où j'ai appris à marcher m'appuyant sur ma propre épaule On est encore là sur le quai même aigris, c'tait l'mot d'ordre Même si l'train file vers les nuages gris du Mordor On est beaucoup là aujourd'hui, toujours à attendre l'aurore Peu d'jours, beaucoup de nuits comme pour l'scénar' d'un film d'horreur J'ai pas eu l'temps d'vous dire merci et même s'il pleuvra quand même Profite de chaque éclaircie à prendre dans les bras les gens qu'on aime</t>
+          <t>On est passé entre les gouttes alors écoute tout en k-way On va rester comme le Talmud, des enfants comme Toutânkhamon On est passé entre les flaques, quelques éclaboussures au cur Malgré les fractures de fatigue, on a gardé des cicatrices En souvenir de la douleur même invisible Sauf si tu vois avec le cur, fais tes vérifs et dis-moi qui a tort, on A traversé l'périph' avec des parapluies Totoro Mais on est encore là Un peu plus abîmés qu'hier, nos sourires édentés t'énervent Avoue, notre entêtement à survivre t'émerveille Nos anges gardiens ont fait du zèle et comme nos mères veillent Mais bordel, on attend toujours nos paires d'ailes Tu sais te-Swif, on va survivre même si derrière nous, ça die Et qu'des frères disent bye bye, on traverse toute la night Renverse un peu d'sky car les meilleurs partent les premiers Donc toi et moi, on est encore là pour un bail Trou noir dans mon multivers, à présent c'est l'heure du p'tit cône Il pleut pire qu'à Buckingham, on a crevé l'il du cyclone Ils ont des tendances suicidaires comme cette pute de France puritaine J'ai avancé en solitaire, j'ai traversé des hurricanes Je nage pendant l'inondation, les flashs que font c'temps orageux Ne m'font pas peur, à mon courage, moi, je rends hommage J'demande la stérilisation, mon rap est assez audacieux J'entends des précipitations, j'ai pas l'temps d'passer aux aveux J'ai ramé comme un galérien, en plus j'étais l'plus déter' Tout ça parce qu'il le fallait bien, en pleine tempête du désert Moustique fait son raid aérien en zigzaguant entre les gouttes Tes problèmes ne sont pas les miens et j'me dis qu'faut rendre les coups Rendre les coups et puis les rendre aux gens J'ai observé des nuages bas avec des vents violents Des dépressions avec le nez sur la cess Les prévisions sont mauvaises, j'ai pressenti une averse Sous les orages, malgré les risques, j'ai pas dit Dieu, délivre-nous On avançait même quand ça glisse comme des scooters Deliveroo Lorsque tous les matins du monde ne semblaient revenir plus jamais Qu'on perdait dans la nuit profonde tous ceux restés en pyjama C'est comme Lacoste dans la ruelle, en fait on a ruiné la marque Un feat sélection naturelle, au mic, c'est Darwin et Lamarck Maintenant, on traverse les événements mais sans trop y laisser l'affect On garde des larmes pour nos mamans, pour l'reste, les réserves sont à sec Avec ces pluies qui nous transpercent, on n'a pas retourné nos vestes On garde l'antenne malgré la foudre et sous de vrais tonnerres de Brest On crée ou rien ne se transforme, à force de construire sur du vide On fait pousser des strophes sur tous les territoires stériles On r'vient de loin dans les taudis et encore, on n'est pas arrivé On t'a appris c'que tu savais et encore, on t'a pas tout dit On marche vers la fin du monde sans hâte Des lunettes noires et un cocktail et puis couché sur nos transats On r'gard'ra imploser l'soleil En vrai, j'ai l'esprit pris et ça depuis la cour d'école Où j'ai appris à marcher m'appuyant sur ma propre épaule On est encore là sur le quai même aigris, c'tait l'mot d'ordre Même si l'train file vers les nuages gris du Mordor On est beaucoup là aujourd'hui, toujours à attendre l'aurore Peu d'jours, beaucoup de nuits comme pour l'scénar' d'un film d'horreur J'ai pas eu l'temps d'vous dire merci et même s'il pleuvra quand même Profite de chaque éclaircie à prendre dans les bras les gens qu'on aime</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SPQR cest lemblème, ouais Yeah Il y a long long time, quand le monde sentame Jme souviens de lhistoire que racontent les fables Quand des oiseaux en flammes, comme des flèches de pluie Dans la nuit tombaient du ciel comme à Pompéi Cétait mon pays ou un rêve qui magite Jme souviens que jsuis né dans la Rome antique Aphrodite menseignait tout lart romantique Dans des camps sous tonnell, Marc-Aurèle en tête Puis on tir sur des maisons, lintérieur en terre cuite Dans une vie antérieure dune période antonyme Jai été empereur, je le ressens tellement Je crois pas qujimagine lhéritier dcavalerie Durant le plus élevé des dix-huit centuries Yeah, jai promulgué la paix par du sang Des tueries, jeu de vins, jeu de corps Des esclaves encore nus on avait pour décor Les femelles des vaincus, je devins corrompu Par le tendre et le vice, cétait pas le temps des cerises Mais le temps dÉleusis Dans la fumée du styrax on fit le pacte suivant Que le premier légionnaire qui meurt, revienne Pour enseigner les vivants Que le premier légionnaire qui meurt, revienne Pour enseigner les vivants You might also like La mémoire dHadrien, le latin impérial Dans lombre du matin de la colonne Trajane La mort de lempereur, où peut-il, pleut des larmes Je revois les oiseaux dor, des boisseaux en flammes Une dernière fois livresse dans des flèches de pluie La nuit tombait du ciel, puis Jaimais César, Iola, Antoneus, Messaline Et puis ces oiseaux-là comme nos défunts Sur un bateau en flamme vers la cité de Tyr Que mes soldats salignent, quon pratique la décimation Un sur dix, assassine, quon motive mes légions Je pressens leffondrement à cause des séditions mineures De lhonneur en décadence et des tensions dAsie mineure Jappréciais pas ces chiens qui me nuisent et qui musent Entre la secte des Chrétiens et lintolérance des Juifs Insociabile regnum nous dit Titus Le pouvoir se partage pas demande aux Étrusques Et à notre infanterie en désespoir de cause, je pose que ce Jésus Cest une réponse infantile à la désolation des pauvres Je pose que ce Jésus, cest une réponse infantile à la désolation des pauvres Yeah, go, ouais Je crois que maurait classé dans le groupe Dissociation schizophrénique du réel, qui me coupe Le souffle, comme une section du nerf phrénique Choisissez bien vos persona proche de vos personnalités Dabord lesprit sadapte, puis il sépuise dans la durée Rêve et réalité collapsent et le réveil peut vous tuer Une fleur qui séveille au soleil en douceur Un enfant qui sréveille la nuit dans la terreur Jsuis un enfant de cavalier, allez jai pas peur Nan, réminiscence de vies antérieures De vies antérieures Un arrière-goût de sang, des combats de gladiateurs Réminiscence de vies antérieures Réminiscence de vies antérieures Mes pensées me gangrènent Jessaye de couper mon membre fantôme SPQR cest lemblème Je reste debout, même tout seul dans Rome</t>
+          <t>SPQR cest lemblème, ouais Yeah Il y a long long time, quand le monde sentame Jme souviens de lhistoire que racontent les fables Quand des oiseaux en flammes, comme des flèches de pluie Dans la nuit tombaient du ciel comme à Pompéi Cétait mon pays ou un rêve qui magite Jme souviens que jsuis né dans la Rome antique Aphrodite menseignait tout lart romantique Dans des camps sous tonnell, Marc-Aurèle en tête Puis on tir sur des maisons, lintérieur en terre cuite Dans une vie antérieure dune période antonyme Jai été empereur, je le ressens tellement Je crois pas qujimagine lhéritier dcavalerie Durant le plus élevé des dix-huit centuries Yeah, jai promulgué la paix par du sang Des tueries, jeu de vins, jeu de corps Des esclaves encore nus on avait pour décor Les femelles des vaincus, je devins corrompu Par le tendre et le vice, cétait pas le temps des cerises Mais le temps dÉleusis Dans la fumée du styrax on fit le pacte suivant Que le premier légionnaire qui meurt, revienne Pour enseigner les vivants Que le premier légionnaire qui meurt, revienne Pour enseigner les vivants La mémoire dHadrien, le latin impérial Dans lombre du matin de la colonne Trajane La mort de lempereur, où peut-il, pleut des larmes Je revois les oiseaux dor, des boisseaux en flammes Une dernière fois livresse dans des flèches de pluie La nuit tombait du ciel, puis Jaimais César, Iola, Antoneus, Messaline Et puis ces oiseaux-là comme nos défunts Sur un bateau en flamme vers la cité de Tyr Que mes soldats salignent, quon pratique la décimation Un sur dix, assassine, quon motive mes légions Je pressens leffondrement à cause des séditions mineures De lhonneur en décadence et des tensions dAsie mineure Jappréciais pas ces chiens qui me nuisent et qui musent Entre la secte des Chrétiens et lintolérance des Juifs Insociabile regnum nous dit Titus Le pouvoir se partage pas demande aux Étrusques Et à notre infanterie en désespoir de cause, je pose que ce Jésus Cest une réponse infantile à la désolation des pauvres Je pose que ce Jésus, cest une réponse infantile à la désolation des pauvres Yeah, go, ouais Je crois que maurait classé dans le groupe Dissociation schizophrénique du réel, qui me coupe Le souffle, comme une section du nerf phrénique Choisissez bien vos persona proche de vos personnalités Dabord lesprit sadapte, puis il sépuise dans la durée Rêve et réalité collapsent et le réveil peut vous tuer Une fleur qui séveille au soleil en douceur Un enfant qui sréveille la nuit dans la terreur Jsuis un enfant de cavalier, allez jai pas peur Nan, réminiscence de vies antérieures De vies antérieures Un arrière-goût de sang, des combats de gladiateurs Réminiscence de vies antérieures Réminiscence de vies antérieures Mes pensées me gangrènent Jessaye de couper mon membre fantôme SPQR cest lemblème Je reste debout, même tout seul dans Rome</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Dooz Kawa, T Kaï Cee Etoile du sol Pour que tombeau des lucioles s'enflamment Air Max crevées, T-shirt troué, juste un gosse de rue sans charme Cyrano c'est pas moi, si t'es Roxanne cherche ailleurs L'amoureux épris de toi Pose une larme sur chaque buvard et on les gobe tous à la fois Ces bonbons sont des chimères on risque pas la crise de foie Toujours dans le monde imaginaire frère, pour oublier le froid Ce soir y'avait rien à manger j'en ai même repris deux fois J'suis tellement souvent ailleurs que j'en oublie qu't'es avec moi J'me souviens jamais d'hier et tu t'inquiètes de mon état Comme d'hab ce soir j'escalade la goutière pour venir dormir chez toi T'es ma seule issue d'secours et l'unique échapatoire Quand j'vois une porte rouge et que j'veux la repeindre en noir J'ai tellement du mal à cerner mes désirs contradictoires si tu savais Ils veulent exploser nos rêves qui sont blottis dans quelques bulles de savon et n'aspiraient qu'à monter Comme une star étoile du sol mais j'ai le syndrome d'Icare étoile du sol Tu crois vraiment que j't'oublie quand je compose toute la nuit Et qu't'as du vague a l'âme, mais t'es le do d'ma mélodie C'est juste une petite note mais elle supporte toue la gamme Moi j'plane et j'monte tellement haut qu'j'ai brulé mes ailes au soleil Mais à chaque fois qu'tu m'tiens la main c'est pour pas qu'j'tombe dans la merde Plus terre à terre tu me retiens comme une amarre et m'aide à fermer les yeux Quand j'veux toujours téma la bas t'es ma .. You might also like I'm careful not to fall have to climb your wall Problems with the booze nothing left to lose I'm weightless Yo, fais attention Ils nous traquent même dans les bus et les philistins m'accusent Parce que pour moi leur système c'est comme du morse en russe J'prendrais toujours la gélule rose Si j'avais le choix de Morpheus tant pis si eux n'atteindront jamais zion Nous on fait jamais l'amour dans les cieux malgré ces murs qui montent si haut Et c'est que pour notre duo ce petit texte personnel J'cace-dédi pour celles qui manquent à l'appel Celle que... Qu'est d'ja parti quand le public me rappelle Tu t'endors en attendant que j'revienne mais le spectacle doit continuer Malgré les traits sur mon rimmel, j'ai mal au mic malade atteint de délinquance aigüe J'pourrais poser des rimes elle ? jusqu'à la déliquescence de toutes les neiges éternelles Mais moi, comme Anakin, j'repousse le coté obs', trop d'prises de risques Mais mon T-Kaï est en crise, j'suis qu'un élément mythologique Comme Osiris même si il pleut danse avec moi sur la piste Pour une fois que tombent des gouttes indépendantes de nos iris Dès que tu m'touches j'ai plus l'blues parce que t'es ma t'es ma I'm careful not to fall have to climb your wall Cause you're the one who makes me feel much taller than you are I'm just a peeping Tom on my own for far too long Problems with the booze nothing left to lose I'm weightless, I'm bare3</t>
+          <t>Dooz Kawa, T Kaï Cee Etoile du sol Pour que tombeau des lucioles s'enflamment Air Max crevées, T-shirt troué, juste un gosse de rue sans charme Cyrano c'est pas moi, si t'es Roxanne cherche ailleurs L'amoureux épris de toi Pose une larme sur chaque buvard et on les gobe tous à la fois Ces bonbons sont des chimères on risque pas la crise de foie Toujours dans le monde imaginaire frère, pour oublier le froid Ce soir y'avait rien à manger j'en ai même repris deux fois J'suis tellement souvent ailleurs que j'en oublie qu't'es avec moi J'me souviens jamais d'hier et tu t'inquiètes de mon état Comme d'hab ce soir j'escalade la goutière pour venir dormir chez toi T'es ma seule issue d'secours et l'unique échapatoire Quand j'vois une porte rouge et que j'veux la repeindre en noir J'ai tellement du mal à cerner mes désirs contradictoires si tu savais Ils veulent exploser nos rêves qui sont blottis dans quelques bulles de savon et n'aspiraient qu'à monter Comme une star étoile du sol mais j'ai le syndrome d'Icare étoile du sol Tu crois vraiment que j't'oublie quand je compose toute la nuit Et qu't'as du vague a l'âme, mais t'es le do d'ma mélodie C'est juste une petite note mais elle supporte toue la gamme Moi j'plane et j'monte tellement haut qu'j'ai brulé mes ailes au soleil Mais à chaque fois qu'tu m'tiens la main c'est pour pas qu'j'tombe dans la merde Plus terre à terre tu me retiens comme une amarre et m'aide à fermer les yeux Quand j'veux toujours téma la bas t'es ma .. I'm careful not to fall have to climb your wall Problems with the booze nothing left to lose I'm weightless Yo, fais attention Ils nous traquent même dans les bus et les philistins m'accusent Parce que pour moi leur système c'est comme du morse en russe J'prendrais toujours la gélule rose Si j'avais le choix de Morpheus tant pis si eux n'atteindront jamais zion Nous on fait jamais l'amour dans les cieux malgré ces murs qui montent si haut Et c'est que pour notre duo ce petit texte personnel J'cace-dédi pour celles qui manquent à l'appel Celle que... Qu'est d'ja parti quand le public me rappelle Tu t'endors en attendant que j'revienne mais le spectacle doit continuer Malgré les traits sur mon rimmel, j'ai mal au mic malade atteint de délinquance aigüe J'pourrais poser des rimes elle ? jusqu'à la déliquescence de toutes les neiges éternelles Mais moi, comme Anakin, j'repousse le coté obs', trop d'prises de risques Mais mon T-Kaï est en crise, j'suis qu'un élément mythologique Comme Osiris même si il pleut danse avec moi sur la piste Pour une fois que tombent des gouttes indépendantes de nos iris Dès que tu m'touches j'ai plus l'blues parce que t'es ma t'es ma I'm careful not to fall have to climb your wall Cause you're the one who makes me feel much taller than you are I'm just a peeping Tom on my own for far too long Problems with the booze nothing left to lose I'm weightless, I'm bare3</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Voici l'histoire d'un souriceau qui vivait tout près d'un ruisseau Dans l'entaille d'une muraille qu'était cachée par un buisson Dont les ambitions démesurées engendraient ces rêves qui nous usent Il aurait voulu suivre des études Comme Cortex et Minus faire des expériences en labo Et quand la nuit tombe, faire la même chose que tous les soirs Tenter de conquérir le monde, au lieu de la banlieue des villes Ne pouvant sortir le jour puisque toujours poursuivi par un tas d'animaux débiles C'est dur d'être le premier être que l'on décime, le dernier maillon de la chaîne alimentaire Quand on rêve des lumières des îles Lorsque le soir se dessinent des promesses de lueurs Au profond de son coeur, son désir était d'être fort comme le Soleil He had a dream!... qui lui perdre le sommeil Décidé, il partit au réveil Escalada la colline et s'adressa au Soleil C'est l'histoire d'un souriceau qui craque C'est la story d'une souris, cric-crac C'est son blabla que Balthazar déblatéra au Soleil J'aimerais bien être ton semblable, qu'on se ressemble à avoir ton énergie Puisque je manque de sommeil à cause de toi J'agis la nuit car les prédateurs me surveillent J'aimerais aussi être un soleil Ceci fut dit par la souris puis le citron se mit à rire À faire trembler la voûte céleste Ouais, c'est vrai que je suis le plus grand de tous les maîtres extraterrestres Et même si ceci va sans dire Il déclencha un incendie dans les pâturages Mais la fumée s'élevant au ciel forma un gros nuage Qui vint à cacher le Soleil Puis le nuage fit un clin dil à la souris Lui demanda, postillonnant des gouttes de pluie Dis-moi, l'ami, lequel est le plus fort de tous ? Celui qui éteint l'incendie ou celui derrière moi qui tousse ? You might also like Mais l'orage devint si violent que le vent transperça le ventre du nuage Et l'éparpilla en milliers de bouts de coton à l'horizon Qui s'amoncellent comme des gentils moutons broutant des morceaux de ciel Le vent s'exprima en ces termes Dis-moi si celle-ci, la terreur aux gros sourcils Qui prétendit être le plus fort et que j'élimine sans souci Juste en soufflant dessus Sais-tu pourquoi je suis le plus grand de tous et sans rivaux ? Car personne tient le niveau face au vent qui souffle Et par ego le prouva en faisant la course Deux, trois chicanes et ce dernier finit à plat, stoppé net par la muraille Qui se réveilla en bâillant et sur un souriceau vaillant Ses yeux tombèrent par hasard Le mur abrite la souris triste à suivre ce bazar Tu vois Balthazar, j'ai beau me dresser contre le vent qui souffle Résister au Soleil et même aux nuages qui nous couvrent Mais la seule chose qui me touche les fondations C'est cette entaille dans ma muraille cachée par ce buisson Et qu'a fait un souriceau qui vit près du ruisseau</t>
+          <t>Voici l'histoire d'un souriceau qui vivait tout près d'un ruisseau Dans l'entaille d'une muraille qu'était cachée par un buisson Dont les ambitions démesurées engendraient ces rêves qui nous usent Il aurait voulu suivre des études Comme Cortex et Minus faire des expériences en labo Et quand la nuit tombe, faire la même chose que tous les soirs Tenter de conquérir le monde, au lieu de la banlieue des villes Ne pouvant sortir le jour puisque toujours poursuivi par un tas d'animaux débiles C'est dur d'être le premier être que l'on décime, le dernier maillon de la chaîne alimentaire Quand on rêve des lumières des îles Lorsque le soir se dessinent des promesses de lueurs Au profond de son coeur, son désir était d'être fort comme le Soleil He had a dream!... qui lui perdre le sommeil Décidé, il partit au réveil Escalada la colline et s'adressa au Soleil C'est l'histoire d'un souriceau qui craque C'est la story d'une souris, cric-crac C'est son blabla que Balthazar déblatéra au Soleil J'aimerais bien être ton semblable, qu'on se ressemble à avoir ton énergie Puisque je manque de sommeil à cause de toi J'agis la nuit car les prédateurs me surveillent J'aimerais aussi être un soleil Ceci fut dit par la souris puis le citron se mit à rire À faire trembler la voûte céleste Ouais, c'est vrai que je suis le plus grand de tous les maîtres extraterrestres Et même si ceci va sans dire Il déclencha un incendie dans les pâturages Mais la fumée s'élevant au ciel forma un gros nuage Qui vint à cacher le Soleil Puis le nuage fit un clin dil à la souris Lui demanda, postillonnant des gouttes de pluie Dis-moi, l'ami, lequel est le plus fort de tous ? Celui qui éteint l'incendie ou celui derrière moi qui tousse ? Mais l'orage devint si violent que le vent transperça le ventre du nuage Et l'éparpilla en milliers de bouts de coton à l'horizon Qui s'amoncellent comme des gentils moutons broutant des morceaux de ciel Le vent s'exprima en ces termes Dis-moi si celle-ci, la terreur aux gros sourcils Qui prétendit être le plus fort et que j'élimine sans souci Juste en soufflant dessus Sais-tu pourquoi je suis le plus grand de tous et sans rivaux ? Car personne tient le niveau face au vent qui souffle Et par ego le prouva en faisant la course Deux, trois chicanes et ce dernier finit à plat, stoppé net par la muraille Qui se réveilla en bâillant et sur un souriceau vaillant Ses yeux tombèrent par hasard Le mur abrite la souris triste à suivre ce bazar Tu vois Balthazar, j'ai beau me dresser contre le vent qui souffle Résister au Soleil et même aux nuages qui nous couvrent Mais la seule chose qui me touche les fondations C'est cette entaille dans ma muraille cachée par ce buisson Et qu'a fait un souriceau qui vit près du ruisseau</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>J'peux pas tout dire en un freestyle car on y passerait la night Puis quelques années à Bourgstras C'était pas vraiment youpi la life, James Digger J'ouvre l'armoire des anciens jours, de la où j'ai poussé hier J'vois mon p'tit costume de Strasbourg, que j'dépoussière Si j'avais tenu un journal, il n'y aurait pas eu de gros titres J'me s'rai dit j'parle toujours de oim et d'mon caractère égotique Parler de Stras' et quartiers chauds, ma jeunesse c'est pas un cadeau J'essai encore de fair l'effort de déposer ce sac à dos J'aimerais parler sans concession, mais j'imagine qu'entendre ce son F'rai lever les yeux du curé si j'lui faisais trop d'confessions J'aimerais croiser un spirituel qui pourrait me prendre par le bras Mais j'ai bien peur qu'il n'y ait pas de ciel et que mon juge ce ne soit moi Avec Raid'n project on chante et j'y repense toujours depuis A tous les freestyles dans ma chambre quand il faisait des jours de pluie Lui, qui débarquait de Guyane et moi qui arrive tout juste d'Allemagne Quand on a créé le T.Kaï Cee, on devient référence locale On parle succès imaginaires qui parlent des songes On nous aime déshumanisés, c'est peut-être ça la part des anges You might also likeMême si tu sais ici c'est l'Est, des anges déchus et délestés de leurs ailes y laissent des plumes tombées des vestes et... J'm'en bats les reins qu'on m'aime parc'que quand j'me mets à rapper j'entends ah ouais putain quand même Faut savoir où tu vas quand t'as la tête qui tourne Faut savoir d'où tu viens, Strasbourg ! Strasbourg ! C'est là où y a des putes, c'est là où y a mes potes C'est d'la que part mon amour, Strasbourg ! Ils m'balanceraient du haut de la berge, 15 minutes dans une nasse qui coule Juste pour voir si j'suis une sorcière, c'est comme ça qu'on fait à Strasbourg Là où la pauvreté sévit, où j'aime pas trop y voir de mômes J'ai de l'eau jusqu'aux chevilles, un scooter brûlé dans le hall Car même nos mots d'amour n'étaient qu'des homélies amères Et puis toutes nos nuits d'amour, une tauromachie sans mise à mort J'ai l'impression d'être un sextoy à l'âge du démon du bas ventre J'sais pas pourquoi mais les badboys ça fait rêver les étudiantes Au moment de quitter l'enfance, j'avais déjà compris d'avance Que la solitude débutait et depuis ne m'a plus quitté J'ai grandi dans des parties sombres où j'ai l'habitude de trébucher Je connais bien ces partitions étalées sur mon trébuchet Et si mon rap défoulait les foules, excitant comme un film de boules C'est parc'qu'j'arrêtais pas d'rapper avant qu'ils aient la chair de poule Ce s'ra si long de voir le ciel, il n'y a pas de Simon De Cyrène Nos seules lumières du jour étaient des lumières artificielles Même si tu sais ici c'est l'Est, des anges déchus et délestés de leurs ailes y laissent des plumes tombées des vestes et... J'm'en bats les reins qu'on m'aime parc'que quand j'me mets à rapper j'entends ah ouais putain quand même Faut savoir où tu vas quand t'as la tête qui tourne Faut savoir d'où tu viens, Strasbourg ! Strasbourg ! C'est là où y a des putes, c'est là où y a mes potes C'est d'la que part mon amour, Strasbourg ! J'suis de l'époque Turn Tubbliste et tous mes potos font des rimes Pourtant aucun rappeur d'ici n'm'a invité en featuring On était pas des p'tits marrants mais sans parents des Pygmalions Maintenant inquiétants comme d'enlever une épine de la patte d'un lion J'suis renvoyé de 5 lycées, autant de conseils de discipline On t'fait un dossier en béton, mais on voudrait qu'tu partes d'ici Alors j'vais partir loin, j'me promets de m'écrire toujours A mon revenir au moins, j'aurais du courrier au retour Car l'amour n'est qu'un train qui part, ou un avion qui décolle Y a un d'nous qui déconne, mais on est tous quelque part ce gosse qui rentre seul de l'école Bourgstras quartier pas très calme, des caravanes de Tziginers mais pas des quartiers cathédrales Moi j'viens de là où les cigognes meurent cigognes meurent, cigognes meurent... Ces banlieues ou à tes risques et périls sans règle du jeu ils atterrissent ils atterrissent, ils atterrissent... Faut qu'j'le redise, j'viens d'là où les architectes ont un peu trop joué à Tetris , cité Ampère, polygone DAX, Raid'n project, , DJ Saligaud, , prison de l'Elsau, Bourgstras, Bourgstras, Bourgstras</t>
+          <t>J'peux pas tout dire en un freestyle car on y passerait la night Puis quelques années à Bourgstras C'était pas vraiment youpi la life, James Digger J'ouvre l'armoire des anciens jours, de la où j'ai poussé hier J'vois mon p'tit costume de Strasbourg, que j'dépoussière Si j'avais tenu un journal, il n'y aurait pas eu de gros titres J'me s'rai dit j'parle toujours de oim et d'mon caractère égotique Parler de Stras' et quartiers chauds, ma jeunesse c'est pas un cadeau J'essai encore de fair l'effort de déposer ce sac à dos J'aimerais parler sans concession, mais j'imagine qu'entendre ce son F'rai lever les yeux du curé si j'lui faisais trop d'confessions J'aimerais croiser un spirituel qui pourrait me prendre par le bras Mais j'ai bien peur qu'il n'y ait pas de ciel et que mon juge ce ne soit moi Avec Raid'n project on chante et j'y repense toujours depuis A tous les freestyles dans ma chambre quand il faisait des jours de pluie Lui, qui débarquait de Guyane et moi qui arrive tout juste d'Allemagne Quand on a créé le T.Kaï Cee, on devient référence locale On parle succès imaginaires qui parlent des songes On nous aime déshumanisés, c'est peut-être ça la part des anges Même si tu sais ici c'est l'Est, des anges déchus et délestés de leurs ailes y laissent des plumes tombées des vestes et... J'm'en bats les reins qu'on m'aime parc'que quand j'me mets à rapper j'entends ah ouais putain quand même Faut savoir où tu vas quand t'as la tête qui tourne Faut savoir d'où tu viens, Strasbourg ! Strasbourg ! C'est là où y a des putes, c'est là où y a mes potes C'est d'la que part mon amour, Strasbourg ! Ils m'balanceraient du haut de la berge, 15 minutes dans une nasse qui coule Juste pour voir si j'suis une sorcière, c'est comme ça qu'on fait à Strasbourg Là où la pauvreté sévit, où j'aime pas trop y voir de mômes J'ai de l'eau jusqu'aux chevilles, un scooter brûlé dans le hall Car même nos mots d'amour n'étaient qu'des homélies amères Et puis toutes nos nuits d'amour, une tauromachie sans mise à mort J'ai l'impression d'être un sextoy à l'âge du démon du bas ventre J'sais pas pourquoi mais les badboys ça fait rêver les étudiantes Au moment de quitter l'enfance, j'avais déjà compris d'avance Que la solitude débutait et depuis ne m'a plus quitté J'ai grandi dans des parties sombres où j'ai l'habitude de trébucher Je connais bien ces partitions étalées sur mon trébuchet Et si mon rap défoulait les foules, excitant comme un film de boules C'est parc'qu'j'arrêtais pas d'rapper avant qu'ils aient la chair de poule Ce s'ra si long de voir le ciel, il n'y a pas de Simon De Cyrène Nos seules lumières du jour étaient des lumières artificielles Même si tu sais ici c'est l'Est, des anges déchus et délestés de leurs ailes y laissent des plumes tombées des vestes et... J'm'en bats les reins qu'on m'aime parc'que quand j'me mets à rapper j'entends ah ouais putain quand même Faut savoir où tu vas quand t'as la tête qui tourne Faut savoir d'où tu viens, Strasbourg ! Strasbourg ! C'est là où y a des putes, c'est là où y a mes potes C'est d'la que part mon amour, Strasbourg ! J'suis de l'époque Turn Tubbliste et tous mes potos font des rimes Pourtant aucun rappeur d'ici n'm'a invité en featuring On était pas des p'tits marrants mais sans parents des Pygmalions Maintenant inquiétants comme d'enlever une épine de la patte d'un lion J'suis renvoyé de 5 lycées, autant de conseils de discipline On t'fait un dossier en béton, mais on voudrait qu'tu partes d'ici Alors j'vais partir loin, j'me promets de m'écrire toujours A mon revenir au moins, j'aurais du courrier au retour Car l'amour n'est qu'un train qui part, ou un avion qui décolle Y a un d'nous qui déconne, mais on est tous quelque part ce gosse qui rentre seul de l'école Bourgstras quartier pas très calme, des caravanes de Tziginers mais pas des quartiers cathédrales Moi j'viens de là où les cigognes meurent cigognes meurent, cigognes meurent... Ces banlieues ou à tes risques et périls sans règle du jeu ils atterrissent ils atterrissent, ils atterrissent... Faut qu'j'le redise, j'viens d'là où les architectes ont un peu trop joué à Tetris , cité Ampère, polygone DAX, Raid'n project, , DJ Saligaud, , prison de l'Elsau, Bourgstras, Bourgstras, Bourgstras</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>C'est le syndicat de la rime en stéréo La mémoire est posée sous le micro Dédicace à do ré mi fa sol À gauche ça s'agite, à droite on décolle du sol C'est le syndicat de la rime en stéréo La mémoire est posée sous le micro Dédicace à do ré mi fa sol C'est en secret que les groupes se créent quand t'as la dèche pour leitmotiv Le syndicat de la rime arrive, corrompant la police Écriture extorquant et rackettant tout le lotissement Par un flow archi-violent qui par moments saisit aux tifs Le public dans la salle, passe-moi le mic' pour qu'on le motive Faire dérailler la foule comme le fait une locomotive Drive by vocal - pull ! - avec mon micro .22 Long Rifle Duel au soleil face aux MC's qui mollissent Je crache les pieds tendres au cur dur comme le noyau d'une olive En live, explose les watts car mon rap est une ogive Aucun abri musicléaire vous protège des jeunes prodiges Qui extasient comme les pilules, plus excitants qu'un clitoris Le syndicat de la rime arrive et rien qu'on terrorise Je suis le chef de la bande, là où on glande comme l'hypophyse Car l'décor de dehors, ici c'est les ruines d'Acropolis Où l'alphabète reconnaît que sur la carte tu peux lire partout police Faut pas boire au volant, pas de musique, pas de gros spliff Où tu finis en taule, dans les geôles de leur office C'est ça le plus dangereux, mais c'est ça ma terre promise En gros je suis un gué-dro car je suis accro des polis-sonnes à quatre pattes, pour les chattes je suis Baudis Elles sonnent à 4 du mat', quand je me désape elles m'applaudissent Mais si je baise ta fille, ça veut pas dire que je suis ton beau-fils Elle dit qu'elle m'autorise la conduite des gros engins Alors je pénètre dans son... comme un chauffard qu'on motorise Acrobatique au lit comme Chuck Norris aux miss ? Je bois le whisky qu'au lit car je suis alcoolique comme ? Mais je risque de paraître vulgaire d'oh !, j'attends plus qu'on m'autorise Je suis comme Homer Simpson sur ces grosses pierres qui démolissent Nos quartiers en chantier rénovés pour donner aux riches Robin des bois débarque dans les bacs... dafucup comme Onyx Au mix, un couteau sous la carotide du showbiz Hé Cochise ! J'étais déjà sur le mic' quand Ice-T écrivait O.G.'s You might also like C'est le syndicat de la rime en stéréo La mémoire est posée sous le micro Dédicace à do ré mi fa sol1</t>
+          <t>C'est le syndicat de la rime en stéréo La mémoire est posée sous le micro Dédicace à do ré mi fa sol À gauche ça s'agite, à droite on décolle du sol C'est le syndicat de la rime en stéréo La mémoire est posée sous le micro Dédicace à do ré mi fa sol C'est en secret que les groupes se créent quand t'as la dèche pour leitmotiv Le syndicat de la rime arrive, corrompant la police Écriture extorquant et rackettant tout le lotissement Par un flow archi-violent qui par moments saisit aux tifs Le public dans la salle, passe-moi le mic' pour qu'on le motive Faire dérailler la foule comme le fait une locomotive Drive by vocal - pull ! - avec mon micro .22 Long Rifle Duel au soleil face aux MC's qui mollissent Je crache les pieds tendres au cur dur comme le noyau d'une olive En live, explose les watts car mon rap est une ogive Aucun abri musicléaire vous protège des jeunes prodiges Qui extasient comme les pilules, plus excitants qu'un clitoris Le syndicat de la rime arrive et rien qu'on terrorise Je suis le chef de la bande, là où on glande comme l'hypophyse Car l'décor de dehors, ici c'est les ruines d'Acropolis Où l'alphabète reconnaît que sur la carte tu peux lire partout police Faut pas boire au volant, pas de musique, pas de gros spliff Où tu finis en taule, dans les geôles de leur office C'est ça le plus dangereux, mais c'est ça ma terre promise En gros je suis un gué-dro car je suis accro des polis-sonnes à quatre pattes, pour les chattes je suis Baudis Elles sonnent à 4 du mat', quand je me désape elles m'applaudissent Mais si je baise ta fille, ça veut pas dire que je suis ton beau-fils Elle dit qu'elle m'autorise la conduite des gros engins Alors je pénètre dans son... comme un chauffard qu'on motorise Acrobatique au lit comme Chuck Norris aux miss ? Je bois le whisky qu'au lit car je suis alcoolique comme ? Mais je risque de paraître vulgaire d'oh !, j'attends plus qu'on m'autorise Je suis comme Homer Simpson sur ces grosses pierres qui démolissent Nos quartiers en chantier rénovés pour donner aux riches Robin des bois débarque dans les bacs... dafucup comme Onyx Au mix, un couteau sous la carotide du showbiz Hé Cochise ! J'étais déjà sur le mic' quand Ice-T écrivait O.G.'s C'est le syndicat de la rime en stéréo La mémoire est posée sous le micro Dédicace à do ré mi fa sol1</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>We came from the distant land Our lives already planned We came in ships from across to sea Never again home we'd see And now we've become American fruit With african roots Que tout le monde lève les bras J'suis pas d'ici moi Niquer l'état C'est mon désir Et je le jure sur le Dalloz Lève le bras droit Que tout le monde lève les bras Et tape la pose Pour tout les gars qui mattent les étoiles Tout en piétinant les roses C'est comme une traversée du désert Pendant que la pluie nous arrose Que tout le monde lève les bras You might also likeBourg-stra en force Et j'crois bien qu'ils ont peur qu'on s'approche Qu'on s'rapproche, qu'entre nous on soit proches Que tout le monde lève les bras J'ai Dans les poches des Barrettes de... c'est Pas d'l'encens malgré l'odeur Le bruit du Molodoï jusqu'au Neuhof Parti de zéro en sang Comme la Carrera de Porsche Que tout le monde lève les bras Un pe-ra indécent Comme la carrière à Desproges Pour que la police s'approche Que les cistes-ra lèvent les bras Pendant qu'on leur fera les poches Que tout le monde lève les bras Lève les bras</t>
+          <t>We came from the distant land Our lives already planned We came in ships from across to sea Never again home we'd see And now we've become American fruit With african roots Que tout le monde lève les bras J'suis pas d'ici moi Niquer l'état C'est mon désir Et je le jure sur le Dalloz Lève le bras droit Que tout le monde lève les bras Et tape la pose Pour tout les gars qui mattent les étoiles Tout en piétinant les roses C'est comme une traversée du désert Pendant que la pluie nous arrose Que tout le monde lève les bras Bourg-stra en force Et j'crois bien qu'ils ont peur qu'on s'approche Qu'on s'rapproche, qu'entre nous on soit proches Que tout le monde lève les bras J'ai Dans les poches des Barrettes de... c'est Pas d'l'encens malgré l'odeur Le bruit du Molodoï jusqu'au Neuhof Parti de zéro en sang Comme la Carrera de Porsche Que tout le monde lève les bras Un pe-ra indécent Comme la carrière à Desproges Pour que la police s'approche Que les cistes-ra lèvent les bras Pendant qu'on leur fera les poches Que tout le monde lève les bras Lève les bras</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Si tu vois tomber la pluie, c'est que j'ai créé un gros ceau-mor J'veux encore planer toute la nuit, comme un oiseau mort T'as besoin de moi, comme un antidote Mais j'ai plus d'ordonnance T'as peur que tout s'arrête, j'ai peur que tout recommence Tu parles mais t'es la pire, ça me rends ouf ta vanité Tu mens comme tu respire, car elle t'étouffe la vérité On se fait plus de mal que de miel Et y'a qu'au cil qu'on demande pardon J'donnerais plus d nouvelles, j'suis en mode avion Si j'me couche tard, c'est que je répare encore mes lésions J'suis un long cauchemar où je fais des rêves bercés d'illusions Dans ce monde j'ai plus trop d'amis, vu que tous mentent Donc doucement, j'refais ma vie, malgré tout c'manque, oui tout c'manque J'suis nombreux dans ma tête, donc peut-être contradictoire J'ai voulu que tout s'arrête, y'a pas de remède à notre histoire J'me méfie de tout, je sais plus en qui croire Parfois en amour on aime que son propre miroir Alors qui croire ? J'vis à l'envers Mon enfer est fait de neige et de froid Tu dis que je me renferme Mais je me protège de toi... Toxique Ou je me protège de moi ? Toxique You might also like Toxique J'ai encore du venin sur les lèvres Et j'suis perdu comme dans un mauvais rêve Toxique... Toxique J'irai sur la dune pour abriter le ciel Et faire battre la lune Toxique Toxique, tout ces sales produits que j'ingère Ma copine est triste et s'énerve Bébé je te promets que je gère C'est dingue, de tant se mentir à soi-même Rester présent quand faut partir, de pas le sentir Comme un connard qui se dirait j'me retirerai à temps pour pas jouir J'avais tant d'espoir en ce monde, mais ils entendent pas les coups de semonce Tiré par l'esprit de la nature, le Titanic coule doucement À cause des fous qui nous sabordent, alors j'me la coule douce à bord Et je m'intoxique de tout cet alcool, ouais C'est la faute à vous d'abord, et au passé qui nous tabasse Ouais surtout, au monde ou le courage que j'éprouve À me regarder dans une glace, de pas laisser la place au silence De peur de souffrir, alors que je souffre de peur Alors que de les affronter, quand la lumière est éteinte J'me rends vite compte que c'est moins grave, que la douleur qu'elle me fais craindre Toutes ces nuits où j'éprouve du mal, effrayé par l'épouvantail Alors que si je le retourne, je me rendrais compte que c'est juste une poupée de paille Car on préfère ce qui nous dépanne que le travail qui nous répare Encore un dernier verre, et c'est promis je pars Toxique J'ai encore du venin sur les lèvres Et j'suis perdu comme dans un mauvais rêve Toxique... Toxique J'irai seul sur la dune pour abriter le ciel Et faire battre la lune Toxique Toxique...</t>
+          <t>Si tu vois tomber la pluie, c'est que j'ai créé un gros ceau-mor J'veux encore planer toute la nuit, comme un oiseau mort T'as besoin de moi, comme un antidote Mais j'ai plus d'ordonnance T'as peur que tout s'arrête, j'ai peur que tout recommence Tu parles mais t'es la pire, ça me rends ouf ta vanité Tu mens comme tu respire, car elle t'étouffe la vérité On se fait plus de mal que de miel Et y'a qu'au cil qu'on demande pardon J'donnerais plus d nouvelles, j'suis en mode avion Si j'me couche tard, c'est que je répare encore mes lésions J'suis un long cauchemar où je fais des rêves bercés d'illusions Dans ce monde j'ai plus trop d'amis, vu que tous mentent Donc doucement, j'refais ma vie, malgré tout c'manque, oui tout c'manque J'suis nombreux dans ma tête, donc peut-être contradictoire J'ai voulu que tout s'arrête, y'a pas de remède à notre histoire J'me méfie de tout, je sais plus en qui croire Parfois en amour on aime que son propre miroir Alors qui croire ? J'vis à l'envers Mon enfer est fait de neige et de froid Tu dis que je me renferme Mais je me protège de toi... Toxique Ou je me protège de moi ? Toxique Toxique J'ai encore du venin sur les lèvres Et j'suis perdu comme dans un mauvais rêve Toxique... Toxique J'irai sur la dune pour abriter le ciel Et faire battre la lune Toxique Toxique, tout ces sales produits que j'ingère Ma copine est triste et s'énerve Bébé je te promets que je gère C'est dingue, de tant se mentir à soi-même Rester présent quand faut partir, de pas le sentir Comme un connard qui se dirait j'me retirerai à temps pour pas jouir J'avais tant d'espoir en ce monde, mais ils entendent pas les coups de semonce Tiré par l'esprit de la nature, le Titanic coule doucement À cause des fous qui nous sabordent, alors j'me la coule douce à bord Et je m'intoxique de tout cet alcool, ouais C'est la faute à vous d'abord, et au passé qui nous tabasse Ouais surtout, au monde ou le courage que j'éprouve À me regarder dans une glace, de pas laisser la place au silence De peur de souffrir, alors que je souffre de peur Alors que de les affronter, quand la lumière est éteinte J'me rends vite compte que c'est moins grave, que la douleur qu'elle me fais craindre Toutes ces nuits où j'éprouve du mal, effrayé par l'épouvantail Alors que si je le retourne, je me rendrais compte que c'est juste une poupée de paille Car on préfère ce qui nous dépanne que le travail qui nous répare Encore un dernier verre, et c'est promis je pars Toxique J'ai encore du venin sur les lèvres Et j'suis perdu comme dans un mauvais rêve Toxique... Toxique J'irai seul sur la dune pour abriter le ciel Et faire battre la lune Toxique Toxique...</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>C'est pour les miens ça C'est pour tous ceux qui ont croisé ma route J'ai pas assez de haine dans le cur On m'aime guère et c'est la guerre comme à Saïgon J'ai que des ennemis dans le hip-hop et dans sa foule x2 Tristement célèbre parce qu'il reste toujours les mêmes A la fin de la ré-soi frère je suis tristement célèbre Pour T-Kai-Cee ici bas bye Élève de l'école de la rue le prof ne viendra pas Et comme le dit Jean si le monde je pouvais contrôler Tous les gosses dans le ghetto ne serai pas toujours armés Car nos épaules sont larges mais nos jambes sont fatiguées Supportent le poids du passé De notre histoire cassée Ressoudée à l'étain Là où chaque jour le soleil s'éteint Tu peux voir les blocs de loin La maladie s'engouffrer, les mélodies sans refrain J'ai regardé partir les miens Les uns après les autres d'autres se sont perdus en chemin Nous on est partis un soir dans la douceur du mois de juin J'ai du laisser mon cur sur mes tags La vue de ma fenêtre et ses arbres Mes cousins et mon passé Les magasins où on taxait Des pommes et des bonbons On se prenait pour des peaux rouges A taquiner le ballon Au point d'avoir les joues rouges Ajoute une note de violon Pour le jour où Mes potes et moi s'envoleront Comme des oiseaux blessés La tête dans les nuages Malgré nos ailes brisées C'est le moment de s'embrasser Ne soit pas déçu Si au sol on t'a laissé Ange déchu même sans sous Nous volerons sans soucis Un tas d'auréoles pour les délaissés You might also likeTristement célèbre les sanglots longs des violons de l'automne m'isolent Débarquement au bloc B Et les feuilles sont tombées Et séchées sur le sol Qu'importe la destination Moi je suis do ré mi fa sol Tristement célèbre sexe violence rap et alcool Pour les anges déchus qui jamais ne redécollent C'est pour ma ville je cass-dédi à tous ceux qui mènent une vie de ouf Heureux les imbéciles c'est pour ça que la ville me bouffe Tristement célèbre parce qu'il reste toujours les mêmes Sous les nuages du système Lorsqu'il pleut sur les HLM Lorsqu'il pleut sur les HLM Tristement célèbre Tous ces gosses qui seuls s'élèvent De personne veulent être l'élève Qui ont mal à leur sourire Comme une gerçure des lèvres Qui ont raté le voyage pour Cythère Clandestins sur Terre pour s'y taire Tu vois ici ça sature Ca tire et puis ça tue Les gamins veulent être des gangsters Les étoiles nous attirent Mais la misère nous enterre Et moi j'use mon jean En chien sur un banc de pierre Seul survivant le king De l'Ancien Testament V-string ??? 1995 Mon bloc une femme enceinte Et la rue c'est comme une nourrice allaitant Les messies au même sein que les délinquants Une pensée à mes ennemis J'étais forcé de prendre partie bababa Aussi choisi ton camp MC Tu sais qu'on a les même ci- Catrices Oh ! ça fait longtemps Le temps nous a changé Et les potes deviennent étranges et Parfois même étrangers Et combien se sont rangés D'autres au 9mm chargé Un futur incertain Rester seul pour certains Où dans l'ombre attendre que passe Le fourgon Securitas Sous cagoules nous on braque même les musées Plus rien d'autre à miser Je dois rire avant de m'amuser De peur de ne jamais sourire le biz' le cash le hash la tise et les tas' Le système la justice la prison la police et l'état Tristement célèbre sur l'MIC Dooz Kawa Plus de pardon quand la lumière cesse de briller Pour les étoiles du sol Surtout si t'évolues seul Et les parents attristés disent Vos linceuls c'est vous même qui les tissez Mais quand tu traîne en bande t'es policé Dans l'école de la rue de la maternelle au lycée Sur mon cur J'ai gardé mon MIC Au milieu des rires moqueurs J'parle d'éducation comme si moi j'obéissais J'écris au BIC Pour ceux qui parle plus à Dieu Raid'n Pro Kawa MC Et mon T-Kai-Cee Heyoh frère c'était écrit Les pauvres seront riches dans leur esprit Les pauvres seront riches dans leur esprit Tristement célèbre parce qu'il reste toujours les mêmes Sous les nuages du système Lorsqu'il pleut sur les HLM Lorsqu'il pleut sur les HLM</t>
+          <t>C'est pour les miens ça C'est pour tous ceux qui ont croisé ma route J'ai pas assez de haine dans le cur On m'aime guère et c'est la guerre comme à Saïgon J'ai que des ennemis dans le hip-hop et dans sa foule x2 Tristement célèbre parce qu'il reste toujours les mêmes A la fin de la ré-soi frère je suis tristement célèbre Pour T-Kai-Cee ici bas bye Élève de l'école de la rue le prof ne viendra pas Et comme le dit Jean si le monde je pouvais contrôler Tous les gosses dans le ghetto ne serai pas toujours armés Car nos épaules sont larges mais nos jambes sont fatiguées Supportent le poids du passé De notre histoire cassée Ressoudée à l'étain Là où chaque jour le soleil s'éteint Tu peux voir les blocs de loin La maladie s'engouffrer, les mélodies sans refrain J'ai regardé partir les miens Les uns après les autres d'autres se sont perdus en chemin Nous on est partis un soir dans la douceur du mois de juin J'ai du laisser mon cur sur mes tags La vue de ma fenêtre et ses arbres Mes cousins et mon passé Les magasins où on taxait Des pommes et des bonbons On se prenait pour des peaux rouges A taquiner le ballon Au point d'avoir les joues rouges Ajoute une note de violon Pour le jour où Mes potes et moi s'envoleront Comme des oiseaux blessés La tête dans les nuages Malgré nos ailes brisées C'est le moment de s'embrasser Ne soit pas déçu Si au sol on t'a laissé Ange déchu même sans sous Nous volerons sans soucis Un tas d'auréoles pour les délaissés Tristement célèbre les sanglots longs des violons de l'automne m'isolent Débarquement au bloc B Et les feuilles sont tombées Et séchées sur le sol Qu'importe la destination Moi je suis do ré mi fa sol Tristement célèbre sexe violence rap et alcool Pour les anges déchus qui jamais ne redécollent C'est pour ma ville je cass-dédi à tous ceux qui mènent une vie de ouf Heureux les imbéciles c'est pour ça que la ville me bouffe Tristement célèbre parce qu'il reste toujours les mêmes Sous les nuages du système Lorsqu'il pleut sur les HLM Lorsqu'il pleut sur les HLM Tristement célèbre Tous ces gosses qui seuls s'élèvent De personne veulent être l'élève Qui ont mal à leur sourire Comme une gerçure des lèvres Qui ont raté le voyage pour Cythère Clandestins sur Terre pour s'y taire Tu vois ici ça sature Ca tire et puis ça tue Les gamins veulent être des gangsters Les étoiles nous attirent Mais la misère nous enterre Et moi j'use mon jean En chien sur un banc de pierre Seul survivant le king De l'Ancien Testament V-string ??? 1995 Mon bloc une femme enceinte Et la rue c'est comme une nourrice allaitant Les messies au même sein que les délinquants Une pensée à mes ennemis J'étais forcé de prendre partie bababa Aussi choisi ton camp MC Tu sais qu'on a les même ci- Catrices Oh ! ça fait longtemps Le temps nous a changé Et les potes deviennent étranges et Parfois même étrangers Et combien se sont rangés D'autres au 9mm chargé Un futur incertain Rester seul pour certains Où dans l'ombre attendre que passe Le fourgon Securitas Sous cagoules nous on braque même les musées Plus rien d'autre à miser Je dois rire avant de m'amuser De peur de ne jamais sourire le biz' le cash le hash la tise et les tas' Le système la justice la prison la police et l'état Tristement célèbre sur l'MIC Dooz Kawa Plus de pardon quand la lumière cesse de briller Pour les étoiles du sol Surtout si t'évolues seul Et les parents attristés disent Vos linceuls c'est vous même qui les tissez Mais quand tu traîne en bande t'es policé Dans l'école de la rue de la maternelle au lycée Sur mon cur J'ai gardé mon MIC Au milieu des rires moqueurs J'parle d'éducation comme si moi j'obéissais J'écris au BIC Pour ceux qui parle plus à Dieu Raid'n Pro Kawa MC Et mon T-Kai-Cee Heyoh frère c'était écrit Les pauvres seront riches dans leur esprit Les pauvres seront riches dans leur esprit Tristement célèbre parce qu'il reste toujours les mêmes Sous les nuages du système Lorsqu'il pleut sur les HLM Lorsqu'il pleut sur les HLM</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Dur Pour demain de par hier comme le truc en pierre qui bat en moi On n'a pas le même itinéraire, merci d'avoir marché près de moi Dur Et pourtant on est brisés quelque part Croyant à tort que l'alcool et les drogues nous réparent Dur En ce moment on se sépare Douloureux tel une naissance pour un nouveau départ Dur Comme de croire qu'on n'avait rien S'apercevoir de ce qu'on perd par la fenêtre d'un train Dur D'imaginer un refrain Poser des mots sur les peines et les faire écouter à quelqu'un Dur Comme le pain sur la planche à partager avec les miens On a tous faim, y a qu'une seule tranche Y en aura bien un qu'aura rien Dur De faire semblant qu'on en est un quand sonne l'alarme du magasin Eh ! Eh ! Chacun connaît son rôle, hein ! Dur D'apprendre à marcher en s'appuyant sur sa propre épaule, hein Dur D'être sûr d'être une ordure et faire la bise à sa maman Avoir des colliers en or pur mais souhaiter que ce soit comme avant Dur De regarder passer le temps comme les habitants d'Île de Pâques Dur Pour tous les gars qui attendent le T-Kaï dans les bacs You might also like Y'a trois étapes dans mon état Dur comme la drogue qui m'a rendu comme ça Froid comme les glaçons de mon whisky-coca Seul comme l'amour qui s'endort drapé dans un linceul Froid Comme si mon bâtiment s'apparentait à la banquise Comme si Mister Kawa était parent à Mister Freeze Froid Qu'on se le dise ou qu'on le lise du cristal de ma plume qui coule Froid Comme la peluche de la pub Kiss Cool Pour le deuxième effet de Dooz Kawa Froid en moi et dans mon cur Comme si j'étais tout nu à l'intérieur Froid Comme si c'était la mort le pire Comme si l'amour me faisait peur Comme si être seul et dur était la moindre des douleurs Froid Comme le cri d'un facho Comme le corps d'un frère qu'était pas chaud pour rembourser tout les gars Froid Comme un hiver à bourg-Stra' Froid Comme un hiver à bourg-Stra'... Seul Comme les vingt mecs autour de moi Montre-moi tes amis, je te dirai qui tu es Avec ces gars, tu représentes personne C'est comme si t'existais pas Seul tu parles Seul Comme un pit' à la SPA qui attend sa piqûre puisque l'État n'en a plus cure et que son maître l'assurait pas C'est seul que tu répares l'absence du tendre Comme le hors-la-loi qui s'est fait prendre et menotter devant les gens Seul Comme un keuf intelligent démotivé par ce qu'il voit Seul Comme moi Comme toi Calme-toi, passe le bédo et arrête de tousser C'est pas ta faute, tu sais, si tout va pas comme ça devrait Seul Comme un chèque sur mon CCP Ambiance, c'est CCCP, c'est comme ça depuis le CP Seul Comme Cyrano avec son nez Car même si ton coeur est grand ça remplace pas un porte-monnaie Excuse les potes qui ont volé celui qui nous voit zoner, traîner, au regard louche Qui comprend pas vraiment ce qu'il y a à l'intérieur de nous quand il nous guette depuis le bus Quand j'ai la tête baissée sous la capuche Je t'explique comme ça, juste</t>
+          <t>Dur Pour demain de par hier comme le truc en pierre qui bat en moi On n'a pas le même itinéraire, merci d'avoir marché près de moi Dur Et pourtant on est brisés quelque part Croyant à tort que l'alcool et les drogues nous réparent Dur En ce moment on se sépare Douloureux tel une naissance pour un nouveau départ Dur Comme de croire qu'on n'avait rien S'apercevoir de ce qu'on perd par la fenêtre d'un train Dur D'imaginer un refrain Poser des mots sur les peines et les faire écouter à quelqu'un Dur Comme le pain sur la planche à partager avec les miens On a tous faim, y a qu'une seule tranche Y en aura bien un qu'aura rien Dur De faire semblant qu'on en est un quand sonne l'alarme du magasin Eh ! Eh ! Chacun connaît son rôle, hein ! Dur D'apprendre à marcher en s'appuyant sur sa propre épaule, hein Dur D'être sûr d'être une ordure et faire la bise à sa maman Avoir des colliers en or pur mais souhaiter que ce soit comme avant Dur De regarder passer le temps comme les habitants d'Île de Pâques Dur Pour tous les gars qui attendent le T-Kaï dans les bacs Y'a trois étapes dans mon état Dur comme la drogue qui m'a rendu comme ça Froid comme les glaçons de mon whisky-coca Seul comme l'amour qui s'endort drapé dans un linceul Froid Comme si mon bâtiment s'apparentait à la banquise Comme si Mister Kawa était parent à Mister Freeze Froid Qu'on se le dise ou qu'on le lise du cristal de ma plume qui coule Froid Comme la peluche de la pub Kiss Cool Pour le deuxième effet de Dooz Kawa Froid en moi et dans mon cur Comme si j'étais tout nu à l'intérieur Froid Comme si c'était la mort le pire Comme si l'amour me faisait peur Comme si être seul et dur était la moindre des douleurs Froid Comme le cri d'un facho Comme le corps d'un frère qu'était pas chaud pour rembourser tout les gars Froid Comme un hiver à bourg-Stra' Froid Comme un hiver à bourg-Stra'... Seul Comme les vingt mecs autour de moi Montre-moi tes amis, je te dirai qui tu es Avec ces gars, tu représentes personne C'est comme si t'existais pas Seul tu parles Seul Comme un pit' à la SPA qui attend sa piqûre puisque l'État n'en a plus cure et que son maître l'assurait pas C'est seul que tu répares l'absence du tendre Comme le hors-la-loi qui s'est fait prendre et menotter devant les gens Seul Comme un keuf intelligent démotivé par ce qu'il voit Seul Comme moi Comme toi Calme-toi, passe le bédo et arrête de tousser C'est pas ta faute, tu sais, si tout va pas comme ça devrait Seul Comme un chèque sur mon CCP Ambiance, c'est CCCP, c'est comme ça depuis le CP Seul Comme Cyrano avec son nez Car même si ton coeur est grand ça remplace pas un porte-monnaie Excuse les potes qui ont volé celui qui nous voit zoner, traîner, au regard louche Qui comprend pas vraiment ce qu'il y a à l'intérieur de nous quand il nous guette depuis le bus Quand j'ai la tête baissée sous la capuche Je t'explique comme ça, juste</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Réveille-toi On est trop jeunes pour dormir Tes Belle comme un orgasme Comme une paire de nike airmax Réeditées Jordan sept Je voudrais técrire des belles phrases Mais jsuis un détruit de la tête Pour moi tes belle comme une machette Comme une poètesse maudite Marcelline déesse port de val dor Comme un glock 9millimètres Où jentrevois ma petite mort Belle comme si cétait trop tard Comme les sirènes des girophares Qui attirent les galériens Sur les trottoirs bano Bernard Tes belle comme des flocons de coke Qui fondent sur le corps de lescort nue Tes belle comme un beau cul Qui crée beaucoup dattraction Tes belle comme lamoureuse Mais sucrée comme la trahison Et tant pis si tu me laisse ici Jai vécu beaucoup de kiffs Comme un orrifice vide pourrait combler un vide affectif ? Y paraît que cest pas très fonctionnel Tas vu comment on fait lamour ? Y paraît que ça sert pas à grand chose Mais ça bouge toujours en proue Réveille toi Je resterais là pour toujours You might also likeRéveille-toi Lygia On est trop jeunes pour dormir Réveille-toi Lygia Sors de ta léthargie Posés sur le toit SOS en lettres dargiles On est trop jeunes pour dormir Réveille toi Lygia</t>
+          <t>Réveille-toi On est trop jeunes pour dormir Tes Belle comme un orgasme Comme une paire de nike airmax Réeditées Jordan sept Je voudrais técrire des belles phrases Mais jsuis un détruit de la tête Pour moi tes belle comme une machette Comme une poètesse maudite Marcelline déesse port de val dor Comme un glock 9millimètres Où jentrevois ma petite mort Belle comme si cétait trop tard Comme les sirènes des girophares Qui attirent les galériens Sur les trottoirs bano Bernard Tes belle comme des flocons de coke Qui fondent sur le corps de lescort nue Tes belle comme un beau cul Qui crée beaucoup dattraction Tes belle comme lamoureuse Mais sucrée comme la trahison Et tant pis si tu me laisse ici Jai vécu beaucoup de kiffs Comme un orrifice vide pourrait combler un vide affectif ? Y paraît que cest pas très fonctionnel Tas vu comment on fait lamour ? Y paraît que ça sert pas à grand chose Mais ça bouge toujours en proue Réveille toi Je resterais là pour toujours Réveille-toi Lygia On est trop jeunes pour dormir Réveille-toi Lygia Sors de ta léthargie Posés sur le toit SOS en lettres dargiles On est trop jeunes pour dormir Réveille toi Lygia</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Voici l'homme-animal J'suis apparu un jour d'hiver et les nuits s'sont allongées Pour ma visite de courtoisie sur le boulevard des allongés Deux mille valses sous demi-lune Éclairant le demi-monde de misère et d'infortune Danse avec moi sur l'avenue Mon amour, mon âme est nue et se consume en papier d'Arménie D'amertume Danse Comme une lettre d'amour cruelle De comte Dracula faisant du mal à sa belle Juste parce qu'il faut qu'ils saignent pour se rappeler qu'ils s'aiment J'ken la sorcière de carnaval car j'ai l'affection cannibale Moi j'adore la race humaine avec du sel et du mezcal Et sans mentir timal j'suis sentimental Brutal en sortie mentale L'irréel me manie mal Quoi ? Apparu un jour d'hiver Qu'est-ce qu'il raconte ? Voici l'homme-animal J'suis apparu un jour d'hiver Le soleil disparut et mes ailes tombèrent à terre J'atterre Gotham City et sa banlieue Où cheminées qui fument dansent avec moi au clair de lune You might also like Avant ma haine on vit la joie La nuit tomba si violemment qu'elle assoma les villageois J'suis apparu un jour d'hiver Le soleil disparut et mes ailes tombèrent à terre Attends, paraît que ce monde est le mien Baratin Moi j'suis arrivé, j'avais rien Un peu comme Terminator en plus musclé et sans les vérins C'est bien quand y débarque, hein, au début du film Et qu'y bute 820 gars juste pour carotter un jean Pareil au paria J'ai blessé dans ma manoeuvre le très haut proprio qui n'habite même pas l'immeuble Pied-noir du paradis, j'ai dû partir sans mes meubles un jour d'hiver Quand la neige formait des dunes Mon quartier un désert de bitume Danse avec moi au clair de lune Voici l'homme-animal</t>
+          <t>Voici l'homme-animal J'suis apparu un jour d'hiver et les nuits s'sont allongées Pour ma visite de courtoisie sur le boulevard des allongés Deux mille valses sous demi-lune Éclairant le demi-monde de misère et d'infortune Danse avec moi sur l'avenue Mon amour, mon âme est nue et se consume en papier d'Arménie D'amertume Danse Comme une lettre d'amour cruelle De comte Dracula faisant du mal à sa belle Juste parce qu'il faut qu'ils saignent pour se rappeler qu'ils s'aiment J'ken la sorcière de carnaval car j'ai l'affection cannibale Moi j'adore la race humaine avec du sel et du mezcal Et sans mentir timal j'suis sentimental Brutal en sortie mentale L'irréel me manie mal Quoi ? Apparu un jour d'hiver Qu'est-ce qu'il raconte ? Voici l'homme-animal J'suis apparu un jour d'hiver Le soleil disparut et mes ailes tombèrent à terre J'atterre Gotham City et sa banlieue Où cheminées qui fument dansent avec moi au clair de lune Avant ma haine on vit la joie La nuit tomba si violemment qu'elle assoma les villageois J'suis apparu un jour d'hiver Le soleil disparut et mes ailes tombèrent à terre Attends, paraît que ce monde est le mien Baratin Moi j'suis arrivé, j'avais rien Un peu comme Terminator en plus musclé et sans les vérins C'est bien quand y débarque, hein, au début du film Et qu'y bute 820 gars juste pour carotter un jean Pareil au paria J'ai blessé dans ma manoeuvre le très haut proprio qui n'habite même pas l'immeuble Pied-noir du paradis, j'ai dû partir sans mes meubles un jour d'hiver Quand la neige formait des dunes Mon quartier un désert de bitume Danse avec moi au clair de lune Voici l'homme-animal</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Autopsie post-mortem, j'veux une p'tite gogo dance Big up à Doctor House, big up à Orson Welles Cest pas une guerre, cest un problème qui nous dépasse Jai une toux grasse et l'nez bouché, cest p't-être un gros gros rhume Cest pas un mètre, cest un fossé qui nous sépare Plus quun fossé moi j'dirais plutôt qu'cest une fosse commune Leurs commentaires cest p't-être le pire des effets secondaires Si la télé m'dit comment faire, moi j'vais faire le contraire Tous les regards me tirent dessus et cte galère me pompe lair Et puis comme ça le fils de pute il sera fier de son père Nous sommes en guerre disent-ils, nous sommes dans l'pire scénar Plutôt une guerre civile, je crois quon en a pris le'départ Une troisième guerre mondiale, je tourne dans cette cuisine Pour lhumain il s'fait tard, la mort se cache dans l'pesticide J'suis dans ma grotte, jai la tête grosse et j'prends une trop grosse cuite Mal à la gorge, voix caverneuse et j'deviens troglodyte À présent fuck lotite, j'cultive ce fat body Virus est uploadé, à vingt heures j't'applaudis Le système D ça veut dire la débrouille, la débrouille Restez chez vous, nous cassez pas les couilles, pas les couilles Pâtes et PQ, voleurs de paquets d'couches Ça les répugne lodeur de ma dépouille Hommage aux soldats abattus, car y en a plein qui sont morts J'deviens un cordon bleu et jai d'jà gratté vingt-huit ceaux-mor Je crois que Dame Nature se venge et quon endurcit les mesures On finira entre quatre planches et j'me sens subir ces murs Pour les soigner il suffit pas quils avalent un vaccin La bêtise plane sur les deux quais du canal Saint-Martin Y a qui pour nous guider, un être humain de type germophobe J'crois quon a tout niqué, même printemps, été, hiver, automne La tension baisse, la fièvre monte cest p't-être quune affaire de vente Jai d'jà connu lenfermement, chez moi cest lEnfer de Dante Le buzz est plus que viral, sort de ma veine saillante Leur aide est plus que vitale, merci aux aide-soignantes You might also like Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas On a d'jà fait cent fois les cents pas, à faire des tranchées dans l'parquet Et dans la tête y'a juste la famille, les rents-pa Conscient quon évolue dans un monde bien loin dêtre parfait Rien ne sert de se cacher derrière des remparts Jaccepte pas cette logique d'santé rentable Ils prendraient du cash pour jouer de lorgue à ton enterrement Cest plus la peine de s'la jouer faussement sociaux Sentimentale, votre hypocrisie m'dégoûte tellement Eh, on a affaire à une belle bande de cons finis Ils mettent des amendes à des sans-abris, leur demandent de s'confiner J'crois quon atteint le point de non-retour, Godwin a gagné J'vois des chiffres négatifs défiler sur le compte à rebours Le temps presse, donc plus rien ne me tempère, y a comme un avis de tempête Et la colombe a pris la poudre descampette, putain merde Du mal à nous imaginer à N1 La frontière est fine de Laurent Fabius à Agnès Buzyn La mort frappe à chaque étage et toutes les strates Nos soignants voient des vies senvoler, les autres voient des stat La chute sera violente depuis leur piédestal Tous les voyants sont dans l'rouge et j'crois q'ça leur est bien égal Ils vivent cette crise dans le confort de la distance Mais quand vient l'moment d'sentraider, poto, y a pas d'dispense De lathée au musulman, du juif au catho pratiquant De celles qui arborent les talismans, aux réfugiés du Pakistan Jenvoie toutes ces pensées, ma force aux premières lignes Au corps médical, aux familles des victimes Il ne faut pas que toutes ces pertes ne fassent que partie dun listing Car mourir pour sauver des vies ça mérite toute notre estime On sait bien quils font de leur mieux, dans des conditions déplorables, la rage aux yeux Quand l'cri ne trouve pas doreille, le regard va vers les cieux Mais on n'connait que très bien le sort de ceux qui s'prennent pour Dieu J'rappe à la demande générale, des confinés des hip-hôpitaux Le service durgence musicale cest d'loxygène, mon pote est tôt ? Mon fils de six ans sur la moto, agrippé à mon dos Éviter les barrages cest comme un dédale, cest quune atèle, même pas les pédales Aux soignants garants de nos vies, les frères et surs qui sont au logis Avec mon titre honorifique de rappeur en pneumologie 'Paraît qu'cest la détresse pour mettre des masques au personnel qui va vous soigner Mais pas pour fournir aux CRS, des lacrymos, des LBD Je veux bien ne pas critiquer les lacunes de lÉtat providence Mais le manque de moyens mis dans la santé, dans les respirateurs durgence Macron garde ta morale à toi car y a pas eu d'mort sous ton toit Quand j'vois le salaire des soignants, 'faudrait p't-être faire un moratoire À ta prochaine de chocs vitaux, viens te faire soigner en disgrâce Car tous les hôpitaux de France ne ressemblent pas au Val-de-Grâce Car vous nêtes que des populistes obnubilés par leur carrière Et il ny a plus didéalistes politiques que dans les cimetières Et on n'est pas des arrivistes qui visent à redorer leur blason dans l'peu-ra Au-delà des antibiotiques, le streptocoque doré lemportera On a nos masques de braquage quon prête à ceux qu'en ont besoin On a d'lalcool... mais pas tellement sur les mains Une bande de délinquants morbides, venue faire craquer le Covid Parce quavec un stylo bic, nous on t'fait une trachéo-cro-mi Jai lhabitude des gyrophares, mais cest plus les mêmes sirènes La seule fièvre quon vit quelqu'part, devrait être celle d'NTM La souffrance aux soins est immense, j'ai pas vu d'député mourir Dans les couloirs, sur un brancard des urgences il y a urgence Yeah, p't-être que l'irradiation des villes est la radio-thérapie d'la nature Pour soigner un cancer hostile il faut que lhumain paye sa facture P't-être que cest l'drame dans les villes parce qu'vous êtes juste des fous débiles Mais lorsque lhumain disparaît, reviennent les loups de Tchernobyl Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas On s'retrouvera bientôt autour dune teille en faisant des grosses bringues Mais pour lheure il est temps de retrouver l'bonheur dans des choses simples Angoisse en p'tite surdose, lennemi est invisible Les gens comprennent très bien c'quils risquent depuis qu'le monde sest mis sur pause Mouvement d'panique en grande surface car se joue notre vécu Mais qu'tous ces égoïstes se momifient dans leurs rouleaux d'PQ On était prêt, moi jy crois pas des masses, on rentre dans une sale phase hélas La preuve nos hôpitaux vous ont dit bas les masques Dites-moi c'quil reste en France dès qu'les sirènes senclenchent Dites-moi si j'crève, dites-moi si j'rêve, quon n'était pas si prêt pour une si belle sentence Ça fait quoi d'se retrouver face à sa pire hantise Cest pas l'virus mais la bêtise de lHomme qui nous a pris en grippe Nos vrais héros demandent à s'faire entendre à s'faire entendre Personnel médical qui lutte jour et nuits pour qu'la merde séloigne Merci à ceux qui restent au front malgré la fièvre ambiante Et dites aux inconscients quil y a pire prison que dêtre chez soi Quand la bactérie joue d'la batterie, wow Jentends des cris, des moqueries Confiné, j'dois filer, mon fils finit sa poterie Laisse-moi l'temps d'respirer, jai la zik dans la poitrine Douce sera la médecine, perso j'roule ma sensi La zik ma sauvé, j'rajoute ça à mon autopsie Fuck les aristocrates, oui la richesse est coupable Cousin j'rappe en urgence vu que laction est remarquable Donne la force aux grands-parents, noublie pas la mama Avant qu'les larmes coulent sur le bord dun diaporama Finie lépoque Nirvana, marié à Marijuana Allez, donne-moi une scène on fera des sauts à Serge Lama Non, c'monde n'a rien d'banal, rouya Dooz Kawa Bien sûr j'ai de l'espoir même si l'virus fout l'dawa Oui la prod fout l'fire, et tout l'monde fout l'faya Bien sûr j'ai de l'espoir même si l'virus fout l'dawa Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas Toi tu m'as surpris Comme un rhume Au coin de mon lit Toi tu m'as surpris Comme un rhume Mon épidémie Toi tu m'as surpris Comme un rhume Au coin de mon lit Toi tu m'as surpris Comme un rhume Mon épidémie, toi ma brune</t>
+          <t>Autopsie post-mortem, j'veux une p'tite gogo dance Big up à Doctor House, big up à Orson Welles Cest pas une guerre, cest un problème qui nous dépasse Jai une toux grasse et l'nez bouché, cest p't-être un gros gros rhume Cest pas un mètre, cest un fossé qui nous sépare Plus quun fossé moi j'dirais plutôt qu'cest une fosse commune Leurs commentaires cest p't-être le pire des effets secondaires Si la télé m'dit comment faire, moi j'vais faire le contraire Tous les regards me tirent dessus et cte galère me pompe lair Et puis comme ça le fils de pute il sera fier de son père Nous sommes en guerre disent-ils, nous sommes dans l'pire scénar Plutôt une guerre civile, je crois quon en a pris le'départ Une troisième guerre mondiale, je tourne dans cette cuisine Pour lhumain il s'fait tard, la mort se cache dans l'pesticide J'suis dans ma grotte, jai la tête grosse et j'prends une trop grosse cuite Mal à la gorge, voix caverneuse et j'deviens troglodyte À présent fuck lotite, j'cultive ce fat body Virus est uploadé, à vingt heures j't'applaudis Le système D ça veut dire la débrouille, la débrouille Restez chez vous, nous cassez pas les couilles, pas les couilles Pâtes et PQ, voleurs de paquets d'couches Ça les répugne lodeur de ma dépouille Hommage aux soldats abattus, car y en a plein qui sont morts J'deviens un cordon bleu et jai d'jà gratté vingt-huit ceaux-mor Je crois que Dame Nature se venge et quon endurcit les mesures On finira entre quatre planches et j'me sens subir ces murs Pour les soigner il suffit pas quils avalent un vaccin La bêtise plane sur les deux quais du canal Saint-Martin Y a qui pour nous guider, un être humain de type germophobe J'crois quon a tout niqué, même printemps, été, hiver, automne La tension baisse, la fièvre monte cest p't-être quune affaire de vente Jai d'jà connu lenfermement, chez moi cest lEnfer de Dante Le buzz est plus que viral, sort de ma veine saillante Leur aide est plus que vitale, merci aux aide-soignantes Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas On a d'jà fait cent fois les cents pas, à faire des tranchées dans l'parquet Et dans la tête y'a juste la famille, les rents-pa Conscient quon évolue dans un monde bien loin dêtre parfait Rien ne sert de se cacher derrière des remparts Jaccepte pas cette logique d'santé rentable Ils prendraient du cash pour jouer de lorgue à ton enterrement Cest plus la peine de s'la jouer faussement sociaux Sentimentale, votre hypocrisie m'dégoûte tellement Eh, on a affaire à une belle bande de cons finis Ils mettent des amendes à des sans-abris, leur demandent de s'confiner J'crois quon atteint le point de non-retour, Godwin a gagné J'vois des chiffres négatifs défiler sur le compte à rebours Le temps presse, donc plus rien ne me tempère, y a comme un avis de tempête Et la colombe a pris la poudre descampette, putain merde Du mal à nous imaginer à N1 La frontière est fine de Laurent Fabius à Agnès Buzyn La mort frappe à chaque étage et toutes les strates Nos soignants voient des vies senvoler, les autres voient des stat La chute sera violente depuis leur piédestal Tous les voyants sont dans l'rouge et j'crois q'ça leur est bien égal Ils vivent cette crise dans le confort de la distance Mais quand vient l'moment d'sentraider, poto, y a pas d'dispense De lathée au musulman, du juif au catho pratiquant De celles qui arborent les talismans, aux réfugiés du Pakistan Jenvoie toutes ces pensées, ma force aux premières lignes Au corps médical, aux familles des victimes Il ne faut pas que toutes ces pertes ne fassent que partie dun listing Car mourir pour sauver des vies ça mérite toute notre estime On sait bien quils font de leur mieux, dans des conditions déplorables, la rage aux yeux Quand l'cri ne trouve pas doreille, le regard va vers les cieux Mais on n'connait que très bien le sort de ceux qui s'prennent pour Dieu J'rappe à la demande générale, des confinés des hip-hôpitaux Le service durgence musicale cest d'loxygène, mon pote est tôt ? Mon fils de six ans sur la moto, agrippé à mon dos Éviter les barrages cest comme un dédale, cest quune atèle, même pas les pédales Aux soignants garants de nos vies, les frères et surs qui sont au logis Avec mon titre honorifique de rappeur en pneumologie 'Paraît qu'cest la détresse pour mettre des masques au personnel qui va vous soigner Mais pas pour fournir aux CRS, des lacrymos, des LBD Je veux bien ne pas critiquer les lacunes de lÉtat providence Mais le manque de moyens mis dans la santé, dans les respirateurs durgence Macron garde ta morale à toi car y a pas eu d'mort sous ton toit Quand j'vois le salaire des soignants, 'faudrait p't-être faire un moratoire À ta prochaine de chocs vitaux, viens te faire soigner en disgrâce Car tous les hôpitaux de France ne ressemblent pas au Val-de-Grâce Car vous nêtes que des populistes obnubilés par leur carrière Et il ny a plus didéalistes politiques que dans les cimetières Et on n'est pas des arrivistes qui visent à redorer leur blason dans l'peu-ra Au-delà des antibiotiques, le streptocoque doré lemportera On a nos masques de braquage quon prête à ceux qu'en ont besoin On a d'lalcool... mais pas tellement sur les mains Une bande de délinquants morbides, venue faire craquer le Covid Parce quavec un stylo bic, nous on t'fait une trachéo-cro-mi Jai lhabitude des gyrophares, mais cest plus les mêmes sirènes La seule fièvre quon vit quelqu'part, devrait être celle d'NTM La souffrance aux soins est immense, j'ai pas vu d'député mourir Dans les couloirs, sur un brancard des urgences il y a urgence Yeah, p't-être que l'irradiation des villes est la radio-thérapie d'la nature Pour soigner un cancer hostile il faut que lhumain paye sa facture P't-être que cest l'drame dans les villes parce qu'vous êtes juste des fous débiles Mais lorsque lhumain disparaît, reviennent les loups de Tchernobyl Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas On s'retrouvera bientôt autour dune teille en faisant des grosses bringues Mais pour lheure il est temps de retrouver l'bonheur dans des choses simples Angoisse en p'tite surdose, lennemi est invisible Les gens comprennent très bien c'quils risquent depuis qu'le monde sest mis sur pause Mouvement d'panique en grande surface car se joue notre vécu Mais qu'tous ces égoïstes se momifient dans leurs rouleaux d'PQ On était prêt, moi jy crois pas des masses, on rentre dans une sale phase hélas La preuve nos hôpitaux vous ont dit bas les masques Dites-moi c'quil reste en France dès qu'les sirènes senclenchent Dites-moi si j'crève, dites-moi si j'rêve, quon n'était pas si prêt pour une si belle sentence Ça fait quoi d'se retrouver face à sa pire hantise Cest pas l'virus mais la bêtise de lHomme qui nous a pris en grippe Nos vrais héros demandent à s'faire entendre à s'faire entendre Personnel médical qui lutte jour et nuits pour qu'la merde séloigne Merci à ceux qui restent au front malgré la fièvre ambiante Et dites aux inconscients quil y a pire prison que dêtre chez soi Quand la bactérie joue d'la batterie, wow Jentends des cris, des moqueries Confiné, j'dois filer, mon fils finit sa poterie Laisse-moi l'temps d'respirer, jai la zik dans la poitrine Douce sera la médecine, perso j'roule ma sensi La zik ma sauvé, j'rajoute ça à mon autopsie Fuck les aristocrates, oui la richesse est coupable Cousin j'rappe en urgence vu que laction est remarquable Donne la force aux grands-parents, noublie pas la mama Avant qu'les larmes coulent sur le bord dun diaporama Finie lépoque Nirvana, marié à Marijuana Allez, donne-moi une scène on fera des sauts à Serge Lama Non, c'monde n'a rien d'banal, rouya Dooz Kawa Bien sûr j'ai de l'espoir même si l'virus fout l'dawa Oui la prod fout l'fire, et tout l'monde fout l'faya Bien sûr j'ai de l'espoir même si l'virus fout l'dawa Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas Toi tu m'as surpris Comme un rhume Au coin de mon lit Toi tu m'as surpris Comme un rhume Mon épidémie Toi tu m'as surpris Comme un rhume Au coin de mon lit Toi tu m'as surpris Comme un rhume Mon épidémie, toi ma brune</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Représente man Et même si nos chemins sont des chemins de boue Qu'on avance à genoux Utopistes debout ! Et même s'il est éteint le soleil dedans de nous L'obscurité nous étreint Utopistes debout ! Et même si ceux qui font qu'on saigne, veulent après qu'on s'rallie Pour combattre le système frère qui nous a trop salit Réveillez-vous ! Puisqu'il est l'heure de rêver Utopistes debout Même si on meurt à en crever Anarchistes ! Eh ! Ecoute pleurer ton âme Chemise cravate et masque, gouvernés par des ânes Anarchistes ! Eh ! Où sont tes idéaux ? Dans les tiroirs des bureaux commandés par des idiots Anarchistes ! Eh ! Rappelle toi quand t'y étais Manif' 68 dis tu revois les yéyés ? You might also likeAnarchistes ! Efface tes traces de neige Reprend du temps qui passe et du Xanax au ptit déj Samples divers Et même si nos chemins sont des chemins de boue Qu'on avance à genoux Utopistes debout ! Et même s'il est éteint le soleil dedans de nous L'obscurité nous étreint Utopistes debout !</t>
+          <t>Représente man Et même si nos chemins sont des chemins de boue Qu'on avance à genoux Utopistes debout ! Et même s'il est éteint le soleil dedans de nous L'obscurité nous étreint Utopistes debout ! Et même si ceux qui font qu'on saigne, veulent après qu'on s'rallie Pour combattre le système frère qui nous a trop salit Réveillez-vous ! Puisqu'il est l'heure de rêver Utopistes debout Même si on meurt à en crever Anarchistes ! Eh ! Ecoute pleurer ton âme Chemise cravate et masque, gouvernés par des ânes Anarchistes ! Eh ! Où sont tes idéaux ? Dans les tiroirs des bureaux commandés par des idiots Anarchistes ! Eh ! Rappelle toi quand t'y étais Manif' 68 dis tu revois les yéyés ? Anarchistes ! Efface tes traces de neige Reprend du temps qui passe et du Xanax au ptit déj Samples divers Et même si nos chemins sont des chemins de boue Qu'on avance à genoux Utopistes debout ! Et même s'il est éteint le soleil dedans de nous L'obscurité nous étreint Utopistes debout !</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Dooz_Kawa_songs.xlsx
+++ b/data/02_intermediate/cleaned_Dooz_Kawa_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ex</t>
+          <t>Freestyle n°1 “No Love”</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Columbine - Clubbing for Columbine - 0301 Sam's - Sunday Soundcloud Première saison 0401 Artiste multiples Babali Show rap is not a game vol. 2 - 0501 La Race Canine - Héroïne - 0601 Sanka - Black shaolin - 0801 Black Kent - Morceaux d'un homme - 0801 Freeze Corleone - Vieilles merdes vol. II - 1101 75ème Session - Enter the dojo vol. 2 Diabi - 1501 Alpha Wann - Alph Lauren 2 - 1501 Rim'k - Monster tape 1801 Ninho - I.S.P.A.C 2 - 1801 Scars Volodia - Vitamine R - 2001 Alkpote Butter Bullets - Ténébreuse musique 2101 Lacraps Mani Deïz - 42 grammes - 2201 H Magnum - Gotham city 2301 Godié Swinx - N22 - 2401 Hash24 Sopico - 2075 2501 Artistes multiples - Sismogram - 2501 Euphonik - Inconnu mais reconnu 2501 Taf - Tohu bohu - 2901 Lefa - Monsieur Fall 2901 Bolo Bicrave ou rapper Février 0202 H-Tône - Fistaille made in Toylettes Vol. 1 - 0502 Fixpen Sill - Edelweiss - 0502 Kohndo - Intra-muros - 0502 KSA - VIII 0502 Manny À lhorizon 0502 Oner O 0502 Tarek FastLife Emirates money - 0502 Tortoz - Dans le carré 0702 SLONE - At the boom jazz cafe 0802 Eddy Woogy - Tout Eddy - 0802 Kekra - Free base 2 - 1002 Sango - Flowrilege 1202 Diomay Tchiki O - 1202 Perso - Gratte ciel 1202 Pink Flamingo - Escape - 1702 Peet - PEATE 1902 Bip's - Nocturne pré-régicide 1902 Cadavreski - Sensible 1902 Clem Beatz - Trouble in paradise 1902 Fadah KLM - Le billet de 5 - 1902 Kore - Pattaya Bande Originale 1902 Krom Au Mic Zone franche - 1902 Leeroy - Noir fluo - 1902 Sadek - Roulette Russe - 2102 Inspire - Millenaire II 2502 Timuxx - Super hero 2602 Bazoo - B-Tape - 2602 Brav - Error 404 2602 Dirty Zoo - La Dernière Tribu 2602 Droogz Brigade - Projet Ludovico - 2602 Jazzy Bazz - P-Town 2602 Kamnouze OSNS - 2602 Kool Shen - Sur le fil du rasoir - 2602 Nakk Mendosa - Darksun 2 2602 Numbers - Numbers - 2802 O'boy - OlySide - 2802 Romeo Elvis Le Motel - Morale 2902 Charly Kid Patee Gee - Yacht Club 2902 Vaati - Adventures Mars - 0203 Grems - Green Pisse - 0203 Grems - Freen Pisse - 0303 Biffty - Du sale et du gras Bootleg - 0403 13 Block Violence urbaine émeute 0403 Aris-K Noob saibot - 0403 Jul - My World Réédition - 0403 Lartiste - Maestro - 0403 La Fouine - Nouveau Monde - 0403 Moïse The Dude - Dudelife 0703 Cheeko Blanka - Sont Trop Cools 0803 Skreally Boy - SuperStona1 - 1103 Fababy - Ange Démon 1303 Les 13 Salopards - Own The Spot 1403 Triplego - Eau Max 1503 KSA DJ Weedim - Clochard de luxe - 1703 KT Gorique - Tentative de survie - 1803 DTF - La hass avant le bonheur - 2103 Pesoa - Supra - 2503 Falcko Conte de tess IV 2503 Hugo Délire Kyo Itachi - Grand Delirium - 2503 The Shin Sekaï - Indéfini - 2503 MOH - L'art des Mots 2703 Seven Eli Prod - Double Infini - 3103 Lorenzo - Empereur du sale 3103 Beny, Yacine 1.5, Majdon Co Yazid Z - Reality Show Avril - 0104 Jul - Album Gratuit 2016 - 0104 Ol'Kainry - Superman Noir - 0104 TLF - No Limit - 0404 Juxebox - Naga 0604 Coolax - Black Mathusalem - 0804 Bhati - Abimé 0804 Green Money CDC V 0804 Iris - Magnitude 10 Maxi - 0804 Jehkyl - CVPP Couilles Vides Poches Pleines - 0804 Jorrdee DJ Weedim - Je sais plus - 0804 Les Frères Lumières - À des années lumières - 0804 Lil Taï Z - Lil Taï Z - 0804 Neg' Marrons - Valeur Sûre - 0804 Sultan - Condamné À Régner 1004 Krisy - Parmi vous - 1504 A2H - Libre 1504 Arm TEPR - Psaumes - 1504 Doc Gynéco - Première consultation Edition 20ème Anniversaire - 1504 MHD - MHD - 1504 Artistes multiples - Booska Peufra - Vol. 2 1804 Jiddy - CKDO 2004 Fhat.R Melan - Bornes To Loose - 2204 Big Budha Cheez - L'heure des loups - 2204 Caballero JeanJass - Double Hélice - 2204 MZ - La Dictature 2404 Beeby - Le aigneur Réédition - 2704 Eech - Rosendaal Talk 2904 Artiste multiples - Néochrome présente Microbes saison 1 - 2904 Dr Bériz - 1974 - 2904 Hooss - French Riviera Vol. 2 2904 Loud Lary Ajust - Ondulé - 2904 Tiers Monde - No Future 3004 2spee Gonzales - Ah Souhait Vol. 1 Mai 0205 Brownie Dubz Gang - LE KLVN 0205 I.N.C.H. - Nappage Nocturne - 0305 3010 - Monstre - 0605 Djadja Dinaz - On s'promet - 0605 Jarod - Caméléon - 0605 Kalash Kaos 0605 Paco - Baraka Feat 0605 Rezinsky - Les Hérétiques, Tomes I II - 0605 Mani Deïz, Senamo Seyté - Trois fois rien 1005 Artistes multiples - EOW EP - 1005 Di-Meh - Shine 1205 Jones Cruipy - Rêve européen 1305 Artistes multiples - AMG Hip Hop Présente La France Sous Pression 1305 Coco Tkt Human ex thug 1305 Rochdi - L'Exorciste Cénobite 1305 Specta - Metempsycose - 2005 Alonzo - Avenue de Saint-Antoine - 2005 Dooz Kawa - Bohemian Rap Story - 2005 Ghetto Fabulous Gang - 93 La cité des parias 2005 Houssaw - Play 2005 LK de l'Hotel Moscou - Orient Heights Springbreak 2 - 2005 PSO Thug - Demoniak 2005 Ywill La Jonction - Livre d'or 2005 GLK - Murder 2305 Mani Deïz - Comme les autres - 2505 Ichon - FDP - 2605 Niro - Or Game - 2705 Aero Wonderful - Atmosphère Vol. 2 - 2705 Kekra - Vréel - 2705 Keny Arkana - État d'Urgence 2705 Artistes multiples - Néochrome - Tirs Groupés volume 2 2705 Res Turner - Ouvrez les cages - 2705 Lomepal Stwo - ODSL - 2705 SCH - Anarchie 3105 Hits Alive - Triple 6 Vol. 3 Les Enfants du Diable Juin 0306 Fadah, Kdor Metronom Les sens des maux 0306 Faf Larage Sébastien Damiani - Larage Damiani Extended Play Vol. 2 - 0306 Guizmo - GPG - 0306 Jr O Crom Doomams - Vendetta - 0306 K-LY - Samo - 0306 Lucio Bukowski Oster Lapwass - Oderunt Poetas - 0306 Niska Zifukoro - 0306 Numbers - 77 0306 Rekta - Marche ou Crève 0506 Ockney Chileas Alter ego 2 - 0606 A2H - Studio Files 2015-2016 0606 Funky Armenico Subotaï - Normalus 0606 Ockney Chilea's - Alter Ego 2 1006 Arom - Damien VS Van Helsing - 1206 Salfrom Goune, Stick Bazoo - Godphaseurs - 1306 Josman - Matrix - 1306 Grems The Imposture - P.R.A.F 1506 Jiddy - Training Tape 2 1706 Mac Kregor - Cogito Ergo Sum 1706 Myth Syzer Ikaz Boi - Cerebral EP - 1706 -Crew - Destins Liés - 1906 Panama Bende - Bende Mafia - 2206 Les Tontons Flingueurs - Le démon à 9 queues II 2206 Youno Les Chimistes - Méthylamine - 2406 Alkpote DJ Weedim - Sadisme et perversion - 2406 Bigflo Oli - La cour des grands Réédition 2406 Fizzi Pizzi - C1C2T - 2406 Hamza - Zombie Life - 2406 Jul - Émotions 2406 Zekwé Ramos - FrappMusiq 2606 SOV - Sovaire Ep - 2706 Sopico - MOJO Juillet 0107 Aladoum - Géant Noir - 0107 Les Alchimistes - Cannibales - 0107 Biffty DJ Weedim - Mega Souye Tape 0107 Kahifa - Nueva Luz - 0407 Népal - 444 Nuits - 0807 Damso - Batterie Faible - 0807 Sadek - Nique le casino 1107 Hologram Lo' - Jeep EP 1307 Fencizzle Gsnype - Kramwa'ill - 1807 Lapso Laps - Packman 2107 Les Genero - Parcours du combattant 2707 Nusky - On vit avec - 3107 Despo Rutti - Majster - 3107 Krisy - Menthe à l'eau Août - 0508 O'Trak - Gomorrap - 2608 Maître Gims - À contrecur M.C.A.R. Réédition Septembre - 0209 A2H - Summer Stories Kushtape Volume 2 - 0509 LuXe - LuXemixtape - 0909 13 Block - Ultrap - 0909 Rockin' Squat - Grand Cru Classé 2004-2016 1209 Beeby - 5 Etoiles 1209 K-LY - K-LY Co - 1509 Jul - Album gratuit 2016 Vol. 2 - 1609 PNL - Dans la légende - 1609 Wati B - La Pièce BO du film 1709 A Point Z Matière grise - 2309 Jorrdee - BJOVR IOP! - 2309 Lefa - TMCP - 2309 Volodia - Un Pied sur Terre - 2309 Jayel - Tout Est Dit - 2509 Dinos - Toujours pas Imany mais presque - 2609 Espiiem - Départ 2609 La Connaixion Jeunesse Eternelle - 2609 Tengo John - Près Qu'elle - 3009 Kery James - Mouhammad Alix 3009 LIM - Pirates - 3009 Taïro - Reggae Français Octobre 0710 Elams - Je Suis Elams - 0710 MRC - MRC - 0910 Hakim Sensei - Goldfish 1010 Gys - Vale Tudo 1010 LTA - Echographie 1310 La Prune - La Prune - 1410 Convok - Un jour plus vieux - 1410 Despo Rutti Le Front Kick De Cantona - 1410 Gros Mo - Les de Gros Mo 1410 Lefty All Hayz On Me 1410 JP Manova - 19h07 Réédition - 1410 Soprano - L'Everest 1810 Issaba - À la recherche du temps perdu 2110 Hotel Moscou - L'Opium du Peuple - 2110 Lil Taï Z - Trop Jeune - 2110 Ninho M.I.L.S Maintenant Ils Le Savent - 2110 Naza - Tout pour la street 2110 Skreally Boy - 0352 - 2110 Sneazzy - Dieu bénisse Supersound 2110 Mani Deïz, Nefaste, Ol Zico Pejmaxx Martyrs Modernes 2310 Le 77 - C'est le 77 - 2410 Hamza - New Casanova 2510 2spee Gonzales - Ah Souhait Vol. 2 - 2810 Black M - Eternel Insatisfait - 2810 Casseurs Flowters - Live Tour 2016 2810 Gérard Baste - Le Prince de la Vigne 2810 Jeff Le Nerf Red Album - 2810 Kalash Criminel - R.A.S 2810 Kdor Sales Gosses Incurable 2810 La Méthode - Adrénaline - 2810 L'Algérino - Banderas 2810 Lario Nowhere A Mi-Chemin 2810 Medouze Changer La Donne 2810 Taïpan - P.A.N - 2810 Tortoz - FullG - 3110 T.I.S - L'homme contre le monstre Novembre 0111 Karna - Inconnu mais style reconnu - 0211 Prince Waly Myth Syzer - Junior - 0411 Dosseh - Yuri - 0411 Georgio - Héra - 0411 MMZ - Tout Pour Le Gang 0611 Artistes multiples - Misère Records présente le rap indé ouvre sa gueule - 0611 Lu'cid - Ex-Nihilo 0611 PALA - Acid Rose Garden 0711 Le Bon Son Du Bon Son 3 1111 Artistes multiples - Diamantaire Jee Van Cleef présente Jukebox Vol. 1 1111 Das Raizer - Nathuram Godse - 1111 Kaaris - Okou Gnakouri 1111 Krimo Vis Ta Vie 1511 Mr Kayz - 11 de légende 1611 HIGHMAN - H.I.G.H 1811 Artistes multiples All Stars Industrie - 1811 Mister You - Le Grand Méchant You 1811 Pumpkin Vin'S da Cuero - Chimiq - 1811 Seth Gueko - Barlou 2011 Tengo John - Tortue de Jade 2111 Jorrdee - Wavers 2111 Tonino Entre Temps John-Z Zed Beatz 2111 Dorian - Horizons 2511 Anton Serra Eddy Martin - Les 400 coups - 2511 Gradur - Where is l'album de Gradur 2511 Lacraps - Les Preuves Du Temps - 2511 Lucio Bukowski Milka - Hourvari - 2511 Swift Guad Mani Deiz - Masterpiece - 2711 PLK - Dedans - 2811 Haristone - Bates Motel - 2811 High Five Crew - Silicon Valley 3011 Artistes multiples - Le Gang Des Antillais Bande Originale Du Film De Jean-Claude Barny - 3011 Kekra - FreeBase 3 3011 Sëar-lui-même - À L'arrache, Épisode II Histoires Sans Fin XX11 Néochrome - Générations 88.2 Décembre - 0212 Billy Joe - La petite maison de la tuerie 0212 Chabodo - C'est Le Cha - 0212 Jul - L'ovni - 0212 Nekfeu - Cyborg 0212 Tarek FastLife À Bon Entendeur - 0212 Shay - Jolie Garce - 0212 Shurik'N - Adamant-ium - 0412 So'Clock Negann - Fréquences 0912 Artiste multiples - Booska Pefra Vol. 3 0912 Benito Chacon Chef De Meute 0912 GrandeVille - GrandeVille Records Vol. 1 0912 Lartiste - Clandestino - 0912 Laylow - Mercy 0912 Niro - Les Autres avec Or Game en version physique 0912 Prince Fellaga - Arabesque 0912 Tekilla Le Retour du sombre héros - 0912 Tito Prince - Toti Nation II 1112 Da Nill PubArt - 1112 Luni Sacks - Souterrain Son Vol. 1 - 1212 B-Biface - Fini de pleurer 1212 Hematome Pêle-Mêle 1212 Sauveur Eloheem - Aube 1412 Toy El Mago, Swif Nebaza Rus-Vi Made In 1Dependanz 1612 Artiste multiples - Sauvages, vol. 2 1612 Fayçal - Bords perdus EP 1612 K-Rhyme Le Roi Adrénaline 1612 Melan - Vagabond De La Rime, Vol. 3 - 1812 Rowjay - Carnaval de Finesse 1912 Stick - TricératoX Vol. 2 - 2012 Beny - Pepito deviendra grand 2112 West - Overdose 2212 Seven - 2032 - 2312 Nekfeu - Black Album - 2412 Hamza - Santa Sauce 2512 Grande Instance - 12 ans d'âge 2512 Miklo - Carnal Vol. 1 2512 Sauveur Eloheem - Le Panthéon des Pensées Sombres 2912 GRTZKY - Apex 2912 Sixo Master Flow - JMNDC 3112 G Lamaonthebeat - Dans le noir EP 3112 Jason Voriz - Trap Manstrr Autres - Du 1104 au 1111 Sofiane - Jesuispasséchezso Du 1706 au XXXX Alkpote - Les Marches de l'Empereur, Saison 2 - Du 2307 au 1408 Eskro - Néant 94 Date à confirmer XXXX Treza Ulysse XXXX Minch Né Sous X16</t>
+          <t>Sur le mic j'élimine les minables J'ai laminé les domaines XXX de mes ennemis XXX Nous nous munissons de munitions et misons sur l'issue fatale Madame, Messieurs, XXX je vous salue sur cette émission émise L'MC est sur une mission car mes rimes sont des lignes sombres faites de buissons Délimité comme un harki car cattaqué au taquet comme Anakin Je kick des temps, détrône des trucs Détraqués sont mes neurones Je quitte les lignes ennemies éliminées, laisse des milliers d'humiliés Je signe un hymne inimité à l'unanimité T'attires l'animosité Je rappe l'animalité sur la page à l'arrache, casse la cage à la hache, passe Kawa qu'a la rage Et que les lâches XXX Kalash sachent je m'en sortirai XXX je t'embrasse Le temps passe et j'ai toujours pas d'amour pour ceux d'en face J'ai beau me chouffer dans une glace, faire partie du groupe de conciliation Et je regarde passer vos faces de Bastille à Nation Mais non, j'ai toujours pas l'amour pour ceux d'en face Ain't got no love for the other rhymes Got no love for the other side Sur l'acoustique ta copine me dit costaud Caustique comme l'acide au stylo Bic Oxyde tous les MC de boîte Je rappe que des lyrics atypiques qui piquent et les coccyx déboîtent Je débite, je débarque et mes démos sont des battes Agite tellement les nuques qu'on les décapite Capisce ? Si toxique et puis nique au mic l'MC comique qui débute Ma solitude est ma seule étude, je saccage le stud' et m'accapare le mic XXX MC t'as plus de refuge sauf un baggy jean hydrofuge Dooz Kawa dans le stud' Élémentaire mon cher Oster Je vais faire un tuto pour les nuls, ou plutôt un truc genre fascicule Hein ? Y a le feu dans le studio, je continue ? Got no love for the other side Alors mon pote, tu croyais que j'étais un gros poisson dans une mare ? Je me marre car t'es qu'un poisson-clown déguisé en requin On est tout le panier de crabes et ses piranhas Toi t'es la pire arnaque J'ai largué ta petite nana C'est pour ça que mon rap sent la moule, le tien pue de la raie T'arrêtes de te doigter, toi t'es juste un poisson de ligne Et si on te mettait en Inde tu serais un plat sans riz Dooz Caviar est dans la flaque Tout baigne On harponne en symphonie Oster Lapwassonnerie Got no love for the other side2</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Freestyle n°1 “No Love”</t>
+          <t>Haa yaa</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sur le mic j'élimine les minables J'ai laminé les domaines XXX de mes ennemis XXX Nous nous munissons de munitions et misons sur l'issue fatale Madame, Messieurs, XXX je vous salue sur cette émission émise L'MC est sur une mission car mes rimes sont des lignes sombres faites de buissons Délimité comme un harki car cattaqué au taquet comme Anakin Je kick des temps, détrône des trucs Détraqués sont mes neurones Je quitte les lignes ennemies éliminées, laisse des milliers d'humiliés Je signe un hymne inimité à l'unanimité T'attires l'animosité Je rappe l'animalité sur la page à l'arrache, casse la cage à la hache, passe Kawa qu'a la rage Et que les lâches XXX Kalash sachent je m'en sortirai XXX je t'embrasse Le temps passe et j'ai toujours pas d'amour pour ceux d'en face J'ai beau me chouffer dans une glace, faire partie du groupe de conciliation Et je regarde passer vos faces de Bastille à Nation Mais non, j'ai toujours pas l'amour pour ceux d'en face Ain't got no love for the other rhymes Got no love for the other side Sur l'acoustique ta copine me dit costaud Caustique comme l'acide au stylo Bic Oxyde tous les MC de boîte Je rappe que des lyrics atypiques qui piquent et les coccyx déboîtent Je débite, je débarque et mes démos sont des battes Agite tellement les nuques qu'on les décapite Capisce ? Si toxique et puis nique au mic l'MC comique qui débute Ma solitude est ma seule étude, je saccage le stud' et m'accapare le mic XXX MC t'as plus de refuge sauf un baggy jean hydrofuge Dooz Kawa dans le stud' Élémentaire mon cher Oster Je vais faire un tuto pour les nuls, ou plutôt un truc genre fascicule Hein ? Y a le feu dans le studio, je continue ? Got no love for the other side Alors mon pote, tu croyais que j'étais un gros poisson dans une mare ? Je me marre car t'es qu'un poisson-clown déguisé en requin On est tout le panier de crabes et ses piranhas Toi t'es la pire arnaque J'ai largué ta petite nana C'est pour ça que mon rap sent la moule, le tien pue de la raie T'arrêtes de te doigter, toi t'es juste un poisson de ligne Et si on te mettait en Inde tu serais un plat sans riz Dooz Caviar est dans la flaque Tout baigne On harponne en symphonie Oster Lapwassonnerie Got no love for the other side2</t>
+          <t>T'arrives en bling-bling et il paraît que tu fais du rap XXX moi je fais du blâme Click, click, blam ! En plein milieu du front sur ton rap à deux balles Je suis venu tailler des MC DJ, fais tourner la DMC Kayo du T-Kaï Cee et Junior sur l'M-I-C Pour tous ceux qui sont pas là ou pas d'ici Arrête de mater mes gens sinon tu vas compter tes dents ... enfin si tu sais compter ! Bah ! Ça t'a fait mal ? Il paraît que t'as pris le micro juste pour avoir ta photo dans Radical T'es déguisé en survêt' avec ton pull de racaille Mais moi je sais qui t'es mec T'es le petit gars à lunettes dans les petites annonces d'Elie Cherche blonde à gros poitrail Le genre qui boit du 'sky au goulot comme les cow-boys Et après deux heures de bordel, qui vomit dans mon hall Arrache-toi de mes ruelles Ici c'est la nouvelle école mais c'est pas la maternelle Je crois que ta mater t'appelle Et rends-moi ma bouteille, hataï En me marchant sur les orteils tu voulais me dépasser par la taille Mais moi je dépasse tes textes à thème juste avec un freestyle Je te rotte-ca l'M-I-C avec ton sachet de thaï Et enlève tes Air Max, j'ai l'impression que c'est ma taille Depuis que t'as vu 8 Mile, illuminé, tu rappes à mort Tu crois que c'est pour ça que t'es né, mais bientôt c'est pour ça que t'es mort Tu crois faire du hip-hop mais c'est de la pollution sonore T'aurais dû faire arts plats avec ton style amorphe J'espère que tu rappes pas comme tu baises ta meuf</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Haa yaa</t>
+          <t>Homicide</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>T'arrives en bling-bling et il paraît que tu fais du rap XXX moi je fais du blâme Click, click, blam ! En plein milieu du front sur ton rap à deux balles Je suis venu tailler des MC DJ, fais tourner la DMC Kayo du T-Kaï Cee et Junior sur l'M-I-C Pour tous ceux qui sont pas là ou pas d'ici Arrête de mater mes gens sinon tu vas compter tes dents ... enfin si tu sais compter ! Bah ! Ça t'a fait mal ? Il paraît que t'as pris le micro juste pour avoir ta photo dans Radical T'es déguisé en survêt' avec ton pull de racaille Mais moi je sais qui t'es mec T'es le petit gars à lunettes dans les petites annonces d'Elie Cherche blonde à gros poitrail Le genre qui boit du 'sky au goulot comme les cow-boys Et après deux heures de bordel, qui vomit dans mon hall Arrache-toi de mes ruelles Ici c'est la nouvelle école mais c'est pas la maternelle Je crois que ta mater t'appelle Et rends-moi ma bouteille, hataï En me marchant sur les orteils tu voulais me dépasser par la taille Mais moi je dépasse tes textes à thème juste avec un freestyle Je te rotte-ca l'M-I-C avec ton sachet de thaï Et enlève tes Air Max, j'ai l'impression que c'est ma taille Depuis que t'as vu 8 Mile, illuminé, tu rappes à mort Tu crois que c'est pour ça que t'es né, mais bientôt c'est pour ça que t'es mort Tu crois faire du hip-hop mais c'est de la pollution sonore T'aurais dû faire arts plats avec ton style amorphe J'espère que tu rappes pas comme tu baises ta meuf</t>
+          <t>Last updated 1062018, 516PM MSTOctoberOctober 6Jesse Powell Jesse Powell 1996October 5girl in red chapter 1 2018 Blanca Shattered 2018 LouGotCash feat. Trippie Redd Too Turnt 2018October 4Terri Clark Raising the Bar 2018 Jess Kent Girl 2018 Joey Purp QUARTERTHING 2018 Cypress Hill Crazy 2018 Brooke Evers feat. Rachel West Glen Faria Turn Around 2018 Born Dirty feat. jstlbby Get Up Get Out 2018 First Aid Kid Tender Offerings 2018 Kap G no kap 2018 Asiahn NOLA 2018 Young Dolph By Mistake 2018 Charlotte Lawrence Stole Your Car 2018October 3Howard Together Alone 2018 Joji SLOW DANCING IN THE DARK 2018 Joji YEAH RIGHT 2018 Brett Young Here Tonight 2018 Swizz Beatz feat. Lil Wayne Pistol on My Side P.O.M.S 2018 Lil Baby Gunna Drip Too Hard 2018 Ciara Dose 2018 Lana Del Rey Mariners Apartment Complex 2018 Tori Kelly Hiding Place 2018October 2Noname Room 25 2018 Wale Free Lunch 2018 Carrie Underwood Cry Pretty 2018October 1NASeptemberSeptember 30NASeptember 29NASeptember 28Gucci Mane, Bruno Mars Kodak Black Wake Up in the Sky 2018September 27NASeptember 26NASeptember 25NASeptember 24teddy3 Body and Soul 2018 Brynn Elliott Time of Our Lives 2018 Madison Cuningham Last Boat to Freedom 2018 Abby Anderson I'm Good 2018 Runaway June Runaway June 2018 Noah Cyrus Gallant Mad at You 2018 Judy Blank Morning Sun 2018September 23NASeptember 22NASeptember 21Kilo Kish mothe 2018 Clairo Heaven 2018 Bri Steves Ain't Shit 2018 AlunaGeorge feat. Cautious Clay Superior Emotion 2018 Jessie Reyez Fuck Being Friends 2018 Robinson Medicine 2018 Waxahatchee Great Thunder 2018 Jillian Jacqueline Side B 2018 Amber Mark feat. DRAM Put You On 2018 Jeremy Zucker comethru 2018September 20Chelsea Cutler Cold Showers 2018 uicideBoy I Want to Die in New Orleans 2018 T.I. Yo Gotti Wraith 2018 T.I. feat. Meek Mill Jefe 2018 Various Artists Sierra Burgess Is a Loser Original Motion Picture Soundtrack 2018September 19Carrie Underwood End Up With Me 2018 Dua Lipa Want To 2018 Lauren Daigle Look Up Child 2018 Kanye West Lil Pump I Love It 2018 YBN Nahmir, YBN Cordae YBN Almighty Jay YBN The Mixtape 2018 Silk City Dua Lipa feat. Diplo Mark Ronson Electricity 2018September 18NASeptember 17NASeptember 16NASeptember 15NASeptember 146LACK East Atlanta Love Letter 2018September 13Ginny Owens feat. Resound Stand with Me 2018 Maddie Simpson Love Me Loud 2018 Anna Calvi Hunter 2018 Sage The Gemini feat. Chris Brown Buss It 2018 Katelyn Tarver Kool Aid 2018 Q Money Ain't Shit Funny 2018 Mick Jenkins What Am I to Do 2018 Francesca Battistelli Royalty 2018 Passenger Runaway 2018September 12Chief Keef feat. Jenn Em Chiraq 2018 The Game feat. YG, Ty Dolla ign Jeremih Down to Fuck 2018 HoodCelebrityy Inna Real Life 2018 Young Dolph feat. Key Glock Major 2018 Lloyd TRU - LP 2018 Cassie Scerbo Disaster 2018 Blac Youngsta Fuck Everybody 2 2018 Jillian Jacqueline Sad Girls 2018 Terri Clark Young as We Are Tonight 2018 Nao feat. SiR Make It Out Alive 2018 Tash Sultana Flow State 2018September 11Jay Rock feat. Rich The Kid Rotation 112th Remix 2018 Carrie Underwood Love Wins 2018 Why Don't We 8 Letters 2018 6ix9ine feat. Nicki Minaj Murda Beatz FEFE 2018 6ix9ine Anuel Aa BEBE 2018 Kanye West XTCY 2018 Lauv Superhero 2018 Eminem Kamikaze 2018 Troye Sivan Bloom 2018September 10NASeptember 9NASeptember 8Pusha T The Story of Adidon 2018 Fantasia Back to Me 2010 The Staple Singers Be Altitude Respect Yourself 1972September 7NASeptember 6NASeptember 5NASeptember 4Thouxanbanfauni The Lost Files 2018 MoKenStef Azz Izz 1995 AAP Ant feat. AAP Rocky Mario Cart 2018 AAP Ant Shanghai 2018September 3Wallows Pleaser 2017 Wallows Sun Tan 2017 Wallows Uncomfortable 2017 Wallows Pulling Leaves off Trees 2017 Wallows Underneath the Streetlights in the Winter Outside Your House 2018 Wallows Spring EP 2018September 2Raveena You Give Me That 2016 Raveena Johnny It's the Last Time 2016 Raveena Spell 2017 Raveena Sweet Time 2017 Raveena Shanti 2017 Raveena Wherever U Go 2018 Raveena I Won't Mind 2018 Raveena Honey 2018 Bandhunta Izzy Gummo Freestyle 2017 Tierra Whack Niggalodeon 2015 Tierra Whack Whack World 2018 Tierra Whack MUMBO JUMBO 2017 Tierra Whack Shit Happens 2017 Tierra Whack Child Please 2017 Tierra Whack Toe Jam 2017 Jungle Brothers Straight Out the Jungle 1988 Sabrina Carpenter Thumbs Acoustic 2017 Tory Lanez I Sip 2017 Maggie Lindemann Things 2016 Smooky MarGielaa feat. Jrich Ent. Shawty 2017 Ronny J feat. Ski Mask The Slump God Thriller Forever 2017 The Girl and the Dreamcatcher Written in the Stars 2015 Fancy Cars Sophie Rose Time Machine 2018 Jaira Burns High Rollin 2017 Tana Mongeau W 2018 Astrid S Hyde 2015 Josephina Feelings 2018 Joe Moses feat. Future Back Goin Brazy 2018 Lou Beaten 2018 Kristina Bazan Out 2016 April Vista How to Get By 2018 Eden Samara Upside Down 2018 The Black Eyed Peas RING THE ALARM pt.1, pt.2, pt.3 2018 KIIRA feat. Noah North Last Time 2017 JVZEL You Make It Easy 2018 Alyson Stoner Who Do You Love 2018 Andy Mineo, Foggieraw Mannywellz Coquito 2018 Foggieraw Harry Potter 2018 Foggieraw Mannywellz Different World Type Luv 2018 Carlie Hanson Mood 2018 Kero Kero Bonito Time Today 2018 Rosie Carney Winter 2017 Zilo Don't Waste My Time 2018 Confetti Right Now 2018 Phoebe Ryan Quinn XCII Middle Finger 2018 Georgi Jacobs Ooooohh 2018 Eli Priess feat. Kareem Pfeifer Back at You 2018 Astrid S 2AM 2014 Rosie Carney Awake Me 2017 ARY Already There 2017 Madison Cunningham All at Once 2018 Mickey Shiloh feat. Rowlan 1 More Time 2017September 1NAAugustAugust 31NAAugust 30NAAugust 29Kiiara Gloe 2018 NOTD feat. Tove Styrke Been There Done That 2018 KYLE feat. Kehlani Logic Playinwitme Remix 2018 REASON Better Dayz 2018 Rosette Single for the Summer 2018 Anna Wise Xavier Omar Easy 2018 Dounia How I See It 2018 T-Pain feat. Gucci Mane Might Be 2018 KYLE feat. Wiz Khalifa Moment 2018August 28E-40 The Gift of Gab 2018 Noah Cyrus Lil Xan Live or Die 2018 Tori Kelly feat. Kirk Franklin Never Alone 2018 Leon Thomas Genesis 2018 Bas Milky Way 2018 Blood Orange Negro Swan 2018August 27K1D feat. Woodie Smalls Yoshi 2018 3 Watch Me 2018 Truthcity Trap Music in My Uber 2018 Tre Redeau Safe Route 2018 Freelance Pretty Please 2018 Tee Krispil One Way Ticket 2018 Maesu Nothing 2 Lose 2018 Trey Graves new thang 2018 Dimez New Porsche 2018 Darrein STL My Bag 2018 Madd AnarKist feat. Troy James Bank Bunz Mxndfxkk 2018 HAWA Might Be 2018 OSIYM feat. Filli Babii Lookin' Like 2018 Son! LINGO 2018 Hydra Lifeboat 2018 Sazetrax Latency 2018 Blvc Svnd One Who May Ascend Lames 2018 Cero Ismael Insane 2018 Gaika Immigrant Sons Pesos Gas 2018 ILLYMINIACHI Ignita 2018 YTK Feel Like That 2018 Kent Loon Drone 2018 Huey Supreme Dolla Bill 2018 Love-Sadkid Control 2018 B. Aull Come Down 2018 Why Khaliq Clearwater 2018 chase. spaceout CHASEXSPACEOUT 2018August 26The O'Jays Back Stabbers 1972August 25NAAugust 24Famous Dex feat. Drax Project LIGHT 2018 Sarah Reeves Always Been You 2018 Cousin Stizz All Adds Up 2018 24hrs feat. YG Don't Mess 2018 Camila Cabello feat. Swae Lee Real Friends 2018 Jess Glynne All I Am 2018 Lucie Silvas E.G.O. 2018August 23Blue October I Hope You're Happy 2018August 22The New Respects Before the Sun Goes Down 2018 Baauer Miquela Hate Me 2018 SOB X RBE feat. Shoreline Mafia Da Move 2018 SOB X RBE Vibes 2018 Stefflon Don SECURE 2018 Bishop Briggs Baby 2018 The 1975 TOOTIMETOOTIMETOOTIME 2018 6LACK Nonchalant 2018August 21Tory Lanez feat. Bryson Tiller KeeP IN tOUcH 2018 Jillian Jacqueline feat. Keith Urban If I Were You 2018 Mitski Be the Cowboy 2018 Aminé ONEPOINTFIVE 2018August 20Calvin Harris Sam Smith feat. Jessie Reyez Promises 2018 Young Thug Young Stoner Life Records Slime Language 2018 Ariana Grande Sweetener 2018August 19NAAugust 18NAAugust 17NAAugust 16NAAugust 15Jay Americana Burner Phones 2018 8tm 711 2018 Flavia Abadía Trumpets 2018 Brooke Aulani Out Loud 2018 PRISTINE BABE Moonlight 2018 Lanna Maybe 2018 Emeryld Honey Bee 2018 Friday Night Plans Happy Birthday 2018 Finis Mundi EVERYTHING AFTER 2018 Assa, Esydia neo don't let me fall 2018 Hailey Orion Deadly. 2018 SOLARSUNS IOLITE Break, Burn, Crash 2018 Kwaku Asante The Way That You Move 2018 Corbin Dallas Water 2018 Jack Davey Undone 2018 Charlie Burg Two, Moonlight 2018August 14NAAugust 13Tirzah Devotion 2018 Black Grapefruit All My Relations 2018 Stefflon Don feat. Tiggs Da Author Pretty Girl 2018 Elley Duhé DRAGON MENTALITY 2018 Elle King Shame 2018 Daniella Mason Human 2018 Red Velvet Summer Magic - Summer Mini Album 2018 Kiesza Phantom of the Dance Floor 2018 Wafia I'm Good 2018 Jessie Reyez Sola 2018 Ro James Excuse Me 2018 Lola Kirke Heart Head West 2018August 12AAP Rocky Tyler, The Creator POTATO SALAD 2018 FatBran FatBranuary 2018 Bandhunta Izzy Code Blue 2018 Mitski Two Slow Dancers 2018 Cassadee Pope One More Red Light 2018 Ciara feat. Tekno Freak Me 2018 Skye Chris Brown Fairytale 2018 Childish Major Know Something 2018 R.LUM.R I Need to Know 2018 R.LUM.R Right Here 2018 Nina Nesbitt Loyal to You 2018 Lauren Daigle Still Rolling Stones 2018 Nicki Minaj Queen 2018August 11Quavo W O R K I N M E 2018 Quavo B U B B L E G U M 2018 Quavo L A M B T A L K 2018 Kirsten Collins Sugar Pop Cocaine 2018August 10IceBirds ICEBIRDS PROJECT 2018August 9Young Nudy Crack 2016 Kaycee Shakur Think of Something 2018 Ryahn Studio 2018 Lotushalves Raincheck 2018 The Empress Pray on It 2018 Parables of Neptune Parables of Neptune 2018 Tola Next to Me 2018 Karun feat. Blinky Bill Make Believe 2018 JoJo Nichols feat. Regina Skeeters Love on Repeat 2018 KingJet Lifeguard 2018 Abel Known 2018 Eli Preiss I Want You to Know 2018 Pink Sweat Honesty 2018 Jesse Fischer Flipped II 2018 Ama Lou DDD 2018 Shenna Conversation 2018 marcella Chapter Two 2018 REY Bet 2018 Lili K Best Friend 2018 Dee Mad Along with You 2018 199V 187 Love 2018August 8Jacquees 4275 2018 Ella Mai Trip 2018 K'ron feat. Ty Dolla ign No BFs 2018 Buddy Harlan Alondra 2018 PnB Rock ABCD Friend Zone 2018 Diana Gordon Pure 2018 The Midnight America 2 2018 DJ Holiday feat. Quavo 21 Savage 2 Seater 2018 Pi'erre Bourne Marie Curie 2018 Riley Clemmons Riley Clemmons 2018 CHVRCHES feat. WEDNESDAY CAMPANELLA Out of My Head 2018 A R I Z O N A Freaking Out 2018 A R I Z O N A Summer Days 2018 A R I Z O N A What She Wants 2018 Kid Ink Big Deal 2018 Baka Not Nice 4Milli 2018August 7Young Nudy SlimeBall 3 2018 Tamia Deeper 2018 Amanda Shires To the Sunset 2018 Danielle Bradbery Thomas Rhett Goodbye Summer 2018 Silk City, GoldLink Desiigner Loud 2018 H.E.R. I Used to Know Her The Prelude 2018 J. Cole Album of the Year Freestyle 2018 Mac Miller Swimming 2018 Bazzi feat. Camila Cabello Beautiful 2018 Robyn Missing U 2018 YG STAY DANGEROUS 2018 Travis Scott ASTROWORLD 2018August 6NAAugust 5Souls of Mischief 93 'til Infinity 1993 The Pharcyde Bizarre Ride II the Pharcyde 1992 Brandy Brandy 1994 OJ da Juiceman The Otha Side of the Trap... 2009 Maisie Peters Best I'll Ever Sing 2018 Maisie Peters Worst of You 2018 Polo Boy Shawty Fast Lane 2018 Ciara Basic Instinct 2010August 4Ne-Yo Because of You 2007 Joe And Then... 2003 Avalon Young Sweet Talk 2018 Shaqdi Colorless 2018 Akinyemi Birocratic Time 2018 Ryan Brinnand Think of Me 2018 Teon Gibbs These Are the Times. 2018 Cyrax feat. ilkMoney Tank 2018 Latasha Sumpn 2018 Ily Pineapple Spark the Blunt 2018 Majest Nové Southern Girl 2018 ayeeii mikey 2x Never Thought 2018August 3Deezie Brown Judith 2018 Jaylon Ashaun I Got You 2018 B0nds Fushou. High Noon 2018 80purppp Hex 2018 Tass Nasta Her 2018 ly Guaponese 2018 Charlie Threads Forever and a Day 2018 DWN2EARTH DWN2EARTH 2018 Cakes da Killa Proper Villains Don't Make Cents 2018 Elton Callin' 2018 BbyMutha hoey BbyShoe 2018 Rawso Afraid 2018 Jean Castel What Happened to Us 2018 Keelan Mak Weigh You Down 2018 ZenAware feat. Evergreen Ur Cute 2018 Aaron Childs No Hobbies 2018 Aaron Childs Tangerine 2018 Mikos Da Gawd Start Things New 2018 Kylo Sometimes 2018 Jamie Lane Sink 2018 Small Hours Shoe Box 2018 Lhuma RUN 2018 Jacob Steele Move Like Me 2018 KUNZITE MONKS 2018 Trevor Daniel Mirror 2018 Aleks Grey Let Go 2018 Dena Imaginary Friends 2018 GOLDSPACE feat. Saint Laurant Heavy Hitter 2018 rn Hard Hearts 2018August 2Kiiara Messy 2018 Dierks Bentley You Can't Bring Me Down 2018 Bryce Vine feat. Wale Drew Barrymore 2018 Jade Novah All Blue 2018 Frvrfriday Heaven Margiela 2018 JIL Virgin Atlantic 2018 Luhcream Cream of the Crop 2018 Rich Forever Music Rich Forever 3 2018 Jade Bird Uh Huh 2018 Catherine McGrath Talk of This Town 2018 Jarren Benton Yuck Fou 2018 Queen Naija Queen Naija 2018 Derek Minor Revolution 2018 Tenille Townes Somebody's Daughter 2018 Channel Tres Channel Tres 2018 Raiche Money Trees 2018August 1The Coup Sorry to Bother You The Soundtrack 2018JulyJuly 31Charli XCX Girls Night Out 2018 AGNEZ MO feat. Chris Brown Overdose 2018 Elley Duhé WAY DOWN LOW 2018July 30VanJess Silk Canvas 2018 Maggie Rogers Give a Little 2018 Mac Miller What's the Use? 2018 Tyga SWISH 2018 BROCKHAMPTON 1997 DIANA 2018 Denzel Curry TA13OO 2018 The Chainsmokers feat. Emily Warren Side Effects 2018 Davie Guetta feat. Anne-Marie Don't Leave Me Alone 2018 ARTY Tim 2018 YG feat. AAP Rocky HANDGUN 2018 DJ Khaled, Justin Bieber Quavo feat. Chance The Rapper No Brainer 2018July 29NAJuly 28Still Woozy feat. ODIE Lucy 2018 BLVK JVCK feat. Jessie Reyez Love Me Still 2018 NVDES Louì 2018 Matoma feat. MAX Lonely 2018 Vené ATL Smook Mood 2017July 27Childish Gambino Summer Pack 2018 Chelsea Jade Personal Best 2018 Lost Kings feat. Tove Styrke Stuck 2018 PnB Rock Nowadays 2018 GOLDN once upon a star, Pt. 1 2018 Riley Clemmons Hold On 2018 St. Lucia Walking Away 2018 The New Respects Before the Sun Goes Down 2018 Jessie Reyez Apple Juice 2018July 26Young Nudy Sherbert 2018 070 Shake Accusations 2018 Ciara Level Up 2018 The 1975 Love It If We Made It 2018 DRAM That's a Girl's Name 2018 RaeLynn Tailgate 2018 88rising Head in the Clouds 2018 Becky G feat. French Montana Farruko Zooted 2018 Billie Eilish you should see me in a crown 2018July 25Daye Jack Heart Shaped Culdesac 2018 The New Respects We Ain't Goin' Nowhere 2018 TK Kravitz 2.0 2018 Nora Van Elken I Told You 2018 Ashe The Rabbit Hole 2018 Daya Safe 2018 Charlotte Lawrence Young 2018 Buddy feat. Ty Dolla ign Hey Up There 2018 Lil Skies World Rage 2018 Yazmin Lacey When the Sun Dips 90 Degrees 2018 Riley Clemmons Broke 2018 Priscilla Renea Coloured 2018July 24Vacationer Mindset 2018 R. Kelly I Admit 2018 Demi Lovato Sober 2018 Redman I Love Hip Hop 2018 Freddie Gibbs Freddie 2018 Lecrae Zaytoven Let the Trap Say Amen 2018 Koryn Hawthorne Unstoppable 2018 Meghan Trainor ALL THE WAYS 2018 PRETTYMUCH Summer on You 2018July 23Nao Another Lifetime 2018 A Boogie Wit da Hoodie International Artist 2018 Rick Ross feat. Future Green Gucci Suit 2018 6LACK Switch 2018 Trippie Redd How You Feel 2018 Trippie Redd Me Likey 2018 Ariana Grande feat. Nicki Minaj the light is coming 2018 Teyana Taylor K.T.S.E. 2018 Jaden Smith Ghost 2018 Bebe Rexha Expectations 2018 Dan Shay Dan Shay 2018 Panic! At the Disco Pray for the Wicked 2018July 22NAJuly 21NAJuly 20MadeinTYO MyNamePhin I Bet U Get This All the Time 2018 Hoodrich Pablo Juan Danny Wolf HoodWolf 2 2018 Rockstar Marqo So Icey Marqo 2018July 19The Internet Hive Mind 2018 RIMON Nighttime 2018 RIMON Grace 2018 Louis III Goosebumps 2018 Wolfskind Yann Lauren feat. Moli Give It Up 2018 MOONOVERSUN GIRLSBOYS 2018 Hamond Copacabana 2018 Catila Call Me 2018 Kiera Please Bloom 2018 Jodnyl Blood 2018 Ruben Pol Bed Sheets 2018 JORDY Be with Me 2018 Meghan Waterman 3AM Conversations 2018 Madison Cunningham So Long, Frank Lloyd Wright 2018 Madison Cunningham Beauty into Clichés 2018 The Score Glory 2018 lovelytheband emotion 2018 lovelytheband alone time 2018 88rising feat. NIKI Warpaint 2018 Shy Glizzy Free 3 2018 Casanova COMMISSARY 2018July 18Alessia Cara A Little More 2018 Alessia Cara Growing Pains 2018 Tyler, The Creator BRONCO 2018 Aaron Cole Off My Back 2018 The Interrupters Fight the Good Fight 2018 cleopatrick youth 2018 Mitski Nobody 2018 Yung Bans Yung Bans Vol. 5 2018 Wiz Khalifa feat. Problem Gin and Drugs 2018 Charli XCX No Angel 2018 Charli XCX Focus 2018 AAP Ferg Verified 2018 Axwell Ingrosso feat. RØMANS Dancing Alone 2018 Gorillaz The Now Now 2018July 17Florence The Machine High as Hope 2018 Shea Diamond Seen It All 2018 AAP Ferg Not the Boy 2018 Mozzy Pure in the Pack 2018 Trae Tha Truth 48 Hours Later 2018 Let's Eat Grandma I'm All Ears 2018 AWWZ feat. Yaw Mini F. Dowell Visa 2018 YK Osiris Timing 2018 Jay Park feat. GASHI Rich The Kid FSU 2018 teddy3 I Was in a Cult 2018 Caly Bevier Head Held High 2018 Dave East Rick Ross Fresh Prince of Belaire 2018 Skooly feat. Lil Xan Crazy Shit 2018July 16Chris Lane Hero 2018 Why Don't We Hooked 2018 Why Don't We Talk 2018 Lil Pump Drug Addicts 2018 A R I Z O N A Freaking Out 2018 A R I Z O N A Summer Days 2018 Lil Yachty feat. Cardi B Offset Who Want the Smoke? 2018 Justin Timberlake SoulMate 2018 Future Zaytoven BEASTMODE 2 2018 Meek Mill Legends of the Summer 2018 Goonew BIG64 2018July 15Childish Gambino Awaken, My Love! 2016 Shoreline Mafia ShorelineDoThatShit 2018 Juice WRLD JuiceWRLD 9 9 9 2017 Diego Money Welcome to IceLand 2015 The Carters EVERYTHING IS LOVE 2018 Nas NASIR 2018 Drake Scorpion 2018July 14NAJuly 13NAJuly 12rum.gold Where Theres Smoke 2018 Hamzaa Stranded Love 2018 Lexus Sounds Good 2018 MADANII Rosemvry 2018 Lndfk LOVE BOMBING 2018 Gian Camp LOST IN TRANSLATION 2018 Taylor Eve feat. OYABUN Like You 2018 yuzu blur Home Soon 2018 Kwaku Fake 2018 Aysha Monet Dont Forget 2018 Charles Freeman ANODYNE 2018 Daz Rinko feat. Rahel Sweetie 2018 Daz Rinko Vanilla Ice 2018 HolyGxd Ugly 2018 Rey King Tijuana 2018 Nosninja Riverside Beat Tape 2018 Yutes Push 2018 BinoBossBricks Scooter on the Beat Poppin Tags 2018 Marceon Jacobs No Losses 2018 Ben James Like Me 2018 2u4u Gurl 2018 KING JAE DRAMA 2018 Serious Klein Coochie Money 2018 The Real Ice BAG for MY BAG 2018 Aja9 Treat YoSelf 2018 NOAAON Summer Clearance 2018 Yaffle feat. Linying Summer 2018 JT Soul LOUD 2018July 11All That Glitters feat. Chaz Mason Ill Wait for You 2018 Elephant Heart HIYA 2018 CHAMPANE feat. CATALI Down Low 2018 Natalie Shameful 2018 Ukweli feat. Karun Roses 2018 Ash feat. starRo Lover Friend 2018 Mina Kit Moro Goodbye 2018 ChrisLee Found Her 2018 Jae.T Yo Body 2018 Emilia Anastazja Under My Skin 2018 GREGarious feat. Akacia Sticks Stones 2018 Lottie Jade South Side 2018 Nizzy feat. Pvpi Strz Rice n Peas 2018 SqueakPIVOT feat. Xone White Perfect for U 2018 Black Grapefruit Mind 2018 Mei Mei Livin in the Truth 2018 HALP feat. Anthony Russo Hurt Myself 2018 Frex History 2018 Kean Farrar Heartthrob 2018 Parisalexa Flexa 2018 Forrest. Your Soul 2018 Shane Reis God.Damn.Chan VEIB 2018 Zac Ace Testing Ground. 2018July 10Latrell James Okay 2018 Vonathan Mac Attack 2018 FEYI F WITH A DIME 2018 A-Reece, Ecco Wordz Better Luck Next Time 2018 Kevoe West Stoner 2018 Patches feat. Namesake. show goes on 2018 ZER0 Orphus 2018 Clyde Guevara Higher Vibration 2018 Svlm Day Dreaming 2018 emoniFela Day Camp for Dreamers 2018 happytree late late CANVAS 2018 frumhere are you lost? 2018 Renzo 2359 2018July 9Whinnie Williams Violet 2018 John Conception So Bad 2018 yù y feat. Ellen Peaches 2018 TS Graye MY2 2018 Rushes Wave 2018 s7erre feat. Elysa So Bad 2018 Haula Trouble 2018July 8Diego Money StoopidXoolin Stoopid Ice Volume One 2016July 7Chance Peña Sun Goes Down 2018 Holow feat. Lucile Spotlight 2018 Ivy Rei Say It to My Face 2018 Miriam Off That Thing 2018 DJ Young Krista Nvm Never Mine 2018 BAYLA Monster 2018 Arthur Wimble Miss You 2018 ICELANDIA Miracle Caught on Camera 2018 Amber Simone Loving You 2018 BLANKSY Love Wont Save Me 2018 CC Clarke A Little More 2018 Spectrum Ria Choony Home 2018 Korky Buchek feat. Kymie Higher 2018 Dominique Tey Heartstream 2018 AAP Rocky feat. Moby AAP Forever 2018 Juice WRLD Too Soon.. 2018 Bruno Mars Its Better If You Dont Understand 2010July 6Diego Money MexikoDro Plug Money 2015 Louis Bordeaux Do What I Do 2018 DeathbyRomy DeathWish 2018 Vera Hotsauce Bottoms Up 2018 MX Wrong Guy 2018 James Blake feat. MistaDC Vegas Girl 2018 David Hopperman feat. Wes Writer Dont Stop 2018 Lodola Cover It Up 2018 Lava La Rue Widdit 2018 A. Rell What If I Did It 2018 Pediko Ticket to Go 2018 PatricKxxLee So So 2018 Caliray1k Run Up the Band 2018 Myke Bogan feat. Khary Pickathon 2018 Ozadya Oz Life 2018July 5YBN Cordae Old Niggas 2018 Shwiggy feat. 198o8 Might Troll 2018 Hella Sketchy Losing Control 2018 10cellphones feat. Swoop Kicking Doors 2018 ppgcasper feat. Eera Headache 2018 Dontae feat. Cal Flipmode 2018 Caine Casket Domino 2018 Felixx Diddy 2018 CloutBoi TJ CloutBoi! 2018July 4NAJuly 3Macca Wiles AWOL 2018 Tommy Savo 2 ROCKS 2018 Frex y u gotta 2018 Laura Roy Temporary 2018 Ego Ella May Table for One 2018 Linae Sweet Sweat 2018 Ebz the Artist Say It 2018 Choc Same 2018 loftii leaving us 2018 Ricks Art Kiss N Tell 2018 Levine Lale Keep Up 2018 Melo-Zed Eleven 2018 Blossom Ripley Snell feat. Neill Von Tally casting couch 2018 Love Black Coffee 2018 Love 3 2018 Paige Bea Your Echo 2018 Brad ONeill Unexpected 2018 Deflo Lliam Taylor feat. Awa Spotlight 2018July 2Delaney Kai Kyoto Black Sounds 2018 Taylor Reed Say You Wont 2018 Camille Trust Move On 2018 Liv Keegan Just My Type 2018 Natasha Fisher If I Could I Would 2018 iiola dont shut me up 2018 JONNA Black Tears 2018 TARI feat. Lani Rose Best for You 2018 Nodfather Thoughts 2018 Brett Therapy 2018 RaShaun She Told Me 2018 S7EAZE Dont Test Me 2018 M.R Calling 2018 Xander Better or Worse 2018 Ric Wilson BANBA 2018 Adamn Killa Adamn Everlasting In Loving Memory of Jalen 2018 GNGR Without You 2018 Star Martin Walls 2018 Trevor Daniel Wake Up 2018 BR3 feat. Jacquees Used to This 2018 p-rallel feat. Yiigaa Finn Foxell Signs 2018 gny Present 2018 Sameik Moore Bounce 2018 Adreyn Cash Angels Lie 2018 Parker Louis All Good Things, Pt. One 2018 Tru Young Reckless 2018 Bae Louie Wonderful 2018 Rokusho feat. Inga Stille Wishing for You 2018 bêlla sorry if u misunderstood 2018 SV Njne1 Not Just Anyone 2018 Shaeane Bag of Bones 2018 Shaeane Joker 2018 Olloway August 2018 Light Gun Fire feat. Marta Carvallo All on You 2018 Ruuth All About 2018 Lil Candy Paint Sleep at Night 2018 Lord Narf feat. Meltycanon Rent 2018 Luxe Nothing to Me 2018 Vuyo Lord Knows 2018July 1Student 1 Drag 2018 brakence hypnagogia 2018 Loski I Been 2018JuneJune 30Cashwaveyboiz waves 2018 Sudan Archives Nont for Sale 2018 NDAI Nobody's Ting 2018 Allen Ritter Never Leave 2018 Diamonique Jackson Give Me a Sign 2018 HMLT feat. TiKA Gary 2018 Notifi Dramamine 2018 IVYxM But You 2018 Mogillah feat. Georgia Anne Muldrow Flote Birds Eye's View 2018 Lfalfa What It Means 2018 Irie Lee Van Gogh 2018 Kiki Ireland Timid 2018 Manana Think About You 2018 Lunadira STUCK WITH YOU 2018 LOONY A Small Flame 2018 Kaptain Jay Skittle 2018 Kaptain Jay Night Out 2018 cktrl SAG Playlist 1 2018 Yakul Realigned 2018 Shakale Davis Note to Self 2018June 29SAFE No Answer 2018 Bobby Earth Mood 2018 Tmmrw Lowkey 2018 PROMKNGHT Like I Do 2018 Asiah Know Me 2018 Hugo Joe MexikoDro Hugo Dro 2018 Pro Reese Fresh Off a Break Up 2018 PxRRY FaLL BacK 2018 Kaycee Shakur Divination 2018 Fallon Favors Destiny 2018June 28Diego Money Diego World 2018 Haley Daniels Delirious 2018 Rabino Crocodile 2018 Easton Blue Love 2018 KC.. Bare, Vol. 1 2018 TeaMarrr Bent Hella 2018 Swiss Army Paris Mountain 2018June 27NAJune 26PYRMDPLAZA The Void 2018 Nfromthewave Pashun 2018 My Friend Alan Falling 2018 MadeByKuya Universal 2018 Jordana Body 2018 Jordan Dennis feat. Blasko Crumbs 2018 falcxne Slowly 2018 Dream League Soccer So I Broke Her Heart 2018 Coco Reilly Define You 2018 Bella Boo Fire 2018June 25Pi'erre Bourne Planet Namek 2018 Tim Atlas All Talk! 2018 KILLY Surrender Your Soul 2018 Calum Scott Only Human 2018June 24B.o.B The Upside Down 2018 Phoelix TEMPO 2018June 23NAJune 22NAJune 21NAJune 20Niko Khale Free Mind Rich Thoughts 2018 Smerz Have fun 2018 Jonathan McReynolds Make Room 2018 Lawren Get Your Change 2018 Pouya FIVE FIVE 2018 Nap Eyes I'm Bad Now 2018 Acid Dad Acid Dad 2018June 19R.LUM.R ALTERIMAGE 2018 Jimi Hendrix Both Sides of the Sky 2018 Various Artists A Wrinkle in Time Original Motion Picture Soundtrack 2018 What So Not Not All the Beautiful Things 2018June 18YFN Lucci Ray Ray from Summerhill 2018 Wale Self Promotion EP 2018 The Voidz Coul as a Ghoul 2018 Valee feat. Jeremih Womp Womp 2018 Tee Grizzley Activated 2018 Stalley Chains Mr. T 2018June 17Sonta Ride for You 2018 Sonta Wishes 2018 Sonta Dream Girl 2018 Sonta Lovers N Friends 2018June 16Sonta Cut It Remix 2018 Sonta Hopeful 2015 Sonta MMMM 2015 Sonta Medicine Remix 2018 Sonta Letter from Sonta 2018 Sonta Screwed Up Boo'd Up Remix 2018 Sonta All I Want Is You For Christmas 2016 Sonta Hard to Love 2017 Sonta How You Gonna Act Like That 2016June 15Sonta In My Feelings Re-release 2018 Selena Gomez Back to You 2018 Sarah Louise Deeper Woods 2018 Sabrina Carpenter Jonas Blue Alien Acoustic 2018 Rita Ora feat. Cardi B, Bebe Rexha Charli XCX Girls 2018June 14Nina Nesbitt The Sun Will Come Up, The Seasons Will Change 2018 Marian Hill Unusual 2018 La Luz Floating Features 2018 Joji Yeah Right 2018June 13Jackie Hill Perry Crescendo 2018 Dierks Bentley You Can't Bring Me Down 2018 City Girls PERIOD 2018 Charlie Puth Voicenotes 2018 BJ The Chicago Kid The Opening Ceremony 2018 Beach House 7 2018June 12Marqo 2 Fresh Live Fast Die Young 2015 MPR Tito Rixh Blxxd 2018 Lil Dude ME 2018 Playboi Carti Been Ballin 2017 Playboi Carti Arm Leg 2018 Playboi Carti Tragic 2016 Playboi Carti They Go Off 2018 Playboi Carti Tank 2018 Playboi Carti Supersonic 2018 Playboi Carti Movin' Different 2018 Playboi Carti Let 'Em In 2018 Playboi Carti Kick 2018 Playboi Carti Drop 2018 Playboi Carti SosaMann In the Lobby 2018 Ski Mask The Slump God Get Dough Presents Ski Mask The Slump God 2018 Polo Boy Shawty On the Track 2017 Redd Coldhearted Coldhearted EP 2017 Slim 400 Foe Reala 2018 Yung Mal Lil Quill Kids of the 6 2017 Yung Mal Lil Quill SOUF6 2018June 11Hoodrich Pablo Juan MONY Walk 2018 Yung Mal Lil Quill Blessed Lil Bastards 2017 Rich Forever Music Rich Forever 2 2016 Rich Forever Music Rich Forever Music The Mixtape 2016 Rich The Kid Dabbin Fever 2015 Rich The Kid Flexxin on Purpose 2015 Rich The Kid Keep Flexin 2016 Lil B Platinum Flame 2018June 10Frvrfriday WHOISFRIDAY 2018 KIDS SEE GHOSTS KIDS SEE GHOSTS 2018 Youngr Lost in Translation 2018 YourWelcome Shon Summa Hood Laude 2018 SUMR CAMP 24-7 2018 Tove Lo feat. Charli XCX, Icona Pop, Elliphant ALMA bitches 2018 Dagny Used to You 2018 NEEDTOBREATHE Bullets 2018 Erin Rae Putting on Airs 2018 Snail Mail Lush 2018 Tyler, The Creator 435 2018 Jeremih Ty Dolla ign The Light 2018 Chelsea Cutler Sleeping With Roses 2018 Kamiyah feat. ScHoolboy Q Addicted to Ballin' 2018 DeJ Loaf Leon Bridges Liberated 2018 Rich The Kid Bring It Back 2018 Various Artists SUPERFLY Original Motion Picture Soundtrack 2018 Tory Lanez Ozuna Pa Mi 2018 Lykke Li so sad so sexy 2018 Little Big Town Summer Fever 2018 JZVEL Tired Af 2018June 9Jorja Smith Lost Found 2018 Ne-Yo GOOD MAN 2018June 8Bali Baby Rockstar Marqo Sosa Tony The Movie 2018 CosaNostra Kidd Wham 2018June 7Rich The Kid Trap Talk 2016 André 3000 Look Ma No Hands 2018 Stalone Uropa 2018 Middle Kids Lost Friends 2018 Kirsten Collins Rainbows 2018 Kirsten Collins BAD 2018 Jade Novah Next to You 2018 Dan Shay Alone Together 2018 CASS Not for Sale 2018 lil aaron ROCKTAR FAMOU 2018 Cautious Clay RESONANCE 2018 YBN Almighty Jay 2 Tone Drip 2018 Lil Skies feat. Yung Pinch I Know You 2018June 6Freedom Fry Classic 2018 Future feat. Yung Bans Bag 2018 Natalie Prass The Future and the Past 2018 Sarah Reeves Easy 2018 Rex Orange County Randy Newman You've Got a Friend in Me 2018 Liz Vice Save Me 2018 MNEK feat. Hailee Steinfeld Colour 2018 Third Party Free 2018 Mac Miller Programs 2018 AAP Ferg Harlem Anthem 2018 Black Thought Streams of Thought Vol. 1 2018 Lauv I met you when I was 18. the playlist 2018 The 1975 Give Yourself a Try 2018 Big Freedia 3rd Ward Bounce 2018 Florida Georgia Line Colorado 2018 Florida Georgia Line Simple 2018June 5Sabrina Carpenter Almost Love 2018 Kanye West ye 2018 Jade Bird Furious 2018 Meiko Playing Favorites 2018 Jessie J R.O.S.E. Empowerment 2018 Riley Clemmons Better for It 2018 DREAMERS SCREWS 2018 NIKI Zephyr 2018June 4Parliament Medicaid Fraud Dogg 2018 Zaytoven Trapholizay 2018 Fortunate Ones Hold Fast 2018 Lindsay Ell The Continuum Project 2018 Sudan Archives Sink 2018 NDAI Time Heals All Wounds 2018 Maggie Rogers Fallingwater 2018 Naji Act I 2018June 3Silk Silk 1995June 2NAJune 1Young Nudy feat. 21 Savage Since When 2018 D.O.D Glow 2018 The New Respects Freedom 2018 Clairo diary 001 2018 Jorja Smith February 3rd 2018 Juice WRLD Goodbye Good Riddance 2018MayMay 31Pusha T DAYTONA 2018 CHVRCHES Love Is Dead 2018 Shawn Mendes Shawn Mendes 2018 Drake I'm Upset 2018May 30The Internet Roll! Burbank Funk KAYTRANADA Remix 2018 Blue October Colors Collide 2018 nobigdyl. twenty eighteen 2018 nobigdyl. psycho heart! 2018 Jay Rock WIN 2018 Chaos Chaos Chaos Chaos 2018 Temi Omi feat. Tierra Whack Pull Up on You 2018 Alex Da Kid feat. H.E.R. Rapsody Go 2018 KYLE Light of Mine 2018 Christina Aguilera feat. Demi Lovato Fall in Line 2018 Lil Baby Harder Than Ever 2018 Pharrell Williams Camila Cabello Sangria Wine 2018May 29NIKI I Like U 2018 NIKI See U Never 2018 NIKI Chilly 2018 NIKI Vintage 2018 ORKID So Rude 2018 TOMI Coming Around 2018 Natalie Prass Lost 2018 Now, Now MJ 2018 Jennifer Hudson I'll Fight 2018 Ashe Choirs 2018 THEY. Ain't the Same 2018 Sabrina Carpenter Jonas Blue Alien M-22 Remix 2018 Terrance Escobar feat. Thouxanbanfauni D 4 L 2018 Mike Jones All on Me 2018 AAP Ferg Elle Fanning Moon River 2018 Jasmine Thompson Lonely Together 2018 Houndmouth This Party 2018 Ginny Owens Remind Me 2018 Jean Deaux Energy 2018 morgxn me without you 2018 Gallant Doesn't Matter 2018 Chantel Jeffries feat. Offset Vory Wait 2018 Tee Grizzley feat. Chris Brown Fuck It Off 2018 Wiz Khalifa feat. Gucci Mane Real Rich 2018 Jessie Reyez Body Count 2018 Troye Sivan Bloom 2018 Julia Michaels feat. Trippie Redd Jump 2018 Jess Glynne I'll Be There 2018 Dan Shay All to Myself 2018 Charlie Puth feat. Kehlani Done for Me 2018 Charlie Puth The Way I Am 2018 Florence The Machine Hunger 2018 Travis Scott feat. Lil Uzi Vert Kanye West Watch 2018 Shawn Mendes feat. Khalid Youth 2018May 28NAMay 27NAMay 26AAP Rocky TESTING 2018May 25NAMay 24NAMay 23NAMay 22NAMay 21NAMay 20NAMay 19Various Artists Boomerang Soundtrack 1992 Foggieraw Prolly 2018 BRYN feat. Yung Fume Pull Up 2018May 18Desiigner L.O.D. 2018May 17NAMay 16NAMay 15NAMay 14NAMay 13NAMay 12April Vista Own2 2018 Amy Grant Say It With a Kiss 2018 Jodeci The Show, the After-Party, the Hotel 1995May 11Playboi Carti Die Lit 2018May 10Leon Bridges Good Thing 2018 Rob tone Young Rob tone 2018 Jeremy Zucker glisten 2018 Yung Gravy Snow Cougar 2018 Amber Mark Conexão 2018May 9BlocBoy JB SIMI 2018 6 Dogs Danny Wolf 6 Wolves 2018 Slim Jxmmi Jxmtro 2018 Swae Lee Swaecation 2018 Rae Sremmurd SR3MM 2018 Tove Styrke Sway 2018May 8Playboi Carti Foreign 2018 L.A. Salami The City of Bootmakers 2018 Laura Veirs The Lookout 2018 Jim Jones Wasted Talent 2018 nothing,nowhere. ruiner 2018May 7Pete Rock C.L. Smooth The Main Ingredient 1994 Childish Gambino This Is America 2018 Madeline Kenney Night Night at the First Landing 2017 Annmarie Tripolar 2018 Georgi Jacobs Hard to Love 2018 Elle Teresa KAWAII BUBBLY LOVELY 2018May 6702 No Doubt 1996 AAP Ferg Still Striving 2017 Madeline Kenney Signals 2016 21 Savage Metro Boomin Savage Mode 2016 Trippie Redd A Love Letter to You 2017 Wintertime I Know What You Did Last Winter 2016 Cassy London Realm 2017May 5Cassy London Wonderland 2016 Diego Money Go Diego EP 2017May 4Diego Money Diego Friends 2017 Evangeline Joy Verbatim 2013 Karen Waldrup Warm in Your Sunshine 2017 Phoebe Ryan James 2017 Nadia Rebel 2017 Jxck Kelly Nancy 2018 Jxck Kelly Nothing 2018 K. Cero Songs About You 2017 Soduh The Crocodile 2018May 3Phoebe Ryan Mine EP 2015 Ashaya November 2016 Evan Diamond Intersections 2018 Vai Petri Criminal 2018 Vai Petri Let Live 2017 Analisa Corral Sugar Pills - Pack 1 2018 Kara Elyse Take Control 2018 Aced Spade feat. Lé, Kiim Bosh, D. Laflair Marko Stat Outta Sight 2018May 2Carnage Battered Bruised Bloody 2018 Ciaran Lavery Sweet Decay 2018 Robert Glasper Experiment Robert Glasper x KAYTRANADA The ArtScience Remixes 2018 Robotaki Science 2018 Skizzy Mars are you OK? 2018 Bazzi COSMIC 2018May 1Famous Dex Dex Meets Dexter 2018 The Aces When My Heart Felt Volcanic 2018 The Longshot The Longshot EP 2018 Luniz No Pressure 2018 Ski Mask The Slump God Beware the Book of E</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Homicide</t>
+          <t>Intro Astro</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Last updated 1062018, 516PM MSTOctoberOctober 6Jesse Powell Jesse Powell 1996October 5girl in red chapter 1 2018 Blanca Shattered 2018 LouGotCash feat. Trippie Redd Too Turnt 2018October 4Terri Clark Raising the Bar 2018 Jess Kent Girl 2018 Joey Purp QUARTERTHING 2018 Cypress Hill Crazy 2018 Brooke Evers feat. Rachel West Glen Faria Turn Around 2018 Born Dirty feat. jstlbby Get Up Get Out 2018 First Aid Kid Tender Offerings 2018 Kap G no kap 2018 Asiahn NOLA 2018 Young Dolph By Mistake 2018 Charlotte Lawrence Stole Your Car 2018October 3Howard Together Alone 2018 Joji SLOW DANCING IN THE DARK 2018 Joji YEAH RIGHT 2018 Brett Young Here Tonight 2018 Swizz Beatz feat. Lil Wayne Pistol on My Side P.O.M.S 2018 Lil Baby Gunna Drip Too Hard 2018 Ciara Dose 2018 Lana Del Rey Mariners Apartment Complex 2018 Tori Kelly Hiding Place 2018October 2Noname Room 25 2018 Wale Free Lunch 2018 Carrie Underwood Cry Pretty 2018October 1NASeptemberSeptember 30NASeptember 29NASeptember 28Gucci Mane, Bruno Mars Kodak Black Wake Up in the Sky 2018September 27NASeptember 26NASeptember 25NASeptember 24teddy3 Body and Soul 2018 Brynn Elliott Time of Our Lives 2018 Madison Cuningham Last Boat to Freedom 2018 Abby Anderson I'm Good 2018 Runaway June Runaway June 2018 Noah Cyrus Gallant Mad at You 2018 Judy Blank Morning Sun 2018September 23NASeptember 22NASeptember 21Kilo Kish mothe 2018 Clairo Heaven 2018 Bri Steves Ain't Shit 2018 AlunaGeorge feat. Cautious Clay Superior Emotion 2018 Jessie Reyez Fuck Being Friends 2018 Robinson Medicine 2018 Waxahatchee Great Thunder 2018 Jillian Jacqueline Side B 2018 Amber Mark feat. DRAM Put You On 2018 Jeremy Zucker comethru 2018September 20Chelsea Cutler Cold Showers 2018 uicideBoy I Want to Die in New Orleans 2018 T.I. Yo Gotti Wraith 2018 T.I. feat. Meek Mill Jefe 2018 Various Artists Sierra Burgess Is a Loser Original Motion Picture Soundtrack 2018September 19Carrie Underwood End Up With Me 2018 Dua Lipa Want To 2018 Lauren Daigle Look Up Child 2018 Kanye West Lil Pump I Love It 2018 YBN Nahmir, YBN Cordae YBN Almighty Jay YBN The Mixtape 2018 Silk City Dua Lipa feat. Diplo Mark Ronson Electricity 2018September 18NASeptember 17NASeptember 16NASeptember 15NASeptember 146LACK East Atlanta Love Letter 2018September 13Ginny Owens feat. Resound Stand with Me 2018 Maddie Simpson Love Me Loud 2018 Anna Calvi Hunter 2018 Sage The Gemini feat. Chris Brown Buss It 2018 Katelyn Tarver Kool Aid 2018 Q Money Ain't Shit Funny 2018 Mick Jenkins What Am I to Do 2018 Francesca Battistelli Royalty 2018 Passenger Runaway 2018September 12Chief Keef feat. Jenn Em Chiraq 2018 The Game feat. YG, Ty Dolla ign Jeremih Down to Fuck 2018 HoodCelebrityy Inna Real Life 2018 Young Dolph feat. Key Glock Major 2018 Lloyd TRU - LP 2018 Cassie Scerbo Disaster 2018 Blac Youngsta Fuck Everybody 2 2018 Jillian Jacqueline Sad Girls 2018 Terri Clark Young as We Are Tonight 2018 Nao feat. SiR Make It Out Alive 2018 Tash Sultana Flow State 2018September 11Jay Rock feat. Rich The Kid Rotation 112th Remix 2018 Carrie Underwood Love Wins 2018 Why Don't We 8 Letters 2018 6ix9ine feat. Nicki Minaj Murda Beatz FEFE 2018 6ix9ine Anuel Aa BEBE 2018 Kanye West XTCY 2018 Lauv Superhero 2018 Eminem Kamikaze 2018 Troye Sivan Bloom 2018September 10NASeptember 9NASeptember 8Pusha T The Story of Adidon 2018 Fantasia Back to Me 2010 The Staple Singers Be Altitude Respect Yourself 1972September 7NASeptember 6NASeptember 5NASeptember 4Thouxanbanfauni The Lost Files 2018 MoKenStef Azz Izz 1995 AAP Ant feat. AAP Rocky Mario Cart 2018 AAP Ant Shanghai 2018September 3Wallows Pleaser 2017 Wallows Sun Tan 2017 Wallows Uncomfortable 2017 Wallows Pulling Leaves off Trees 2017 Wallows Underneath the Streetlights in the Winter Outside Your House 2018 Wallows Spring EP 2018September 2Raveena You Give Me That 2016 Raveena Johnny It's the Last Time 2016 Raveena Spell 2017 Raveena Sweet Time 2017 Raveena Shanti 2017 Raveena Wherever U Go 2018 Raveena I Won't Mind 2018 Raveena Honey 2018 Bandhunta Izzy Gummo Freestyle 2017 Tierra Whack Niggalodeon 2015 Tierra Whack Whack World 2018 Tierra Whack MUMBO JUMBO 2017 Tierra Whack Shit Happens 2017 Tierra Whack Child Please 2017 Tierra Whack Toe Jam 2017 Jungle Brothers Straight Out the Jungle 1988 Sabrina Carpenter Thumbs Acoustic 2017 Tory Lanez I Sip 2017 Maggie Lindemann Things 2016 Smooky MarGielaa feat. Jrich Ent. Shawty 2017 Ronny J feat. Ski Mask The Slump God Thriller Forever 2017 The Girl and the Dreamcatcher Written in the Stars 2015 Fancy Cars Sophie Rose Time Machine 2018 Jaira Burns High Rollin 2017 Tana Mongeau W 2018 Astrid S Hyde 2015 Josephina Feelings 2018 Joe Moses feat. Future Back Goin Brazy 2018 Lou Beaten 2018 Kristina Bazan Out 2016 April Vista How to Get By 2018 Eden Samara Upside Down 2018 The Black Eyed Peas RING THE ALARM pt.1, pt.2, pt.3 2018 KIIRA feat. Noah North Last Time 2017 JVZEL You Make It Easy 2018 Alyson Stoner Who Do You Love 2018 Andy Mineo, Foggieraw Mannywellz Coquito 2018 Foggieraw Harry Potter 2018 Foggieraw Mannywellz Different World Type Luv 2018 Carlie Hanson Mood 2018 Kero Kero Bonito Time Today 2018 Rosie Carney Winter 2017 Zilo Don't Waste My Time 2018 Confetti Right Now 2018 Phoebe Ryan Quinn XCII Middle Finger 2018 Georgi Jacobs Ooooohh 2018 Eli Priess feat. Kareem Pfeifer Back at You 2018 Astrid S 2AM 2014 Rosie Carney Awake Me 2017 ARY Already There 2017 Madison Cunningham All at Once 2018 Mickey Shiloh feat. Rowlan 1 More Time 2017September 1NAAugustAugust 31NAAugust 30NAAugust 29Kiiara Gloe 2018 NOTD feat. Tove Styrke Been There Done That 2018 KYLE feat. Kehlani Logic Playinwitme Remix 2018 REASON Better Dayz 2018 Rosette Single for the Summer 2018 Anna Wise Xavier Omar Easy 2018 Dounia How I See It 2018 T-Pain feat. Gucci Mane Might Be 2018 KYLE feat. Wiz Khalifa Moment 2018August 28E-40 The Gift of Gab 2018 Noah Cyrus Lil Xan Live or Die 2018 Tori Kelly feat. Kirk Franklin Never Alone 2018 Leon Thomas Genesis 2018 Bas Milky Way 2018 Blood Orange Negro Swan 2018August 27K1D feat. Woodie Smalls Yoshi 2018 3 Watch Me 2018 Truthcity Trap Music in My Uber 2018 Tre Redeau Safe Route 2018 Freelance Pretty Please 2018 Tee Krispil One Way Ticket 2018 Maesu Nothing 2 Lose 2018 Trey Graves new thang 2018 Dimez New Porsche 2018 Darrein STL My Bag 2018 Madd AnarKist feat. Troy James Bank Bunz Mxndfxkk 2018 HAWA Might Be 2018 OSIYM feat. Filli Babii Lookin' Like 2018 Son! LINGO 2018 Hydra Lifeboat 2018 Sazetrax Latency 2018 Blvc Svnd One Who May Ascend Lames 2018 Cero Ismael Insane 2018 Gaika Immigrant Sons Pesos Gas 2018 ILLYMINIACHI Ignita 2018 YTK Feel Like That 2018 Kent Loon Drone 2018 Huey Supreme Dolla Bill 2018 Love-Sadkid Control 2018 B. Aull Come Down 2018 Why Khaliq Clearwater 2018 chase. spaceout CHASEXSPACEOUT 2018August 26The O'Jays Back Stabbers 1972August 25NAAugust 24Famous Dex feat. Drax Project LIGHT 2018 Sarah Reeves Always Been You 2018 Cousin Stizz All Adds Up 2018 24hrs feat. YG Don't Mess 2018 Camila Cabello feat. Swae Lee Real Friends 2018 Jess Glynne All I Am 2018 Lucie Silvas E.G.O. 2018August 23Blue October I Hope You're Happy 2018August 22The New Respects Before the Sun Goes Down 2018 Baauer Miquela Hate Me 2018 SOB X RBE feat. Shoreline Mafia Da Move 2018 SOB X RBE Vibes 2018 Stefflon Don SECURE 2018 Bishop Briggs Baby 2018 The 1975 TOOTIMETOOTIMETOOTIME 2018 6LACK Nonchalant 2018August 21Tory Lanez feat. Bryson Tiller KeeP IN tOUcH 2018 Jillian Jacqueline feat. Keith Urban If I Were You 2018 Mitski Be the Cowboy 2018 Aminé ONEPOINTFIVE 2018August 20Calvin Harris Sam Smith feat. Jessie Reyez Promises 2018 Young Thug Young Stoner Life Records Slime Language 2018 Ariana Grande Sweetener 2018August 19NAAugust 18NAAugust 17NAAugust 16NAAugust 15Jay Americana Burner Phones 2018 8tm 711 2018 Flavia Abadía Trumpets 2018 Brooke Aulani Out Loud 2018 PRISTINE BABE Moonlight 2018 Lanna Maybe 2018 Emeryld Honey Bee 2018 Friday Night Plans Happy Birthday 2018 Finis Mundi EVERYTHING AFTER 2018 Assa, Esydia neo don't let me fall 2018 Hailey Orion Deadly. 2018 SOLARSUNS IOLITE Break, Burn, Crash 2018 Kwaku Asante The Way That You Move 2018 Corbin Dallas Water 2018 Jack Davey Undone 2018 Charlie Burg Two, Moonlight 2018August 14NAAugust 13Tirzah Devotion 2018 Black Grapefruit All My Relations 2018 Stefflon Don feat. Tiggs Da Author Pretty Girl 2018 Elley Duhé DRAGON MENTALITY 2018 Elle King Shame 2018 Daniella Mason Human 2018 Red Velvet Summer Magic - Summer Mini Album 2018 Kiesza Phantom of the Dance Floor 2018 Wafia I'm Good 2018 Jessie Reyez Sola 2018 Ro James Excuse Me 2018 Lola Kirke Heart Head West 2018August 12AAP Rocky Tyler, The Creator POTATO SALAD 2018 FatBran FatBranuary 2018 Bandhunta Izzy Code Blue 2018 Mitski Two Slow Dancers 2018 Cassadee Pope One More Red Light 2018 Ciara feat. Tekno Freak Me 2018 Skye Chris Brown Fairytale 2018 Childish Major Know Something 2018 R.LUM.R I Need to Know 2018 R.LUM.R Right Here 2018 Nina Nesbitt Loyal to You 2018 Lauren Daigle Still Rolling Stones 2018 Nicki Minaj Queen 2018August 11Quavo W O R K I N M E 2018 Quavo B U B B L E G U M 2018 Quavo L A M B T A L K 2018 Kirsten Collins Sugar Pop Cocaine 2018August 10IceBirds ICEBIRDS PROJECT 2018August 9Young Nudy Crack 2016 Kaycee Shakur Think of Something 2018 Ryahn Studio 2018 Lotushalves Raincheck 2018 The Empress Pray on It 2018 Parables of Neptune Parables of Neptune 2018 Tola Next to Me 2018 Karun feat. Blinky Bill Make Believe 2018 JoJo Nichols feat. Regina Skeeters Love on Repeat 2018 KingJet Lifeguard 2018 Abel Known 2018 Eli Preiss I Want You to Know 2018 Pink Sweat Honesty 2018 Jesse Fischer Flipped II 2018 Ama Lou DDD 2018 Shenna Conversation 2018 marcella Chapter Two 2018 REY Bet 2018 Lili K Best Friend 2018 Dee Mad Along with You 2018 199V 187 Love 2018August 8Jacquees 4275 2018 Ella Mai Trip 2018 K'ron feat. Ty Dolla ign No BFs 2018 Buddy Harlan Alondra 2018 PnB Rock ABCD Friend Zone 2018 Diana Gordon Pure 2018 The Midnight America 2 2018 DJ Holiday feat. Quavo 21 Savage 2 Seater 2018 Pi'erre Bourne Marie Curie 2018 Riley Clemmons Riley Clemmons 2018 CHVRCHES feat. WEDNESDAY CAMPANELLA Out of My Head 2018 A R I Z O N A Freaking Out 2018 A R I Z O N A Summer Days 2018 A R I Z O N A What She Wants 2018 Kid Ink Big Deal 2018 Baka Not Nice 4Milli 2018August 7Young Nudy SlimeBall 3 2018 Tamia Deeper 2018 Amanda Shires To the Sunset 2018 Danielle Bradbery Thomas Rhett Goodbye Summer 2018 Silk City, GoldLink Desiigner Loud 2018 H.E.R. I Used to Know Her The Prelude 2018 J. Cole Album of the Year Freestyle 2018 Mac Miller Swimming 2018 Bazzi feat. Camila Cabello Beautiful 2018 Robyn Missing U 2018 YG STAY DANGEROUS 2018 Travis Scott ASTROWORLD 2018August 6NAAugust 5Souls of Mischief 93 'til Infinity 1993 The Pharcyde Bizarre Ride II the Pharcyde 1992 Brandy Brandy 1994 OJ da Juiceman The Otha Side of the Trap... 2009 Maisie Peters Best I'll Ever Sing 2018 Maisie Peters Worst of You 2018 Polo Boy Shawty Fast Lane 2018 Ciara Basic Instinct 2010August 4Ne-Yo Because of You 2007 Joe And Then... 2003 Avalon Young Sweet Talk 2018 Shaqdi Colorless 2018 Akinyemi Birocratic Time 2018 Ryan Brinnand Think of Me 2018 Teon Gibbs These Are the Times. 2018 Cyrax feat. ilkMoney Tank 2018 Latasha Sumpn 2018 Ily Pineapple Spark the Blunt 2018 Majest Nové Southern Girl 2018 ayeeii mikey 2x Never Thought 2018August 3Deezie Brown Judith 2018 Jaylon Ashaun I Got You 2018 B0nds Fushou. High Noon 2018 80purppp Hex 2018 Tass Nasta Her 2018 ly Guaponese 2018 Charlie Threads Forever and a Day 2018 DWN2EARTH DWN2EARTH 2018 Cakes da Killa Proper Villains Don't Make Cents 2018 Elton Callin' 2018 BbyMutha hoey BbyShoe 2018 Rawso Afraid 2018 Jean Castel What Happened to Us 2018 Keelan Mak Weigh You Down 2018 ZenAware feat. Evergreen Ur Cute 2018 Aaron Childs No Hobbies 2018 Aaron Childs Tangerine 2018 Mikos Da Gawd Start Things New 2018 Kylo Sometimes 2018 Jamie Lane Sink 2018 Small Hours Shoe Box 2018 Lhuma RUN 2018 Jacob Steele Move Like Me 2018 KUNZITE MONKS 2018 Trevor Daniel Mirror 2018 Aleks Grey Let Go 2018 Dena Imaginary Friends 2018 GOLDSPACE feat. Saint Laurant Heavy Hitter 2018 rn Hard Hearts 2018August 2Kiiara Messy 2018 Dierks Bentley You Can't Bring Me Down 2018 Bryce Vine feat. Wale Drew Barrymore 2018 Jade Novah All Blue 2018 Frvrfriday Heaven Margiela 2018 JIL Virgin Atlantic 2018 Luhcream Cream of the Crop 2018 Rich Forever Music Rich Forever 3 2018 Jade Bird Uh Huh 2018 Catherine McGrath Talk of This Town 2018 Jarren Benton Yuck Fou 2018 Queen Naija Queen Naija 2018 Derek Minor Revolution 2018 Tenille Townes Somebody's Daughter 2018 Channel Tres Channel Tres 2018 Raiche Money Trees 2018August 1The Coup Sorry to Bother You The Soundtrack 2018JulyJuly 31Charli XCX Girls Night Out 2018 AGNEZ MO feat. Chris Brown Overdose 2018 Elley Duhé WAY DOWN LOW 2018July 30VanJess Silk Canvas 2018 Maggie Rogers Give a Little 2018 Mac Miller What's the Use? 2018 Tyga SWISH 2018 BROCKHAMPTON 1997 DIANA 2018 Denzel Curry TA13OO 2018 The Chainsmokers feat. Emily Warren Side Effects 2018 Davie Guetta feat. Anne-Marie Don't Leave Me Alone 2018 ARTY Tim 2018 YG feat. AAP Rocky HANDGUN 2018 DJ Khaled, Justin Bieber Quavo feat. Chance The Rapper No Brainer 2018July 29NAJuly 28Still Woozy feat. ODIE Lucy 2018 BLVK JVCK feat. Jessie Reyez Love Me Still 2018 NVDES Louì 2018 Matoma feat. MAX Lonely 2018 Vené ATL Smook Mood 2017July 27Childish Gambino Summer Pack 2018 Chelsea Jade Personal Best 2018 Lost Kings feat. Tove Styrke Stuck 2018 PnB Rock Nowadays 2018 GOLDN once upon a star, Pt. 1 2018 Riley Clemmons Hold On 2018 St. Lucia Walking Away 2018 The New Respects Before the Sun Goes Down 2018 Jessie Reyez Apple Juice 2018July 26Young Nudy Sherbert 2018 070 Shake Accusations 2018 Ciara Level Up 2018 The 1975 Love It If We Made It 2018 DRAM That's a Girl's Name 2018 RaeLynn Tailgate 2018 88rising Head in the Clouds 2018 Becky G feat. French Montana Farruko Zooted 2018 Billie Eilish you should see me in a crown 2018July 25Daye Jack Heart Shaped Culdesac 2018 The New Respects We Ain't Goin' Nowhere 2018 TK Kravitz 2.0 2018 Nora Van Elken I Told You 2018 Ashe The Rabbit Hole 2018 Daya Safe 2018 Charlotte Lawrence Young 2018 Buddy feat. Ty Dolla ign Hey Up There 2018 Lil Skies World Rage 2018 Yazmin Lacey When the Sun Dips 90 Degrees 2018 Riley Clemmons Broke 2018 Priscilla Renea Coloured 2018July 24Vacationer Mindset 2018 R. Kelly I Admit 2018 Demi Lovato Sober 2018 Redman I Love Hip Hop 2018 Freddie Gibbs Freddie 2018 Lecrae Zaytoven Let the Trap Say Amen 2018 Koryn Hawthorne Unstoppable 2018 Meghan Trainor ALL THE WAYS 2018 PRETTYMUCH Summer on You 2018July 23Nao Another Lifetime 2018 A Boogie Wit da Hoodie International Artist 2018 Rick Ross feat. Future Green Gucci Suit 2018 6LACK Switch 2018 Trippie Redd How You Feel 2018 Trippie Redd Me Likey 2018 Ariana Grande feat. Nicki Minaj the light is coming 2018 Teyana Taylor K.T.S.E. 2018 Jaden Smith Ghost 2018 Bebe Rexha Expectations 2018 Dan Shay Dan Shay 2018 Panic! At the Disco Pray for the Wicked 2018July 22NAJuly 21NAJuly 20MadeinTYO MyNamePhin I Bet U Get This All the Time 2018 Hoodrich Pablo Juan Danny Wolf HoodWolf 2 2018 Rockstar Marqo So Icey Marqo 2018July 19The Internet Hive Mind 2018 RIMON Nighttime 2018 RIMON Grace 2018 Louis III Goosebumps 2018 Wolfskind Yann Lauren feat. Moli Give It Up 2018 MOONOVERSUN GIRLSBOYS 2018 Hamond Copacabana 2018 Catila Call Me 2018 Kiera Please Bloom 2018 Jodnyl Blood 2018 Ruben Pol Bed Sheets 2018 JORDY Be with Me 2018 Meghan Waterman 3AM Conversations 2018 Madison Cunningham So Long, Frank Lloyd Wright 2018 Madison Cunningham Beauty into Clichés 2018 The Score Glory 2018 lovelytheband emotion 2018 lovelytheband alone time 2018 88rising feat. NIKI Warpaint 2018 Shy Glizzy Free 3 2018 Casanova COMMISSARY 2018July 18Alessia Cara A Little More 2018 Alessia Cara Growing Pains 2018 Tyler, The Creator BRONCO 2018 Aaron Cole Off My Back 2018 The Interrupters Fight the Good Fight 2018 cleopatrick youth 2018 Mitski Nobody 2018 Yung Bans Yung Bans Vol. 5 2018 Wiz Khalifa feat. Problem Gin and Drugs 2018 Charli XCX No Angel 2018 Charli XCX Focus 2018 AAP Ferg Verified 2018 Axwell Ingrosso feat. RØMANS Dancing Alone 2018 Gorillaz The Now Now 2018July 17Florence The Machine High as Hope 2018 Shea Diamond Seen It All 2018 AAP Ferg Not the Boy 2018 Mozzy Pure in the Pack 2018 Trae Tha Truth 48 Hours Later 2018 Let's Eat Grandma I'm All Ears 2018 AWWZ feat. Yaw Mini F. Dowell Visa 2018 YK Osiris Timing 2018 Jay Park feat. GASHI Rich The Kid FSU 2018 teddy3 I Was in a Cult 2018 Caly Bevier Head Held High 2018 Dave East Rick Ross Fresh Prince of Belaire 2018 Skooly feat. Lil Xan Crazy Shit 2018July 16Chris Lane Hero 2018 Why Don't We Hooked 2018 Why Don't We Talk 2018 Lil Pump Drug Addicts 2018 A R I Z O N A Freaking Out 2018 A R I Z O N A Summer Days 2018 Lil Yachty feat. Cardi B Offset Who Want the Smoke? 2018 Justin Timberlake SoulMate 2018 Future Zaytoven BEASTMODE 2 2018 Meek Mill Legends of the Summer 2018 Goonew BIG64 2018July 15Childish Gambino Awaken, My Love! 2016 Shoreline Mafia ShorelineDoThatShit 2018 Juice WRLD JuiceWRLD 9 9 9 2017 Diego Money Welcome to IceLand 2015 The Carters EVERYTHING IS LOVE 2018 Nas NASIR 2018 Drake Scorpion 2018July 14NAJuly 13NAJuly 12rum.gold Where Theres Smoke 2018 Hamzaa Stranded Love 2018 Lexus Sounds Good 2018 MADANII Rosemvry 2018 Lndfk LOVE BOMBING 2018 Gian Camp LOST IN TRANSLATION 2018 Taylor Eve feat. OYABUN Like You 2018 yuzu blur Home Soon 2018 Kwaku Fake 2018 Aysha Monet Dont Forget 2018 Charles Freeman ANODYNE 2018 Daz Rinko feat. Rahel Sweetie 2018 Daz Rinko Vanilla Ice 2018 HolyGxd Ugly 2018 Rey King Tijuana 2018 Nosninja Riverside Beat Tape 2018 Yutes Push 2018 BinoBossBricks Scooter on the Beat Poppin Tags 2018 Marceon Jacobs No Losses 2018 Ben James Like Me 2018 2u4u Gurl 2018 KING JAE DRAMA 2018 Serious Klein Coochie Money 2018 The Real Ice BAG for MY BAG 2018 Aja9 Treat YoSelf 2018 NOAAON Summer Clearance 2018 Yaffle feat. Linying Summer 2018 JT Soul LOUD 2018July 11All That Glitters feat. Chaz Mason Ill Wait for You 2018 Elephant Heart HIYA 2018 CHAMPANE feat. CATALI Down Low 2018 Natalie Shameful 2018 Ukweli feat. Karun Roses 2018 Ash feat. starRo Lover Friend 2018 Mina Kit Moro Goodbye 2018 ChrisLee Found Her 2018 Jae.T Yo Body 2018 Emilia Anastazja Under My Skin 2018 GREGarious feat. Akacia Sticks Stones 2018 Lottie Jade South Side 2018 Nizzy feat. Pvpi Strz Rice n Peas 2018 SqueakPIVOT feat. Xone White Perfect for U 2018 Black Grapefruit Mind 2018 Mei Mei Livin in the Truth 2018 HALP feat. Anthony Russo Hurt Myself 2018 Frex History 2018 Kean Farrar Heartthrob 2018 Parisalexa Flexa 2018 Forrest. Your Soul 2018 Shane Reis God.Damn.Chan VEIB 2018 Zac Ace Testing Ground. 2018July 10Latrell James Okay 2018 Vonathan Mac Attack 2018 FEYI F WITH A DIME 2018 A-Reece, Ecco Wordz Better Luck Next Time 2018 Kevoe West Stoner 2018 Patches feat. Namesake. show goes on 2018 ZER0 Orphus 2018 Clyde Guevara Higher Vibration 2018 Svlm Day Dreaming 2018 emoniFela Day Camp for Dreamers 2018 happytree late late CANVAS 2018 frumhere are you lost? 2018 Renzo 2359 2018July 9Whinnie Williams Violet 2018 John Conception So Bad 2018 yù y feat. Ellen Peaches 2018 TS Graye MY2 2018 Rushes Wave 2018 s7erre feat. Elysa So Bad 2018 Haula Trouble 2018July 8Diego Money StoopidXoolin Stoopid Ice Volume One 2016July 7Chance Peña Sun Goes Down 2018 Holow feat. Lucile Spotlight 2018 Ivy Rei Say It to My Face 2018 Miriam Off That Thing 2018 DJ Young Krista Nvm Never Mine 2018 BAYLA Monster 2018 Arthur Wimble Miss You 2018 ICELANDIA Miracle Caught on Camera 2018 Amber Simone Loving You 2018 BLANKSY Love Wont Save Me 2018 CC Clarke A Little More 2018 Spectrum Ria Choony Home 2018 Korky Buchek feat. Kymie Higher 2018 Dominique Tey Heartstream 2018 AAP Rocky feat. Moby AAP Forever 2018 Juice WRLD Too Soon.. 2018 Bruno Mars Its Better If You Dont Understand 2010July 6Diego Money MexikoDro Plug Money 2015 Louis Bordeaux Do What I Do 2018 DeathbyRomy DeathWish 2018 Vera Hotsauce Bottoms Up 2018 MX Wrong Guy 2018 James Blake feat. MistaDC Vegas Girl 2018 David Hopperman feat. Wes Writer Dont Stop 2018 Lodola Cover It Up 2018 Lava La Rue Widdit 2018 A. Rell What If I Did It 2018 Pediko Ticket to Go 2018 PatricKxxLee So So 2018 Caliray1k Run Up the Band 2018 Myke Bogan feat. Khary Pickathon 2018 Ozadya Oz Life 2018July 5YBN Cordae Old Niggas 2018 Shwiggy feat. 198o8 Might Troll 2018 Hella Sketchy Losing Control 2018 10cellphones feat. Swoop Kicking Doors 2018 ppgcasper feat. Eera Headache 2018 Dontae feat. Cal Flipmode 2018 Caine Casket Domino 2018 Felixx Diddy 2018 CloutBoi TJ CloutBoi! 2018July 4NAJuly 3Macca Wiles AWOL 2018 Tommy Savo 2 ROCKS 2018 Frex y u gotta 2018 Laura Roy Temporary 2018 Ego Ella May Table for One 2018 Linae Sweet Sweat 2018 Ebz the Artist Say It 2018 Choc Same 2018 loftii leaving us 2018 Ricks Art Kiss N Tell 2018 Levine Lale Keep Up 2018 Melo-Zed Eleven 2018 Blossom Ripley Snell feat. Neill Von Tally casting couch 2018 Love Black Coffee 2018 Love 3 2018 Paige Bea Your Echo 2018 Brad ONeill Unexpected 2018 Deflo Lliam Taylor feat. Awa Spotlight 2018July 2Delaney Kai Kyoto Black Sounds 2018 Taylor Reed Say You Wont 2018 Camille Trust Move On 2018 Liv Keegan Just My Type 2018 Natasha Fisher If I Could I Would 2018 iiola dont shut me up 2018 JONNA Black Tears 2018 TARI feat. Lani Rose Best for You 2018 Nodfather Thoughts 2018 Brett Therapy 2018 RaShaun She Told Me 2018 S7EAZE Dont Test Me 2018 M.R Calling 2018 Xander Better or Worse 2018 Ric Wilson BANBA 2018 Adamn Killa Adamn Everlasting In Loving Memory of Jalen 2018 GNGR Without You 2018 Star Martin Walls 2018 Trevor Daniel Wake Up 2018 BR3 feat. Jacquees Used to This 2018 p-rallel feat. Yiigaa Finn Foxell Signs 2018 gny Present 2018 Sameik Moore Bounce 2018 Adreyn Cash Angels Lie 2018 Parker Louis All Good Things, Pt. One 2018 Tru Young Reckless 2018 Bae Louie Wonderful 2018 Rokusho feat. Inga Stille Wishing for You 2018 bêlla sorry if u misunderstood 2018 SV Njne1 Not Just Anyone 2018 Shaeane Bag of Bones 2018 Shaeane Joker 2018 Olloway August 2018 Light Gun Fire feat. Marta Carvallo All on You 2018 Ruuth All About 2018 Lil Candy Paint Sleep at Night 2018 Lord Narf feat. Meltycanon Rent 2018 Luxe Nothing to Me 2018 Vuyo Lord Knows 2018July 1Student 1 Drag 2018 brakence hypnagogia 2018 Loski I Been 2018JuneJune 30Cashwaveyboiz waves 2018 Sudan Archives Nont for Sale 2018 NDAI Nobody's Ting 2018 Allen Ritter Never Leave 2018 Diamonique Jackson Give Me a Sign 2018 HMLT feat. TiKA Gary 2018 Notifi Dramamine 2018 IVYxM But You 2018 Mogillah feat. Georgia Anne Muldrow Flote Birds Eye's View 2018 Lfalfa What It Means 2018 Irie Lee Van Gogh 2018 Kiki Ireland Timid 2018 Manana Think About You 2018 Lunadira STUCK WITH YOU 2018 LOONY A Small Flame 2018 Kaptain Jay Skittle 2018 Kaptain Jay Night Out 2018 cktrl SAG Playlist 1 2018 Yakul Realigned 2018 Shakale Davis Note to Self 2018June 29SAFE No Answer 2018 Bobby Earth Mood 2018 Tmmrw Lowkey 2018 PROMKNGHT Like I Do 2018 Asiah Know Me 2018 Hugo Joe MexikoDro Hugo Dro 2018 Pro Reese Fresh Off a Break Up 2018 PxRRY FaLL BacK 2018 Kaycee Shakur Divination 2018 Fallon Favors Destiny 2018June 28Diego Money Diego World 2018 Haley Daniels Delirious 2018 Rabino Crocodile 2018 Easton Blue Love 2018 KC.. Bare, Vol. 1 2018 TeaMarrr Bent Hella 2018 Swiss Army Paris Mountain 2018June 27NAJune 26PYRMDPLAZA The Void 2018 Nfromthewave Pashun 2018 My Friend Alan Falling 2018 MadeByKuya Universal 2018 Jordana Body 2018 Jordan Dennis feat. Blasko Crumbs 2018 falcxne Slowly 2018 Dream League Soccer So I Broke Her Heart 2018 Coco Reilly Define You 2018 Bella Boo Fire 2018June 25Pi'erre Bourne Planet Namek 2018 Tim Atlas All Talk! 2018 KILLY Surrender Your Soul 2018 Calum Scott Only Human 2018June 24B.o.B The Upside Down 2018 Phoelix TEMPO 2018June 23NAJune 22NAJune 21NAJune 20Niko Khale Free Mind Rich Thoughts 2018 Smerz Have fun 2018 Jonathan McReynolds Make Room 2018 Lawren Get Your Change 2018 Pouya FIVE FIVE 2018 Nap Eyes I'm Bad Now 2018 Acid Dad Acid Dad 2018June 19R.LUM.R ALTERIMAGE 2018 Jimi Hendrix Both Sides of the Sky 2018 Various Artists A Wrinkle in Time Original Motion Picture Soundtrack 2018 What So Not Not All the Beautiful Things 2018June 18YFN Lucci Ray Ray from Summerhill 2018 Wale Self Promotion EP 2018 The Voidz Coul as a Ghoul 2018 Valee feat. Jeremih Womp Womp 2018 Tee Grizzley Activated 2018 Stalley Chains Mr. T 2018June 17Sonta Ride for You 2018 Sonta Wishes 2018 Sonta Dream Girl 2018 Sonta Lovers N Friends 2018June 16Sonta Cut It Remix 2018 Sonta Hopeful 2015 Sonta MMMM 2015 Sonta Medicine Remix 2018 Sonta Letter from Sonta 2018 Sonta Screwed Up Boo'd Up Remix 2018 Sonta All I Want Is You For Christmas 2016 Sonta Hard to Love 2017 Sonta How You Gonna Act Like That 2016June 15Sonta In My Feelings Re-release 2018 Selena Gomez Back to You 2018 Sarah Louise Deeper Woods 2018 Sabrina Carpenter Jonas Blue Alien Acoustic 2018 Rita Ora feat. Cardi B, Bebe Rexha Charli XCX Girls 2018June 14Nina Nesbitt The Sun Will Come Up, The Seasons Will Change 2018 Marian Hill Unusual 2018 La Luz Floating Features 2018 Joji Yeah Right 2018June 13Jackie Hill Perry Crescendo 2018 Dierks Bentley You Can't Bring Me Down 2018 City Girls PERIOD 2018 Charlie Puth Voicenotes 2018 BJ The Chicago Kid The Opening Ceremony 2018 Beach House 7 2018June 12Marqo 2 Fresh Live Fast Die Young 2015 MPR Tito Rixh Blxxd 2018 Lil Dude ME 2018 Playboi Carti Been Ballin 2017 Playboi Carti Arm Leg 2018 Playboi Carti Tragic 2016 Playboi Carti They Go Off 2018 Playboi Carti Tank 2018 Playboi Carti Supersonic 2018 Playboi Carti Movin' Different 2018 Playboi Carti Let 'Em In 2018 Playboi Carti Kick 2018 Playboi Carti Drop 2018 Playboi Carti SosaMann In the Lobby 2018 Ski Mask The Slump God Get Dough Presents Ski Mask The Slump God 2018 Polo Boy Shawty On the Track 2017 Redd Coldhearted Coldhearted EP 2017 Slim 400 Foe Reala 2018 Yung Mal Lil Quill Kids of the 6 2017 Yung Mal Lil Quill SOUF6 2018June 11Hoodrich Pablo Juan MONY Walk 2018 Yung Mal Lil Quill Blessed Lil Bastards 2017 Rich Forever Music Rich Forever 2 2016 Rich Forever Music Rich Forever Music The Mixtape 2016 Rich The Kid Dabbin Fever 2015 Rich The Kid Flexxin on Purpose 2015 Rich The Kid Keep Flexin 2016 Lil B Platinum Flame 2018June 10Frvrfriday WHOISFRIDAY 2018 KIDS SEE GHOSTS KIDS SEE GHOSTS 2018 Youngr Lost in Translation 2018 YourWelcome Shon Summa Hood Laude 2018 SUMR CAMP 24-7 2018 Tove Lo feat. Charli XCX, Icona Pop, Elliphant ALMA bitches 2018 Dagny Used to You 2018 NEEDTOBREATHE Bullets 2018 Erin Rae Putting on Airs 2018 Snail Mail Lush 2018 Tyler, The Creator 435 2018 Jeremih Ty Dolla ign The Light 2018 Chelsea Cutler Sleeping With Roses 2018 Kamiyah feat. ScHoolboy Q Addicted to Ballin' 2018 DeJ Loaf Leon Bridges Liberated 2018 Rich The Kid Bring It Back 2018 Various Artists SUPERFLY Original Motion Picture Soundtrack 2018 Tory Lanez Ozuna Pa Mi 2018 Lykke Li so sad so sexy 2018 Little Big Town Summer Fever 2018 JZVEL Tired Af 2018June 9Jorja Smith Lost Found 2018 Ne-Yo GOOD MAN 2018June 8Bali Baby Rockstar Marqo Sosa Tony The Movie 2018 CosaNostra Kidd Wham 2018June 7Rich The Kid Trap Talk 2016 André 3000 Look Ma No Hands 2018 Stalone Uropa 2018 Middle Kids Lost Friends 2018 Kirsten Collins Rainbows 2018 Kirsten Collins BAD 2018 Jade Novah Next to You 2018 Dan Shay Alone Together 2018 CASS Not for Sale 2018 lil aaron ROCKTAR FAMOU 2018 Cautious Clay RESONANCE 2018 YBN Almighty Jay 2 Tone Drip 2018 Lil Skies feat. Yung Pinch I Know You 2018June 6Freedom Fry Classic 2018 Future feat. Yung Bans Bag 2018 Natalie Prass The Future and the Past 2018 Sarah Reeves Easy 2018 Rex Orange County Randy Newman You've Got a Friend in Me 2018 Liz Vice Save Me 2018 MNEK feat. Hailee Steinfeld Colour 2018 Third Party Free 2018 Mac Miller Programs 2018 AAP Ferg Harlem Anthem 2018 Black Thought Streams of Thought Vol. 1 2018 Lauv I met you when I was 18. the playlist 2018 The 1975 Give Yourself a Try 2018 Big Freedia 3rd Ward Bounce 2018 Florida Georgia Line Colorado 2018 Florida Georgia Line Simple 2018June 5Sabrina Carpenter Almost Love 2018 Kanye West ye 2018 Jade Bird Furious 2018 Meiko Playing Favorites 2018 Jessie J R.O.S.E. Empowerment 2018 Riley Clemmons Better for It 2018 DREAMERS SCREWS 2018 NIKI Zephyr 2018June 4Parliament Medicaid Fraud Dogg 2018 Zaytoven Trapholizay 2018 Fortunate Ones Hold Fast 2018 Lindsay Ell The Continuum Project 2018 Sudan Archives Sink 2018 NDAI Time Heals All Wounds 2018 Maggie Rogers Fallingwater 2018 Naji Act I 2018June 3Silk Silk 1995June 2NAJune 1Young Nudy feat. 21 Savage Since When 2018 D.O.D Glow 2018 The New Respects Freedom 2018 Clairo diary 001 2018 Jorja Smith February 3rd 2018 Juice WRLD Goodbye Good Riddance 2018MayMay 31Pusha T DAYTONA 2018 CHVRCHES Love Is Dead 2018 Shawn Mendes Shawn Mendes 2018 Drake I'm Upset 2018May 30The Internet Roll! Burbank Funk KAYTRANADA Remix 2018 Blue October Colors Collide 2018 nobigdyl. twenty eighteen 2018 nobigdyl. psycho heart! 2018 Jay Rock WIN 2018 Chaos Chaos Chaos Chaos 2018 Temi Omi feat. Tierra Whack Pull Up on You 2018 Alex Da Kid feat. H.E.R. Rapsody Go 2018 KYLE Light of Mine 2018 Christina Aguilera feat. Demi Lovato Fall in Line 2018 Lil Baby Harder Than Ever 2018 Pharrell Williams Camila Cabello Sangria Wine 2018May 29NIKI I Like U 2018 NIKI See U Never 2018 NIKI Chilly 2018 NIKI Vintage 2018 ORKID So Rude 2018 TOMI Coming Around 2018 Natalie Prass Lost 2018 Now, Now MJ 2018 Jennifer Hudson I'll Fight 2018 Ashe Choirs 2018 THEY. Ain't the Same 2018 Sabrina Carpenter Jonas Blue Alien M-22 Remix 2018 Terrance Escobar feat. Thouxanbanfauni D 4 L 2018 Mike Jones All on Me 2018 AAP Ferg Elle Fanning Moon River 2018 Jasmine Thompson Lonely Together 2018 Houndmouth This Party 2018 Ginny Owens Remind Me 2018 Jean Deaux Energy 2018 morgxn me without you 2018 Gallant Doesn't Matter 2018 Chantel Jeffries feat. Offset Vory Wait 2018 Tee Grizzley feat. Chris Brown Fuck It Off 2018 Wiz Khalifa feat. Gucci Mane Real Rich 2018 Jessie Reyez Body Count 2018 Troye Sivan Bloom 2018 Julia Michaels feat. Trippie Redd Jump 2018 Jess Glynne I'll Be There 2018 Dan Shay All to Myself 2018 Charlie Puth feat. Kehlani Done for Me 2018 Charlie Puth The Way I Am 2018 Florence The Machine Hunger 2018 Travis Scott feat. Lil Uzi Vert Kanye West Watch 2018 Shawn Mendes feat. Khalid Youth 2018May 28NAMay 27NAMay 26AAP Rocky TESTING 2018May 25NAMay 24NAMay 23NAMay 22NAMay 21NAMay 20NAMay 19Various Artists Boomerang Soundtrack 1992 Foggieraw Prolly 2018 BRYN feat. Yung Fume Pull Up 2018May 18Desiigner L.O.D. 2018May 17NAMay 16NAMay 15NAMay 14NAMay 13NAMay 12April Vista Own2 2018 Amy Grant Say It With a Kiss 2018 Jodeci The Show, the After-Party, the Hotel 1995May 11Playboi Carti Die Lit 2018May 10Leon Bridges Good Thing 2018 Rob tone Young Rob tone 2018 Jeremy Zucker glisten 2018 Yung Gravy Snow Cougar 2018 Amber Mark Conexão 2018May 9BlocBoy JB SIMI 2018 6 Dogs Danny Wolf 6 Wolves 2018 Slim Jxmmi Jxmtro 2018 Swae Lee Swaecation 2018 Rae Sremmurd SR3MM 2018 Tove Styrke Sway 2018May 8Playboi Carti Foreign 2018 L.A. Salami The City of Bootmakers 2018 Laura Veirs The Lookout 2018 Jim Jones Wasted Talent 2018 nothing,nowhere. ruiner 2018May 7Pete Rock C.L. Smooth The Main Ingredient 1994 Childish Gambino This Is America 2018 Madeline Kenney Night Night at the First Landing 2017 Annmarie Tripolar 2018 Georgi Jacobs Hard to Love 2018 Elle Teresa KAWAII BUBBLY LOVELY 2018May 6702 No Doubt 1996 AAP Ferg Still Striving 2017 Madeline Kenney Signals 2016 21 Savage Metro Boomin Savage Mode 2016 Trippie Redd A Love Letter to You 2017 Wintertime I Know What You Did Last Winter 2016 Cassy London Realm 2017May 5Cassy London Wonderland 2016 Diego Money Go Diego EP 2017May 4Diego Money Diego Friends 2017 Evangeline Joy Verbatim 2013 Karen Waldrup Warm in Your Sunshine 2017 Phoebe Ryan James 2017 Nadia Rebel 2017 Jxck Kelly Nancy 2018 Jxck Kelly Nothing 2018 K. Cero Songs About You 2017 Soduh The Crocodile 2018May 3Phoebe Ryan Mine EP 2015 Ashaya November 2016 Evan Diamond Intersections 2018 Vai Petri Criminal 2018 Vai Petri Let Live 2017 Analisa Corral Sugar Pills - Pack 1 2018 Kara Elyse Take Control 2018 Aced Spade feat. Lé, Kiim Bosh, D. Laflair Marko Stat Outta Sight 2018May 2Carnage Battered Bruised Bloody 2018 Ciaran Lavery Sweet Decay 2018 Robert Glasper Experiment Robert Glasper x KAYTRANADA The ArtScience Remixes 2018 Robotaki Science 2018 Skizzy Mars are you OK? 2018 Bazzi COSMIC 2018May 1Famous Dex Dex Meets Dexter 2018 The Aces When My Heart Felt Volcanic 2018 The Longshot The Longshot EP 2018 Luniz No Pressure 2018 Ski Mask The Slump God Beware the Book of E</t>
+          <t>Si les enfants veulent tous devenir astronaute c'est pour se barrer de cette terre où ils devront vivre toute leur vie. Ensuite ils grandissent oublient la NASA à cause d'un 5.5 en math. Se haïssent eux-mêmes sans trop savoir pourquoi. Le lycée leur apprend les modalités de l'échec, de l'humiliation. Ceux qui auront leur bac se ruineront en malibu coca. Puis le soleil éclaire un peu plus leur chemin, ils voient un peu mieux l'avenir parce qu'il n'y en a pas. Ce n'est peut-être pas seulement de leur faute. Alors on se met a faire de la politique, un autre monde est possible, le changer serait tellement cool. Ils achètent des t-shirts avec des étoiles rouges et trouvent le mot révolution très beau. S'arrêtent de manger, du MacDo, refusent d'être français, ne regardent plus la météo. De toute façon, demain, il pleuvra</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Inquiétant</t>
+          <t>Journaliste (Freestyle Outro)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>J'suis juste un journaliste qui liste les vices au microphone Kidnappant Coca-Cola et Sam Barton Contre une liberté d'expression bâillonnée au chatterton Le gamin qui pige vite progresse à chaque heure qui sonne J'ai commencé comme pigiste indépendant, comme Orson Welles Et demandé qu'on me console, est-ce improbable comme un braqueur qui sonne Trop compliqué pour l'école car au lieu d'dire SOS j'dirai consonne-voyelle-consonne Alors girl, qu'est-ce que ça donne ? Heu SEX ! Ok, j'accepte et lèche, me laisse tous mes sentiments retournés C'est pas l'tout de noircir les pages, il faut savoir les tourner J'suis juste un photographe de la tour B, sur les clichés Tout est triste, là où les architectes ont un peu trop joué à Tétris Moi j'étais là sans l'but du jeu, c'est toute la CUS mon GTA Le fond sonore ambiance Claque ça où les lascars Brûlent leur propre voiture pour toucher l'assurance AXA Si à chaque fois j'utilise des images parlantes, des flashs Agfa - qui en disent long Surtout pas de p'tit son puisque la vie est injuste comme Schumacher sur Battiston Comme la fille que j'aimais et son bébé que j'appellerai jamais fiston Mais d'toute façon, c'est c'qu'y avait d'mieux si elle heureuse -ouais mec- Moi j'entendrai l'explosion si mon encre est de l'essence et que j'écris dans l'feu d'l'action Sans carte de presse, comme quand ils étaient 5 sur moi dans c'putain d'car de CRS Répétant à coup d'trique, qu'il me trouve un peu antipa-thique C'que tu penses ça s'dit pas p'tite, mais surtout joue pas l'artiste ou la victime Car un MC exigeant à chaque rime -frère- c'est juste un journaliste rédigeant son journal intime Et si j'trace des lignes Schengen entre mon quartier et la ville J'suis juste un reporter de guerre mobile J'vois l'état nous contenir par la fatigue de l'usine Le sommeil est une arme et j'm'endors en chien de fusil Comme un rebelle parmi les soldats harassés laissant les pigeons ingérer l'pain rassis Si tu crois pas c'que j'rapporte, j'suis qu'un paparazzi Poursuivant Diane, essouflé, sans argent, rêvant d'océan Si on part on est sauvé, j'ai du déposer l'amour au SAV Bonjour, qu'est-ce qui fonctionne pas ? Le mal au coeur si tu savais.. Je sais oui, mais c'est ça la vie, c'est ça et rien d'autre, c'est la vie Seulement faut être lucide, c'est tout ce qu'on a s'offrir</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Intro Astro</t>
+          <t>Journaliste (GZA edit)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Si les enfants veulent tous devenir astronaute c'est pour se barrer de cette terre où ils devront vivre toute leur vie. Ensuite ils grandissent oublient la NASA à cause d'un 5.5 en math. Se haïssent eux-mêmes sans trop savoir pourquoi. Le lycée leur apprend les modalités de l'échec, de l'humiliation. Ceux qui auront leur bac se ruineront en malibu coca. Puis le soleil éclaire un peu plus leur chemin, ils voient un peu mieux l'avenir parce qu'il n'y en a pas. Ce n'est peut-être pas seulement de leur faute. Alors on se met a faire de la politique, un autre monde est possible, le changer serait tellement cool. Ils achètent des t-shirts avec des étoiles rouges et trouvent le mot révolution très beau. S'arrêtent de manger, du MacDo, refusent d'être français, ne regardent plus la météo. De toute façon, demain, il pleuvra</t>
+          <t>J'suis juste un journaliste qui liste les vices au microphone Kidnappant Coca-Cola et Sam Barton Contre une liberté d'expression bâillonnée au chatterton Le gamin qui pige vite progresse à chaque heure qui sonne J'ai commencé comme pigiste indépendant, comme Orson Welles Et demandé qu'on me console, est-ce improbable comme un braqueur qui sonne Trop compliqué pour l'école car au lieu d'dire SOS j'dirai consonne-voyelle-consonne Alors girl, qu'est-ce que ça donne ? Heu SEX ! Ok, j'accepte et lèche, me laisse tous mes sentiments retournés C'est pas l'tout de noircir les pages, il faut savoir les tourner J'suis juste un photographe de la tour B, sur les clichés Tout est triste, là où les architectes ont un peu trop joué à Tétris Moi j'étais là sans l'but du jeu, c'est toute la CUS mon GTA Le fond sonore ambiance Claque ça où les lascars Brûlent leur propre voiture pour toucher l'assurance AXA Si à chaque fois j'utilise des images parlantes, des flashs Agfa - qui en disent long Surtout pas de p'tit son puisque la vie est injuste comme Schumacher sur Battiston Comme la fille que j'aimais et son bébé que j'appellerai jamais fiston Mais d'toute façon, c'est c'qu'y avait d'mieux si elle heureuse -ouais mec- Moi j'entendrai l'explosion si mon encre est de l'essence et que j'écris dans l'feu d'l'action Sans carte de presse, comme quand ils étaient 5 sur moi dans c'putain d'car de CRS Répétant à coup d'trique, qu'il me trouve un peu antipa-thique C'que tu penses ça s'dit pas p'tite, mais surtout joue pas l'artiste ou la victime Car un MC exigeant à chaque rime -frère- c'est juste un journaliste rédigeant son journal intime Et si j'trace des lignes Schengen entre mon quartier et la ville J'suis juste un reporter de guerre mobile J'vois l'état nous contenir par la fatigue de l'usine Le sommeil est une arme et j'm'endors en chien de fusil Comme un rebelle parmi les soldats harassés laissant les pigeons ingérer l'pain rassis Si tu crois pas c'que j'rapporte, j'suis qu'un paparazzi Poursuivant Diane, essouflé, sans argent, rêvant d'océan Si on part on est sauvé, j'ai du déposer l'amour au SAV Bonjour, qu'est-ce qui fonctionne pas ? Le mal au coeur si tu savais.. Je sais oui, mais c'est ça la vie, c'est ça et rien d'autre, c'est la vie Seulement faut être lucide, c'est tout ce qu'on a s'offrir1</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Journaliste (Freestyle Outro)</t>
+          <t>J’tuerai le mic</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>J'suis juste un journaliste qui liste les vices au microphone Kidnappant Coca-Cola et Sam Barton Contre une liberté d'expression bâillonnée au chatterton Le gamin qui pige vite progresse à chaque heure qui sonne J'ai commencé comme pigiste indépendant, comme Orson Welles Et demandé qu'on me console, est-ce improbable comme un braqueur qui sonne Trop compliqué pour l'école car au lieu d'dire SOS j'dirai consonne-voyelle-consonne Alors girl, qu'est-ce que ça donne ? Heu SEX ! Ok, j'accepte et lèche, me laisse tous mes sentiments retournés C'est pas l'tout de noircir les pages, il faut savoir les tourner J'suis juste un photographe de la tour B, sur les clichés Tout est triste, là où les architectes ont un peu trop joué à Tétris Moi j'étais là sans l'but du jeu, c'est toute la CUS mon GTA Le fond sonore ambiance Claque ça où les lascars Brûlent leur propre voiture pour toucher l'assurance AXA Si à chaque fois j'utilise des images parlantes, des flashs Agfa - qui en disent long Surtout pas de p'tit son puisque la vie est injuste comme Schumacher sur Battiston Comme la fille que j'aimais et son bébé que j'appellerai jamais fiston Mais d'toute façon, c'est c'qu'y avait d'mieux si elle heureuse -ouais mec- Moi j'entendrai l'explosion si mon encre est de l'essence et que j'écris dans l'feu d'l'action Sans carte de presse, comme quand ils étaient 5 sur moi dans c'putain d'car de CRS Répétant à coup d'trique, qu'il me trouve un peu antipa-thique C'que tu penses ça s'dit pas p'tite, mais surtout joue pas l'artiste ou la victime Car un MC exigeant à chaque rime -frère- c'est juste un journaliste rédigeant son journal intime Et si j'trace des lignes Schengen entre mon quartier et la ville J'suis juste un reporter de guerre mobile J'vois l'état nous contenir par la fatigue de l'usine Le sommeil est une arme et j'm'endors en chien de fusil Comme un rebelle parmi les soldats harassés laissant les pigeons ingérer l'pain rassis Si tu crois pas c'que j'rapporte, j'suis qu'un paparazzi Poursuivant Diane, essouflé, sans argent, rêvant d'océan Si on part on est sauvé, j'ai du déposer l'amour au SAV Bonjour, qu'est-ce qui fonctionne pas ? Le mal au coeur si tu savais.. Je sais oui, mais c'est ça la vie, c'est ça et rien d'autre, c'est la vie Seulement faut être lucide, c'est tout ce qu'on a s'offrir</t>
+          <t>Pourtant chaque feuille de texte en boule ou déchirée était sincère Puisqu'on survit déchiré j'ai les yeux rouges devant ma mère Tu vois bien que j'écris de la merde Aspire du shit au pic A défaut d'avoir de l'herbe J'ferme les yeux, et linspiration émane J'écris tellement de textes que je suis sponso par Waterman En fait c'que tu détestes j'amène la tess' dans ton Walkman Eh man ! Vas-y juste 30 secondes que je lui parle Fous-moi un truc un peu plus calme Arrête ! Tu m'répliques tu t'impliques j'l'aurai parié Ca te rend triste de me voir triste Alors on arrête de se parler Pour tous ces moments idiots Mais tu sais que j'ai du boulot Mais nan j'ai pas le temps de manger Et y'a pas de si jamais J'ai toujours moins que rien et si j'avais Ce serai pas mieux Car ici ne rien avoir fait des envieux Faut que j'envoie l'M.I.C dan les cieux J'tuerai le mic pour toi Faut que j'envoie l'M.I.C dan les cieux Moi j'tuerai le mic pour toi Moi je rappe pour les étoiles du sol Pas celles en or des shérifs Ah shit je l'ai déjà posé sur d'autres lyrics Alors je dis quoi moi En appelle au tableau noir Là le gars qui fume le mic Comme un joint de marijuana Aspiré par le stylo Consumé par le peu-ra Car j'enfume tout l'opéra Baah ! Explosif comme du C4 Soprano comme les Psy 4 Illicite, Narcozik Propagande en rhétorique Et si le beat te frite comme au MacDo J'apporte un rap de pute pour me mettre le mac à dos Car je travaille tellement mes textes que j'en ai mal aux abdos Ah dommage, vas-y fait tourner déjà ce qu'on a Pourtant chaque feuille de texte en boule ou déchirée était sincère Puisqu'on survit déchiré j'ai les yeux rouges devant ma mère Faut que j'envoie l'M.I.C dans les cieux Moi j'tuerai le mic pour toi Moi j'tuerai le mic pour toi Moi j'tuerai le mic... Faut que j'envoie l'M.I.C dans les cieux</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Journaliste (GZA edit)</t>
+          <t>Juste</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>J'suis juste un journaliste qui liste les vices au microphone Kidnappant Coca-Cola et Sam Barton Contre une liberté d'expression bâillonnée au chatterton Le gamin qui pige vite progresse à chaque heure qui sonne J'ai commencé comme pigiste indépendant, comme Orson Welles Et demandé qu'on me console, est-ce improbable comme un braqueur qui sonne Trop compliqué pour l'école car au lieu d'dire SOS j'dirai consonne-voyelle-consonne Alors girl, qu'est-ce que ça donne ? Heu SEX ! Ok, j'accepte et lèche, me laisse tous mes sentiments retournés C'est pas l'tout de noircir les pages, il faut savoir les tourner J'suis juste un photographe de la tour B, sur les clichés Tout est triste, là où les architectes ont un peu trop joué à Tétris Moi j'étais là sans l'but du jeu, c'est toute la CUS mon GTA Le fond sonore ambiance Claque ça où les lascars Brûlent leur propre voiture pour toucher l'assurance AXA Si à chaque fois j'utilise des images parlantes, des flashs Agfa - qui en disent long Surtout pas de p'tit son puisque la vie est injuste comme Schumacher sur Battiston Comme la fille que j'aimais et son bébé que j'appellerai jamais fiston Mais d'toute façon, c'est c'qu'y avait d'mieux si elle heureuse -ouais mec- Moi j'entendrai l'explosion si mon encre est de l'essence et que j'écris dans l'feu d'l'action Sans carte de presse, comme quand ils étaient 5 sur moi dans c'putain d'car de CRS Répétant à coup d'trique, qu'il me trouve un peu antipa-thique C'que tu penses ça s'dit pas p'tite, mais surtout joue pas l'artiste ou la victime Car un MC exigeant à chaque rime -frère- c'est juste un journaliste rédigeant son journal intime Et si j'trace des lignes Schengen entre mon quartier et la ville J'suis juste un reporter de guerre mobile J'vois l'état nous contenir par la fatigue de l'usine Le sommeil est une arme et j'm'endors en chien de fusil Comme un rebelle parmi les soldats harassés laissant les pigeons ingérer l'pain rassis Si tu crois pas c'que j'rapporte, j'suis qu'un paparazzi Poursuivant Diane, essouflé, sans argent, rêvant d'océan Si on part on est sauvé, j'ai du déposer l'amour au SAV Bonjour, qu'est-ce qui fonctionne pas ? Le mal au coeur si tu savais.. Je sais oui, mais c'est ça la vie, c'est ça et rien d'autre, c'est la vie Seulement faut être lucide, c'est tout ce qu'on a s'offrir1</t>
+          <t>Ouais Paraît qu't'es partie amoureuse Et qu'tu l'sais pas Commencer par quand on est deux C'est parc' que c'est un monde de flou Et qu't'es dans la neige bulleuse Avalanche malheureuse de sentiments Tu sens qu'j'ai mal Quand j'donne autant d'amour Que si t'avais de senti-mal Ma puce t'es plus Que tes rivales Deuxième au plus juste Avant l'do-ré-mi-fa Premier tome dernir automne J'suis en trans pire Qu'ct avion qui transporte Et mes yeux qui transpirent Car même les feuilles mortes Rappellent à mon souvenir Dooz Kawa chanson d'amour ? Pff tu veux rire J'ai perdu l'sens de l'humour Sans dessus-dessous Sont tes sens sans cesse C'est les miens sont les mêmes En sens inverse Regarde j'te montre en main Plus qu'à synchroniser nos montres Plus que 5 secondes Pour te souvenir que tu plais Tous les jours j'y panse Tes plaies Allo Allo A-A- Allo Allo</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J’tuerai le mic</t>
+          <t>Juste 30 secondes</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Pourtant chaque feuille de texte en boule ou déchirée était sincère Puisqu'on survit déchiré j'ai les yeux rouges devant ma mère Tu vois bien que j'écris de la merde Aspire du shit au pic A défaut d'avoir de l'herbe J'ferme les yeux, et linspiration émane J'écris tellement de textes que je suis sponso par Waterman En fait c'que tu détestes j'amène la tess' dans ton Walkman Eh man ! Vas-y juste 30 secondes que je lui parle Fous-moi un truc un peu plus calme Arrête ! Tu m'répliques tu t'impliques j'l'aurai parié Ca te rend triste de me voir triste Alors on arrête de se parler Pour tous ces moments idiots Mais tu sais que j'ai du boulot Mais nan j'ai pas le temps de manger Et y'a pas de si jamais J'ai toujours moins que rien et si j'avais Ce serai pas mieux Car ici ne rien avoir fait des envieux Faut que j'envoie l'M.I.C dan les cieux J'tuerai le mic pour toi Faut que j'envoie l'M.I.C dan les cieux Moi j'tuerai le mic pour toi Moi je rappe pour les étoiles du sol Pas celles en or des shérifs Ah shit je l'ai déjà posé sur d'autres lyrics Alors je dis quoi moi En appelle au tableau noir Là le gars qui fume le mic Comme un joint de marijuana Aspiré par le stylo Consumé par le peu-ra Car j'enfume tout l'opéra Baah ! Explosif comme du C4 Soprano comme les Psy 4 Illicite, Narcozik Propagande en rhétorique Et si le beat te frite comme au MacDo J'apporte un rap de pute pour me mettre le mac à dos Car je travaille tellement mes textes que j'en ai mal aux abdos Ah dommage, vas-y fait tourner déjà ce qu'on a Pourtant chaque feuille de texte en boule ou déchirée était sincère Puisqu'on survit déchiré j'ai les yeux rouges devant ma mère Faut que j'envoie l'M.I.C dans les cieux Moi j'tuerai le mic pour toi Moi j'tuerai le mic pour toi Moi j'tuerai le mic... Faut que j'envoie l'M.I.C dans les cieux</t>
+          <t>Parait que t'es partie amoureuse et que tu l'sais pas Comment on s'sépare Quand on est deux Parce que c'est un monde flou Et que t'es dans la neige-buleuse Avalanche malheureuse de sentiments Tu sens que j'ai mal quand je donne autant d'amour Que si t'avais de sang timal Ma puce t'es plus que tes rivales, deuxième opus Juste avant le do ré mi fa Premier tome dernier automne J'suis en transe pire que cet avion qui transporte Et mes yeux qui transpirent Car même les feuilles mortes Te rappellent à mon souvenir Dooz K.O chanson d'amour pfff tu veux rire J'ai perdu le sens de l'humour Sans dessus dessous sont tes sens sans cesse Et les miens sont les même en sens inverse Regarde j'te montre en main Plus qu'à synchroniser nos montres Plus que cinq secondes Pour te souvenir que tu plaîts Tous les jours j'y pense ... tes plaies1</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Juste</t>
+          <t>Là-bas dans les villes</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ouais Paraît qu't'es partie amoureuse Et qu'tu l'sais pas Commencer par quand on est deux C'est parc' que c'est un monde de flou Et qu't'es dans la neige bulleuse Avalanche malheureuse de sentiments Tu sens qu'j'ai mal Quand j'donne autant d'amour Que si t'avais de senti-mal Ma puce t'es plus Que tes rivales Deuxième au plus juste Avant l'do-ré-mi-fa Premier tome dernir automne J'suis en trans pire Qu'ct avion qui transporte Et mes yeux qui transpirent Car même les feuilles mortes Rappellent à mon souvenir Dooz Kawa chanson d'amour ? Pff tu veux rire J'ai perdu l'sens de l'humour Sans dessus-dessous Sont tes sens sans cesse C'est les miens sont les mêmes En sens inverse Regarde j'te montre en main Plus qu'à synchroniser nos montres Plus que 5 secondes Pour te souvenir que tu plais Tous les jours j'y panse Tes plaies Allo Allo A-A- Allo Allo</t>
+          <t>Encore un texte subtil pour faire passer la pilule Subutex, Dans un univers en ruines J'définis le climat social d'un hiver en rimes Là où y'a plus d'héros mais des flocons d'héroïne Ici, y'a pas de Néo qui s'enfuit par la cabine Pour des p'tites sommes Là-bas dans les villes Plus j'connais les hommes J'aime mon chien et ses canines Mais bon, c'est vrai qu'ici dans ma rue, ils s'battent aussi pour des ronds Que l'artiste meurt avec moi si on m'brûle tout comme Néron Et combien d'entre nous se disent au fond Eh! eh! W, j'encule ta mère C'est vrai que si son père, avait choisi le bon trou Ça serait un peu moins la merde J'ai vu des flics avec Dutroux J'ai voulu rester neutre, à visage découvert, pendant l'émeute Puisque pendant la guerre, on n'accuse personne de meurtre En tout cas, pas l'État Car leurs papiers gèrent, les ghettos, les booba et les sheitans Les lascars en lacoste et puis même les trafics d'organes Et ces bouffons tous seuls dans leurs voitures Gueulant dans les bouchons que l'on pollue la nature Qu'il faudrait changer tout ça, à coup de Front National C'est logique pour le mal, le sang contaminé condamne le business illégal Mais reste assis et baille Et fais marcher tes piles plutôt que marcher à pied Là-bàs dans les villes ils se battent pour du papier... Là-bas dans les villes ils s'battent pour du papier, ouais pourquoi pas, non mais c'est un bouchtim en vérité, les rappeurs, les rappeurs d'leur mère quoi, qu'est-ce qu'ils racontent, pfff ouais mec euh,c'est la galère euh, putain, les mecs tous les jours à midi ils mangent, tu t'dis ouais... Tu crois qu'c'est plus simple de rapper ? -Non j'dis pas qu'c'est plus simple de rapper, j'dis juste c'est plus simple... les mecs qui ont à dire quelque chose en vrai, c'est les mecs qu'on entend pas, c'est ça le truc, mais tu veux qu' j'te dise franchement, ton micro il tue... Là-bas dans les villes, ils se battent pour du papier hygiénique Car ma cité est construite à côté d'une usine chimique Car l'argent donne la santé et rend mignon Si j'ai j'ai les dents cassées, moi, j'suis pas né dans du coton Moi, j'survis par mes fonctions primaires, et analyste de mon état J'suis pas un fonctionnaire, ces ptites putes maquées par l'état Cachées derrière du verre, pour éviter que je les pé-ta En chaque humain y'a le potentiel, pour être un enfoiré modèle Pour te le prouver, descends dans la rue, crie enfoiré Tu verras tout le monde s'retourner Messages aux députés d'mes fesses À cause de vous ma planète est plus pourrie qu'un crs La tondeuse à gazon gronde dans les jardins du monde J'emmerde les blancs, les noirs, les bleus, les jaunes et les fausses blondes Les fox terriers à poils durs et les sâles gueules et les concombres Et les enfoirés qui m'en veulent J'tavoue, si les connards brillaient dans le noir, ça fait longtemps que j'serais aveugle Et vous, comment vous voyez la planète A vous croire différents et faire l'amour sur internet Avant j'serrais des culs, et maintenant tout le monde serre les fesses C'est la dech mais on s'taira, puisque là-bas dans les villes... etc Ouais enfin bref voilà quoi, on veut du flouze, j'ai une voiture toute pourrie, j'habite dans un appart' pourri, mais c'est bien...j'ai un appart', j'ai une voiture...y'en a même pas ils ont un toit au-dessus de la tête...mais laisse, laisse tourner, qu'est-ce t'en as à foutre putain ? on est des bourges, on est des nantis dans nos hlm, on croit qu'on est des pauvres... on est des riches qu'est-ce qu'y a ? mais en vrai à l'échelle de l'humanité on est des boeufs, on est des, on est des riches qu'est-ce qu'y a ? où t'as vu qu'on était pauvre ? pourquoi ? parce qu'on a pas de sapes, parce que merde, on 'a pas les dernières Nike ? j'sais pas moi à part les gars du T-Kaï y'a personne qui m'casse les couilles moi, y'a, y'a que ce petit putain de kawa... il fait des trucs de ouf, dis-moi, tu connais quelqu'un qui habite dans un quartier qui a jamais vu des trucs comme ça... c'est du classique...</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Juste 30 secondes</t>
+          <t>La couleur des sentiments</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Parait que t'es partie amoureuse et que tu l'sais pas Comment on s'sépare Quand on est deux Parce que c'est un monde flou Et que t'es dans la neige-buleuse Avalanche malheureuse de sentiments Tu sens que j'ai mal quand je donne autant d'amour Que si t'avais de sang timal Ma puce t'es plus que tes rivales, deuxième opus Juste avant le do ré mi fa Premier tome dernier automne J'suis en transe pire que cet avion qui transporte Et mes yeux qui transpirent Car même les feuilles mortes Te rappellent à mon souvenir Dooz K.O chanson d'amour pfff tu veux rire J'ai perdu le sens de l'humour Sans dessus dessous sont tes sens sans cesse Et les miens sont les même en sens inverse Regarde j'te montre en main Plus qu'à synchroniser nos montres Plus que cinq secondes Pour te souvenir que tu plaîts Tous les jours j'y pense ... tes plaies1</t>
+          <t>Couplet 1 Et si j'avais que deux minutes pour faire un croquis? Peindre les sentiments, en clair obscur Un peu d'lumière dans l'obscur ça se voit toujours Comme dans la couleur des émotions Contrairement à un peu d'obscurité sur de la lumière Sauf peut-être sur une radio du poumon Et comme me dirait Aude parfois le jour me nuit Comme me dirait l'aube, parfois la nuit m'ajourne Peut être que les sentiments sont une cueillette de fleurs invisibles Qui font des bouquets d'émotions cueillis dans un champ chromatique Personne voudrait avoir juste un bouquet monotone Fait que de dahlias noires et d'émotions monochromes Si on aboie c'est qu'on a la rage car on est fait du sang des en chiens Des jardins d'où poussait la révolution dillets, de tulipes et de jasmins Bien qu'on soit fait de ce terreau rare dans les faits pas des terroristes Que des bombes de peintures de ces couleurs qui les terrorisent Rouge, orange, rose, bleu ciel frère! d'où l'archange siège La révolte n'est qu'une flèche tirée d'un arc en ciel On plane au cur d'un orage mais on peindra des merveilles On transpercera les nuages, ces cataractes du ciel ! Yeah, si tu tournes dans ton lit sans trouver le soleil Que ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cache, ces cataractes du ciel Et tu tournes et tu tournes sans trouver le soleil Et ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cachent, ces cataractes du ciel Le tableau des sentiments est une étoile de maître Mais tu la gâches à trop mettre le noir du ressentiment Dans le son les mots sont une mélodie en panel La couleur des émotions est un arc en ciel Mais t'ouvres ton parapluie quand il tombe des gouttes de lumières aussi Pour voir la vie en rose faut savoir passer par ses épines Bah ouais parfois j'ai les idées noires mais ma musique est un bruit blanc C'est comme un voleur d'espoir, la tristesse est un brigand Et réduire tout le spectre des couleurs aux symboles C'est réduire tout l'orchestre symphonique aux cymbales C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cachent, ces cataractes du ciel Et tu tournes et tu tournes sans trouver le soleil Et ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cache, ces cataractes du ciel Tu vois l'tableau?2</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Là-bas dans les villes</t>
+          <t>La Fin des Contes</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Encore un texte subtil pour faire passer la pilule Subutex, Dans un univers en ruines J'définis le climat social d'un hiver en rimes Là où y'a plus d'héros mais des flocons d'héroïne Ici, y'a pas de Néo qui s'enfuit par la cabine Pour des p'tites sommes Là-bas dans les villes Plus j'connais les hommes J'aime mon chien et ses canines Mais bon, c'est vrai qu'ici dans ma rue, ils s'battent aussi pour des ronds Que l'artiste meurt avec moi si on m'brûle tout comme Néron Et combien d'entre nous se disent au fond Eh! eh! W, j'encule ta mère C'est vrai que si son père, avait choisi le bon trou Ça serait un peu moins la merde J'ai vu des flics avec Dutroux J'ai voulu rester neutre, à visage découvert, pendant l'émeute Puisque pendant la guerre, on n'accuse personne de meurtre En tout cas, pas l'État Car leurs papiers gèrent, les ghettos, les booba et les sheitans Les lascars en lacoste et puis même les trafics d'organes Et ces bouffons tous seuls dans leurs voitures Gueulant dans les bouchons que l'on pollue la nature Qu'il faudrait changer tout ça, à coup de Front National C'est logique pour le mal, le sang contaminé condamne le business illégal Mais reste assis et baille Et fais marcher tes piles plutôt que marcher à pied Là-bàs dans les villes ils se battent pour du papier... Là-bas dans les villes ils s'battent pour du papier, ouais pourquoi pas, non mais c'est un bouchtim en vérité, les rappeurs, les rappeurs d'leur mère quoi, qu'est-ce qu'ils racontent, pfff ouais mec euh,c'est la galère euh, putain, les mecs tous les jours à midi ils mangent, tu t'dis ouais... Tu crois qu'c'est plus simple de rapper ? -Non j'dis pas qu'c'est plus simple de rapper, j'dis juste c'est plus simple... les mecs qui ont à dire quelque chose en vrai, c'est les mecs qu'on entend pas, c'est ça le truc, mais tu veux qu' j'te dise franchement, ton micro il tue... Là-bas dans les villes, ils se battent pour du papier hygiénique Car ma cité est construite à côté d'une usine chimique Car l'argent donne la santé et rend mignon Si j'ai j'ai les dents cassées, moi, j'suis pas né dans du coton Moi, j'survis par mes fonctions primaires, et analyste de mon état J'suis pas un fonctionnaire, ces ptites putes maquées par l'état Cachées derrière du verre, pour éviter que je les pé-ta En chaque humain y'a le potentiel, pour être un enfoiré modèle Pour te le prouver, descends dans la rue, crie enfoiré Tu verras tout le monde s'retourner Messages aux députés d'mes fesses À cause de vous ma planète est plus pourrie qu'un crs La tondeuse à gazon gronde dans les jardins du monde J'emmerde les blancs, les noirs, les bleus, les jaunes et les fausses blondes Les fox terriers à poils durs et les sâles gueules et les concombres Et les enfoirés qui m'en veulent J'tavoue, si les connards brillaient dans le noir, ça fait longtemps que j'serais aveugle Et vous, comment vous voyez la planète A vous croire différents et faire l'amour sur internet Avant j'serrais des culs, et maintenant tout le monde serre les fesses C'est la dech mais on s'taira, puisque là-bas dans les villes... etc Ouais enfin bref voilà quoi, on veut du flouze, j'ai une voiture toute pourrie, j'habite dans un appart' pourri, mais c'est bien...j'ai un appart', j'ai une voiture...y'en a même pas ils ont un toit au-dessus de la tête...mais laisse, laisse tourner, qu'est-ce t'en as à foutre putain ? on est des bourges, on est des nantis dans nos hlm, on croit qu'on est des pauvres... on est des riches qu'est-ce qu'y a ? mais en vrai à l'échelle de l'humanité on est des boeufs, on est des, on est des riches qu'est-ce qu'y a ? où t'as vu qu'on était pauvre ? pourquoi ? parce qu'on a pas de sapes, parce que merde, on 'a pas les dernières Nike ? j'sais pas moi à part les gars du T-Kaï y'a personne qui m'casse les couilles moi, y'a, y'a que ce petit putain de kawa... il fait des trucs de ouf, dis-moi, tu connais quelqu'un qui habite dans un quartier qui a jamais vu des trucs comme ça... c'est du classique...</t>
+          <t>Jai pas su tuer lenfance, tu vis dans James et la grosse perche Évite Willy Wonkcrack les soirs où cest la grosse dech Les lumières de la ville deviennent le tombeau des lucioles Si jtombe au début de laube cest que Lucifer me la mise, Boy ! Fumée, atmosphère grise. Conte urbain des Frères Grimm Lumières allogènes, tise et son quotidin sesquisse Excès et sévics parce que trop de rêves restèrent ternes Direction la maison des vices comme Hansel et Gretel Parfois j'suis mauvais je lai dans le sang, ce slarvi Toi tes José Bové face aux enfants du maïs On saluera la nuit comme les Croquemitaines, les Vampires Ta fausse vie termine en pire, donc fuck systèmes et empires ! Penser au suicide quand Sheitan te sourit la nuit Puis à la mif, ses larmes, linstant daprès donc toublies ça vite Chat Botté sans sa frime, chaque soir ta beauté sen abime À tendre la main aux anges tu finis par sauter dans labîme Et on dévore des lucioles pendant que laube révèle son règne Paraît que cest ce quon aime, qules troubles deviennent obsessionnels Jai vu ma vie défiler les étoiles scintiller briller, puis épuisé Jai fui les pluies et vu le temps scier les peupliers Et cest reparti pour un tour on fera lamour, trinque à la mort Même lâme amère on se marre dans le bar cest le Salvador Jai côtoyé la folie quand les tocs minfectent le soir Les aller-retours aux chiottes pour gerber des insectes noirs alors Petit Poucet trace ton chemin devra épouser son destin Sent la douleur dans lintestin Et cest rare ici-bas que les loups finissent en zonpri Demande à Karaba, y a pas de sorcière y a qudes femmes incomprises Faire le mal dans lerrance, y a que sous drogue que je peux m'pardonner Toi tu prends ma défense que si tes braconnier Jai exploré les astres pour caresser lécrin des songes Je tai retrouvé enfin mon cur est ouvert comme La Fin des Contes C'est dur de vivre accompagné Et de me dire ta nana t'aime Jme demande pourquoi on m'aimerait Je me sens toujours en anathème Toujours en retard, à la peine Je suis parti déchecs, à la traîne Mais je continue la partie, même sils crient On a ta reine ! Dans ma tête les combats font rage À deux doigts de sauter du pont ! Je suis curieux de comment ça nage un intrépide soldat de plomb En fin de compte On fait les comptes Lorsqu'on est trop arraché Enfin je raconte La Fin des Contes Au fond des contrées ravagées !! Un peu de rhum et cest parti Je renie les hommes et leur carnages Je deviens Niels Holgersson Lorsque je suis parfois trop naze Je menvole sur des oies sauvages Cest quoi ton blase ? Dooz kawa, un inconnuJe serai reconnu quen cadavre Mais c'est pas graveJe sors des caves J'attendais rien, et je l'ai atteint Comme une ataraxie du sage Lorsque jai froid j'attends demain Comme au crépuscule de lété Et je garde toujours dans ma mainLa main de l'enfant que jai été Les causes perdues sont mes espoirs Car j'ai toujours le don qui choque Les moulins me jettent dans les étoilesComme Hidalgo de Don Quichotte ! Je suis le prince de Kay Nielsen Et comme un conteur j'affabule À l'est du soleil Ou bien à l'ouest de la lune Et si j'enchaîne les insomnies Cest que Le réveil est brutal Comme la police de NYC ! Les rêves matériels dépérissent Petit prince de l'mic Je suisPerdu dans les étoiles Tout comme AntoineDe Saint-Exupéry Il parait quE mc2 Ça me fait pas oublier que Derrière une formule mathématique Einstein inventa la bombe atomique Mais on fout mes gars en taule Pour avoir dealé du shit ! Peu importe ce quon raconte En fin de compte Voici la dernière berceuse La Fin des Contes</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>La couleur des sentiments</t>
+          <t>La Folia</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Couplet 1 Et si j'avais que deux minutes pour faire un croquis? Peindre les sentiments, en clair obscur Un peu d'lumière dans l'obscur ça se voit toujours Comme dans la couleur des émotions Contrairement à un peu d'obscurité sur de la lumière Sauf peut-être sur une radio du poumon Et comme me dirait Aude parfois le jour me nuit Comme me dirait l'aube, parfois la nuit m'ajourne Peut être que les sentiments sont une cueillette de fleurs invisibles Qui font des bouquets d'émotions cueillis dans un champ chromatique Personne voudrait avoir juste un bouquet monotone Fait que de dahlias noires et d'émotions monochromes Si on aboie c'est qu'on a la rage car on est fait du sang des en chiens Des jardins d'où poussait la révolution dillets, de tulipes et de jasmins Bien qu'on soit fait de ce terreau rare dans les faits pas des terroristes Que des bombes de peintures de ces couleurs qui les terrorisent Rouge, orange, rose, bleu ciel frère! d'où l'archange siège La révolte n'est qu'une flèche tirée d'un arc en ciel On plane au cur d'un orage mais on peindra des merveilles On transpercera les nuages, ces cataractes du ciel ! Yeah, si tu tournes dans ton lit sans trouver le soleil Que ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cache, ces cataractes du ciel Et tu tournes et tu tournes sans trouver le soleil Et ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cachent, ces cataractes du ciel Le tableau des sentiments est une étoile de maître Mais tu la gâches à trop mettre le noir du ressentiment Dans le son les mots sont une mélodie en panel La couleur des émotions est un arc en ciel Mais t'ouvres ton parapluie quand il tombe des gouttes de lumières aussi Pour voir la vie en rose faut savoir passer par ses épines Bah ouais parfois j'ai les idées noires mais ma musique est un bruit blanc C'est comme un voleur d'espoir, la tristesse est un brigand Et réduire tout le spectre des couleurs aux symboles C'est réduire tout l'orchestre symphonique aux cymbales C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cachent, ces cataractes du ciel Et tu tournes et tu tournes sans trouver le soleil Et ta journée s'enfuie dans la chaleur du sommeil C'est un panel de gouache ta couleur émotionnelle Mais des nuages la cache, ces cataractes du ciel Tu vois l'tableau?2</t>
+          <t>À force de faire du rap, tétonnes pas de finir en morceaux Ma vie est inutile comme casser les cailloux des Dalton Il voudrait vous porter locéan, pour vous loffrir au creux des mains Mais leau senfuit dentre ses doigts sans quil sen aperçoive, il vient Il est rempli de projets grandioses qui sont surtout biens impossibles Mais il reste étonné, déçu de vous présenter des mains vides Moi jcrois quil est juste incompris, car il voit trop ce qui arrive Et puis un peu trop à lavance, Zarathoustra lavait prédit Il porte une lanterne en plein jour avec portraits de peinture Croit que le présent vous rend sourd, sans savoir quil parle du futur On croit quil dort amer, hostile sur le lit de la délinquance Pourtant pour lui, sa mère aussi, a du pleurer à sa naissance Sa musique, place publique de feu de joie ou de bûcher Dépèce les mots au stylo bic, car ses syllabes sont des bouchées Il rap des seize malgré son rhume, vit de photosynthèse nocturne Et porte une casquette en pleine nuit parce quil y a trop de rayons de lune Il restera pas sur terre très vieux, doffrir merveilleux Car vit dimpossibles illusions quon peut pas mettre devant les yeux À force de faire du rap, tétonnes pas de finir en morceaux Dans un film, les fédéraux le rtrouvent dans un hôtel mort saoul Savoure ces freestyles, on oublie tout quand son heure sonne Ma vie est inutile comme casser les cailloux des Dalton À force de faire du rap, tétonnes pas de finir en morceaux Dans un film, les fédéraux le rtrouvent dans un hôtel mort saoul Savoure ces freestyles, on oublie tout quand son heure sonne Ma vie est inutile comme casser les cailloux des Dalton Il marche aux allures de grand druide en traînant son nud de pendu Mais sa corde qui traîne derrière lui, qui le veut peut tirer dessus Il croit nous parler, il récite, victime dune prison de concepts Tout contre lui-même, il résiste jusquà sanesthésier la tête Apporte une poésie des pauvres, armure éclatante de lumière Qui sont les haillons de la cause, il se pavane comme le plus fier Pathologique, métamorphose, quand il sgratte cest le plus des rois Mais porte un terrible secret dalcôve, cest quil nest quun sale petit Il pourrait se nourrir dune fleur, mais découper les fleurs l'écoeure Les arrache jamais de leur tige, pour pas leur arracher le coeur Quand il est là, il est absent et voit tout autrement les songes Quà travers ses larmes de sang et sendort sur des rêves de mensonges Il ne part jamais en vacances, dtoutes façons il nest jamais là Et même quand son sourire savance, son regard reste froid Quand lentourage sfait des soucis, quil parle de lhumain condamné Il répond cque disent tous les fous si, la différence cest qumoi je sais Dooz Kawa pour vous servir Nouvel album Jespère quon continuera de vous faire plaisir dans Merci dêtre présent et bonne James Digger, voici Saligo, voici Vincent Beer-Demander, voici Voici À force de faire du rap, tétonnes pas de finir en morceaux Dans un film, les fédéraux le rtrouvent dans un hôtel mort saoul Savoure ces freestyles, on oublie tout quand son heure sonne Ma vie est inutile comme casser les cailloux des Dalton Ladies and gentlemens On trouve tous quil a lair dun pote et sur vos oreilles des airpods Vous trouvez sa musique carrée parce quil nest plus quun QR code Au fond, comprenez pas ses mots parce que certains sont si profonds Quon lappelle Capitaine, Nemo et cest parti on plonge Lui, finira sa course à pied en bondissant dun pas à lautre Sur des petits bouts de papiers comme un de post-it Un prince qui dans vos rêves vous pince Ça aurait pu tenir le bonheur mais il eût fallut que je le tinsse Il nest pas lesclave mais la fronde dans la réalité des ombres Pour lui les hommes les plus puissants ne gouvernent que les arrières-mondes LÉtat pourra pas le punir car il vit dimagerie mental Où le réel ne rentre pas Son clin doeil est pour vous, mais caché derrière ses Ray-Ban Et il nous offre à tous un grand bouquet de fleurs du mal</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>La Fin des Contes</t>
+          <t>Lagrima</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jai pas su tuer lenfance, tu vis dans James et la grosse perche Évite Willy Wonkcrack les soirs où cest la grosse dech Les lumières de la ville deviennent le tombeau des lucioles Si jtombe au début de laube cest que Lucifer me la mise, Boy ! Fumée, atmosphère grise. Conte urbain des Frères Grimm Lumières allogènes, tise et son quotidin sesquisse Excès et sévics parce que trop de rêves restèrent ternes Direction la maison des vices comme Hansel et Gretel Parfois j'suis mauvais je lai dans le sang, ce slarvi Toi tes José Bové face aux enfants du maïs On saluera la nuit comme les Croquemitaines, les Vampires Ta fausse vie termine en pire, donc fuck systèmes et empires ! Penser au suicide quand Sheitan te sourit la nuit Puis à la mif, ses larmes, linstant daprès donc toublies ça vite Chat Botté sans sa frime, chaque soir ta beauté sen abime À tendre la main aux anges tu finis par sauter dans labîme Et on dévore des lucioles pendant que laube révèle son règne Paraît que cest ce quon aime, qules troubles deviennent obsessionnels Jai vu ma vie défiler les étoiles scintiller briller, puis épuisé Jai fui les pluies et vu le temps scier les peupliers Et cest reparti pour un tour on fera lamour, trinque à la mort Même lâme amère on se marre dans le bar cest le Salvador Jai côtoyé la folie quand les tocs minfectent le soir Les aller-retours aux chiottes pour gerber des insectes noirs alors Petit Poucet trace ton chemin devra épouser son destin Sent la douleur dans lintestin Et cest rare ici-bas que les loups finissent en zonpri Demande à Karaba, y a pas de sorcière y a qudes femmes incomprises Faire le mal dans lerrance, y a que sous drogue que je peux m'pardonner Toi tu prends ma défense que si tes braconnier Jai exploré les astres pour caresser lécrin des songes Je tai retrouvé enfin mon cur est ouvert comme La Fin des Contes C'est dur de vivre accompagné Et de me dire ta nana t'aime Jme demande pourquoi on m'aimerait Je me sens toujours en anathème Toujours en retard, à la peine Je suis parti déchecs, à la traîne Mais je continue la partie, même sils crient On a ta reine ! Dans ma tête les combats font rage À deux doigts de sauter du pont ! Je suis curieux de comment ça nage un intrépide soldat de plomb En fin de compte On fait les comptes Lorsqu'on est trop arraché Enfin je raconte La Fin des Contes Au fond des contrées ravagées !! Un peu de rhum et cest parti Je renie les hommes et leur carnages Je deviens Niels Holgersson Lorsque je suis parfois trop naze Je menvole sur des oies sauvages Cest quoi ton blase ? Dooz kawa, un inconnuJe serai reconnu quen cadavre Mais c'est pas graveJe sors des caves J'attendais rien, et je l'ai atteint Comme une ataraxie du sage Lorsque jai froid j'attends demain Comme au crépuscule de lété Et je garde toujours dans ma mainLa main de l'enfant que jai été Les causes perdues sont mes espoirs Car j'ai toujours le don qui choque Les moulins me jettent dans les étoilesComme Hidalgo de Don Quichotte ! Je suis le prince de Kay Nielsen Et comme un conteur j'affabule À l'est du soleil Ou bien à l'ouest de la lune Et si j'enchaîne les insomnies Cest que Le réveil est brutal Comme la police de NYC ! Les rêves matériels dépérissent Petit prince de l'mic Je suisPerdu dans les étoiles Tout comme AntoineDe Saint-Exupéry Il parait quE mc2 Ça me fait pas oublier que Derrière une formule mathématique Einstein inventa la bombe atomique Mais on fout mes gars en taule Pour avoir dealé du shit ! Peu importe ce quon raconte En fin de compte Voici la dernière berceuse La Fin des Contes</t>
+          <t>Bonjour tout le monde Aujourdhui je dois vous parler D'anatomie de lil, physiologie des larmes Yo, ouais, ouais Les larmes naissent, au fond du cur, apparaissent Des nuits, même dénuées de stock Elles glissent, ploc, comme des nuées d'oiseaux d'Hitchcock Il y a comme des amoureux qui se moquent Et partagent des bulles salivaires Quand sous ton barda c'est toujours le froid d'hiver Faudra t'y faire Et c'est de là que reniflent les narines Aphasique, que nous on cri le mot de l'appart Les pipeline qui sont greffées a nos canaux lacrymaux Un triste état de ruine, ralentit la cicatrice Comme l'héparine En quelques gouttes salines Les naïades sont balayées par les baïnes Essuies une larme Plus facile que dassécher sa source Prends une arme, dis lui rends toi Avant d'arrêter sa course Moi j'ai une bouteille de rhum âgé Pour y noyer mon chagrin Mais j'ai oublié qu'depuis le temps Il a appris a nager DAH CONECTAH Les larmes naissent d'un contexte infâme Suffit d'une étincelle Et puis les vapeurs s'enflamment Une âme est percée par ces shooteurs à deux balles La mélodie ma compagnie Quand on rame en fond de cale, et fonskar Je ressens même pas le besoin de blâmer toutes celles Qui ont fait que dans ma bouche il y avait ce goût de sel Ecoute ça, les gouttes sèches Quand la colère est à l'horizon Je suis pas étonné De céder au vice que nous nourrissions La douleur d'une écharde Qu'on a cru oter est ravivée par le destin et sa cruauté A certains la chance à sourit d'un air mesquin Les a laissés sur le côté crier J'aurais dû oser La gorge est nouée Quand remontent les sentiments C'est un avis de tempête dans l'océan Ouais Moi j'ai une bouteille de rhum âgé Pour y noyer mon chagrin Mais j'ai oublié qu'depuis le temps Il a appris a nager Yo, dis moi timal Où tombent les pétales de notre âme? Fânent, se détachent et planent Où on embrasse les femmes Ça fait un bail que j'attise la tristesse Qui la crame, qu'Atys a blessé Cybèle Mais elle est toujours aussi belle Amoureux de son ennemi car Je l'aimais mal quand je croyais l'aimais mieux Elle me regarde la nuit Alors moi j'ouvre jamais les yeux Des tâches d'encre et du sang Se mélangent sur mon armure Si mon corps est un temple Je choisi de taguer les murs Plutôt que d'entailler les veines, racaille et peine Chercher lintrus, et on a eu Les ennemis les plus puissants La distance et le temps Ils deviendront nos alliés A l'heure de cicatriser Il y a quoi à tiser Pour noyer un chagrin ? Musicien, rejoue la ritournelle qui Muselait les chiens le jour des hirondelles Qu'un refré pleurait pour l'une d'elle Qui s'est envolée à tir d'ailes J'lui disait Moi j'ai une bouteille de rhum âgé Pour y noyer mon chagrin Mais c'te enfoiré Il a appris a nager2</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>La Folia</t>
+          <t>La Maison</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>À force de faire du rap, tétonnes pas de finir en morceaux Ma vie est inutile comme casser les cailloux des Dalton Il voudrait vous porter locéan, pour vous loffrir au creux des mains Mais leau senfuit dentre ses doigts sans quil sen aperçoive, il vient Il est rempli de projets grandioses qui sont surtout biens impossibles Mais il reste étonné, déçu de vous présenter des mains vides Moi jcrois quil est juste incompris, car il voit trop ce qui arrive Et puis un peu trop à lavance, Zarathoustra lavait prédit Il porte une lanterne en plein jour avec portraits de peinture Croit que le présent vous rend sourd, sans savoir quil parle du futur On croit quil dort amer, hostile sur le lit de la délinquance Pourtant pour lui, sa mère aussi, a du pleurer à sa naissance Sa musique, place publique de feu de joie ou de bûcher Dépèce les mots au stylo bic, car ses syllabes sont des bouchées Il rap des seize malgré son rhume, vit de photosynthèse nocturne Et porte une casquette en pleine nuit parce quil y a trop de rayons de lune Il restera pas sur terre très vieux, doffrir merveilleux Car vit dimpossibles illusions quon peut pas mettre devant les yeux À force de faire du rap, tétonnes pas de finir en morceaux Dans un film, les fédéraux le rtrouvent dans un hôtel mort saoul Savoure ces freestyles, on oublie tout quand son heure sonne Ma vie est inutile comme casser les cailloux des Dalton À force de faire du rap, tétonnes pas de finir en morceaux Dans un film, les fédéraux le rtrouvent dans un hôtel mort saoul Savoure ces freestyles, on oublie tout quand son heure sonne Ma vie est inutile comme casser les cailloux des Dalton Il marche aux allures de grand druide en traînant son nud de pendu Mais sa corde qui traîne derrière lui, qui le veut peut tirer dessus Il croit nous parler, il récite, victime dune prison de concepts Tout contre lui-même, il résiste jusquà sanesthésier la tête Apporte une poésie des pauvres, armure éclatante de lumière Qui sont les haillons de la cause, il se pavane comme le plus fier Pathologique, métamorphose, quand il sgratte cest le plus des rois Mais porte un terrible secret dalcôve, cest quil nest quun sale petit Il pourrait se nourrir dune fleur, mais découper les fleurs l'écoeure Les arrache jamais de leur tige, pour pas leur arracher le coeur Quand il est là, il est absent et voit tout autrement les songes Quà travers ses larmes de sang et sendort sur des rêves de mensonges Il ne part jamais en vacances, dtoutes façons il nest jamais là Et même quand son sourire savance, son regard reste froid Quand lentourage sfait des soucis, quil parle de lhumain condamné Il répond cque disent tous les fous si, la différence cest qumoi je sais Dooz Kawa pour vous servir Nouvel album Jespère quon continuera de vous faire plaisir dans Merci dêtre présent et bonne James Digger, voici Saligo, voici Vincent Beer-Demander, voici Voici À force de faire du rap, tétonnes pas de finir en morceaux Dans un film, les fédéraux le rtrouvent dans un hôtel mort saoul Savoure ces freestyles, on oublie tout quand son heure sonne Ma vie est inutile comme casser les cailloux des Dalton Ladies and gentlemens On trouve tous quil a lair dun pote et sur vos oreilles des airpods Vous trouvez sa musique carrée parce quil nest plus quun QR code Au fond, comprenez pas ses mots parce que certains sont si profonds Quon lappelle Capitaine, Nemo et cest parti on plonge Lui, finira sa course à pied en bondissant dun pas à lautre Sur des petits bouts de papiers comme un de post-it Un prince qui dans vos rêves vous pince Ça aurait pu tenir le bonheur mais il eût fallut que je le tinsse Il nest pas lesclave mais la fronde dans la réalité des ombres Pour lui les hommes les plus puissants ne gouvernent que les arrières-mondes LÉtat pourra pas le punir car il vit dimagerie mental Où le réel ne rentre pas Son clin doeil est pour vous, mais caché derrière ses Ray-Ban Et il nous offre à tous un grand bouquet de fleurs du mal</t>
+          <t>J'habite une grande maison qui brille la nuit à l'horizon Et où pourtant tout est triste et assuré tous risques Mon site c'est là où ne passent pas les bus de touristes Et y a pas de Superman dans ces blocs en kryptonite Les sciences anatomiques des types se résument au clitoris là où j'habite Une maison hantée par des surnoms à la bombe et des fantômes sous lithium la nuit tombée J'habite une opiumerie à Bombay depuis tant d'années que je suis barré J'habite une maison abandonnée derrière la palissade Un squat d'où partent les basses J'habite alone in the dark J'habite là où on dit qu'on n'est pas net car chacun a sa planète On dirait que sous ma fenêtre parfois les caravanes s'arrêtent J'habite où on paye ses dettes sans travail Là où les vautours s'entaillent Ma maison, ben, c'est la tour centrale J'habite dans un local sponso par l'hôpital Où c'est l'extase à petite dose Ma maison ce sont ces appart' au butane qui explosent La maison c'est toujours ce qui appartient aux autres du voisinage Où on s'introduit la nuit en soulevant la porte du garage Ma maison c'est un mirage et c'est pour ça que j'existe pas Moi... je suis qu'un nuage Je suis qu'un nuage ! Je reviens de loin, un joint à la main J'aimerais bien rentrer chez moi mais y a plus de chemin Je me sens comme marqué par une étoile de David Et j'habite ces blocs qui appartiennent à la ville Là où la nuit se réveillent nos vieux rêves de Vénus Là où on est avide de lumière J'habite là où un jour se révèlent les putes de luxe aux habits de lumière J'habite là où les flics dansent le sirtaki lorsque ça part en lattes avec les tanges J'habite sous le chapiteau d'un cirque étrange d'où viennent des phénomènes de mode Des maisons où les anges tombent Le toit du monde</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lagrima</t>
+          <t>La nuit des dorts vivants</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Bonjour tout le monde Aujourdhui je dois vous parler D'anatomie de lil, physiologie des larmes Yo, ouais, ouais Les larmes naissent, au fond du cur, apparaissent Des nuits, même dénuées de stock Elles glissent, ploc, comme des nuées d'oiseaux d'Hitchcock Il y a comme des amoureux qui se moquent Et partagent des bulles salivaires Quand sous ton barda c'est toujours le froid d'hiver Faudra t'y faire Et c'est de là que reniflent les narines Aphasique, que nous on cri le mot de l'appart Les pipeline qui sont greffées a nos canaux lacrymaux Un triste état de ruine, ralentit la cicatrice Comme l'héparine En quelques gouttes salines Les naïades sont balayées par les baïnes Essuies une larme Plus facile que dassécher sa source Prends une arme, dis lui rends toi Avant d'arrêter sa course Moi j'ai une bouteille de rhum âgé Pour y noyer mon chagrin Mais j'ai oublié qu'depuis le temps Il a appris a nager DAH CONECTAH Les larmes naissent d'un contexte infâme Suffit d'une étincelle Et puis les vapeurs s'enflamment Une âme est percée par ces shooteurs à deux balles La mélodie ma compagnie Quand on rame en fond de cale, et fonskar Je ressens même pas le besoin de blâmer toutes celles Qui ont fait que dans ma bouche il y avait ce goût de sel Ecoute ça, les gouttes sèches Quand la colère est à l'horizon Je suis pas étonné De céder au vice que nous nourrissions La douleur d'une écharde Qu'on a cru oter est ravivée par le destin et sa cruauté A certains la chance à sourit d'un air mesquin Les a laissés sur le côté crier J'aurais dû oser La gorge est nouée Quand remontent les sentiments C'est un avis de tempête dans l'océan Ouais Moi j'ai une bouteille de rhum âgé Pour y noyer mon chagrin Mais j'ai oublié qu'depuis le temps Il a appris a nager Yo, dis moi timal Où tombent les pétales de notre âme? Fânent, se détachent et planent Où on embrasse les femmes Ça fait un bail que j'attise la tristesse Qui la crame, qu'Atys a blessé Cybèle Mais elle est toujours aussi belle Amoureux de son ennemi car Je l'aimais mal quand je croyais l'aimais mieux Elle me regarde la nuit Alors moi j'ouvre jamais les yeux Des tâches d'encre et du sang Se mélangent sur mon armure Si mon corps est un temple Je choisi de taguer les murs Plutôt que d'entailler les veines, racaille et peine Chercher lintrus, et on a eu Les ennemis les plus puissants La distance et le temps Ils deviendront nos alliés A l'heure de cicatriser Il y a quoi à tiser Pour noyer un chagrin ? Musicien, rejoue la ritournelle qui Muselait les chiens le jour des hirondelles Qu'un refré pleurait pour l'une d'elle Qui s'est envolée à tir d'ailes J'lui disait Moi j'ai une bouteille de rhum âgé Pour y noyer mon chagrin Mais c'te enfoiré Il a appris a nager2</t>
+          <t>Couplet 1 Euphonik Noir Soleil pleure, il pleut sous mon anorak Quand j'pense avec le coeur, ça m'rend un peu paranoïaque Chérie, j'suis qu'un roi démon, pas le p'tit Prince d'Exupéry La nuit je dessine des gloutons qui me mangeront si mon âme dépérit Demain c'est loin, j'suis dans la nuit avec ma horde Pour me perdre en chemin, j'ai pas besoin d'une escort girl A quoi tu penses ? J'suis l'genre de loup qui avance seul J'fais ms projets en silenc quand ils ouvrent bien trop leur gueule Mon armature dans un bain d'sang tant ce rap est un fusil d'assaut Nos textes ont plus de sens que les peintures de Picasso Nos émotions sont des toiles que seuls les mots pourraient peindre Nos émotions sont des toiles que même le ciel ne peut éteindre La nuit j'ai des idées lâches, remplis des pages qui m'assombrissent J'me dis qu'vaut mieux errer en marche que d'être en cage comme un zombie J'ai cette voix, dans ma tête, j'ai quelque chanson d'amour J'suis qu'un vampire en fait, j'disparais quand vient le jour Refrain Dooz Kawa Davodka Plus jamais rien ne me réveille, car j'suis un dort-vivant La nuit ma copine prend le pouls, si j'suis encore vivant Je vois dans toute la ville des dort-vivants Achète un fusil pour la nuit des dort-vivants X2 Couplet 2 Davodka Mes voisins ne pensent qu'à m'espionner Ma tête les pousse à s'questionner Ai-je l'apparence d'une coquille vide parce que mon cerveau ne cesse pas d'raisonner ? J'ai l'impression d'émerger de sous terre, j'aperçois la surface quand mon gosse sourit Pour trouver le sommeil faut que je mette le crâne à l'envers tout comme une chauve-souris Plus possible, il faut que je détourne mon regard de tous mes détracteurs Chaque souci aspire un peu plus mon âme tel des Détraqueurs J'ai l'air d'un mec trop bon Socialement un peu fermé Qui avance dans le noir les yeux cernés Pris en otage par un réveil profond Oiseau de nuit, qui tombe de haut Mais qui veut amortir le coup Mais mon mal-être c'est que même mon histoire est à dormir debout Ancien morveux, qui a bien morflé Coincé dans un corps vide, là où certains morts vivent On cherche les bras d'Morphée Avec un brin d'Morphine Refrain Dooz Kawa Davodka Plus jamais rien ne me réveille, car j'suis un dort-vivant La nuit ma copine prend le pouls, si j'suis encore vivant Je vois dans toute la ville des dort-vivants Achète un fusil pour la nuit des dort-vivants X2 Couplet 3 Swift Guad J'me vois changer comme Dorian Gray J'écris pendant qu'le corps maigrit Des fois j'suis bouillant comme la braise Qui rougit sous un beau ciel gris J'suis tellement insomniaque que j'pourrais travailler dans l'hôtellerie J'fais des incantations nocturnes qui ressemblent à de la sorcellerie J'me sirote un Bloody Mary car ici bas l'Homme est mourant J'me perds dans mes maudites rêveries, j'me réveille au soleil couchant En vrai j'crois qu'on est tous à bout habillés de guenilles crasseuses Et j'me transforme en loup-garou pour compter les brebis galeuses On nous dit souvent qu'l'heure est grave J'ai des douleurs sous forme aigüe Le quotidien est trop décevant Vaut mieux avoir une mauvaise vue C'est comme la nuit des morts-vivants donc c'est pour ça qu'je n'dors même plus Parce que j'veux changer l'ordinaire, il faut qu'j'y plonge à corps perdu On sait pas comment s'en tirer, on aime voir les gens s'diviser Situation va empirer parce qu'on nous a vampirisé On aime électriser la foule, la nuit on est des vers luisants Quand on m'prend par les sentiments j'connais que des échecs cuisants C'est la confrérie des ombres x2 Refrain Dooz Kawa Davodka Plus jamais rien ne me réveille, car j'suis un dort-vivant La nuit ma copine prend le pouls, si j'suis encore vivant Je vois dans toute la ville des dort-vivants Achète un fusil pour la nuit des dort-vivants Plus jamais rien ne me réveille... Couplet 4 Dooz Kawa Pour moi la partie commence à peine après l'échec et mat Quand sont détruites nos dernières chances, et qu'on m'a dit que c'était oit Qui as voulu ma vie détruite et que j'pourrais pas m'en sortir J'suis au bout de la ligne de fuite avec DVK, Eupho, Swift Dans les jugements que l'on reçoit ça nous déçoit Sans l'prononcer, il faut être fier de soi des fois car faire des choix c'est renoncer Parfois je crois dormir ma vie et j'avance sans que mes pieds bougent J'suis habillé comme un zombie, le voisin m'tirerait une cartouche Sans jamais s'alarmer des signes, il sait juste que j'fais du pe-ra Mais pas que j'fais de la médecine, ou un master, un doctorat Lui il sait juste que j'suis tatoué, j'suis un mec louche des HLM J'suis tout l'temps fatigué, bah ouais, moi j'ai pas eu d'parents riches et j'saigne J'suis fatigué tous les matins, j'refuse de m'taper des tapins Alors les filles restent toute la nuit et j'bosse sur elles comme à temps plein Elles croient que sucer un rappeur ça représente comme un tremplin Demain j'la garde, mon porte-bonheur, et j'm'endors vaguement dans le train</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>La Maison</t>
+          <t>La police recrute</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>J'habite une grande maison qui brille la nuit à l'horizon Et où pourtant tout est triste et assuré tous risques Mon site c'est là où ne passent pas les bus de touristes Et y a pas de Superman dans ces blocs en kryptonite Les sciences anatomiques des types se résument au clitoris là où j'habite Une maison hantée par des surnoms à la bombe et des fantômes sous lithium la nuit tombée J'habite une opiumerie à Bombay depuis tant d'années que je suis barré J'habite une maison abandonnée derrière la palissade Un squat d'où partent les basses J'habite alone in the dark J'habite là où on dit qu'on n'est pas net car chacun a sa planète On dirait que sous ma fenêtre parfois les caravanes s'arrêtent J'habite où on paye ses dettes sans travail Là où les vautours s'entaillent Ma maison, ben, c'est la tour centrale J'habite dans un local sponso par l'hôpital Où c'est l'extase à petite dose Ma maison ce sont ces appart' au butane qui explosent La maison c'est toujours ce qui appartient aux autres du voisinage Où on s'introduit la nuit en soulevant la porte du garage Ma maison c'est un mirage et c'est pour ça que j'existe pas Moi... je suis qu'un nuage Je suis qu'un nuage ! Je reviens de loin, un joint à la main J'aimerais bien rentrer chez moi mais y a plus de chemin Je me sens comme marqué par une étoile de David Et j'habite ces blocs qui appartiennent à la ville Là où la nuit se réveillent nos vieux rêves de Vénus Là où on est avide de lumière J'habite là où un jour se révèlent les putes de luxe aux habits de lumière J'habite là où les flics dansent le sirtaki lorsque ça part en lattes avec les tanges J'habite sous le chapiteau d'un cirque étrange d'où viennent des phénomènes de mode Des maisons où les anges tombent Le toit du monde</t>
+          <t>Wesh la police Parait qu't'as une matraque Si j'fais l'profil psychologique de fond C'est un pénis de subtitution Parce que t'as une petite... Ecoute mon beat... Contrôle de faf', hé t'as vu ils bossent fort Si tu cherches du taf' et qu'ça phosphore dans ta tête Pourquoi pas faire partie des assassins analphabètes ? Test à faire afin d'porter une arme Si t'es con comme un âne, ils t'offrent un revolver Dans la police nationale, au taux suicidaire Envié par le temple solaire, saoulard et médiocre en milieu scolaire Ils ont raté leur vie pour mieux n'pas rater mes frères Qu'ils enferment, après un procès théatral, au tribunal de correction Objection votre horreur, que l'pro-récurreur se taise J'suis l'avocat à mayonnaise, crevette d'Afrique Traiter un flic de con n'est pas un outrage mais... un diagnostique Tous des frustrés dans leur slip de pas connaître de meufs mignonnes Jusqu'à violer leurs collègues à l'aide de la drogue du viol C'est c'qu'on nomme du poulet aux hormones Fiers de porter l'uniforme qui les venge de pas vraiment être des hommes Hé frère, la police enrole... Maintenant, tu sais quoi faire si tu travailles mal à l'école Hé frère, la police recrute... Et la sélection débute, analphabète et préférence des fils de chuut Hé frère la police enrole... Maintenant, tu sais quoi faire si tu travailles mal à l'école Hé frère, la police recrute... Et la sélection débute, analphabète et préférence des fils de chuut</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>La nuit des dorts vivants</t>
+          <t>La route est longue</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Couplet 1 Euphonik Noir Soleil pleure, il pleut sous mon anorak Quand j'pense avec le coeur, ça m'rend un peu paranoïaque Chérie, j'suis qu'un roi démon, pas le p'tit Prince d'Exupéry La nuit je dessine des gloutons qui me mangeront si mon âme dépérit Demain c'est loin, j'suis dans la nuit avec ma horde Pour me perdre en chemin, j'ai pas besoin d'une escort girl A quoi tu penses ? J'suis l'genre de loup qui avance seul J'fais ms projets en silenc quand ils ouvrent bien trop leur gueule Mon armature dans un bain d'sang tant ce rap est un fusil d'assaut Nos textes ont plus de sens que les peintures de Picasso Nos émotions sont des toiles que seuls les mots pourraient peindre Nos émotions sont des toiles que même le ciel ne peut éteindre La nuit j'ai des idées lâches, remplis des pages qui m'assombrissent J'me dis qu'vaut mieux errer en marche que d'être en cage comme un zombie J'ai cette voix, dans ma tête, j'ai quelque chanson d'amour J'suis qu'un vampire en fait, j'disparais quand vient le jour Refrain Dooz Kawa Davodka Plus jamais rien ne me réveille, car j'suis un dort-vivant La nuit ma copine prend le pouls, si j'suis encore vivant Je vois dans toute la ville des dort-vivants Achète un fusil pour la nuit des dort-vivants X2 Couplet 2 Davodka Mes voisins ne pensent qu'à m'espionner Ma tête les pousse à s'questionner Ai-je l'apparence d'une coquille vide parce que mon cerveau ne cesse pas d'raisonner ? J'ai l'impression d'émerger de sous terre, j'aperçois la surface quand mon gosse sourit Pour trouver le sommeil faut que je mette le crâne à l'envers tout comme une chauve-souris Plus possible, il faut que je détourne mon regard de tous mes détracteurs Chaque souci aspire un peu plus mon âme tel des Détraqueurs J'ai l'air d'un mec trop bon Socialement un peu fermé Qui avance dans le noir les yeux cernés Pris en otage par un réveil profond Oiseau de nuit, qui tombe de haut Mais qui veut amortir le coup Mais mon mal-être c'est que même mon histoire est à dormir debout Ancien morveux, qui a bien morflé Coincé dans un corps vide, là où certains morts vivent On cherche les bras d'Morphée Avec un brin d'Morphine Refrain Dooz Kawa Davodka Plus jamais rien ne me réveille, car j'suis un dort-vivant La nuit ma copine prend le pouls, si j'suis encore vivant Je vois dans toute la ville des dort-vivants Achète un fusil pour la nuit des dort-vivants X2 Couplet 3 Swift Guad J'me vois changer comme Dorian Gray J'écris pendant qu'le corps maigrit Des fois j'suis bouillant comme la braise Qui rougit sous un beau ciel gris J'suis tellement insomniaque que j'pourrais travailler dans l'hôtellerie J'fais des incantations nocturnes qui ressemblent à de la sorcellerie J'me sirote un Bloody Mary car ici bas l'Homme est mourant J'me perds dans mes maudites rêveries, j'me réveille au soleil couchant En vrai j'crois qu'on est tous à bout habillés de guenilles crasseuses Et j'me transforme en loup-garou pour compter les brebis galeuses On nous dit souvent qu'l'heure est grave J'ai des douleurs sous forme aigüe Le quotidien est trop décevant Vaut mieux avoir une mauvaise vue C'est comme la nuit des morts-vivants donc c'est pour ça qu'je n'dors même plus Parce que j'veux changer l'ordinaire, il faut qu'j'y plonge à corps perdu On sait pas comment s'en tirer, on aime voir les gens s'diviser Situation va empirer parce qu'on nous a vampirisé On aime électriser la foule, la nuit on est des vers luisants Quand on m'prend par les sentiments j'connais que des échecs cuisants C'est la confrérie des ombres x2 Refrain Dooz Kawa Davodka Plus jamais rien ne me réveille, car j'suis un dort-vivant La nuit ma copine prend le pouls, si j'suis encore vivant Je vois dans toute la ville des dort-vivants Achète un fusil pour la nuit des dort-vivants Plus jamais rien ne me réveille... Couplet 4 Dooz Kawa Pour moi la partie commence à peine après l'échec et mat Quand sont détruites nos dernières chances, et qu'on m'a dit que c'était oit Qui as voulu ma vie détruite et que j'pourrais pas m'en sortir J'suis au bout de la ligne de fuite avec DVK, Eupho, Swift Dans les jugements que l'on reçoit ça nous déçoit Sans l'prononcer, il faut être fier de soi des fois car faire des choix c'est renoncer Parfois je crois dormir ma vie et j'avance sans que mes pieds bougent J'suis habillé comme un zombie, le voisin m'tirerait une cartouche Sans jamais s'alarmer des signes, il sait juste que j'fais du pe-ra Mais pas que j'fais de la médecine, ou un master, un doctorat Lui il sait juste que j'suis tatoué, j'suis un mec louche des HLM J'suis tout l'temps fatigué, bah ouais, moi j'ai pas eu d'parents riches et j'saigne J'suis fatigué tous les matins, j'refuse de m'taper des tapins Alors les filles restent toute la nuit et j'bosse sur elles comme à temps plein Elles croient que sucer un rappeur ça représente comme un tremplin Demain j'la garde, mon porte-bonheur, et j'm'endors vaguement dans le train</t>
+          <t>Refrain Oh Lord I made it through I'm gonna lay down my load One more mile or two Can't escape from my fate no Long is the way La route est longue hein et encore faut trouver la bonne C'est pour ça que souvent au bout y'a plus personne La route est longue sur le chemin de l'album, étoile du sol Refrain Et..! La route est longue Vers Avalon la bonne c'est souvent celle qui slame Venez on avance en slalom Des pics de délinquances dansent Ça y'est j'ai enfin sorti l'album Et je remercie personne à la fois Et aussi... C'est tout j'crois Mais pour toi, j'fais la bise aux bitchs Qui s'abritent de mes douches froides Habitant de lAtlantide emporté aux limites de la vie par le courant des baïnes Qui nous arrachât en plus de l'espoir, le masque et le tuba Échoués sur une île, style Cuba, où les gars collés au bar jouent aux cartes Ici les Iron, Lion se déroule des cohibas Qu'ils mélangent à la zion sous le cadre d'Escobar Hey Tiro, on est ti-par! Marche ou crève comme la française de Kill Bill Ici le soleil te liquide quand t'as les piles vides Faut se nourrir d'espoir qui remplit le bide La motiv' du coyote pour choper le bip bip Parce que la route est longue et parsemée de ronces J'ai, au bord, laissé se reposer des amis, que je revois la nuit Comme un reflet rapide qui s'efface De la buée de la glace, de la salle de bain J'serai seul demain Toujours à suivre le chemin de mes prod' Voyageant dans leurs ipods Le visage sous le châle Nomade dans le hip hop Afin de quitter la faune, dans le désert on fonce Pour pas devenir ces fauves qui rodent Sur les pistes de cirque Je carotte une jeep chez six ...? Tu veux savoir pourquoi le départ on imagine En moi j'ai les rues de ces villes Autour d'un feu sur un baril Les capuches cachées Les traits de mélanine les drapent mais les drames aussi À tousser du toxique et tizzer des toxines Tu sais vu d'ici dans le ciel Se dessinent les traits de fumée Des avions de grandes lignes</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>La police recrute</t>
+          <t>La vague</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Wesh la police Parait qu't'as une matraque Si j'fais l'profil psychologique de fond C'est un pénis de subtitution Parce que t'as une petite... Ecoute mon beat... Contrôle de faf', hé t'as vu ils bossent fort Si tu cherches du taf' et qu'ça phosphore dans ta tête Pourquoi pas faire partie des assassins analphabètes ? Test à faire afin d'porter une arme Si t'es con comme un âne, ils t'offrent un revolver Dans la police nationale, au taux suicidaire Envié par le temple solaire, saoulard et médiocre en milieu scolaire Ils ont raté leur vie pour mieux n'pas rater mes frères Qu'ils enferment, après un procès théatral, au tribunal de correction Objection votre horreur, que l'pro-récurreur se taise J'suis l'avocat à mayonnaise, crevette d'Afrique Traiter un flic de con n'est pas un outrage mais... un diagnostique Tous des frustrés dans leur slip de pas connaître de meufs mignonnes Jusqu'à violer leurs collègues à l'aide de la drogue du viol C'est c'qu'on nomme du poulet aux hormones Fiers de porter l'uniforme qui les venge de pas vraiment être des hommes Hé frère, la police enrole... Maintenant, tu sais quoi faire si tu travailles mal à l'école Hé frère, la police recrute... Et la sélection débute, analphabète et préférence des fils de chuut Hé frère la police enrole... Maintenant, tu sais quoi faire si tu travailles mal à l'école Hé frère, la police recrute... Et la sélection débute, analphabète et préférence des fils de chuut</t>
+          <t>Donc on avait parlé une fois des vagues. L'idée que, si t'apprends pas à nager, tu t'prends les vagues dans la gueule. quelques fois t'es emporté, quelques fois t'as la tête sous l'eau. Tu bois la tasse, tu vas t'noyer, vraiment en crever. Dire que l'instant ça suffit pas, parce que l'instant, c'est la vague dans la gueule. En revanche, composer avec la vague, apprendre à nager, ou à surfer. Ça, ça demande une durée J'attends qu'j'm'arrache en m'harnachant Sur l'dos d'une beauté monstrueuse J'attends la vague comme Kardashian Attend la première page de vogue Des flocons d'écume de silence, avalanche d'un mont enneigé Qui replonge dans le silence et rend ce monde plus léger J'attends d'arracher de la vague Un peu d'sa chaire au creux des mains Afin d'rafraîchir mon pelage brûlant, de taureau d'airain J'plonge un couteau entre les dents Dans la vague graver mes initiales Et affronter dans l'ouragan Tout mon traumatisme initial J'rap pour toutes les petites bottes Que le juge plonge dans la trempette On reconnait les bons pilotes que lorsqu'ils affrontent la tempête Et j'ignore encore si la vague s'ra renaissance ou bien suicide Quand elle me crachera sur la plage de par ses ténèbres liquides J'lève pas le pouce, mais le majeur En dédicace aux douanes volantes Car je suis devenu nageur Qu'au milieu de ses eaux violentes Ne viens pas si t'es trop âgé Pour affronter la médusa On pèche des enfants naufragés Sur les plages de Lampedusa De Mayotte ou de Djerba Du Pas-De-Calais ou de Turquie Chaque jour ma souffrance est sans fin Pour le petit Alan Kurdi Je veux vous fuir, vous ma douleur Vous les humains qui m'écorchez J'essaie d'retrouver des couleurs Au fond d'une machine à laver J'attends la vague J'attends la vague J'attends la vague J'attends la vague J'attends la vague Qu'elle m'emporte au large Loin à la dérive Loin à la dérive Au delà des marges Qu'elle me déporte sur un nuage de coton Loin des champs de cana, de Paname et du béton Je flotterai sous l'écume Dans ces rouleaux d'océan Ni ancre, ni enclume Je serai homme de plein vent Sous l'effet de la lune Ballotté par les marées Elle m'emmènera loin comme des fumées envolées Mais, fond d'un abysse, j'ai vu leur monde Ce qu'ils battissent sur nos décombres Cap d'un navire, nos vieux démons Mon coeur s'épuise et coule au fond Peuple sans nom, cimetière de l'ombre Un désert vide peuple et déco Mais je remonte, je me déploie Cherche la lumière, puis la reçoit Grise est la vie, rose est le rêve Briser la vitre, bosser le verbe Gifler l'abîme, oser le faire Risque la lutte, croiser le fer Chemin de vie, j'arpente Les nerfs à vif, à cran Quand c'est la merde, j'apprends Où est la vague, j'attends Profiter du présent, bien sûr Mais l'idée c'est quand même d'avoir une affirmation ou une volonté Une recherche de sens, pur Parce que si tu veux comprendre le sens de la série des accidents Et si tu veux être préparé, essayer de, ouais, de se composer avec les accidents Parce que la volonté ou le désire, la voilà la lutte Ça se trouve on compose avec les accidents Tu prends part? Sinon à chaque seconde tu prends dans la gueule tu comprends pas T'y arrives pas On est du continu dans tous ces trucs discontinus qui nous arrivent dans la gueule Et c'est ça l'identité, elle est pas donnée au départ l'identité</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>La route est longue</t>
+          <t>Le Bétail</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Refrain Oh Lord I made it through I'm gonna lay down my load One more mile or two Can't escape from my fate no Long is the way La route est longue hein et encore faut trouver la bonne C'est pour ça que souvent au bout y'a plus personne La route est longue sur le chemin de l'album, étoile du sol Refrain Et..! La route est longue Vers Avalon la bonne c'est souvent celle qui slame Venez on avance en slalom Des pics de délinquances dansent Ça y'est j'ai enfin sorti l'album Et je remercie personne à la fois Et aussi... C'est tout j'crois Mais pour toi, j'fais la bise aux bitchs Qui s'abritent de mes douches froides Habitant de lAtlantide emporté aux limites de la vie par le courant des baïnes Qui nous arrachât en plus de l'espoir, le masque et le tuba Échoués sur une île, style Cuba, où les gars collés au bar jouent aux cartes Ici les Iron, Lion se déroule des cohibas Qu'ils mélangent à la zion sous le cadre d'Escobar Hey Tiro, on est ti-par! Marche ou crève comme la française de Kill Bill Ici le soleil te liquide quand t'as les piles vides Faut se nourrir d'espoir qui remplit le bide La motiv' du coyote pour choper le bip bip Parce que la route est longue et parsemée de ronces J'ai, au bord, laissé se reposer des amis, que je revois la nuit Comme un reflet rapide qui s'efface De la buée de la glace, de la salle de bain J'serai seul demain Toujours à suivre le chemin de mes prod' Voyageant dans leurs ipods Le visage sous le châle Nomade dans le hip hop Afin de quitter la faune, dans le désert on fonce Pour pas devenir ces fauves qui rodent Sur les pistes de cirque Je carotte une jeep chez six ...? Tu veux savoir pourquoi le départ on imagine En moi j'ai les rues de ces villes Autour d'un feu sur un baril Les capuches cachées Les traits de mélanine les drapent mais les drames aussi À tousser du toxique et tizzer des toxines Tu sais vu d'ici dans le ciel Se dessinent les traits de fumée Des avions de grandes lignes</t>
+          <t>Leur pas bestial secoue les stalles Simule à la nature le crépuscule de l'estival Partout aux alentours s'étalent de sous les sabots du troupeau Toutes ces fleurs qui pleurent leurs pétales D'après la taille de leur appât ils imaginent être des géants Mais sont que des brouteurs de paille L'humain vestal peint par Vésale Renvoie le mouton de Panurge à l'académie nationale J'ai mon chandail, bonnet de racaille Et je reste assis toute la nuit à regarder passer le bétail Le cri des cailles, les gants de maille pourraient les prévenir du pire Mais ils n'observent pas les détails Avant l'entaille de la cisaille personne ne doute Poursuit la route qui les mène à leurs funérailles Suivant les rails jusqu'au portail de l'abattoir où l'on suppute Sur l'occiput s'abat le maillet La nuit baille par le vitrail Laissant deviner ce que devient celui derrière le soupirail Si je tressaille, c'est la grisaille, celle de Hanoi Comme un cow-boy moi je regarde passer le bétail Ils se mitraillent pour des médailles À résumer leur société, c'est l'abattoir ou la bataille La pub assaille de ces trouvailles, d'objets-gadgets à consommer Faut posséder l'attirail Jeter ces cailles et deux canailles serait un acte terroriste Ou pire anti-commercial C'est des cobayes que l'on empaille Pourtant il est bien reptilien leur cerveau qui perd les écailles Épouvantail dans les broussailles Depuis la ligne de la colline moi je regarde passer le bétail Ils bouchent les failles dans les murailles Car ils sont fiers de leurs oeillères qui leur cachent si bien les étoiles Ces tours d'émail comme à Dubaï Là où ils vont, végétation signifie désert du Sinaï L'air qu'ils inhalent les rend plus pâles Avec la poussière volcanique, le dioxyde et le méthane Depuis marmaille ça va au Drive Déposer l'arthérosclérose autour de l'artère vertébrale Comme un Jedi assis en tailleur Durant des heures, comme un prieur moi je regarde passer le bétail</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>La vague</t>
+          <t>Le monstre (entier)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Donc on avait parlé une fois des vagues. L'idée que, si t'apprends pas à nager, tu t'prends les vagues dans la gueule. quelques fois t'es emporté, quelques fois t'as la tête sous l'eau. Tu bois la tasse, tu vas t'noyer, vraiment en crever. Dire que l'instant ça suffit pas, parce que l'instant, c'est la vague dans la gueule. En revanche, composer avec la vague, apprendre à nager, ou à surfer. Ça, ça demande une durée J'attends qu'j'm'arrache en m'harnachant Sur l'dos d'une beauté monstrueuse J'attends la vague comme Kardashian Attend la première page de vogue Des flocons d'écume de silence, avalanche d'un mont enneigé Qui replonge dans le silence et rend ce monde plus léger J'attends d'arracher de la vague Un peu d'sa chaire au creux des mains Afin d'rafraîchir mon pelage brûlant, de taureau d'airain J'plonge un couteau entre les dents Dans la vague graver mes initiales Et affronter dans l'ouragan Tout mon traumatisme initial J'rap pour toutes les petites bottes Que le juge plonge dans la trempette On reconnait les bons pilotes que lorsqu'ils affrontent la tempête Et j'ignore encore si la vague s'ra renaissance ou bien suicide Quand elle me crachera sur la plage de par ses ténèbres liquides J'lève pas le pouce, mais le majeur En dédicace aux douanes volantes Car je suis devenu nageur Qu'au milieu de ses eaux violentes Ne viens pas si t'es trop âgé Pour affronter la médusa On pèche des enfants naufragés Sur les plages de Lampedusa De Mayotte ou de Djerba Du Pas-De-Calais ou de Turquie Chaque jour ma souffrance est sans fin Pour le petit Alan Kurdi Je veux vous fuir, vous ma douleur Vous les humains qui m'écorchez J'essaie d'retrouver des couleurs Au fond d'une machine à laver J'attends la vague J'attends la vague J'attends la vague J'attends la vague J'attends la vague Qu'elle m'emporte au large Loin à la dérive Loin à la dérive Au delà des marges Qu'elle me déporte sur un nuage de coton Loin des champs de cana, de Paname et du béton Je flotterai sous l'écume Dans ces rouleaux d'océan Ni ancre, ni enclume Je serai homme de plein vent Sous l'effet de la lune Ballotté par les marées Elle m'emmènera loin comme des fumées envolées Mais, fond d'un abysse, j'ai vu leur monde Ce qu'ils battissent sur nos décombres Cap d'un navire, nos vieux démons Mon coeur s'épuise et coule au fond Peuple sans nom, cimetière de l'ombre Un désert vide peuple et déco Mais je remonte, je me déploie Cherche la lumière, puis la reçoit Grise est la vie, rose est le rêve Briser la vitre, bosser le verbe Gifler l'abîme, oser le faire Risque la lutte, croiser le fer Chemin de vie, j'arpente Les nerfs à vif, à cran Quand c'est la merde, j'apprends Où est la vague, j'attends Profiter du présent, bien sûr Mais l'idée c'est quand même d'avoir une affirmation ou une volonté Une recherche de sens, pur Parce que si tu veux comprendre le sens de la série des accidents Et si tu veux être préparé, essayer de, ouais, de se composer avec les accidents Parce que la volonté ou le désire, la voilà la lutte Ça se trouve on compose avec les accidents Tu prends part? Sinon à chaque seconde tu prends dans la gueule tu comprends pas T'y arrives pas On est du continu dans tous ces trucs discontinus qui nous arrivent dans la gueule Et c'est ça l'identité, elle est pas donnée au départ l'identité</t>
+          <t>À-t-on avis j'ai vraiment l'air d'un monstre ? Qui de nous deux est le monstre ? J'suis cent pour cent jouet musical J'ai le doigté qui t'amuse au calme T'façon on est àl pour s'amuser Parait je ressens que de la musique Pour toi je suis déshumanisé J'suis l'Nord, t'es l'Sud de la Corée On sait tous les deux bien qu'ça cloche Approches, à moins que tu craignes dêtre dévorée Comme par une meute de chiens féroces Elle m'envoie des coeurs sur Whatsapp Les photos pourries d'sa chatte J'vois que mes relations intimes s'effacent comme une story Snapchat Elles veulent cocher rappeur sur la page du blog ??? dans les hôtels après les concerts Ta famille te conseille, prends garde a toi Car j'ai l'appétit de Gargantua Demi-racaille des tranchées J'suis le soldat que tu gardes en toi Entre deux batailles, deux tranchées Sale pute hardcore qui minaude Emmenez-moi en encore milles autres Mon Dieu, j'suis pas croyant mais j'fais des prières pour Milo Que la vénus aille s'faire enculer Pendant qu'j'matte sa silhouette couler J'suis un monstre sur son radeau Bah ouai j'sais bien qu'il y en aura d'autres Mon radeau s'éloigne comme avant Et j'aperçoit d'jà plus la terre Ça m'serre comme quand pleurait maman Pendant que papa se désaltère Mon frère qu'un bonhomme à mes yeux Au milieu de ce monde de luxe Si un jour j'retombe amoureux Tires-moi une balle dans la nuque C'est pour ça j'prends souvent mes proches dans les bras Tout ceux qui m'aiment à chaque instant sans l'afficher sur Insta Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je cherche plus les monstre sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je sais que les démons conspirent Désirent que l'amour soit gâché Que la seule chose qui les attire C'est les ruines d'une âme saccagée J'efface les traces de mes parents Et j'essaie d'être bien dans mon kiff Mais je sais que j'saigne transparent Et qu'les chiens des démons me suivent Tout les espoirs sont vains D'être sauvé par l'extérieur Reposer ma tête sur son sein Pour écouter battre son coeur Car le peu qu'Dieu m'autorisa C'est ce qui dérange les normaux Et ma main s'autolisera Si j'effleure les anges de Duino Tu sais j'crois bien que j'suis la nuit Et que t'existes que dans mes songes Baby j'espère qu'tu vas bien dormir Bien enveloppée dans du mensonge Il ne faut jamais être sincère Ni dire vraiment ce qu'on ressent Pourtant quand en elle je m'insère J'suis à l'écoute de tout ses sens J'ai pas d'notion de bien, de mal J'aime toutes les filles que je séduis Celui qui est dans l'miroir d'leurs âmes Et j'aime me voir quand je suis lui T'es le reflet de ma fontaine Qui soigne ma blessure de Narcisse Faut qu'tu m'aimes pour que je m'aime Qu'tu t'appelles Maude ou Anaïs J'suis l'désespoir de Cornélia Comme si j'suis tout seul une tournante Et si l'amour est mort déjà Alors offres-moi tes tourments J'aimerai qu'tu brûles de la passion ??? emporté par les flammes J'récolte ses larmes sur mon pinceau Pour peindre le portrait de son âme Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je cherche plus les monstre sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi x2 Dooz Kawa1</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Le Bétail</t>
+          <t>Le pire est avenir</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Leur pas bestial secoue les stalles Simule à la nature le crépuscule de l'estival Partout aux alentours s'étalent de sous les sabots du troupeau Toutes ces fleurs qui pleurent leurs pétales D'après la taille de leur appât ils imaginent être des géants Mais sont que des brouteurs de paille L'humain vestal peint par Vésale Renvoie le mouton de Panurge à l'académie nationale J'ai mon chandail, bonnet de racaille Et je reste assis toute la nuit à regarder passer le bétail Le cri des cailles, les gants de maille pourraient les prévenir du pire Mais ils n'observent pas les détails Avant l'entaille de la cisaille personne ne doute Poursuit la route qui les mène à leurs funérailles Suivant les rails jusqu'au portail de l'abattoir où l'on suppute Sur l'occiput s'abat le maillet La nuit baille par le vitrail Laissant deviner ce que devient celui derrière le soupirail Si je tressaille, c'est la grisaille, celle de Hanoi Comme un cow-boy moi je regarde passer le bétail Ils se mitraillent pour des médailles À résumer leur société, c'est l'abattoir ou la bataille La pub assaille de ces trouvailles, d'objets-gadgets à consommer Faut posséder l'attirail Jeter ces cailles et deux canailles serait un acte terroriste Ou pire anti-commercial C'est des cobayes que l'on empaille Pourtant il est bien reptilien leur cerveau qui perd les écailles Épouvantail dans les broussailles Depuis la ligne de la colline moi je regarde passer le bétail Ils bouchent les failles dans les murailles Car ils sont fiers de leurs oeillères qui leur cachent si bien les étoiles Ces tours d'émail comme à Dubaï Là où ils vont, végétation signifie désert du Sinaï L'air qu'ils inhalent les rend plus pâles Avec la poussière volcanique, le dioxyde et le méthane Depuis marmaille ça va au Drive Déposer l'arthérosclérose autour de l'artère vertébrale Comme un Jedi assis en tailleur Durant des heures, comme un prieur moi je regarde passer le bétail</t>
+          <t>Tu m'entends là ? On essaie sur celle là ? Ça va être un bordel hein Yo Beggars Yo K.O, TKaï, Foreign, Beggars Triste clan, T-Kai cee 2005 représente Le pire est avenir autant que dans l'vol à l'arrache Au démarrage j'ai vu les mecs se marrer cash Et dire putain c'est nul Mais quand ils mirent le casque sur leur cage à miel Se jetèrent eux mêmes en cellule Mon pe-ra sort des marécages comme l'envol d'une libellule Avec des lyrics plus rares que l'emploi du verbe surseoir Mon frère si t'affabule ferme ta gueule et va tasseoir J'rappe pour les funambules sur le fil du rasoir Tous prêts à tomber, noctambules comme les rondiers Afin de délivrer la puissance que vous attendiez Tant d'yeux à m'attiser que ma rage est mécanique Pousse mes pookies à tiser un ? Narcozik les saloperies de la rue et puis les sales pires de la zup Ici pour rien on me butte butte Alors j'représente même pour les fils de putes C'est comme si j'rappais mes textes avec un gun derrière la nuque Enfoiré ! Le pire est avenir et puis l'avenir est dépassé Préviens moi quand t'arrives car mes chiens sont détachés Avec eux j'ai passé le jour de l'an avec une bouteille de vodka Tout seul dans l'appartement mais moi j'sors un album Et toi t'es encore en pampers avec ton crew de lèche-culs Dilatté au popers, tu peux bien m'faire les poches pendant l'concert Ca touche pas mes cordes vocales mes textes sont dans mon bocal Et le pire est avenir sur la planète locale Comme le non à l'assistance comme mon nom chez l'assistante sociale Mais même si les sociologues l'ignorent encore sur leurs graphiques J'ai la formule au micro comme le formole géographique Qui nous conserve dans l'ghetto qu'on nous cerne de policiers J'continuerai l'concerto atteint d'métromanie J'ai la maladie du rappeur et le cancer des mots Ma pochette tient peut être sur un pèse-lettre mais c'est loin d'être une démo Et si ma langue avait une valeur marchande j'paierai cher le poids des mots Ah excuse, c'est ton couplet ben tiens prends l'micro Mais j'vois qu't'as rien à dire frère et pourtant c'est qu'une intro Le pire est avenir Narcozik yo Et yo n'ais pas peur des rappeurs censurés si on cirait les pompes du CSA Ca ça s'saurait rien à cirer de ta musique, j'viendrai violer ta muse si Nos tracas t'amuse mais le pire est avenir nostradamus le prédisait De façon déguisée comme le rap télévisé, Nous, nous On vient détourner le son avec des micros aiguisés Quitte à paraitre peut être paria par apparaitre Mais notre seul lien avec l'Etat C'est les restes de l'Elysée et les CRS qui défoncent des Eglises Les refrés en maison d'arrêt ou de correction, foyer de réinsertion trop d'mandats d'arrêts Demande à Darwin les solutions de survie quand y'a plus d'évolution dans ma ville L'urgence passe après la consommation au point que même les ambulances sont coincées dans les bouchons Yo, et le pire est avenir comme une tempête à l'horizon</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Le monstre (entier)</t>
+          <t>Le Prince noir</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>À-t-on avis j'ai vraiment l'air d'un monstre ? Qui de nous deux est le monstre ? J'suis cent pour cent jouet musical J'ai le doigté qui t'amuse au calme T'façon on est àl pour s'amuser Parait je ressens que de la musique Pour toi je suis déshumanisé J'suis l'Nord, t'es l'Sud de la Corée On sait tous les deux bien qu'ça cloche Approches, à moins que tu craignes dêtre dévorée Comme par une meute de chiens féroces Elle m'envoie des coeurs sur Whatsapp Les photos pourries d'sa chatte J'vois que mes relations intimes s'effacent comme une story Snapchat Elles veulent cocher rappeur sur la page du blog ??? dans les hôtels après les concerts Ta famille te conseille, prends garde a toi Car j'ai l'appétit de Gargantua Demi-racaille des tranchées J'suis le soldat que tu gardes en toi Entre deux batailles, deux tranchées Sale pute hardcore qui minaude Emmenez-moi en encore milles autres Mon Dieu, j'suis pas croyant mais j'fais des prières pour Milo Que la vénus aille s'faire enculer Pendant qu'j'matte sa silhouette couler J'suis un monstre sur son radeau Bah ouai j'sais bien qu'il y en aura d'autres Mon radeau s'éloigne comme avant Et j'aperçoit d'jà plus la terre Ça m'serre comme quand pleurait maman Pendant que papa se désaltère Mon frère qu'un bonhomme à mes yeux Au milieu de ce monde de luxe Si un jour j'retombe amoureux Tires-moi une balle dans la nuque C'est pour ça j'prends souvent mes proches dans les bras Tout ceux qui m'aiment à chaque instant sans l'afficher sur Insta Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je cherche plus les monstre sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je sais que les démons conspirent Désirent que l'amour soit gâché Que la seule chose qui les attire C'est les ruines d'une âme saccagée J'efface les traces de mes parents Et j'essaie d'être bien dans mon kiff Mais je sais que j'saigne transparent Et qu'les chiens des démons me suivent Tout les espoirs sont vains D'être sauvé par l'extérieur Reposer ma tête sur son sein Pour écouter battre son coeur Car le peu qu'Dieu m'autorisa C'est ce qui dérange les normaux Et ma main s'autolisera Si j'effleure les anges de Duino Tu sais j'crois bien que j'suis la nuit Et que t'existes que dans mes songes Baby j'espère qu'tu vas bien dormir Bien enveloppée dans du mensonge Il ne faut jamais être sincère Ni dire vraiment ce qu'on ressent Pourtant quand en elle je m'insère J'suis à l'écoute de tout ses sens J'ai pas d'notion de bien, de mal J'aime toutes les filles que je séduis Celui qui est dans l'miroir d'leurs âmes Et j'aime me voir quand je suis lui T'es le reflet de ma fontaine Qui soigne ma blessure de Narcisse Faut qu'tu m'aimes pour que je m'aime Qu'tu t'appelles Maude ou Anaïs J'suis l'désespoir de Cornélia Comme si j'suis tout seul une tournante Et si l'amour est mort déjà Alors offres-moi tes tourments J'aimerai qu'tu brûles de la passion ??? emporté par les flammes J'récolte ses larmes sur mon pinceau Pour peindre le portrait de son âme Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je cherche plus les monstre sous mon lit depuis qu'je sais qu'ils sont en moi J'ai arrêté d'faire des efforts j'suis que le monstre qu'ils sentent en moi Je cherche plus les monstres sous mon lit depuis qu'je sais qu'ils sont en moi x2 Dooz Kawa1</t>
+          <t>T'aurais pas oublié ton prince Qu'étincelle et grand boum Résident comme le devil à Rangoon A l'achtung qui fait tchack-pa A chaque pas, regard tout froid sous la chapka Et qui foudroie l'oiseau qui passe brr Souvent souviens, de la toundra Souverain d'un univers de glace Putain de garce, de sort T'aurais pas oublié ton prince En passant trop près des Açores? Là d'où ça sors Les trompettes du hardcore Interprètent mes accords C'est comme une serpette sous la gorge Ou un serre-tête qui sert de torche Qaund j'ai la force d'mes métaphores T'aurais pas oublié celui Pour qui la nuit brille déjà fort T'as pleins de marques au corps Encore atteint du Maldoror En matador qu'on marque à tort Seigneur de guerre comme Dark Vador Sur le terre-plein, où les hauts pins S'enfonce en forêt sans fin T'aurais pas oublié ton prince Rencontré lors d'un ancien Voyage dans les abîmes Quand tu détachais tes habits Chuchotait que l'amour ça tabîme? Alors ensemble on l'enterre à Nîmes La flamme qu'il y a jamais eu en moi, le 'haïm T'aurais pas oublié ton prince Dans le disque dur d'un terra? Où semblent résonner leurs corps D'fantômes dans l'opéra Scène de pera De la rue morgue crime Sur l'pas d'la porte Kim Fais pas la morte et réveille toi dans un sursaut Voir ces nuages qui sortent l'soir Comme des paras qui vont au saut Wouaw... Et leurs toiles qui sont ouvertes Pour que les étoiles soient recouvertes au chaud T'aurais pas oublié ton prince atcho Celui qui vit dans une ville déserte Et puis qui est épié par l'ennui Qui sans jamais bouger les pieds Traverse les couloirs de la nuit Et dans la pluie et le royaume Et puis et puis.. Et puis le King qui picole Du tonneau de l'eau du mort-au-king Comme le Comme le Le roi sans couronne assis en travers du trône Et dans les ombres se confondent Au fond de, la salle la plus profonde Du manoir le plus sombre Où les hyènes rôdent Celui qui sombre dans l'alcool de reine claude Des émeraudes, au bout des chaînes J'ai des vautours dans les yeux Un gang de lion dans les veines Et quelques tâches de toi sur mon ganglion sentinelle J'suis l'prince noir viens m'voir En traversant l'grand tunnel Aux traces de doigt qui crissent rrrrr ? Où la peau des murs cicatrisent T'aurais pas oublié ton prince Celui qu'a des loups qui salivent Lorsqu'il y a des fous qui arrivent Où atterrissent les papillons Qui redeviendront chrysalide ..? T'aurais pas oublié ton prince Solitaire comme un lynx Dans le zoo de Port-Saïd Et qui s'souviens de sa capture dans les fourrées On se demande ce qu'est devenu Sa portée de lynxounet Réchauffement planétaire Prisonnier par les terres Puisque les neiges deviennent arides Et lAntarctique napparaît guère T'aurais pas oublié ton prince Qui ce matin part à la guerre Embrasse le une dernière fois Et dis-lui comment t'es fière T'aurais vraiment pas oublié Tout en étant enfin heureuse Que de l'autre coté de l'étang Se dresse le prince de la nébuleuse Et dans la brume Là où la lune, joue le soleil Celui qui même quand on le voit Reste trouble à tous vos regards Celui qui vient troubler vos sommeils, par des cauchemars Depuis mille ans Qui tout les jours surveille un horizon brisé Pour ton retour sur les remparts en bas des tours T'aurais pas oublié ce prince, qui ne mérite pas d'amour..</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Le pire est avenir</t>
+          <t>Les fleurs poussent en décembre</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Tu m'entends là ? On essaie sur celle là ? Ça va être un bordel hein Yo Beggars Yo K.O, TKaï, Foreign, Beggars Triste clan, T-Kai cee 2005 représente Le pire est avenir autant que dans l'vol à l'arrache Au démarrage j'ai vu les mecs se marrer cash Et dire putain c'est nul Mais quand ils mirent le casque sur leur cage à miel Se jetèrent eux mêmes en cellule Mon pe-ra sort des marécages comme l'envol d'une libellule Avec des lyrics plus rares que l'emploi du verbe surseoir Mon frère si t'affabule ferme ta gueule et va tasseoir J'rappe pour les funambules sur le fil du rasoir Tous prêts à tomber, noctambules comme les rondiers Afin de délivrer la puissance que vous attendiez Tant d'yeux à m'attiser que ma rage est mécanique Pousse mes pookies à tiser un ? Narcozik les saloperies de la rue et puis les sales pires de la zup Ici pour rien on me butte butte Alors j'représente même pour les fils de putes C'est comme si j'rappais mes textes avec un gun derrière la nuque Enfoiré ! Le pire est avenir et puis l'avenir est dépassé Préviens moi quand t'arrives car mes chiens sont détachés Avec eux j'ai passé le jour de l'an avec une bouteille de vodka Tout seul dans l'appartement mais moi j'sors un album Et toi t'es encore en pampers avec ton crew de lèche-culs Dilatté au popers, tu peux bien m'faire les poches pendant l'concert Ca touche pas mes cordes vocales mes textes sont dans mon bocal Et le pire est avenir sur la planète locale Comme le non à l'assistance comme mon nom chez l'assistante sociale Mais même si les sociologues l'ignorent encore sur leurs graphiques J'ai la formule au micro comme le formole géographique Qui nous conserve dans l'ghetto qu'on nous cerne de policiers J'continuerai l'concerto atteint d'métromanie J'ai la maladie du rappeur et le cancer des mots Ma pochette tient peut être sur un pèse-lettre mais c'est loin d'être une démo Et si ma langue avait une valeur marchande j'paierai cher le poids des mots Ah excuse, c'est ton couplet ben tiens prends l'micro Mais j'vois qu't'as rien à dire frère et pourtant c'est qu'une intro Le pire est avenir Narcozik yo Et yo n'ais pas peur des rappeurs censurés si on cirait les pompes du CSA Ca ça s'saurait rien à cirer de ta musique, j'viendrai violer ta muse si Nos tracas t'amuse mais le pire est avenir nostradamus le prédisait De façon déguisée comme le rap télévisé, Nous, nous On vient détourner le son avec des micros aiguisés Quitte à paraitre peut être paria par apparaitre Mais notre seul lien avec l'Etat C'est les restes de l'Elysée et les CRS qui défoncent des Eglises Les refrés en maison d'arrêt ou de correction, foyer de réinsertion trop d'mandats d'arrêts Demande à Darwin les solutions de survie quand y'a plus d'évolution dans ma ville L'urgence passe après la consommation au point que même les ambulances sont coincées dans les bouchons Yo, et le pire est avenir comme une tempête à l'horizon</t>
+          <t>Yeah Dooz kawa Sofiane Art Aknid Dooz kawa Il reste d'la weed ? Yo, Yo J'fume et j'bois A cause de ceux qui veulent qu'j'arrete Parfois j'crois qu'jporte la croix de Jésus de Nazareth Et un gramme de kétama vivisection de la garette Et mon frère passe le coca pour mélanger au rhum charrette Mon frère m'a dis t'es naze arrêtes t'as pas compris t'es malheurep t'es malheureux La montagne de soucis, eh ouais j'l'escalade à tort s'teuplait kawa reste ici J'le connait bien l'escalator qui conduit a lanesthésie Du centre ville aux HLM t'sais que d'ici c'est pas facile de voir le ciel J'suis pas parti d'la ville d'Paris, si tu peux encore voir mes ailes On est tous les anges d'un paradis artificiel J'roule le népallais en ficelle et découpe les hoffman en 4 Avec de l'air sec dans le zen on s'croit dans super mario kart Il m'reste 2 vies si on se crashe, ma chérie prends moi la main et guide moi si on s'écarte Mon cur est vide mon corps est froid petit liquide Endors ma douleur encore une fois Mon cur est vide mon corps est froid petit joint d'weed Endors ma douleur encore une fois Ici les fleurs poussent en décembre, elles poussent en décembre Planquées dans les grands ensembles sur un territoire en cendre Ici les fleurs poussent décembre, elles poussent en décembre Dans les armoires des chambres, les fleurs poussent de décembre Rez de chaussée des 12 étages, j'me sens un peu white trash Ma terrasse sur lautoroute et le bruit traverse le vitrage En fait c'est comme si on voulaient nous écarter on dirait qu'y'a comme un dôme qui est posé sur le quartier J'suis seul dans cet appart en périphérie d'Marseille J'regarde passer les rats dans la capitale culturelle Je cherche pas l'mélodrame pour mécarter de mes délits Et faut pas déconner 100 grammes c'est pas l'cartel de Medellín Sortez la tête de la terre Les filles je cultive, pour mes artères, des fruits C'est plus les flics qui font flipper, mais les kalash En bas les types sont excités alors que chez moi c'est relâche Rendormez vous mes petites papa dors sur l'rocking chair en vous lisant un livre, qui reste sur ses genoux, ouvert Et puis son arrosoir casto, son terreau minéralisé Et son fusil d'assaut, à deux coups superposés Mon cur est vide mon corps est froid petit liquide Endors ma douleur encore une fois Mon cur est vide mon corps est froid petit joint d'weed Endors ma douleur encore une fois Ici les fleurs poussent en décembre, elles poussent en décembre Planquées dans les grands ensembles sur un territoire en cendre Ici les fleurs poussent décembre, elles poussent en décembre Dans les armoires des chambres, les fleurs poussent de décembre J'suis amer comme la plupart couz' Qui parleraient d'amour en partouze Bourgstra mon internat Mais j'crois que c'est la même partout J'ai tout fais pour m'casser d'al Même prendre des produits classés drogue J'traverse la France du Hip-Hop Parfois j'pense a la cathédrale C'est vrai que j'l'aimais bien Mais j'étais sur sa liste noire On est foncdés a 6 du mat' Alors vas-y Aziz démarre On fait des go fast En direction d'Maastricht J'aurais su faire un podcast Pour expliquer ou s'cachent les flics Ici, les fleurs poussent en décembre Les nains de jardin sont des ombres Qui sortent de l'antre, de mon imagination Et lorsque le soleil rentre dans son écrin d'hélium Lélectricité prends l'relais avec des lampes à sodium Société de con lestés qui me jalouse dêtre trop haut On m'dis qu'j'suis déconnecté mais c'est vous qui lêtes de trop Mon karma sombrait dans la nuit quand j'avais trop la mauvaise vibe J'crois c'qui m'a sauvé la vie c'est de lire Claude Olievenstein</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Le Prince noir</t>
+          <t>Le temps des assassins / contes cruels 2017</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>T'aurais pas oublié ton prince Qu'étincelle et grand boum Résident comme le devil à Rangoon A l'achtung qui fait tchack-pa A chaque pas, regard tout froid sous la chapka Et qui foudroie l'oiseau qui passe brr Souvent souviens, de la toundra Souverain d'un univers de glace Putain de garce, de sort T'aurais pas oublié ton prince En passant trop près des Açores? Là d'où ça sors Les trompettes du hardcore Interprètent mes accords C'est comme une serpette sous la gorge Ou un serre-tête qui sert de torche Qaund j'ai la force d'mes métaphores T'aurais pas oublié celui Pour qui la nuit brille déjà fort T'as pleins de marques au corps Encore atteint du Maldoror En matador qu'on marque à tort Seigneur de guerre comme Dark Vador Sur le terre-plein, où les hauts pins S'enfonce en forêt sans fin T'aurais pas oublié ton prince Rencontré lors d'un ancien Voyage dans les abîmes Quand tu détachais tes habits Chuchotait que l'amour ça tabîme? Alors ensemble on l'enterre à Nîmes La flamme qu'il y a jamais eu en moi, le 'haïm T'aurais pas oublié ton prince Dans le disque dur d'un terra? Où semblent résonner leurs corps D'fantômes dans l'opéra Scène de pera De la rue morgue crime Sur l'pas d'la porte Kim Fais pas la morte et réveille toi dans un sursaut Voir ces nuages qui sortent l'soir Comme des paras qui vont au saut Wouaw... Et leurs toiles qui sont ouvertes Pour que les étoiles soient recouvertes au chaud T'aurais pas oublié ton prince atcho Celui qui vit dans une ville déserte Et puis qui est épié par l'ennui Qui sans jamais bouger les pieds Traverse les couloirs de la nuit Et dans la pluie et le royaume Et puis et puis.. Et puis le King qui picole Du tonneau de l'eau du mort-au-king Comme le Comme le Le roi sans couronne assis en travers du trône Et dans les ombres se confondent Au fond de, la salle la plus profonde Du manoir le plus sombre Où les hyènes rôdent Celui qui sombre dans l'alcool de reine claude Des émeraudes, au bout des chaînes J'ai des vautours dans les yeux Un gang de lion dans les veines Et quelques tâches de toi sur mon ganglion sentinelle J'suis l'prince noir viens m'voir En traversant l'grand tunnel Aux traces de doigt qui crissent rrrrr ? Où la peau des murs cicatrisent T'aurais pas oublié ton prince Celui qu'a des loups qui salivent Lorsqu'il y a des fous qui arrivent Où atterrissent les papillons Qui redeviendront chrysalide ..? T'aurais pas oublié ton prince Solitaire comme un lynx Dans le zoo de Port-Saïd Et qui s'souviens de sa capture dans les fourrées On se demande ce qu'est devenu Sa portée de lynxounet Réchauffement planétaire Prisonnier par les terres Puisque les neiges deviennent arides Et lAntarctique napparaît guère T'aurais pas oublié ton prince Qui ce matin part à la guerre Embrasse le une dernière fois Et dis-lui comment t'es fière T'aurais vraiment pas oublié Tout en étant enfin heureuse Que de l'autre coté de l'étang Se dresse le prince de la nébuleuse Et dans la brume Là où la lune, joue le soleil Celui qui même quand on le voit Reste trouble à tous vos regards Celui qui vient troubler vos sommeils, par des cauchemars Depuis mille ans Qui tout les jours surveille un horizon brisé Pour ton retour sur les remparts en bas des tours T'aurais pas oublié ce prince, qui ne mérite pas d'amour..</t>
+          <t>CECI EST UNE ÉBAUCHE À COMPLÉTER ! Intro Merci de laisser un message après le bip sonore Ouais Nano, tu sais j'me disais j'aimerais bien écrire un texte pour toutes les lettres que j'ai écrit et que j'avais aucun retour J'me disais que parfois l'amour ça semble être qu'un train qui part ou un avion qui décolle, un truc du style quoi... J'me dis ça pourrait donner un truc du style, hum comme ça À ta santé, toi l'arrache-coeur Fait pour en orpheliner À coup de baisers mitrailleurs Son lit est un champ de bataille Terrain de passions destructrices Où gît une p'luche à fracas facial Qui agonise des trucs tristes Ils approcheront les curieux Il sera trop tard quand t'insises Le tire bouchon à écoeurer Qui les caractomise Les Muses sont peut-être des déesses Attirées par des amours Mais comme les poètes elles disparaissent Et Verlaine tire sur Rimbaud Le socle qui se lézarde Écarte la flore intime Et fait battre le coeur de marbre Des statues florentines Ils sèchent les cours pour de la baise Détestent les mathématiques Mais leurs relations amoureuses Ne sont que des algorithmes Moi le bagnard de l'Amazone Sa mine est grise et pâle À cause de ceux qui rendent les hommes Plus schizophrènes qu'un bicéphale Je reviendrai de Sibérie Armé, bardé de médailles Mais mes baisers jadis arides Seront plus froids que du métal Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... Voici le temps des assassins À ta santé, toi le vampire Qu'a le baiser clairvoyant Mais qui rend les gens pires Et tu survoles le monde Comme une baigneuse des hautes sphères Ta beauté illumine du nombre Dédaigneux et austères Pour embrasser des nécrophiles De l'eau s'faire depuis descentes Tes baisers à la chlorophylle Possèdent un arrière goût de sang Le vampire est dément Faire l'amour n'est qu'un combat souple Alors moi la nuit je mens Comme Bashung Car chacun veut qu'on l'aime Et dans la conquête les mots filent Puis deux trous sous les oreilles Et l'hémorragie hémophile Parler à un tombeau d'usine Puis on attend que ce bruit cesse Car à part de la musique On fait tout d'travers dans la tristesse... Mon coeur pèse un piano Les souviens-tu-t'en ? À ton doigt léger comme un anneau Où dépérissent 120 titans Je reviendrai avec un couteau planté Dans ton faux air de gitane État capilo-tracté dans mes âmes vertiginales Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... À ta santé, toi la beauté du Diable Pour qui l'homme traverse l'Enfer Et qui rend triste comme du sable Si tout ça nous l'savons Que l'Styx mène vers les rapides On vole quand même les avirons D'Charon pour y aller de plus rapide Les armées des milices s'élèvent Brûlés par les braises diaphanes Tourmentent Mephisto fait laisse Quand ils soufflent sur les femmes Si l'amoureux se sent si seul Quand l'ange déchu dechoît C'est que dans l'tissu social On est fait que de soi... Les croisades de la galoche Sont une éternelle chevauchée Où les hippocampes sans accroches Se fracassent sur les rochers Dans la tempête de Scheol L'amoureux frappé d'aphonie Attriste l'entourage impuissant De le voir sombrer vers la folie Quand parfois, il faisait froid Juste s'asseoir devant elle Son regard est un feu de bois Qui réchauffait mes grandes ailes J'reviendrai pas ni toi d'ailleurs de cette cabane J'vais voir ta beauté intérieure Parce que chez moi y'a pas dâme Voici le temps des assassins Jouez les angélus Quand l'amour touche a sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous me croisez dans la rue... Priez pour son salut Chuut, c'est juste moi j'viens t'embrasser Dans ton dernier bain d'épines Et ça va laisser sur tes lèvres un gout de Benzodiazepine T'es un chef d'orchestre Russe qu'a suscité pas mal d'cris Ou bien t'es juste la roulette Russe qu'a suicidé Mayakovsky Viens on s'embrasse sous le linceul J'viens avec toi mon assassin Parce que tu sais l'éternité c'est long tout seul Surtout vers la fin...</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Les fleurs poussent en décembre</t>
+          <t>Le tourbillon</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Yeah Dooz kawa Sofiane Art Aknid Dooz kawa Il reste d'la weed ? Yo, Yo J'fume et j'bois A cause de ceux qui veulent qu'j'arrete Parfois j'crois qu'jporte la croix de Jésus de Nazareth Et un gramme de kétama vivisection de la garette Et mon frère passe le coca pour mélanger au rhum charrette Mon frère m'a dis t'es naze arrêtes t'as pas compris t'es malheurep t'es malheureux La montagne de soucis, eh ouais j'l'escalade à tort s'teuplait kawa reste ici J'le connait bien l'escalator qui conduit a lanesthésie Du centre ville aux HLM t'sais que d'ici c'est pas facile de voir le ciel J'suis pas parti d'la ville d'Paris, si tu peux encore voir mes ailes On est tous les anges d'un paradis artificiel J'roule le népallais en ficelle et découpe les hoffman en 4 Avec de l'air sec dans le zen on s'croit dans super mario kart Il m'reste 2 vies si on se crashe, ma chérie prends moi la main et guide moi si on s'écarte Mon cur est vide mon corps est froid petit liquide Endors ma douleur encore une fois Mon cur est vide mon corps est froid petit joint d'weed Endors ma douleur encore une fois Ici les fleurs poussent en décembre, elles poussent en décembre Planquées dans les grands ensembles sur un territoire en cendre Ici les fleurs poussent décembre, elles poussent en décembre Dans les armoires des chambres, les fleurs poussent de décembre Rez de chaussée des 12 étages, j'me sens un peu white trash Ma terrasse sur lautoroute et le bruit traverse le vitrage En fait c'est comme si on voulaient nous écarter on dirait qu'y'a comme un dôme qui est posé sur le quartier J'suis seul dans cet appart en périphérie d'Marseille J'regarde passer les rats dans la capitale culturelle Je cherche pas l'mélodrame pour mécarter de mes délits Et faut pas déconner 100 grammes c'est pas l'cartel de Medellín Sortez la tête de la terre Les filles je cultive, pour mes artères, des fruits C'est plus les flics qui font flipper, mais les kalash En bas les types sont excités alors que chez moi c'est relâche Rendormez vous mes petites papa dors sur l'rocking chair en vous lisant un livre, qui reste sur ses genoux, ouvert Et puis son arrosoir casto, son terreau minéralisé Et son fusil d'assaut, à deux coups superposés Mon cur est vide mon corps est froid petit liquide Endors ma douleur encore une fois Mon cur est vide mon corps est froid petit joint d'weed Endors ma douleur encore une fois Ici les fleurs poussent en décembre, elles poussent en décembre Planquées dans les grands ensembles sur un territoire en cendre Ici les fleurs poussent décembre, elles poussent en décembre Dans les armoires des chambres, les fleurs poussent de décembre J'suis amer comme la plupart couz' Qui parleraient d'amour en partouze Bourgstra mon internat Mais j'crois que c'est la même partout J'ai tout fais pour m'casser d'al Même prendre des produits classés drogue J'traverse la France du Hip-Hop Parfois j'pense a la cathédrale C'est vrai que j'l'aimais bien Mais j'étais sur sa liste noire On est foncdés a 6 du mat' Alors vas-y Aziz démarre On fait des go fast En direction d'Maastricht J'aurais su faire un podcast Pour expliquer ou s'cachent les flics Ici, les fleurs poussent en décembre Les nains de jardin sont des ombres Qui sortent de l'antre, de mon imagination Et lorsque le soleil rentre dans son écrin d'hélium Lélectricité prends l'relais avec des lampes à sodium Société de con lestés qui me jalouse dêtre trop haut On m'dis qu'j'suis déconnecté mais c'est vous qui lêtes de trop Mon karma sombrait dans la nuit quand j'avais trop la mauvaise vibe J'crois c'qui m'a sauvé la vie c'est de lire Claude Olievenstein</t>
+          <t>- Le balancement du rocking-chair nous convie au plaisir d'la chair... - Et cette chanson ? - Ça commence à être au point - Oui, c'est vrai, hein, Albert ? On y va ? Ma vie, c'tait souvent l'ouragan qu'avait un prénom féminin Qui t'arrache, toi, de la maison, tu sais quel signe j'te fais d'la main J'ai pas dit femme fontaine, jamais, lorsque la peine guidait mes paroles On laisse tous une femme qu'on aimait pour une trentaine qu'on n'aimait pas Et puis nique sa mère, t'sais quoi, c'est quand même pas la faute de c'monde Si ta copine n'est qu'une tente Quechua qui se déplie en deux secondes Tu cours toujours après les chieuses, ça veut bien dire qu'elles courent aussi Puisque la poursuite amoureuse n'est qu'un marathon affectif J'ai pas peur que les féministes au concert m'égorgent pour mes paroles Parc'qu'déjà, pour v'nir, bah faudrait qu'elles apprennent à garer les bagnoles J'suis pas vicieux, c'est le hip-hop qu'a fait un autre moi de moi J'sers qu'à faire glisser les culottes car j'cherche à m'humecter les doigts Ça pourrait trop briser tes rêves à trop t'approcher des vauriens Mais si tu sais que t'as tes règles, bah nage pas avec les requins Soi-disant ton amant t'aime, j'regarde saigner ton âme en peine En tous cas, moi, j'sais qu'j'écoute plus les fables des femmes fontaines Des fois, j'me dis qu'le temps nous est compté C'est dans ce tourbillon que j'vais tomber Mais si le feu qui m'éclaire est celui qui me brûle J'avance tout seul en enfer pendant qu'l'horizon recule Ces moments partagés, qu'est-c'que c'était bon Je crois qu'le soleil a perdu ses rayons La vie, c'est un manège qui nous mène tous au naufrage Mon ange dans mon ménage, y'a de la neige et d'l'orage Jessaie décrire entre les lignes, un cur entre elle et lui Sachant quà trop les lire, on connaîtra lennui, quà nos montres Il est lheure, oui, je crains dêtre allé loin, jai rencontré la nuit Pour te montrer la lune et mes lettres lallument La rue ma dit Naie pas le seum, quon se déteste ou que lon saime Car on ne récolte jamais que les sentiments que lon sème Mais lamour tue, mec, on le sait, mon amertume est colossale Les te quiero, mi corazón et le poids des regrets me collent au sol Le thème est un je taime éteint, y'a longtemps Qui revient comme un vieux refrain, je lentends Le temps passé te manque et si tu mens Tu diras quavant cétait mieux, je sais, tas mal et cest humain Mais bien des gars des cités mentent, où sont tes meufs ? Reprends tes centimes et tes centimètres, essuie tes mains La rue men soit témoin si taimes, ici, tes mort as-tu le sentiment Quon sest aimé ? Nos vies, cest pas du septième art Des fois, j'me dis qu'le temps nous est compté C'est dans ce tourbillon que j'vais tomber Mais si le feu qui m'éclaire est celui qui me brûle J'avance tout seul en enfer pendant qu'l'horizon recule Ces moments partagés, qu'est-c'que c'était bon Je crois qu'le soleil a perdu ses rayons La vie, c'est un manège qui nous mène tous au naufrage Mon ange dans mon ménage, y'a de la neige et d'l'orage J'croyais qu'c'était la fin, c'était juste l'épitaphe Emporté par la foule comme dans une chanson d'Edith Piaf Aujourd'hui je pars, demain j'reviens si tu l'veux L'amour quelque part est un chemin sinueux T'as vu qu'mon cur était fermé alors t'as forcé la porte Elle m'en a fait baver salement, elle m'a fait morfler, la conne Après avoir touché le fond, j'reprends du poids, j'ai la forme J'ai arrêté d'jouer le con, la prochaine fois, c'est la bonne J'suis emporté par mes souvenirs, c'est ça dès qu'j'pense à elle Elle était pure alors j'l'ai dans la peau, j'l'ai dans la veine Qu'on finirait par s'éviter, mais qu'est-c'que j'en savais ? On s'fait du mal, on s'fait pitié, j'me l'répète sans arrêt La rue m'a vu vaciller, il faut qu't'écoutes ma peine La belle n'est plus maquillée, il faut qu'je coupe la scène J'ai b'soin d'un café chaud, j'attends qu'elle r'pousse la zeb J'mélange les phases, les mots, j'suis avec Dooz Kacem On s'est connu, on s'est reconnu On s'est perdu d'vue, on s'est r'perdu d'vue On s'est retrouvé, on s'est réchauffé Puis on s'est séparé Des fois, j'me dis qu'le temps nous est compté C'est dans ce tourbillon que j'vais tomber Mais si le feu qui m'éclaire est celui qui me brûle J'avance tout seul en enfer pendant qu'l'horizon recule Ces moments partagés, qu'est-c'que c'était bon Je crois qu'le soleil a perdu ses rayons La vie, c'est un manège qui nous mène tous au naufrage Mon ange dans mon ménage, y'a de la neige et d'l'orage</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Le temps des assassins / contes cruels 2017</t>
+          <t>L’oiseau mort</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CECI EST UNE ÉBAUCHE À COMPLÉTER ! Intro Merci de laisser un message après le bip sonore Ouais Nano, tu sais j'me disais j'aimerais bien écrire un texte pour toutes les lettres que j'ai écrit et que j'avais aucun retour J'me disais que parfois l'amour ça semble être qu'un train qui part ou un avion qui décolle, un truc du style quoi... J'me dis ça pourrait donner un truc du style, hum comme ça À ta santé, toi l'arrache-coeur Fait pour en orpheliner À coup de baisers mitrailleurs Son lit est un champ de bataille Terrain de passions destructrices Où gît une p'luche à fracas facial Qui agonise des trucs tristes Ils approcheront les curieux Il sera trop tard quand t'insises Le tire bouchon à écoeurer Qui les caractomise Les Muses sont peut-être des déesses Attirées par des amours Mais comme les poètes elles disparaissent Et Verlaine tire sur Rimbaud Le socle qui se lézarde Écarte la flore intime Et fait battre le coeur de marbre Des statues florentines Ils sèchent les cours pour de la baise Détestent les mathématiques Mais leurs relations amoureuses Ne sont que des algorithmes Moi le bagnard de l'Amazone Sa mine est grise et pâle À cause de ceux qui rendent les hommes Plus schizophrènes qu'un bicéphale Je reviendrai de Sibérie Armé, bardé de médailles Mais mes baisers jadis arides Seront plus froids que du métal Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... Voici le temps des assassins À ta santé, toi le vampire Qu'a le baiser clairvoyant Mais qui rend les gens pires Et tu survoles le monde Comme une baigneuse des hautes sphères Ta beauté illumine du nombre Dédaigneux et austères Pour embrasser des nécrophiles De l'eau s'faire depuis descentes Tes baisers à la chlorophylle Possèdent un arrière goût de sang Le vampire est dément Faire l'amour n'est qu'un combat souple Alors moi la nuit je mens Comme Bashung Car chacun veut qu'on l'aime Et dans la conquête les mots filent Puis deux trous sous les oreilles Et l'hémorragie hémophile Parler à un tombeau d'usine Puis on attend que ce bruit cesse Car à part de la musique On fait tout d'travers dans la tristesse... Mon coeur pèse un piano Les souviens-tu-t'en ? À ton doigt léger comme un anneau Où dépérissent 120 titans Je reviendrai avec un couteau planté Dans ton faux air de gitane État capilo-tracté dans mes âmes vertiginales Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... Voici le temps des assassins Jouez les Angelus Quand l'amour touche à sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous m'croisez dans la rue Priez pour mon salut... À ta santé, toi la beauté du Diable Pour qui l'homme traverse l'Enfer Et qui rend triste comme du sable Si tout ça nous l'savons Que l'Styx mène vers les rapides On vole quand même les avirons D'Charon pour y aller de plus rapide Les armées des milices s'élèvent Brûlés par les braises diaphanes Tourmentent Mephisto fait laisse Quand ils soufflent sur les femmes Si l'amoureux se sent si seul Quand l'ange déchu dechoît C'est que dans l'tissu social On est fait que de soi... Les croisades de la galoche Sont une éternelle chevauchée Où les hippocampes sans accroches Se fracassent sur les rochers Dans la tempête de Scheol L'amoureux frappé d'aphonie Attriste l'entourage impuissant De le voir sombrer vers la folie Quand parfois, il faisait froid Juste s'asseoir devant elle Son regard est un feu de bois Qui réchauffait mes grandes ailes J'reviendrai pas ni toi d'ailleurs de cette cabane J'vais voir ta beauté intérieure Parce que chez moi y'a pas dâme Voici le temps des assassins Jouez les angélus Quand l'amour touche a sa fin Vous riez les anges élus Voici le temps des assassins On aura bien combattu Et si vous me croisez dans la rue... Priez pour son salut Chuut, c'est juste moi j'viens t'embrasser Dans ton dernier bain d'épines Et ça va laisser sur tes lèvres un gout de Benzodiazepine T'es un chef d'orchestre Russe qu'a suscité pas mal d'cris Ou bien t'es juste la roulette Russe qu'a suicidé Mayakovsky Viens on s'embrasse sous le linceul J'viens avec toi mon assassin Parce que tu sais l'éternité c'est long tout seul Surtout vers la fin...</t>
+          <t>J'porte un oiseau mort en moi qui chantait comme des marines, marre Découvert à marée basse par les pêcheurs d'la marina mon radeau de naufragé Resté amarré au vice alors qu'elle elle reposait sur deux trois fleurs d'amaryllis Depuis que j'ai trahi vos lois en l'abattant comme une volaille, il plane au dessus de moi l'ombre d'un dragon Hokusai, mes yeux vomissent des gouttes car mon regard est saoulé L'avenir est flou puisque j'ouvre les yeux sous l'eau Il parait que je deviens austère à l'aurore et rose et pâle Que j'ai pris la grosse tête comme un bébé hydrocéphale L'histoire serait trop longue alors bon je vous l'annonce ainsi J'ai tué une colombe rue de l'Annonciation J'porte un oiseau mort en moi dans la brouette de mon vécu A qui j'ai coupé la tête pour qu'il ne me quitte jamais plus Mais c'est mes plumes arrachées quand j'nourris mon faucon j'suis le cormoran attaché Au gibet de mon faucon, un corbeau danse sur ma porte c'est mon corps que j'ai broyé Le cadavre que je transporte n'est pas celui que je croyais Tu sais, depuis tout p'tit poussin, qu'on me dise que je vaux rien J'ai fini par le croire, j'fais du rap pour les vauriens Je vise pas le bonheur seulement le niveau rien J'ai arrêté de réfléchir et puis après on verra bien Mais faut pas faire de peine aux fleurs car à peine on les effleure elles meurent et renaissent ailleurs Sur son piaillement de métronome c'est le rythme du métro nord J'ai tué une hirondelle parce que je l'aimais trop fort J'porte un oiseau mort en moi, parfois j'oublie, j'crois qu'il dort Mais il s'agit que du vent qui agite son duvet d'or Qui m'a rendu si heureux mais tellement destructeur Tellement drogué de ses yeux que mon moi se déstructure Bonjour le vide et le néant et des amis toujours aimant Je reviens enfin prendre ma place et plane au milieu des méandres Des averses, des orages, je retraverse les nuages et retourne en bas des tours, le berceau de la rage Les a-pocalypses d'Ezechiel dans mon coeur de nomade Pour protéger ses ailes j'étais chasseur de tornade De son nid perché sur les cimes elle m'a pas trop fait de place Le mépris des phrases assassines j'étais qu'un trophée de chasse Car à force d'ouvrir mon coeur j'avais peur qu'il n'revienne plus J'ai étranglé l'oiseau moqueur et balayé ses plumes</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Le tourbillon</t>
+          <t>Loup des steppes</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>- Le balancement du rocking-chair nous convie au plaisir d'la chair... - Et cette chanson ? - Ça commence à être au point - Oui, c'est vrai, hein, Albert ? On y va ? Ma vie, c'tait souvent l'ouragan qu'avait un prénom féminin Qui t'arrache, toi, de la maison, tu sais quel signe j'te fais d'la main J'ai pas dit femme fontaine, jamais, lorsque la peine guidait mes paroles On laisse tous une femme qu'on aimait pour une trentaine qu'on n'aimait pas Et puis nique sa mère, t'sais quoi, c'est quand même pas la faute de c'monde Si ta copine n'est qu'une tente Quechua qui se déplie en deux secondes Tu cours toujours après les chieuses, ça veut bien dire qu'elles courent aussi Puisque la poursuite amoureuse n'est qu'un marathon affectif J'ai pas peur que les féministes au concert m'égorgent pour mes paroles Parc'qu'déjà, pour v'nir, bah faudrait qu'elles apprennent à garer les bagnoles J'suis pas vicieux, c'est le hip-hop qu'a fait un autre moi de moi J'sers qu'à faire glisser les culottes car j'cherche à m'humecter les doigts Ça pourrait trop briser tes rêves à trop t'approcher des vauriens Mais si tu sais que t'as tes règles, bah nage pas avec les requins Soi-disant ton amant t'aime, j'regarde saigner ton âme en peine En tous cas, moi, j'sais qu'j'écoute plus les fables des femmes fontaines Des fois, j'me dis qu'le temps nous est compté C'est dans ce tourbillon que j'vais tomber Mais si le feu qui m'éclaire est celui qui me brûle J'avance tout seul en enfer pendant qu'l'horizon recule Ces moments partagés, qu'est-c'que c'était bon Je crois qu'le soleil a perdu ses rayons La vie, c'est un manège qui nous mène tous au naufrage Mon ange dans mon ménage, y'a de la neige et d'l'orage Jessaie décrire entre les lignes, un cur entre elle et lui Sachant quà trop les lire, on connaîtra lennui, quà nos montres Il est lheure, oui, je crains dêtre allé loin, jai rencontré la nuit Pour te montrer la lune et mes lettres lallument La rue ma dit Naie pas le seum, quon se déteste ou que lon saime Car on ne récolte jamais que les sentiments que lon sème Mais lamour tue, mec, on le sait, mon amertume est colossale Les te quiero, mi corazón et le poids des regrets me collent au sol Le thème est un je taime éteint, y'a longtemps Qui revient comme un vieux refrain, je lentends Le temps passé te manque et si tu mens Tu diras quavant cétait mieux, je sais, tas mal et cest humain Mais bien des gars des cités mentent, où sont tes meufs ? Reprends tes centimes et tes centimètres, essuie tes mains La rue men soit témoin si taimes, ici, tes mort as-tu le sentiment Quon sest aimé ? Nos vies, cest pas du septième art Des fois, j'me dis qu'le temps nous est compté C'est dans ce tourbillon que j'vais tomber Mais si le feu qui m'éclaire est celui qui me brûle J'avance tout seul en enfer pendant qu'l'horizon recule Ces moments partagés, qu'est-c'que c'était bon Je crois qu'le soleil a perdu ses rayons La vie, c'est un manège qui nous mène tous au naufrage Mon ange dans mon ménage, y'a de la neige et d'l'orage J'croyais qu'c'était la fin, c'était juste l'épitaphe Emporté par la foule comme dans une chanson d'Edith Piaf Aujourd'hui je pars, demain j'reviens si tu l'veux L'amour quelque part est un chemin sinueux T'as vu qu'mon cur était fermé alors t'as forcé la porte Elle m'en a fait baver salement, elle m'a fait morfler, la conne Après avoir touché le fond, j'reprends du poids, j'ai la forme J'ai arrêté d'jouer le con, la prochaine fois, c'est la bonne J'suis emporté par mes souvenirs, c'est ça dès qu'j'pense à elle Elle était pure alors j'l'ai dans la peau, j'l'ai dans la veine Qu'on finirait par s'éviter, mais qu'est-c'que j'en savais ? On s'fait du mal, on s'fait pitié, j'me l'répète sans arrêt La rue m'a vu vaciller, il faut qu't'écoutes ma peine La belle n'est plus maquillée, il faut qu'je coupe la scène J'ai b'soin d'un café chaud, j'attends qu'elle r'pousse la zeb J'mélange les phases, les mots, j'suis avec Dooz Kacem On s'est connu, on s'est reconnu On s'est perdu d'vue, on s'est r'perdu d'vue On s'est retrouvé, on s'est réchauffé Puis on s'est séparé Des fois, j'me dis qu'le temps nous est compté C'est dans ce tourbillon que j'vais tomber Mais si le feu qui m'éclaire est celui qui me brûle J'avance tout seul en enfer pendant qu'l'horizon recule Ces moments partagés, qu'est-c'que c'était bon Je crois qu'le soleil a perdu ses rayons La vie, c'est un manège qui nous mène tous au naufrage Mon ange dans mon ménage, y'a de la neige et d'l'orage</t>
+          <t>Bonjour t'a dit la nuit, t'es le dernier qui reste Pourquoi ce regard funeste ? Relève la tête et reparle à tes étoiles comme avant Il reviendra le beau temps J'te vois toujours seul sur c'banc Nuit après nuit, et les nuits se succédant Tu dois aimer ces baskets pour les regarder autant Allez, relève le tête, il reviendra le beau temps On a toujours une joie quelque part qui sommeille à célébrer Un genre de soleil finira bien par se lever Tu mangeras des baisers jusqu'à l'indigestion Retrouve ta direction, ferme les yeux, pars où souffle le vent Colère et haine ne mènent qu'à l'auto-destruction Éclaire les trucs sombres, c'est à toi d'décider Un genre de soleil finira bien par se lever Faudra qu'tu sois prêt Bonjour t'a dit la nuit, t'es le dernier qui reste Eh, pourquoi ce regard funeste ? Parfois moi aussi j'lui parle ainsi Rien de bon quand j'arrive, nan Rien de bon quand j'arrive dans le parc de la petite France J'tiens de bout mais en substance - Illicite et je crois ' j'suis lucide sur la balançoire Et le bateau pirate, j'lui parle sans copyright À la nuit pourquoi ?, lune est ma seule amie, j'crois Parce qu'on est les loups des steppes, que les élus nous détestent Parce qu'on hurle à la lune jusqu'au bout de l'hallali Parce qu'on est les loups des steppes, nous on est les loups des steppes Nous on est ... des steppes Le petit prince ne régna pas Je réponds à la nuit, dis-lui que tu meurs d'un désespoir incurable Que t'as perdu un truc, du fric ou un livre Tes clés de voiture ou bien l'envie de vivre J'veux plus faire de concert, j'ai une dispense J'suis atteint par le mal de la distance J'veux que faire du vélo avec Milo à la petite France Blessé dans l'action par la vie, par la mort et les séparations La misère affective pour un loup, combien de brebis seront égorgées ? Tu crois que ça mabîme tous ces moments où tu m'vois en bad ? Si tu peux voir l'abîme c'est qu'l'abîme voit aussi en oit Quand la vie me traite de sale con je dois rapper devant une sale comble Putain de contes cruels Parce qu'on est les loups des steppes, que les élus nous détestent Parce qu'on hurle à la lune jusqu'au bout de l'hallali Parce qu'on est les loups des steppes, nous on est les loups des steppes Nous on est ... des steppes Le petit prince ne régna pas Dans tes yeux j'vois des miroirs Rayé par la vie tu traverses un brouillard de mémoire dans la buée de tes larmes Y a toujours des anges pris au piège dans cette cage Quand tu pleures ça les arrange, ils s'évaporent dans les nuages Il y a du chagrin pour être honnête, des affaires et des cartons Ce qui glisse sur ta pommette Ces larmes que tu pleures, tes yeux qui me disent prends-moi le bras J'suis ton garde du cur Tu as les yeux d'ceux qui ont une âme qui vibre juste un peu plus fort que les autres Bonjour m'a dit la nuit, t'es le dernier qui reste Pourquoi ce regard funeste ? Parce qu'on est les loups des steppes, que les élus nous détestent Parce qu'on hurle à la lune jusqu'au bout de l'hallali Parce qu'on est les loups des steppes, nous on est les loups des steppes Nous on est ... des steppes Dooz Kawa, Milo Désolé d'pas avoir bossé l'intro Dédicace à mon petit louveteau Et chef des pompiers, héhé2</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>L’oiseau mort</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J'porte un oiseau mort en moi qui chantait comme des marines, marre Découvert à marée basse par les pêcheurs d'la marina mon radeau de naufragé Resté amarré au vice alors qu'elle elle reposait sur deux trois fleurs d'amaryllis Depuis que j'ai trahi vos lois en l'abattant comme une volaille, il plane au dessus de moi l'ombre d'un dragon Hokusai, mes yeux vomissent des gouttes car mon regard est saoulé L'avenir est flou puisque j'ouvre les yeux sous l'eau Il parait que je deviens austère à l'aurore et rose et pâle Que j'ai pris la grosse tête comme un bébé hydrocéphale L'histoire serait trop longue alors bon je vous l'annonce ainsi J'ai tué une colombe rue de l'Annonciation J'porte un oiseau mort en moi dans la brouette de mon vécu A qui j'ai coupé la tête pour qu'il ne me quitte jamais plus Mais c'est mes plumes arrachées quand j'nourris mon faucon j'suis le cormoran attaché Au gibet de mon faucon, un corbeau danse sur ma porte c'est mon corps que j'ai broyé Le cadavre que je transporte n'est pas celui que je croyais Tu sais, depuis tout p'tit poussin, qu'on me dise que je vaux rien J'ai fini par le croire, j'fais du rap pour les vauriens Je vise pas le bonheur seulement le niveau rien J'ai arrêté de réfléchir et puis après on verra bien Mais faut pas faire de peine aux fleurs car à peine on les effleure elles meurent et renaissent ailleurs Sur son piaillement de métronome c'est le rythme du métro nord J'ai tué une hirondelle parce que je l'aimais trop fort J'porte un oiseau mort en moi, parfois j'oublie, j'crois qu'il dort Mais il s'agit que du vent qui agite son duvet d'or Qui m'a rendu si heureux mais tellement destructeur Tellement drogué de ses yeux que mon moi se déstructure Bonjour le vide et le néant et des amis toujours aimant Je reviens enfin prendre ma place et plane au milieu des méandres Des averses, des orages, je retraverse les nuages et retourne en bas des tours, le berceau de la rage Les a-pocalypses d'Ezechiel dans mon coeur de nomade Pour protéger ses ailes j'étais chasseur de tornade De son nid perché sur les cimes elle m'a pas trop fait de place Le mépris des phrases assassines j'étais qu'un trophée de chasse Car à force d'ouvrir mon coeur j'avais peur qu'il n'revienne plus J'ai étranglé l'oiseau moqueur et balayé ses plumes</t>
+          <t>J'étais quoi ? Haut comme trois pommes Golden Un bad boy en marmelade saupoudré à la cannelle Quand Marianne m'annonça à la sortie d'la maternelle Tout est fini... J'lui ai répondu qu'elle s'rassure Car moi non plus j'raffole pas d'elle en plus tu sais, un buste, moi ça va cinq minutes Les filles, j'les préfère avec un corps et encore Même là souvent y a des problèmes Mais j't'aime encore... Moi j'embrasserai plus tes emblèmes Accroché à la queue d'une comète Les basses traversent la nuit comme une balle de 9 mm Même si l'école me délaisse, même s'il est balaise ce Thalès J'étais toujours plus attiré par les papillons à la fenêtre Sans nous la musique sera pareille Mais est-ce qu'on enlève aux Schtroumpfs la recette de la salsepareille ? J'cherche sans fin la phrase qui accroche Mon meilleur texte j'l'écris demain, un stylo pointé sous la gorge J'étais quoi ? Haut comme trois pommes Granny J'voulais soulever la peau d'l'océan comme Salvador Dalí Sans avoir la soif des grands hommes Les MC s'nourrissent de mots par alimentation fantôme Et d'façon j'aimais pas leurs écoles d'apparaître Et les instit' fonctionnaires que les enfants doivent appeler Maître Leur vocation mutation, vacances, paye J'aimais qu'la p'tite prof' de dessin et ses deux seins en body paint C'est un peu l'enfant autiste qu'on quitte pas d'l'oeil La vie d'artiste, combien de nuits blanches passées pour un single ? Derrière la console de voix comme Kid Paddle Afin que tous les humains, voire même les flics, kiffent tous pareil J'ai les secondes qui tuent le temps Lorsque tu vois c'que j'imagine, frère, est-ce que tu l'entends ? Soleil nocturne Quand on m'disait comme Galilée Ta 'zique est plate, et pourtant elle tourne... They're all about the money, the Good, the Bad, the Ugly like Eastwood Hop on any random just to eat good Hope you don't see the proof, the truth is that we could See that cash rules everything, the rhythm ain't shallow Tryin' to stand taller than he stood Fightin' just to make it, won't give up 'til their feet would Call 'em a check and now they're everywhere we look I leave her alone just like every MC should Elle était quoi ? Haute comme trois pommes d'amour J'étais en perte d'inspiration quand j'ai vu ses yeux dans la cour J'explique pour les sots du vocabulaire Ça signifie pas qu'j'ai vu au sol rouler ses deux globes oculaires, non... J'm'adresse aux blairs qui diront que j'suis mon thème Mais ces regards sont des cicatrices qui rarement se referment Comme des paupières abaissées Amour tragique pour ABC car personne n'écrit de texte qui soit bien plus fort qu'un baiser Pour ça qu'j'pourrais tous vous biaiser Faire le poète, papier à lettre barré en mode sentimental Avec la force de créer en main Mais j'suis qu'un MC asocial qui n'a jamais cru en rien J'suis qu'un MC asocial qui n'a jamais cru en rien J'suis qu'un MC asocial avec la force de créer en main J'suis qu'un MC asocial Comme tous les autres en fait C'est tout ça, MC</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Loup des steppes</t>
+          <t>Mes petites amoureuses</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Bonjour t'a dit la nuit, t'es le dernier qui reste Pourquoi ce regard funeste ? Relève la tête et reparle à tes étoiles comme avant Il reviendra le beau temps J'te vois toujours seul sur c'banc Nuit après nuit, et les nuits se succédant Tu dois aimer ces baskets pour les regarder autant Allez, relève le tête, il reviendra le beau temps On a toujours une joie quelque part qui sommeille à célébrer Un genre de soleil finira bien par se lever Tu mangeras des baisers jusqu'à l'indigestion Retrouve ta direction, ferme les yeux, pars où souffle le vent Colère et haine ne mènent qu'à l'auto-destruction Éclaire les trucs sombres, c'est à toi d'décider Un genre de soleil finira bien par se lever Faudra qu'tu sois prêt Bonjour t'a dit la nuit, t'es le dernier qui reste Eh, pourquoi ce regard funeste ? Parfois moi aussi j'lui parle ainsi Rien de bon quand j'arrive, nan Rien de bon quand j'arrive dans le parc de la petite France J'tiens de bout mais en substance - Illicite et je crois ' j'suis lucide sur la balançoire Et le bateau pirate, j'lui parle sans copyright À la nuit pourquoi ?, lune est ma seule amie, j'crois Parce qu'on est les loups des steppes, que les élus nous détestent Parce qu'on hurle à la lune jusqu'au bout de l'hallali Parce qu'on est les loups des steppes, nous on est les loups des steppes Nous on est ... des steppes Le petit prince ne régna pas Je réponds à la nuit, dis-lui que tu meurs d'un désespoir incurable Que t'as perdu un truc, du fric ou un livre Tes clés de voiture ou bien l'envie de vivre J'veux plus faire de concert, j'ai une dispense J'suis atteint par le mal de la distance J'veux que faire du vélo avec Milo à la petite France Blessé dans l'action par la vie, par la mort et les séparations La misère affective pour un loup, combien de brebis seront égorgées ? Tu crois que ça mabîme tous ces moments où tu m'vois en bad ? Si tu peux voir l'abîme c'est qu'l'abîme voit aussi en oit Quand la vie me traite de sale con je dois rapper devant une sale comble Putain de contes cruels Parce qu'on est les loups des steppes, que les élus nous détestent Parce qu'on hurle à la lune jusqu'au bout de l'hallali Parce qu'on est les loups des steppes, nous on est les loups des steppes Nous on est ... des steppes Le petit prince ne régna pas Dans tes yeux j'vois des miroirs Rayé par la vie tu traverses un brouillard de mémoire dans la buée de tes larmes Y a toujours des anges pris au piège dans cette cage Quand tu pleures ça les arrange, ils s'évaporent dans les nuages Il y a du chagrin pour être honnête, des affaires et des cartons Ce qui glisse sur ta pommette Ces larmes que tu pleures, tes yeux qui me disent prends-moi le bras J'suis ton garde du cur Tu as les yeux d'ceux qui ont une âme qui vibre juste un peu plus fort que les autres Bonjour m'a dit la nuit, t'es le dernier qui reste Pourquoi ce regard funeste ? Parce qu'on est les loups des steppes, que les élus nous détestent Parce qu'on hurle à la lune jusqu'au bout de l'hallali Parce qu'on est les loups des steppes, nous on est les loups des steppes Nous on est ... des steppes Dooz Kawa, Milo Désolé d'pas avoir bossé l'intro Dédicace à mon petit louveteau Et chef des pompiers, héhé2</t>
+          <t>Yaa Celle là je la dédicace Pour mes petites amoureuses Mes petites amoureuses Un hydrolat lacrymal lave Les cieux vert-chou Sous l'arbre tendronnier qui bave Vos caoutchoucs Blancs de lunes particulières Aux pialats ronds Entrechoquez vos genouillères Mes laiderons ! Tu peux commencer à flipper Entrechoquez vos genouillères Mes laiderons Tu peux commencer à flipper Entrechoquez vos genouillères Mes laiderons Nous nous aimions à cette époque Bleu laideron ! On mangeait des oeufs à la coque Et du mouron ! Un soir, tu me sacras poète Blond laideron Descends ici, que je te fouette En mon giron J'ai dégueulé ta bandoline Noir laideron Tu couperais ma mandoline Au fil du front Pouah ! mes salives desséchées Roux laideron Infectent encor les tranchées De ton sein rond ! Ô mes petites amoureuses Que je vous hais ! Plaquez de fouffes douloureuses Vos tétons laids ! Piétinez mes vieilles terrines De sentiments Hop donc ! Soyez-moi ballerines Pour un moment ! Vos omoplates se déboîtent Ô mes amours ! Une étoile à vos reins qui boitent Tournez vos tours ! Et c'est pourtant pour ces éclanches Que j'ai rimé ! Je voudrais vous casser les hanches D'avoir aimé ! Fade amas d'étoiles ratées Comblez les coins ! Vous crèverez en Dieu, bâtées D'ignobles soins ! Sous les lunes particulières Aux pialats ronds Entrechoquez vos genouillères Mes laiderons Tu peux commencer à flipper Tu peux commencer à flipper</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>Monument</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>J'étais quoi ? Haut comme trois pommes Golden Un bad boy en marmelade saupoudré à la cannelle Quand Marianne m'annonça à la sortie d'la maternelle Tout est fini... J'lui ai répondu qu'elle s'rassure Car moi non plus j'raffole pas d'elle en plus tu sais, un buste, moi ça va cinq minutes Les filles, j'les préfère avec un corps et encore Même là souvent y a des problèmes Mais j't'aime encore... Moi j'embrasserai plus tes emblèmes Accroché à la queue d'une comète Les basses traversent la nuit comme une balle de 9 mm Même si l'école me délaisse, même s'il est balaise ce Thalès J'étais toujours plus attiré par les papillons à la fenêtre Sans nous la musique sera pareille Mais est-ce qu'on enlève aux Schtroumpfs la recette de la salsepareille ? J'cherche sans fin la phrase qui accroche Mon meilleur texte j'l'écris demain, un stylo pointé sous la gorge J'étais quoi ? Haut comme trois pommes Granny J'voulais soulever la peau d'l'océan comme Salvador Dalí Sans avoir la soif des grands hommes Les MC s'nourrissent de mots par alimentation fantôme Et d'façon j'aimais pas leurs écoles d'apparaître Et les instit' fonctionnaires que les enfants doivent appeler Maître Leur vocation mutation, vacances, paye J'aimais qu'la p'tite prof' de dessin et ses deux seins en body paint C'est un peu l'enfant autiste qu'on quitte pas d'l'oeil La vie d'artiste, combien de nuits blanches passées pour un single ? Derrière la console de voix comme Kid Paddle Afin que tous les humains, voire même les flics, kiffent tous pareil J'ai les secondes qui tuent le temps Lorsque tu vois c'que j'imagine, frère, est-ce que tu l'entends ? Soleil nocturne Quand on m'disait comme Galilée Ta 'zique est plate, et pourtant elle tourne... They're all about the money, the Good, the Bad, the Ugly like Eastwood Hop on any random just to eat good Hope you don't see the proof, the truth is that we could See that cash rules everything, the rhythm ain't shallow Tryin' to stand taller than he stood Fightin' just to make it, won't give up 'til their feet would Call 'em a check and now they're everywhere we look I leave her alone just like every MC should Elle était quoi ? Haute comme trois pommes d'amour J'étais en perte d'inspiration quand j'ai vu ses yeux dans la cour J'explique pour les sots du vocabulaire Ça signifie pas qu'j'ai vu au sol rouler ses deux globes oculaires, non... J'm'adresse aux blairs qui diront que j'suis mon thème Mais ces regards sont des cicatrices qui rarement se referment Comme des paupières abaissées Amour tragique pour ABC car personne n'écrit de texte qui soit bien plus fort qu'un baiser Pour ça qu'j'pourrais tous vous biaiser Faire le poète, papier à lettre barré en mode sentimental Avec la force de créer en main Mais j'suis qu'un MC asocial qui n'a jamais cru en rien J'suis qu'un MC asocial qui n'a jamais cru en rien J'suis qu'un MC asocial avec la force de créer en main J'suis qu'un MC asocial Comme tous les autres en fait C'est tout ça, MC</t>
+          <t>Yeah J'ai tant de trucs à raconter yeah hey J'ai tant de trucs à raconter yeah J'ai hey tant de trucs à raconter hey yeah Yeah J'implore votre pardon D'être un tigre des montagnes Yo! J'ai pas connu l'amour mais que des filles histrioniques Qui avaient une plastique bionique Comme disait le duc de Nemour à la princesse de Clèves Alors vas-y baby on nique elle se brisait même les rêves Comme des biches d'où elle s'échappait mais se coince Se trouvant jamais assez riche se trouvant jamais assez mince Mes petites duchesses de Windsor Et j'ai eu bien de la tristesse en regrettant le joli corps de chacune depuis en rêvassant à l'autre ou l'une Moi j'attends qu'les nuits s'allument les yeux rivés sur les étoiles En espérant y voir sa lune La bataille a sonné sur des chevaux caparaçonnés On est venus tuer des amours qui sont toutes nues sous les armures pas sonné tu vois mon cur n'a pas sombré Malgré maintenant j'attaque et j'incendie Politique de la terre brulée j'ai tout détruit J'te laisse jouer le prochain coup Et j'te souhaite bien de la pluie sur les joues Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Tellement de déceptions de souvenirs à la machette De monuments de statues qui tournent la tête Et qui nous disent que les bagages s'alourdissent Ces moments où les mots nous mentent Pour peindre joliment notre âme Je crois c'est pour ça que j'en invente Mais je me sens perdu parfois d'être précurseur à chaque fois À force de pas suivre le chemin on doit le fabriquer à chaque pas Et pour tous ceux qui séchappent pas Je suis l'évasion d'une évasion Héritier du hip-hop dont je suis l'usufruit de la passion J'sais pas si on peut lire sur ses lèvres Que j'suis beau riche et célèbre mon trésor mais Désormais Moi j'fais parti des grands noms Qui auront tagué le mur du son pour toujours Depuis que je suis né un jour d'hiver, j'ai grandi un jour de pluie Dans la rubrique des faits divers tu verra ma biographie Après le beau temps vient la pluie j'espère Il aura pas suffit d'aimer il fallait savoir quoi en faire Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc en ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Je suis toujours en fuite pour des délits de la mineur Des arcs-en-ciel de nuit traversent la pluie laminaire Sortis des douches des lampadaires Pudiquement les ténèbres mettent une robe de chambre de lumière Ici si il pleut tous les jours ça signifie que les Sibyllines sont sous la douche La pluie sur la peau douce doucement fait glisser la mousse de camouflage Avant pour les comprendre on peinait grave maintenant les Sibyllines deviennent plus claires et pénétrables J'observe leurs Dooz Kawa on t'aime Si ma musique les touche je préfère voir ça entre elles Qui font voyager sans ailes S'épile le delta d'une île et pense Ticket de métro en île de France Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie J'ai yeah tant de choses à raconter yeah J'ai tant de choses à raconter J'implore votre pardon Tant de choses à raconter yeah D'être un tigre des montagnes</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Mes petites amoureuses</t>
+          <t>Mr Tosh</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Yaa Celle là je la dédicace Pour mes petites amoureuses Mes petites amoureuses Un hydrolat lacrymal lave Les cieux vert-chou Sous l'arbre tendronnier qui bave Vos caoutchoucs Blancs de lunes particulières Aux pialats ronds Entrechoquez vos genouillères Mes laiderons ! Tu peux commencer à flipper Entrechoquez vos genouillères Mes laiderons Tu peux commencer à flipper Entrechoquez vos genouillères Mes laiderons Nous nous aimions à cette époque Bleu laideron ! On mangeait des oeufs à la coque Et du mouron ! Un soir, tu me sacras poète Blond laideron Descends ici, que je te fouette En mon giron J'ai dégueulé ta bandoline Noir laideron Tu couperais ma mandoline Au fil du front Pouah ! mes salives desséchées Roux laideron Infectent encor les tranchées De ton sein rond ! Ô mes petites amoureuses Que je vous hais ! Plaquez de fouffes douloureuses Vos tétons laids ! Piétinez mes vieilles terrines De sentiments Hop donc ! Soyez-moi ballerines Pour un moment ! Vos omoplates se déboîtent Ô mes amours ! Une étoile à vos reins qui boitent Tournez vos tours ! Et c'est pourtant pour ces éclanches Que j'ai rimé ! Je voudrais vous casser les hanches D'avoir aimé ! Fade amas d'étoiles ratées Comblez les coins ! Vous crèverez en Dieu, bâtées D'ignobles soins ! Sous les lunes particulières Aux pialats ronds Entrechoquez vos genouillères Mes laiderons Tu peux commencer à flipper Tu peux commencer à flipper</t>
+          <t>On me dit ch'ui passé juste un jour Juste j'passais là, j'faisais un tour Dooz KO, en radio, Dooz KO Si je passe en radio Si je passe en radio c'est que je suis fade et pas beau C'est que la gow qui s'occupe de ma pub fait la pute sous le bureau Du dirlo de la prod puis qui daigne m'écouter Fait glisser sa culotte ou met son string sur le côté Si je passe en radio c'est parce que j'ai rien à dire Car pour parler aux idiots il faut l'être aussi, jte le fait pas dire Moi j'connais bien la rue, sa musique omerta Quand ton rap il détale, on démolit les tass Si t'as pas lu les tags, jte passe les détails Je vois depuis la montagne brouter l'bétail Rebelle et moi sur le mic, moi ch'ui venu pour voler la vibe Des musiques commerciales car Quand le son vient des caves on le pousse à l'écart Au fond de l'hectare comme un épouvantail La radio nous limite trop dans les mots qui partent d'habitudes et des mots qui partent si t'as peur de mes dérapages Quand j'ai le micro dans les métacarpes Soit gentil gros, j'conseille que tu t'écartes Tu t'écartes, putain allez ! tu t'écartes REFRAIN Reste là-bas jolie, ya plus de rap, les mêmes plans démoniaques Ont détruits l'Amazonie. Dans ma cave l'ammoniac À détruit nos cellules grises J'pisse sur les si des roux simule gise Le social nous rabaisse et on glisse aux abysses Et se baise pour du biz Car ici les MC sont devenus capitalistes Capitule et suce, représente pour les banques Suisse Eh les gars vous êtes vraiment des ânes C'est comme si moi dans le rap je me surnommai Farhagan Mais c'est bien vous êtes des gangsters, c'est ce qui compte, faut pas vous étonner après coup de passer pour des cons Parce que vous portez aux nues les instituts qui vous oppriment Les bagnoles, les flingues, la came et le bling-bling REFRAIN</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Monument</t>
+          <t>Naufragés</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Yeah J'ai tant de trucs à raconter yeah hey J'ai tant de trucs à raconter yeah J'ai hey tant de trucs à raconter hey yeah Yeah J'implore votre pardon D'être un tigre des montagnes Yo! J'ai pas connu l'amour mais que des filles histrioniques Qui avaient une plastique bionique Comme disait le duc de Nemour à la princesse de Clèves Alors vas-y baby on nique elle se brisait même les rêves Comme des biches d'où elle s'échappait mais se coince Se trouvant jamais assez riche se trouvant jamais assez mince Mes petites duchesses de Windsor Et j'ai eu bien de la tristesse en regrettant le joli corps de chacune depuis en rêvassant à l'autre ou l'une Moi j'attends qu'les nuits s'allument les yeux rivés sur les étoiles En espérant y voir sa lune La bataille a sonné sur des chevaux caparaçonnés On est venus tuer des amours qui sont toutes nues sous les armures pas sonné tu vois mon cur n'a pas sombré Malgré maintenant j'attaque et j'incendie Politique de la terre brulée j'ai tout détruit J'te laisse jouer le prochain coup Et j'te souhaite bien de la pluie sur les joues Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Tellement de déceptions de souvenirs à la machette De monuments de statues qui tournent la tête Et qui nous disent que les bagages s'alourdissent Ces moments où les mots nous mentent Pour peindre joliment notre âme Je crois c'est pour ça que j'en invente Mais je me sens perdu parfois d'être précurseur à chaque fois À force de pas suivre le chemin on doit le fabriquer à chaque pas Et pour tous ceux qui séchappent pas Je suis l'évasion d'une évasion Héritier du hip-hop dont je suis l'usufruit de la passion J'sais pas si on peut lire sur ses lèvres Que j'suis beau riche et célèbre mon trésor mais Désormais Moi j'fais parti des grands noms Qui auront tagué le mur du son pour toujours Depuis que je suis né un jour d'hiver, j'ai grandi un jour de pluie Dans la rubrique des faits divers tu verra ma biographie Après le beau temps vient la pluie j'espère Il aura pas suffit d'aimer il fallait savoir quoi en faire Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc en ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Je suis toujours en fuite pour des délits de la mineur Des arcs-en-ciel de nuit traversent la pluie laminaire Sortis des douches des lampadaires Pudiquement les ténèbres mettent une robe de chambre de lumière Ici si il pleut tous les jours ça signifie que les Sibyllines sont sous la douche La pluie sur la peau douce doucement fait glisser la mousse de camouflage Avant pour les comprendre on peinait grave maintenant les Sibyllines deviennent plus claires et pénétrables J'observe leurs Dooz Kawa on t'aime Si ma musique les touche je préfère voir ça entre elles Qui font voyager sans ailes S'épile le delta d'une île et pense Ticket de métro en île de France Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie J'ai yeah tant de choses à raconter yeah J'ai tant de choses à raconter J'implore votre pardon Tant de choses à raconter yeah D'être un tigre des montagnes</t>
+          <t>Yeah, DOOZ KO, Freestyle, l'incruste , Studio Et je fais un petit freestyle les potos J'ai dans le cur une tarentule que l'eau salée a du noyer Les naufragés se parlent en bulles, tombés du radeau en noyer Dans la mélancolie, bercés sans perdre le bord un instant Où les Danaïdes vont verser tout autour de toi l'océan Le vent violent nous crie dessus et l'océan nous broie la peau Quand on croit voir le poil hirsut d'un drapeau au mât d'un bateau Les naufragés sont sans rivags, à moins de le voir en mirage Et l'injustice de ce monde a créé un monstre sans visage Je crois que chaque pute a son prix et que leur éthique est louable Je me quitte de moi incompris comme un solitaire incroyable Tu vois que l'espoir est mort né, mais on est borné, et morné, il reste à regarder nos vies de manifestants éborgnés Les naufragés sont trop chargés chacun d'un collier de remords Se laissent enfoncer sans nager, espérant en faire un heureux mort Mais les piégés sont en chemin Et déjà à peine elle partait que j'étais déjà orphelin Radeau de la Méduse en papier L'âme de ma princesse sanglote, une armée militaire sans bottes Flotte comme portée par le courant, recherche fusée de détresse Ce qui ressemble aux survivants, je sais pas si elle est trop zen ou si elle m'attriste Cette satire ça fait comme la première Gnossienne sur le piano d'Erik Satie Je sens qu'on m'attrape sous les aisselles et qu'on me tire hors de la flaque Si les secouristes me réveillent, il serait peut-être temps que je me rattrape Des récits fantastiques décrivent dans la mer de l'Oural des hélicoptères Des navires qui se transforment en corail , des barils toxiques à la dérive où vivent nos relations sociales Flottent les chantages affectifs des sirènes dans une chorale, guident les vaisseaux vers les récifs Ceux qui sont saufs, s'en servent d'otages, je reçois comme une lessive Cérémonique sacerdotale Des scaphandres sans gens qui gênent, on combat le froid, boit de l'antigel Les nuages, la drogue indigène s'infiltre dans le conduit d'oxygène Peut-être la marée basse arrive, la ci-git d'objets célestes que l'on écrive pas ici En plus des eaux mortes et les restes, d'un pseudo poète amoral Il flotte, sa casquette d'amiral Son mémorial sera l'azur qu'on le marque dans l'armorial C'était DOOZ KAWA d'la Moria T'es encore là ? Je regarde en l'air et je vois la lumière qui me dit tu es sûr que c'est bien fini ? Sous mes pieds, l'obscurité senfoncer vers l'infini C'est juste un rêve Tu respires plus, mais t'es pas encore un cas grave, où des sirènes à moitié nues viendraient emporter ton cadavre Tu ne vois pas leurs seins ni leurs fesses qui sont de plus cachées d'écailles Alors reviens à la surface et je me mets à cracher des cailloux d'sang J'entends les balles au son du rotor de l'aérospatiale qui gronde Je suis écrasé au plancher pendant que l'hélicoptère monte Et cependant que je vous raconte ce qui est un conte ou bien une fable, je me dis que mon imagination coûterait bien cher aux contribuables Je relève la tête à 4h du mat', comme un réveil par un impact existentiel, conscience du silence qui règne et tout à coup je me sens bien seul dans mon appart Bordel, si j'avais un hélicoptère j'irai vite aller voir ce que j'aime Bref, allez, je replonge dans mon rêve J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. C'est faux J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. Arrête un peu Maintenant que j'le sais, j'en ferai quoi ? J'en ferai quoi ? On fait pas toujours ce qu'il faut, être un exemple que j'ai pas Mais en tout cas on fait c'qu'on peut J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. C'est faux J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. Arrête un peu Maintenant que j'le sais, j'en ferai quoi ? J'en ferai quoi ? On fait pas toujours ce qu'il faut, être un exemple que j'ai pas Mais en tout cas on fait c'qu'on peut</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Mr Tosh</t>
+          <t>No Love</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>On me dit ch'ui passé juste un jour Juste j'passais là, j'faisais un tour Dooz KO, en radio, Dooz KO Si je passe en radio Si je passe en radio c'est que je suis fade et pas beau C'est que la gow qui s'occupe de ma pub fait la pute sous le bureau Du dirlo de la prod puis qui daigne m'écouter Fait glisser sa culotte ou met son string sur le côté Si je passe en radio c'est parce que j'ai rien à dire Car pour parler aux idiots il faut l'être aussi, jte le fait pas dire Moi j'connais bien la rue, sa musique omerta Quand ton rap il détale, on démolit les tass Si t'as pas lu les tags, jte passe les détails Je vois depuis la montagne brouter l'bétail Rebelle et moi sur le mic, moi ch'ui venu pour voler la vibe Des musiques commerciales car Quand le son vient des caves on le pousse à l'écart Au fond de l'hectare comme un épouvantail La radio nous limite trop dans les mots qui partent d'habitudes et des mots qui partent si t'as peur de mes dérapages Quand j'ai le micro dans les métacarpes Soit gentil gros, j'conseille que tu t'écartes Tu t'écartes, putain allez ! tu t'écartes REFRAIN Reste là-bas jolie, ya plus de rap, les mêmes plans démoniaques Ont détruits l'Amazonie. Dans ma cave l'ammoniac À détruit nos cellules grises J'pisse sur les si des roux simule gise Le social nous rabaisse et on glisse aux abysses Et se baise pour du biz Car ici les MC sont devenus capitalistes Capitule et suce, représente pour les banques Suisse Eh les gars vous êtes vraiment des ânes C'est comme si moi dans le rap je me surnommai Farhagan Mais c'est bien vous êtes des gangsters, c'est ce qui compte, faut pas vous étonner après coup de passer pour des cons Parce que vous portez aux nues les instituts qui vous oppriment Les bagnoles, les flingues, la came et le bling-bling REFRAIN</t>
+          <t>Ben ouais Dooz Kawa dans la place Monte le son dans le casque Un petit freestyle, j'suis capturé par Oster Lapwass Cassded l'Animalerie, T kaï cee, 3rd Lab Check bourg-stra Sur le mic j'élimine les minables J'ai laminé les domaines de mines J'ai les mails de mes ennemis émis Nous nous munissons de munitions Et misons sur l'issue fatale madame messieurs ? j'vous salue sur cette émission émise L'mc est sur une mission Car mes rimes sont des lignes sombres faites de buissons Délimité comme un Harki car attaqué au taquet comme Anakin j'kick des temps des trônes? des trucs Détraqués sont mes neurones Je quitte, des lignes d'ennemis éliminés Laisse des milliers d'humiliés J'signe un hymne inimité a l'unanimité T'attire l'animosité j'rap l'animalité Sur la page à l'arrache casse la cage à la hache passe Kawa qu'a la rage et que les lâches sages aux kalach's sachent Je m'en sortirai juste En face j't'embrasse Le temps passe Et j'ai toujours pas d'amour pour ceux d'en face J'ai beau m'choufer dans une glace Faire partie du groupe de conciliation Et j'regarde passer vos phases de Bastille a Nation Mais non j'ai toujours pas d'amour pour ceux d'en face Ain't got no love for the other rhymes x4 Got no love for the other side x8 Sur lacoustique ta copine me dit costaud T'es caustique comme l'acide Oxyde au bic occis tous les mc's de boite Je rap que des lyrics atypiques qui piquent et les coccyx s'déboitent J'débite j'débarque et mes démos sont des battes Agite tellement les nuques qu'on les décapite, capiche ? C'est toxique et puis nique au mic l'mc comique qui débute Ma solitude est ma seule étude j'saccage le stud Le mic à part..? Blow MC t'as plus de refuge Sauf un baggy jean hydrofuge Dooz Kawa dans le stud' Élémentaire mon cher Oster J'vais faire un tuto pour les nuls Ou plutôt un truc genre fascicule Y'a le feu dans le studio, j'continul ? Alors mon pote, tu croyais que t'étais un gros poisson dans une mare J'me marre car t'es qu'un poisson clown déguisé en requin Nous on est tout l'panier d'crabe et ses piranhas Toi t'es la pire arnaque largué ta p'tite nana C'est pour ça mon rap sent la moule, le tien pue de la raie T'arrête de t'doigter toi t'es Juste un poisson de ligne Et si on était en Inde tu serais un plat sans riz Dooz Caviar est dans la flaque, tout baigne, on harponne, en symphonie Oster la poissonerie1</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Naufragés</t>
+          <t>Parker Charlie</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Yeah, DOOZ KO, Freestyle, l'incruste , Studio Et je fais un petit freestyle les potos J'ai dans le cur une tarentule que l'eau salée a du noyer Les naufragés se parlent en bulles, tombés du radeau en noyer Dans la mélancolie, bercés sans perdre le bord un instant Où les Danaïdes vont verser tout autour de toi l'océan Le vent violent nous crie dessus et l'océan nous broie la peau Quand on croit voir le poil hirsut d'un drapeau au mât d'un bateau Les naufragés sont sans rivags, à moins de le voir en mirage Et l'injustice de ce monde a créé un monstre sans visage Je crois que chaque pute a son prix et que leur éthique est louable Je me quitte de moi incompris comme un solitaire incroyable Tu vois que l'espoir est mort né, mais on est borné, et morné, il reste à regarder nos vies de manifestants éborgnés Les naufragés sont trop chargés chacun d'un collier de remords Se laissent enfoncer sans nager, espérant en faire un heureux mort Mais les piégés sont en chemin Et déjà à peine elle partait que j'étais déjà orphelin Radeau de la Méduse en papier L'âme de ma princesse sanglote, une armée militaire sans bottes Flotte comme portée par le courant, recherche fusée de détresse Ce qui ressemble aux survivants, je sais pas si elle est trop zen ou si elle m'attriste Cette satire ça fait comme la première Gnossienne sur le piano d'Erik Satie Je sens qu'on m'attrape sous les aisselles et qu'on me tire hors de la flaque Si les secouristes me réveillent, il serait peut-être temps que je me rattrape Des récits fantastiques décrivent dans la mer de l'Oural des hélicoptères Des navires qui se transforment en corail , des barils toxiques à la dérive où vivent nos relations sociales Flottent les chantages affectifs des sirènes dans une chorale, guident les vaisseaux vers les récifs Ceux qui sont saufs, s'en servent d'otages, je reçois comme une lessive Cérémonique sacerdotale Des scaphandres sans gens qui gênent, on combat le froid, boit de l'antigel Les nuages, la drogue indigène s'infiltre dans le conduit d'oxygène Peut-être la marée basse arrive, la ci-git d'objets célestes que l'on écrive pas ici En plus des eaux mortes et les restes, d'un pseudo poète amoral Il flotte, sa casquette d'amiral Son mémorial sera l'azur qu'on le marque dans l'armorial C'était DOOZ KAWA d'la Moria T'es encore là ? Je regarde en l'air et je vois la lumière qui me dit tu es sûr que c'est bien fini ? Sous mes pieds, l'obscurité senfoncer vers l'infini C'est juste un rêve Tu respires plus, mais t'es pas encore un cas grave, où des sirènes à moitié nues viendraient emporter ton cadavre Tu ne vois pas leurs seins ni leurs fesses qui sont de plus cachées d'écailles Alors reviens à la surface et je me mets à cracher des cailloux d'sang J'entends les balles au son du rotor de l'aérospatiale qui gronde Je suis écrasé au plancher pendant que l'hélicoptère monte Et cependant que je vous raconte ce qui est un conte ou bien une fable, je me dis que mon imagination coûterait bien cher aux contribuables Je relève la tête à 4h du mat', comme un réveil par un impact existentiel, conscience du silence qui règne et tout à coup je me sens bien seul dans mon appart Bordel, si j'avais un hélicoptère j'irai vite aller voir ce que j'aime Bref, allez, je replonge dans mon rêve J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. C'est faux J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. Arrête un peu Maintenant que j'le sais, j'en ferai quoi ? J'en ferai quoi ? On fait pas toujours ce qu'il faut, être un exemple que j'ai pas Mais en tout cas on fait c'qu'on peut J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. C'est faux J'attendrai pas que l'hélicoptère atterrisse Je vois mon fils courir vers moi, je me dis que j'ai pris trop de risques et que je suis un mauvais papa. Arrête un peu Maintenant que j'le sais, j'en ferai quoi ? J'en ferai quoi ? On fait pas toujours ce qu'il faut, être un exemple que j'ai pas Mais en tout cas on fait c'qu'on peut</t>
+          <t>Chacun leur tour, disent Je t'aime pour toujours enlacés au fond des draps Pourquoi parfois l'amour n'a qu'un goût de gueule de bois ? Ou bien d'un secret lourd enterré au fond des bois ? Morfondez-moi !, c'est ce que parfois pleure la 'zique que l'on joue Quand il n'y a plus de soleil même dans les yeux de l'Andalous Je t'offrirai les fleurs du ciel, celles qui rendent les anges jaloux Si seulement t'étais réelle... Mais en ces fables nous on s'étale, on s'est fait mal peut-être dans la chute J'aimerais repérer l'amour, l'expulser du mésencéphale, mais chut Quoi ? J'vois pas d'amoureuse endormie Et pour moi aucun avion n'arrive à 4h à Orly Le jazz est la solution Vient me souffler Parker Charlie Son amoureuse part au Pérou et lui accroche un bisou aux lèvres Mais y aura toujours un caillou caché dans une boule de neige Est-ce que c'est pire que l'amour en rêve ces souvenirs qui nous hantent ? Est-il possible que quelqu'un qui n'existe pas nous manque ? J'observe les flammes des voitures danser au plafond de ma chambre Comme une scène hallucinante de cinéma En caleçon sur mon lit, la solitude s'assied sur moi Le bien, le mal dérivent, même en prison me délivrent Et plus rien n'a d'importance, un démon s'endort sur la Bible Un coeur vide c'est monotone Malgré que passent les saisons parfois c'est toujours l'automne Dans les maisons L'amour secret je l'ai vu chouïa comme un chewing-gum dénaturé que le temps se mâchouilla Pourtant j'y crois, pratiquant plus que pour l'Seigneur Je rentre dans l'arène comme Maximus, avec force et honneur Mais parfois le soir j'ai peur Quand plus aucune mélodie n'atteint le fond de mon coeur tari Le jazz est la solution Vient me souffler Parker Charlie Parker Charlie ne perd jamais... son souffle Pour ça, dis-toi, je ferais bien de l'écouter si j'veux rester dans la course Si t'as la tristesse à tes trousses et la tête sur un contrat Sous clause de close combat Le seul à qui dans la trousse on interdisait le compas Quand personne ne te tient la main de la Saint-Valentin à décembre Regardez les humains, vous ne trouvez point que je leur ressemble ? Au moins un peu Je tâcherai d'avoir des idéaux et de parler un petit peu mieux Prendre à crédit une Peugeot et puis d'être content pour rien Il faut soigner les apparences pour être un bon contemporain Quel temps pourri J'aimerais qu'ils entendent tous ta voix pour comprendre mon ennui quand t'es pas là Ma mélodie, mon éternel, mon coeur Ma symphonie Ma féminine Parker Charlie</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>No Love</t>
+          <t>Petit miroir</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ben ouais Dooz Kawa dans la place Monte le son dans le casque Un petit freestyle, j'suis capturé par Oster Lapwass Cassded l'Animalerie, T kaï cee, 3rd Lab Check bourg-stra Sur le mic j'élimine les minables J'ai laminé les domaines de mines J'ai les mails de mes ennemis émis Nous nous munissons de munitions Et misons sur l'issue fatale madame messieurs ? j'vous salue sur cette émission émise L'mc est sur une mission Car mes rimes sont des lignes sombres faites de buissons Délimité comme un Harki car attaqué au taquet comme Anakin j'kick des temps des trônes? des trucs Détraqués sont mes neurones Je quitte, des lignes d'ennemis éliminés Laisse des milliers d'humiliés J'signe un hymne inimité a l'unanimité T'attire l'animosité j'rap l'animalité Sur la page à l'arrache casse la cage à la hache passe Kawa qu'a la rage et que les lâches sages aux kalach's sachent Je m'en sortirai juste En face j't'embrasse Le temps passe Et j'ai toujours pas d'amour pour ceux d'en face J'ai beau m'choufer dans une glace Faire partie du groupe de conciliation Et j'regarde passer vos phases de Bastille a Nation Mais non j'ai toujours pas d'amour pour ceux d'en face Ain't got no love for the other rhymes x4 Got no love for the other side x8 Sur lacoustique ta copine me dit costaud T'es caustique comme l'acide Oxyde au bic occis tous les mc's de boite Je rap que des lyrics atypiques qui piquent et les coccyx s'déboitent J'débite j'débarque et mes démos sont des battes Agite tellement les nuques qu'on les décapite, capiche ? C'est toxique et puis nique au mic l'mc comique qui débute Ma solitude est ma seule étude j'saccage le stud Le mic à part..? Blow MC t'as plus de refuge Sauf un baggy jean hydrofuge Dooz Kawa dans le stud' Élémentaire mon cher Oster J'vais faire un tuto pour les nuls Ou plutôt un truc genre fascicule Y'a le feu dans le studio, j'continul ? Alors mon pote, tu croyais que t'étais un gros poisson dans une mare J'me marre car t'es qu'un poisson clown déguisé en requin Nous on est tout l'panier d'crabe et ses piranhas Toi t'es la pire arnaque largué ta p'tite nana C'est pour ça mon rap sent la moule, le tien pue de la raie T'arrête de t'doigter toi t'es Juste un poisson de ligne Et si on était en Inde tu serais un plat sans riz Dooz Caviar est dans la flaque, tout baigne, on harponne, en symphonie Oster la poissonerie1</t>
+          <t>Quand t'es pas là mon âme est triste et quand t'es là je la maîtrise Jamais de drogue ou bien d'alcool ni de produits qui la meurtrissent J'suis les Air Max qui t'amortissent si tu chutes, au coin de l'immeuble Pendant ta sieste je vais dire chut, aux lascars qui beuglent Et quand t'as appris à marcher j'collais d'la mousse aux coins des meubles Faudrait pas que le mec de ta mère te touche car ça éviterait bien des meurtres On a tous fait des erreurs et des belles choses depuis l'enfance Ils mettront le poids qui les arrange du coté qu'ils veulent que la balance penche Quand ils te parleront de moi, je t'ai pas vu depuis décembre J'crois que ça fait tout rond deux mois Je sais qu'parfois papa te manque et j'voudrais pas qu'maman te mente Quand sur mon absence tu demandes pourquoi j'reviens plus jamais T'es comme ta mère t'as les yeux bleus couleurs bonbon Vicks délavé Mes plus grands vux étaient si pieux juste t'apprendre à faire tes lacets J'me demande si tu fais du cirque ou de la natation, si taimes autant la course à pied Est-ce que tu veux toujours devenir astronaute ou chef des pompiers ? Perdre parfois cest chouette, quand on a sa conscience pour soi Et des victoires qui sont amères, demande ta mère comment elle vit largent quelle perçoit Quand jétais un bébé fleur j'crois quon ma coupé mes lacets Mais même pieds nus, ton papa rappeur traverse la France pour tembrasser Je pourrai traverser ton enfance avec les yeux chargés de nuits Et jusquà ce que ta fièvre descende je resterai au bord de ton lit Les gens tont dit qu'ton papa est un gros con Que si tu le vois pas que cest pas à cause dun glaucome Mais les bâtards que nous évoquons ne vivent que des rêves clos, Je fais de notre appart un cocon, doù va éclore plein de battements de papillons De schmetterling et butterfly, je serai toujours fier de qui tu es Que tu sois dans un char AMX, ou sur un char de la gay pride Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferai tout pour pouvoir tabriter Tes mon petit miroir tu n'seras pas le reflet de mes erreurs Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferai tout pour pouvoir tabriter Tes mon petit miroir tu n'seras pas le reflet de mes erreurs Fini lépoque où j'cogite ivre en blablatant des promesses trop fictives Ma vie a basculé face à un test de grossesse positif J'pensais quaucun événement réanimerai ma joie d'base Cest fou, ce qui me pousse à être à la hauteur est arrivé par voie basse Neuf mois dattente, j'peux tassurer que les soirs sont très longs Pendant ce temps-là, ta mère et moi, on s'tâte pour le choix d'ton prénom Prépare les cartons, on déménage de ce taudis tout moche On se met plus de pression quil y en a sur un body pour gosse Javance vers linconnu j'me dis cest beau la vie Ta mère se marre, jai confondu ta tête avec ton cul lors de léchographie Jtattends comme le messie, la route sera longue mais pas sans dur labeur Jespère quon sera soudé, du berceau au déambulateur Décembre 2015 avec ma tête ridée Jai vu ta mère crier après des heures dattentes à la maternité Jserai là pour que tu restes droit dans tes pompes si le malheur t'déchausse Fiston, jai rien dautre à toffrir que la valeur des choses Petit miroir, plus j'te regarde et plus je vois mon reflet Javais peur de ce rôle de père mais désormais j'te vois Je me croyais mort mais je vois en toi cette impression que j'renais Jtéviterai toutes mes erreurs pour que tu sois fier de moi Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferais tout pour pouvoir tabriter Tes mon petit miroir tu seras pas le reflet de mes erreurs Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferais tout pour pouvoir tabriter Tes mon petit miroir tu seras pas le reflet de mes erreurs1</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Parker Charlie</t>
+          <t>Pièges à loups</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Chacun leur tour, disent Je t'aime pour toujours enlacés au fond des draps Pourquoi parfois l'amour n'a qu'un goût de gueule de bois ? Ou bien d'un secret lourd enterré au fond des bois ? Morfondez-moi !, c'est ce que parfois pleure la 'zique que l'on joue Quand il n'y a plus de soleil même dans les yeux de l'Andalous Je t'offrirai les fleurs du ciel, celles qui rendent les anges jaloux Si seulement t'étais réelle... Mais en ces fables nous on s'étale, on s'est fait mal peut-être dans la chute J'aimerais repérer l'amour, l'expulser du mésencéphale, mais chut Quoi ? J'vois pas d'amoureuse endormie Et pour moi aucun avion n'arrive à 4h à Orly Le jazz est la solution Vient me souffler Parker Charlie Son amoureuse part au Pérou et lui accroche un bisou aux lèvres Mais y aura toujours un caillou caché dans une boule de neige Est-ce que c'est pire que l'amour en rêve ces souvenirs qui nous hantent ? Est-il possible que quelqu'un qui n'existe pas nous manque ? J'observe les flammes des voitures danser au plafond de ma chambre Comme une scène hallucinante de cinéma En caleçon sur mon lit, la solitude s'assied sur moi Le bien, le mal dérivent, même en prison me délivrent Et plus rien n'a d'importance, un démon s'endort sur la Bible Un coeur vide c'est monotone Malgré que passent les saisons parfois c'est toujours l'automne Dans les maisons L'amour secret je l'ai vu chouïa comme un chewing-gum dénaturé que le temps se mâchouilla Pourtant j'y crois, pratiquant plus que pour l'Seigneur Je rentre dans l'arène comme Maximus, avec force et honneur Mais parfois le soir j'ai peur Quand plus aucune mélodie n'atteint le fond de mon coeur tari Le jazz est la solution Vient me souffler Parker Charlie Parker Charlie ne perd jamais... son souffle Pour ça, dis-toi, je ferais bien de l'écouter si j'veux rester dans la course Si t'as la tristesse à tes trousses et la tête sur un contrat Sous clause de close combat Le seul à qui dans la trousse on interdisait le compas Quand personne ne te tient la main de la Saint-Valentin à décembre Regardez les humains, vous ne trouvez point que je leur ressemble ? Au moins un peu Je tâcherai d'avoir des idéaux et de parler un petit peu mieux Prendre à crédit une Peugeot et puis d'être content pour rien Il faut soigner les apparences pour être un bon contemporain Quel temps pourri J'aimerais qu'ils entendent tous ta voix pour comprendre mon ennui quand t'es pas là Ma mélodie, mon éternel, mon coeur Ma symphonie Ma féminine Parker Charlie</t>
+          <t>K.O Sur le MIC Pièges à loups c'est pour la meute Yeah Ne crois pas que c'est qu'un jeu car j'ai un peu des potes au ciel Un potentiel trop dangereux pour qu'on me laisse trop faire Ne crois pas que c'est pour rire quand je sors juste d'un mois pourri C'est écrit dans le Léviathan l'homme est un moi pour lui Tu sais que je suis un loup des steppes et des Appalaches Les coyotes girls en jean pas larges voudraient que leur lèchent la ch... Je tourne autour des lupanars ma présence les turlupine Quand ils observent les traces de mon empreinte lupine Les fables des femmes fontaines je boirais plus de leur oboles C'est de la que vient l'histoire du loup et de la gnole Des bergers et des chiens il faudra bien que je me venge Pour ça quand un agneau vient je l'emporte et le mange Le chasseur qui m'aura pas ouais. J'aurais aimé faire l'amour à toi Mais ma chérie t'es plus droguée qu'un lapin de laboratoire Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute J'ai jeté les armes d'assauts et ne suis presque plus voleur Je suis concentré sur les oiseaux qui pourraient chanter dans mon cur Je m'interroge sur ces panneaux qui disent que la chasse est ouverte En regardant mon louveteau. Mais quel avenir on lui réserve ? Il parait qu'on est des nuisible mais je regarde leurs usines Quand à force de confort ils ont construit leur suicide Les moutons ont tellement peur des vieilles histoires de loup Qu'ils sont castrés par des bergers sans jamais réfléchir du tout Là où mon image émerge ils craignent un risque imaginaire Et par une soumission réelle ils sont prisonniers volontaires Parfois la peine m'émeut mais c'est pas la peine de les mordre Parce qu'il se punissent tout seuls, l'espèce humaine est presque morte Les membres d'une même meute il arrive parfois qu'ils se mordent mais malgré les conflits jamais ils ne entre-dévorent Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Je porte mon louveteau dans la gueule et le dépose tout endormi Même si ça me brise le cur je sais mon petit à l'abri Je repars vers le bruit pour les éloigner du louveteau Un papa parfois est absent car il doit faire tout ce qu'il faut Même si ta truffe me fait défaut je lutterai jusqu'à l'échafaud J'ai du sang plein la gueule si je m'en sors ce soir c'est chaud Je me demanderai si j'ai bien fait aux premiers rayons de l'aube Car parfois j'évite un danger en me projetant dans l'autre Parfois je me sens aussi pourrir du manque que la famille m'a fait vivre Un loup peut aussi mourir de famine affective Je suis devenu éco-anxieux parce que des grand orages s'abattent On croit la nuit du black Sabbat ici les gangs de rage se battent Ceux qui uvrent dans l'obscurité atteignent aussi leur objectif Il faut savoir rester secret si la triche peut te rendre riche La pauvreté est une nymphomane que tout le monde peut posséder La richesse est une fille prude mais elle exige un procédé C'est toujours ceux qui ont triché pour avoir les bonnes cartes en mains Qui nous demandent de les respecter Ces règles du jeu quand ils sont bien. Bah ouais J'attendrais pas couz les prières, des piquouse et les cuillères Ou quon me secourt sur une civière Alors ne crois pas que ma musique soit neutre Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Alors ne crois pas que ma musique soit neutre Tout ceux qui usent mon énergie Que ma musique soit neutre Les médiocres et les jaloux Ni qu'on est peaceful dans la meute Les pièges à loups Yeah ! On est tous un peu balafrés quand on rap c'est l'émeute James Digger C'est pour l'émeute Dooz Kawa K.O Sur le MIC Pièges à loups c'est pour la meute Yeah Ne crois pas que c'est qu'un jeu car j'ai un peu des potes au ciel Un potentiel trop dangereux pour qu'on me laisse trop faire Ne crois pas que c'est pour rire quand je sors juste d'un mois pourri C'est écrit dans le Léviathan l'homme est un moi pour lui Tu sais que je suis un loup des steppes et des Appalaches Les coyotes girls en jean pas larges voudraient que leur lèchent la ch... Je tourne autour des lupanars ma présence les turlupine Quand ils observent les traces de mon empreinte lupine Les fables des femmes fontaines je boirais plus de leur obole C'est de la que vient l'histoire du loup et de la gnôle Des bergers et des chiens il faudra bien que je me venge Pour ça quand un agneau vient je l'emporte et le mange Le chasseur qui m'aura pas ouais. J'aurais aimé faire l'amour à toi Mais ma chérie t'es plus droguée qu'un lapin de laboratoire Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute J'ai jeté les armes d'assauts et ne suis presque plus voleur Je suis concentré sur les oiseaux qui pourraient chanter dans mon cur Je m'interroge sur ces panneaux qui disent que la chasse est ouverte En regardant mon louveteau. Mais quel avenir on lui réserve ? Il parait qu'on est des nuisible mais je regarde leurs usines Quand à force de confort ils ont construit leur suicide Les moutons ont tellement peur des vieilles histoires de loup Qu'ils sont castrés par des bergers sans jamais réfléchir du tout Là où mon image émerge ils craignent un risque imaginaire Et par une soumission réelle ils sont prisonniers volontaires Parfois la peine m'émeut mais c'est pas la peine de les mordre Parce qu'il se punissent tout seuls, l'espèce humaine est presque morte Les membres d'une même meute il arrive parfois qu'ils se mordent mais malgré les conflits jamais ils ne entre-dévorent Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Je porte mon louveteau dans la gueule et le dépose tout endormi Même si ça me brise le cur je sais mon petit à l'abri Je repars vers le bruit pour les éloigner du louveteau Un papa parfois est absent car il doit faire tout ce qu'il faut Même si ta truffe me fait défaut je lutterai jusqu'à l'échafaud J'ai du sang plein la gueule si je m'en sors ce soir c'est chaud Je me demanderai si j'ai bien fait aux premiers rayons de l'aube Car parfois j'évite un danger en me projetant dans l'autre Parfois je me sens aussi pourrir du manque que la famille m'a fait vivre Un loup peut aussi mourir de famine affective Je suis devenu éco-anxieux parce que des grand orages s'abattent On croit la nuit du black Sabbat ici les gangs de rage se battent Ceux qui uvrent dans l'obscurité atteignent aussi leur objectif Il faut savoir rester secret si la triche peut te rendre riche La pauvreté est une nymphomane que tout le monde peut posséder La richesse est une fille prude mais elle exige un procédé C'est toujours ceux qui ont triché pour avoir les bonnes cartes en mains Qui nous demandent de les respecter Ces règles du jeu quand ils sont bien. Bah ouais J'attendrais pas Les prières, des piquouse et les cuillères sur une civière Alors ne crois pas que ma musique soit neutre Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Alors ne crois pas que ma musique soit neutre Tout ceux qui usent mon énergie Que ma musique soit neutre Les médiocres et les jaloux Ni qu'on est peaceful dans la meute Les pièges à loups Yeah ! On est tous un peu balafrés quand on rap c'est l'émeute James Digger C'est pour l'émeute Dooz Kawa</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Petit miroir</t>
+          <t>Pommes pourries</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Quand t'es pas là mon âme est triste et quand t'es là je la maîtrise Jamais de drogue ou bien d'alcool ni de produits qui la meurtrissent J'suis les Air Max qui t'amortissent si tu chutes, au coin de l'immeuble Pendant ta sieste je vais dire chut, aux lascars qui beuglent Et quand t'as appris à marcher j'collais d'la mousse aux coins des meubles Faudrait pas que le mec de ta mère te touche car ça éviterait bien des meurtres On a tous fait des erreurs et des belles choses depuis l'enfance Ils mettront le poids qui les arrange du coté qu'ils veulent que la balance penche Quand ils te parleront de moi, je t'ai pas vu depuis décembre J'crois que ça fait tout rond deux mois Je sais qu'parfois papa te manque et j'voudrais pas qu'maman te mente Quand sur mon absence tu demandes pourquoi j'reviens plus jamais T'es comme ta mère t'as les yeux bleus couleurs bonbon Vicks délavé Mes plus grands vux étaient si pieux juste t'apprendre à faire tes lacets J'me demande si tu fais du cirque ou de la natation, si taimes autant la course à pied Est-ce que tu veux toujours devenir astronaute ou chef des pompiers ? Perdre parfois cest chouette, quand on a sa conscience pour soi Et des victoires qui sont amères, demande ta mère comment elle vit largent quelle perçoit Quand jétais un bébé fleur j'crois quon ma coupé mes lacets Mais même pieds nus, ton papa rappeur traverse la France pour tembrasser Je pourrai traverser ton enfance avec les yeux chargés de nuits Et jusquà ce que ta fièvre descende je resterai au bord de ton lit Les gens tont dit qu'ton papa est un gros con Que si tu le vois pas que cest pas à cause dun glaucome Mais les bâtards que nous évoquons ne vivent que des rêves clos, Je fais de notre appart un cocon, doù va éclore plein de battements de papillons De schmetterling et butterfly, je serai toujours fier de qui tu es Que tu sois dans un char AMX, ou sur un char de la gay pride Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferai tout pour pouvoir tabriter Tes mon petit miroir tu n'seras pas le reflet de mes erreurs Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferai tout pour pouvoir tabriter Tes mon petit miroir tu n'seras pas le reflet de mes erreurs Fini lépoque où j'cogite ivre en blablatant des promesses trop fictives Ma vie a basculé face à un test de grossesse positif J'pensais quaucun événement réanimerai ma joie d'base Cest fou, ce qui me pousse à être à la hauteur est arrivé par voie basse Neuf mois dattente, j'peux tassurer que les soirs sont très longs Pendant ce temps-là, ta mère et moi, on s'tâte pour le choix d'ton prénom Prépare les cartons, on déménage de ce taudis tout moche On se met plus de pression quil y en a sur un body pour gosse Javance vers linconnu j'me dis cest beau la vie Ta mère se marre, jai confondu ta tête avec ton cul lors de léchographie Jtattends comme le messie, la route sera longue mais pas sans dur labeur Jespère quon sera soudé, du berceau au déambulateur Décembre 2015 avec ma tête ridée Jai vu ta mère crier après des heures dattentes à la maternité Jserai là pour que tu restes droit dans tes pompes si le malheur t'déchausse Fiston, jai rien dautre à toffrir que la valeur des choses Petit miroir, plus j'te regarde et plus je vois mon reflet Javais peur de ce rôle de père mais désormais j'te vois Je me croyais mort mais je vois en toi cette impression que j'renais Jtéviterai toutes mes erreurs pour que tu sois fier de moi Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferais tout pour pouvoir tabriter Tes mon petit miroir tu seras pas le reflet de mes erreurs Cest ta naissance qui représente mon immortalité Même le moral vidé ta présence maide à braver les épreuves Contre limmoralité je ferais tout pour pouvoir tabriter Tes mon petit miroir tu seras pas le reflet de mes erreurs1</t>
+          <t>Qu'est-ce que c'est ? Qu'est-ce que c'est ? Ils sont venus me tuer ! Ils vont nous prendre nos femmes ! Des pommes pourries... Au nom des nôtres et que les autres goûtent à la poudre La main au coeur pour les pirates pendus aux poutres Des pommes pourries... Sur mon épaule un primate En nous coule le sang des pirates Parole de ce jour, soit celui... Où Jack Sparrow quitta son île déserte au coeur d'un archipel inconnu Sans nourriture avec mon sabre, un pistolet et une seule balle Qu'ils espéraient se voir tourner contre moi-même, sur mon lobe temporal Formentée par Mendosa, ancien pirate et gouverneur de Port-Royal La mutinerie de l'équipage perdant le nord me fit perdre mon navire la Perle Noire Et le peu d'espoir Pour m'échapper d'une mort certaine, stagnant trois jours dans les hauts-fonds Pour habituer à ma présence toute la faune sous-marine Attachant deux tortues marines puis emporté par les baïnes Rien n'est pire que les promesses de vengeance d'un pirate des Caraïbes Dérivant sur Sainte-Annesville Ce pirate que le rhum a rendu vil Méprisé par tous les hommes de la ville Reconstitue un équipage de flibustiers en mal de vivre Récupérant le Black Pearl au prix de quelques âmes maudites Où Jack Sparrow joua sa peine en un concert Mais le côté pirate est si vrai, pourri jusqu'à sous mon ciré Né sous le signe du Cancer M'ouvrant ton corset quand serre ton coeur Tu croyais vraiment être aimée par un corsaire ? Histoires de voyages vers les azurs de Singapour Les eaux turquoise de la Guadeloupe sont tous mes faux prétextes d'amour Jusqu'à ce qu'on hisse derrière moi le pavillon noir à tête de mort Sous ses sourcils des larmes se forment T'étais juste un point local sur mon escale Ou bien l'esclave qu'on porte à bord, pour que mes écumiers s'esclaffent Qu'importe la tâche, t'es qu'une putain de port d'attache Parce que la coque de mon vaisseau était prisonnère dans la vase D'ou l'accostage intempestif Si j'ai lâché l'ancre au large pour éviter les récifs Si tu mouilles à marée basse, passionnée par mes récits Ne sois pas triste et passe le rhum, le sabre et mon tricorne Ma puce, tu fais partie de ces petites putes que j'affectionne Le chant des pirates résonne Provoque l'effroi et sonne l'heure de ma vengeance Même si je dois manger froid Vois comme mes voiles partent en haillons C'est l'orage mon bataillon Des pommes pourries... Où Jack Sparrow terrorisa les océans Ma horde sauvage des boucs puants Un équipage de boucaniers maudits servant un capitaine au coeur avide Menace pirates des Caraïbes Brûlant, saccageant chaque navire marchand Dévalisant leur cale, violant leurs femmes Avant d'accoster enfin la ville côtière de Port-Royal Deux amoureux qui parlent en marchant La nuit est belle, ma chérie Je prie pour l'enfant que nous éduquons Tiens c'est bizarre J'entends comme siffler un boulet de ca... Sans compassion... J'observe brûler toutes les maisons Indifférent aux cris des femmes et des déflagrations La garde royale entre en action Les cannoniers à l'aveuglette tirent sans espoir Le clair de lune camouflant la Perle Noire sous un costard de brume J'avise la tour la plus haute où doit se trouver Mendosa Plonge dans l'écume Le crépuscule étreint la nuit Éteint les poutres mises à feu Tout n'est que cendres sur ce port militaire rocheux Frappé en plein coeur par ma horde Les citadins sont mis à mort Je défonce la porte du gouverneur Les domestiques se souillent de peur quand je plante mon sabre dans une gorge Et même mon regard les écorche Écoute sonner les cloches mais les renforts viendront trop tard En haut des marches, voici le tsar, Mendosa, qui trône, épée en main Dehors les miens chantonnent déjà leur victoire en ce refrain Des pommes pourries... Où Jack Sparrow devait finir, dans un pur combat à l'épée, son épopée Les duellistes se mettent en garde, et Mendosa ricane Je déploie mon arme, lui tire mon unique balle dans le crâne Et l'homme s'écroule dans un vacarme Ouais... Je suis qu'un pirate, j'me fous du combat loyal Pour oit ça</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Pièges à loups</t>
+          <t>Poupée de son</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>K.O Sur le MIC Pièges à loups c'est pour la meute Yeah Ne crois pas que c'est qu'un jeu car j'ai un peu des potes au ciel Un potentiel trop dangereux pour qu'on me laisse trop faire Ne crois pas que c'est pour rire quand je sors juste d'un mois pourri C'est écrit dans le Léviathan l'homme est un moi pour lui Tu sais que je suis un loup des steppes et des Appalaches Les coyotes girls en jean pas larges voudraient que leur lèchent la ch... Je tourne autour des lupanars ma présence les turlupine Quand ils observent les traces de mon empreinte lupine Les fables des femmes fontaines je boirais plus de leur oboles C'est de la que vient l'histoire du loup et de la gnole Des bergers et des chiens il faudra bien que je me venge Pour ça quand un agneau vient je l'emporte et le mange Le chasseur qui m'aura pas ouais. J'aurais aimé faire l'amour à toi Mais ma chérie t'es plus droguée qu'un lapin de laboratoire Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute J'ai jeté les armes d'assauts et ne suis presque plus voleur Je suis concentré sur les oiseaux qui pourraient chanter dans mon cur Je m'interroge sur ces panneaux qui disent que la chasse est ouverte En regardant mon louveteau. Mais quel avenir on lui réserve ? Il parait qu'on est des nuisible mais je regarde leurs usines Quand à force de confort ils ont construit leur suicide Les moutons ont tellement peur des vieilles histoires de loup Qu'ils sont castrés par des bergers sans jamais réfléchir du tout Là où mon image émerge ils craignent un risque imaginaire Et par une soumission réelle ils sont prisonniers volontaires Parfois la peine m'émeut mais c'est pas la peine de les mordre Parce qu'il se punissent tout seuls, l'espèce humaine est presque morte Les membres d'une même meute il arrive parfois qu'ils se mordent mais malgré les conflits jamais ils ne entre-dévorent Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Je porte mon louveteau dans la gueule et le dépose tout endormi Même si ça me brise le cur je sais mon petit à l'abri Je repars vers le bruit pour les éloigner du louveteau Un papa parfois est absent car il doit faire tout ce qu'il faut Même si ta truffe me fait défaut je lutterai jusqu'à l'échafaud J'ai du sang plein la gueule si je m'en sors ce soir c'est chaud Je me demanderai si j'ai bien fait aux premiers rayons de l'aube Car parfois j'évite un danger en me projetant dans l'autre Parfois je me sens aussi pourrir du manque que la famille m'a fait vivre Un loup peut aussi mourir de famine affective Je suis devenu éco-anxieux parce que des grand orages s'abattent On croit la nuit du black Sabbat ici les gangs de rage se battent Ceux qui uvrent dans l'obscurité atteignent aussi leur objectif Il faut savoir rester secret si la triche peut te rendre riche La pauvreté est une nymphomane que tout le monde peut posséder La richesse est une fille prude mais elle exige un procédé C'est toujours ceux qui ont triché pour avoir les bonnes cartes en mains Qui nous demandent de les respecter Ces règles du jeu quand ils sont bien. Bah ouais J'attendrais pas couz les prières, des piquouse et les cuillères Ou quon me secourt sur une civière Alors ne crois pas que ma musique soit neutre Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Alors ne crois pas que ma musique soit neutre Tout ceux qui usent mon énergie Que ma musique soit neutre Les médiocres et les jaloux Ni qu'on est peaceful dans la meute Les pièges à loups Yeah ! On est tous un peu balafrés quand on rap c'est l'émeute James Digger C'est pour l'émeute Dooz Kawa K.O Sur le MIC Pièges à loups c'est pour la meute Yeah Ne crois pas que c'est qu'un jeu car j'ai un peu des potes au ciel Un potentiel trop dangereux pour qu'on me laisse trop faire Ne crois pas que c'est pour rire quand je sors juste d'un mois pourri C'est écrit dans le Léviathan l'homme est un moi pour lui Tu sais que je suis un loup des steppes et des Appalaches Les coyotes girls en jean pas larges voudraient que leur lèchent la ch... Je tourne autour des lupanars ma présence les turlupine Quand ils observent les traces de mon empreinte lupine Les fables des femmes fontaines je boirais plus de leur obole C'est de la que vient l'histoire du loup et de la gnôle Des bergers et des chiens il faudra bien que je me venge Pour ça quand un agneau vient je l'emporte et le mange Le chasseur qui m'aura pas ouais. J'aurais aimé faire l'amour à toi Mais ma chérie t'es plus droguée qu'un lapin de laboratoire Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute J'ai jeté les armes d'assauts et ne suis presque plus voleur Je suis concentré sur les oiseaux qui pourraient chanter dans mon cur Je m'interroge sur ces panneaux qui disent que la chasse est ouverte En regardant mon louveteau. Mais quel avenir on lui réserve ? Il parait qu'on est des nuisible mais je regarde leurs usines Quand à force de confort ils ont construit leur suicide Les moutons ont tellement peur des vieilles histoires de loup Qu'ils sont castrés par des bergers sans jamais réfléchir du tout Là où mon image émerge ils craignent un risque imaginaire Et par une soumission réelle ils sont prisonniers volontaires Parfois la peine m'émeut mais c'est pas la peine de les mordre Parce qu'il se punissent tout seuls, l'espèce humaine est presque morte Les membres d'une même meute il arrive parfois qu'ils se mordent mais malgré les conflits jamais ils ne entre-dévorent Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Les pièges à loups Tout ceux qui usent mon énergie, les médiocres et les jaloux Les pièges à loups Les pièges à loups Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Alors ne crois pas que ma musique soit neutre, ni qu'on est peaceful dans la meute On est tous un peu balafrés quand on rap c'est l'émeute Je porte mon louveteau dans la gueule et le dépose tout endormi Même si ça me brise le cur je sais mon petit à l'abri Je repars vers le bruit pour les éloigner du louveteau Un papa parfois est absent car il doit faire tout ce qu'il faut Même si ta truffe me fait défaut je lutterai jusqu'à l'échafaud J'ai du sang plein la gueule si je m'en sors ce soir c'est chaud Je me demanderai si j'ai bien fait aux premiers rayons de l'aube Car parfois j'évite un danger en me projetant dans l'autre Parfois je me sens aussi pourrir du manque que la famille m'a fait vivre Un loup peut aussi mourir de famine affective Je suis devenu éco-anxieux parce que des grand orages s'abattent On croit la nuit du black Sabbat ici les gangs de rage se battent Ceux qui uvrent dans l'obscurité atteignent aussi leur objectif Il faut savoir rester secret si la triche peut te rendre riche La pauvreté est une nymphomane que tout le monde peut posséder La richesse est une fille prude mais elle exige un procédé C'est toujours ceux qui ont triché pour avoir les bonnes cartes en mains Qui nous demandent de les respecter Ces règles du jeu quand ils sont bien. Bah ouais J'attendrais pas Les prières, des piquouse et les cuillères sur une civière Alors ne crois pas que ma musique soit neutre Et je sais ce que nous fûmes, je crois savoir qui je suis J'sais pas encore ce que je cherche mais je sais ce que je fuis Les pièges à loups Alors ne crois pas que ma musique soit neutre Tout ceux qui usent mon énergie Que ma musique soit neutre Les médiocres et les jaloux Ni qu'on est peaceful dans la meute Les pièges à loups Yeah ! On est tous un peu balafrés quand on rap c'est l'émeute James Digger C'est pour l'émeute Dooz Kawa</t>
+          <t>Le bout de mes pas d'peloche se brûle sur l'amour au lasso J'bouge la tête comme la peluche de Mr. Oizo 12 K.O. T-Kaï ! Peut-être une marionnette animée par cinq ou six câbles Reliés à une boîte musicale Juste une poupée qui parle d'façon sincère Avec l'énorme clé qui s'insère dans ma colonne vertébrale Remonte le papier à musique et quand dans ma vie tout va mal Figurine, marquis de Sade, figurant des bacs à sable Cousu à ma capuche et sur mes épaules un cartable Rempli de pensées d'apocalypse Un nounours qui peu câline Depuis qu'elle préfère le robot avec ses piles alcalines L'ancien doudou qui perd ses fils est laissé à l'abandon Regard en boutons, immobile J'suis back dans les bacs, dans les bacs à jouets poupée de son J'suis back dans les bacs, dans les bacs, dans les bacs, dans les bacs à jouets J'ai préparé mon baluchon Juste un savon, un fil, une aiguille en cas d'accrochage J'manquerai à personne si j'm'évade Adorable nounours causaque Elle regarde même plus mes cascades en freelance Pour s'endormir au téléphone et parfois elle pleure en silence J'ai beau faire des galipettes, elle soupire aux étoiles filantes Pendant qu'j'l'observe la tête en bas Soldats de plomb, stoppez le combat car on a perdu son sommeil Depuis qu'elle met des boucles d'oreille Pourquoi tu dors plus avec moi ? Des millions d'bisous au réveil, si tu savais J'suis naufragé sur un récif avec ma meilleure amie amère Que même Donald est dépressif J'embrasse tous les jouets par centaines Avant d'sauter par la fenêtre dans le linge sale en bas qui traîne Quand tu liras ces quelques lignes J'serai déjà loin dans le bac à linge Mais j'ai oublié, pendentif à ton cou, cette clé qui sert à m'remonter Moi j'voulais vivre sans toi mais c'est raté Et si la mélodie cesse c'est que de battre mon coeur s'est arrêté C'est le come back de l'abeille en ruche J'suis rattrapé et ce malgré ma ruse Et sous ma capuche j'suis Steve McQueen mais en sac à puces Quand évadé de ma boîte à jouets j'atteins bien l'orée du jardin Mais j'suis reperé, ramassé dans la boue sur le chemin Prisonnier, Soupline, Viêt Minh, 6-7000 12 K.O. enfermé dans une machine Tourne en rond contre le carreau Tourne en rond, tourne en rond Tourne en rond, tourne en rond... Laissez-moi sortir1</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Pommes pourries</t>
+          <t>Poupée de son (alternative take)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Qu'est-ce que c'est ? Qu'est-ce que c'est ? Ils sont venus me tuer ! Ils vont nous prendre nos femmes ! Des pommes pourries... Au nom des nôtres et que les autres goûtent à la poudre La main au coeur pour les pirates pendus aux poutres Des pommes pourries... Sur mon épaule un primate En nous coule le sang des pirates Parole de ce jour, soit celui... Où Jack Sparrow quitta son île déserte au coeur d'un archipel inconnu Sans nourriture avec mon sabre, un pistolet et une seule balle Qu'ils espéraient se voir tourner contre moi-même, sur mon lobe temporal Formentée par Mendosa, ancien pirate et gouverneur de Port-Royal La mutinerie de l'équipage perdant le nord me fit perdre mon navire la Perle Noire Et le peu d'espoir Pour m'échapper d'une mort certaine, stagnant trois jours dans les hauts-fonds Pour habituer à ma présence toute la faune sous-marine Attachant deux tortues marines puis emporté par les baïnes Rien n'est pire que les promesses de vengeance d'un pirate des Caraïbes Dérivant sur Sainte-Annesville Ce pirate que le rhum a rendu vil Méprisé par tous les hommes de la ville Reconstitue un équipage de flibustiers en mal de vivre Récupérant le Black Pearl au prix de quelques âmes maudites Où Jack Sparrow joua sa peine en un concert Mais le côté pirate est si vrai, pourri jusqu'à sous mon ciré Né sous le signe du Cancer M'ouvrant ton corset quand serre ton coeur Tu croyais vraiment être aimée par un corsaire ? Histoires de voyages vers les azurs de Singapour Les eaux turquoise de la Guadeloupe sont tous mes faux prétextes d'amour Jusqu'à ce qu'on hisse derrière moi le pavillon noir à tête de mort Sous ses sourcils des larmes se forment T'étais juste un point local sur mon escale Ou bien l'esclave qu'on porte à bord, pour que mes écumiers s'esclaffent Qu'importe la tâche, t'es qu'une putain de port d'attache Parce que la coque de mon vaisseau était prisonnère dans la vase D'ou l'accostage intempestif Si j'ai lâché l'ancre au large pour éviter les récifs Si tu mouilles à marée basse, passionnée par mes récits Ne sois pas triste et passe le rhum, le sabre et mon tricorne Ma puce, tu fais partie de ces petites putes que j'affectionne Le chant des pirates résonne Provoque l'effroi et sonne l'heure de ma vengeance Même si je dois manger froid Vois comme mes voiles partent en haillons C'est l'orage mon bataillon Des pommes pourries... Où Jack Sparrow terrorisa les océans Ma horde sauvage des boucs puants Un équipage de boucaniers maudits servant un capitaine au coeur avide Menace pirates des Caraïbes Brûlant, saccageant chaque navire marchand Dévalisant leur cale, violant leurs femmes Avant d'accoster enfin la ville côtière de Port-Royal Deux amoureux qui parlent en marchant La nuit est belle, ma chérie Je prie pour l'enfant que nous éduquons Tiens c'est bizarre J'entends comme siffler un boulet de ca... Sans compassion... J'observe brûler toutes les maisons Indifférent aux cris des femmes et des déflagrations La garde royale entre en action Les cannoniers à l'aveuglette tirent sans espoir Le clair de lune camouflant la Perle Noire sous un costard de brume J'avise la tour la plus haute où doit se trouver Mendosa Plonge dans l'écume Le crépuscule étreint la nuit Éteint les poutres mises à feu Tout n'est que cendres sur ce port militaire rocheux Frappé en plein coeur par ma horde Les citadins sont mis à mort Je défonce la porte du gouverneur Les domestiques se souillent de peur quand je plante mon sabre dans une gorge Et même mon regard les écorche Écoute sonner les cloches mais les renforts viendront trop tard En haut des marches, voici le tsar, Mendosa, qui trône, épée en main Dehors les miens chantonnent déjà leur victoire en ce refrain Des pommes pourries... Où Jack Sparrow devait finir, dans un pur combat à l'épée, son épopée Les duellistes se mettent en garde, et Mendosa ricane Je déploie mon arme, lui tire mon unique balle dans le crâne Et l'homme s'écroule dans un vacarme Ouais... Je suis qu'un pirate, j'me fous du combat loyal Pour oit ça</t>
+          <t>C'est pour ces moments où t'as l'impression que tu gères plus ta vie, où t'es qu'une marionnette en faite, même moi j'suis juste une poupée, une poupée de son Le bout de mes pas d'peloche se brûle sur l'amour au lasso J'bouge ma tête comme la peluche de Mr. Oizo 12 K.O Peut-être une marionnette animée par cinq ou six câbles Reliés à une boîte musicale Juste une poupée qui parle d'façon sincère Avec l'énorme clé qui s'insère dans ma colonne vertébrale Remonte le papier à musique et quand dans ma vie tout va mal Figurine, marquis de Sade, figurant des bacs à sable Cousu à ma capuche et sur mes épaules un cartable Rempli de pensées d'apocalypse Un nounours qui peu câline Depuis qu'elle préfère le robot avec ses piles alcalines L'ancien doudou qui perd ses fils est laissé à l'abandon Regard en boutons, immobile J'suis back dans les bacs à jouets poupée de son J'suis back dans les bacs à jouets poupée de son Pousse ton ?, c'est le come back du sac à puces Du nounours cousu avec sa capuche Une peluche aux tatouages brodés Qu'on croirait mes bras tachés J'suis en concert dans une boite à jouets Le teddy dont ils s'souviennent Quand y a des peines à partager Celui qui s'endort près d'celle qui s'sent mal protégée 12 K.O., poupée de son, comme mes ? soldats de plomb Comme les X figurants vendus dans la même collection Et j'aime la première Barbie black amie de deux trois poupées russes Bardée d'une mini tunique, maquée d'un Ken sous barbituriques Tous les pions d'un libre arbitre qu'y a ses limites dans le reproduction sociale Et tous ces gens se croient libres mais les fils du marionnettiste anime cette scène théatrale Que peut faire une poupée de son, reliée à une boite musicale Ce moment où t'as l'impression qu'tu gères plus ta vie, où t'es qu'une marionnette frère, où même moi j'suis juste une poupée, une poupée de son</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Poupée de son</t>
+          <t>Prenez les escaliers</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Le bout de mes pas d'peloche se brûle sur l'amour au lasso J'bouge la tête comme la peluche de Mr. Oizo 12 K.O. T-Kaï ! Peut-être une marionnette animée par cinq ou six câbles Reliés à une boîte musicale Juste une poupée qui parle d'façon sincère Avec l'énorme clé qui s'insère dans ma colonne vertébrale Remonte le papier à musique et quand dans ma vie tout va mal Figurine, marquis de Sade, figurant des bacs à sable Cousu à ma capuche et sur mes épaules un cartable Rempli de pensées d'apocalypse Un nounours qui peu câline Depuis qu'elle préfère le robot avec ses piles alcalines L'ancien doudou qui perd ses fils est laissé à l'abandon Regard en boutons, immobile J'suis back dans les bacs, dans les bacs à jouets poupée de son J'suis back dans les bacs, dans les bacs, dans les bacs, dans les bacs à jouets J'ai préparé mon baluchon Juste un savon, un fil, une aiguille en cas d'accrochage J'manquerai à personne si j'm'évade Adorable nounours causaque Elle regarde même plus mes cascades en freelance Pour s'endormir au téléphone et parfois elle pleure en silence J'ai beau faire des galipettes, elle soupire aux étoiles filantes Pendant qu'j'l'observe la tête en bas Soldats de plomb, stoppez le combat car on a perdu son sommeil Depuis qu'elle met des boucles d'oreille Pourquoi tu dors plus avec moi ? Des millions d'bisous au réveil, si tu savais J'suis naufragé sur un récif avec ma meilleure amie amère Que même Donald est dépressif J'embrasse tous les jouets par centaines Avant d'sauter par la fenêtre dans le linge sale en bas qui traîne Quand tu liras ces quelques lignes J'serai déjà loin dans le bac à linge Mais j'ai oublié, pendentif à ton cou, cette clé qui sert à m'remonter Moi j'voulais vivre sans toi mais c'est raté Et si la mélodie cesse c'est que de battre mon coeur s'est arrêté C'est le come back de l'abeille en ruche J'suis rattrapé et ce malgré ma ruse Et sous ma capuche j'suis Steve McQueen mais en sac à puces Quand évadé de ma boîte à jouets j'atteins bien l'orée du jardin Mais j'suis reperé, ramassé dans la boue sur le chemin Prisonnier, Soupline, Viêt Minh, 6-7000 12 K.O. enfermé dans une machine Tourne en rond contre le carreau Tourne en rond, tourne en rond Tourne en rond, tourne en rond... Laissez-moi sortir1</t>
+          <t>Ouais salut, j'viens.. j'viens pour le casting Ben, j'fais des freestyles, j'rap un petit peu Ouais ouais, si tu veux je t'en fais un, pas d'soucis C'est un truc que j'ai écrit tout à l'heure, en attendant... La censure est en flammes, et il est affiché Lascenseur social est en panne, prenez les escaliers En cas d'épais écran d'ciné, évitez lascenseur social Prenez les escaliers J'arrêterais de rapper, navré si mon album est un navet Si un jour j'deviens mauvais comme un film à Guillaume Canet Si au contraire il est assez doux j'en ferais d'autres trop bon Sans casting comme Léa Seydoux, héritière de l'empire Gaumont J'espère que mes textes percutent, car ça joue sur le moral Sinon je m'exécute, comme 47 Samouraïs J'attends la scène finale où l'on coupe la tête à tous 120 jours d'anal, car le cinéma partouze Qu'on m'enferme pour du zetla moi j'suis pas bien pour Et j'ai rien fait pour être là un peu comme Charlotte Gainsbourg Il y a le fric et les débats, Nique la police je le dis pas Pas comme tout ces anciens rappeurs qui font des flics au cinéma Pour Joey Starr faut que j'dise pour rendre à césar, ben je... L'ai bien aimé dans Polisse mais pas quand il tape son singe Qui pousse des cris au 7ème ciel Au milieu de tout c'bordel Pourvu qu'il réveille Luis Buñuel x2 J'ai peut-être tort j'avoue, car tout le monde me tombe dessus J'me sens comme Victor Lanoux, dans les démons de Jésus Veuillez absoudre, mes arguments absurdes C'est comme dire, qu'un concours proposé par Canal Au jury composé par la famille Bohringer avait été remporté par le projet ... Bohringer Putain de lune Est-ce un acte qui se mul- -tiplie c'est comme demander si dans le porno les actrices simulent, tu piges ? L'enjeu financier si immense Réservé quand on y pense Par les gosses du népotisme Pistonnés sur les planches C'est plus Ils m'accusent d'en faire trop Comme leurs affiches qui polluent, les bus et les métro L'inégalité des chances a toujours engendré La Haine Demande à Saïd Taghmaoui ou Hubert Koundé Mais chut, pas à Vincent Cassel... x2 Foutez-moi ces cons à l'usine Comme ceux qui triment à Florange L'émotion en sera plus digne Quand ils la joueront au Cours Florent T'entend ? La révolte qui sonne T'auras le nez dans le ruisseau, comme Sonny Corleone Pète les plomb sur Carlo Rizzi Le jour où l'ciné se réveillera, il sera à feu et à sang Mais tu peux dormir tranquille vu les bourgeois du premier rang Tu penses que c'est bon comme ça ? Putain mais t'es débile pétasse C'est la France de Bokassa? Et des Nobilitas Fils à papa du cinéma Heureusement que ton père est né avant toi Pour que tu gargarises Mais tu es dénué de talent, de compétence et de charisme Le pays du népotisme et de petits arrangements On est, comme on est naît, le piston prime sur le talent Mais faut que vous vous rassuriez, entre autres J'aime beaucoup Alexandre Astier c'est un des vôtres ? x2 Alors..? Quoi j'suis pas pris ? Et c'est qui qui va jour le rôle alors, Casimir ? Pff, mais c'est même pas un humain Il a du réseau ouais...</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Poupée de son (alternative take)</t>
+          <t>Qui je suis</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>C'est pour ces moments où t'as l'impression que tu gères plus ta vie, où t'es qu'une marionnette en faite, même moi j'suis juste une poupée, une poupée de son Le bout de mes pas d'peloche se brûle sur l'amour au lasso J'bouge ma tête comme la peluche de Mr. Oizo 12 K.O Peut-être une marionnette animée par cinq ou six câbles Reliés à une boîte musicale Juste une poupée qui parle d'façon sincère Avec l'énorme clé qui s'insère dans ma colonne vertébrale Remonte le papier à musique et quand dans ma vie tout va mal Figurine, marquis de Sade, figurant des bacs à sable Cousu à ma capuche et sur mes épaules un cartable Rempli de pensées d'apocalypse Un nounours qui peu câline Depuis qu'elle préfère le robot avec ses piles alcalines L'ancien doudou qui perd ses fils est laissé à l'abandon Regard en boutons, immobile J'suis back dans les bacs à jouets poupée de son J'suis back dans les bacs à jouets poupée de son Pousse ton ?, c'est le come back du sac à puces Du nounours cousu avec sa capuche Une peluche aux tatouages brodés Qu'on croirait mes bras tachés J'suis en concert dans une boite à jouets Le teddy dont ils s'souviennent Quand y a des peines à partager Celui qui s'endort près d'celle qui s'sent mal protégée 12 K.O., poupée de son, comme mes ? soldats de plomb Comme les X figurants vendus dans la même collection Et j'aime la première Barbie black amie de deux trois poupées russes Bardée d'une mini tunique, maquée d'un Ken sous barbituriques Tous les pions d'un libre arbitre qu'y a ses limites dans le reproduction sociale Et tous ces gens se croient libres mais les fils du marionnettiste anime cette scène théatrale Que peut faire une poupée de son, reliée à une boite musicale Ce moment où t'as l'impression qu'tu gères plus ta vie, où t'es qu'une marionnette frère, où même moi j'suis juste une poupée, une poupée de son</t>
+          <t>Je suis mon propre subalterne Quand je me sens terne et vidé J'accroche mes circuits neuronaux aux idées Et les allume comme des lanternes D'où je me balance comme un singe La vie est moins dure que le sommeil L'hyper vigilance me réveille Et tout est plein de silence et Tout st peint par l'obscurité T'as l'impression quand tu t'ennuis Que toute ta vie est restée al Dans la présence de la nuit Et des insomnies vespérales Un alien sociabilisé qu'est toujours seul comme un zébra Avec une souffrance si profonde que personne peut le prendre dans ses bras Je suis un voyageur sur place Et ça rend fou mon entourage De jamais partir en vacances L'imagination m'entourage Me sens tout le temps en voyage Il suffit juste que j'y pense Et j'ai le goût de la goyave gwayav L'accent créole de Fort-de-France Qui je suis qui je suis Celui qui s'ennuie Qui connaît déjà la fin des phrases Avant qu'elles ne soient finies On me dit quand on me parle Que je m'absente apparemment Et d'un coup l'espace paraît vaste Je suis comme au bout de l'appartement Des êtres libres font ce qu'ils sont Et moi j'ai dû choisir fantôme Nous n'enfantons pas des enfants Je crois que nous enfantons des atomes Dans ma tête Quand il fait gris Je sais faire se lever le soleil C'est mon super pouvoir Faut dire A force de partir J'ai dû créer des repères-sonnels Qui je suis qui je suis Un paradoxe indéfini Je suis un dedans sans dehors D'intériorités infinies Nos connaissances sont que des doutes Je calcule tout sans euphorie Sans apprécier quand il le faut Car trouver par hasard le vrai C'est encore être dans le faux Puis Je vois comme des billes translucides Microscopiques qui sont l'espace autour de moi Et que chacune d'elles créent ce monde Selon leur position Par rapport à, comment nous voyons la vie Qu'à travers ces gouttelettes Et ce n'est qu'elle Que je perçois Je me sens conscient des choses Et puis je suis dans le blizzard Je suis perdu parfois Je sais qu'on dit que je suis bizarre Je suis victime d'une prise d'otage D'un cerveau qui ne s'arrête jamais Je ne sais pas vraiment qui je suis Quand je m'absente de moi la nuit J'ai l'impression pendant des mois Pendant que je dors Et au réveil Je me réincarne en moi Lorsque mon hyper vigilance Détourne un peu son attention Et me laisse enfin dormir Je suis une entité Qui, rejette toutes les religions Qui, imagine un genre de Dieu immanent Qui, vit au milieu de notre ventre Qui, est la chaleur et l'énergie Qui, fait lorsqu'on ferme les yeux On brille tous dans la nuit Et quand un jour je disparaîtrai en tant que moi Cette lumière ira ailleurs comme un feu follet sans émoi Je ne suis que le souvenir d'ailleurs que je laisse Dans l'esprit de ceux que j'ai aimé Je ne suis que l'éducation que j'ai eue Et les amis que j'ai croisés Les HLM où j'ai vécu Je suis des afférents sensitives Associé à votre mémoire Je suis le petit enfant sensible Qui jouait seul pendant des heures dans la baignoire Et je me vois comme éternel D'éléments qui me constituent Car si un jour la vie me tue Mon carbone trouvera une symbiose Et se formera une autre chose Ils ne comprennent pas ma position Et comment je suis neutre à leur cause On s'entend comme des positrons Et des antineutrinos Je ne possède de liberté Que la conscience d'être prisonnier Mais au moins Comme je le sais Je suis un peu plus libre Que ceux qui préfèrent l'ignorer Je suis calme et réservé Pourtant je fais beaucoup de bruit Comme plus de dix êtres Parce que j'ai peur de l'assumer et disparaître Je suis qu'un amas de cellules Qui fonctionnent dans une vague homéostasie Je suis un vaste monde complexe Et qui possède plus de neurones Qu'il n'y d'étoiles dans la galaxie Pourtant parfois j'ai pas les mots Pour ce qui est gravé dans mon sang Je suis tout à la fois Un chameau, un lion et un enfant Je suis tellement tout en même temps Pourtant je représente l'absence Et il n'y a qu'une chance que j'oublie tout C'est un concert en votre présence Et là Et là je me tiens debout devant vous</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Prenez les escaliers</t>
+          <t>Radio Rap</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ouais salut, j'viens.. j'viens pour le casting Ben, j'fais des freestyles, j'rap un petit peu Ouais ouais, si tu veux je t'en fais un, pas d'soucis C'est un truc que j'ai écrit tout à l'heure, en attendant... La censure est en flammes, et il est affiché Lascenseur social est en panne, prenez les escaliers En cas d'épais écran d'ciné, évitez lascenseur social Prenez les escaliers J'arrêterais de rapper, navré si mon album est un navet Si un jour j'deviens mauvais comme un film à Guillaume Canet Si au contraire il est assez doux j'en ferais d'autres trop bon Sans casting comme Léa Seydoux, héritière de l'empire Gaumont J'espère que mes textes percutent, car ça joue sur le moral Sinon je m'exécute, comme 47 Samouraïs J'attends la scène finale où l'on coupe la tête à tous 120 jours d'anal, car le cinéma partouze Qu'on m'enferme pour du zetla moi j'suis pas bien pour Et j'ai rien fait pour être là un peu comme Charlotte Gainsbourg Il y a le fric et les débats, Nique la police je le dis pas Pas comme tout ces anciens rappeurs qui font des flics au cinéma Pour Joey Starr faut que j'dise pour rendre à césar, ben je... L'ai bien aimé dans Polisse mais pas quand il tape son singe Qui pousse des cris au 7ème ciel Au milieu de tout c'bordel Pourvu qu'il réveille Luis Buñuel x2 J'ai peut-être tort j'avoue, car tout le monde me tombe dessus J'me sens comme Victor Lanoux, dans les démons de Jésus Veuillez absoudre, mes arguments absurdes C'est comme dire, qu'un concours proposé par Canal Au jury composé par la famille Bohringer avait été remporté par le projet ... Bohringer Putain de lune Est-ce un acte qui se mul- -tiplie c'est comme demander si dans le porno les actrices simulent, tu piges ? L'enjeu financier si immense Réservé quand on y pense Par les gosses du népotisme Pistonnés sur les planches C'est plus Ils m'accusent d'en faire trop Comme leurs affiches qui polluent, les bus et les métro L'inégalité des chances a toujours engendré La Haine Demande à Saïd Taghmaoui ou Hubert Koundé Mais chut, pas à Vincent Cassel... x2 Foutez-moi ces cons à l'usine Comme ceux qui triment à Florange L'émotion en sera plus digne Quand ils la joueront au Cours Florent T'entend ? La révolte qui sonne T'auras le nez dans le ruisseau, comme Sonny Corleone Pète les plomb sur Carlo Rizzi Le jour où l'ciné se réveillera, il sera à feu et à sang Mais tu peux dormir tranquille vu les bourgeois du premier rang Tu penses que c'est bon comme ça ? Putain mais t'es débile pétasse C'est la France de Bokassa? Et des Nobilitas Fils à papa du cinéma Heureusement que ton père est né avant toi Pour que tu gargarises Mais tu es dénué de talent, de compétence et de charisme Le pays du népotisme et de petits arrangements On est, comme on est naît, le piston prime sur le talent Mais faut que vous vous rassuriez, entre autres J'aime beaucoup Alexandre Astier c'est un des vôtres ? x2 Alors..? Quoi j'suis pas pris ? Et c'est qui qui va jour le rôle alors, Casimir ? Pff, mais c'est même pas un humain Il a du réseau ouais...</t>
+          <t>À tort depuis kid j'absorbe les liquides, l'absinthe elle est vide Absente et livide est ta tchaï Eh l'ami, tu peux m'passer la weed, le quet-br' et la pipe Elle tord, mal au bide Al'Tarba le beat et Kawa sur le mic Mafia sélénite, parfois c'est limite Et la vie les élimine pour des trucs si minables Si les mecs s'éliminent c'est qu'ils sont similaires Un gun sous doudoune et le look militaire Des crânes qui se rasent, des regards qui se croisent Et souvent des grandes gueules, une fois seules qui s'écrasent Finiront body bags allongés dans la cour comme 2Pac ou Shakur Des cris déchirent le coeur quand les maters accourent J'ai fait payer des dettes Traîné en bas des tours même si j'connais les têtes J'y vais, plus de détour Al'Tarba c'est ton tour Tu fais du radio rap d'eunuque à l'anus hémorragique On est venus briser ta nuque et laisser le peu-ra-plégique Dooz Kawa Quoi ?, t'as trop l'insulte flatteuse Al'Tarba Hein ?, repose la sulfateuse Au clair de la lune, un briquet, de l'alu Quand la lumière s'allume les démons me saluent C'est le monde insalubre Kawa est célèbre dans l'école de la rue 'vec des mauvais élèves Tout le monde se lève et l'on lit sur les lèvres Tous les rêves de la dune, que des fleurs de bitume Au clair de la lune, tu peux m'prêter ta plume Jerrican incendie, une chicane à 110 Bref, ricane on te gifle Snif ! Carrément triste puisqu'ici gisent L'hip-hopoposthume en complet costume Un couplet secoss et sa cause Ce gosse tue Tu causes... mais après ça qu'oses-tu ? J'pose et après ça cause plus Radio rap, MC C'pas grave si nous on passe en scred C'paragraphe c'est ton épitaphe en skeud Et même au lit on fait du bruit puisque toute la nuit on buzze On refait l'monde avec des scies... sauteuses</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Quatre saisons</t>
+          <t>Rap de branleur</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Dewolph x Sawmal - The Adventures of Huile Smith FatMan Blue SUPERMAGENTA - 0501 Luni - Noir 0601 Crime TEAm - Carmin - 0601 Biffty DJ Weedim - La Réincarnation du Turn up 2 0701 Beozedzed - Sept - 0801 Le2s - Inconnu - 1001 Maes - Réelle vie 1601 Nasme - Spécial Guest Vol.2 1901 Le Hu - Hustler - 2001 Barack Adama La Propagande Saison 1 - 2001 Demi Portion 2 Chez Moi - 2001 Take A Mic - Bipolaire - 2001 Vald - Agartha 2501 Louvar - Zénith 2701 Bigty - Christrip Vol.2 TEM 2701 Bizon Gbz - Le silence des agneaux 2701 Escobar Macson - Mr. Punchlines - 2701 KeBlack - Premier Étage - 2701 Sofiane - JeSuisPasséChezSo 2801 Six - La salle du temps - 2901 Ozkar Zulu - Orée artificielle 3101 Franc Parler BLT Tape Février - 0202 T.I.S DJ Cross-Y - Gotham City Kids Épisode 2 0302 Bazoo Nordinomouk - Jupiter 0302 Féfé Bess Sek Ibrahimovich - Amistad 0302 Mike Lucazz - Soleil Gelé 0302 Tonio Mc - Déstresse 0502 Euphonik - Inconnu Mais Reconnu II - 0602 Scoop J.Keuz - Maestria - 1002 Flaco - Mundo - 1002 Heskis - GG Allin EP 1202 Ou2s - La Machine Vol.2 - 1202 Yaska Dawan - 5 AM 1302 Sons Of Melody - La route est longue - 1302 Spider ZED - Mes ex - 1402 Krisy - Paradis d'amour - 1502 4keus Gang - Vois t'as vu 1502 Dawa O Mic - La Galette Mixtape 1602 Akissa - Opium - EP - 1702 Abou Debeing - Debeinguerie - 1702 Aladin 135 - Indigo 1702 Le Bon Nob - Ptit Con - 1702 Féfé - Mauve 1702 H3RY LÜCK - FORCE 2 - 1702 Hayce Lemsi - Électron Libre 2 1702 La Massfa - Frères d'armes - 1702 Nusky Vaati - BLUH 1702 Segä - Nos Futurs - 1702 Zaho - Le monde à l'envers 2202 JMK - Love Loyalty - 2402 A2H - Les hommes pleurent en hiver Winter Tape - 2402 Jok'Air - Big Daddy Jok - 2402 Médine - Prose Elite - 2402 O'Trak ChriStorm - Sublime abomination - 2402 Sianna - Diamant Noir - 2802 Pink Tee - Période des 16 Mars - 0103 Sameer Ahmad - Jovontae EP 0303 AlTarba - La nuit se lève 0303 GLK - Murder Réédition - 0303 Ghetto Phénomène - La Vida Loca - 0303 IAM - Rêvolution 0303 Ixzo - L'Ennemi - 0303 Jayel - Laboratoire - 0303 Rim'K - Fantôme - 0303 Stupeflip - Stup Virus - 0303 Lord Esperanza Majeur Mineur - Drapeau Noir 0403 Nosfer - BHD - 0503 So'Clock - Saut de l'ange 0603 Iron Sy - Amadou Malick chapitre 1 0603 Skreally Boy - 0703 Nedoua - 420 - 0803 Elh Kmer - Indépendant - 1003 Booba - Autopsie 0 1003 Daouf - Après coups 1003 Eklips - Lips Beat box album 1003 Fadah - Cet Art - 1003 Gen Zu Clan - Rois De Lunderground - 1003 Hooss - Temps plein - 1003 Phénomène Bizness - Pharaon - 1003 Sneazzy - Dieu bénisse Supersound Vol. 2 - 1203 Yaruki Records - Satori - 1503 Scars - Je suis comme ça 1703 Artiste multiples - Bendo - 1703 Dandyguel - Trophée - 1703 Deen Burbigo - Grand Cru - 1703 Djadja Dinaz - Dans L'Arène - 1703 Homi - Au-delà des Alpes 1703 Original Tonio - Monologue Social - 1703 Roméo Elvis Le Motel - Morale 2 1703 TRZ - La Rue tappelle - 2003 Jul - Album Gratuit Vol. 3 - 2003 Triplego - 2020 2103 Euphonik - Dieu est une Femme 2103 ODT - La marque de la bête 2403 Le 3eme il - Les 20 Ans - 2403 Les Sages Poètes de la Rue - Art Contemporain - 2503 T.I.S - 001 - 2703 Patee Gee - Basilic - 3003 Vîrus - Les Soliloques du Pauvre 3103 Babarr - Les 7 péchés kapitaux - 3103 Benash - CDG - 3103 Kekra - Vréel 2 - 3103 Lacrim - Force honneur - 3103 Scylla - Masque de chair - 3103 Slimka - No Bad Vol.1 Avril - 0204 Lasco - Le blood - 0604 Luni - Rose - 0704 Falcko - Manny 0704 Ideal Jim - Hannah - 0704 Le Dé - Napalm 0704 Andy Luidje - 404 0704 T-Nord - Persona non grata - 0704 Take A Mic - Boîte noire 1004 Baek - 2016 1004 Guy2Bezbar - Jungle vol.2 1404 AkaperA - Loup 1404 Majster - Le cur dans les mains 1404 DJ Erise - Rizer - 1404 FK - Purple Kemet 2 - 1404 Gaël Faye - Rythmes Botanique - 1404 Jorrdee - Avant - 1404 L.O.A.S - Tout me fait rire - 1604 Beeby - MALA 800 ORION 1704 Napo - NAPOlogie Vol.1 - 2004 Grems - P.O.M - 2104 Columbine - Enfants Terribles - 2104 Isha - La Vie Augmente Vol.1 - 2104 Mac Tyer - Banger 3 2104 Robse - Colibri - 2104 Veerus - Mercure - 2204 Meyso - MiseAJour 2404 Euphonik - Dieu est une Femme 2 2404 Mairo - 365 2504 La Prune - Reine Claude - 2704 Assy Youv Dee - Beta test - 2804 Damso - Ipséité 2804 Dolfa - Dolfa is the New Black - 2804 Don Choa - EP - 2804 Loud - New Phone - 2804 Wit. - Dawa 3004 Nelick - Load 22 - 3004 T.I.S DJ Cross-Y - Gotham City Kids Épisode 3 Mai 0105 Bazoo - B-T2PE 2 0205 Poupa Lost - Incantations - 0305 L'Or du Commun - Zeppelin 0305 Sirsy - Avant Yaro - 0505 Eddie Hyde - La malédiction du Nord - 0505 Elams - Réussir et mourir - 0505 Hooss - Première Presse 0505 Marlo Flexxx - Jeune Pimp 0505 Numbers - Femmes Ennemis - 0505 Sch - Deo Favente - 0605 Lonepsi - Les premiers sons du reste de ma vie 0905 Freeman - Sous la mine - 1005 Di-Meh - Focus Part. 1 1005 El Matador - Mâle Dominant - 1105 Nelick - LOAD 57 - 1205 Caballero JeanJass - Double Hélice 2 - 1205 Hartigan - Purgatoire 1205 Kamikaz - L'Outsider - 1205 Le Club - Hors série 1205 Quincy - Évolution - 1205 Sofiane - Bandit Saleté 1205 Supernova - Immortel 1305 Rochdi Krystal - Mélodies de la cave 1405 Nelick - LOAD 94 - 1505 Jorrdee - Belle de jour - 1505 Tengo John Ocho - NUV - 1705 A Little Rooster, Hash24 Sanka - Chanson pour les oreilles 1805 Massa Moon - Fréquences - 1905 Beny - Pepito est grand - 1905 Cenza - Les prophéties d'une plume 1905 Coyote Jo Bastard - L'Enfer avant le Paradis - 1905 DTF - Sans rêve - 1905 Kalash Criminel - Oyoki - 1905 LTF - 2014 - 1905 Lucio Bukowski Soulchildren - SIMORGH - 1905 Mister V - Double V - 1905 Naps - Pochon Bleu - 2405 Zeno - Beurre Sucre 2505 Emotion Lafolie - Dopamine 2605 Bradley - Askia 2605 Baka - Guêpier Paris - 2605 Cheu-B - Welcome To Skyland - 2605 Le Club - Série 97 2605 Les 10' - Artefacts Vol.1 Les 10 - 2605 Nov - Evo 2 - 2605 Panama Bende - ADN 2805 Akrapovic - Havana Devil Juin - 0106 Retro X - DIGI - 0106 Taipan - Parlons Beuh 0206 Stensy - Rotations 0206 Casse-Croute - Éléphant rose 0206 Driver - Maintenant j'suis chaud - 0206 Keny Arkana - Lesquisse 3 - 0206 La Fouine - Capitale Du Crime Censuré - 0206 Ladea - Alpha Leonis - 0206 Larry Kid - Contrôle - 0206 Les Alchimistes - Danslaloge 0406 Lil Taï Z - TAÏZ 0406 Bitu - No more lemon - 0506 Eden Dillinger - Olaf 0706 Nedoua - Septième étage - 0906 Disiz La Peste - Pacifique - 0906 Infinit' - NSMLM - 0906 Josman - 000 0906 La Canaille - 11.08.73 0906 Rekta - Hustle life - 0906 USKY - Outsider 1506 Bhati - OULYPO - 1506 Grems - Ep 1506 Fossoyeur Ékékil - Collision - 1606 Biffty DJ Weedim - Souyegod - 1606 Fixpen Sill - A4637 - 1606 Jok'Air - Je suis Big Daddy 1606 Nikkfurie Young Zee - Ignorez l'annonce 1606 TiTo Prince - Poetic justice 1606 Youssef Swatt's - Vers l'infini et au-delà 1905 Chich - Chich Volume 2 1906 La Caillasse - Pantheism 2106 L'Hexaler O.B.L. - Au nom de l'indépendance - 2306 Biffty DJ Weedim - Mega bonus - 2306 Bigflo Oli - La vraie vie - 2306 Dehmo - Ethologie - 2306 Georgio - Héra réédition - 2306 GLGV - S6MPLE SCHOOL - 2306 Makala - Gun Love Fiction - 2506 Lucci Lpee - PL1106 - 2606 GaT.Taca - ECG 2606 Ockney - Stand de tir 2806 Korohima - Ajna 3006 Alpha 5.20 - Blood Le Sang des Martyrs - 3006 Jul - Je ne me vois pas briller - 3006 Lomepal - Flip - 3006 Lucio Bukowski - Aucun potentiel commercial - 3006 Siboy - Spécial - 3006 T.I.S DJ Cross-Y - Gotham City Kids Épisode 4 Juillet 0107 LK de l'Hotel Moscou - Rose de Jéricho - 0507 Laylow - Digitalova - 0707 Alkpote - Les Marches de l'Empereur 0707 ALP - Épilogue - 0707 Ash Kidd - Mila 809 - 0707 Taïro - Summer Tape - 0707 Niro - OX7 - 0707 Fally Ipupa - Tokooos 1307 Royal - Orion - 1407 Multi-interprètes - Afrotrap Volume 1 - 1707 Barack Adama La Propagande Saison 2 - 1707 Lartiste - Projet 000 1707 Royal - Osiris - 1808 GaT.Taca - ÉPINEUSEMUSIQUE 1807 The S and Layon - Plein soleil - 2107 A2H - Summer Stories Kushtape Volume 3 2107 Matatix - Néant - 2107 Niro - M8RE 2307 Keustee - Le Bouquet Final 2307 Kokoro Lee - Osaleeka 2807 La Mannschaft - Indépendant des autres Août 0108 Sauveur Eloheem - L'Enfer 0208 Lacraps - Bootleg Vol. 1 0508 Faktiss - POV 1008 Dr Bériz - Popcorn 1108 YW - YW 1208 Hotel Paradisio - Reveri 1408 Euphonik - Dieu est une Femme 3 1608 DF Cerk - Chorus - 1808 Leo Roi - Meteo canicule - 2508 Alonzo - 100 Septembre - 0109 Soprano - L'Everest EP - 0809 Ninho - Comme prévu - 0809 PLK - Ténébreux - 1109 Freeze Corleone TheHashClique - THC - 1309 Blaiz - Jungle Bibi - 1309 LK de l'Hotel Moscou - Xanadu - 1409 Luni - Orange - 1509 Jul - Album Gratuit Vol. 4 1509 L'Affreux Jojo - Portraits gâchés - 1509 Naps - En équipe Vol. 1 - 1509 Sadek - Vulgaire, Violent et Ravi Dêtre Là 2009 SelaS - Algorithme - 2109 Népal - 445e nuit - 2109 Various Artists - Paris L.A. Bruxelles - 2209 Hugo TSR - Tant qu'on est là - 2209 Lefa - Visionnaire 2209 L-Kaïss - Razzia - 2209 Niska - Commando - 2209 Nov - Babe Tape 2209 TonyToxik - Infini - 2309 Jok'Air - Jok' Pololo 2509 Bizon Gbz - Iki 2809 L'Hexaler - Cuatro Estaciones - 2909 4keus Gang - Hors série 2909 Bastard Prod - 100 comme un chien 2909 Dernier Pro - Dans les yeux - 2909 Hornet La Frappe - Nous-mêmes - 2909 Hyacinthe - Sarah - 2909 Naza - Incroyable - 2909 Still Fresh - Cur noir Octobre - 0110 Beeby - Quatre saisons Vol. 3 0110 B-Biface - M. Personne - 0110 7 Jaws - Nautilus - 0310 VII - Les matins sous la lune - 0610 Ghetto Phénomène - En catimini 0610 Hesytap Squad - Pression - 0610 Jayel - Sens Interdit 0610 Nefaste - Dans mon monde - 0610 Sneazzy - Dieu bénisse Supersound Vol. 3 - 0910 Django - Anthracite - 1210 Assassam - Les Heures Perdues - 1310 Jarod - Attitude - 1310 Kalash - Mwaka Moon - 1310 Klub des Loosers - Le chat et autres histoires - 1310 Maska - Akhal Téke - 1610 Sully - PUBG 1910 Petrodollars - Outre Monde 2010 EX-ILE - Direction Est 2010 Katana - LÉpée II justice - 2010 OrelSan - La fête est finie 2010 P-dro - Jardin Noir 2410 Wit. - ONYX - 2510 Spider ZED - Figurine 2710 Flaco - La Fafa 2710 Godié - NUBE - 2710 Hamza - 1994 - 2710 Kennedy - Valar morghulis - 2710 Lord Esperanza - Polaroïd - 2710 Loud - Une année record - 2710 VSO Maxenss - Southcoaster - 2910 Jorrdee - D-A-VELLI Version rouge 3110 Artistes multiples - O'Trak présente Les Sons de la Crypte Novembre - 0311 Bigflo Oli - La Vraie Vie Version Deluxe - 0311 Davodka - Accusé de réflexion - 0311 Doums - Pilote - 0311 Kaaris - Dozo 0311 Keros-N - Bipolaire - 0311 MC Solaar - Géopoétique - 0311 Verso - Colère calme 0411 Kaki Montana - Bullet Proof Vol. 1 0611 Eli MC - Manque moi - 1011 Chilla - Karma - 1011 Dooz Kawa - Contes cruels - 1011 Franglish - Signature 1011 Geule Blansh - J'raconte - 1011 High Five Crew - Joli rouge 1011 Korohima - Antidote - 1011 L'Ordre du Périph - Vogue Merry 1011 Ménélik - Qlassiks Vol. 1 - 1011 MMZ - N'DA - 1011 XV - 404 Error - 1111 Lombre - Eau trouble 1111 Theorem de Gama - Ingressum - 1711 Azuul Smith - L'argent suffira - 1711 Black M - Éternel Insatisfait Réédition 1711 Freez - Les minutes vides - 1711 Lacrim - R.I.P.R.O, Vol. 3 1711 Passi - Les Tentations Édition collector 1997-2017 - 1711 Pumpkin Vin's da Cuero - Persona Non Gratis - 1711 Sinik - Drone - 2011 T.I.S - 002 2111 Baek - Baek - 2311 Kekra - Vréel 3 - 2411 Dadju - Gentleman 2.0 - 2411 Ichon - Il suffit de le faire 2411 KPoint - Trap'n'Roll - 2411 Lucio Bukowski - RequiemNativité 2411 Pejmaxx - Pejmaxx 2411 Slim Lessio - Fruit de paix - 2411 Sopico - Ëpisode 1 3011 2Spee Gonzales - City Light 3011 Elpea - Coucher de soleil Décembre - 0112 Booba - Trône - 0112 Clément Dumoulin - B.O. Tueurs - 0112 Furax Barbarossa Jeff Le Nerf - Dernier Manuscrit - 0112 Guizmo - Amicalement vôtre - 0112 Haristone - Off 0112 Hiro - De la Haine à l'Amour - 0112 Jul - La tête dans les nuages - 0112 Lomepal - Flip Deluxe 0212 Royal - Exodia 0312 Convok Mistral - Haschtag - EP - 0412 Butter Bullets - Air Mès et Hermax 0512 Namils - Oeil Noir - 0812 Astro 90 - PHANTOM 0812 Hache-P - Before - 0812 Hayce Lemsi - Eurêka 0812 I2H - Échantillons - 0812 Nixon - Tout se passe comme prévu - 0912 Jorrdee - D-A-VELLI version extra rouge BEFORE REHAB - 1312 Jorrdee - LESS 1512 La Main Gauche - Ni le même, Ni un autre 1512 Néochrome - Compilation Rap de banlieusard, Vol. 4 - 1512 Youv Dee - Gear 2 - 1812 Lutce - Pulsions 2012 Joe Cross - Artefacts Vol.3 2212 Green Money - Gnosis 2212 Majster - Je n'ai rien fait d'autre que mon travail, Mr Simba... 2212 Skreally Boy - Lo3 - 2412 T.I.S Nehr - Aller Simple volume 4 - Lost beats, last words 2512 La Prune - Eau de vie 2712 Orus - Lumière froide 3112 Lil Sheitan - Sur mon bateau pirate Autres Du 0809 au XXXX Sofiane - Rentre dans le cercle - Du 2403 au 1606 Bavoog Avers - Les logorrhées Du 0412 au XXXX Alkpote - Les Marches de l'Empereur Saison 310</t>
+          <t>Pour les branleuses, les branleurs, j'fais d'la 'zique qui rapproche Tout l'monde les bras en l'air pendant que j'vous vide les poches Comme Pink, les punks, les pit', j'suis un produit d'époque Que tout l'monde lève les bras pendant que j'vous brasse les poches Le monde du rap me dit Thank you Et pour les autres fils de pute, j'ai une grosse batte à cinq clous J'ai mal au mic comme un MC paraphrasé pas rassasié J'suis venu croquer Marianne même si sa chatte n'est pas rasée Débarrasser ma libido de tous mes désirs les plus bas J'ai fait picoler Carla et j'la sodomise dans l'plumard de ses parents Et c'est navrant comme c'est marrant l'insulte dans l'écriture Me disait ce fils de pute de directeur artistique de... Attends, j'te l'resitue Sortir ce hit qui tue, cet MC qui titube J'sais pas t'es qui mais tu sais quoi ? Vas-y remballe ton truc Car moi mon seul tube c'est la thune Sais-tu que sur YouTube j'connais des putes qui se prostituent juste pour payer leurs études ? Et elles ont plus de visites que oit avec leurs oid En tournant des films de uc à oilp à la webcam Et en plus leur seul salaire c'est un string Victoria Beckham Assis au bord de la falaise, tu sens bien j'suis trop balaise J'rappe celles qui s'en battent les fesses du théorème de Thalès Eh, baby, prends mon adresse, c'est au 38 que j'habite Là où les avions atterrissent et où les basses fracassent les vitres Et t'es barré mais faut qu'ça serve de faire le rappeur en soirée Et m'enflammer pour une méga chiée d'enfoirés qui dansent Moi l'assigné à résidence Dès ma naissance j'aurais aimé quitter la route Là où ça shoote dans tous les sens Le nombre de fils de pute augmente comme le prix de l'essence Réminiscence de mes concerts à vélo pour me faire piquer la selle Et sur scène c'est la merde, y a plus d'herbe même dans les chiottes La loi Évin a fait du bien au biz de coke Modernisé l'hip-hop Depuis, la racaille vous mitraille mais ne fout plus d'calottes Faire d'la maille frère, on sait faire pas quoi d'autre Mais ma 'zique et ses cuisses s'écartent Dooz Kawa, vodka russe, fait tomber les poils de chatte de vos capuches Et comment ça, t'es pas content de ton CD gravé gratuit ? T'as fait un clic avec ton oid et moi j'attrape froid sous la pluie Tu m'bassines, t'as pas d'style Des bad bitches, peut-être t'en baises quatre mille, mais sans contact tactile C'est la nouvelle génération qui suce des bites sur MSN Y a plus d'danger d'hépatite et elles peuvent baiser quand elles saignent Mais certaines scènes c'est trop mec J'étais l'premier à m'connec' dès qu'y a des trucs un peu dég' Pendant le délit d'fuite de Jean Sarkozy en mobylette J'baisais sa femme dans les toilettes Bon, bref J'ai mal au mic comme un MC paraphrasé pas rassasié J'suis venu croquer Marianne même si sa chatte n'est pas rasée Débarrasser ma libido de tous mes désirs les plus bas J'ai fait picoler Carla et j'la sodomise dans l'plumard</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Qui je suis</t>
+          <t>Rap sale</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Je suis mon propre subalterne Quand je me sens terne et vidé J'accroche mes circuits neuronaux aux idées Et les allume comme des lanternes D'où je me balance comme un singe La vie est moins dure que le sommeil L'hyper vigilance me réveille Et tout est plein de silence et Tout st peint par l'obscurité T'as l'impression quand tu t'ennuis Que toute ta vie est restée al Dans la présence de la nuit Et des insomnies vespérales Un alien sociabilisé qu'est toujours seul comme un zébra Avec une souffrance si profonde que personne peut le prendre dans ses bras Je suis un voyageur sur place Et ça rend fou mon entourage De jamais partir en vacances L'imagination m'entourage Me sens tout le temps en voyage Il suffit juste que j'y pense Et j'ai le goût de la goyave gwayav L'accent créole de Fort-de-France Qui je suis qui je suis Celui qui s'ennuie Qui connaît déjà la fin des phrases Avant qu'elles ne soient finies On me dit quand on me parle Que je m'absente apparemment Et d'un coup l'espace paraît vaste Je suis comme au bout de l'appartement Des êtres libres font ce qu'ils sont Et moi j'ai dû choisir fantôme Nous n'enfantons pas des enfants Je crois que nous enfantons des atomes Dans ma tête Quand il fait gris Je sais faire se lever le soleil C'est mon super pouvoir Faut dire A force de partir J'ai dû créer des repères-sonnels Qui je suis qui je suis Un paradoxe indéfini Je suis un dedans sans dehors D'intériorités infinies Nos connaissances sont que des doutes Je calcule tout sans euphorie Sans apprécier quand il le faut Car trouver par hasard le vrai C'est encore être dans le faux Puis Je vois comme des billes translucides Microscopiques qui sont l'espace autour de moi Et que chacune d'elles créent ce monde Selon leur position Par rapport à, comment nous voyons la vie Qu'à travers ces gouttelettes Et ce n'est qu'elle Que je perçois Je me sens conscient des choses Et puis je suis dans le blizzard Je suis perdu parfois Je sais qu'on dit que je suis bizarre Je suis victime d'une prise d'otage D'un cerveau qui ne s'arrête jamais Je ne sais pas vraiment qui je suis Quand je m'absente de moi la nuit J'ai l'impression pendant des mois Pendant que je dors Et au réveil Je me réincarne en moi Lorsque mon hyper vigilance Détourne un peu son attention Et me laisse enfin dormir Je suis une entité Qui, rejette toutes les religions Qui, imagine un genre de Dieu immanent Qui, vit au milieu de notre ventre Qui, est la chaleur et l'énergie Qui, fait lorsqu'on ferme les yeux On brille tous dans la nuit Et quand un jour je disparaîtrai en tant que moi Cette lumière ira ailleurs comme un feu follet sans émoi Je ne suis que le souvenir d'ailleurs que je laisse Dans l'esprit de ceux que j'ai aimé Je ne suis que l'éducation que j'ai eue Et les amis que j'ai croisés Les HLM où j'ai vécu Je suis des afférents sensitives Associé à votre mémoire Je suis le petit enfant sensible Qui jouait seul pendant des heures dans la baignoire Et je me vois comme éternel D'éléments qui me constituent Car si un jour la vie me tue Mon carbone trouvera une symbiose Et se formera une autre chose Ils ne comprennent pas ma position Et comment je suis neutre à leur cause On s'entend comme des positrons Et des antineutrinos Je ne possède de liberté Que la conscience d'être prisonnier Mais au moins Comme je le sais Je suis un peu plus libre Que ceux qui préfèrent l'ignorer Je suis calme et réservé Pourtant je fais beaucoup de bruit Comme plus de dix êtres Parce que j'ai peur de l'assumer et disparaître Je suis qu'un amas de cellules Qui fonctionnent dans une vague homéostasie Je suis un vaste monde complexe Et qui possède plus de neurones Qu'il n'y d'étoiles dans la galaxie Pourtant parfois j'ai pas les mots Pour ce qui est gravé dans mon sang Je suis tout à la fois Un chameau, un lion et un enfant Je suis tellement tout en même temps Pourtant je représente l'absence Et il n'y a qu'une chance que j'oublie tout C'est un concert en votre présence Et là Et là je me tiens debout devant vous</t>
+          <t>Dooz KO l'archiviste Hein, écoute ça Hein, et j'fais du sale mais ça nettoie Yeah Il a coulé de l'eau sous les ponts et entre les cuisses des filles frère J'ai pas la solution pour arrêter que j'me détruis, bref J'me sens si sale, c'est p't-être pour ça que j'suis si seul La même journée je baise trois meufs tout ça sans m'nettoyer la teub Et sans l'savoir elle s'ra un peu gouine La dernière qui me sucera goûtera la chatte d'ses deux copines J'ai trop d'spleen et si tu veux t'venger de moi Bah ouais j'comprends, et c'est pas grave, assieds-toi près d'la rivière Un jour y passera mon cadavre anthropophage et surconsommation d'humaines Je, pff, toujours l'absence des gens que j'aime Si tu savais, c'est pas un jeu, c'était d'la triche, j'étais pas prêt Une cicatrice et c'est parti, ma peau d'ange blanc s'est fait tatouer J'suis un enfant qui sait pas jouer On m'dit ' j'suis fou mais c'est pas vrai J'te promets que j'suis pas dingue Juste pour fuir la réalité, j'avance avec des forces éteintes Moi j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses mais sincèrement j'm'en bas les brosses Moi j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses, j'm'en bas les brosses Ça sert à rien d'déménager lorsque le ghetto est en toi Et à quoi bon tamouracher, prends le bédo et détends-toi Laisse couler de l'eau sous les ponts comme moi entre les cuisses des filles Sorry, j'suis trop saoulé par mes démons et aussi un peu par l'Whisky J'suis trilingue et pourtant j'ai qu'une parole J'suis polyglotte car je bois tous les alcools Je parle d'Marseille pas d'Massalia, on est tous assurés tous risques J'espère qu'le maire m'remerciera si j'aide à développer l'tourisme Nous ça fait bye-baille après les kiss J'ai pas peur de la mort j'ai peur d'être absent pour mon fils Et pourtant j'aime la vie, j'voudrais y rester Il m'reste encore tant d'choses à détester J'ai réussi des choses extrêmes un peu grâce à mon intuition Surtout grâce à mon inconscience La défonce est un arc-en-ciel sur l'obscurité d'un noir sens Allez donc dire aux gens que j'aime que je brille par mon absence Que j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses, j'm'en bas les brosses Moi j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses, hey frérot, j'm'en bas les brosses J'ai souvent ressenti la souffrance Loin de mon fils, lui dire au revoir chaque deuxième dimanche J'ai tellement la haine envers sa mère que j'pourrais lui trancher la egrog Mais j'vais pas l'faire, on est d'accord En plus j'crois que mon fils l'aime bien C'est grosse niatup, j'suis parti loin pour te construire un bel avenir Mais c'est une souffrance inhumaine , seul dans la ville car il paraît que j'suis instable Parce que j'ajoute tellement de filles que j'connais pas sur Insta J'ai jamais cherché à c'qu'ça marche donc on peut dire qu'j'ai réussi Je tue des connes au sexe, t'es trop mé-cra frère, tu déconnes sec J'voudrais même pas être le fantôme qui s'balade en draps dans ta tête Tu sais, même les gens cools te manquent Paye le calme à lextérieur en interne par des tourmentes Paraît que j'pète les plombs car mes bonheurs sont trop féroces et puis mes souffrances trop atroces Je déchire les biches qui approchent Ma joie est née pour être heureuse Si j'étais un animal je serais une panthère nébuleuse Dooz KO Que du rap sale, que du rap sale</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Radio Rap</t>
+          <t>Renaissance</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>À tort depuis kid j'absorbe les liquides, l'absinthe elle est vide Absente et livide est ta tchaï Eh l'ami, tu peux m'passer la weed, le quet-br' et la pipe Elle tord, mal au bide Al'Tarba le beat et Kawa sur le mic Mafia sélénite, parfois c'est limite Et la vie les élimine pour des trucs si minables Si les mecs s'éliminent c'est qu'ils sont similaires Un gun sous doudoune et le look militaire Des crânes qui se rasent, des regards qui se croisent Et souvent des grandes gueules, une fois seules qui s'écrasent Finiront body bags allongés dans la cour comme 2Pac ou Shakur Des cris déchirent le coeur quand les maters accourent J'ai fait payer des dettes Traîné en bas des tours même si j'connais les têtes J'y vais, plus de détour Al'Tarba c'est ton tour Tu fais du radio rap d'eunuque à l'anus hémorragique On est venus briser ta nuque et laisser le peu-ra-plégique Dooz Kawa Quoi ?, t'as trop l'insulte flatteuse Al'Tarba Hein ?, repose la sulfateuse Au clair de la lune, un briquet, de l'alu Quand la lumière s'allume les démons me saluent C'est le monde insalubre Kawa est célèbre dans l'école de la rue 'vec des mauvais élèves Tout le monde se lève et l'on lit sur les lèvres Tous les rêves de la dune, que des fleurs de bitume Au clair de la lune, tu peux m'prêter ta plume Jerrican incendie, une chicane à 110 Bref, ricane on te gifle Snif ! Carrément triste puisqu'ici gisent L'hip-hopoposthume en complet costume Un couplet secoss et sa cause Ce gosse tue Tu causes... mais après ça qu'oses-tu ? J'pose et après ça cause plus Radio rap, MC C'pas grave si nous on passe en scred C'paragraphe c'est ton épitaphe en skeud Et même au lit on fait du bruit puisque toute la nuit on buzze On refait l'monde avec des scies... sauteuses</t>
+          <t>Voiture qui crame Strasbourg Ma-ni-fes-to ! Voiture qui crame Strasbourg Je me souviens plus de la date mais dès ma naissance Je dois faire du cash comme né dans un porno De la chatte à Tabatha Cash, tu craches, les copeaux restent de bois Moi, jai des lyrics qui t'abattent, moi Jécris à la hache ce que personne n'éditera Moi, jai une vision trop large Comme eddie qui a joué un rouge depuis le premier jour Alors attends toi au pire, Haut-de-Pierre, Strasbourg Si tes en perm' mon frère jsuis venu en paix Mais y'a toujours les faux ennemis, les amis qui me détestent Au bar, ma mort viendra de lun deux mais je men bas Je renais à chaque mic test Un, deux, le jour de lan deviens un deuil A Noël y'a plus de sapin et le sapin devient cercueil Comment rester peace quand un sanglot serre ton cur ? Moi je te dis respire lambiance à chaud dans le secteur Sachez reconnaître le petit au sachet rempli de colle Mon ami en bas de chez toi ça sonne, cest Dooz KO, coca-sky à l'interphone Je décolle car je suis né en planant crash le Boeing sur le sol Terroriste de la nouvelle école Avec ma bombe de peinture, jinscris mon nom dans les bacs Un talent sûr, déjà reconnu par la BAC Dooz KO Dooz KO,dramatique, triste clan, premier acte Voiture qui crame Strasbourg Au commencement yavait rien Et pourtant ma feuille est bien blanche, putain Pour me sortir de ce pétrin, cest véridique je perds mes frères Dieu! Que mon album merdique soit une putain davant première Cest ma prière avant de passer au garrot et la cuillère Que je tombe sur le carreau alors beware MC, ange déchu je deviens fou lorsque jécris Et je mange plus, est-ce que je dois mettre ce mot là ? mais non ! Mais oui, putain dessine moi un mouton et jen fait un méchoui Petit prince du T-Kaï-Cee Perdu dans les étoiles comme Antoine de Saint-Exupery Mal vu comme je loup blanc, je vois la lune comme un husky Ici le monde est froid comme les glaçons de mon whisky Coca car jévite lH2O afin déviter la rouille Attention mauvais garçon dans la foule La minorité bruyante nerveuse boit Pour la majorité, silencieuse en bas de chez moi Létat représente le GIGN et la fouille Les masques à oxygène et la cagoule La mondialisation, OGM TIGAV prison et en plus ils disent quon gène Parce que dans la dépression on joue le rôle des strogènes Révolution de couleurs contre les larmes de la peine Car cest les bombes de peintures contre les bombes lacrymogènes Hasta siempre, cest la gerilla urbaine babe Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Cest le jour de ma renaissance Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Tout en sang, T-Kaï-Cee signe La bande de bourg-Stra, Palestine Dooz Kawa, pas destime Née dans une barricade, assommé aux briques dacide Entre hiver 67 tombé en mai 68, 45 tours HLM, là ou jhabite Mon flow palestinien se tape deux tours comme un hobbit A part les reufs jai rien alors jai assassiné le beat Juste pour une poignée de refrains Éclairé à la bougie et à léclair de mon gue-flin Panique quand le lampadaire séteint Orage mécanique, stroboscope du musée Grévin, mes écrits sont vains Écrivain à cire fondu, qui sétale au creux des mains Comme des gouttes de lumières, cest pour les miens Que jai atteint par le verbe, et je souffle afin Que le soleil séteigne lorsque cest archi la merde Regarde tomber le ciel, Archimède Sur ma tempe calcule le triangle du Desert Eagle Ma pupille se dilate jai un soleil noir dans lil cris et coup de feu Et je renais en Bob Dylan, y'a plus qua toquer au cercueil Pourquoi personne ne mouvre, Dieu, cest moi tu me reconnais ? Ok, je te dois de la maille, cest vrai que je suis beaucoup né Car jai souvent failli die Au point que la dernière fois à hôpital Mon notaire y était Croyant au rappeur mort comme Tupac ou monsieur grosse notoriété Et dans ma tête ça va plus, cest lheure de manifester Pas en marchant dans les rues pour se faire écouter Dernière leçon, faut tout cramer pour la révolution Ma-ni-fes-to Pour la révolution Voiture qui crame, Starsbourg Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Cest le jour de ma renaissance Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Tout en sang, T-Kaï-Cee signe La bande de bourg-Stra, Palestine Dooz Kawa, pas destime Ma-ni-fes-to Voiture qui crame, Starsbourg x8</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Rap de branleur</t>
+          <t>Roulette russe</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Pour les branleuses, les branleurs, j'fais d'la 'zique qui rapproche Tout l'monde les bras en l'air pendant que j'vous vide les poches Comme Pink, les punks, les pit', j'suis un produit d'époque Que tout l'monde lève les bras pendant que j'vous brasse les poches Le monde du rap me dit Thank you Et pour les autres fils de pute, j'ai une grosse batte à cinq clous J'ai mal au mic comme un MC paraphrasé pas rassasié J'suis venu croquer Marianne même si sa chatte n'est pas rasée Débarrasser ma libido de tous mes désirs les plus bas J'ai fait picoler Carla et j'la sodomise dans l'plumard de ses parents Et c'est navrant comme c'est marrant l'insulte dans l'écriture Me disait ce fils de pute de directeur artistique de... Attends, j'te l'resitue Sortir ce hit qui tue, cet MC qui titube J'sais pas t'es qui mais tu sais quoi ? Vas-y remballe ton truc Car moi mon seul tube c'est la thune Sais-tu que sur YouTube j'connais des putes qui se prostituent juste pour payer leurs études ? Et elles ont plus de visites que oit avec leurs oid En tournant des films de uc à oilp à la webcam Et en plus leur seul salaire c'est un string Victoria Beckham Assis au bord de la falaise, tu sens bien j'suis trop balaise J'rappe celles qui s'en battent les fesses du théorème de Thalès Eh, baby, prends mon adresse, c'est au 38 que j'habite Là où les avions atterrissent et où les basses fracassent les vitres Et t'es barré mais faut qu'ça serve de faire le rappeur en soirée Et m'enflammer pour une méga chiée d'enfoirés qui dansent Moi l'assigné à résidence Dès ma naissance j'aurais aimé quitter la route Là où ça shoote dans tous les sens Le nombre de fils de pute augmente comme le prix de l'essence Réminiscence de mes concerts à vélo pour me faire piquer la selle Et sur scène c'est la merde, y a plus d'herbe même dans les chiottes La loi Évin a fait du bien au biz de coke Modernisé l'hip-hop Depuis, la racaille vous mitraille mais ne fout plus d'calottes Faire d'la maille frère, on sait faire pas quoi d'autre Mais ma 'zique et ses cuisses s'écartent Dooz Kawa, vodka russe, fait tomber les poils de chatte de vos capuches Et comment ça, t'es pas content de ton CD gravé gratuit ? T'as fait un clic avec ton oid et moi j'attrape froid sous la pluie Tu m'bassines, t'as pas d'style Des bad bitches, peut-être t'en baises quatre mille, mais sans contact tactile C'est la nouvelle génération qui suce des bites sur MSN Y a plus d'danger d'hépatite et elles peuvent baiser quand elles saignent Mais certaines scènes c'est trop mec J'étais l'premier à m'connec' dès qu'y a des trucs un peu dég' Pendant le délit d'fuite de Jean Sarkozy en mobylette J'baisais sa femme dans les toilettes Bon, bref J'ai mal au mic comme un MC paraphrasé pas rassasié J'suis venu croquer Marianne même si sa chatte n'est pas rasée Débarrasser ma libido de tous mes désirs les plus bas J'ai fait picoler Carla et j'la sodomise dans l'plumard</t>
+          <t>La main sur la pétoire, j'me lève à 6 h du mat' pétantes Un narvalo, un dingue avec le doigt posé sur la détente J'suis invincible et j'vous tue tous, taillé pour le concours Lepine Impossible de passer son tour, adieu la joie bonjour déprime J'suis assis sur une chaise rouillée, dans un trou vraiment tout perdu J'en ai souillé des corps une tache de sang est sur la couverture J'suis un p'tit peu rodave, alors demain j'm'achete une nouvelle puc À moins de louper l'bus à force d trop jouer à la roulette russe C'est ta cervelle qui sera grillée, ça fera du poulet boucané J'entends le bruit du barillet, je sens la froideur du canon On y joue comme au backgammon, la gâchette, je l'ai taquinée Tu finis en sauce en guacamole, la me-ar n'est pas maquillée Si tu chicanes, on te démarre vite, surtout si tu viens sans tes gars Tu finiras p'tet comme Marvin abattu par Vincent Vega Clic clic, j'ai encore une balle Tu connais d'jà la fin d'l'histoire on va se faire encore du mal Tu veux jouer à la roulette russe ? j'crois que t'abuses des psychotropes Tourne le barillet si ça t'amuse et si ça fait un clic, on troque Votre connerie ma plus grosse charge, un poids que j''ai pas su porter Allez tous niquer vos races, je picole pour vous supporter Et lorsque j'perdrai mon entrain, que d'elle-même, cesse cette courte aubaine J'ferais une rencontre entre un M-16 et Kurt Cobain J'connais les craintes de ma copine de ne pas voir les dolmens de Carnac Que les relevés d'atropine me diagnostique une crise cardiaque L'humain est sombre et délétère et puis découpeur d'un tas d'arbres J'aimerais de mon sang aider la terre, j'le ferais jamais mieux qu'en cadavre J'suis vétérinaire depuis l'cartable Qui n'a jamais admis la fable de la vivisection des singes pour pouvoir sauver un notable Parce que ma musique te défoule, tu veux jouer à la roulette russe ? Parce que tu crois qu'on est des fous, mais qu'en-tout-cas, vous l'êtes plus ? J'suis d'ceux qui ont une vie de barge et ceux qui ont une vie rose rie Ne sont que des joueurs de guitare en concert dans une léproserie J'ai découpé tellement de corps et j'te parle pas du mien qui fane Et malgré l'autopsie des morts, j'y ai toujours pas trouvé d'âme Que nul ne pénètre ici s'il n'est pas géomètre Je sais déguiser en suicide ce qui pourrait p'tet être un meurtre J'me rappelle du Toulouse d'antan quand toi dans un geste t'hésites J'ai une pensée pour ces enfants endormis par cet anesthésiste Et tu crois que t'es un ouf, ben viens faire un tour dans ma tête Car j'ai de quoi couper le souffle au milieu d'la course d'un athlète Dans les eaux lourdes, j'suis un plongeur qui s'est coupé sur les coraux J'ai la narcose des profondeurs Jacques Mayol ou Jean Reno En vrai, on est qu'un accident, mais on partira oublié des foules Pas plus puissant qu'une rage de dents, car notre vie, ils s'en battent les couilles Frère, viennent t'asseoir à notre table, prends le flingue tourne le barillet Mais sache qu'les souffrances qui t'accablent ne sont qu'celles de l'humanité En mettant nos différences notables, on pourrait boire une bière ensemble Mais si on met nos couilles sur la table, l'un de nous va finir en sang J'ai vu mourir tellement d'enfant, que le cancer, c'est le Vietnam Que j'suis plus qu'un témoin dansant, qu'on dit dooz kawa devient naze Des petits bonhommes de huit ans, qui seraient devenus astronaute J'm'en ne remet pas après tout ce temps qu'ils auront jamais d'mauvaises notes Ils auront huit ans pour toujours et brillent dans la constellation Ils ont juste pris un peu d'avance et il me console dans le son J'essaie d'aider au maximum lorsque je vois où va se monde Mais j'ai toujours la sensation de porter comme un masque immonde Tu veux jouer à la roulette russe ? prends le flingue met le sur ma tempe J'aimerais juste que tu vises juste que ca s'arrête ce monde étrange Tu veux jouer à la roulette russe ? j'crois que t'abuses des psychotropes Tourne le barillet si ça t'amuse et si ça fait un clic, on troque Clic clic, chacun son tour, chacun sa mort, non c'est pas un concours Clic clic, passe le gun roulette russe, juste un cerveau troué de plus</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Rap sale</t>
+          <t>Sans pluie pas d’arc-en-ciel</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Dooz KO l'archiviste Hein, écoute ça Hein, et j'fais du sale mais ça nettoie Yeah Il a coulé de l'eau sous les ponts et entre les cuisses des filles frère J'ai pas la solution pour arrêter que j'me détruis, bref J'me sens si sale, c'est p't-être pour ça que j'suis si seul La même journée je baise trois meufs tout ça sans m'nettoyer la teub Et sans l'savoir elle s'ra un peu gouine La dernière qui me sucera goûtera la chatte d'ses deux copines J'ai trop d'spleen et si tu veux t'venger de moi Bah ouais j'comprends, et c'est pas grave, assieds-toi près d'la rivière Un jour y passera mon cadavre anthropophage et surconsommation d'humaines Je, pff, toujours l'absence des gens que j'aime Si tu savais, c'est pas un jeu, c'était d'la triche, j'étais pas prêt Une cicatrice et c'est parti, ma peau d'ange blanc s'est fait tatouer J'suis un enfant qui sait pas jouer On m'dit ' j'suis fou mais c'est pas vrai J'te promets que j'suis pas dingue Juste pour fuir la réalité, j'avance avec des forces éteintes Moi j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses mais sincèrement j'm'en bas les brosses Moi j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses, j'm'en bas les brosses Ça sert à rien d'déménager lorsque le ghetto est en toi Et à quoi bon tamouracher, prends le bédo et détends-toi Laisse couler de l'eau sous les ponts comme moi entre les cuisses des filles Sorry, j'suis trop saoulé par mes démons et aussi un peu par l'Whisky J'suis trilingue et pourtant j'ai qu'une parole J'suis polyglotte car je bois tous les alcools Je parle d'Marseille pas d'Massalia, on est tous assurés tous risques J'espère qu'le maire m'remerciera si j'aide à développer l'tourisme Nous ça fait bye-baille après les kiss J'ai pas peur de la mort j'ai peur d'être absent pour mon fils Et pourtant j'aime la vie, j'voudrais y rester Il m'reste encore tant d'choses à détester J'ai réussi des choses extrêmes un peu grâce à mon intuition Surtout grâce à mon inconscience La défonce est un arc-en-ciel sur l'obscurité d'un noir sens Allez donc dire aux gens que j'aime que je brille par mon absence Que j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses, j'm'en bas les brosses Moi j'fais du rap sale, que j'devrais boire du détergent Parce que pour nettoyer nos âmes il faudrait qu'on prenne un bain d'sang J'fais du rap sale mais j'nettoie comme un Dyson On est beaux gosses, hey frérot, j'm'en bas les brosses J'ai souvent ressenti la souffrance Loin de mon fils, lui dire au revoir chaque deuxième dimanche J'ai tellement la haine envers sa mère que j'pourrais lui trancher la egrog Mais j'vais pas l'faire, on est d'accord En plus j'crois que mon fils l'aime bien C'est grosse niatup, j'suis parti loin pour te construire un bel avenir Mais c'est une souffrance inhumaine , seul dans la ville car il paraît que j'suis instable Parce que j'ajoute tellement de filles que j'connais pas sur Insta J'ai jamais cherché à c'qu'ça marche donc on peut dire qu'j'ai réussi Je tue des connes au sexe, t'es trop mé-cra frère, tu déconnes sec J'voudrais même pas être le fantôme qui s'balade en draps dans ta tête Tu sais, même les gens cools te manquent Paye le calme à lextérieur en interne par des tourmentes Paraît que j'pète les plombs car mes bonheurs sont trop féroces et puis mes souffrances trop atroces Je déchire les biches qui approchent Ma joie est née pour être heureuse Si j'étais un animal je serais une panthère nébuleuse Dooz KO Que du rap sale, que du rap sale</t>
+          <t>Yeah J'ai tant de trucs à raconter yeah hey J'ai tant de trucs à raconter yeah J'ai hey tant de trucs à raconter hey yeah Yeah J'implore votre pardon D'être un tigre des montagnes Yo! J'ai pas connu l'amour mais que des filles histrioniques Qui avaient une plastique bionique Comme disait le duc de Nemour à la princesse de Clèves Alors vas-y baby on nique elle se brisait même les rêves Comme des biches d'où elle s'échappait mais se coince Se trouvant jamais assez riche se trouvant jamais assez mince Mes petites duchesses de Windsor Et j'ai eu bien de la tristesse en regrettant le joli corps de chacune depuis en rêvassant à l'autre ou l'une Moi j'attends qu'les nuits s'allument les yeux rivés sur les étoiles En espérant y voir sa lune La bataille a sonné sur des chevaux caparaçonnés On est venus tuer des amours qui sont toutes nues sous les armures pas sonné tu vois mon cur n'a pas sombré Malgré maintenant j'attaque et j'incendie Politique de la terre brulée j'ai tout détruit J'te laisse jouer le prochain coup Et j'te souhaite bien de la pluie sur les joues Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Tellement de déceptions de souvenirs à la machette De monuments de statues qui tournent la tête Et qui nous disent que les bagages s'alourdissent Ces moments où les mots nous mentent Pour peindre joliment notre âme Je crois c'est pour ça que j'en invente Mais je me sens perdu parfois d'être précurseur à chaque fois À force de pas suivre le chemin on doit le fabriquer à chaque pas Et pour tous ceux qui séchappent pas Je suis l'évasion d'une évasion Héritier du hip-hop dont je suis l'usufruit de la passion J'sais pas si on peut lire sur ses lèvres Que j'suis beau riche et célèbre mon trésor mais Désormais Moi j'fais parti des grands noms Qui auront tagué le mur du son pour toujours Depuis que je suis né un jour d'hiver, j'ai grandi un jour de pluie Dans la rubrique des faits divers tu verra ma biographie Après le beau temps vient la pluie j'espère Il aura pas suffit d'aimer il fallait savoir quoi en faire Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc en ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Je suis toujours en fuite pour des délits de la mineur Des arcs-en-ciel de nuit traversent la pluie laminaire Sortis des douches des lampadaires Pudiquement les ténèbres mettent une robe de chambre de lumière Ici si il pleut tous les jours ça signifie que les Sibyllines sont sous la douche La pluie sur la peau douce doucement fait glisser la mousse de camouflage Avant pour les comprendre on peinait grave maintenant les Sibyllines deviennent plus claires et pénétrables J'observe leurs Dooz Kawa on t'aime Si ma musique les touche je préfère voir ça entre elles Qui font voyager sans ailes S'épile le delta d'une île et pense Ticket de métro en île de France Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie J'ai yeah tant de choses à raconter yeah J'ai tant de choses à raconter J'implore votre pardon Tant de choses à raconter yeah D'être un tigre des montagnes</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Renaissance</t>
+          <t>Si ce monde...</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Voiture qui crame Strasbourg Ma-ni-fes-to ! Voiture qui crame Strasbourg Je me souviens plus de la date mais dès ma naissance Je dois faire du cash comme né dans un porno De la chatte à Tabatha Cash, tu craches, les copeaux restent de bois Moi, jai des lyrics qui t'abattent, moi Jécris à la hache ce que personne n'éditera Moi, jai une vision trop large Comme eddie qui a joué un rouge depuis le premier jour Alors attends toi au pire, Haut-de-Pierre, Strasbourg Si tes en perm' mon frère jsuis venu en paix Mais y'a toujours les faux ennemis, les amis qui me détestent Au bar, ma mort viendra de lun deux mais je men bas Je renais à chaque mic test Un, deux, le jour de lan deviens un deuil A Noël y'a plus de sapin et le sapin devient cercueil Comment rester peace quand un sanglot serre ton cur ? Moi je te dis respire lambiance à chaud dans le secteur Sachez reconnaître le petit au sachet rempli de colle Mon ami en bas de chez toi ça sonne, cest Dooz KO, coca-sky à l'interphone Je décolle car je suis né en planant crash le Boeing sur le sol Terroriste de la nouvelle école Avec ma bombe de peinture, jinscris mon nom dans les bacs Un talent sûr, déjà reconnu par la BAC Dooz KO Dooz KO,dramatique, triste clan, premier acte Voiture qui crame Strasbourg Au commencement yavait rien Et pourtant ma feuille est bien blanche, putain Pour me sortir de ce pétrin, cest véridique je perds mes frères Dieu! Que mon album merdique soit une putain davant première Cest ma prière avant de passer au garrot et la cuillère Que je tombe sur le carreau alors beware MC, ange déchu je deviens fou lorsque jécris Et je mange plus, est-ce que je dois mettre ce mot là ? mais non ! Mais oui, putain dessine moi un mouton et jen fait un méchoui Petit prince du T-Kaï-Cee Perdu dans les étoiles comme Antoine de Saint-Exupery Mal vu comme je loup blanc, je vois la lune comme un husky Ici le monde est froid comme les glaçons de mon whisky Coca car jévite lH2O afin déviter la rouille Attention mauvais garçon dans la foule La minorité bruyante nerveuse boit Pour la majorité, silencieuse en bas de chez moi Létat représente le GIGN et la fouille Les masques à oxygène et la cagoule La mondialisation, OGM TIGAV prison et en plus ils disent quon gène Parce que dans la dépression on joue le rôle des strogènes Révolution de couleurs contre les larmes de la peine Car cest les bombes de peintures contre les bombes lacrymogènes Hasta siempre, cest la gerilla urbaine babe Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Cest le jour de ma renaissance Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Tout en sang, T-Kaï-Cee signe La bande de bourg-Stra, Palestine Dooz Kawa, pas destime Née dans une barricade, assommé aux briques dacide Entre hiver 67 tombé en mai 68, 45 tours HLM, là ou jhabite Mon flow palestinien se tape deux tours comme un hobbit A part les reufs jai rien alors jai assassiné le beat Juste pour une poignée de refrains Éclairé à la bougie et à léclair de mon gue-flin Panique quand le lampadaire séteint Orage mécanique, stroboscope du musée Grévin, mes écrits sont vains Écrivain à cire fondu, qui sétale au creux des mains Comme des gouttes de lumières, cest pour les miens Que jai atteint par le verbe, et je souffle afin Que le soleil séteigne lorsque cest archi la merde Regarde tomber le ciel, Archimède Sur ma tempe calcule le triangle du Desert Eagle Ma pupille se dilate jai un soleil noir dans lil cris et coup de feu Et je renais en Bob Dylan, y'a plus qua toquer au cercueil Pourquoi personne ne mouvre, Dieu, cest moi tu me reconnais ? Ok, je te dois de la maille, cest vrai que je suis beaucoup né Car jai souvent failli die Au point que la dernière fois à hôpital Mon notaire y était Croyant au rappeur mort comme Tupac ou monsieur grosse notoriété Et dans ma tête ça va plus, cest lheure de manifester Pas en marchant dans les rues pour se faire écouter Dernière leçon, faut tout cramer pour la révolution Ma-ni-fes-to Pour la révolution Voiture qui crame, Starsbourg Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Cest le jour de ma renaissance Le jour de ma naissance jétais si petit Jai pris les couleurs de la violence et repeint la chapelle Sixtine Tout en sang, T-Kaï-Cee signe La bande de bourg-Stra, Palestine Dooz Kawa, pas destime Ma-ni-fes-to Voiture qui crame, Starsbourg x8</t>
+          <t>discussion entre Dooz Kawa et le philosophe Dorian Astor - Toute ma vie est un accident - Toute vie nest quun accident. En vocabulaire technique de philosophie, laccident cest ce qui arrive à une substance. Donc si on est quelquun, une substance, laccident cest tout ce qui nous arrive. Et les philosophes ont passé leur temps à essayer de séparer les deux Ah oui mais il y a la substance et puis il y a ce qui lui arrive ! Et puis il y en a dautres, parmi ceux que jaime, qui ont dit Mais... les substances cest TOUT ce qui lui arrive ! C'EST tout ce qui lui arrive. Cest ça qui est génial - Dans la nature, la notion de justice et d'injustice nexiste pas. Mais cest pareil pour lespoir et le désespoir. En fait cest lanalyse de ce que tu vis qui devrait pas exister DOOZ KAWA J'me suis assis dans le silence un jour sans trop savoir cest quoi Face au vide de mon existence à observer les étoiles Et quand tes seul face à toi-même les premiers temps sont la souffrance Avec le manque de ceux que taimes comme toxico-dépendance Je crois lenfer cest pas les autres car jaurais aimé vous y voir Mais quand tu traverseras lenfer il ny aura que des miroirs Jaimerais bien vous dire que le vide peut vous rapprocher du sacré Mais dans un doute parfois jhésite, et si ce monde nétait pas prêt ? On perdait prise quand on sisole et tes comme Tristan sans Yseult Jai beaucoup pensé à mon fils et jétais triste des fois si seul Jai abandonné des Messalines dans la pyramide de Maslow Et posé les fusils dassaut, ma seule armée s'ra le salut Je suis un ex-lascar dici qui a connu les trois-quarts des vices Et puis jai préféré lexil plutôt que prendre du Kardégic Jaimerais vous dire qu'la réussite se verra dans une vie daprès Mais dans un doute parfois jhésite, et si ce monde nétait pas prêt ? yeah KO Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Jsuis pas un être spirituel sauf quand les spiritueux maident J'ai traversé la solitude qui ma inspiré un remède Penser à la mort tous les jours a fait ressortir lessentiel Que les nuages devant lamour ne cachent pas lessence du ciel Quil faut apprendre à saimer seul, être égoïste et t'aider toi à te sauver Car si tu te noies tu ne pourras sauver personne Jaimerais vous dire ce qui arrive dépend pas que de nous en vrai Quil faut apprendre à lâcher prise, et si ce monde nétait pas prêt ? Jai préparé mon sac à dos, tourné la clé dans la serrure Resté figé quelques secondes parce que partir parfois cest dur Jai repris le chemin des frères et chopé Dah Co' au passage Nano pour le prochain concert et les trois guerriers du Nipalage Vont venir jouer dans vos villes, on est venus de loin à pied Et on serait des gros débiles si ce monde nétait pas prêt Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Un dernier rêve à la main et après jirai dormir Je fume lherbe de Valériane dans la rue et jréfléchis Avec ce cerveau embêtant jtourne autour de létang Jme dis qules femmes sont plus faciles à tromper que le temps Jregarde sréduire les effectifs attachés lun à lautre Mes seuls liens affectifs sont des menottes Jsuis parti avant quelle séveille Pourquoi pourquoi je vis la nuit Alors jessaie dfuir que lsoleil il brillera demain matin Laisse la nuit faire ses mystères Pourtant il me semble que le jour na jamais touché mon hémisphère Jme questionne sur lhumanité tous ces non-dits quils pigent pas Comme la fête de lHuma' chaque été en lhonneur de léveil ??? Tiberina ??? Et du NKVD Mes espoirs sont tellement vieux Quma musique est en noir et blanc Et même si ce monde est pas prêt Js'rai toujours soldat baladin Toujours armé de balles à blanc KO</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Roulette russe</t>
+          <t>Sisyphe</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>La main sur la pétoire, j'me lève à 6 h du mat' pétantes Un narvalo, un dingue avec le doigt posé sur la détente J'suis invincible et j'vous tue tous, taillé pour le concours Lepine Impossible de passer son tour, adieu la joie bonjour déprime J'suis assis sur une chaise rouillée, dans un trou vraiment tout perdu J'en ai souillé des corps une tache de sang est sur la couverture J'suis un p'tit peu rodave, alors demain j'm'achete une nouvelle puc À moins de louper l'bus à force d trop jouer à la roulette russe C'est ta cervelle qui sera grillée, ça fera du poulet boucané J'entends le bruit du barillet, je sens la froideur du canon On y joue comme au backgammon, la gâchette, je l'ai taquinée Tu finis en sauce en guacamole, la me-ar n'est pas maquillée Si tu chicanes, on te démarre vite, surtout si tu viens sans tes gars Tu finiras p'tet comme Marvin abattu par Vincent Vega Clic clic, j'ai encore une balle Tu connais d'jà la fin d'l'histoire on va se faire encore du mal Tu veux jouer à la roulette russe ? j'crois que t'abuses des psychotropes Tourne le barillet si ça t'amuse et si ça fait un clic, on troque Votre connerie ma plus grosse charge, un poids que j''ai pas su porter Allez tous niquer vos races, je picole pour vous supporter Et lorsque j'perdrai mon entrain, que d'elle-même, cesse cette courte aubaine J'ferais une rencontre entre un M-16 et Kurt Cobain J'connais les craintes de ma copine de ne pas voir les dolmens de Carnac Que les relevés d'atropine me diagnostique une crise cardiaque L'humain est sombre et délétère et puis découpeur d'un tas d'arbres J'aimerais de mon sang aider la terre, j'le ferais jamais mieux qu'en cadavre J'suis vétérinaire depuis l'cartable Qui n'a jamais admis la fable de la vivisection des singes pour pouvoir sauver un notable Parce que ma musique te défoule, tu veux jouer à la roulette russe ? Parce que tu crois qu'on est des fous, mais qu'en-tout-cas, vous l'êtes plus ? J'suis d'ceux qui ont une vie de barge et ceux qui ont une vie rose rie Ne sont que des joueurs de guitare en concert dans une léproserie J'ai découpé tellement de corps et j'te parle pas du mien qui fane Et malgré l'autopsie des morts, j'y ai toujours pas trouvé d'âme Que nul ne pénètre ici s'il n'est pas géomètre Je sais déguiser en suicide ce qui pourrait p'tet être un meurtre J'me rappelle du Toulouse d'antan quand toi dans un geste t'hésites J'ai une pensée pour ces enfants endormis par cet anesthésiste Et tu crois que t'es un ouf, ben viens faire un tour dans ma tête Car j'ai de quoi couper le souffle au milieu d'la course d'un athlète Dans les eaux lourdes, j'suis un plongeur qui s'est coupé sur les coraux J'ai la narcose des profondeurs Jacques Mayol ou Jean Reno En vrai, on est qu'un accident, mais on partira oublié des foules Pas plus puissant qu'une rage de dents, car notre vie, ils s'en battent les couilles Frère, viennent t'asseoir à notre table, prends le flingue tourne le barillet Mais sache qu'les souffrances qui t'accablent ne sont qu'celles de l'humanité En mettant nos différences notables, on pourrait boire une bière ensemble Mais si on met nos couilles sur la table, l'un de nous va finir en sang J'ai vu mourir tellement d'enfant, que le cancer, c'est le Vietnam Que j'suis plus qu'un témoin dansant, qu'on dit dooz kawa devient naze Des petits bonhommes de huit ans, qui seraient devenus astronaute J'm'en ne remet pas après tout ce temps qu'ils auront jamais d'mauvaises notes Ils auront huit ans pour toujours et brillent dans la constellation Ils ont juste pris un peu d'avance et il me console dans le son J'essaie d'aider au maximum lorsque je vois où va se monde Mais j'ai toujours la sensation de porter comme un masque immonde Tu veux jouer à la roulette russe ? prends le flingue met le sur ma tempe J'aimerais juste que tu vises juste que ca s'arrête ce monde étrange Tu veux jouer à la roulette russe ? j'crois que t'abuses des psychotropes Tourne le barillet si ça t'amuse et si ça fait un clic, on troque Clic clic, chacun son tour, chacun sa mort, non c'est pas un concours Clic clic, passe le gun roulette russe, juste un cerveau troué de plus</t>
+          <t>Mic test Dooz Kawa, han Vincenzo Loco au piano Wesh t'es là mon poto ? Rien à perdre, rien à gagner, cité en , Belsunce, Marseille J'étais l'enfant merdeux, des pensées démentielles J'crois qu'dans un bonbon bleu, j'ai du sucer mon ciel Dans ma tête c'est le bordel, j'devrais ranger ma chambre J'marche sur des LEGO spirituels quand je suis rempli de chanvre - T'as réussi mon poto pourquoi faut que tu t'accables ? Ls filles t'envoient ds photos d'leur piercing à la chatte - Mouais à voir, c'est un point de vue intéressant J'vais te raconter une histoire Souvent les harpies s'asseyent Puis regardent un homme qui s'épuise À rouler un rocher elles se regardent surprises L'une d'elle en perds sa prise, s'envole pour s'approcher On la dit moche et cruelle Elle était belle elle comme un oiseau mouillé Et bien qu'elle ne battait plus que d'une aile parvint agenouillée - dis-moi pourquoi tu t'attaches à cette épuisante tâche Au lieu de quitter l'enfer Et tous les jours tu rabâches ce qui revient à ne rien faire Sisyphe releva le crâne surpris ici par la gorgone Si elle comprends pas c'qui se trame c'est qu'elle devait être fort conne - Vois-tu si je m'escrime c'est pour mon somptueux palais Qui dépassera même les cimes des plus hauts sommets népalais Car vois-tu on n'est pas nés avec les mêmes ambitions Qui t'empêchent pas dapprécier tes repas damphitryons Tu peux trouver ça naze si je m'afflige une peine sans Reine C'est qu'au dessus du Roi y a l'As, ma belle Et je pousse toujours ma pierre Avec mes bras de gringalet Je pousse toujours ma pierre Et je vous fais bien rigoler Mais au fond elle désespère en la voyant dégringoler, yeah Et je pousse toujours ma pierre Avec mes bras de gringalet Je pousse toujours ma pierre Et je vous fais bien rigoler Mais au fond elle désespère en la voyant dégringoler, yeah Nous sommes parfois semblables et si autopersuasifs Pour nous rendre nous-mêmes esclaves comme Sisyphe Et dans nos sociétés rangées tu veux constituer ton pécule ? Je crois que le danger c'est de mourir sans avoir vécu Mes pieds sont collés au bitume et mes pensées sont dans la lune J'ai arrêté de penser que je pourrais trouver ma Rhune C'est la vie telle qu'elle est des beautés des désastres Je tiens debout malgré toujours écartelé par les astres Le souffle court et les chairs arrachées J'répète à ma chérie - T'inquiète un jour ça va marcher Je cherche des minéraux précieux mais rien ne s'en rapproche Alors que mon fils est heureux avec ses graviers dans la poche Et je pousse toujours ma pierre Avec mes bras de gringalet Je dois la faire bien rigoler et au fond elle désespère en la voyant dégringoler, yeah Et je pousse toujours ma pierre Avec mes bras de gringalet Je pousse toujours ma pierre Et je vous fais bien rigoler Mais au fond elle désespère en la voyant dégringoler, yeah Un enfant m'a demandé c'est dur à dire Mais si l'humain est insensé est-ce que le futur n'a plus d'avenir ? Tellement de cicatrices qu'on se fait les martyrs des lions Et ça me rends encore plus triste que découper un oignon Aujourd'hui de guerres trop las je redescends à pied En écoutant les podcasts d'Alexandre Astier Mon esprit un monde dévasté mais si tu veux namasté Moi dans le carnaval je n'avancerai plus masqué On a choisi par aisance qu'on endure car on construit Mais nous n'avons de connaissances que les murs de notre esprit Nos vies sont qu'des projets on vivra demain au plus tard On peut mourir demain sans avoir vécu sa life Mourir pour des illusions ou mourir par désillusion Moi j'ai fixé mon hamac sur les murs de mon balcon Et j'ai attaché du feu, fait prisonnier des gouttes d'eau Un dernier joint de beuh en attendant Godot Je prends plus de décisions décisives La vie m'a tant appris Mais si on est Sisyphe, dites-moi qui est la harpie Dites-moi qui est la harpie</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sans pluie pas d’arc-en-ciel</t>
+          <t>Sous la pluie</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Yeah J'ai tant de trucs à raconter yeah hey J'ai tant de trucs à raconter yeah J'ai hey tant de trucs à raconter hey yeah Yeah J'implore votre pardon D'être un tigre des montagnes Yo! J'ai pas connu l'amour mais que des filles histrioniques Qui avaient une plastique bionique Comme disait le duc de Nemour à la princesse de Clèves Alors vas-y baby on nique elle se brisait même les rêves Comme des biches d'où elle s'échappait mais se coince Se trouvant jamais assez riche se trouvant jamais assez mince Mes petites duchesses de Windsor Et j'ai eu bien de la tristesse en regrettant le joli corps de chacune depuis en rêvassant à l'autre ou l'une Moi j'attends qu'les nuits s'allument les yeux rivés sur les étoiles En espérant y voir sa lune La bataille a sonné sur des chevaux caparaçonnés On est venus tuer des amours qui sont toutes nues sous les armures pas sonné tu vois mon cur n'a pas sombré Malgré maintenant j'attaque et j'incendie Politique de la terre brulée j'ai tout détruit J'te laisse jouer le prochain coup Et j'te souhaite bien de la pluie sur les joues Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Tellement de déceptions de souvenirs à la machette De monuments de statues qui tournent la tête Et qui nous disent que les bagages s'alourdissent Ces moments où les mots nous mentent Pour peindre joliment notre âme Je crois c'est pour ça que j'en invente Mais je me sens perdu parfois d'être précurseur à chaque fois À force de pas suivre le chemin on doit le fabriquer à chaque pas Et pour tous ceux qui séchappent pas Je suis l'évasion d'une évasion Héritier du hip-hop dont je suis l'usufruit de la passion J'sais pas si on peut lire sur ses lèvres Que j'suis beau riche et célèbre mon trésor mais Désormais Moi j'fais parti des grands noms Qui auront tagué le mur du son pour toujours Depuis que je suis né un jour d'hiver, j'ai grandi un jour de pluie Dans la rubrique des faits divers tu verra ma biographie Après le beau temps vient la pluie j'espère Il aura pas suffit d'aimer il fallait savoir quoi en faire Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc en ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie Je suis toujours en fuite pour des délits de la mineur Des arcs-en-ciel de nuit traversent la pluie laminaire Sortis des douches des lampadaires Pudiquement les ténèbres mettent une robe de chambre de lumière Ici si il pleut tous les jours ça signifie que les Sibyllines sont sous la douche La pluie sur la peau douce doucement fait glisser la mousse de camouflage Avant pour les comprendre on peinait grave maintenant les Sibyllines deviennent plus claires et pénétrables J'observe leurs Dooz Kawa on t'aime Si ma musique les touche je préfère voir ça entre elles Qui font voyager sans ailes S'épile le delta d'une île et pense Ticket de métro en île de France Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie pas d'arc-en-ciel On saigne des larmes de mémoire J'ai du faire bruler mes logis Et mon cur est encore au service de brûlologie Sans pluie pas d'arc-en-ciel Mais que des incendies et des insensibleries Sans pluie, sans pluie, sans pluie pas d'arc-en-ciel Et je te souhaite bien de la pluie J'ai yeah tant de choses à raconter yeah J'ai tant de choses à raconter J'implore votre pardon Tant de choses à raconter yeah D'être un tigre des montagnes</t>
+          <t>On est passé entre les gouttes alors écoute tout en k-way On va rester comme le Talmud, des enfants comme Toutânkhamon On est passé entre les flaques, quelques éclaboussures au cur Malgré les fractures de fatigue, on a gardé des cicatrices En souvenir de la douleur même invisible Sauf si tu vois avec le cur, fais tes vérifs et dis-moi qui a tort, on A traversé l'périph' avec des parapluies Totoro Mais on est encore là Un peu plus abîmés qu'hier, nos sourires édentés t'énervent Avoue, notre entêtement à survivre t'émerveille Nos anges gardiens ont fait du zèle et comme nos mères veillent Mais bordel, on attend toujours nos paires d'ailes Tu sais te-Swif, on va survivre même si derrière nous, ça die Et qu'des frères disent bye bye, on traverse toute la night Renverse un peu d'sky car les meilleurs partent les premiers Donc toi et moi, on est encore là pour un bail Trou noir dans mon multivers, à présent c'est l'heure du p'tit cône Il pleut pire qu'à Buckingham, on a crevé l'il du cyclone Ils ont des tendances suicidaires comme cette pute de France puritaine J'ai avancé en solitaire, j'ai traversé des hurricanes Je nage pendant l'inondation, les flashs que font c'temps orageux Ne m'font pas peur, à mon courage, moi, je rends hommage J'demande la stérilisation, mon rap est assez audacieux J'entends des précipitations, j'ai pas l'temps d'passer aux aveux J'ai ramé comme un galérien, en plus j'étais l'plus déter' Tout ça parce qu'il le fallait bien, en pleine tempête du désert Moustique fait son raid aérien en zigzaguant entre les gouttes Tes problèmes ne sont pas les miens et j'me dis qu'faut rendre les coups Rendre les coups et puis les rendre aux gens J'ai observé des nuages bas avec des vents violents Des dépressions avec le nez sur la cess Les prévisions sont mauvaises, j'ai pressenti une averse Sous les orages, malgré les risques, j'ai pas dit Dieu, délivre-nous On avançait même quand ça glisse comme des scooters Deliveroo Lorsque tous les matins du monde ne semblaient revenir plus jamais Qu'on perdait dans la nuit profonde tous ceux restés en pyjama C'est comme Lacoste dans la ruelle, en fait on a ruiné la marque Un feat sélection naturelle, au mic, c'est Darwin et Lamarck Maintenant, on traverse les événements mais sans trop y laisser l'affect On garde des larmes pour nos mamans, pour l'reste, les réserves sont à sec Avec ces pluies qui nous transpercent, on n'a pas retourné nos vestes On garde l'antenne malgré la foudre et sous de vrais tonnerres de Brest On crée ou rien ne se transforme, à force de construire sur du vide On fait pousser des strophes sur tous les territoires stériles On r'vient de loin dans les taudis et encore, on n'est pas arrivé On t'a appris c'que tu savais et encore, on t'a pas tout dit On marche vers la fin du monde sans hâte Des lunettes noires et un cocktail et puis couché sur nos transats On r'gard'ra imploser l'soleil En vrai, j'ai l'esprit pris et ça depuis la cour d'école Où j'ai appris à marcher m'appuyant sur ma propre épaule On est encore là sur le quai même aigris, c'tait l'mot d'ordre Même si l'train file vers les nuages gris du Mordor On est beaucoup là aujourd'hui, toujours à attendre l'aurore Peu d'jours, beaucoup de nuits comme pour l'scénar' d'un film d'horreur J'ai pas eu l'temps d'vous dire merci et même s'il pleuvra quand même Profite de chaque éclaircie à prendre dans les bras les gens qu'on aime</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Si ce monde...</t>
+          <t>SPQR</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>discussion entre Dooz Kawa et le philosophe Dorian Astor - Toute ma vie est un accident - Toute vie nest quun accident. En vocabulaire technique de philosophie, laccident cest ce qui arrive à une substance. Donc si on est quelquun, une substance, laccident cest tout ce qui nous arrive. Et les philosophes ont passé leur temps à essayer de séparer les deux Ah oui mais il y a la substance et puis il y a ce qui lui arrive ! Et puis il y en a dautres, parmi ceux que jaime, qui ont dit Mais... les substances cest TOUT ce qui lui arrive ! C'EST tout ce qui lui arrive. Cest ça qui est génial - Dans la nature, la notion de justice et d'injustice nexiste pas. Mais cest pareil pour lespoir et le désespoir. En fait cest lanalyse de ce que tu vis qui devrait pas exister DOOZ KAWA J'me suis assis dans le silence un jour sans trop savoir cest quoi Face au vide de mon existence à observer les étoiles Et quand tes seul face à toi-même les premiers temps sont la souffrance Avec le manque de ceux que taimes comme toxico-dépendance Je crois lenfer cest pas les autres car jaurais aimé vous y voir Mais quand tu traverseras lenfer il ny aura que des miroirs Jaimerais bien vous dire que le vide peut vous rapprocher du sacré Mais dans un doute parfois jhésite, et si ce monde nétait pas prêt ? On perdait prise quand on sisole et tes comme Tristan sans Yseult Jai beaucoup pensé à mon fils et jétais triste des fois si seul Jai abandonné des Messalines dans la pyramide de Maslow Et posé les fusils dassaut, ma seule armée s'ra le salut Je suis un ex-lascar dici qui a connu les trois-quarts des vices Et puis jai préféré lexil plutôt que prendre du Kardégic Jaimerais vous dire qu'la réussite se verra dans une vie daprès Mais dans un doute parfois jhésite, et si ce monde nétait pas prêt ? yeah KO Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Jsuis pas un être spirituel sauf quand les spiritueux maident J'ai traversé la solitude qui ma inspiré un remède Penser à la mort tous les jours a fait ressortir lessentiel Que les nuages devant lamour ne cachent pas lessence du ciel Quil faut apprendre à saimer seul, être égoïste et t'aider toi à te sauver Car si tu te noies tu ne pourras sauver personne Jaimerais vous dire ce qui arrive dépend pas que de nous en vrai Quil faut apprendre à lâcher prise, et si ce monde nétait pas prêt ? Jai préparé mon sac à dos, tourné la clé dans la serrure Resté figé quelques secondes parce que partir parfois cest dur Jai repris le chemin des frères et chopé Dah Co' au passage Nano pour le prochain concert et les trois guerriers du Nipalage Vont venir jouer dans vos villes, on est venus de loin à pied Et on serait des gros débiles si ce monde nétait pas prêt Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Jignore le chant des Sycomores, je vis dans un monde hors du temps Où jai parfois cette impression dêtre comme un oxymore vivant Parfois cette impression dêtre arrivé au bout de tout Et même dans lexcès des frissons de nen ressentir plus le goût Un dernier rêve à la main et après jirai dormir Je fume lherbe de Valériane dans la rue et jréfléchis Avec ce cerveau embêtant jtourne autour de létang Jme dis qules femmes sont plus faciles à tromper que le temps Jregarde sréduire les effectifs attachés lun à lautre Mes seuls liens affectifs sont des menottes Jsuis parti avant quelle séveille Pourquoi pourquoi je vis la nuit Alors jessaie dfuir que lsoleil il brillera demain matin Laisse la nuit faire ses mystères Pourtant il me semble que le jour na jamais touché mon hémisphère Jme questionne sur lhumanité tous ces non-dits quils pigent pas Comme la fête de lHuma' chaque été en lhonneur de léveil ??? Tiberina ??? Et du NKVD Mes espoirs sont tellement vieux Quma musique est en noir et blanc Et même si ce monde est pas prêt Js'rai toujours soldat baladin Toujours armé de balles à blanc KO</t>
+          <t>SPQR cest lemblème, ouais Yeah Il y a long long time, quand le monde sentame Jme souviens de lhistoire que racontent les fables Quand des oiseaux en flammes, comme des flèches de pluie Dans la nuit tombaient du ciel comme à Pompéi Cétait mon pays ou un rêve qui magite Jme souviens que jsuis né dans la Rome antique Aphrodite menseignait tout lart romantique Dans des camps sous tonnell, Marc-Aurèle en tête Puis on tir sur des maisons, lintérieur en terre cuite Dans une vie antérieure dune période antonyme Jai été empereur, je le ressens tellement Je crois pas qujimagine lhéritier dcavalerie Durant le plus élevé des dix-huit centuries Yeah, jai promulgué la paix par du sang Des tueries, jeu de vins, jeu de corps Des esclaves encore nus on avait pour décor Les femelles des vaincus, je devins corrompu Par le tendre et le vice, cétait pas le temps des cerises Mais le temps dÉleusis Dans la fumée du styrax on fit le pacte suivant Que le premier légionnaire qui meurt, revienne Pour enseigner les vivants Que le premier légionnaire qui meurt, revienne Pour enseigner les vivants La mémoire dHadrien, le latin impérial Dans lombre du matin de la colonne Trajane La mort de lempereur, où peut-il, pleut des larmes Je revois les oiseaux dor, des boisseaux en flammes Une dernière fois livresse dans des flèches de pluie La nuit tombait du ciel, puis Jaimais César, Iola, Antoneus, Messaline Et puis ces oiseaux-là comme nos défunts Sur un bateau en flamme vers la cité de Tyr Que mes soldats salignent, quon pratique la décimation Un sur dix, assassine, quon motive mes légions Je pressens leffondrement à cause des séditions mineures De lhonneur en décadence et des tensions dAsie mineure Jappréciais pas ces chiens qui me nuisent et qui musent Entre la secte des Chrétiens et lintolérance des Juifs Insociabile regnum nous dit Titus Le pouvoir se partage pas demande aux Étrusques Et à notre infanterie en désespoir de cause, je pose que ce Jésus Cest une réponse infantile à la désolation des pauvres Je pose que ce Jésus, cest une réponse infantile à la désolation des pauvres Yeah, go, ouais Je crois que maurait classé dans le groupe Dissociation schizophrénique du réel, qui me coupe Le souffle, comme une section du nerf phrénique Choisissez bien vos persona proche de vos personnalités Dabord lesprit sadapte, puis il sépuise dans la durée Rêve et réalité collapsent et le réveil peut vous tuer Une fleur qui séveille au soleil en douceur Un enfant qui sréveille la nuit dans la terreur Jsuis un enfant de cavalier, allez jai pas peur Nan, réminiscence de vies antérieures De vies antérieures Un arrière-goût de sang, des combats de gladiateurs Réminiscence de vies antérieures Réminiscence de vies antérieures Mes pensées me gangrènent Jessaye de couper mon membre fantôme SPQR cest lemblème Je reste debout, même tout seul dans Rome</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sisyphe</t>
+          <t>Star</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Mic test Dooz Kawa, han Vincenzo Loco au piano Wesh t'es là mon poto ? Rien à perdre, rien à gagner, cité en , Belsunce, Marseille J'étais l'enfant merdeux, des pensées démentielles J'crois qu'dans un bonbon bleu, j'ai du sucer mon ciel Dans ma tête c'est le bordel, j'devrais ranger ma chambre J'marche sur des LEGO spirituels quand je suis rempli de chanvre - T'as réussi mon poto pourquoi faut que tu t'accables ? Ls filles t'envoient ds photos d'leur piercing à la chatte - Mouais à voir, c'est un point de vue intéressant J'vais te raconter une histoire Souvent les harpies s'asseyent Puis regardent un homme qui s'épuise À rouler un rocher elles se regardent surprises L'une d'elle en perds sa prise, s'envole pour s'approcher On la dit moche et cruelle Elle était belle elle comme un oiseau mouillé Et bien qu'elle ne battait plus que d'une aile parvint agenouillée - dis-moi pourquoi tu t'attaches à cette épuisante tâche Au lieu de quitter l'enfer Et tous les jours tu rabâches ce qui revient à ne rien faire Sisyphe releva le crâne surpris ici par la gorgone Si elle comprends pas c'qui se trame c'est qu'elle devait être fort conne - Vois-tu si je m'escrime c'est pour mon somptueux palais Qui dépassera même les cimes des plus hauts sommets népalais Car vois-tu on n'est pas nés avec les mêmes ambitions Qui t'empêchent pas dapprécier tes repas damphitryons Tu peux trouver ça naze si je m'afflige une peine sans Reine C'est qu'au dessus du Roi y a l'As, ma belle Et je pousse toujours ma pierre Avec mes bras de gringalet Je pousse toujours ma pierre Et je vous fais bien rigoler Mais au fond elle désespère en la voyant dégringoler, yeah Et je pousse toujours ma pierre Avec mes bras de gringalet Je pousse toujours ma pierre Et je vous fais bien rigoler Mais au fond elle désespère en la voyant dégringoler, yeah Nous sommes parfois semblables et si autopersuasifs Pour nous rendre nous-mêmes esclaves comme Sisyphe Et dans nos sociétés rangées tu veux constituer ton pécule ? Je crois que le danger c'est de mourir sans avoir vécu Mes pieds sont collés au bitume et mes pensées sont dans la lune J'ai arrêté de penser que je pourrais trouver ma Rhune C'est la vie telle qu'elle est des beautés des désastres Je tiens debout malgré toujours écartelé par les astres Le souffle court et les chairs arrachées J'répète à ma chérie - T'inquiète un jour ça va marcher Je cherche des minéraux précieux mais rien ne s'en rapproche Alors que mon fils est heureux avec ses graviers dans la poche Et je pousse toujours ma pierre Avec mes bras de gringalet Je dois la faire bien rigoler et au fond elle désespère en la voyant dégringoler, yeah Et je pousse toujours ma pierre Avec mes bras de gringalet Je pousse toujours ma pierre Et je vous fais bien rigoler Mais au fond elle désespère en la voyant dégringoler, yeah Un enfant m'a demandé c'est dur à dire Mais si l'humain est insensé est-ce que le futur n'a plus d'avenir ? Tellement de cicatrices qu'on se fait les martyrs des lions Et ça me rends encore plus triste que découper un oignon Aujourd'hui de guerres trop las je redescends à pied En écoutant les podcasts d'Alexandre Astier Mon esprit un monde dévasté mais si tu veux namasté Moi dans le carnaval je n'avancerai plus masqué On a choisi par aisance qu'on endure car on construit Mais nous n'avons de connaissances que les murs de notre esprit Nos vies sont qu'des projets on vivra demain au plus tard On peut mourir demain sans avoir vécu sa life Mourir pour des illusions ou mourir par désillusion Moi j'ai fixé mon hamac sur les murs de mon balcon Et j'ai attaché du feu, fait prisonnier des gouttes d'eau Un dernier joint de beuh en attendant Godot Je prends plus de décisions décisives La vie m'a tant appris Mais si on est Sisyphe, dites-moi qui est la harpie Dites-moi qui est la harpie</t>
+          <t>Dooz Kawa, T Kaï Cee Etoile du sol Pour que tombeau des lucioles s'enflamment Air Max crevées, T-shirt troué, juste un gosse de rue sans charme Cyrano c'est pas moi, si t'es Roxanne cherche ailleurs L'amoureux épris de toi Pose une larme sur chaque buvard et on les gobe tous à la fois Ces bonbons sont des chimères on risque pas la crise de foie Toujours dans le monde imaginaire frère, pour oublier le froid Ce soir y'avait rien à manger j'en ai même repris deux fois J'suis tellement souvent ailleurs que j'en oublie qu't'es avec moi J'me souviens jamais d'hier et tu t'inquiètes de mon état Comme d'hab ce soir j'escalade la goutière pour venir dormir chez toi T'es ma seule issue d'secours et l'unique échapatoire Quand j'vois une porte rouge et que j'veux la repeindre en noir J'ai tellement du mal à cerner mes désirs contradictoires si tu savais Ils veulent exploser nos rêves qui sont blottis dans quelques bulles de savon et n'aspiraient qu'à monter Comme une star étoile du sol mais j'ai le syndrome d'Icare étoile du sol Tu crois vraiment que j't'oublie quand je compose toute la nuit Et qu't'as du vague a l'âme, mais t'es le do d'ma mélodie C'est juste une petite note mais elle supporte toue la gamme Moi j'plane et j'monte tellement haut qu'j'ai brulé mes ailes au soleil Mais à chaque fois qu'tu m'tiens la main c'est pour pas qu'j'tombe dans la merde Plus terre à terre tu me retiens comme une amarre et m'aide à fermer les yeux Quand j'veux toujours téma la bas t'es ma .. I'm careful not to fall have to climb your wall Problems with the booze nothing left to lose I'm weightless Yo, fais attention Ils nous traquent même dans les bus et les philistins m'accusent Parce que pour moi leur système c'est comme du morse en russe J'prendrais toujours la gélule rose Si j'avais le choix de Morpheus tant pis si eux n'atteindront jamais zion Nous on fait jamais l'amour dans les cieux malgré ces murs qui montent si haut Et c'est que pour notre duo ce petit texte personnel J'cace-dédi pour celles qui manquent à l'appel Celle que... Qu'est d'ja parti quand le public me rappelle Tu t'endors en attendant que j'revienne mais le spectacle doit continuer Malgré les traits sur mon rimmel, j'ai mal au mic malade atteint de délinquance aigüe J'pourrais poser des rimes elle ? jusqu'à la déliquescence de toutes les neiges éternelles Mais moi, comme Anakin, j'repousse le coté obs', trop d'prises de risques Mais mon T-Kaï est en crise, j'suis qu'un élément mythologique Comme Osiris même si il pleut danse avec moi sur la piste Pour une fois que tombent des gouttes indépendantes de nos iris Dès que tu m'touches j'ai plus l'blues parce que t'es ma t'es ma I'm careful not to fall have to climb your wall Cause you're the one who makes me feel much taller than you are I'm just a peeping Tom on my own for far too long Problems with the booze nothing left to lose I'm weightless, I'm bare3</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sous la pluie</t>
+          <t>Story d’une souris triste</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>On est passé entre les gouttes alors écoute tout en k-way On va rester comme le Talmud, des enfants comme Toutânkhamon On est passé entre les flaques, quelques éclaboussures au cur Malgré les fractures de fatigue, on a gardé des cicatrices En souvenir de la douleur même invisible Sauf si tu vois avec le cur, fais tes vérifs et dis-moi qui a tort, on A traversé l'périph' avec des parapluies Totoro Mais on est encore là Un peu plus abîmés qu'hier, nos sourires édentés t'énervent Avoue, notre entêtement à survivre t'émerveille Nos anges gardiens ont fait du zèle et comme nos mères veillent Mais bordel, on attend toujours nos paires d'ailes Tu sais te-Swif, on va survivre même si derrière nous, ça die Et qu'des frères disent bye bye, on traverse toute la night Renverse un peu d'sky car les meilleurs partent les premiers Donc toi et moi, on est encore là pour un bail Trou noir dans mon multivers, à présent c'est l'heure du p'tit cône Il pleut pire qu'à Buckingham, on a crevé l'il du cyclone Ils ont des tendances suicidaires comme cette pute de France puritaine J'ai avancé en solitaire, j'ai traversé des hurricanes Je nage pendant l'inondation, les flashs que font c'temps orageux Ne m'font pas peur, à mon courage, moi, je rends hommage J'demande la stérilisation, mon rap est assez audacieux J'entends des précipitations, j'ai pas l'temps d'passer aux aveux J'ai ramé comme un galérien, en plus j'étais l'plus déter' Tout ça parce qu'il le fallait bien, en pleine tempête du désert Moustique fait son raid aérien en zigzaguant entre les gouttes Tes problèmes ne sont pas les miens et j'me dis qu'faut rendre les coups Rendre les coups et puis les rendre aux gens J'ai observé des nuages bas avec des vents violents Des dépressions avec le nez sur la cess Les prévisions sont mauvaises, j'ai pressenti une averse Sous les orages, malgré les risques, j'ai pas dit Dieu, délivre-nous On avançait même quand ça glisse comme des scooters Deliveroo Lorsque tous les matins du monde ne semblaient revenir plus jamais Qu'on perdait dans la nuit profonde tous ceux restés en pyjama C'est comme Lacoste dans la ruelle, en fait on a ruiné la marque Un feat sélection naturelle, au mic, c'est Darwin et Lamarck Maintenant, on traverse les événements mais sans trop y laisser l'affect On garde des larmes pour nos mamans, pour l'reste, les réserves sont à sec Avec ces pluies qui nous transpercent, on n'a pas retourné nos vestes On garde l'antenne malgré la foudre et sous de vrais tonnerres de Brest On crée ou rien ne se transforme, à force de construire sur du vide On fait pousser des strophes sur tous les territoires stériles On r'vient de loin dans les taudis et encore, on n'est pas arrivé On t'a appris c'que tu savais et encore, on t'a pas tout dit On marche vers la fin du monde sans hâte Des lunettes noires et un cocktail et puis couché sur nos transats On r'gard'ra imploser l'soleil En vrai, j'ai l'esprit pris et ça depuis la cour d'école Où j'ai appris à marcher m'appuyant sur ma propre épaule On est encore là sur le quai même aigris, c'tait l'mot d'ordre Même si l'train file vers les nuages gris du Mordor On est beaucoup là aujourd'hui, toujours à attendre l'aurore Peu d'jours, beaucoup de nuits comme pour l'scénar' d'un film d'horreur J'ai pas eu l'temps d'vous dire merci et même s'il pleuvra quand même Profite de chaque éclaircie à prendre dans les bras les gens qu'on aime</t>
+          <t>Voici l'histoire d'un souriceau qui vivait tout près d'un ruisseau Dans l'entaille d'une muraille qu'était cachée par un buisson Dont les ambitions démesurées engendraient ces rêves qui nous usent Il aurait voulu suivre des études Comme Cortex et Minus faire des expériences en labo Et quand la nuit tombe, faire la même chose que tous les soirs Tenter de conquérir le monde, au lieu de la banlieue des villes Ne pouvant sortir le jour puisque toujours poursuivi par un tas d'animaux débiles C'est dur d'être le premier être que l'on décime, le dernier maillon de la chaîne alimentaire Quand on rêve des lumières des îles Lorsque le soir se dessinent des promesses de lueurs Au profond de son coeur, son désir était d'être fort comme le Soleil He had a dream!... qui lui perdre le sommeil Décidé, il partit au réveil Escalada la colline et s'adressa au Soleil C'est l'histoire d'un souriceau qui craque C'est la story d'une souris, cric-crac C'est son blabla que Balthazar déblatéra au Soleil J'aimerais bien être ton semblable, qu'on se ressemble à avoir ton énergie Puisque je manque de sommeil à cause de toi J'agis la nuit car les prédateurs me surveillent J'aimerais aussi être un soleil Ceci fut dit par la souris puis le citron se mit à rire À faire trembler la voûte céleste Ouais, c'est vrai que je suis le plus grand de tous les maîtres extraterrestres Et même si ceci va sans dire Il déclencha un incendie dans les pâturages Mais la fumée s'élevant au ciel forma un gros nuage Qui vint à cacher le Soleil Puis le nuage fit un clin dil à la souris Lui demanda, postillonnant des gouttes de pluie Dis-moi, l'ami, lequel est le plus fort de tous ? Celui qui éteint l'incendie ou celui derrière moi qui tousse ? Mais l'orage devint si violent que le vent transperça le ventre du nuage Et l'éparpilla en milliers de bouts de coton à l'horizon Qui s'amoncellent comme des gentils moutons broutant des morceaux de ciel Le vent s'exprima en ces termes Dis-moi si celle-ci, la terreur aux gros sourcils Qui prétendit être le plus fort et que j'élimine sans souci Juste en soufflant dessus Sais-tu pourquoi je suis le plus grand de tous et sans rivaux ? Car personne tient le niveau face au vent qui souffle Et par ego le prouva en faisant la course Deux, trois chicanes et ce dernier finit à plat, stoppé net par la muraille Qui se réveilla en bâillant et sur un souriceau vaillant Ses yeux tombèrent par hasard Le mur abrite la souris triste à suivre ce bazar Tu vois Balthazar, j'ai beau me dresser contre le vent qui souffle Résister au Soleil et même aux nuages qui nous couvrent Mais la seule chose qui me touche les fondations C'est cette entaille dans ma muraille cachée par ce buisson Et qu'a fait un souriceau qui vit près du ruisseau</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SPQR</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SPQR cest lemblème, ouais Yeah Il y a long long time, quand le monde sentame Jme souviens de lhistoire que racontent les fables Quand des oiseaux en flammes, comme des flèches de pluie Dans la nuit tombaient du ciel comme à Pompéi Cétait mon pays ou un rêve qui magite Jme souviens que jsuis né dans la Rome antique Aphrodite menseignait tout lart romantique Dans des camps sous tonnell, Marc-Aurèle en tête Puis on tir sur des maisons, lintérieur en terre cuite Dans une vie antérieure dune période antonyme Jai été empereur, je le ressens tellement Je crois pas qujimagine lhéritier dcavalerie Durant le plus élevé des dix-huit centuries Yeah, jai promulgué la paix par du sang Des tueries, jeu de vins, jeu de corps Des esclaves encore nus on avait pour décor Les femelles des vaincus, je devins corrompu Par le tendre et le vice, cétait pas le temps des cerises Mais le temps dÉleusis Dans la fumée du styrax on fit le pacte suivant Que le premier légionnaire qui meurt, revienne Pour enseigner les vivants Que le premier légionnaire qui meurt, revienne Pour enseigner les vivants La mémoire dHadrien, le latin impérial Dans lombre du matin de la colonne Trajane La mort de lempereur, où peut-il, pleut des larmes Je revois les oiseaux dor, des boisseaux en flammes Une dernière fois livresse dans des flèches de pluie La nuit tombait du ciel, puis Jaimais César, Iola, Antoneus, Messaline Et puis ces oiseaux-là comme nos défunts Sur un bateau en flamme vers la cité de Tyr Que mes soldats salignent, quon pratique la décimation Un sur dix, assassine, quon motive mes légions Je pressens leffondrement à cause des séditions mineures De lhonneur en décadence et des tensions dAsie mineure Jappréciais pas ces chiens qui me nuisent et qui musent Entre la secte des Chrétiens et lintolérance des Juifs Insociabile regnum nous dit Titus Le pouvoir se partage pas demande aux Étrusques Et à notre infanterie en désespoir de cause, je pose que ce Jésus Cest une réponse infantile à la désolation des pauvres Je pose que ce Jésus, cest une réponse infantile à la désolation des pauvres Yeah, go, ouais Je crois que maurait classé dans le groupe Dissociation schizophrénique du réel, qui me coupe Le souffle, comme une section du nerf phrénique Choisissez bien vos persona proche de vos personnalités Dabord lesprit sadapte, puis il sépuise dans la durée Rêve et réalité collapsent et le réveil peut vous tuer Une fleur qui séveille au soleil en douceur Un enfant qui sréveille la nuit dans la terreur Jsuis un enfant de cavalier, allez jai pas peur Nan, réminiscence de vies antérieures De vies antérieures Un arrière-goût de sang, des combats de gladiateurs Réminiscence de vies antérieures Réminiscence de vies antérieures Mes pensées me gangrènent Jessaye de couper mon membre fantôme SPQR cest lemblème Je reste debout, même tout seul dans Rome</t>
+          <t>J'peux pas tout dire en un freestyle car on y passerait la night Puis quelques années à Bourgstras C'était pas vraiment youpi la life, James Digger J'ouvre l'armoire des anciens jours, de la où j'ai poussé hier J'vois mon p'tit costume de Strasbourg, que j'dépoussière Si j'avais tenu un journal, il n'y aurait pas eu de gros titres J'me s'rai dit j'parle toujours de oim et d'mon caractère égotique Parler de Stras' et quartiers chauds, ma jeunesse c'est pas un cadeau J'essai encore de fair l'effort de déposer ce sac à dos J'aimerais parler sans concession, mais j'imagine qu'entendre ce son F'rai lever les yeux du curé si j'lui faisais trop d'confessions J'aimerais croiser un spirituel qui pourrait me prendre par le bras Mais j'ai bien peur qu'il n'y ait pas de ciel et que mon juge ce ne soit moi Avec Raid'n project on chante et j'y repense toujours depuis A tous les freestyles dans ma chambre quand il faisait des jours de pluie Lui, qui débarquait de Guyane et moi qui arrive tout juste d'Allemagne Quand on a créé le T.Kaï Cee, on devient référence locale On parle succès imaginaires qui parlent des songes On nous aime déshumanisés, c'est peut-être ça la part des anges Même si tu sais ici c'est l'Est, des anges déchus et délestés de leurs ailes y laissent des plumes tombées des vestes et... J'm'en bats les reins qu'on m'aime parc'que quand j'me mets à rapper j'entends ah ouais putain quand même Faut savoir où tu vas quand t'as la tête qui tourne Faut savoir d'où tu viens, Strasbourg ! Strasbourg ! C'est là où y a des putes, c'est là où y a mes potes C'est d'la que part mon amour, Strasbourg ! Ils m'balanceraient du haut de la berge, 15 minutes dans une nasse qui coule Juste pour voir si j'suis une sorcière, c'est comme ça qu'on fait à Strasbourg Là où la pauvreté sévit, où j'aime pas trop y voir de mômes J'ai de l'eau jusqu'aux chevilles, un scooter brûlé dans le hall Car même nos mots d'amour n'étaient qu'des homélies amères Et puis toutes nos nuits d'amour, une tauromachie sans mise à mort J'ai l'impression d'être un sextoy à l'âge du démon du bas ventre J'sais pas pourquoi mais les badboys ça fait rêver les étudiantes Au moment de quitter l'enfance, j'avais déjà compris d'avance Que la solitude débutait et depuis ne m'a plus quitté J'ai grandi dans des parties sombres où j'ai l'habitude de trébucher Je connais bien ces partitions étalées sur mon trébuchet Et si mon rap défoulait les foules, excitant comme un film de boules C'est parc'qu'j'arrêtais pas d'rapper avant qu'ils aient la chair de poule Ce s'ra si long de voir le ciel, il n'y a pas de Simon De Cyrène Nos seules lumières du jour étaient des lumières artificielles Même si tu sais ici c'est l'Est, des anges déchus et délestés de leurs ailes y laissent des plumes tombées des vestes et... J'm'en bats les reins qu'on m'aime parc'que quand j'me mets à rapper j'entends ah ouais putain quand même Faut savoir où tu vas quand t'as la tête qui tourne Faut savoir d'où tu viens, Strasbourg ! Strasbourg ! C'est là où y a des putes, c'est là où y a mes potes C'est d'la que part mon amour, Strasbourg ! J'suis de l'époque Turn Tubbliste et tous mes potos font des rimes Pourtant aucun rappeur d'ici n'm'a invité en featuring On était pas des p'tits marrants mais sans parents des Pygmalions Maintenant inquiétants comme d'enlever une épine de la patte d'un lion J'suis renvoyé de 5 lycées, autant de conseils de discipline On t'fait un dossier en béton, mais on voudrait qu'tu partes d'ici Alors j'vais partir loin, j'me promets de m'écrire toujours A mon revenir au moins, j'aurais du courrier au retour Car l'amour n'est qu'un train qui part, ou un avion qui décolle Y a un d'nous qui déconne, mais on est tous quelque part ce gosse qui rentre seul de l'école Bourgstras quartier pas très calme, des caravanes de Tziginers mais pas des quartiers cathédrales Moi j'viens de là où les cigognes meurent cigognes meurent, cigognes meurent... Ces banlieues ou à tes risques et périls sans règle du jeu ils atterrissent ils atterrissent, ils atterrissent... Faut qu'j'le redise, j'viens d'là où les architectes ont un peu trop joué à Tetris , cité Ampère, polygone DAX, Raid'n project, , DJ Saligaud, , prison de l'Elsau, Bourgstras, Bourgstras, Bourgstras</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>Syndicat de la rime</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Dooz Kawa, T Kaï Cee Etoile du sol Pour que tombeau des lucioles s'enflamment Air Max crevées, T-shirt troué, juste un gosse de rue sans charme Cyrano c'est pas moi, si t'es Roxanne cherche ailleurs L'amoureux épris de toi Pose une larme sur chaque buvard et on les gobe tous à la fois Ces bonbons sont des chimères on risque pas la crise de foie Toujours dans le monde imaginaire frère, pour oublier le froid Ce soir y'avait rien à manger j'en ai même repris deux fois J'suis tellement souvent ailleurs que j'en oublie qu't'es avec moi J'me souviens jamais d'hier et tu t'inquiètes de mon état Comme d'hab ce soir j'escalade la goutière pour venir dormir chez toi T'es ma seule issue d'secours et l'unique échapatoire Quand j'vois une porte rouge et que j'veux la repeindre en noir J'ai tellement du mal à cerner mes désirs contradictoires si tu savais Ils veulent exploser nos rêves qui sont blottis dans quelques bulles de savon et n'aspiraient qu'à monter Comme une star étoile du sol mais j'ai le syndrome d'Icare étoile du sol Tu crois vraiment que j't'oublie quand je compose toute la nuit Et qu't'as du vague a l'âme, mais t'es le do d'ma mélodie C'est juste une petite note mais elle supporte toue la gamme Moi j'plane et j'monte tellement haut qu'j'ai brulé mes ailes au soleil Mais à chaque fois qu'tu m'tiens la main c'est pour pas qu'j'tombe dans la merde Plus terre à terre tu me retiens comme une amarre et m'aide à fermer les yeux Quand j'veux toujours téma la bas t'es ma .. I'm careful not to fall have to climb your wall Problems with the booze nothing left to lose I'm weightless Yo, fais attention Ils nous traquent même dans les bus et les philistins m'accusent Parce que pour moi leur système c'est comme du morse en russe J'prendrais toujours la gélule rose Si j'avais le choix de Morpheus tant pis si eux n'atteindront jamais zion Nous on fait jamais l'amour dans les cieux malgré ces murs qui montent si haut Et c'est que pour notre duo ce petit texte personnel J'cace-dédi pour celles qui manquent à l'appel Celle que... Qu'est d'ja parti quand le public me rappelle Tu t'endors en attendant que j'revienne mais le spectacle doit continuer Malgré les traits sur mon rimmel, j'ai mal au mic malade atteint de délinquance aigüe J'pourrais poser des rimes elle ? jusqu'à la déliquescence de toutes les neiges éternelles Mais moi, comme Anakin, j'repousse le coté obs', trop d'prises de risques Mais mon T-Kaï est en crise, j'suis qu'un élément mythologique Comme Osiris même si il pleut danse avec moi sur la piste Pour une fois que tombent des gouttes indépendantes de nos iris Dès que tu m'touches j'ai plus l'blues parce que t'es ma t'es ma I'm careful not to fall have to climb your wall Cause you're the one who makes me feel much taller than you are I'm just a peeping Tom on my own for far too long Problems with the booze nothing left to lose I'm weightless, I'm bare3</t>
+          <t>C'est le syndicat de la rime en stéréo La mémoire est posée sous le micro Dédicace à do ré mi fa sol À gauche ça s'agite, à droite on décolle du sol C'est le syndicat de la rime en stéréo La mémoire est posée sous le micro Dédicace à do ré mi fa sol C'est en secret que les groupes se créent quand t'as la dèche pour leitmotiv Le syndicat de la rime arrive, corrompant la police Écriture extorquant et rackettant tout le lotissement Par un flow archi-violent qui par moments saisit aux tifs Le public dans la salle, passe-moi le mic' pour qu'on le motive Faire dérailler la foule comme le fait une locomotive Drive by vocal - pull ! - avec mon micro .22 Long Rifle Duel au soleil face aux MC's qui mollissent Je crache les pieds tendres au cur dur comme le noyau d'une olive En live, explose les watts car mon rap est une ogive Aucun abri musicléaire vous protège des jeunes prodiges Qui extasient comme les pilules, plus excitants qu'un clitoris Le syndicat de la rime arrive et rien qu'on terrorise Je suis le chef de la bande, là où on glande comme l'hypophyse Car l'décor de dehors, ici c'est les ruines d'Acropolis Où l'alphabète reconnaît que sur la carte tu peux lire partout police Faut pas boire au volant, pas de musique, pas de gros spliff Où tu finis en taule, dans les geôles de leur office C'est ça le plus dangereux, mais c'est ça ma terre promise En gros je suis un gué-dro car je suis accro des polis-sonnes à quatre pattes, pour les chattes je suis Baudis Elles sonnent à 4 du mat', quand je me désape elles m'applaudissent Mais si je baise ta fille, ça veut pas dire que je suis ton beau-fils Elle dit qu'elle m'autorise la conduite des gros engins Alors je pénètre dans son... comme un chauffard qu'on motorise Acrobatique au lit comme Chuck Norris aux miss ? Je bois le whisky qu'au lit car je suis alcoolique comme ? Mais je risque de paraître vulgaire d'oh !, j'attends plus qu'on m'autorise Je suis comme Homer Simpson sur ces grosses pierres qui démolissent Nos quartiers en chantier rénovés pour donner aux riches Robin des bois débarque dans les bacs... dafucup comme Onyx Au mix, un couteau sous la carotide du showbiz Hé Cochise ! J'étais déjà sur le mic' quand Ice-T écrivait O.G.'s C'est le syndicat de la rime en stéréo La mémoire est posée sous le micro Dédicace à do ré mi fa sol1</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Story d’une souris triste</t>
+          <t>Tout le monde lève les bras</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Voici l'histoire d'un souriceau qui vivait tout près d'un ruisseau Dans l'entaille d'une muraille qu'était cachée par un buisson Dont les ambitions démesurées engendraient ces rêves qui nous usent Il aurait voulu suivre des études Comme Cortex et Minus faire des expériences en labo Et quand la nuit tombe, faire la même chose que tous les soirs Tenter de conquérir le monde, au lieu de la banlieue des villes Ne pouvant sortir le jour puisque toujours poursuivi par un tas d'animaux débiles C'est dur d'être le premier être que l'on décime, le dernier maillon de la chaîne alimentaire Quand on rêve des lumières des îles Lorsque le soir se dessinent des promesses de lueurs Au profond de son coeur, son désir était d'être fort comme le Soleil He had a dream!... qui lui perdre le sommeil Décidé, il partit au réveil Escalada la colline et s'adressa au Soleil C'est l'histoire d'un souriceau qui craque C'est la story d'une souris, cric-crac C'est son blabla que Balthazar déblatéra au Soleil J'aimerais bien être ton semblable, qu'on se ressemble à avoir ton énergie Puisque je manque de sommeil à cause de toi J'agis la nuit car les prédateurs me surveillent J'aimerais aussi être un soleil Ceci fut dit par la souris puis le citron se mit à rire À faire trembler la voûte céleste Ouais, c'est vrai que je suis le plus grand de tous les maîtres extraterrestres Et même si ceci va sans dire Il déclencha un incendie dans les pâturages Mais la fumée s'élevant au ciel forma un gros nuage Qui vint à cacher le Soleil Puis le nuage fit un clin dil à la souris Lui demanda, postillonnant des gouttes de pluie Dis-moi, l'ami, lequel est le plus fort de tous ? Celui qui éteint l'incendie ou celui derrière moi qui tousse ? Mais l'orage devint si violent que le vent transperça le ventre du nuage Et l'éparpilla en milliers de bouts de coton à l'horizon Qui s'amoncellent comme des gentils moutons broutant des morceaux de ciel Le vent s'exprima en ces termes Dis-moi si celle-ci, la terreur aux gros sourcils Qui prétendit être le plus fort et que j'élimine sans souci Juste en soufflant dessus Sais-tu pourquoi je suis le plus grand de tous et sans rivaux ? Car personne tient le niveau face au vent qui souffle Et par ego le prouva en faisant la course Deux, trois chicanes et ce dernier finit à plat, stoppé net par la muraille Qui se réveilla en bâillant et sur un souriceau vaillant Ses yeux tombèrent par hasard Le mur abrite la souris triste à suivre ce bazar Tu vois Balthazar, j'ai beau me dresser contre le vent qui souffle Résister au Soleil et même aux nuages qui nous couvrent Mais la seule chose qui me touche les fondations C'est cette entaille dans ma muraille cachée par ce buisson Et qu'a fait un souriceau qui vit près du ruisseau</t>
+          <t>We came from the distant land Our lives already planned We came in ships from across to sea Never again home we'd see And now we've become American fruit With african roots Que tout le monde lève les bras J'suis pas d'ici moi Niquer l'état C'est mon désir Et je le jure sur le Dalloz Lève le bras droit Que tout le monde lève les bras Et tape la pose Pour tout les gars qui mattent les étoiles Tout en piétinant les roses C'est comme une traversée du désert Pendant que la pluie nous arrose Que tout le monde lève les bras Bourg-stra en force Et j'crois bien qu'ils ont peur qu'on s'approche Qu'on s'rapproche, qu'entre nous on soit proches Que tout le monde lève les bras J'ai Dans les poches des Barrettes de... c'est Pas d'l'encens malgré l'odeur Le bruit du Molodoï jusqu'au Neuhof Parti de zéro en sang Comme la Carrera de Porsche Que tout le monde lève les bras Un pe-ra indécent Comme la carrière à Desproges Pour que la police s'approche Que les cistes-ra lèvent les bras Pendant qu'on leur fera les poches Que tout le monde lève les bras Lève les bras</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Toxique</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>J'peux pas tout dire en un freestyle car on y passerait la night Puis quelques années à Bourgstras C'était pas vraiment youpi la life, James Digger J'ouvre l'armoire des anciens jours, de la où j'ai poussé hier J'vois mon p'tit costume de Strasbourg, que j'dépoussière Si j'avais tenu un journal, il n'y aurait pas eu de gros titres J'me s'rai dit j'parle toujours de oim et d'mon caractère égotique Parler de Stras' et quartiers chauds, ma jeunesse c'est pas un cadeau J'essai encore de fair l'effort de déposer ce sac à dos J'aimerais parler sans concession, mais j'imagine qu'entendre ce son F'rai lever les yeux du curé si j'lui faisais trop d'confessions J'aimerais croiser un spirituel qui pourrait me prendre par le bras Mais j'ai bien peur qu'il n'y ait pas de ciel et que mon juge ce ne soit moi Avec Raid'n project on chante et j'y repense toujours depuis A tous les freestyles dans ma chambre quand il faisait des jours de pluie Lui, qui débarquait de Guyane et moi qui arrive tout juste d'Allemagne Quand on a créé le T.Kaï Cee, on devient référence locale On parle succès imaginaires qui parlent des songes On nous aime déshumanisés, c'est peut-être ça la part des anges Même si tu sais ici c'est l'Est, des anges déchus et délestés de leurs ailes y laissent des plumes tombées des vestes et... J'm'en bats les reins qu'on m'aime parc'que quand j'me mets à rapper j'entends ah ouais putain quand même Faut savoir où tu vas quand t'as la tête qui tourne Faut savoir d'où tu viens, Strasbourg ! Strasbourg ! C'est là où y a des putes, c'est là où y a mes potes C'est d'la que part mon amour, Strasbourg ! Ils m'balanceraient du haut de la berge, 15 minutes dans une nasse qui coule Juste pour voir si j'suis une sorcière, c'est comme ça qu'on fait à Strasbourg Là où la pauvreté sévit, où j'aime pas trop y voir de mômes J'ai de l'eau jusqu'aux chevilles, un scooter brûlé dans le hall Car même nos mots d'amour n'étaient qu'des homélies amères Et puis toutes nos nuits d'amour, une tauromachie sans mise à mort J'ai l'impression d'être un sextoy à l'âge du démon du bas ventre J'sais pas pourquoi mais les badboys ça fait rêver les étudiantes Au moment de quitter l'enfance, j'avais déjà compris d'avance Que la solitude débutait et depuis ne m'a plus quitté J'ai grandi dans des parties sombres où j'ai l'habitude de trébucher Je connais bien ces partitions étalées sur mon trébuchet Et si mon rap défoulait les foules, excitant comme un film de boules C'est parc'qu'j'arrêtais pas d'rapper avant qu'ils aient la chair de poule Ce s'ra si long de voir le ciel, il n'y a pas de Simon De Cyrène Nos seules lumières du jour étaient des lumières artificielles Même si tu sais ici c'est l'Est, des anges déchus et délestés de leurs ailes y laissent des plumes tombées des vestes et... J'm'en bats les reins qu'on m'aime parc'que quand j'me mets à rapper j'entends ah ouais putain quand même Faut savoir où tu vas quand t'as la tête qui tourne Faut savoir d'où tu viens, Strasbourg ! Strasbourg ! C'est là où y a des putes, c'est là où y a mes potes C'est d'la que part mon amour, Strasbourg ! J'suis de l'époque Turn Tubbliste et tous mes potos font des rimes Pourtant aucun rappeur d'ici n'm'a invité en featuring On était pas des p'tits marrants mais sans parents des Pygmalions Maintenant inquiétants comme d'enlever une épine de la patte d'un lion J'suis renvoyé de 5 lycées, autant de conseils de discipline On t'fait un dossier en béton, mais on voudrait qu'tu partes d'ici Alors j'vais partir loin, j'me promets de m'écrire toujours A mon revenir au moins, j'aurais du courrier au retour Car l'amour n'est qu'un train qui part, ou un avion qui décolle Y a un d'nous qui déconne, mais on est tous quelque part ce gosse qui rentre seul de l'école Bourgstras quartier pas très calme, des caravanes de Tziginers mais pas des quartiers cathédrales Moi j'viens de là où les cigognes meurent cigognes meurent, cigognes meurent... Ces banlieues ou à tes risques et périls sans règle du jeu ils atterrissent ils atterrissent, ils atterrissent... Faut qu'j'le redise, j'viens d'là où les architectes ont un peu trop joué à Tetris , cité Ampère, polygone DAX, Raid'n project, , DJ Saligaud, , prison de l'Elsau, Bourgstras, Bourgstras, Bourgstras</t>
+          <t>Si tu vois tomber la pluie, c'est que j'ai créé un gros ceau-mor J'veux encore planer toute la nuit, comme un oiseau mort T'as besoin de moi, comme un antidote Mais j'ai plus d'ordonnance T'as peur que tout s'arrête, j'ai peur que tout recommence Tu parles mais t'es la pire, ça me rends ouf ta vanité Tu mens comme tu respire, car elle t'étouffe la vérité On se fait plus de mal que de miel Et y'a qu'au cil qu'on demande pardon J'donnerais plus d nouvelles, j'suis en mode avion Si j'me couche tard, c'est que je répare encore mes lésions J'suis un long cauchemar où je fais des rêves bercés d'illusions Dans ce monde j'ai plus trop d'amis, vu que tous mentent Donc doucement, j'refais ma vie, malgré tout c'manque, oui tout c'manque J'suis nombreux dans ma tête, donc peut-être contradictoire J'ai voulu que tout s'arrête, y'a pas de remède à notre histoire J'me méfie de tout, je sais plus en qui croire Parfois en amour on aime que son propre miroir Alors qui croire ? J'vis à l'envers Mon enfer est fait de neige et de froid Tu dis que je me renferme Mais je me protège de toi... Toxique Ou je me protège de moi ? Toxique Toxique J'ai encore du venin sur les lèvres Et j'suis perdu comme dans un mauvais rêve Toxique... Toxique J'irai sur la dune pour abriter le ciel Et faire battre la lune Toxique Toxique, tout ces sales produits que j'ingère Ma copine est triste et s'énerve Bébé je te promets que je gère C'est dingue, de tant se mentir à soi-même Rester présent quand faut partir, de pas le sentir Comme un connard qui se dirait j'me retirerai à temps pour pas jouir J'avais tant d'espoir en ce monde, mais ils entendent pas les coups de semonce Tiré par l'esprit de la nature, le Titanic coule doucement À cause des fous qui nous sabordent, alors j'me la coule douce à bord Et je m'intoxique de tout cet alcool, ouais C'est la faute à vous d'abord, et au passé qui nous tabasse Ouais surtout, au monde ou le courage que j'éprouve À me regarder dans une glace, de pas laisser la place au silence De peur de souffrir, alors que je souffre de peur Alors que de les affronter, quand la lumière est éteinte J'me rends vite compte que c'est moins grave, que la douleur qu'elle me fais craindre Toutes ces nuits où j'éprouve du mal, effrayé par l'épouvantail Alors que si je le retourne, je me rendrais compte que c'est juste une poupée de paille Car on préfère ce qui nous dépanne que le travail qui nous répare Encore un dernier verre, et c'est promis je pars Toxique J'ai encore du venin sur les lèvres Et j'suis perdu comme dans un mauvais rêve Toxique... Toxique J'irai seul sur la dune pour abriter le ciel Et faire battre la lune Toxique Toxique...</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Tristement Célèbre</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Dewolph x Sawmal - The Adventures of Huile Smith FatMan Blue SUPERMAGENTA - 0501 Luni - Noir 0601 Crime TEAm - Carmin - 0601 Biffty DJ Weedim - La Réincarnation du Turn up 2 0701 Beozedzed - Sept - 0801 Le2s - Inconnu - 1001 Maes - Réelle vie 1601 Nasme - Spécial Guest Vol.2 1901 Le Hu - Hustler - 2001 Barack Adama La Propagande Saison 1 - 2001 Demi Portion 2 Chez Moi - 2001 Take A Mic - Bipolaire - 2001 Vald - Agartha 2501 Louvar - Zénith 2701 Bigty - Christrip Vol.2 TEM 2701 Bizon Gbz - Le silence des agneaux 2701 Escobar Macson - Mr. Punchlines - 2701 KeBlack - Premier Étage - 2701 Sofiane - JeSuisPasséChezSo 2801 Six - La salle du temps - 2901 Ozkar Zulu - Orée artificielle 3101 Franc Parler BLT Tape Février - 0202 T.I.S DJ Cross-Y - Gotham City Kids Épisode 2 0302 Bazoo Nordinomouk - Jupiter 0302 Féfé Bess Sek Ibrahimovich - Amistad 0302 Mike Lucazz - Soleil Gelé 0302 Tonio Mc - Déstresse 0502 Euphonik - Inconnu Mais Reconnu II - 0602 Scoop J.Keuz - Maestria - 1002 Flaco - Mundo - 1002 Heskis - GG Allin EP 1202 Ou2s - La Machine Vol.2 - 1202 Yaska Dawan - 5 AM 1302 Sons Of Melody - La route est longue - 1302 Spider ZED - Mes ex - 1402 Krisy - Paradis d'amour - 1502 4keus Gang - Vois t'as vu 1502 Dawa O Mic - La Galette Mixtape 1602 Akissa - Opium - EP - 1702 Abou Debeing - Debeinguerie - 1702 Aladin 135 - Indigo 1702 Le Bon Nob - Ptit Con - 1702 Féfé - Mauve 1702 H3RY LÜCK - FORCE 2 - 1702 Hayce Lemsi - Électron Libre 2 1702 La Massfa - Frères d'armes - 1702 Nusky Vaati - BLUH 1702 Segä - Nos Futurs - 1702 Zaho - Le monde à l'envers 2202 JMK - Love Loyalty - 2402 A2H - Les hommes pleurent en hiver Winter Tape - 2402 Jok'Air - Big Daddy Jok - 2402 Médine - Prose Elite - 2402 O'Trak ChriStorm - Sublime abomination - 2402 Sianna - Diamant Noir - 2802 Pink Tee - Période des 16 Mars - 0103 Sameer Ahmad - Jovontae EP 0303 AlTarba - La nuit se lève 0303 GLK - Murder Réédition - 0303 Ghetto Phénomène - La Vida Loca - 0303 IAM - Rêvolution 0303 Ixzo - L'Ennemi - 0303 Jayel - Laboratoire - 0303 Rim'K - Fantôme - 0303 Stupeflip - Stup Virus - 0303 Lord Esperanza Majeur Mineur - Drapeau Noir 0403 Nosfer - BHD - 0503 So'Clock - Saut de l'ange 0603 Iron Sy - Amadou Malick chapitre 1 0603 Skreally Boy - 0703 Nedoua - 420 - 0803 Elh Kmer - Indépendant - 1003 Booba - Autopsie 0 1003 Daouf - Après coups 1003 Eklips - Lips Beat box album 1003 Fadah - Cet Art - 1003 Gen Zu Clan - Rois De Lunderground - 1003 Hooss - Temps plein - 1003 Phénomène Bizness - Pharaon - 1003 Sneazzy - Dieu bénisse Supersound Vol. 2 - 1203 Yaruki Records - Satori - 1503 Scars - Je suis comme ça 1703 Artiste multiples - Bendo - 1703 Dandyguel - Trophée - 1703 Deen Burbigo - Grand Cru - 1703 Djadja Dinaz - Dans L'Arène - 1703 Homi - Au-delà des Alpes 1703 Original Tonio - Monologue Social - 1703 Roméo Elvis Le Motel - Morale 2 1703 TRZ - La Rue tappelle - 2003 Jul - Album Gratuit Vol. 3 - 2003 Triplego - 2020 2103 Euphonik - Dieu est une Femme 2103 ODT - La marque de la bête 2403 Le 3eme il - Les 20 Ans - 2403 Les Sages Poètes de la Rue - Art Contemporain - 2503 T.I.S - 001 - 2703 Patee Gee - Basilic - 3003 Vîrus - Les Soliloques du Pauvre 3103 Babarr - Les 7 péchés kapitaux - 3103 Benash - CDG - 3103 Kekra - Vréel 2 - 3103 Lacrim - Force honneur - 3103 Scylla - Masque de chair - 3103 Slimka - No Bad Vol.1 Avril - 0204 Lasco - Le blood - 0604 Luni - Rose - 0704 Falcko - Manny 0704 Ideal Jim - Hannah - 0704 Le Dé - Napalm 0704 Andy Luidje - 404 0704 T-Nord - Persona non grata - 0704 Take A Mic - Boîte noire 1004 Baek - 2016 1004 Guy2Bezbar - Jungle vol.2 1404 AkaperA - Loup 1404 Majster - Le cur dans les mains 1404 DJ Erise - Rizer - 1404 FK - Purple Kemet 2 - 1404 Gaël Faye - Rythmes Botanique - 1404 Jorrdee - Avant - 1404 L.O.A.S - Tout me fait rire - 1604 Beeby - MALA 800 ORION 1704 Napo - NAPOlogie Vol.1 - 2004 Grems - P.O.M - 2104 Columbine - Enfants Terribles - 2104 Isha - La Vie Augmente Vol.1 - 2104 Mac Tyer - Banger 3 2104 Robse - Colibri - 2104 Veerus - Mercure - 2204 Meyso - MiseAJour 2404 Euphonik - Dieu est une Femme 2 2404 Mairo - 365 2504 La Prune - Reine Claude - 2704 Assy Youv Dee - Beta test - 2804 Damso - Ipséité 2804 Dolfa - Dolfa is the New Black - 2804 Don Choa - EP - 2804 Loud - New Phone - 2804 Wit. - Dawa 3004 Nelick - Load 22 - 3004 T.I.S DJ Cross-Y - Gotham City Kids Épisode 3 Mai 0105 Bazoo - B-T2PE 2 0205 Poupa Lost - Incantations - 0305 L'Or du Commun - Zeppelin 0305 Sirsy - Avant Yaro - 0505 Eddie Hyde - La malédiction du Nord - 0505 Elams - Réussir et mourir - 0505 Hooss - Première Presse 0505 Marlo Flexxx - Jeune Pimp 0505 Numbers - Femmes Ennemis - 0505 Sch - Deo Favente - 0605 Lonepsi - Les premiers sons du reste de ma vie 0905 Freeman - Sous la mine - 1005 Di-Meh - Focus Part. 1 1005 El Matador - Mâle Dominant - 1105 Nelick - LOAD 57 - 1205 Caballero JeanJass - Double Hélice 2 - 1205 Hartigan - Purgatoire 1205 Kamikaz - L'Outsider - 1205 Le Club - Hors série 1205 Quincy - Évolution - 1205 Sofiane - Bandit Saleté 1205 Supernova - Immortel 1305 Rochdi Krystal - Mélodies de la cave 1405 Nelick - LOAD 94 - 1505 Jorrdee - Belle de jour - 1505 Tengo John Ocho - NUV - 1705 A Little Rooster, Hash24 Sanka - Chanson pour les oreilles 1805 Massa Moon - Fréquences - 1905 Beny - Pepito est grand - 1905 Cenza - Les prophéties d'une plume 1905 Coyote Jo Bastard - L'Enfer avant le Paradis - 1905 DTF - Sans rêve - 1905 Kalash Criminel - Oyoki - 1905 LTF - 2014 - 1905 Lucio Bukowski Soulchildren - SIMORGH - 1905 Mister V - Double V - 1905 Naps - Pochon Bleu - 2405 Zeno - Beurre Sucre 2505 Emotion Lafolie - Dopamine 2605 Bradley - Askia 2605 Baka - Guêpier Paris - 2605 Cheu-B - Welcome To Skyland - 2605 Le Club - Série 97 2605 Les 10' - Artefacts Vol.1 Les 10 - 2605 Nov - Evo 2 - 2605 Panama Bende - ADN 2805 Akrapovic - Havana Devil Juin - 0106 Retro X - DIGI - 0106 Taipan - Parlons Beuh 0206 Stensy - Rotations 0206 Casse-Croute - Éléphant rose 0206 Driver - Maintenant j'suis chaud - 0206 Keny Arkana - Lesquisse 3 - 0206 La Fouine - Capitale Du Crime Censuré - 0206 Ladea - Alpha Leonis - 0206 Larry Kid - Contrôle - 0206 Les Alchimistes - Danslaloge 0406 Lil Taï Z - TAÏZ 0406 Bitu - No more lemon - 0506 Eden Dillinger - Olaf 0706 Nedoua - Septième étage - 0906 Disiz La Peste - Pacifique - 0906 Infinit' - NSMLM - 0906 Josman - 000 0906 La Canaille - 11.08.73 0906 Rekta - Hustle life - 0906 USKY - Outsider 1506 Bhati - OULYPO - 1506 Grems - Ep 1506 Fossoyeur Ékékil - Collision - 1606 Biffty DJ Weedim - Souyegod - 1606 Fixpen Sill - A4637 - 1606 Jok'Air - Je suis Big Daddy 1606 Nikkfurie Young Zee - Ignorez l'annonce 1606 TiTo Prince - Poetic justice 1606 Youssef Swatt's - Vers l'infini et au-delà 1905 Chich - Chich Volume 2 1906 La Caillasse - Pantheism 2106 L'Hexaler O.B.L. - Au nom de l'indépendance - 2306 Biffty DJ Weedim - Mega bonus - 2306 Bigflo Oli - La vraie vie - 2306 Dehmo - Ethologie - 2306 Georgio - Héra réédition - 2306 GLGV - S6MPLE SCHOOL - 2306 Makala - Gun Love Fiction - 2506 Lucci Lpee - PL1106 - 2606 GaT.Taca - ECG 2606 Ockney - Stand de tir 2806 Korohima - Ajna 3006 Alpha 5.20 - Blood Le Sang des Martyrs - 3006 Jul - Je ne me vois pas briller - 3006 Lomepal - Flip - 3006 Lucio Bukowski - Aucun potentiel commercial - 3006 Siboy - Spécial - 3006 T.I.S DJ Cross-Y - Gotham City Kids Épisode 4 Juillet 0107 LK de l'Hotel Moscou - Rose de Jéricho - 0507 Laylow - Digitalova - 0707 Alkpote - Les Marches de l'Empereur 0707 ALP - Épilogue - 0707 Ash Kidd - Mila 809 - 0707 Taïro - Summer Tape - 0707 Niro - OX7 - 0707 Fally Ipupa - Tokooos 1307 Royal - Orion - 1407 Multi-interprètes - Afrotrap Volume 1 - 1707 Barack Adama La Propagande Saison 2 - 1707 Lartiste - Projet 000 1707 Royal - Osiris - 1808 GaT.Taca - ÉPINEUSEMUSIQUE 1807 The S and Layon - Plein soleil - 2107 A2H - Summer Stories Kushtape Volume 3 2107 Matatix - Néant - 2107 Niro - M8RE 2307 Keustee - Le Bouquet Final 2307 Kokoro Lee - Osaleeka 2807 La Mannschaft - Indépendant des autres Août 0108 Sauveur Eloheem - L'Enfer 0208 Lacraps - Bootleg Vol. 1 0508 Faktiss - POV 1008 Dr Bériz - Popcorn 1108 YW - YW 1208 Hotel Paradisio - Reveri 1408 Euphonik - Dieu est une Femme 3 1608 DF Cerk - Chorus - 1808 Leo Roi - Meteo canicule - 2508 Alonzo - 100 Septembre - 0109 Soprano - L'Everest EP - 0809 Ninho - Comme prévu - 0809 PLK - Ténébreux - 1109 Freeze Corleone TheHashClique - THC - 1309 Blaiz - Jungle Bibi - 1309 LK de l'Hotel Moscou - Xanadu - 1409 Luni - Orange - 1509 Jul - Album Gratuit Vol. 4 1509 L'Affreux Jojo - Portraits gâchés - 1509 Naps - En équipe Vol. 1 - 1509 Sadek - Vulgaire, Violent et Ravi Dêtre Là 2009 SelaS - Algorithme - 2109 Népal - 445e nuit - 2109 Various Artists - Paris L.A. Bruxelles - 2209 Hugo TSR - Tant qu'on est là - 2209 Lefa - Visionnaire 2209 L-Kaïss - Razzia - 2209 Niska - Commando - 2209 Nov - Babe Tape 2209 TonyToxik - Infini - 2309 Jok'Air - Jok' Pololo 2509 Bizon Gbz - Iki 2809 L'Hexaler - Cuatro Estaciones - 2909 4keus Gang - Hors série 2909 Bastard Prod - 100 comme un chien 2909 Dernier Pro - Dans les yeux - 2909 Hornet La Frappe - Nous-mêmes - 2909 Hyacinthe - Sarah - 2909 Naza - Incroyable - 2909 Still Fresh - Cur noir Octobre - 0110 Beeby - Quatre saisons Vol. 3 0110 B-Biface - M. Personne - 0110 7 Jaws - Nautilus - 0310 VII - Les matins sous la lune - 0610 Ghetto Phénomène - En catimini 0610 Hesytap Squad - Pression - 0610 Jayel - Sens Interdit 0610 Nefaste - Dans mon monde - 0610 Sneazzy - Dieu bénisse Supersound Vol. 3 - 0910 Django - Anthracite - 1210 Assassam - Les Heures Perdues - 1310 Jarod - Attitude - 1310 Kalash - Mwaka Moon - 1310 Klub des Loosers - Le chat et autres histoires - 1310 Maska - Akhal Téke - 1610 Sully - PUBG 1910 Petrodollars - Outre Monde 2010 EX-ILE - Direction Est 2010 Katana - LÉpée II justice - 2010 OrelSan - La fête est finie 2010 P-dro - Jardin Noir 2410 Wit. - ONYX - 2510 Spider ZED - Figurine 2710 Flaco - La Fafa 2710 Godié - NUBE - 2710 Hamza - 1994 - 2710 Kennedy - Valar morghulis - 2710 Lord Esperanza - Polaroïd - 2710 Loud - Une année record - 2710 VSO Maxenss - Southcoaster - 2910 Jorrdee - D-A-VELLI Version rouge 3110 Artistes multiples - O'Trak présente Les Sons de la Crypte Novembre - 0311 Bigflo Oli - La Vraie Vie Version Deluxe - 0311 Davodka - Accusé de réflexion - 0311 Doums - Pilote - 0311 Kaaris - Dozo 0311 Keros-N - Bipolaire - 0311 MC Solaar - Géopoétique - 0311 Verso - Colère calme 0411 Kaki Montana - Bullet Proof Vol. 1 0611 Eli MC - Manque moi - 1011 Chilla - Karma - 1011 Dooz Kawa - Contes cruels - 1011 Franglish - Signature 1011 Geule Blansh - J'raconte - 1011 High Five Crew - Joli rouge 1011 Korohima - Antidote - 1011 L'Ordre du Périph - Vogue Merry 1011 Ménélik - Qlassiks Vol. 1 - 1011 MMZ - N'DA - 1011 XV - 404 Error - 1111 Lombre - Eau trouble 1111 Theorem de Gama - Ingressum - 1711 Azuul Smith - L'argent suffira - 1711 Black M - Éternel Insatisfait Réédition 1711 Freez - Les minutes vides - 1711 Lacrim - R.I.P.R.O, Vol. 3 1711 Passi - Les Tentations Édition collector 1997-2017 - 1711 Pumpkin Vin's da Cuero - Persona Non Gratis - 1711 Sinik - Drone - 2011 T.I.S - 002 2111 Baek - Baek - 2311 Kekra - Vréel 3 - 2411 Dadju - Gentleman 2.0 - 2411 Ichon - Il suffit de le faire 2411 KPoint - Trap'n'Roll - 2411 Lucio Bukowski - RequiemNativité 2411 Pejmaxx - Pejmaxx 2411 Slim Lessio - Fruit de paix - 2411 Sopico - Ëpisode 1 3011 2Spee Gonzales - City Light 3011 Elpea - Coucher de soleil Décembre - 0112 Booba - Trône - 0112 Clément Dumoulin - B.O. Tueurs - 0112 Furax Barbarossa Jeff Le Nerf - Dernier Manuscrit - 0112 Guizmo - Amicalement vôtre - 0112 Haristone - Off 0112 Hiro - De la Haine à l'Amour - 0112 Jul - La tête dans les nuages - 0112 Lomepal - Flip Deluxe 0212 Royal - Exodia 0312 Convok Mistral - Haschtag - EP - 0412 Butter Bullets - Air Mès et Hermax 0512 Namils - Oeil Noir - 0812 Astro 90 - PHANTOM 0812 Hache-P - Before - 0812 Hayce Lemsi - Eurêka 0812 I2H - Échantillons - 0812 Nixon - Tout se passe comme prévu - 0912 Jorrdee - D-A-VELLI version extra rouge BEFORE REHAB - 1312 Jorrdee - LESS 1512 La Main Gauche - Ni le même, Ni un autre 1512 Néochrome - Compilation Rap de banlieusard, Vol. 4 - 1512 Youv Dee - Gear 2 - 1812 Lutce - Pulsions 2012 Joe Cross - Artefacts Vol.3 2212 Green Money - Gnosis 2212 Majster - Je n'ai rien fait d'autre que mon travail, Mr Simba... 2212 Skreally Boy - Lo3 - 2412 T.I.S Nehr - Aller Simple volume 4 - Lost beats, last words 2512 La Prune - Eau de vie 2712 Orus - Lumière froide 3112 Lil Sheitan - Sur mon bateau pirate Autres Du 0809 au XXXX Sofiane - Rentre dans le cercle - Du 2403 au 1606 Bavoog Avers - Les logorrhées Du 0412 au XXXX Alkpote - Les Marches de l'Empereur Saison 310</t>
+          <t>C'est pour les miens ça C'est pour tous ceux qui ont croisé ma route J'ai pas assez de haine dans le cur On m'aime guère et c'est la guerre comme à Saïgon J'ai que des ennemis dans le hip-hop et dans sa foule x2 Tristement célèbre parce qu'il reste toujours les mêmes A la fin de la ré-soi frère je suis tristement célèbre Pour T-Kai-Cee ici bas bye Élève de l'école de la rue le prof ne viendra pas Et comme le dit Jean si le monde je pouvais contrôler Tous les gosses dans le ghetto ne serai pas toujours armés Car nos épaules sont larges mais nos jambes sont fatiguées Supportent le poids du passé De notre histoire cassée Ressoudée à l'étain Là où chaque jour le soleil s'éteint Tu peux voir les blocs de loin La maladie s'engouffrer, les mélodies sans refrain J'ai regardé partir les miens Les uns après les autres d'autres se sont perdus en chemin Nous on est partis un soir dans la douceur du mois de juin J'ai du laisser mon cur sur mes tags La vue de ma fenêtre et ses arbres Mes cousins et mon passé Les magasins où on taxait Des pommes et des bonbons On se prenait pour des peaux rouges A taquiner le ballon Au point d'avoir les joues rouges Ajoute une note de violon Pour le jour où Mes potes et moi s'envoleront Comme des oiseaux blessés La tête dans les nuages Malgré nos ailes brisées C'est le moment de s'embrasser Ne soit pas déçu Si au sol on t'a laissé Ange déchu même sans sous Nous volerons sans soucis Un tas d'auréoles pour les délaissés Tristement célèbre les sanglots longs des violons de l'automne m'isolent Débarquement au bloc B Et les feuilles sont tombées Et séchées sur le sol Qu'importe la destination Moi je suis do ré mi fa sol Tristement célèbre sexe violence rap et alcool Pour les anges déchus qui jamais ne redécollent C'est pour ma ville je cass-dédi à tous ceux qui mènent une vie de ouf Heureux les imbéciles c'est pour ça que la ville me bouffe Tristement célèbre parce qu'il reste toujours les mêmes Sous les nuages du système Lorsqu'il pleut sur les HLM Lorsqu'il pleut sur les HLM Tristement célèbre Tous ces gosses qui seuls s'élèvent De personne veulent être l'élève Qui ont mal à leur sourire Comme une gerçure des lèvres Qui ont raté le voyage pour Cythère Clandestins sur Terre pour s'y taire Tu vois ici ça sature Ca tire et puis ça tue Les gamins veulent être des gangsters Les étoiles nous attirent Mais la misère nous enterre Et moi j'use mon jean En chien sur un banc de pierre Seul survivant le king De l'Ancien Testament V-string ??? 1995 Mon bloc une femme enceinte Et la rue c'est comme une nourrice allaitant Les messies au même sein que les délinquants Une pensée à mes ennemis J'étais forcé de prendre partie bababa Aussi choisi ton camp MC Tu sais qu'on a les même ci- Catrices Oh ! ça fait longtemps Le temps nous a changé Et les potes deviennent étranges et Parfois même étrangers Et combien se sont rangés D'autres au 9mm chargé Un futur incertain Rester seul pour certains Où dans l'ombre attendre que passe Le fourgon Securitas Sous cagoules nous on braque même les musées Plus rien d'autre à miser Je dois rire avant de m'amuser De peur de ne jamais sourire le biz' le cash le hash la tise et les tas' Le système la justice la prison la police et l'état Tristement célèbre sur l'MIC Dooz Kawa Plus de pardon quand la lumière cesse de briller Pour les étoiles du sol Surtout si t'évolues seul Et les parents attristés disent Vos linceuls c'est vous même qui les tissez Mais quand tu traîne en bande t'es policé Dans l'école de la rue de la maternelle au lycée Sur mon cur J'ai gardé mon MIC Au milieu des rires moqueurs J'parle d'éducation comme si moi j'obéissais J'écris au BIC Pour ceux qui parle plus à Dieu Raid'n Pro Kawa MC Et mon T-Kai-Cee Heyoh frère c'était écrit Les pauvres seront riches dans leur esprit Les pauvres seront riches dans leur esprit Tristement célèbre parce qu'il reste toujours les mêmes Sous les nuages du système Lorsqu'il pleut sur les HLM Lorsqu'il pleut sur les HLM</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Syndicat de la rime</t>
+          <t>Trois étapes</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>C'est le syndicat de la rime en stéréo La mémoire est posée sous le micro Dédicace à do ré mi fa sol À gauche ça s'agite, à droite on décolle du sol C'est le syndicat de la rime en stéréo La mémoire est posée sous le micro Dédicace à do ré mi fa sol C'est en secret que les groupes se créent quand t'as la dèche pour leitmotiv Le syndicat de la rime arrive, corrompant la police Écriture extorquant et rackettant tout le lotissement Par un flow archi-violent qui par moments saisit aux tifs Le public dans la salle, passe-moi le mic' pour qu'on le motive Faire dérailler la foule comme le fait une locomotive Drive by vocal - pull ! - avec mon micro .22 Long Rifle Duel au soleil face aux MC's qui mollissent Je crache les pieds tendres au cur dur comme le noyau d'une olive En live, explose les watts car mon rap est une ogive Aucun abri musicléaire vous protège des jeunes prodiges Qui extasient comme les pilules, plus excitants qu'un clitoris Le syndicat de la rime arrive et rien qu'on terrorise Je suis le chef de la bande, là où on glande comme l'hypophyse Car l'décor de dehors, ici c'est les ruines d'Acropolis Où l'alphabète reconnaît que sur la carte tu peux lire partout police Faut pas boire au volant, pas de musique, pas de gros spliff Où tu finis en taule, dans les geôles de leur office C'est ça le plus dangereux, mais c'est ça ma terre promise En gros je suis un gué-dro car je suis accro des polis-sonnes à quatre pattes, pour les chattes je suis Baudis Elles sonnent à 4 du mat', quand je me désape elles m'applaudissent Mais si je baise ta fille, ça veut pas dire que je suis ton beau-fils Elle dit qu'elle m'autorise la conduite des gros engins Alors je pénètre dans son... comme un chauffard qu'on motorise Acrobatique au lit comme Chuck Norris aux miss ? Je bois le whisky qu'au lit car je suis alcoolique comme ? Mais je risque de paraître vulgaire d'oh !, j'attends plus qu'on m'autorise Je suis comme Homer Simpson sur ces grosses pierres qui démolissent Nos quartiers en chantier rénovés pour donner aux riches Robin des bois débarque dans les bacs... dafucup comme Onyx Au mix, un couteau sous la carotide du showbiz Hé Cochise ! J'étais déjà sur le mic' quand Ice-T écrivait O.G.'s C'est le syndicat de la rime en stéréo La mémoire est posée sous le micro Dédicace à do ré mi fa sol1</t>
+          <t>Dur Pour demain de par hier comme le truc en pierre qui bat en moi On n'a pas le même itinéraire, merci d'avoir marché près de moi Dur Et pourtant on est brisés quelque part Croyant à tort que l'alcool et les drogues nous réparent Dur En ce moment on se sépare Douloureux tel une naissance pour un nouveau départ Dur Comme de croire qu'on n'avait rien S'apercevoir de ce qu'on perd par la fenêtre d'un train Dur D'imaginer un refrain Poser des mots sur les peines et les faire écouter à quelqu'un Dur Comme le pain sur la planche à partager avec les miens On a tous faim, y a qu'une seule tranche Y en aura bien un qu'aura rien Dur De faire semblant qu'on en est un quand sonne l'alarme du magasin Eh ! Eh ! Chacun connaît son rôle, hein ! Dur D'apprendre à marcher en s'appuyant sur sa propre épaule, hein Dur D'être sûr d'être une ordure et faire la bise à sa maman Avoir des colliers en or pur mais souhaiter que ce soit comme avant Dur De regarder passer le temps comme les habitants d'Île de Pâques Dur Pour tous les gars qui attendent le T-Kaï dans les bacs Y'a trois étapes dans mon état Dur comme la drogue qui m'a rendu comme ça Froid comme les glaçons de mon whisky-coca Seul comme l'amour qui s'endort drapé dans un linceul Froid Comme si mon bâtiment s'apparentait à la banquise Comme si Mister Kawa était parent à Mister Freeze Froid Qu'on se le dise ou qu'on le lise du cristal de ma plume qui coule Froid Comme la peluche de la pub Kiss Cool Pour le deuxième effet de Dooz Kawa Froid en moi et dans mon cur Comme si j'étais tout nu à l'intérieur Froid Comme si c'était la mort le pire Comme si l'amour me faisait peur Comme si être seul et dur était la moindre des douleurs Froid Comme le cri d'un facho Comme le corps d'un frère qu'était pas chaud pour rembourser tout les gars Froid Comme un hiver à bourg-Stra' Froid Comme un hiver à bourg-Stra'... Seul Comme les vingt mecs autour de moi Montre-moi tes amis, je te dirai qui tu es Avec ces gars, tu représentes personne C'est comme si t'existais pas Seul tu parles Seul Comme un pit' à la SPA qui attend sa piqûre puisque l'État n'en a plus cure et que son maître l'assurait pas C'est seul que tu répares l'absence du tendre Comme le hors-la-loi qui s'est fait prendre et menotter devant les gens Seul Comme un keuf intelligent démotivé par ce qu'il voit Seul Comme moi Comme toi Calme-toi, passe le bédo et arrête de tousser C'est pas ta faute, tu sais, si tout va pas comme ça devrait Seul Comme un chèque sur mon CCP Ambiance, c'est CCCP, c'est comme ça depuis le CP Seul Comme Cyrano avec son nez Car même si ton coeur est grand ça remplace pas un porte-monnaie Excuse les potes qui ont volé celui qui nous voit zoner, traîner, au regard louche Qui comprend pas vraiment ce qu'il y a à l'intérieur de nous quand il nous guette depuis le bus Quand j'ai la tête baissée sous la capuche Je t'explique comme ça, juste</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tout le monde lève les bras</t>
+          <t>Trop jeunes pour dormir</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>We came from the distant land Our lives already planned We came in ships from across to sea Never again home we'd see And now we've become American fruit With african roots Que tout le monde lève les bras J'suis pas d'ici moi Niquer l'état C'est mon désir Et je le jure sur le Dalloz Lève le bras droit Que tout le monde lève les bras Et tape la pose Pour tout les gars qui mattent les étoiles Tout en piétinant les roses C'est comme une traversée du désert Pendant que la pluie nous arrose Que tout le monde lève les bras Bourg-stra en force Et j'crois bien qu'ils ont peur qu'on s'approche Qu'on s'rapproche, qu'entre nous on soit proches Que tout le monde lève les bras J'ai Dans les poches des Barrettes de... c'est Pas d'l'encens malgré l'odeur Le bruit du Molodoï jusqu'au Neuhof Parti de zéro en sang Comme la Carrera de Porsche Que tout le monde lève les bras Un pe-ra indécent Comme la carrière à Desproges Pour que la police s'approche Que les cistes-ra lèvent les bras Pendant qu'on leur fera les poches Que tout le monde lève les bras Lève les bras</t>
+          <t>Réveille-toi On est trop jeunes pour dormir Tes Belle comme un orgasme Comme une paire de nike airmax Réeditées Jordan sept Je voudrais técrire des belles phrases Mais jsuis un détruit de la tête Pour moi tes belle comme une machette Comme une poètesse maudite Marcelline déesse port de val dor Comme un glock 9millimètres Où jentrevois ma petite mort Belle comme si cétait trop tard Comme les sirènes des girophares Qui attirent les galériens Sur les trottoirs bano Bernard Tes belle comme des flocons de coke Qui fondent sur le corps de lescort nue Tes belle comme un beau cul Qui crée beaucoup dattraction Tes belle comme lamoureuse Mais sucrée comme la trahison Et tant pis si tu me laisse ici Jai vécu beaucoup de kiffs Comme un orrifice vide pourrait combler un vide affectif ? Y paraît que cest pas très fonctionnel Tas vu comment on fait lamour ? Y paraît que ça sert pas à grand chose Mais ça bouge toujours en proue Réveille toi Je resterais là pour toujours Réveille-toi Lygia On est trop jeunes pour dormir Réveille-toi Lygia Sors de ta léthargie Posés sur le toit SOS en lettres dargiles On est trop jeunes pour dormir Réveille toi Lygia</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Toxique</t>
+          <t>Un jour d’hiver</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Si tu vois tomber la pluie, c'est que j'ai créé un gros ceau-mor J'veux encore planer toute la nuit, comme un oiseau mort T'as besoin de moi, comme un antidote Mais j'ai plus d'ordonnance T'as peur que tout s'arrête, j'ai peur que tout recommence Tu parles mais t'es la pire, ça me rends ouf ta vanité Tu mens comme tu respire, car elle t'étouffe la vérité On se fait plus de mal que de miel Et y'a qu'au cil qu'on demande pardon J'donnerais plus d nouvelles, j'suis en mode avion Si j'me couche tard, c'est que je répare encore mes lésions J'suis un long cauchemar où je fais des rêves bercés d'illusions Dans ce monde j'ai plus trop d'amis, vu que tous mentent Donc doucement, j'refais ma vie, malgré tout c'manque, oui tout c'manque J'suis nombreux dans ma tête, donc peut-être contradictoire J'ai voulu que tout s'arrête, y'a pas de remède à notre histoire J'me méfie de tout, je sais plus en qui croire Parfois en amour on aime que son propre miroir Alors qui croire ? J'vis à l'envers Mon enfer est fait de neige et de froid Tu dis que je me renferme Mais je me protège de toi... Toxique Ou je me protège de moi ? Toxique Toxique J'ai encore du venin sur les lèvres Et j'suis perdu comme dans un mauvais rêve Toxique... Toxique J'irai sur la dune pour abriter le ciel Et faire battre la lune Toxique Toxique, tout ces sales produits que j'ingère Ma copine est triste et s'énerve Bébé je te promets que je gère C'est dingue, de tant se mentir à soi-même Rester présent quand faut partir, de pas le sentir Comme un connard qui se dirait j'me retirerai à temps pour pas jouir J'avais tant d'espoir en ce monde, mais ils entendent pas les coups de semonce Tiré par l'esprit de la nature, le Titanic coule doucement À cause des fous qui nous sabordent, alors j'me la coule douce à bord Et je m'intoxique de tout cet alcool, ouais C'est la faute à vous d'abord, et au passé qui nous tabasse Ouais surtout, au monde ou le courage que j'éprouve À me regarder dans une glace, de pas laisser la place au silence De peur de souffrir, alors que je souffre de peur Alors que de les affronter, quand la lumière est éteinte J'me rends vite compte que c'est moins grave, que la douleur qu'elle me fais craindre Toutes ces nuits où j'éprouve du mal, effrayé par l'épouvantail Alors que si je le retourne, je me rendrais compte que c'est juste une poupée de paille Car on préfère ce qui nous dépanne que le travail qui nous répare Encore un dernier verre, et c'est promis je pars Toxique J'ai encore du venin sur les lèvres Et j'suis perdu comme dans un mauvais rêve Toxique... Toxique J'irai seul sur la dune pour abriter le ciel Et faire battre la lune Toxique Toxique...</t>
+          <t>Voici l'homme-animal J'suis apparu un jour d'hiver et les nuits s'sont allongées Pour ma visite de courtoisie sur le boulevard des allongés Deux mille valses sous demi-lune Éclairant le demi-monde de misère et d'infortune Danse avec moi sur l'avenue Mon amour, mon âme est nue et se consume en papier d'Arménie D'amertume Danse Comme une lettre d'amour cruelle De comte Dracula faisant du mal à sa belle Juste parce qu'il faut qu'ils saignent pour se rappeler qu'ils s'aiment J'ken la sorcière de carnaval car j'ai l'affection cannibale Moi j'adore la race humaine avec du sel et du mezcal Et sans mentir timal j'suis sentimental Brutal en sortie mentale L'irréel me manie mal Quoi ? Apparu un jour d'hiver Qu'est-ce qu'il raconte ? Voici l'homme-animal J'suis apparu un jour d'hiver Le soleil disparut et mes ailes tombèrent à terre J'atterre Gotham City et sa banlieue Où cheminées qui fument dansent avec moi au clair de lune Avant ma haine on vit la joie La nuit tomba si violemment qu'elle assoma les villageois J'suis apparu un jour d'hiver Le soleil disparut et mes ailes tombèrent à terre Attends, paraît que ce monde est le mien Baratin Moi j'suis arrivé, j'avais rien Un peu comme Terminator en plus musclé et sans les vérins C'est bien quand y débarque, hein, au début du film Et qu'y bute 820 gars juste pour carotter un jean Pareil au paria J'ai blessé dans ma manoeuvre le très haut proprio qui n'habite même pas l'immeuble Pied-noir du paradis, j'ai dû partir sans mes meubles un jour d'hiver Quand la neige formait des dunes Mon quartier un désert de bitume Danse avec moi au clair de lune Voici l'homme-animal</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Tristement Célèbre</t>
+          <t>URGENCES MUSICALES</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>C'est pour les miens ça C'est pour tous ceux qui ont croisé ma route J'ai pas assez de haine dans le cur On m'aime guère et c'est la guerre comme à Saïgon J'ai que des ennemis dans le hip-hop et dans sa foule x2 Tristement célèbre parce qu'il reste toujours les mêmes A la fin de la ré-soi frère je suis tristement célèbre Pour T-Kai-Cee ici bas bye Élève de l'école de la rue le prof ne viendra pas Et comme le dit Jean si le monde je pouvais contrôler Tous les gosses dans le ghetto ne serai pas toujours armés Car nos épaules sont larges mais nos jambes sont fatiguées Supportent le poids du passé De notre histoire cassée Ressoudée à l'étain Là où chaque jour le soleil s'éteint Tu peux voir les blocs de loin La maladie s'engouffrer, les mélodies sans refrain J'ai regardé partir les miens Les uns après les autres d'autres se sont perdus en chemin Nous on est partis un soir dans la douceur du mois de juin J'ai du laisser mon cur sur mes tags La vue de ma fenêtre et ses arbres Mes cousins et mon passé Les magasins où on taxait Des pommes et des bonbons On se prenait pour des peaux rouges A taquiner le ballon Au point d'avoir les joues rouges Ajoute une note de violon Pour le jour où Mes potes et moi s'envoleront Comme des oiseaux blessés La tête dans les nuages Malgré nos ailes brisées C'est le moment de s'embrasser Ne soit pas déçu Si au sol on t'a laissé Ange déchu même sans sous Nous volerons sans soucis Un tas d'auréoles pour les délaissés Tristement célèbre les sanglots longs des violons de l'automne m'isolent Débarquement au bloc B Et les feuilles sont tombées Et séchées sur le sol Qu'importe la destination Moi je suis do ré mi fa sol Tristement célèbre sexe violence rap et alcool Pour les anges déchus qui jamais ne redécollent C'est pour ma ville je cass-dédi à tous ceux qui mènent une vie de ouf Heureux les imbéciles c'est pour ça que la ville me bouffe Tristement célèbre parce qu'il reste toujours les mêmes Sous les nuages du système Lorsqu'il pleut sur les HLM Lorsqu'il pleut sur les HLM Tristement célèbre Tous ces gosses qui seuls s'élèvent De personne veulent être l'élève Qui ont mal à leur sourire Comme une gerçure des lèvres Qui ont raté le voyage pour Cythère Clandestins sur Terre pour s'y taire Tu vois ici ça sature Ca tire et puis ça tue Les gamins veulent être des gangsters Les étoiles nous attirent Mais la misère nous enterre Et moi j'use mon jean En chien sur un banc de pierre Seul survivant le king De l'Ancien Testament V-string ??? 1995 Mon bloc une femme enceinte Et la rue c'est comme une nourrice allaitant Les messies au même sein que les délinquants Une pensée à mes ennemis J'étais forcé de prendre partie bababa Aussi choisi ton camp MC Tu sais qu'on a les même ci- Catrices Oh ! ça fait longtemps Le temps nous a changé Et les potes deviennent étranges et Parfois même étrangers Et combien se sont rangés D'autres au 9mm chargé Un futur incertain Rester seul pour certains Où dans l'ombre attendre que passe Le fourgon Securitas Sous cagoules nous on braque même les musées Plus rien d'autre à miser Je dois rire avant de m'amuser De peur de ne jamais sourire le biz' le cash le hash la tise et les tas' Le système la justice la prison la police et l'état Tristement célèbre sur l'MIC Dooz Kawa Plus de pardon quand la lumière cesse de briller Pour les étoiles du sol Surtout si t'évolues seul Et les parents attristés disent Vos linceuls c'est vous même qui les tissez Mais quand tu traîne en bande t'es policé Dans l'école de la rue de la maternelle au lycée Sur mon cur J'ai gardé mon MIC Au milieu des rires moqueurs J'parle d'éducation comme si moi j'obéissais J'écris au BIC Pour ceux qui parle plus à Dieu Raid'n Pro Kawa MC Et mon T-Kai-Cee Heyoh frère c'était écrit Les pauvres seront riches dans leur esprit Les pauvres seront riches dans leur esprit Tristement célèbre parce qu'il reste toujours les mêmes Sous les nuages du système Lorsqu'il pleut sur les HLM Lorsqu'il pleut sur les HLM</t>
+          <t>Autopsie post-mortem, j'veux une p'tite gogo dance Big up à Doctor House, big up à Orson Welles Cest pas une guerre, cest un problème qui nous dépasse Jai une toux grasse et l'nez bouché, cest p't-être un gros gros rhume Cest pas un mètre, cest un fossé qui nous sépare Plus quun fossé moi j'dirais plutôt qu'cest une fosse commune Leurs commentaires cest p't-être le pire des effets secondaires Si la télé m'dit comment faire, moi j'vais faire le contraire Tous les regards me tirent dessus et cte galère me pompe lair Et puis comme ça le fils de pute il sera fier de son père Nous sommes en guerre disent-ils, nous sommes dans l'pire scénar Plutôt une guerre civile, je crois quon en a pris le'départ Une troisième guerre mondiale, je tourne dans cette cuisine Pour lhumain il s'fait tard, la mort se cache dans l'pesticide J'suis dans ma grotte, jai la tête grosse et j'prends une trop grosse cuite Mal à la gorge, voix caverneuse et j'deviens troglodyte À présent fuck lotite, j'cultive ce fat body Virus est uploadé, à vingt heures j't'applaudis Le système D ça veut dire la débrouille, la débrouille Restez chez vous, nous cassez pas les couilles, pas les couilles Pâtes et PQ, voleurs de paquets d'couches Ça les répugne lodeur de ma dépouille Hommage aux soldats abattus, car y en a plein qui sont morts J'deviens un cordon bleu et jai d'jà gratté vingt-huit ceaux-mor Je crois que Dame Nature se venge et quon endurcit les mesures On finira entre quatre planches et j'me sens subir ces murs Pour les soigner il suffit pas quils avalent un vaccin La bêtise plane sur les deux quais du canal Saint-Martin Y a qui pour nous guider, un être humain de type germophobe J'crois quon a tout niqué, même printemps, été, hiver, automne La tension baisse, la fièvre monte cest p't-être quune affaire de vente Jai d'jà connu lenfermement, chez moi cest lEnfer de Dante Le buzz est plus que viral, sort de ma veine saillante Leur aide est plus que vitale, merci aux aide-soignantes Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas On a d'jà fait cent fois les cents pas, à faire des tranchées dans l'parquet Et dans la tête y'a juste la famille, les rents-pa Conscient quon évolue dans un monde bien loin dêtre parfait Rien ne sert de se cacher derrière des remparts Jaccepte pas cette logique d'santé rentable Ils prendraient du cash pour jouer de lorgue à ton enterrement Cest plus la peine de s'la jouer faussement sociaux Sentimentale, votre hypocrisie m'dégoûte tellement Eh, on a affaire à une belle bande de cons finis Ils mettent des amendes à des sans-abris, leur demandent de s'confiner J'crois quon atteint le point de non-retour, Godwin a gagné J'vois des chiffres négatifs défiler sur le compte à rebours Le temps presse, donc plus rien ne me tempère, y a comme un avis de tempête Et la colombe a pris la poudre descampette, putain merde Du mal à nous imaginer à N1 La frontière est fine de Laurent Fabius à Agnès Buzyn La mort frappe à chaque étage et toutes les strates Nos soignants voient des vies senvoler, les autres voient des stat La chute sera violente depuis leur piédestal Tous les voyants sont dans l'rouge et j'crois q'ça leur est bien égal Ils vivent cette crise dans le confort de la distance Mais quand vient l'moment d'sentraider, poto, y a pas d'dispense De lathée au musulman, du juif au catho pratiquant De celles qui arborent les talismans, aux réfugiés du Pakistan Jenvoie toutes ces pensées, ma force aux premières lignes Au corps médical, aux familles des victimes Il ne faut pas que toutes ces pertes ne fassent que partie dun listing Car mourir pour sauver des vies ça mérite toute notre estime On sait bien quils font de leur mieux, dans des conditions déplorables, la rage aux yeux Quand l'cri ne trouve pas doreille, le regard va vers les cieux Mais on n'connait que très bien le sort de ceux qui s'prennent pour Dieu J'rappe à la demande générale, des confinés des hip-hôpitaux Le service durgence musicale cest d'loxygène, mon pote est tôt ? Mon fils de six ans sur la moto, agrippé à mon dos Éviter les barrages cest comme un dédale, cest quune atèle, même pas les pédales Aux soignants garants de nos vies, les frères et surs qui sont au logis Avec mon titre honorifique de rappeur en pneumologie 'Paraît qu'cest la détresse pour mettre des masques au personnel qui va vous soigner Mais pas pour fournir aux CRS, des lacrymos, des LBD Je veux bien ne pas critiquer les lacunes de lÉtat providence Mais le manque de moyens mis dans la santé, dans les respirateurs durgence Macron garde ta morale à toi car y a pas eu d'mort sous ton toit Quand j'vois le salaire des soignants, 'faudrait p't-être faire un moratoire À ta prochaine de chocs vitaux, viens te faire soigner en disgrâce Car tous les hôpitaux de France ne ressemblent pas au Val-de-Grâce Car vous nêtes que des populistes obnubilés par leur carrière Et il ny a plus didéalistes politiques que dans les cimetières Et on n'est pas des arrivistes qui visent à redorer leur blason dans l'peu-ra Au-delà des antibiotiques, le streptocoque doré lemportera On a nos masques de braquage quon prête à ceux qu'en ont besoin On a d'lalcool... mais pas tellement sur les mains Une bande de délinquants morbides, venue faire craquer le Covid Parce quavec un stylo bic, nous on t'fait une trachéo-cro-mi Jai lhabitude des gyrophares, mais cest plus les mêmes sirènes La seule fièvre quon vit quelqu'part, devrait être celle d'NTM La souffrance aux soins est immense, j'ai pas vu d'député mourir Dans les couloirs, sur un brancard des urgences il y a urgence Yeah, p't-être que l'irradiation des villes est la radio-thérapie d'la nature Pour soigner un cancer hostile il faut que lhumain paye sa facture P't-être que cest l'drame dans les villes parce qu'vous êtes juste des fous débiles Mais lorsque lhumain disparaît, reviennent les loups de Tchernobyl Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas On s'retrouvera bientôt autour dune teille en faisant des grosses bringues Mais pour lheure il est temps de retrouver l'bonheur dans des choses simples Angoisse en p'tite surdose, lennemi est invisible Les gens comprennent très bien c'quils risquent depuis qu'le monde sest mis sur pause Mouvement d'panique en grande surface car se joue notre vécu Mais qu'tous ces égoïstes se momifient dans leurs rouleaux d'PQ On était prêt, moi jy crois pas des masses, on rentre dans une sale phase hélas La preuve nos hôpitaux vous ont dit bas les masques Dites-moi c'quil reste en France dès qu'les sirènes senclenchent Dites-moi si j'crève, dites-moi si j'rêve, quon n'était pas si prêt pour une si belle sentence Ça fait quoi d'se retrouver face à sa pire hantise Cest pas l'virus mais la bêtise de lHomme qui nous a pris en grippe Nos vrais héros demandent à s'faire entendre à s'faire entendre Personnel médical qui lutte jour et nuits pour qu'la merde séloigne Merci à ceux qui restent au front malgré la fièvre ambiante Et dites aux inconscients quil y a pire prison que dêtre chez soi Quand la bactérie joue d'la batterie, wow Jentends des cris, des moqueries Confiné, j'dois filer, mon fils finit sa poterie Laisse-moi l'temps d'respirer, jai la zik dans la poitrine Douce sera la médecine, perso j'roule ma sensi La zik ma sauvé, j'rajoute ça à mon autopsie Fuck les aristocrates, oui la richesse est coupable Cousin j'rappe en urgence vu que laction est remarquable Donne la force aux grands-parents, noublie pas la mama Avant qu'les larmes coulent sur le bord dun diaporama Finie lépoque Nirvana, marié à Marijuana Allez, donne-moi une scène on fera des sauts à Serge Lama Non, c'monde n'a rien d'banal, rouya Dooz Kawa Bien sûr j'ai de l'espoir même si l'virus fout l'dawa Oui la prod fout l'fire, et tout l'monde fout l'faya Bien sûr j'ai de l'espoir même si l'virus fout l'dawa Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas Toi tu m'as surpris Comme un rhume Au coin de mon lit Toi tu m'as surpris Comme un rhume Mon épidémie Toi tu m'as surpris Comme un rhume Au coin de mon lit Toi tu m'as surpris Comme un rhume Mon épidémie, toi ma brune</t>
         </is>
       </c>
     </row>
@@ -2719,78 +2719,10 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Trois étapes</t>
+          <t>Utopistes debout !</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
-        <is>
-          <t>Dur Pour demain de par hier comme le truc en pierre qui bat en moi On n'a pas le même itinéraire, merci d'avoir marché près de moi Dur Et pourtant on est brisés quelque part Croyant à tort que l'alcool et les drogues nous réparent Dur En ce moment on se sépare Douloureux tel une naissance pour un nouveau départ Dur Comme de croire qu'on n'avait rien S'apercevoir de ce qu'on perd par la fenêtre d'un train Dur D'imaginer un refrain Poser des mots sur les peines et les faire écouter à quelqu'un Dur Comme le pain sur la planche à partager avec les miens On a tous faim, y a qu'une seule tranche Y en aura bien un qu'aura rien Dur De faire semblant qu'on en est un quand sonne l'alarme du magasin Eh ! Eh ! Chacun connaît son rôle, hein ! Dur D'apprendre à marcher en s'appuyant sur sa propre épaule, hein Dur D'être sûr d'être une ordure et faire la bise à sa maman Avoir des colliers en or pur mais souhaiter que ce soit comme avant Dur De regarder passer le temps comme les habitants d'Île de Pâques Dur Pour tous les gars qui attendent le T-Kaï dans les bacs Y'a trois étapes dans mon état Dur comme la drogue qui m'a rendu comme ça Froid comme les glaçons de mon whisky-coca Seul comme l'amour qui s'endort drapé dans un linceul Froid Comme si mon bâtiment s'apparentait à la banquise Comme si Mister Kawa était parent à Mister Freeze Froid Qu'on se le dise ou qu'on le lise du cristal de ma plume qui coule Froid Comme la peluche de la pub Kiss Cool Pour le deuxième effet de Dooz Kawa Froid en moi et dans mon cur Comme si j'étais tout nu à l'intérieur Froid Comme si c'était la mort le pire Comme si l'amour me faisait peur Comme si être seul et dur était la moindre des douleurs Froid Comme le cri d'un facho Comme le corps d'un frère qu'était pas chaud pour rembourser tout les gars Froid Comme un hiver à bourg-Stra' Froid Comme un hiver à bourg-Stra'... Seul Comme les vingt mecs autour de moi Montre-moi tes amis, je te dirai qui tu es Avec ces gars, tu représentes personne C'est comme si t'existais pas Seul tu parles Seul Comme un pit' à la SPA qui attend sa piqûre puisque l'État n'en a plus cure et que son maître l'assurait pas C'est seul que tu répares l'absence du tendre Comme le hors-la-loi qui s'est fait prendre et menotter devant les gens Seul Comme un keuf intelligent démotivé par ce qu'il voit Seul Comme moi Comme toi Calme-toi, passe le bédo et arrête de tousser C'est pas ta faute, tu sais, si tout va pas comme ça devrait Seul Comme un chèque sur mon CCP Ambiance, c'est CCCP, c'est comme ça depuis le CP Seul Comme Cyrano avec son nez Car même si ton coeur est grand ça remplace pas un porte-monnaie Excuse les potes qui ont volé celui qui nous voit zoner, traîner, au regard louche Qui comprend pas vraiment ce qu'il y a à l'intérieur de nous quand il nous guette depuis le bus Quand j'ai la tête baissée sous la capuche Je t'explique comme ça, juste</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Dooz Kawa</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Trop jeunes pour dormir</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Réveille-toi On est trop jeunes pour dormir Tes Belle comme un orgasme Comme une paire de nike airmax Réeditées Jordan sept Je voudrais técrire des belles phrases Mais jsuis un détruit de la tête Pour moi tes belle comme une machette Comme une poètesse maudite Marcelline déesse port de val dor Comme un glock 9millimètres Où jentrevois ma petite mort Belle comme si cétait trop tard Comme les sirènes des girophares Qui attirent les galériens Sur les trottoirs bano Bernard Tes belle comme des flocons de coke Qui fondent sur le corps de lescort nue Tes belle comme un beau cul Qui crée beaucoup dattraction Tes belle comme lamoureuse Mais sucrée comme la trahison Et tant pis si tu me laisse ici Jai vécu beaucoup de kiffs Comme un orrifice vide pourrait combler un vide affectif ? Y paraît que cest pas très fonctionnel Tas vu comment on fait lamour ? Y paraît que ça sert pas à grand chose Mais ça bouge toujours en proue Réveille toi Je resterais là pour toujours Réveille-toi Lygia On est trop jeunes pour dormir Réveille-toi Lygia Sors de ta léthargie Posés sur le toit SOS en lettres dargiles On est trop jeunes pour dormir Réveille toi Lygia</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Dooz Kawa</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Un jour d’hiver</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Voici l'homme-animal J'suis apparu un jour d'hiver et les nuits s'sont allongées Pour ma visite de courtoisie sur le boulevard des allongés Deux mille valses sous demi-lune Éclairant le demi-monde de misère et d'infortune Danse avec moi sur l'avenue Mon amour, mon âme est nue et se consume en papier d'Arménie D'amertume Danse Comme une lettre d'amour cruelle De comte Dracula faisant du mal à sa belle Juste parce qu'il faut qu'ils saignent pour se rappeler qu'ils s'aiment J'ken la sorcière de carnaval car j'ai l'affection cannibale Moi j'adore la race humaine avec du sel et du mezcal Et sans mentir timal j'suis sentimental Brutal en sortie mentale L'irréel me manie mal Quoi ? Apparu un jour d'hiver Qu'est-ce qu'il raconte ? Voici l'homme-animal J'suis apparu un jour d'hiver Le soleil disparut et mes ailes tombèrent à terre J'atterre Gotham City et sa banlieue Où cheminées qui fument dansent avec moi au clair de lune Avant ma haine on vit la joie La nuit tomba si violemment qu'elle assoma les villageois J'suis apparu un jour d'hiver Le soleil disparut et mes ailes tombèrent à terre Attends, paraît que ce monde est le mien Baratin Moi j'suis arrivé, j'avais rien Un peu comme Terminator en plus musclé et sans les vérins C'est bien quand y débarque, hein, au début du film Et qu'y bute 820 gars juste pour carotter un jean Pareil au paria J'ai blessé dans ma manoeuvre le très haut proprio qui n'habite même pas l'immeuble Pied-noir du paradis, j'ai dû partir sans mes meubles un jour d'hiver Quand la neige formait des dunes Mon quartier un désert de bitume Danse avec moi au clair de lune Voici l'homme-animal</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Dooz Kawa</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>URGENCES MUSICALES</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Autopsie post-mortem, j'veux une p'tite gogo dance Big up à Doctor House, big up à Orson Welles Cest pas une guerre, cest un problème qui nous dépasse Jai une toux grasse et l'nez bouché, cest p't-être un gros gros rhume Cest pas un mètre, cest un fossé qui nous sépare Plus quun fossé moi j'dirais plutôt qu'cest une fosse commune Leurs commentaires cest p't-être le pire des effets secondaires Si la télé m'dit comment faire, moi j'vais faire le contraire Tous les regards me tirent dessus et cte galère me pompe lair Et puis comme ça le fils de pute il sera fier de son père Nous sommes en guerre disent-ils, nous sommes dans l'pire scénar Plutôt une guerre civile, je crois quon en a pris le'départ Une troisième guerre mondiale, je tourne dans cette cuisine Pour lhumain il s'fait tard, la mort se cache dans l'pesticide J'suis dans ma grotte, jai la tête grosse et j'prends une trop grosse cuite Mal à la gorge, voix caverneuse et j'deviens troglodyte À présent fuck lotite, j'cultive ce fat body Virus est uploadé, à vingt heures j't'applaudis Le système D ça veut dire la débrouille, la débrouille Restez chez vous, nous cassez pas les couilles, pas les couilles Pâtes et PQ, voleurs de paquets d'couches Ça les répugne lodeur de ma dépouille Hommage aux soldats abattus, car y en a plein qui sont morts J'deviens un cordon bleu et jai d'jà gratté vingt-huit ceaux-mor Je crois que Dame Nature se venge et quon endurcit les mesures On finira entre quatre planches et j'me sens subir ces murs Pour les soigner il suffit pas quils avalent un vaccin La bêtise plane sur les deux quais du canal Saint-Martin Y a qui pour nous guider, un être humain de type germophobe J'crois quon a tout niqué, même printemps, été, hiver, automne La tension baisse, la fièvre monte cest p't-être quune affaire de vente Jai d'jà connu lenfermement, chez moi cest lEnfer de Dante Le buzz est plus que viral, sort de ma veine saillante Leur aide est plus que vitale, merci aux aide-soignantes Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas On a d'jà fait cent fois les cents pas, à faire des tranchées dans l'parquet Et dans la tête y'a juste la famille, les rents-pa Conscient quon évolue dans un monde bien loin dêtre parfait Rien ne sert de se cacher derrière des remparts Jaccepte pas cette logique d'santé rentable Ils prendraient du cash pour jouer de lorgue à ton enterrement Cest plus la peine de s'la jouer faussement sociaux Sentimentale, votre hypocrisie m'dégoûte tellement Eh, on a affaire à une belle bande de cons finis Ils mettent des amendes à des sans-abris, leur demandent de s'confiner J'crois quon atteint le point de non-retour, Godwin a gagné J'vois des chiffres négatifs défiler sur le compte à rebours Le temps presse, donc plus rien ne me tempère, y a comme un avis de tempête Et la colombe a pris la poudre descampette, putain merde Du mal à nous imaginer à N1 La frontière est fine de Laurent Fabius à Agnès Buzyn La mort frappe à chaque étage et toutes les strates Nos soignants voient des vies senvoler, les autres voient des stat La chute sera violente depuis leur piédestal Tous les voyants sont dans l'rouge et j'crois q'ça leur est bien égal Ils vivent cette crise dans le confort de la distance Mais quand vient l'moment d'sentraider, poto, y a pas d'dispense De lathée au musulman, du juif au catho pratiquant De celles qui arborent les talismans, aux réfugiés du Pakistan Jenvoie toutes ces pensées, ma force aux premières lignes Au corps médical, aux familles des victimes Il ne faut pas que toutes ces pertes ne fassent que partie dun listing Car mourir pour sauver des vies ça mérite toute notre estime On sait bien quils font de leur mieux, dans des conditions déplorables, la rage aux yeux Quand l'cri ne trouve pas doreille, le regard va vers les cieux Mais on n'connait que très bien le sort de ceux qui s'prennent pour Dieu J'rappe à la demande générale, des confinés des hip-hôpitaux Le service durgence musicale cest d'loxygène, mon pote est tôt ? Mon fils de six ans sur la moto, agrippé à mon dos Éviter les barrages cest comme un dédale, cest quune atèle, même pas les pédales Aux soignants garants de nos vies, les frères et surs qui sont au logis Avec mon titre honorifique de rappeur en pneumologie 'Paraît qu'cest la détresse pour mettre des masques au personnel qui va vous soigner Mais pas pour fournir aux CRS, des lacrymos, des LBD Je veux bien ne pas critiquer les lacunes de lÉtat providence Mais le manque de moyens mis dans la santé, dans les respirateurs durgence Macron garde ta morale à toi car y a pas eu d'mort sous ton toit Quand j'vois le salaire des soignants, 'faudrait p't-être faire un moratoire À ta prochaine de chocs vitaux, viens te faire soigner en disgrâce Car tous les hôpitaux de France ne ressemblent pas au Val-de-Grâce Car vous nêtes que des populistes obnubilés par leur carrière Et il ny a plus didéalistes politiques que dans les cimetières Et on n'est pas des arrivistes qui visent à redorer leur blason dans l'peu-ra Au-delà des antibiotiques, le streptocoque doré lemportera On a nos masques de braquage quon prête à ceux qu'en ont besoin On a d'lalcool... mais pas tellement sur les mains Une bande de délinquants morbides, venue faire craquer le Covid Parce quavec un stylo bic, nous on t'fait une trachéo-cro-mi Jai lhabitude des gyrophares, mais cest plus les mêmes sirènes La seule fièvre quon vit quelqu'part, devrait être celle d'NTM La souffrance aux soins est immense, j'ai pas vu d'député mourir Dans les couloirs, sur un brancard des urgences il y a urgence Yeah, p't-être que l'irradiation des villes est la radio-thérapie d'la nature Pour soigner un cancer hostile il faut que lhumain paye sa facture P't-être que cest l'drame dans les villes parce qu'vous êtes juste des fous débiles Mais lorsque lhumain disparaît, reviennent les loups de Tchernobyl Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas On s'retrouvera bientôt autour dune teille en faisant des grosses bringues Mais pour lheure il est temps de retrouver l'bonheur dans des choses simples Angoisse en p'tite surdose, lennemi est invisible Les gens comprennent très bien c'quils risquent depuis qu'le monde sest mis sur pause Mouvement d'panique en grande surface car se joue notre vécu Mais qu'tous ces égoïstes se momifient dans leurs rouleaux d'PQ On était prêt, moi jy crois pas des masses, on rentre dans une sale phase hélas La preuve nos hôpitaux vous ont dit bas les masques Dites-moi c'quil reste en France dès qu'les sirènes senclenchent Dites-moi si j'crève, dites-moi si j'rêve, quon n'était pas si prêt pour une si belle sentence Ça fait quoi d'se retrouver face à sa pire hantise Cest pas l'virus mais la bêtise de lHomme qui nous a pris en grippe Nos vrais héros demandent à s'faire entendre à s'faire entendre Personnel médical qui lutte jour et nuits pour qu'la merde séloigne Merci à ceux qui restent au front malgré la fièvre ambiante Et dites aux inconscients quil y a pire prison que dêtre chez soi Quand la bactérie joue d'la batterie, wow Jentends des cris, des moqueries Confiné, j'dois filer, mon fils finit sa poterie Laisse-moi l'temps d'respirer, jai la zik dans la poitrine Douce sera la médecine, perso j'roule ma sensi La zik ma sauvé, j'rajoute ça à mon autopsie Fuck les aristocrates, oui la richesse est coupable Cousin j'rappe en urgence vu que laction est remarquable Donne la force aux grands-parents, noublie pas la mama Avant qu'les larmes coulent sur le bord dun diaporama Finie lépoque Nirvana, marié à Marijuana Allez, donne-moi une scène on fera des sauts à Serge Lama Non, c'monde n'a rien d'banal, rouya Dooz Kawa Bien sûr j'ai de l'espoir même si l'virus fout l'dawa Oui la prod fout l'fire, et tout l'monde fout l'faya Bien sûr j'ai de l'espoir même si l'virus fout l'dawa Je rappe avec ma force, tu connais ma technique Jécris dans lombre, j'prépare des bombes, jexplose Jenvoie c'flow d'mots pour percer la foule On rappe le brassage des plus démunis Ce que jai pour marquer mon temps, pour marquer nos temps La rage car ce monde ne nous correspond pas Où Babylone sengraisse pendant quon crève en bas Toi tu m'as surpris Comme un rhume Au coin de mon lit Toi tu m'as surpris Comme un rhume Mon épidémie Toi tu m'as surpris Comme un rhume Au coin de mon lit Toi tu m'as surpris Comme un rhume Mon épidémie, toi ma brune</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Dooz Kawa</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Utopistes debout !</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
         <is>
           <t>Représente man Et même si nos chemins sont des chemins de boue Qu'on avance à genoux Utopistes debout ! Et même s'il est éteint le soleil dedans de nous L'obscurité nous étreint Utopistes debout ! Et même si ceux qui font qu'on saigne, veulent après qu'on s'rallie Pour combattre le système frère qui nous a trop salit Réveillez-vous ! Puisqu'il est l'heure de rêver Utopistes debout Même si on meurt à en crever Anarchistes ! Eh ! Ecoute pleurer ton âme Chemise cravate et masque, gouvernés par des ânes Anarchistes ! Eh ! Où sont tes idéaux ? Dans les tiroirs des bureaux commandés par des idiots Anarchistes ! Eh ! Rappelle toi quand t'y étais Manif' 68 dis tu revois les yéyés ? Anarchistes ! Efface tes traces de neige Reprend du temps qui passe et du Xanax au ptit déj Samples divers Et même si nos chemins sont des chemins de boue Qu'on avance à genoux Utopistes debout ! Et même s'il est éteint le soleil dedans de nous L'obscurité nous étreint Utopistes debout !</t>
         </is>
